--- a/Dragonfall/gameData/shared/PvE.xlsx
+++ b/Dragonfall/gameData/shared/PvE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="0" windowWidth="37540" windowHeight="19500" tabRatio="566"/>
+    <workbookView xWindow="1580" yWindow="660" windowWidth="37540" windowHeight="19500" tabRatio="566"/>
   </bookViews>
   <sheets>
     <sheet name="sections" sheetId="12" r:id="rId1"/>
@@ -1548,15 +1548,15 @@
   </si>
   <si>
     <t>STR_sectionName</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>true</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>false</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>STR_rewards</t>
@@ -1689,15 +1689,15 @@
   </si>
   <si>
     <t>STR_stageName</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>STR_needStar</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>STR_rewards</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>soldierMaterials:heroBones:24,soldierMaterials:magicBox:24,items:stoneBonus_1:1</t>
@@ -1917,23 +1917,23 @@
   </si>
   <si>
     <t>BOOL_starAble</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_sweepAble</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>INT_staminaUsed</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>INT_maxFightCount</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>STR_terrain</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>iceField</t>
@@ -2773,1510 +2773,1512 @@
     <t>blueDragon:1:1,catapult_1:1:7,swordsman_1:1:11,lancer_1:1:4,ranger_1:1:4</t>
   </si>
   <si>
-    <t>blueDragon:1:1,skeletonArcher:8,meatWagon:3,skeletonWarrior:4,deathKnight:1</t>
-  </si>
-  <si>
     <t>blueDragon:1:1,swordsman_1:1:24,lancer_1:1:9,ranger_1:1:12,catapult_1:1:3</t>
   </si>
   <si>
     <t>blueDragon:1:1,horseArcher_1:1:18,ranger_1:1:27,catapult_1:1:9,swordsman_1:1:9</t>
   </si>
   <si>
-    <t>blueDragon:1:2,meatWagon:10,skeletonWarrior:15,deathKnight:5,skeletonArcher:5</t>
-  </si>
-  <si>
     <t>blueDragon:1:2,crossbowman_1:1:60,catapult_1:1:22,swordsman_1:1:30,lancer_1:1:7</t>
   </si>
   <si>
     <t>blueDragon:1:2,sentinel_1:1:72,lancer_1:1:27,ranger_1:1:36,catapult_1:1:9</t>
   </si>
   <si>
-    <t>blueDragon:1:2,deathKnight:17,skeletonArcher:26,meatWagon:8,skeletonWarrior:9</t>
-  </si>
-  <si>
     <t>blueDragon:1:2,ballista_1:1:48,sentinel_1:1:72,lancer_1:1:24,ranger_1:1:24</t>
   </si>
   <si>
     <t>blueDragon:1:2,crossbowman_1:1:108,ballista_1:1:40,swordsman_1:1:54,lancer_1:1:13</t>
   </si>
   <si>
-    <t>blueDragon:1:2,skeletonWarrior:48,deathKnight:18,skeletonArcher:24,meatWagon:6</t>
-  </si>
-  <si>
     <t>blueDragon:1:2,horseArcher_1:1:66,crossbowman_1:1:99,ballista_1:1:33,swordsman_1:1:33</t>
   </si>
   <si>
     <t>blueDragon:1:2,ballista_1:1:72,sentinel_1:1:108,horseArhcer_1:1:36,ranger_1:1:36</t>
   </si>
   <si>
-    <t>blueDragon:1:2,skeletonArcher:63,meatWagon:23,skeletonWarrior:32,deathKnight:8</t>
-  </si>
-  <si>
     <t>blueDragon:1:2,sentinel_1:1:168,horseArcher_1:1:63,crossbowman_1:1:84,catapult_1:1:21</t>
   </si>
   <si>
     <t>blueDragon:1:2,horseArcher_1:1:90,crossbowman_1:1:135,ballista_1:1:45,sentinel_1:1:45</t>
   </si>
   <si>
-    <t>blueDragon:1:2,meatWagon:38,skeletonWarrior:58,deathKnight:19,skeletonArcher:20</t>
-  </si>
-  <si>
     <t>blueDragon:1:3,crossbowman_1:1:204,ballista_1:1:76,sentinel_1:1:102,horseArcher_1:1:25</t>
   </si>
   <si>
     <t>blueDragon:1:3,sentinel_1:1:216,horseArcher_1:1:81,crossbowman_1:1:108,ballista_1:1:27</t>
   </si>
   <si>
-    <t>blueDragon:1:3,deathKnight:46,skeletonArcher:69,meatWagon:23,skeletonWarrior:23</t>
-  </si>
-  <si>
     <t>blueDragon:1:3,catapult_1:1:120,swordsman_1:1:180,lancer_1:1:60,ranger_1:1:60</t>
   </si>
   <si>
     <t>blueDragon:1:3,ranger_1:1:252,catapult_1:1:94,swordsman_1:1:126,lancer_1:1:31</t>
   </si>
   <si>
-    <t>blueDragon:1:3,skeletonWarrior:106,deathKnight:40,skeletonArcher:53,meatWagon:13</t>
-  </si>
-  <si>
     <t>blueDragon:1:3,horseArcher_1:1:138,ranger_1:1:207,catapult_1:1:69,swordsman_1:1:69</t>
   </si>
   <si>
     <t>blueDragon:1:3,ballista_1:1:144,swordsman_1:1:216,lancer_1:1:72,ranger_1:1:72</t>
   </si>
   <si>
-    <t>blueDragon:1:3,skeletonArcher:120,meatWagon:45,skeletonWarrior:60,deathKnight:15</t>
-  </si>
-  <si>
     <t>blueDragon:1:3,sentinel_1:1:312,lancer_1:1:117,ranger_1:1:156,catapult_1:1:39</t>
   </si>
   <si>
     <t>blueDragon:1:3,horseArcher_1:1:162,crossbowman_1:1:243,catapult_1:1:81,swordsman_1:1:81</t>
   </si>
   <si>
-    <t>blueDragon:1:3,meatWagon:67,skeletonWarrior:101,deathKnight:34,skeletonArcher:34</t>
-  </si>
-  <si>
     <t>blueDragon:1:3,crossbowman_1:1:348,ballista_1:1:130,swordsman_1:1:174,lancer_1:1:43</t>
   </si>
   <si>
     <t>blueDragon:1:4,sentinel_1:1:360,horseArcher_1:1:135,ranger_1:1:180,catapult_1:1:45</t>
   </si>
   <si>
-    <t>blueDragon:1:4,deathKnight:74,skeletonArcher:112,meatWagon:37,skeletonWarrior:38</t>
-  </si>
-  <si>
     <t>blueDragon:1:4,ballista_1:1:192,sentinel_1:1:288,horseArhcer_1:1:96,ranger_1:1:96</t>
   </si>
   <si>
     <t>blueDragon:1:4,crossbowman_1:1:396,ballista_1:1:148,sentinel_1:1:198,lancer_1:1:49</t>
   </si>
   <si>
-    <t>blueDragon:1:4,skeletonWarrior:164,deathKnight:61,skeletonArcher:82,meatWagon:20</t>
-  </si>
-  <si>
     <t>blueDragon:1:4,horseArcher_1:1:210,crossbowman_1:1:315,ballista_1:1:105,sentinel_1:1:105</t>
   </si>
   <si>
     <t>blueDragon:1:4,ballista_1:1:216,sentinel_1:1:324,horseArhcer_1:1:108,crossbowman_1:1:108</t>
   </si>
   <si>
-    <t>blueDragon:1:4,skeletonArcher:178,meatWagon:67,skeletonWarrior:89,deathKnight:22</t>
-  </si>
-  <si>
     <t>blueDragon:1:4,sentinel_1:1:456,horseArcher_1:1:171,crossbowman_1:1:228,ballista_1:1:57</t>
   </si>
   <si>
     <t>blueDragon:1:4,lancer_1:1:234,ranger_1:1:351,catapult_1:1:117,swordsman_1:1:117</t>
   </si>
   <si>
-    <t>blueDragon:1:4,meatWagon:96,skeletonWarrior:144,deathKnight:48,skeletonArcher:48</t>
-  </si>
-  <si>
     <t>greenDragon:1:4,ranger_1:1:492,catapult_1:1:184,swordsman_1:1:246,lancer_1:1:61</t>
   </si>
   <si>
     <t>greenDragon:1:4,swordsman_1:1:504,lancer_1:1:189,ranger_1:1:252,catapult_1:1:63</t>
   </si>
   <si>
-    <t>greenDragon:1:5,deathKnight:103,skeletonArcher:155,meatWagon:52,skeletonWarrior:52</t>
-  </si>
-  <si>
     <t>greenDragon:1:5,ballista_1:1:264,swordsman_1:1:396,lancer_1:1:132,ranger_1:1:132</t>
   </si>
   <si>
     <t>greenDragon:1:5,crossbowman_1:1:540,catapult_1:1:202,swordsman_1:1:270,lancer_1:1:67</t>
   </si>
   <si>
-    <t>greenDragon:1:5,skeletonWarrior:221,deathKnight:83,skeletonArcher:111,meatWagon:28</t>
-  </si>
-  <si>
     <t>greenDragon:1:5,horseArcher_1:1:282,crossbowman_1:1:423,catapult_1:1:141,swordsman_1:1:141</t>
   </si>
   <si>
     <t>greenDragon:1:5,ballista_1:1:288,sentinel_1:1:432,lancer_1:1:144,ranger_1:1:144</t>
   </si>
   <si>
-    <t>greenDragon:1:5,skeletonArcher:236,meatWagon:88,skeletonWarrior:118,deathKnight:29</t>
-  </si>
-  <si>
     <t>greenDragon:1:5,sentinel_1:1:600,horseArcher_1:1:225,ranger_1:1:300,catapult_1:1:75</t>
   </si>
   <si>
     <t>greenDragon:1:5,horseArcher_1:1:306,crossbowman_1:1:459,ballista_1:1:153,swordsman_1:1:153</t>
   </si>
   <si>
-    <t>greenDragon:1:5,meatWagon:125,skeletonWarrior:188,deathKnight:62,skeletonArcher:63</t>
-  </si>
-  <si>
     <t>greenDragon:1:5,crossbowman_1:1:636,ballista_1:1:238,sentinel_1:1:318,lancer_1:1:79</t>
   </si>
   <si>
     <t>greenDragon:1:5,sentinel_1:1:648,horseArcher_1:1:243,crossbowman_1:1:324,catapult_1:1:81</t>
   </si>
   <si>
-    <t>greenDragon:1:5,deathKnight:132,skeletonArcher:198,meatWagon:66,skeletonWarrior:66</t>
-  </si>
-  <si>
     <t>greenDragon:1:6,ballista_1:1:336,sentinel_1:1:504,horseArhcer_1:1:168,crossbowman_1:1:168</t>
   </si>
   <si>
     <t>greenDragon:1:6,crossbowman_1:1:684,ballista_1:1:256,sentinel_1:1:342,horseArcher_1:1:85</t>
   </si>
   <si>
-    <t>greenDragon:1:6,skeletonWarrior:279,deathKnight:104,skeletonArcher:140,meatWagon:35</t>
-  </si>
-  <si>
     <t>greenDragon:1:6,lancer_1:1:354,ranger_1:1:531,catapult_1:1:177,swordsman_1:1:177</t>
   </si>
   <si>
     <t>greenDragon:1:6,catapult_1:1:360,swordsman_1:1:540,lancer_1:1:180,ranger_1:1:180</t>
   </si>
   <si>
-    <t>greenDragon:1:6,skeletonArcher:293,meatWagon:110,skeletonWarrior:147,deathKnight:37</t>
-  </si>
-  <si>
     <t>greenDragon:1:6,swordsman_1:2:744,lancer_1:2:279,ranger_1:2:372,catapult_1:2:93</t>
   </si>
   <si>
     <t>greenDragon:1:6,horseArcher_1:2:378,ranger_1:2:567,catapult_1:2:189,swordsman_1:2:189</t>
   </si>
   <si>
-    <t>greenDragon:1:6,meatWagon:230,skeletonWarrior:346,deathKnight:115,skeletonArcher:116</t>
-  </si>
-  <si>
     <t>greenDragon:1:6,crossbowman_1:2:780,catapult_1:2:292,swordsman_1:2:390,lancer_1:2:97</t>
   </si>
   <si>
     <t>greenDragon:1:6,sentinel_1:2:792,lancer_1:2:297,ranger_1:2:396,catapult_1:2:99</t>
   </si>
   <si>
-    <t>greenDragon:1:6,deathKnight:241,skeletonArcher:362,meatWagon:121,skeletonWarrior:121</t>
-  </si>
-  <si>
     <t>greenDragon:1:6,ballista_1:2:408,sentinel_1:2:612,lancer_1:2:204,ranger_1:2:204</t>
   </si>
   <si>
     <t>greenDragon:1:7,crossbowman_1:2:828,ballista_1:2:310,swordsman_1:2:414,lancer_1:2:103</t>
   </si>
   <si>
-    <t>greenDragon:1:7,skeletonWarrior:504,deathKnight:189,skeletonArcher:252,meatWagon:63</t>
-  </si>
-  <si>
     <t>greenDragon:1:7,horseArcher_1:2:426,crossbowman_1:2:639,ballista_1:2:213,swordsman_1:2:213</t>
   </si>
   <si>
     <t>greenDragon:1:7,ballista_1:2:432,sentinel_1:2:648,horseArhcer_1:2:216,ranger_1:2:216</t>
   </si>
   <si>
-    <t>greenDragon:1:7,skeletonArcher:526,meatWagon:197,skeletonWarrior:263,deathKnight:66</t>
-  </si>
-  <si>
     <t>greenDragon:1:7,sentinel_1:2:888,horseArcher_1:2:333,crossbowman_1:2:444,catapult_1:2:111</t>
   </si>
   <si>
     <t>greenDragon:1:7,horseArcher_1:2:450,crossbowman_1:2:675,ballista_1:2:225,sentinel_1:2:225</t>
   </si>
   <si>
-    <t>greenDragon:1:7,meatWagon:274,skeletonWarrior:411,deathKnight:137,skeletonArcher:137</t>
-  </si>
-  <si>
     <t>greenDragon:1:7,crossbowman_1:2:924,ballista_1:2:346,sentinel_1:2:462,horseArcher_1:2:115</t>
   </si>
   <si>
     <t>greenDragon:1:7,sentinel_1:2:936,horseArcher_1:2:351,crossbowman_1:2:468,ballista_1:2:117</t>
   </si>
   <si>
-    <t>greenDragon:1:7,deathKnight:284,skeletonArcher:427,meatWagon:142,skeletonWarrior:143</t>
-  </si>
-  <si>
     <t>greenDragon:1:7,catapult_1:2:480,swordsman_1:2:720,lancer_1:2:240,ranger_1:2:240</t>
   </si>
   <si>
     <t>greenDragon:1:7,ranger_1:2:972,catapult_1:2:364,swordsman_1:2:486,lancer_1:2:121</t>
   </si>
   <si>
-    <t>greenDragon:1:8,skeletonWarrior:591,deathKnight:221,skeletonArcher:296,meatWagon:74</t>
-  </si>
-  <si>
     <t>redDragon:1:8,horseArcher_1:2:498,ranger_1:2:747,catapult_1:2:249,swordsman_1:2:249</t>
   </si>
   <si>
     <t>redDragon:1:8,ballista_1:2:504,swordsman_1:2:756,lancer_1:2:252,ranger_1:2:252</t>
   </si>
   <si>
-    <t>redDragon:1:8,skeletonArcher:612,meatWagon:229,skeletonWarrior:306,deathKnight:76</t>
-  </si>
-  <si>
     <t>redDragon:1:8,sentinel_1:2:1032,lancer_1:2:387,ranger_1:2:516,catapult_1:2:129</t>
   </si>
   <si>
     <t>redDragon:1:8,horseArcher_1:2:522,crossbowman_1:2:783,catapult_1:2:261,swordsman_1:2:261</t>
   </si>
   <si>
-    <t>redDragon:1:8,meatWagon:317,skeletonWarrior:476,deathKnight:158,skeletonArcher:159</t>
-  </si>
-  <si>
     <t>redDragon:1:8,crossbowman_1:2:1068,ballista_1:2:400,swordsman_1:2:534,lancer_1:2:133</t>
   </si>
   <si>
     <t>redDragon:1:8,sentinel_1:2:1080,horseArcher_1:2:405,ranger_1:2:540,catapult_1:2:135</t>
   </si>
   <si>
-    <t>redDragon:1:8,deathKnight:328,skeletonArcher:492,meatWagon:164,skeletonWarrior:164</t>
-  </si>
-  <si>
     <t>redDragon:1:8,ballista_1:2:552,sentinel_1:2:828,horseArhcer_1:2:276,ranger_1:2:276</t>
   </si>
   <si>
     <t>redDragon:1:8,crossbowman_1:2:1116,ballista_1:2:418,sentinel_1:2:558,lancer_1:2:139</t>
   </si>
   <si>
-    <t>redDragon:1:8,skeletonWarrior:677,deathKnight:254,skeletonArcher:339,meatWagon:85</t>
-  </si>
-  <si>
     <t>redDragon:1:9,horseArcher_1:2:570,crossbowman_1:2:855,ballista_1:2:285,sentinel_1:2:285</t>
   </si>
   <si>
     <t>redDragon:1:9,ballista_1:2:576,sentinel_1:2:864,horseArhcer_1:2:288,crossbowman_1:2:288</t>
   </si>
   <si>
-    <t>redDragon:1:9,skeletonArcher:699,meatWagon:262,skeletonWarrior:350,deathKnight:87</t>
-  </si>
-  <si>
     <t>redDragon:1:9,sentinel_1:2:1176,horseArcher_1:2:441,crossbowman_1:2:588,ballista_1:2:147</t>
   </si>
   <si>
     <t>redDragon:1:9,lancer_1:2:594,ranger_1:2:891,catapult_1:2:297,swordsman_1:2:297</t>
   </si>
   <si>
-    <t>redDragon:1:9,meatWagon:360,skeletonWarrior:540,deathKnight:180,skeletonArcher:180</t>
-  </si>
-  <si>
     <t>redDragon:1:9,ranger_1:2:1212,catapult_1:2:454,swordsman_1:2:606,lancer_1:2:151</t>
   </si>
   <si>
     <t>redDragon:1:9,swordsman_1:2:1224,lancer_1:2:459,ranger_1:2:612,catapult_1:2:153</t>
   </si>
   <si>
-    <t>redDragon:1:9,deathKnight:371,skeletonArcher:557,meatWagon:185,skeletonWarrior:186</t>
-  </si>
-  <si>
     <t>redDragon:1:9,ballista_1:2:624,swordsman_1:2:936,lancer_1:2:312,ranger_1:2:312</t>
   </si>
   <si>
     <t>redDragon:1:9,crossbowman_1:2:1260,catapult_1:2:472,swordsman_1:2:630,lancer_1:2:157</t>
   </si>
   <si>
-    <t>redDragon:1:9,skeletonWarrior:764,deathKnight:286,skeletonArcher:382,meatWagon:95</t>
-  </si>
-  <si>
     <t>redDragon:1:9,horseArcher_1:2:642,crossbowman_1:2:963,catapult_1:2:321,swordsman_1:2:321</t>
   </si>
   <si>
     <t>redDragon:1:10,ballista_1:2:648,sentinel_1:2:972,lancer_1:2:324,ranger_1:2:324</t>
   </si>
   <si>
-    <t>redDragon:1:10,skeletonArcher:785,meatWagon:294,skeletonWarrior:393,deathKnight:98</t>
-  </si>
-  <si>
     <t>redDragon:1:10,sentinel_1:2:1320,horseArcher_1:2:495,ranger_1:2:660,catapult_1:2:165</t>
   </si>
   <si>
     <t>redDragon:1:10,horseArcher_1:2:666,crossbowman_1:2:999,ballista_1:2:333,swordsman_1:2:333</t>
   </si>
   <si>
-    <t>redDragon:1:10,meatWagon:403,skeletonWarrior:605,deathKnight:202,skeletonArcher:202</t>
-  </si>
-  <si>
     <t>redDragon:1:10,crossbowman_1:2:1356,ballista_1:2:508,sentinel_1:2:678,lancer_1:2:169</t>
   </si>
   <si>
     <t>redDragon:1:10,sentinel_1:2:1368,horseArcher_1:2:513,crossbowman_1:2:684,catapult_1:2:171</t>
   </si>
   <si>
-    <t>redDragon:1:10,deathKnight:414,skeletonArcher:621,meatWagon:207,skeletonWarrior:207</t>
-  </si>
-  <si>
     <t>redDragon:1:10,ballista_1:2:696,sentinel_1:2:1044,horseArhcer_1:2:348,crossbowman_1:2:348</t>
   </si>
   <si>
     <t>redDragon:1:10,crossbowman_1:2:1404,ballista_1:2:526,sentinel_1:2:702,horseArcher_1:2:175</t>
   </si>
   <si>
-    <t>redDragon:1:10,skeletonWarrior:850,deathKnight:319,skeletonArcher:425,meatWagon:106</t>
-  </si>
-  <si>
     <t>redDragon:1:10,lancer_1:2:714,ranger_1:2:1071,catapult_1:2:357,swordsman_1:2:357</t>
   </si>
   <si>
     <t>redDragon:1:10,catapult_1:2:720,swordsman_1:2:1080,lancer_1:2:360,ranger_1:2:360</t>
   </si>
   <si>
-    <t>redDragon:2:11,skeletonArcher:872,meatWagon:327,skeletonWarrior:436,deathKnight:109</t>
-  </si>
-  <si>
     <t>redDragon:2:11,swordsman_1:2:1464,lancer_1:2:549,ranger_1:2:732,catapult_1:2:183</t>
   </si>
   <si>
     <t>redDragon:2:11,horseArcher_1:2:738,ranger_1:2:1107,catapult_1:2:369,swordsman_1:2:369</t>
   </si>
   <si>
-    <t>redDragon:2:11,meatWagon:446,skeletonWarrior:670,deathKnight:223,skeletonArcher:224</t>
-  </si>
-  <si>
     <t>blueDragon:2:11,crossbowman_1:3:1500,catapult_1:3:562,swordsman_1:3:750,lancer_1:3:187</t>
   </si>
   <si>
     <t>blueDragon:2:11,sentinel_1:3:1512,lancer_1:3:567,ranger_1:3:756,catapult_1:3:189</t>
   </si>
   <si>
-    <t>blueDragon:2:11,deathKnight:610,skeletonArcher:915,meatWagon:305,skeletonWarrior:305</t>
-  </si>
-  <si>
     <t>blueDragon:2:11,ballista_1:3:768,sentinel_1:3:1152,lancer_1:3:384,ranger_1:3:384</t>
   </si>
   <si>
     <t>blueDragon:2:11,crossbowman_1:3:1548,ballista_1:3:580,swordsman_1:3:774,lancer_1:3:193</t>
   </si>
   <si>
-    <t>blueDragon:2:11,skeletonWarrior:1248,deathKnight:468,skeletonArcher:624,meatWagon:156</t>
-  </si>
-  <si>
     <t>blueDragon:2:11,horseArcher_1:3:786,crossbowman_1:3:1179,ballista_1:3:393,swordsman_1:3:393</t>
   </si>
   <si>
     <t>blueDragon:2:11,ballista_1:3:792,sentinel_1:3:1188,horseArhcer_1:3:396,ranger_1:3:396</t>
   </si>
   <si>
-    <t>blueDragon:2:11,skeletonArcher:1277,meatWagon:479,skeletonWarrior:639,deathKnight:160</t>
-  </si>
-  <si>
     <t>blueDragon:2:12,sentinel_1:3:1608,horseArcher_1:3:603,crossbowman_1:3:804,catapult_1:3:201</t>
   </si>
   <si>
     <t>blueDragon:2:12,horseArcher_1:3:810,crossbowman_1:3:1215,ballista_1:3:405,sentinel_1:3:405</t>
   </si>
   <si>
-    <t>blueDragon:2:12,meatWagon:653,skeletonWarrior:980,deathKnight:326,skeletonArcher:327</t>
-  </si>
-  <si>
     <t>blueDragon:2:12,crossbowman_1:3:1644,ballista_1:3:616,sentinel_1:3:822,horseArcher_1:3:205</t>
   </si>
   <si>
     <t>blueDragon:2:12,sentinel_1:3:1656,horseArcher_1:3:621,crossbowman_1:3:828,ballista_1:3:207</t>
   </si>
   <si>
-    <t>blueDragon:2:12,deathKnight:667,skeletonArcher:1001,meatWagon:334,skeletonWarrior:334</t>
-  </si>
-  <si>
     <t>blueDragon:2:12,catapult_1:3:840,swordsman_1:3:1260,lancer_1:3:420,ranger_1:3:420</t>
   </si>
   <si>
     <t>blueDragon:2:12,ranger_1:3:1692,catapult_1:3:634,swordsman_1:3:846,lancer_1:3:211</t>
   </si>
   <si>
-    <t>blueDragon:2:12,skeletonWarrior:1364,deathKnight:511,skeletonArcher:682,meatWagon:170</t>
-  </si>
-  <si>
     <t>blueDragon:2:12,horseArcher_1:3:858,ranger_1:3:1287,catapult_1:3:429,swordsman_1:3:429</t>
   </si>
   <si>
     <t>blueDragon:2:12,ballista_1:3:864,swordsman_1:3:1296,lancer_1:3:432,ranger_1:3:432</t>
   </si>
   <si>
-    <t>blueDragon:2:12,skeletonArcher:1392,meatWagon:522,skeletonWarrior:696,deathKnight:174</t>
-  </si>
-  <si>
     <t>blueDragon:2:12,sentinel_1:3:1752,lancer_1:3:657,ranger_1:3:876,catapult_1:3:219</t>
   </si>
   <si>
     <t>blueDragon:2:13,horseArcher_1:3:882,crossbowman_1:3:1323,catapult_1:3:441,swordsman_1:3:441</t>
   </si>
   <si>
-    <t>blueDragon:2:13,meatWagon:710,skeletonWarrior:1066,deathKnight:355,skeletonArcher:356</t>
-  </si>
-  <si>
     <t>blueDragon:2:13,crossbowman_1:3:1788,ballista_1:3:670,swordsman_1:3:894,lancer_1:3:223</t>
   </si>
   <si>
     <t>blueDragon:2:13,sentinel_1:3:1800,horseArcher_1:3:675,ranger_1:3:900,catapult_1:3:225</t>
   </si>
   <si>
-    <t>blueDragon:2:13,deathKnight:725,skeletonArcher:1088,meatWagon:362,skeletonWarrior:363</t>
-  </si>
-  <si>
     <t>blueDragon:2:13,ballista_1:3:912,sentinel_1:3:1368,horseArhcer_1:3:456,ranger_1:3:456</t>
   </si>
   <si>
     <t>blueDragon:2:13,crossbowman_1:3:1836,ballista_1:3:688,sentinel_1:3:918,lancer_1:3:229</t>
   </si>
   <si>
-    <t>blueDragon:2:13,skeletonWarrior:1479,deathKnight:554,skeletonArcher:740,meatWagon:185</t>
-  </si>
-  <si>
     <t>blueDragon:2:13,horseArcher_1:3:930,crossbowman_1:3:1395,ballista_1:3:465,sentinel_1:3:465</t>
   </si>
   <si>
     <t>blueDragon:2:13,ballista_1:3:936,sentinel_1:3:1404,horseArhcer_1:3:468,crossbowman_1:3:468</t>
   </si>
   <si>
-    <t>blueDragon:2:13,skeletonArcher:1508,meatWagon:565,skeletonWarrior:754,deathKnight:188</t>
-  </si>
-  <si>
     <t>blueDragon:2:13,sentinel_1:3:1896,horseArcher_1:3:711,crossbowman_1:3:948,ballista_1:3:237</t>
   </si>
   <si>
     <t>blueDragon:2:13,lancer_1:3:954,ranger_1:3:1431,catapult_1:3:477,swordsman_1:3:477</t>
   </si>
   <si>
-    <t>blueDragon:2:14,meatWagon:768,skeletonWarrior:1152,deathKnight:384,skeletonArcher:384</t>
-  </si>
-  <si>
     <t>blueDragon:2:14,ranger_1:3:1932,catapult_1:3:724,swordsman_1:3:966,lancer_1:3:241</t>
   </si>
   <si>
     <t>blueDragon:2:14,swordsman_1:3:1944,lancer_1:3:729,ranger_1:3:972,catapult_1:3:243</t>
   </si>
   <si>
-    <t>blueDragon:2:14,deathKnight:782,skeletonArcher:1174,meatWagon:391,skeletonWarrior:392</t>
-  </si>
-  <si>
     <t>blueDragon:2:14,ballista_1:3:984,swordsman_1:3:1476,lancer_1:3:492,ranger_1:3:492</t>
   </si>
   <si>
     <t>blueDragon:2:14,crossbowman_1:3:1980,catapult_1:3:742,swordsman_1:3:990,lancer_1:3:247</t>
   </si>
   <si>
-    <t>blueDragon:2:14,skeletonWarrior:1594,deathKnight:598,skeletonArcher:797,meatWagon:199</t>
-  </si>
-  <si>
     <t>blueDragon:2:14,horseArcher_1:3:1002,crossbowman_1:3:1503,catapult_1:3:501,swordsman_1:3:501</t>
   </si>
   <si>
     <t>blueDragon:2:14,ballista_1:3:1008,sentinel_1:3:1512,lancer_1:3:504,ranger_1:3:504</t>
   </si>
   <si>
-    <t>blueDragon:2:14,skeletonArcher:1623,meatWagon:608,skeletonWarrior:812,deathKnight:203</t>
-  </si>
-  <si>
     <t>blueDragon:2:14,sentinel_1:3:2040,horseArcher_1:3:765,ranger_1:3:1020,catapult_1:3:255</t>
   </si>
   <si>
     <t>blueDragon:2:14,horseArcher_1:3:1026,crossbowman_1:3:1539,ballista_1:3:513,swordsman_1:3:513</t>
   </si>
   <si>
-    <t>blueDragon:2:14,meatWagon:826,skeletonWarrior:1239,deathKnight:413,skeletonArcher:413</t>
-  </si>
-  <si>
     <t>blueDragon:2:15,crossbowman_1:3:2076,ballista_1:3:778,sentinel_1:3:1038,lancer_1:3:259</t>
   </si>
   <si>
     <t>blueDragon:2:15,sentinel_1:3:2088,horseArcher_1:3:783,crossbowman_1:3:1044,catapult_1:3:261</t>
   </si>
   <si>
-    <t>blueDragon:2:15,deathKnight:840,skeletonArcher:1260,meatWagon:420,skeletonWarrior:420</t>
-  </si>
-  <si>
     <t>blueDragon:2:15,ballista_1:3:1056,sentinel_1:3:1584,horseArhcer_1:3:528,crossbowman_1:3:528</t>
   </si>
   <si>
     <t>blueDragon:2:15,crossbowman_1:3:2124,ballista_1:3:796,sentinel_1:3:1062,horseArcher_1:3:265</t>
   </si>
   <si>
-    <t>blueDragon:2:15,skeletonWarrior:1709,deathKnight:641,skeletonArcher:855,meatWagon:214</t>
-  </si>
-  <si>
     <t>blueDragon:2:15,lancer_1:3:1074,ranger_1:3:1611,catapult_1:3:537,swordsman_1:3:537</t>
   </si>
   <si>
     <t>blueDragon:2:15,catapult_1:3:1080,swordsman_1:3:1620,lancer_1:3:540,ranger_1:3:540</t>
   </si>
   <si>
-    <t>blueDragon:2:15,skeletonArcher:1738,meatWagon:652,skeletonWarrior:869,deathKnight:217</t>
-  </si>
-  <si>
     <t>blueDragon:2:15,swordsman_1:3:2184,lancer_1:3:819,ranger_1:3:1092,catapult_1:3:273</t>
   </si>
   <si>
     <t>blueDragon:2:15,horseArcher_1:3:1098,ranger_1:3:1647,catapult_1:3:549,swordsman_1:3:549</t>
   </si>
   <si>
-    <t>blueDragon:2:15,meatWagon:883,skeletonWarrior:1325,deathKnight:442,skeletonArcher:442</t>
-  </si>
-  <si>
     <t>blueDragon:2:15,crossbowman_1:3:2220,catapult_1:3:832,swordsman_1:3:1110,lancer_1:3:277</t>
   </si>
   <si>
     <t>blueDragon:2:16,sentinel_1:3:2232,lancer_1:3:837,ranger_1:3:1116,catapult_1:3:279</t>
   </si>
   <si>
-    <t>blueDragon:2:16,deathKnight:898,skeletonArcher:1347,meatWagon:449,skeletonWarrior:449</t>
-  </si>
-  <si>
     <t>redDragon:2:16,ballista_2:1:1128,sentinel_2:1:1692,lancer_2:1:564,ranger_2:1:564</t>
   </si>
   <si>
     <t>redDragon:2:16,crossbowman_2:1:2268,ballista_2:1:850,swordsman_2:1:1134,lancer_2:1:283</t>
   </si>
   <si>
-    <t>redDragon:2:16,skeletonWarrior:2280,deathKnight:855,skeletonArcher:1140,meatWagon:285</t>
-  </si>
-  <si>
     <t>redDragon:2:16,horseArcher_2:1:1146,crossbowman_2:1:1719,ballista_2:1:573,swordsman_2:1:573</t>
   </si>
   <si>
     <t>redDragon:2:16,ballista_2:1:1152,sentinel_2:1:1728,horseArhcer_2:1:576,ranger_2:1:576</t>
   </si>
   <si>
-    <t>redDragon:2:16,skeletonArcher:2316,meatWagon:868,skeletonWarrior:1158,deathKnight:289</t>
-  </si>
-  <si>
     <t>redDragon:2:16,sentinel_2:1:2328,horseArcher_2:1:873,crossbowman_2:1:1164,catapult_2:1:291</t>
   </si>
   <si>
     <t>redDragon:2:16,horseArcher_2:1:1170,crossbowman_2:1:1755,ballista_2:1:585,sentinel_2:1:585</t>
   </si>
   <si>
-    <t>redDragon:2:16,meatWagon:1176,skeletonWarrior:1764,deathKnight:588,skeletonArcher:588</t>
-  </si>
-  <si>
     <t>redDragon:2:16,crossbowman_2:1:2364,ballista_2:1:886,sentinel_2:1:1182,horseArcher_2:1:295</t>
   </si>
   <si>
     <t>redDragon:2:16,sentinel_2:1:2376,horseArcher_2:1:891,crossbowman_2:1:1188,ballista_2:1:297</t>
   </si>
   <si>
-    <t>redDragon:2:17,deathKnight:1194,skeletonArcher:1791,meatWagon:597,skeletonWarrior:597</t>
-  </si>
-  <si>
     <t>redDragon:2:17,catapult_2:1:1200,swordsman_2:1:1800,lancer_2:1:600,ranger_2:1:600</t>
   </si>
   <si>
     <t>redDragon:2:17,ranger_2:1:2412,catapult_2:1:904,swordsman_2:1:1206,lancer_2:1:301</t>
   </si>
   <si>
-    <t>redDragon:2:17,skeletonWarrior:2424,deathKnight:909,skeletonArcher:1212,meatWagon:303</t>
-  </si>
-  <si>
     <t>redDragon:2:17,horseArcher_2:1:1218,ranger_2:1:1827,catapult_2:1:609,swordsman_2:1:609</t>
   </si>
   <si>
     <t>redDragon:2:17,ballista_2:1:1224,swordsman_2:1:1836,lancer_2:1:612,ranger_2:1:612</t>
   </si>
   <si>
-    <t>redDragon:2:17,skeletonArcher:2460,meatWagon:922,skeletonWarrior:1230,deathKnight:307</t>
-  </si>
-  <si>
     <t>redDragon:2:17,sentinel_2:1:2472,lancer_2:1:927,ranger_2:1:1236,catapult_2:1:309</t>
   </si>
   <si>
     <t>redDragon:2:17,horseArcher_2:1:1242,crossbowman_2:1:1863,catapult_2:1:621,swordsman_2:1:621</t>
   </si>
   <si>
-    <t>redDragon:2:17,meatWagon:1248,skeletonWarrior:1872,deathKnight:624,skeletonArcher:624</t>
-  </si>
-  <si>
     <t>redDragon:2:17,crossbowman_2:1:2508,ballista_2:1:940,swordsman_2:1:1254,lancer_2:1:313</t>
   </si>
   <si>
     <t>redDragon:2:17,sentinel_2:1:2520,horseArcher_2:1:945,ranger_2:1:1260,catapult_2:1:315</t>
   </si>
   <si>
-    <t>redDragon:2:17,deathKnight:1266,skeletonArcher:1899,meatWagon:633,skeletonWarrior:633</t>
-  </si>
-  <si>
     <t>redDragon:2:18,ballista_2:1:1272,sentinel_2:1:1908,horseArhcer_2:1:636,ranger_2:1:636</t>
   </si>
   <si>
     <t>redDragon:2:18,crossbowman_2:1:2556,ballista_2:1:958,sentinel_2:1:1278,lancer_2:1:319</t>
   </si>
   <si>
-    <t>redDragon:2:18,skeletonWarrior:2568,deathKnight:963,skeletonArcher:1284,meatWagon:321</t>
-  </si>
-  <si>
     <t>redDragon:2:18,horseArcher_2:1:1290,crossbowman_2:1:1935,ballista_2:1:645,sentinel_2:1:645</t>
   </si>
   <si>
     <t>redDragon:2:18,ballista_2:1:1296,sentinel_2:1:1944,horseArhcer_2:1:648,crossbowman_2:1:648</t>
   </si>
   <si>
-    <t>redDragon:2:18,skeletonArcher:2604,meatWagon:976,skeletonWarrior:1302,deathKnight:325</t>
-  </si>
-  <si>
     <t>redDragon:2:18,sentinel_2:1:2616,horseArcher_2:1:981,crossbowman_2:1:1308,ballista_2:1:327</t>
   </si>
   <si>
     <t>redDragon:2:18,lancer_2:1:1314,ranger_2:1:1971,catapult_2:1:657,swordsman_2:1:657</t>
   </si>
   <si>
-    <t>redDragon:2:18,meatWagon:1320,skeletonWarrior:1980,deathKnight:660,skeletonArcher:660</t>
-  </si>
-  <si>
     <t>redDragon:2:18,ranger_2:1:2652,catapult_2:1:994,swordsman_2:1:1326,lancer_2:1:331</t>
   </si>
   <si>
     <t>redDragon:2:18,swordsman_2:1:2664,lancer_2:1:999,ranger_2:1:1332,catapult_2:1:333</t>
   </si>
   <si>
-    <t>redDragon:2:18,deathKnight:1338,skeletonArcher:2007,meatWagon:669,skeletonWarrior:669</t>
-  </si>
-  <si>
     <t>redDragon:2:18,ballista_2:1:1344,swordsman_2:1:2016,lancer_2:1:672,ranger_2:1:672</t>
   </si>
   <si>
     <t>redDragon:2:19,crossbowman_2:1:2700,catapult_2:1:1012,swordsman_2:1:1350,lancer_2:1:337</t>
   </si>
   <si>
-    <t>redDragon:2:19,skeletonWarrior:2712,deathKnight:1017,skeletonArcher:1356,meatWagon:339</t>
-  </si>
-  <si>
     <t>redDragon:2:19,horseArcher_2:1:1362,crossbowman_2:1:2043,catapult_2:1:681,swordsman_2:1:681</t>
   </si>
   <si>
     <t>redDragon:2:19,ballista_2:1:1368,sentinel_2:1:2052,lancer_2:1:684,ranger_2:1:684</t>
   </si>
   <si>
-    <t>redDragon:2:19,skeletonArcher:2748,meatWagon:1030,skeletonWarrior:1374,deathKnight:343</t>
-  </si>
-  <si>
     <t>redDragon:2:19,sentinel_2:1:2760,horseArcher_2:1:1035,ranger_2:1:1380,catapult_2:1:345</t>
   </si>
   <si>
     <t>redDragon:2:19,horseArcher_2:1:1386,crossbowman_2:1:2079,ballista_2:1:693,swordsman_2:1:693</t>
   </si>
   <si>
-    <t>redDragon:2:19,meatWagon:1392,skeletonWarrior:2088,deathKnight:696,skeletonArcher:696</t>
-  </si>
-  <si>
     <t>redDragon:2:19,crossbowman_2:1:2796,ballista_2:1:1048,sentinel_2:1:1398,lancer_2:1:349</t>
   </si>
   <si>
     <t>redDragon:2:19,sentinel_2:1:2808,horseArcher_2:1:1053,crossbowman_2:1:1404,catapult_2:1:351</t>
   </si>
   <si>
-    <t>redDragon:2:19,deathKnight:1410,skeletonArcher:2115,meatWagon:705,skeletonWarrior:705</t>
-  </si>
-  <si>
     <t>redDragon:2:19,ballista_2:1:1416,sentinel_2:1:2124,horseArhcer_2:1:708,crossbowman_2:1:708</t>
   </si>
   <si>
     <t>redDragon:2:19,crossbowman_2:1:2844,ballista_2:1:1066,sentinel_2:1:1422,horseArcher_2:1:355</t>
   </si>
   <si>
-    <t>redDragon:2:20,skeletonWarrior:2856,deathKnight:1071,skeletonArcher:1428,meatWagon:357</t>
-  </si>
-  <si>
     <t>redDragon:2:20,lancer_2:1:1434,ranger_2:1:2151,catapult_2:1:717,swordsman_2:1:717</t>
   </si>
   <si>
     <t>redDragon:2:20,catapult_2:1:1440,swordsman_2:1:2160,lancer_2:1:720,ranger_2:1:720</t>
   </si>
   <si>
-    <t>redDragon:2:20,skeletonArcher:2892,meatWagon:1084,skeletonWarrior:1446,deathKnight:361</t>
-  </si>
-  <si>
     <t>redDragon:2:20,swordsman_2:1:2904,lancer_2:1:1089,ranger_2:1:1452,catapult_2:1:363</t>
   </si>
   <si>
     <t>redDragon:2:20,horseArcher_2:1:1458,ranger_2:1:2187,catapult_2:1:729,swordsman_2:1:729</t>
   </si>
   <si>
-    <t>redDragon:2:20,meatWagon:1464,skeletonWarrior:2196,deathKnight:732,skeletonArcher:732</t>
-  </si>
-  <si>
     <t>redDragon:2:20,crossbowman_2:1:2940,catapult_2:1:1102,swordsman_2:1:1470,lancer_2:1:367</t>
   </si>
   <si>
     <t>redDragon:2:20,sentinel_2:1:2952,lancer_2:1:1107,ranger_2:1:1476,catapult_2:1:369</t>
   </si>
   <si>
-    <t>redDragon:2:20,deathKnight:1482,skeletonArcher:2223,meatWagon:741,skeletonWarrior:741</t>
-  </si>
-  <si>
     <t>redDragon:2:20,ballista_2:1:1488,sentinel_2:1:2232,lancer_2:1:744,ranger_2:1:744</t>
   </si>
   <si>
     <t>redDragon:2:20,crossbowman_2:1:2988,ballista_2:1:1120,swordsman_2:1:1494,lancer_2:1:373</t>
   </si>
   <si>
-    <t>redDragon:2:20,skeletonWarrior:3000,deathKnight:1125,skeletonArcher:1500,meatWagon:375</t>
-  </si>
-  <si>
     <t>greenDragon:3:21,horseArcher_2:2:1506,crossbowman_2:2:2259,ballista_2:2:753,swordsman_2:2:753</t>
   </si>
   <si>
     <t>greenDragon:3:21,ballista_2:2:1512,sentinel_2:2:2268,horseArhcer_2:2:756,ranger_2:2:756</t>
   </si>
   <si>
-    <t>greenDragon:3:21,skeletonArcher:3644,meatWagon:1366,skeletonWarrior:1822,deathKnight:455</t>
-  </si>
-  <si>
     <t>greenDragon:3:21,sentinel_2:2:3048,horseArcher_2:2:1143,crossbowman_2:2:1524,catapult_2:2:381</t>
   </si>
   <si>
     <t>greenDragon:3:21,horseArcher_2:2:1530,crossbowman_2:2:2295,ballista_2:2:765,sentinel_2:2:765</t>
   </si>
   <si>
-    <t>greenDragon:3:21,meatWagon:1843,skeletonWarrior:2765,deathKnight:922,skeletonArcher:922</t>
-  </si>
-  <si>
     <t>greenDragon:3:21,crossbowman_2:2:3084,ballista_2:2:1156,sentinel_2:2:1542,horseArcher_2:2:385</t>
   </si>
   <si>
     <t>greenDragon:3:21,sentinel_2:2:3096,horseArcher_2:2:1161,crossbowman_2:2:1548,ballista_2:2:387</t>
   </si>
   <si>
-    <t>greenDragon:3:21,deathKnight:1865,skeletonArcher:2798,meatWagon:932,skeletonWarrior:933</t>
-  </si>
-  <si>
     <t>greenDragon:3:21,catapult_2:2:1560,swordsman_2:2:2340,lancer_2:2:780,ranger_2:2:780</t>
   </si>
   <si>
     <t>greenDragon:3:21,ranger_2:2:3132,catapult_2:2:1174,swordsman_2:2:1566,lancer_2:2:391</t>
   </si>
   <si>
-    <t>greenDragon:3:21,skeletonWarrior:3773,deathKnight:1415,skeletonArcher:1887,meatWagon:472</t>
-  </si>
-  <si>
     <t>greenDragon:3:21,horseArcher_2:2:1578,ranger_2:2:2367,catapult_2:2:789,swordsman_2:2:789</t>
   </si>
   <si>
     <t>greenDragon:3:22,ballista_2:2:1584,swordsman_2:2:2376,lancer_2:2:792,ranger_2:2:792</t>
   </si>
   <si>
-    <t>greenDragon:3:22,skeletonArcher:3816,meatWagon:1431,skeletonWarrior:1908,deathKnight:477</t>
-  </si>
-  <si>
     <t>greenDragon:3:22,sentinel_2:2:3192,lancer_2:2:1197,ranger_2:2:1596,catapult_2:2:399</t>
   </si>
   <si>
     <t>greenDragon:3:22,horseArcher_2:2:1602,crossbowman_2:2:2403,catapult_2:2:801,swordsman_2:2:801</t>
   </si>
   <si>
-    <t>greenDragon:3:22,meatWagon:1930,skeletonWarrior:2895,deathKnight:965,skeletonArcher:965</t>
-  </si>
-  <si>
     <t>greenDragon:3:22,crossbowman_2:2:3228,ballista_2:2:1210,swordsman_2:2:1614,lancer_2:2:403</t>
   </si>
   <si>
     <t>greenDragon:3:22,sentinel_2:2:3240,horseArcher_2:2:1215,ranger_2:2:1620,catapult_2:2:405</t>
   </si>
   <si>
-    <t>greenDragon:3:22,deathKnight:1951,skeletonArcher:2927,meatWagon:976,skeletonWarrior:976</t>
-  </si>
-  <si>
     <t>greenDragon:3:22,ballista_2:2:1632,sentinel_2:2:2448,horseArhcer_2:2:816,ranger_2:2:816</t>
   </si>
   <si>
     <t>greenDragon:3:22,crossbowman_2:2:3276,ballista_2:2:1228,sentinel_2:2:1638,lancer_2:2:409</t>
   </si>
   <si>
-    <t>greenDragon:3:22,skeletonWarrior:3946,deathKnight:1480,skeletonArcher:1973,meatWagon:493</t>
-  </si>
-  <si>
     <t>greenDragon:3:22,horseArcher_2:2:1650,crossbowman_2:2:2475,ballista_2:2:825,sentinel_2:2:825</t>
   </si>
   <si>
     <t>greenDragon:3:22,ballista_2:2:1656,sentinel_2:2:2484,horseArhcer_2:2:828,crossbowman_2:2:828</t>
   </si>
   <si>
-    <t>greenDragon:3:23,skeletonArcher:3989,meatWagon:1496,skeletonWarrior:1995,deathKnight:499</t>
-  </si>
-  <si>
     <t>greenDragon:3:23,sentinel_2:2:3336,horseArcher_2:2:1251,crossbowman_2:2:1668,ballista_2:2:417</t>
   </si>
   <si>
     <t>greenDragon:3:23,lancer_2:2:1674,ranger_2:2:2511,catapult_2:2:837,swordsman_2:2:837</t>
   </si>
   <si>
-    <t>greenDragon:3:23,meatWagon:2016,skeletonWarrior:3024,deathKnight:1008,skeletonArcher:1008</t>
-  </si>
-  <si>
     <t>greenDragon:3:23,ranger_2:2:3372,catapult_2:2:1264,swordsman_2:2:1686,lancer_2:2:421</t>
   </si>
   <si>
     <t>greenDragon:3:23,swordsman_2:2:3384,lancer_2:2:1269,ranger_2:2:1692,catapult_2:2:423</t>
   </si>
   <si>
-    <t>greenDragon:3:23,deathKnight:2044,skeletonArcher:3067,meatWagon:1022,skeletonWarrior:1023</t>
-  </si>
-  <si>
     <t>greenDragon:3:23,ballista_2:2:1715,swordsman_2:2:2574,lancer_2:2:858,ranger_2:2:858</t>
   </si>
   <si>
     <t>greenDragon:3:23,crossbowman_2:2:3455,catapult_2:2:1295,swordsman_2:2:1728,lancer_2:2:432</t>
   </si>
   <si>
-    <t>greenDragon:3:23,skeletonWarrior:4174,deathKnight:1565,skeletonArcher:2087,meatWagon:522</t>
-  </si>
-  <si>
     <t>greenDragon:3:23,horseArcher_2:2:1751,crossbowman_2:2:2627,catapult_2:2:875,swordsman_2:2:876</t>
   </si>
   <si>
     <t>greenDragon:3:23,ballista_2:2:1763,sentinel_2:2:2644,lancer_2:2:881,ranger_2:2:882</t>
   </si>
   <si>
-    <t>greenDragon:3:23,skeletonArcher:4259,meatWagon:1597,skeletonWarrior:2130,deathKnight:532</t>
-  </si>
-  <si>
     <t>greenDragon:3:24,sentinel_2:2:3573,horseArcher_2:2:1340,ranger_2:2:1787,catapult_2:2:447</t>
   </si>
   <si>
     <t>greenDragon:3:24,horseArcher_2:2:1798,crossbowman_2:2:2698,ballista_2:2:899,swordsman_2:2:900</t>
   </si>
   <si>
-    <t>greenDragon:3:24,meatWagon:2173,skeletonWarrior:3259,deathKnight:1086,skeletonArcher:1087</t>
-  </si>
-  <si>
     <t>greenDragon:3:24,crossbowman_2:2:3646,ballista_2:2:1367,sentinel_2:2:1823,lancer_2:2:456</t>
   </si>
   <si>
     <t>greenDragon:3:24,sentinel_2:2:3670,horseArcher_2:2:1376,crossbowman_2:2:1835,catapult_2:2:459</t>
   </si>
   <si>
-    <t>greenDragon:3:24,deathKnight:2216,skeletonArcher:3325,meatWagon:1108,skeletonWarrior:1109</t>
-  </si>
-  <si>
     <t>greenDragon:3:24,ballista_2:2:1859,sentinel_2:2:2789,horseArhcer_2:2:929,crossbowman_2:2:930</t>
   </si>
   <si>
     <t>greenDragon:3:24,crossbowman_2:2:3743,ballista_2:2:1403,sentinel_2:2:1872,horseArcher_2:2:468</t>
   </si>
   <si>
-    <t>greenDragon:3:24,skeletonWarrior:4521,deathKnight:1695,skeletonArcher:2261,meatWagon:565</t>
-  </si>
-  <si>
     <t>greenDragon:3:24,lancer_2:2:1896,ranger_2:2:2844,catapult_2:2:948,swordsman_2:2:948</t>
   </si>
   <si>
     <t>greenDragon:3:24,catapult_2:2:1908,swordsman_2:2:2862,lancer_2:2:954,ranger_2:2:954</t>
   </si>
   <si>
-    <t>greenDragon:3:24,skeletonArcher:4610,meatWagon:1728,skeletonWarrior:2305,deathKnight:576</t>
-  </si>
-  <si>
     <t>greenDragon:3:24,swordsman_2:2:3866,lancer_2:2:1450,ranger_2:2:1933,catapult_2:2:483</t>
   </si>
   <si>
     <t>greenDragon:3:25,horseArcher_2:2:1945,ranger_2:2:2919,catapult_2:2:973,swordsman_2:2:973</t>
   </si>
   <si>
-    <t>greenDragon:3:25,meatWagon:2349,skeletonWarrior:3525,deathKnight:1175,skeletonArcher:1175</t>
-  </si>
-  <si>
     <t>greenDragon:3:25,crossbowman_2:2:3941,catapult_2:2:1478,swordsman_2:2:1971,lancer_2:2:493</t>
   </si>
   <si>
     <t>greenDragon:3:25,sentinel_2:2:3966,lancer_2:2:1487,ranger_2:2:1983,catapult_2:2:496</t>
   </si>
   <si>
-    <t>greenDragon:3:25,deathKnight:2395,skeletonArcher:3592,meatWagon:1197,skeletonWarrior:1198</t>
-  </si>
-  <si>
     <t>greenDragon:3:25,ballista_2:2:2008,sentinel_2:2:3013,lancer_2:2:1004,ranger_2:2:1005</t>
   </si>
   <si>
     <t>greenDragon:3:25,crossbowman_2:2:4042,ballista_2:2:1516,swordsman_2:2:2021,lancer_2:2:505</t>
   </si>
   <si>
-    <t>greenDragon:3:25,skeletonWarrior:4881,deathKnight:1830,skeletonArcher:2441,meatWagon:610</t>
-  </si>
-  <si>
     <t>greenDragon:3:25,horseArcher_2:2:2046,crossbowman_2:2:3070,ballista_2:2:1023,swordsman_2:2:1024</t>
   </si>
   <si>
     <t>greenDragon:3:25,ballista_2:2:2059,sentinel_2:2:3089,horseArhcer_2:2:1030,ranger_2:2:1030</t>
   </si>
   <si>
-    <t>greenDragon:3:25,skeletonArcher:4974,meatWagon:1865,skeletonWarrior:2487,deathKnight:622</t>
-  </si>
-  <si>
     <t>redDragon:3:25,sentinel_2:3:4170,horseArcher_2:3:1564,crossbowman_2:3:2085,catapult_2:3:521</t>
   </si>
   <si>
     <t>redDragon:3:25,horseArcher_2:3:2098,crossbowman_2:3:3147,ballista_2:3:1049,sentinel_2:3:1049</t>
   </si>
   <si>
-    <t>redDragon:3:26,meatWagon:2955,skeletonWarrior:4434,deathKnight:1478,skeletonArcher:1478</t>
-  </si>
-  <si>
     <t>redDragon:3:26,crossbowman_2:3:4248,ballista_2:3:1593,sentinel_2:3:2124,horseArcher_2:3:531</t>
   </si>
   <si>
     <t>redDragon:3:26,sentinel_2:3:4274,horseArcher_2:3:1603,crossbowman_2:3:2137,ballista_2:3:534</t>
   </si>
   <si>
-    <t>redDragon:3:26,deathKnight:3010,skeletonArcher:4516,meatWagon:1505,skeletonWarrior:1506</t>
-  </si>
-  <si>
     <t>redDragon:3:26,catapult_2:3:2163,swordsman_2:3:3245,lancer_2:3:1082,ranger_2:3:1082</t>
   </si>
   <si>
     <t>redDragon:3:26,ranger_2:3:4353,catapult_2:3:1632,swordsman_2:3:2177,lancer_2:3:544</t>
   </si>
   <si>
-    <t>redDragon:3:26,skeletonWarrior:6132,deathKnight:2299,skeletonArcher:3066,meatWagon:766</t>
-  </si>
-  <si>
     <t>redDragon:3:26,horseArcher_2:3:2203,ranger_2:3:3305,catapult_2:3:1101,swordsman_2:3:1102</t>
   </si>
   <si>
     <t>redDragon:3:26,ballista_2:3:2216,swordsman_2:3:3325,lancer_2:3:1108,ranger_2:3:1109</t>
   </si>
   <si>
-    <t>redDragon:3:26,skeletonArcher:6243,meatWagon:2341,skeletonWarrior:3122,deathKnight:780</t>
-  </si>
-  <si>
     <t>redDragon:3:26,sentinel_2:3:4486,lancer_2:3:1682,ranger_2:3:2243,catapult_2:3:561</t>
   </si>
   <si>
     <t>redDragon:3:26,horseArcher_2:3:2256,crossbowman_2:3:3385,catapult_2:3:1128,swordsman_2:3:1129</t>
   </si>
   <si>
-    <t>redDragon:3:26,meatWagon:3178,skeletonWarrior:4767,deathKnight:1589,skeletonArcher:1589</t>
-  </si>
-  <si>
     <t>redDragon:3:27,crossbowman_2:3:4567,ballista_2:3:1713,swordsman_2:3:2284,lancer_2:3:571</t>
   </si>
   <si>
     <t>redDragon:3:27,sentinel_2:3:4594,horseArcher_2:3:1723,ranger_2:3:2297,catapult_2:3:574</t>
   </si>
   <si>
-    <t>redDragon:3:27,deathKnight:3235,skeletonArcher:4852,meatWagon:1617,skeletonWarrior:1618</t>
-  </si>
-  <si>
     <t>redDragon:3:27,ballista_2:3:2324,sentinel_2:3:3486,horseArhcer_2:3:1162,ranger_2:3:1162</t>
   </si>
   <si>
     <t>redDragon:3:27,crossbowman_2:3:4676,ballista_2:3:1753,sentinel_2:3:2338,lancer_2:3:584</t>
   </si>
   <si>
-    <t>redDragon:3:27,skeletonWarrior:6584,deathKnight:2469,skeletonArcher:3292,meatWagon:823</t>
-  </si>
-  <si>
     <t>redDragon:3:27,horseArcher_2:3:2365,crossbowman_2:3:3548,ballista_2:3:1183,sentinel_2:3:1183</t>
   </si>
   <si>
     <t>redDragon:3:27,ballista_2:3:2379,sentinel_2:3:3569,horseArhcer_2:3:1189,crossbowman_2:3:1190</t>
   </si>
   <si>
-    <t>redDragon:3:27,skeletonArcher:6700,meatWagon:2512,skeletonWarrior:3350,deathKnight:837</t>
-  </si>
-  <si>
     <t>redDragon:3:27,sentinel_2:3:4814,horseArcher_2:3:1805,crossbowman_2:3:2407,ballista_2:3:602</t>
   </si>
   <si>
     <t>redDragon:3:27,lancer_2:3:2421,ranger_2:3:3631,catapult_2:3:1210,swordsman_2:3:1211</t>
   </si>
   <si>
-    <t>redDragon:3:27,meatWagon:3408,skeletonWarrior:5113,deathKnight:1704,skeletonArcher:1705</t>
-  </si>
-  <si>
     <t>redDragon:3:27,ranger_2:3:4897,catapult_2:3:1836,swordsman_2:3:2449,lancer_2:3:612</t>
   </si>
   <si>
     <t>redDragon:3:28,swordsman_2:3:4925,lancer_2:3:1847,ranger_2:3:2463,catapult_2:3:616</t>
   </si>
   <si>
-    <t>redDragon:3:28,deathKnight:3467,skeletonArcher:5201,meatWagon:1734,skeletonWarrior:1734</t>
-  </si>
-  <si>
     <t>redDragon:3:28,ballista_2:3:2491,swordsman_2:3:3736,lancer_2:3:1245,ranger_2:3:1246</t>
   </si>
   <si>
     <t>redDragon:3:28,crossbowman_2:3:5010,catapult_2:3:1879,swordsman_2:3:2505,lancer_2:3:626</t>
   </si>
   <si>
-    <t>redDragon:3:28,skeletonWarrior:7054,deathKnight:2645,skeletonArcher:3527,meatWagon:882</t>
-  </si>
-  <si>
     <t>redDragon:3:28,horseArcher_2:3:2533,crossbowman_2:3:3800,catapult_2:3:1267,swordsman_2:3:1267</t>
   </si>
   <si>
     <t>redDragon:3:28,ballista_2:3:2547,sentinel_2:3:3822,lancer_2:3:1274,ranger_2:3:1274</t>
   </si>
   <si>
-    <t>redDragon:3:28,skeletonArcher:7173,meatWagon:2690,skeletonWarrior:3587,deathKnight:897</t>
-  </si>
-  <si>
     <t>redDragon:3:28,sentinel_2:3:5152,horseArcher_2:3:1932,ranger_2:3:2576,catapult_2:3:644</t>
   </si>
   <si>
     <t>redDragon:3:28,horseArcher_2:3:2590,crossbowman_2:3:3886,ballista_2:3:1295,swordsman_2:3:1296</t>
   </si>
   <si>
-    <t>redDragon:3:28,meatWagon:3647,skeletonWarrior:5471,deathKnight:1823,skeletonArcher:1824</t>
-  </si>
-  <si>
     <t>redDragon:3:28,crossbowman_2:3:5239,ballista_2:3:1965,sentinel_2:3:2620,lancer_2:3:655</t>
   </si>
   <si>
     <t>redDragon:3:28,sentinel_2:3:5268,horseArcher_2:3:1975,crossbowman_2:3:2634,catapult_2:3:658</t>
   </si>
   <si>
-    <t>redDragon:3:29,deathKnight:3708,skeletonArcher:5562,meatWagon:1854,skeletonWarrior:1854</t>
-  </si>
-  <si>
     <t>redDragon:3:29,ballista_2:3:2663,sentinel_2:3:3995,horseArhcer_2:3:1331,crossbowman_2:3:1332</t>
   </si>
   <si>
     <t>redDragon:3:29,crossbowman_2:3:5356,ballista_2:3:2008,sentinel_2:3:2678,horseArcher_2:3:669</t>
   </si>
   <si>
-    <t>redDragon:3:29,skeletonWarrior:7539,deathKnight:2827,skeletonArcher:3770,meatWagon:942</t>
-  </si>
-  <si>
     <t>redDragon:3:29,lancer_2:3:2707,ranger_2:3:4061,catapult_2:3:1353,swordsman_2:3:1354</t>
   </si>
   <si>
     <t>redDragon:3:29,catapult_2:3:2722,swordsman_2:3:4083,lancer_2:3:1361,ranger_2:3:1361</t>
   </si>
   <si>
-    <t>redDragon:3:29,skeletonArcher:7662,meatWagon:2873,skeletonWarrior:3831,deathKnight:958</t>
-  </si>
-  <si>
     <t>redDragon:3:29,swordsman_2:3:5503,lancer_2:3:2063,ranger_2:3:2752,catapult_2:3:688</t>
   </si>
   <si>
     <t>redDragon:3:29,horseArcher_2:3:2766,ranger_2:3:4150,catapult_2:3:1383,swordsman_2:3:1384</t>
   </si>
   <si>
-    <t>redDragon:3:29,meatWagon:3893,skeletonWarrior:5841,deathKnight:1947,skeletonArcher:1947</t>
-  </si>
-  <si>
     <t>redDragon:3:29,crossbowman_2:3:5592,catapult_2:3:2097,swordsman_2:3:2796,lancer_2:3:699</t>
   </si>
   <si>
     <t>redDragon:3:29,sentinel_2:3:5622,lancer_2:3:2108,ranger_2:3:2811,catapult_2:3:703</t>
   </si>
   <si>
-    <t>redDragon:3:29,deathKnight:3956,skeletonArcher:5935,meatWagon:1978,skeletonWarrior:1979</t>
-  </si>
-  <si>
     <t>redDragon:3:30,ballista_2:3:2841,sentinel_2:3:4262,lancer_2:3:1420,ranger_2:3:1421</t>
   </si>
   <si>
     <t>redDragon:3:30,crossbowman_2:3:5713,ballista_2:3:2142,swordsman_2:3:2857,lancer_2:3:714</t>
   </si>
   <si>
-    <t>redDragon:3:30,skeletonWarrior:8040,deathKnight:3015,skeletonArcher:4020,meatWagon:1005</t>
-  </si>
-  <si>
     <t>redDragon:3:30,horseArcher_2:3:2886,crossbowman_2:3:4330,ballista_2:3:1443,swordsman_2:3:1444</t>
   </si>
   <si>
     <t>redDragon:3:30,ballista_2:3:2902,sentinel_2:3:4353,horseArhcer_2:3:1451,ranger_2:3:1451</t>
   </si>
   <si>
-    <t>redDragon:3:30,skeletonArcher:8168,meatWagon:3063,skeletonWarrior:4084,deathKnight:1021</t>
-  </si>
-  <si>
     <t>redDragon:3:30,sentinel_2:3:5865,horseArcher_2:3:2199,crossbowman_2:3:2933,catapult_2:3:733</t>
   </si>
   <si>
     <t>redDragon:3:30,horseArcher_2:3:2948,crossbowman_2:3:4422,ballista_2:3:1474,sentinel_2:3:1474</t>
   </si>
   <si>
-    <t>redDragon:3:30,meatWagon:4148,skeletonWarrior:6223,deathKnight:2074,skeletonArcher:2075</t>
-  </si>
-  <si>
     <t>blueDragon:3:30,crossbowman_3:1:5957,ballista_3:1:2234,sentinel_3:1:2979,horseArcher_3:1:745</t>
   </si>
   <si>
     <t>blueDragon:3:30,sentinel_3:1:5988,horseArcher_3:1:2245,crossbowman_3:1:2994,ballista_3:1:748</t>
   </si>
   <si>
-    <t>blueDragon:3:30,deathKnight:4815,skeletonArcher:7223,meatWagon:2407,skeletonWarrior:2408</t>
-  </si>
-  <si>
     <t>blueDragon:3:30,catapult_3:1:3025,swordsman_3:1:4538,lancer_3:1:1512,ranger_3:1:1513</t>
   </si>
   <si>
     <t>blueDragon:4:31,ranger_3:1:6081,catapult_3:1:2280,swordsman_3:1:3041,lancer_3:1:760</t>
   </si>
   <si>
-    <t>blueDragon:4:31,skeletonWarrior:9780,deathKnight:3667,skeletonArcher:4890,meatWagon:1222</t>
-  </si>
-  <si>
     <t>blueDragon:4:31,horseArcher_3:1:3072,ranger_3:1:4608,catapult_3:1:1536,swordsman_3:1:1536</t>
   </si>
   <si>
     <t>blueDragon:4:31,ballista_3:1:3087,swordsman_3:1:4632,lancer_3:1:1544,ranger_3:1:1544</t>
   </si>
   <si>
-    <t>blueDragon:4:31,skeletonArcher:9930,meatWagon:3724,skeletonWarrior:4965,deathKnight:1241</t>
-  </si>
-  <si>
     <t>blueDragon:4:31,sentinel_3:1:6238,lancer_3:1:2339,ranger_3:1:3119,catapult_3:1:780</t>
   </si>
   <si>
     <t>blueDragon:4:31,horseArcher_3:1:3135,crossbowman_3:1:4703,catapult_3:1:1567,swordsman_3:1:1568</t>
   </si>
   <si>
-    <t>blueDragon:4:31,meatWagon:5041,skeletonWarrior:7562,deathKnight:2520,skeletonArcher:2521</t>
-  </si>
-  <si>
     <t>blueDragon:4:31,crossbowman_3:1:6334,ballista_3:1:2375,swordsman_3:1:3167,lancer_3:1:792</t>
   </si>
   <si>
     <t>blueDragon:4:31,sentinel_3:1:6365,horseArcher_3:1:2387,ranger_3:1:3183,catapult_3:1:796</t>
   </si>
   <si>
-    <t>blueDragon:4:31,deathKnight:5118,skeletonArcher:7677,meatWagon:2559,skeletonWarrior:2559</t>
-  </si>
-  <si>
     <t>blueDragon:4:31,ballista_3:1:3214,sentinel_3:1:4822,horseArhcer_3:1:1607,ranger_3:1:1608</t>
   </si>
   <si>
     <t>blueDragon:4:31,crossbowman_3:1:6462,ballista_3:1:2423,sentinel_3:1:3231,lancer_3:1:808</t>
   </si>
   <si>
-    <t>blueDragon:4:32,skeletonWarrior:10390,deathKnight:3896,skeletonArcher:5195,meatWagon:1299</t>
-  </si>
-  <si>
     <t>blueDragon:4:32,horseArcher_3:1:3263,crossbowman_3:1:4895,ballista_3:1:1631,sentinel_3:1:1632</t>
   </si>
   <si>
     <t>blueDragon:4:32,ballista_3:1:3279,sentinel_3:1:4919,horseArhcer_3:1:1639,crossbowman_3:1:1640</t>
   </si>
   <si>
-    <t>blueDragon:4:32,skeletonArcher:10545,meatWagon:3954,skeletonWarrior:5273,deathKnight:1318</t>
-  </si>
-  <si>
     <t>blueDragon:4:32,sentinel_3:1:6623,horseArcher_3:1:2484,crossbowman_3:1:3312,ballista_3:1:828</t>
   </si>
   <si>
     <t>blueDragon:4:32,lancer_3:1:3328,ranger_3:1:4992,catapult_3:1:1664,swordsman_3:1:1664</t>
   </si>
   <si>
-    <t>blueDragon:4:32,meatWagon:5350,skeletonWarrior:8026,deathKnight:2675,skeletonArcher:2676</t>
-  </si>
-  <si>
     <t>blueDragon:4:32,ranger_3:1:6721,catapult_3:1:2520,swordsman_3:1:3361,lancer_3:1:840</t>
   </si>
   <si>
     <t>blueDragon:4:32,swordsman_3:1:6754,lancer_3:1:2533,ranger_3:1:3377,catapult_3:1:844</t>
   </si>
   <si>
-    <t>blueDragon:4:32,deathKnight:5429,skeletonArcher:8145,meatWagon:2715,skeletonWarrior:2715</t>
-  </si>
-  <si>
     <t>blueDragon:4:32,ballista_3:1:3410,swordsman_3:1:5115,lancer_3:1:1705,ranger_3:1:1705</t>
   </si>
   <si>
     <t>blueDragon:4:32,crossbowman_3:1:6853,catapult_3:1:2570,swordsman_3:1:3427,lancer_3:1:857</t>
   </si>
   <si>
-    <t>blueDragon:4:32,skeletonWarrior:11018,deathKnight:4132,skeletonArcher:5509,meatWagon:1377</t>
-  </si>
-  <si>
     <t>blueDragon:4:33,horseArcher_3:1:3460,crossbowman_3:1:5190,catapult_3:1:1730,swordsman_3:1:1730</t>
   </si>
   <si>
     <t>blueDragon:4:33,ballista_3:1:3476,sentinel_3:1:5215,lancer_3:1:1738,ranger_3:1:1739</t>
   </si>
   <si>
-    <t>blueDragon:4:33,skeletonArcher:11178,meatWagon:4191,skeletonWarrior:5589,deathKnight:1397</t>
-  </si>
-  <si>
     <t>blueDragon:4:33,sentinel_3:1:7020,horseArcher_3:1:2632,ranger_3:1:3510,catapult_3:1:877</t>
   </si>
   <si>
     <t>blueDragon:4:33,horseArcher_3:1:3526,crossbowman_3:1:5290,ballista_3:1:1763,swordsman_3:1:1764</t>
   </si>
   <si>
-    <t>blueDragon:4:33,meatWagon:5669,skeletonWarrior:8504,deathKnight:2835,skeletonArcher:2835</t>
-  </si>
-  <si>
     <t>blueDragon:4:33,crossbowman_3:1:7121,ballista_3:1:2670,sentinel_3:1:3561,lancer_3:1:890</t>
   </si>
   <si>
     <t>blueDragon:4:33,sentinel_3:1:7154,horseArcher_3:1:2683,crossbowman_3:1:3577,catapult_3:1:894</t>
   </si>
   <si>
-    <t>blueDragon:4:33,deathKnight:5750,skeletonArcher:8626,meatWagon:2875,skeletonWarrior:2876</t>
-  </si>
-  <si>
     <t>blueDragon:4:33,ballista_3:1:3611,sentinel_3:1:5417,horseArhcer_3:1:1805,crossbowman_3:1:1806</t>
   </si>
   <si>
     <t>blueDragon:4:33,crossbowman_3:1:7256,ballista_3:1:2721,sentinel_3:1:3628,horseArcher_3:1:907</t>
   </si>
   <si>
-    <t>blueDragon:4:33,skeletonWarrior:11664,deathKnight:4374,skeletonArcher:5832,meatWagon:1458</t>
-  </si>
-  <si>
     <t>blueDragon:4:33,lancer_3:2:3662,ranger_3:2:5494,catapult_3:2:1831,swordsman_3:2:1832</t>
   </si>
   <si>
     <t>blueDragon:4:34,catapult_3:2:3679,swordsman_3:2:5519,lancer_3:2:1840,ranger_3:2:1840</t>
   </si>
   <si>
-    <t>blueDragon:4:34,skeletonArcher:13308,meatWagon:4990,skeletonWarrior:6654,deathKnight:1663</t>
-  </si>
-  <si>
     <t>blueDragon:4:34,swordsman_3:2:7428,lancer_3:2:2785,ranger_3:2:3714,catapult_3:2:928</t>
   </si>
   <si>
     <t>blueDragon:4:34,horseArcher_3:2:3731,ranger_3:2:5597,catapult_3:2:1865,swordsman_3:2:1866</t>
   </si>
   <si>
-    <t>blueDragon:4:34,meatWagon:6747,skeletonWarrior:10121,deathKnight:3373,skeletonArcher:3374</t>
-  </si>
-  <si>
     <t>blueDragon:4:34,crossbowman_3:2:7532,catapult_3:2:2824,swordsman_3:2:3766,lancer_3:2:941</t>
   </si>
   <si>
     <t>blueDragon:4:34,sentinel_3:2:7566,lancer_3:2:2837,ranger_3:2:3783,catapult_3:2:946</t>
   </si>
   <si>
-    <t>blueDragon:4:34,deathKnight:6841,skeletonArcher:10261,meatWagon:3420,skeletonWarrior:3421</t>
-  </si>
-  <si>
     <t>blueDragon:4:34,ballista_3:2:3818,sentinel_3:2:5727,lancer_3:2:1909,ranger_3:2:1909</t>
   </si>
   <si>
     <t>blueDragon:4:34,crossbowman_3:2:7671,ballista_3:2:2877,swordsman_3:2:3836,lancer_3:2:959</t>
   </si>
   <si>
-    <t>blueDragon:4:34,skeletonWarrior:13871,deathKnight:5201,skeletonArcher:6936,meatWagon:1734</t>
-  </si>
-  <si>
     <t>blueDragon:4:34,horseArcher_3:2:3870,crossbowman_3:2:5806,ballista_3:2:1935,swordsman_3:2:1936</t>
   </si>
   <si>
     <t>blueDragon:4:34,ballista_3:2:3888,sentinel_3:2:5832,horseArhcer_3:2:1944,ranger_3:2:1944</t>
   </si>
   <si>
-    <t>blueDragon:4:35,skeletonArcher:14061,meatWagon:5273,skeletonWarrior:7031,deathKnight:1758</t>
-  </si>
-  <si>
     <t>blueDragon:4:35,sentinel_3:2:7847,horseArcher_3:2:2943,crossbowman_3:2:3924,catapult_3:2:981</t>
   </si>
   <si>
     <t>blueDragon:4:35,horseArcher_3:2:3941,crossbowman_3:2:5912,ballista_3:2:1971,sentinel_3:2:1971</t>
   </si>
   <si>
-    <t>blueDragon:4:35,meatWagon:7126,skeletonWarrior:10689,deathKnight:3563,skeletonArcher:3563</t>
-  </si>
-  <si>
     <t>blueDragon:4:35,crossbowman_3:2:7954,ballista_3:2:2983,sentinel_3:2:3977,horseArcher_3:2:994</t>
   </si>
   <si>
     <t>blueDragon:4:35,sentinel_3:2:7990,horseArcher_3:2:2996,crossbowman_3:2:3995,ballista_3:2:999</t>
   </si>
   <si>
-    <t>blueDragon:4:35,deathKnight:7223,skeletonArcher:10834,meatWagon:3611,skeletonWarrior:3612</t>
-  </si>
-  <si>
     <t>greenDragon:4:35,catapult_3:2:4030,swordsman_3:2:6046,lancer_3:2:2015,ranger_3:2:2016</t>
   </si>
   <si>
     <t>greenDragon:4:35,ranger_3:2:8097,catapult_3:2:3036,swordsman_3:2:4049,lancer_3:2:1012</t>
   </si>
   <si>
-    <t>greenDragon:4:35,skeletonWarrior:14640,deathKnight:5490,skeletonArcher:7320,meatWagon:1830</t>
-  </si>
-  <si>
     <t>greenDragon:4:35,horseArcher_3:2:4085,ranger_3:2:6127,catapult_3:2:2042,swordsman_3:2:2043</t>
   </si>
   <si>
     <t>greenDragon:4:35,ballista_3:2:4103,swordsman_3:2:6154,lancer_3:2:2051,ranger_3:2:2052</t>
   </si>
   <si>
-    <t>greenDragon:4:35,skeletonArcher:14835,meatWagon:5563,skeletonWarrior:7418,deathKnight:1854</t>
-  </si>
-  <si>
     <t>greenDragon:4:36,sentinel_3:2:8278,lancer_3:2:3104,ranger_3:2:4139,catapult_3:2:1035</t>
   </si>
   <si>
     <t>greenDragon:4:36,horseArcher_3:2:4157,crossbowman_3:2:6236,catapult_3:2:2079,swordsman_3:2:2079</t>
   </si>
   <si>
-    <t>greenDragon:4:36,meatWagon:7516,skeletonWarrior:11274,deathKnight:3758,skeletonArcher:3758</t>
-  </si>
-  <si>
     <t>greenDragon:4:36,crossbowman_3:2:8388,ballista_3:2:3145,swordsman_3:2:4194,lancer_3:2:1048</t>
   </si>
   <si>
     <t>greenDragon:4:36,sentinel_3:2:8424,horseArcher_3:2:3159,ranger_3:2:4212,catapult_3:2:1053</t>
   </si>
   <si>
-    <t>greenDragon:4:36,deathKnight:7615,skeletonArcher:11423,meatWagon:3807,skeletonWarrior:3808</t>
-  </si>
-  <si>
     <t>greenDragon:4:36,ballista_3:2:4249,sentinel_3:2:6374,horseArhcer_3:2:2124,ranger_3:2:2125</t>
   </si>
   <si>
     <t>greenDragon:4:36,crossbowman_3:2:8535,ballista_3:2:3201,sentinel_3:2:4268,lancer_3:2:1067</t>
   </si>
   <si>
-    <t>greenDragon:4:36,skeletonWarrior:15429,deathKnight:5786,skeletonArcher:7715,meatWagon:1929</t>
-  </si>
-  <si>
     <t>greenDragon:4:36,horseArcher_3:2:4304,crossbowman_3:2:6457,ballista_3:2:2152,sentinel_3:2:2153</t>
   </si>
   <si>
     <t>greenDragon:4:36,ballista_3:2:4323,sentinel_3:2:6485,horseArhcer_3:2:2161,crossbowman_3:2:2162</t>
   </si>
   <si>
-    <t>greenDragon:4:36,skeletonArcher:15630,meatWagon:5861,skeletonWarrior:7815,deathKnight:1954</t>
-  </si>
-  <si>
     <t>greenDragon:4:36,sentinel_3:2:8721,horseArcher_3:2:3270,crossbowman_3:2:4361,ballista_3:2:1090</t>
   </si>
   <si>
     <t>greenDragon:4:37,lancer_3:2:4379,ranger_3:2:6569,catapult_3:2:2189,swordsman_3:2:2190</t>
   </si>
   <si>
-    <t>greenDragon:4:37,meatWagon:7916,skeletonWarrior:11874,deathKnight:3958,skeletonArcher:3958</t>
-  </si>
-  <si>
     <t>greenDragon:4:37,ranger_3:3:8833,catapult_3:3:3312,swordsman_3:3:4417,lancer_3:3:1104</t>
   </si>
   <si>
     <t>greenDragon:4:37,swordsman_3:3:8871,lancer_3:3:3326,ranger_3:3:4436,catapult_3:3:1109</t>
   </si>
   <si>
-    <t>greenDragon:4:37,deathKnight:8908,skeletonArcher:13363,meatWagon:4454,skeletonWarrior:4455</t>
-  </si>
-  <si>
     <t>greenDragon:4:37,ballista_3:3:4473,swordsman_3:3:6710,lancer_3:3:2236,ranger_3:3:2237</t>
   </si>
   <si>
     <t>greenDragon:4:37,crossbowman_3:3:8984,catapult_3:3:3369,swordsman_3:3:4492,lancer_3:3:1123</t>
   </si>
   <si>
-    <t>greenDragon:4:37,skeletonWarrior:18044,deathKnight:6766,skeletonArcher:9022,meatWagon:2255</t>
-  </si>
-  <si>
     <t>greenDragon:4:37,horseArcher_3:3:4530,crossbowman_3:3:6795,catapult_3:3:2265,swordsman_3:3:2265</t>
   </si>
   <si>
     <t>greenDragon:4:37,ballista_3:3:4549,sentinel_3:3:6824,lancer_3:3:2274,ranger_3:3:2275</t>
   </si>
   <si>
-    <t>greenDragon:4:37,skeletonArcher:18273,meatWagon:6852,skeletonWarrior:9137,deathKnight:2284</t>
-  </si>
-  <si>
     <t>greenDragon:4:37,sentinel_3:3:9175,horseArcher_3:3:3440,ranger_3:3:4588,catapult_3:3:1147</t>
   </si>
   <si>
     <t>greenDragon:4:37,horseArcher_3:3:4606,crossbowman_3:3:6910,ballista_3:3:2303,swordsman_3:3:2304</t>
   </si>
   <si>
-    <t>greenDragon:4:38,meatWagon:9251,skeletonWarrior:13877,deathKnight:4626,skeletonArcher:4626</t>
-  </si>
-  <si>
     <t>greenDragon:4:38,crossbowman_3:3:9290,ballista_3:3:3484,sentinel_3:3:4645,lancer_3:3:1161</t>
   </si>
   <si>
     <t>greenDragon:4:38,sentinel_3:3:9329,horseArcher_3:3:3498,crossbowman_3:3:4665,catapult_3:3:1166</t>
   </si>
   <si>
-    <t>greenDragon:4:38,deathKnight:9367,skeletonArcher:14051,meatWagon:4683,skeletonWarrior:4684</t>
-  </si>
-  <si>
     <t>greenDragon:4:38,ballista_3:3:4703,sentinel_3:3:7055,horseArhcer_3:3:2351,crossbowman_3:3:2352</t>
   </si>
   <si>
     <t>greenDragon:4:38,crossbowman_3:3:9445,ballista_3:3:3542,sentinel_3:3:4723,horseArcher_3:3:1181</t>
   </si>
   <si>
-    <t>greenDragon:4:38,skeletonWarrior:18968,deathKnight:7113,skeletonArcher:9484,meatWagon:2371</t>
-  </si>
-  <si>
     <t>greenDragon:4:38,lancer_3:3:4761,ranger_3:3:7143,catapult_3:3:2381,swordsman_3:3:2381</t>
   </si>
   <si>
     <t>greenDragon:4:38,catapult_3:3:4781,swordsman_3:3:7172,lancer_3:3:2390,ranger_3:3:2391</t>
   </si>
   <si>
-    <t>greenDragon:4:38,skeletonArcher:19242,meatWagon:7216,skeletonWarrior:9621,deathKnight:2405</t>
-  </si>
-  <si>
     <t>greenDragon:4:38,swordsman_3:3:9640,lancer_3:3:3615,ranger_3:3:4820,catapult_3:3:1205</t>
   </si>
   <si>
     <t>greenDragon:4:38,horseArcher_3:3:4854,ranger_3:3:7282,catapult_3:3:2427,swordsman_3:3:2428</t>
   </si>
   <si>
-    <t>greenDragon:4:38,meatWagon:9777,skeletonWarrior:14666,deathKnight:4888,skeletonArcher:4889</t>
-  </si>
-  <si>
     <t>greenDragon:4:39,crossbowman_3:3:9846,catapult_3:3:3692,swordsman_3:3:4923,lancer_3:3:1231</t>
   </si>
   <si>
     <t>greenDragon:4:39,sentinel_3:3:9915,lancer_3:3:3718,ranger_3:3:4958,catapult_3:3:1239</t>
   </si>
   <si>
-    <t>greenDragon:4:39,deathKnight:9984,skeletonArcher:14976,meatWagon:4992,skeletonWarrior:4992</t>
-  </si>
-  <si>
     <t>greenDragon:4:39,ballista_3:3:5026,sentinel_3:3:7540,lancer_3:3:2513,ranger_3:3:2514</t>
   </si>
   <si>
     <t>greenDragon:4:39,crossbowman_3:3:10123,ballista_3:3:3796,swordsman_3:3:5062,lancer_3:3:1265</t>
   </si>
   <si>
-    <t>greenDragon:4:39,skeletonWarrior:20384,deathKnight:7644,skeletonArcher:10192,meatWagon:2548</t>
-  </si>
-  <si>
     <t>greenDragon:4:39,horseArcher_3:3:5131,crossbowman_3:3:7697,ballista_3:3:2565,swordsman_3:3:2566</t>
   </si>
   <si>
     <t>greenDragon:4:39,ballista_3:3:5166,sentinel_3:3:7749,horseArhcer_3:3:2583,ranger_3:3:2583</t>
   </si>
   <si>
-    <t>greenDragon:4:39,skeletonArcher:20805,meatWagon:7802,skeletonWarrior:10403,deathKnight:2601</t>
-  </si>
-  <si>
     <t>greenDragon:4:39,sentinel_3:3:10473,horseArcher_3:3:3927,crossbowman_3:3:5237,catapult_3:3:1309</t>
   </si>
   <si>
     <t>greenDragon:4:39,horseArcher_3:3:5272,crossbowman_3:3:7908,ballista_3:3:2636,sentinel_3:3:2636</t>
   </si>
   <si>
-    <t>greenDragon:4:39,meatWagon:10614,skeletonWarrior:15922,deathKnight:5307,skeletonArcher:5308</t>
-  </si>
-  <si>
     <t>greenDragon:4:39,crossbowman_3:3:10686,ballista_3:3:4007,sentinel_3:3:5343,horseArcher_3:3:1336</t>
   </si>
   <si>
     <t>greenDragon:4:40,sentinel_3:3:10757,horseArcher_3:3:4034,crossbowman_3:3:5379,ballista_3:3:1345</t>
   </si>
   <si>
-    <t>greenDragon:4:40,deathKnight:10828,skeletonArcher:16243,meatWagon:5414,skeletonWarrior:5415</t>
-  </si>
-  <si>
     <t>greenDragon:4:40,catapult_3:3:5450,swordsman_3:3:8175,lancer_3:3:2725,ranger_3:3:2725</t>
   </si>
   <si>
+    <t>blueDragon:1:1,skeletonArcher:3:8,meatWagon:3:3,skeletonWarrior:3:4,deathKnight:3:1</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,meatWagon:3:10,skeletonWarrior:3:15,deathKnight:3:5,skeletonArcher:3:5</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,deathKnight:3:17,skeletonArcher:3:26,meatWagon:3:8,skeletonWarrior:3:9</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,skeletonWarrior:3:48,deathKnight:3:18,skeletonArcher:3:24,meatWagon:3:6</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,skeletonArcher:3:63,meatWagon:3:23,skeletonWarrior:3:32,deathKnight:3:8</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,meatWagon:3:38,skeletonWarrior:3:58,deathKnight:3:19,skeletonArcher:3:20</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,deathKnight:3:46,skeletonArcher:3:69,meatWagon:3:23,skeletonWarrior:3:23</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,skeletonWarrior:3:106,deathKnight:3:40,skeletonArcher:3:53,meatWagon:3:13</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,skeletonArcher:3:120,meatWagon:3:45,skeletonWarrior:3:60,deathKnight:3:15</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,meatWagon:3:67,skeletonWarrior:3:101,deathKnight:3:34,skeletonArcher:3:34</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,deathKnight:3:74,skeletonArcher:3:112,meatWagon:3:37,skeletonWarrior:3:38</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,skeletonWarrior:3:164,deathKnight:3:61,skeletonArcher:3:82,meatWagon:3:20</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,skeletonArcher:3:178,meatWagon:3:67,skeletonWarrior:3:89,deathKnight:3:22</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,meatWagon:3:96,skeletonWarrior:3:144,deathKnight:3:48,skeletonArcher:3:48</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,deathKnight:3:103,skeletonArcher:3:155,meatWagon:3:52,skeletonWarrior:3:52</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,skeletonWarrior:3:221,deathKnight:3:83,skeletonArcher:3:111,meatWagon:3:28</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,skeletonArcher:3:236,meatWagon:3:88,skeletonWarrior:3:118,deathKnight:3:29</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,meatWagon:3:125,skeletonWarrior:3:188,deathKnight:3:62,skeletonArcher:3:63</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,deathKnight:3:132,skeletonArcher:3:198,meatWagon:3:66,skeletonWarrior:3:66</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,skeletonWarrior:3:279,deathKnight:3:104,skeletonArcher:3:140,meatWagon:3:35</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,skeletonArcher:3:293,meatWagon:3:110,skeletonWarrior:3:147,deathKnight:3:37</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,meatWagon:3:230,skeletonWarrior:3:346,deathKnight:3:115,skeletonArcher:3:116</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,deathKnight:3:241,skeletonArcher:3:362,meatWagon:3:121,skeletonWarrior:3:121</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,skeletonWarrior:3:504,deathKnight:3:189,skeletonArcher:3:252,meatWagon:3:63</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,skeletonArcher:3:526,meatWagon:3:197,skeletonWarrior:3:263,deathKnight:3:66</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,meatWagon:3:274,skeletonWarrior:3:411,deathKnight:3:137,skeletonArcher:3:137</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,deathKnight:3:284,skeletonArcher:3:427,meatWagon:3:142,skeletonWarrior:3:143</t>
+  </si>
+  <si>
+    <t>greenDragon:1:8,skeletonWarrior:3:591,deathKnight:3:221,skeletonArcher:3:296,meatWagon:3:74</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,skeletonArcher:3:612,meatWagon:3:229,skeletonWarrior:3:306,deathKnight:3:76</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,meatWagon:3:317,skeletonWarrior:3:476,deathKnight:3:158,skeletonArcher:3:159</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,deathKnight:3:328,skeletonArcher:3:492,meatWagon:3:164,skeletonWarrior:3:164</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,skeletonWarrior:3:677,deathKnight:3:254,skeletonArcher:3:339,meatWagon:3:85</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,skeletonArcher:3:699,meatWagon:3:262,skeletonWarrior:3:350,deathKnight:3:87</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,meatWagon:3:360,skeletonWarrior:3:540,deathKnight:3:180,skeletonArcher:3:180</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,deathKnight:3:371,skeletonArcher:3:557,meatWagon:3:185,skeletonWarrior:3:186</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,skeletonWarrior:3:764,deathKnight:3:286,skeletonArcher:3:382,meatWagon:3:95</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,skeletonArcher:3:785,meatWagon:3:294,skeletonWarrior:3:393,deathKnight:3:98</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,meatWagon:3:403,skeletonWarrior:3:605,deathKnight:3:202,skeletonArcher:3:202</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,deathKnight:3:414,skeletonArcher:3:621,meatWagon:3:207,skeletonWarrior:3:207</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,skeletonWarrior:3:850,deathKnight:3:319,skeletonArcher:3:425,meatWagon:3:106</t>
+  </si>
+  <si>
+    <t>redDragon:2:11,skeletonArcher:3:872,meatWagon:3:327,skeletonWarrior:3:436,deathKnight:3:109</t>
+  </si>
+  <si>
+    <t>redDragon:2:11,meatWagon:3:446,skeletonWarrior:3:670,deathKnight:3:223,skeletonArcher:3:224</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,deathKnight:3:610,skeletonArcher:3:915,meatWagon:3:305,skeletonWarrior:3:305</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,skeletonWarrior:3:1248,deathKnight:3:468,skeletonArcher:3:624,meatWagon:3:156</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,skeletonArcher:3:1277,meatWagon:3:479,skeletonWarrior:3:639,deathKnight:3:160</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,meatWagon:3:653,skeletonWarrior:3:980,deathKnight:3:326,skeletonArcher:3:327</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,deathKnight:3:667,skeletonArcher:3:1001,meatWagon:3:334,skeletonWarrior:3:334</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,skeletonWarrior:3:1364,deathKnight:3:511,skeletonArcher:3:682,meatWagon:3:170</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,skeletonArcher:3:1392,meatWagon:3:522,skeletonWarrior:3:696,deathKnight:3:174</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,meatWagon:3:710,skeletonWarrior:3:1066,deathKnight:3:355,skeletonArcher:3:356</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,deathKnight:3:725,skeletonArcher:3:1088,meatWagon:3:362,skeletonWarrior:3:363</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,skeletonWarrior:3:1479,deathKnight:3:554,skeletonArcher:3:740,meatWagon:3:185</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,skeletonArcher:3:1508,meatWagon:3:565,skeletonWarrior:3:754,deathKnight:3:188</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,meatWagon:3:768,skeletonWarrior:3:1152,deathKnight:3:384,skeletonArcher:3:384</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,deathKnight:3:782,skeletonArcher:3:1174,meatWagon:3:391,skeletonWarrior:3:392</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,skeletonWarrior:3:1594,deathKnight:3:598,skeletonArcher:3:797,meatWagon:3:199</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,skeletonArcher:3:1623,meatWagon:3:608,skeletonWarrior:3:812,deathKnight:3:203</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,meatWagon:3:826,skeletonWarrior:3:1239,deathKnight:3:413,skeletonArcher:3:413</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,deathKnight:3:840,skeletonArcher:3:1260,meatWagon:3:420,skeletonWarrior:3:420</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,skeletonWarrior:3:1709,deathKnight:3:641,skeletonArcher:3:855,meatWagon:3:214</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,skeletonArcher:3:1738,meatWagon:3:652,skeletonWarrior:3:869,deathKnight:3:217</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,meatWagon:3:883,skeletonWarrior:3:1325,deathKnight:3:442,skeletonArcher:3:442</t>
+  </si>
+  <si>
+    <t>blueDragon:2:16,deathKnight:3:898,skeletonArcher:3:1347,meatWagon:3:449,skeletonWarrior:3:449</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,skeletonWarrior:3:2280,deathKnight:3:855,skeletonArcher:3:1140,meatWagon:3:285</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,skeletonArcher:3:2316,meatWagon:3:868,skeletonWarrior:3:1158,deathKnight:3:289</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,meatWagon:3:1176,skeletonWarrior:3:1764,deathKnight:3:588,skeletonArcher:3:588</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,deathKnight:3:1194,skeletonArcher:3:1791,meatWagon:3:597,skeletonWarrior:3:597</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,skeletonWarrior:3:2424,deathKnight:3:909,skeletonArcher:3:1212,meatWagon:3:303</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,skeletonArcher:3:2460,meatWagon:3:922,skeletonWarrior:3:1230,deathKnight:3:307</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,meatWagon:3:1248,skeletonWarrior:3:1872,deathKnight:3:624,skeletonArcher:3:624</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,deathKnight:3:1266,skeletonArcher:3:1899,meatWagon:3:633,skeletonWarrior:3:633</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,skeletonWarrior:3:2568,deathKnight:3:963,skeletonArcher:3:1284,meatWagon:3:321</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,skeletonArcher:3:2604,meatWagon:3:976,skeletonWarrior:3:1302,deathKnight:3:325</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,meatWagon:3:1320,skeletonWarrior:3:1980,deathKnight:3:660,skeletonArcher:3:660</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,deathKnight:3:1338,skeletonArcher:3:2007,meatWagon:3:669,skeletonWarrior:3:669</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,skeletonWarrior:3:2712,deathKnight:3:1017,skeletonArcher:3:1356,meatWagon:3:339</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,skeletonArcher:3:2748,meatWagon:3:1030,skeletonWarrior:3:1374,deathKnight:3:343</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,meatWagon:3:1392,skeletonWarrior:3:2088,deathKnight:3:696,skeletonArcher:3:696</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,deathKnight:3:1410,skeletonArcher:3:2115,meatWagon:3:705,skeletonWarrior:3:705</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,skeletonWarrior:3:2856,deathKnight:3:1071,skeletonArcher:3:1428,meatWagon:3:357</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,skeletonArcher:3:2892,meatWagon:3:1084,skeletonWarrior:3:1446,deathKnight:3:361</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,meatWagon:3:1464,skeletonWarrior:3:2196,deathKnight:3:732,skeletonArcher:3:732</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,deathKnight:3:1482,skeletonArcher:3:2223,meatWagon:3:741,skeletonWarrior:3:741</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,skeletonWarrior:3:3000,deathKnight:3:1125,skeletonArcher:3:1500,meatWagon:3:375</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,skeletonArcher:3:3644,meatWagon:3:1366,skeletonWarrior:3:1822,deathKnight:3:455</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,meatWagon:3:1843,skeletonWarrior:3:2765,deathKnight:3:922,skeletonArcher:3:922</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,deathKnight:3:1865,skeletonArcher:3:2798,meatWagon:3:932,skeletonWarrior:3:933</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,skeletonWarrior:3:3773,deathKnight:3:1415,skeletonArcher:3:1887,meatWagon:3:472</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,skeletonArcher:3:3816,meatWagon:3:1431,skeletonWarrior:3:1908,deathKnight:3:477</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,meatWagon:3:1930,skeletonWarrior:3:2895,deathKnight:3:965,skeletonArcher:3:965</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,deathKnight:3:1951,skeletonArcher:3:2927,meatWagon:3:976,skeletonWarrior:3:976</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,skeletonWarrior:3:3946,deathKnight:3:1480,skeletonArcher:3:1973,meatWagon:3:493</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,skeletonArcher:3:3989,meatWagon:3:1496,skeletonWarrior:3:1995,deathKnight:3:499</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,meatWagon:3:2016,skeletonWarrior:3:3024,deathKnight:3:1008,skeletonArcher:3:1008</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,deathKnight:3:2044,skeletonArcher:3:3067,meatWagon:3:1022,skeletonWarrior:3:1023</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,skeletonWarrior:3:4174,deathKnight:3:1565,skeletonArcher:3:2087,meatWagon:3:522</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,skeletonArcher:3:4259,meatWagon:3:1597,skeletonWarrior:3:2130,deathKnight:3:532</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,meatWagon:3:2173,skeletonWarrior:3:3259,deathKnight:3:1086,skeletonArcher:3:1087</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,deathKnight:3:2216,skeletonArcher:3:3325,meatWagon:3:1108,skeletonWarrior:3:1109</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,skeletonWarrior:3:4521,deathKnight:3:1695,skeletonArcher:3:2261,meatWagon:3:565</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,skeletonArcher:3:4610,meatWagon:3:1728,skeletonWarrior:3:2305,deathKnight:3:576</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,meatWagon:3:2349,skeletonWarrior:3:3525,deathKnight:3:1175,skeletonArcher:3:1175</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,deathKnight:3:2395,skeletonArcher:3:3592,meatWagon:3:1197,skeletonWarrior:3:1198</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,skeletonWarrior:3:4881,deathKnight:3:1830,skeletonArcher:3:2441,meatWagon:3:610</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,skeletonArcher:3:4974,meatWagon:3:1865,skeletonWarrior:3:2487,deathKnight:3:622</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,meatWagon:3:2955,skeletonWarrior:3:4434,deathKnight:3:1478,skeletonArcher:3:1478</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,deathKnight:3:3010,skeletonArcher:3:4516,meatWagon:3:1505,skeletonWarrior:3:1506</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,skeletonWarrior:3:6132,deathKnight:3:2299,skeletonArcher:3:3066,meatWagon:3:766</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,skeletonArcher:3:6243,meatWagon:3:2341,skeletonWarrior:3:3122,deathKnight:3:780</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,meatWagon:3:3178,skeletonWarrior:3:4767,deathKnight:3:1589,skeletonArcher:3:1589</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,deathKnight:3:3235,skeletonArcher:3:4852,meatWagon:3:1617,skeletonWarrior:3:1618</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,skeletonWarrior:3:6584,deathKnight:3:2469,skeletonArcher:3:3292,meatWagon:3:823</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,skeletonArcher:3:6700,meatWagon:3:2512,skeletonWarrior:3:3350,deathKnight:3:837</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,meatWagon:3:3408,skeletonWarrior:3:5113,deathKnight:3:1704,skeletonArcher:3:1705</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,deathKnight:3:3467,skeletonArcher:3:5201,meatWagon:3:1734,skeletonWarrior:3:1734</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,skeletonWarrior:3:7054,deathKnight:3:2645,skeletonArcher:3:3527,meatWagon:3:882</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,skeletonArcher:3:7173,meatWagon:3:2690,skeletonWarrior:3:3587,deathKnight:3:897</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,meatWagon:3:3647,skeletonWarrior:3:5471,deathKnight:3:1823,skeletonArcher:3:1824</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,deathKnight:3:3708,skeletonArcher:3:5562,meatWagon:3:1854,skeletonWarrior:3:1854</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,skeletonWarrior:3:7539,deathKnight:3:2827,skeletonArcher:3:3770,meatWagon:3:942</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,skeletonArcher:3:7662,meatWagon:3:2873,skeletonWarrior:3:3831,deathKnight:3:958</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,meatWagon:3:3893,skeletonWarrior:3:5841,deathKnight:3:1947,skeletonArcher:3:1947</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,deathKnight:3:3956,skeletonArcher:3:5935,meatWagon:3:1978,skeletonWarrior:3:1979</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,skeletonWarrior:3:8040,deathKnight:3:3015,skeletonArcher:3:4020,meatWagon:3:1005</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,skeletonArcher:3:8168,meatWagon:3:3063,skeletonWarrior:3:4084,deathKnight:3:1021</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,meatWagon:3:4148,skeletonWarrior:3:6223,deathKnight:3:2074,skeletonArcher:3:2075</t>
+  </si>
+  <si>
+    <t>blueDragon:3:30,deathKnight:3:4815,skeletonArcher:3:7223,meatWagon:3:2407,skeletonWarrior:3:2408</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,skeletonWarrior:3:9780,deathKnight:3:3667,skeletonArcher:3:4890,meatWagon:3:1222</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,skeletonArcher:3:9930,meatWagon:3:3724,skeletonWarrior:3:4965,deathKnight:3:1241</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,meatWagon:3:5041,skeletonWarrior:3:7562,deathKnight:3:2520,skeletonArcher:3:2521</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,deathKnight:3:5118,skeletonArcher:3:7677,meatWagon:3:2559,skeletonWarrior:3:2559</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,skeletonWarrior:3:10390,deathKnight:3:3896,skeletonArcher:3:5195,meatWagon:3:1299</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,skeletonArcher:3:10545,meatWagon:3:3954,skeletonWarrior:3:5273,deathKnight:3:1318</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,meatWagon:3:5350,skeletonWarrior:3:8026,deathKnight:3:2675,skeletonArcher:3:2676</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,deathKnight:3:5429,skeletonArcher:3:8145,meatWagon:3:2715,skeletonWarrior:3:2715</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,skeletonWarrior:3:11018,deathKnight:3:4132,skeletonArcher:3:5509,meatWagon:3:1377</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,skeletonArcher:3:11178,meatWagon:3:4191,skeletonWarrior:3:5589,deathKnight:3:1397</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,meatWagon:3:5669,skeletonWarrior:3:8504,deathKnight:3:2835,skeletonArcher:3:2835</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,deathKnight:3:5750,skeletonArcher:3:8626,meatWagon:3:2875,skeletonWarrior:3:2876</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,skeletonWarrior:3:11664,deathKnight:3:4374,skeletonArcher:3:5832,meatWagon:3:1458</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,skeletonArcher:3:13308,meatWagon:3:4990,skeletonWarrior:3:6654,deathKnight:3:1663</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,meatWagon:3:6747,skeletonWarrior:3:10121,deathKnight:3:3373,skeletonArcher:3:3374</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,deathKnight:3:6841,skeletonArcher:3:10261,meatWagon:3:3420,skeletonWarrior:3:3421</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,skeletonWarrior:3:13871,deathKnight:3:5201,skeletonArcher:3:6936,meatWagon:3:1734</t>
+  </si>
+  <si>
+    <t>blueDragon:4:35,skeletonArcher:3:14061,meatWagon:3:5273,skeletonWarrior:3:7031,deathKnight:3:1758</t>
+  </si>
+  <si>
+    <t>blueDragon:4:35,meatWagon:3:7126,skeletonWarrior:3:10689,deathKnight:3:3563,skeletonArcher:3:3563</t>
+  </si>
+  <si>
+    <t>blueDragon:4:35,deathKnight:3:7223,skeletonArcher:3:10834,meatWagon:3:3611,skeletonWarrior:3:3612</t>
+  </si>
+  <si>
+    <t>greenDragon:4:35,skeletonWarrior:3:14640,deathKnight:3:5490,skeletonArcher:3:7320,meatWagon:3:1830</t>
+  </si>
+  <si>
+    <t>greenDragon:4:35,skeletonArcher:3:14835,meatWagon:3:5563,skeletonWarrior:3:7418,deathKnight:3:1854</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,meatWagon:3:7516,skeletonWarrior:3:11274,deathKnight:3:3758,skeletonArcher:3:3758</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,deathKnight:3:7615,skeletonArcher:3:11423,meatWagon:3:3807,skeletonWarrior:3:3808</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,skeletonWarrior:3:15429,deathKnight:3:5786,skeletonArcher:3:7715,meatWagon:3:1929</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,skeletonArcher:3:15630,meatWagon:3:5861,skeletonWarrior:3:7815,deathKnight:3:1954</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,meatWagon:3:7916,skeletonWarrior:3:11874,deathKnight:3:3958,skeletonArcher:3:3958</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,deathKnight:3:8908,skeletonArcher:3:13363,meatWagon:3:4454,skeletonWarrior:3:4455</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,skeletonWarrior:3:18044,deathKnight:3:6766,skeletonArcher:3:9022,meatWagon:3:2255</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,skeletonArcher:3:18273,meatWagon:3:6852,skeletonWarrior:3:9137,deathKnight:3:2284</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,meatWagon:3:9251,skeletonWarrior:3:13877,deathKnight:3:4626,skeletonArcher:3:4626</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,deathKnight:3:9367,skeletonArcher:3:14051,meatWagon:3:4683,skeletonWarrior:3:4684</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,skeletonWarrior:3:18968,deathKnight:3:7113,skeletonArcher:3:9484,meatWagon:3:2371</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,skeletonArcher:3:19242,meatWagon:3:7216,skeletonWarrior:3:9621,deathKnight:3:2405</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,meatWagon:3:9777,skeletonWarrior:3:14666,deathKnight:3:4888,skeletonArcher:3:4889</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,deathKnight:3:9984,skeletonArcher:3:14976,meatWagon:3:4992,skeletonWarrior:3:4992</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,skeletonWarrior:3:20384,deathKnight:3:7644,skeletonArcher:3:10192,meatWagon:3:2548</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,skeletonArcher:3:20805,meatWagon:3:7802,skeletonWarrior:3:10403,deathKnight:3:2601</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,meatWagon:3:10614,skeletonWarrior:3:15922,deathKnight:3:5307,skeletonArcher:3:5308</t>
+  </si>
+  <si>
+    <t>greenDragon:4:40,deathKnight:3:10828,skeletonArcher:3:16243,meatWagon:3:5414,skeletonWarrior:3:5415</t>
+  </si>
+  <si>
+    <t>greenDragon:4:40,skeletonWarrior:3:22089,deathKnight:3:8283,skeletonArcher:3:11045,meatWagon:3:2761</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>greenDragon:4:40,ranger_3:3:10972,catapult_3:3:4114,swordsman_3:3:5486,lancer_3:3:1371</t>
-  </si>
-  <si>
-    <t>greenDragon:4:40,skeletonWarrior:22089,deathKnight:8283,skeletonArcher:11045,meatWagon:2761</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4286,11 +4288,19 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0\%"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4485,950 +4495,958 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="871">
+  <cellStyleXfs count="873">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="476" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="476" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="476" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="476" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="476" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="476" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="476" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="476" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="476" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="476" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="3" xfId="476" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="476" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="476" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="476" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="476" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="476" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="476" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="476" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="476" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="476" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="476" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="871">
+  <cellStyles count="873">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -5866,6 +5884,7 @@
     <cellStyle name="超链接" xfId="865" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="867" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="869" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="871" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -6296,6 +6315,7 @@
     <cellStyle name="访问过的超链接" xfId="866" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="868" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="870" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="872" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -6748,8 +6768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H523"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H505"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="G508" sqref="G508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6860,7 +6880,7 @@
         <v>631</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>910</v>
+        <v>1243</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>509</v>
@@ -6886,7 +6906,7 @@
         <v>631</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>658</v>
@@ -6912,7 +6932,7 @@
         <v>631</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>659</v>
@@ -6938,7 +6958,7 @@
         <v>631</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>913</v>
+        <v>1244</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>510</v>
@@ -6964,7 +6984,7 @@
         <v>631</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>659</v>
@@ -6990,7 +7010,7 @@
         <v>631</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>659</v>
@@ -7016,7 +7036,7 @@
         <v>631</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>916</v>
+        <v>1245</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>511</v>
@@ -7042,7 +7062,7 @@
         <v>631</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>660</v>
@@ -7068,7 +7088,7 @@
         <v>631</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>660</v>
@@ -7094,7 +7114,7 @@
         <v>631</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>919</v>
+        <v>1246</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>512</v>
@@ -7120,7 +7140,7 @@
         <v>631</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>661</v>
@@ -7146,7 +7166,7 @@
         <v>631</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>661</v>
@@ -7172,7 +7192,7 @@
         <v>631</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>922</v>
+        <v>1247</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>513</v>
@@ -7198,7 +7218,7 @@
         <v>631</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>661</v>
@@ -7224,7 +7244,7 @@
         <v>631</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>662</v>
@@ -7250,7 +7270,7 @@
         <v>631</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>925</v>
+        <v>1248</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>514</v>
@@ -7276,7 +7296,7 @@
         <v>631</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>662</v>
@@ -7302,7 +7322,7 @@
         <v>631</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="H21" s="15" t="s">
         <v>662</v>
@@ -7328,7 +7348,7 @@
         <v>631</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>928</v>
+        <v>1249</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>515</v>
@@ -7354,7 +7374,7 @@
         <v>631</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>663</v>
@@ -7380,7 +7400,7 @@
         <v>631</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>663</v>
@@ -7406,7 +7426,7 @@
         <v>631</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>931</v>
+        <v>1250</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>516</v>
@@ -7432,7 +7452,7 @@
         <v>631</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>664</v>
@@ -7458,7 +7478,7 @@
         <v>631</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="H27" s="15" t="s">
         <v>664</v>
@@ -7484,7 +7504,7 @@
         <v>631</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>934</v>
+        <v>1251</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>517</v>
@@ -7510,7 +7530,7 @@
         <v>631</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>664</v>
@@ -7536,7 +7556,7 @@
         <v>631</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="H30" s="15" t="s">
         <v>665</v>
@@ -7562,7 +7582,7 @@
         <v>631</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>937</v>
+        <v>1252</v>
       </c>
       <c r="H31" s="15" t="s">
         <v>518</v>
@@ -7588,7 +7608,7 @@
         <v>631</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="H32" s="15" t="s">
         <v>665</v>
@@ -7614,7 +7634,7 @@
         <v>631</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="H33" s="15" t="s">
         <v>665</v>
@@ -7640,7 +7660,7 @@
         <v>631</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>940</v>
+        <v>1253</v>
       </c>
       <c r="H34" s="15" t="s">
         <v>519</v>
@@ -7666,7 +7686,7 @@
         <v>631</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="H35" s="15" t="s">
         <v>666</v>
@@ -7692,7 +7712,7 @@
         <v>631</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="H36" s="15" t="s">
         <v>666</v>
@@ -7718,7 +7738,7 @@
         <v>631</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>943</v>
+        <v>1254</v>
       </c>
       <c r="H37" s="15" t="s">
         <v>520</v>
@@ -7744,7 +7764,7 @@
         <v>631</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="H38" s="15" t="s">
         <v>667</v>
@@ -7770,7 +7790,7 @@
         <v>631</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="H39" s="15" t="s">
         <v>667</v>
@@ -7796,7 +7816,7 @@
         <v>631</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>946</v>
+        <v>1255</v>
       </c>
       <c r="H40" s="15" t="s">
         <v>521</v>
@@ -7822,7 +7842,7 @@
         <v>631</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
       <c r="H41" s="15" t="s">
         <v>667</v>
@@ -7848,7 +7868,7 @@
         <v>631</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="H42" s="15" t="s">
         <v>668</v>
@@ -7874,7 +7894,7 @@
         <v>631</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>949</v>
+        <v>1256</v>
       </c>
       <c r="H43" s="15" t="s">
         <v>522</v>
@@ -7900,7 +7920,7 @@
         <v>632</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>950</v>
+        <v>936</v>
       </c>
       <c r="H44" s="15" t="s">
         <v>668</v>
@@ -7926,7 +7946,7 @@
         <v>632</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>951</v>
+        <v>937</v>
       </c>
       <c r="H45" s="15" t="s">
         <v>668</v>
@@ -7952,7 +7972,7 @@
         <v>632</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>952</v>
+        <v>1257</v>
       </c>
       <c r="H46" s="15" t="s">
         <v>523</v>
@@ -7978,7 +7998,7 @@
         <v>632</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>953</v>
+        <v>938</v>
       </c>
       <c r="H47" s="15" t="s">
         <v>669</v>
@@ -8004,7 +8024,7 @@
         <v>632</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>954</v>
+        <v>939</v>
       </c>
       <c r="H48" s="15" t="s">
         <v>669</v>
@@ -8030,7 +8050,7 @@
         <v>632</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>955</v>
+        <v>1258</v>
       </c>
       <c r="H49" s="15" t="s">
         <v>524</v>
@@ -8056,7 +8076,7 @@
         <v>632</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>956</v>
+        <v>940</v>
       </c>
       <c r="H50" s="15" t="s">
         <v>670</v>
@@ -8082,7 +8102,7 @@
         <v>632</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>957</v>
+        <v>941</v>
       </c>
       <c r="H51" s="15" t="s">
         <v>670</v>
@@ -8108,7 +8128,7 @@
         <v>632</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>958</v>
+        <v>1259</v>
       </c>
       <c r="H52" s="15" t="s">
         <v>525</v>
@@ -8134,7 +8154,7 @@
         <v>632</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>959</v>
+        <v>942</v>
       </c>
       <c r="H53" s="15" t="s">
         <v>670</v>
@@ -8160,7 +8180,7 @@
         <v>632</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>960</v>
+        <v>943</v>
       </c>
       <c r="H54" s="15" t="s">
         <v>671</v>
@@ -8186,7 +8206,7 @@
         <v>632</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>961</v>
+        <v>1260</v>
       </c>
       <c r="H55" s="15" t="s">
         <v>526</v>
@@ -8212,7 +8232,7 @@
         <v>632</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>962</v>
+        <v>944</v>
       </c>
       <c r="H56" s="15" t="s">
         <v>671</v>
@@ -8238,7 +8258,7 @@
         <v>632</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>963</v>
+        <v>945</v>
       </c>
       <c r="H57" s="15" t="s">
         <v>671</v>
@@ -8264,7 +8284,7 @@
         <v>632</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>964</v>
+        <v>1261</v>
       </c>
       <c r="H58" s="15" t="s">
         <v>527</v>
@@ -8290,7 +8310,7 @@
         <v>632</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>965</v>
+        <v>946</v>
       </c>
       <c r="H59" s="15" t="s">
         <v>672</v>
@@ -8316,7 +8336,7 @@
         <v>632</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>966</v>
+        <v>947</v>
       </c>
       <c r="H60" s="15" t="s">
         <v>672</v>
@@ -8342,7 +8362,7 @@
         <v>632</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>967</v>
+        <v>1262</v>
       </c>
       <c r="H61" s="15" t="s">
         <v>528</v>
@@ -8368,7 +8388,7 @@
         <v>632</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>968</v>
+        <v>948</v>
       </c>
       <c r="H62" s="15" t="s">
         <v>673</v>
@@ -8394,7 +8414,7 @@
         <v>632</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="H63" s="15" t="s">
         <v>673</v>
@@ -8420,7 +8440,7 @@
         <v>632</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>970</v>
+        <v>1263</v>
       </c>
       <c r="H64" s="15" t="s">
         <v>529</v>
@@ -8446,7 +8466,7 @@
         <v>632</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>971</v>
+        <v>950</v>
       </c>
       <c r="H65" s="15" t="s">
         <v>673</v>
@@ -8472,7 +8492,7 @@
         <v>632</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>972</v>
+        <v>951</v>
       </c>
       <c r="H66" s="15" t="s">
         <v>674</v>
@@ -8498,7 +8518,7 @@
         <v>632</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>973</v>
+        <v>1264</v>
       </c>
       <c r="H67" s="15" t="s">
         <v>530</v>
@@ -8524,7 +8544,7 @@
         <v>632</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>974</v>
+        <v>952</v>
       </c>
       <c r="H68" s="15" t="s">
         <v>674</v>
@@ -8550,7 +8570,7 @@
         <v>632</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>975</v>
+        <v>953</v>
       </c>
       <c r="H69" s="15" t="s">
         <v>674</v>
@@ -8576,7 +8596,7 @@
         <v>632</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>976</v>
+        <v>1265</v>
       </c>
       <c r="H70" s="15" t="s">
         <v>531</v>
@@ -8602,7 +8622,7 @@
         <v>632</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>977</v>
+        <v>954</v>
       </c>
       <c r="H71" s="15" t="s">
         <v>675</v>
@@ -8628,7 +8648,7 @@
         <v>632</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="H72" s="15" t="s">
         <v>675</v>
@@ -8654,7 +8674,7 @@
         <v>632</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>979</v>
+        <v>1266</v>
       </c>
       <c r="H73" s="15" t="s">
         <v>532</v>
@@ -8680,7 +8700,7 @@
         <v>632</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>980</v>
+        <v>956</v>
       </c>
       <c r="H74" s="15" t="s">
         <v>676</v>
@@ -8706,7 +8726,7 @@
         <v>632</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>981</v>
+        <v>957</v>
       </c>
       <c r="H75" s="15" t="s">
         <v>676</v>
@@ -8732,7 +8752,7 @@
         <v>632</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>982</v>
+        <v>1267</v>
       </c>
       <c r="H76" s="15" t="s">
         <v>533</v>
@@ -8758,7 +8778,7 @@
         <v>632</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>983</v>
+        <v>958</v>
       </c>
       <c r="H77" s="15" t="s">
         <v>676</v>
@@ -8784,7 +8804,7 @@
         <v>632</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>984</v>
+        <v>959</v>
       </c>
       <c r="H78" s="15" t="s">
         <v>677</v>
@@ -8810,7 +8830,7 @@
         <v>632</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>985</v>
+        <v>1268</v>
       </c>
       <c r="H79" s="15" t="s">
         <v>534</v>
@@ -8836,7 +8856,7 @@
         <v>632</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>986</v>
+        <v>960</v>
       </c>
       <c r="H80" s="15" t="s">
         <v>677</v>
@@ -8862,7 +8882,7 @@
         <v>632</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>987</v>
+        <v>961</v>
       </c>
       <c r="H81" s="15" t="s">
         <v>677</v>
@@ -8888,7 +8908,7 @@
         <v>632</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>988</v>
+        <v>1269</v>
       </c>
       <c r="H82" s="15" t="s">
         <v>535</v>
@@ -8914,7 +8934,7 @@
         <v>632</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>989</v>
+        <v>962</v>
       </c>
       <c r="H83" s="15" t="s">
         <v>678</v>
@@ -8940,7 +8960,7 @@
         <v>632</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>990</v>
+        <v>963</v>
       </c>
       <c r="H84" s="15" t="s">
         <v>678</v>
@@ -8966,7 +8986,7 @@
         <v>632</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>991</v>
+        <v>1270</v>
       </c>
       <c r="H85" s="15" t="s">
         <v>536</v>
@@ -8992,7 +9012,7 @@
         <v>633</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>992</v>
+        <v>964</v>
       </c>
       <c r="H86" s="15" t="s">
         <v>679</v>
@@ -9018,7 +9038,7 @@
         <v>633</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>993</v>
+        <v>965</v>
       </c>
       <c r="H87" s="15" t="s">
         <v>679</v>
@@ -9044,7 +9064,7 @@
         <v>633</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>994</v>
+        <v>1271</v>
       </c>
       <c r="H88" s="15" t="s">
         <v>537</v>
@@ -9070,7 +9090,7 @@
         <v>633</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>995</v>
+        <v>966</v>
       </c>
       <c r="H89" s="15" t="s">
         <v>679</v>
@@ -9096,7 +9116,7 @@
         <v>633</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>996</v>
+        <v>967</v>
       </c>
       <c r="H90" s="15" t="s">
         <v>680</v>
@@ -9122,7 +9142,7 @@
         <v>633</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>997</v>
+        <v>1272</v>
       </c>
       <c r="H91" s="15" t="s">
         <v>538</v>
@@ -9148,7 +9168,7 @@
         <v>633</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>998</v>
+        <v>968</v>
       </c>
       <c r="H92" s="15" t="s">
         <v>680</v>
@@ -9174,7 +9194,7 @@
         <v>633</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="H93" s="15" t="s">
         <v>680</v>
@@ -9200,7 +9220,7 @@
         <v>633</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>1000</v>
+        <v>1273</v>
       </c>
       <c r="H94" s="15" t="s">
         <v>539</v>
@@ -9226,7 +9246,7 @@
         <v>633</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>1001</v>
+        <v>970</v>
       </c>
       <c r="H95" s="15" t="s">
         <v>681</v>
@@ -9252,7 +9272,7 @@
         <v>633</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>1002</v>
+        <v>971</v>
       </c>
       <c r="H96" s="15" t="s">
         <v>681</v>
@@ -9278,7 +9298,7 @@
         <v>633</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>1003</v>
+        <v>1274</v>
       </c>
       <c r="H97" s="15" t="s">
         <v>540</v>
@@ -9304,7 +9324,7 @@
         <v>633</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>1004</v>
+        <v>972</v>
       </c>
       <c r="H98" s="15" t="s">
         <v>682</v>
@@ -9330,7 +9350,7 @@
         <v>633</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>1005</v>
+        <v>973</v>
       </c>
       <c r="H99" s="15" t="s">
         <v>682</v>
@@ -9356,7 +9376,7 @@
         <v>633</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>1006</v>
+        <v>1275</v>
       </c>
       <c r="H100" s="15" t="s">
         <v>541</v>
@@ -9382,7 +9402,7 @@
         <v>633</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>1007</v>
+        <v>974</v>
       </c>
       <c r="H101" s="15" t="s">
         <v>682</v>
@@ -9408,7 +9428,7 @@
         <v>633</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>1008</v>
+        <v>975</v>
       </c>
       <c r="H102" s="15" t="s">
         <v>683</v>
@@ -9434,7 +9454,7 @@
         <v>633</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>1009</v>
+        <v>1276</v>
       </c>
       <c r="H103" s="15" t="s">
         <v>542</v>
@@ -9460,7 +9480,7 @@
         <v>633</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>1010</v>
+        <v>976</v>
       </c>
       <c r="H104" s="15" t="s">
         <v>683</v>
@@ -9486,7 +9506,7 @@
         <v>633</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>1011</v>
+        <v>977</v>
       </c>
       <c r="H105" s="15" t="s">
         <v>683</v>
@@ -9512,7 +9532,7 @@
         <v>633</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>1012</v>
+        <v>1277</v>
       </c>
       <c r="H106" s="15" t="s">
         <v>543</v>
@@ -9538,7 +9558,7 @@
         <v>633</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>1013</v>
+        <v>978</v>
       </c>
       <c r="H107" s="15" t="s">
         <v>684</v>
@@ -9564,7 +9584,7 @@
         <v>633</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>1014</v>
+        <v>979</v>
       </c>
       <c r="H108" s="15" t="s">
         <v>684</v>
@@ -9590,7 +9610,7 @@
         <v>633</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>1015</v>
+        <v>1278</v>
       </c>
       <c r="H109" s="15" t="s">
         <v>544</v>
@@ -9616,7 +9636,7 @@
         <v>633</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>1016</v>
+        <v>980</v>
       </c>
       <c r="H110" s="15" t="s">
         <v>685</v>
@@ -9642,7 +9662,7 @@
         <v>633</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>1017</v>
+        <v>981</v>
       </c>
       <c r="H111" s="15" t="s">
         <v>685</v>
@@ -9668,7 +9688,7 @@
         <v>633</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>1018</v>
+        <v>1279</v>
       </c>
       <c r="H112" s="15" t="s">
         <v>545</v>
@@ -9694,7 +9714,7 @@
         <v>633</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>1019</v>
+        <v>982</v>
       </c>
       <c r="H113" s="15" t="s">
         <v>685</v>
@@ -9720,7 +9740,7 @@
         <v>633</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>1020</v>
+        <v>983</v>
       </c>
       <c r="H114" s="15" t="s">
         <v>686</v>
@@ -9746,7 +9766,7 @@
         <v>633</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>1021</v>
+        <v>1280</v>
       </c>
       <c r="H115" s="15" t="s">
         <v>546</v>
@@ -9772,7 +9792,7 @@
         <v>633</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>1022</v>
+        <v>984</v>
       </c>
       <c r="H116" s="15" t="s">
         <v>686</v>
@@ -9798,7 +9818,7 @@
         <v>633</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>1023</v>
+        <v>985</v>
       </c>
       <c r="H117" s="15" t="s">
         <v>686</v>
@@ -9824,7 +9844,7 @@
         <v>633</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>1024</v>
+        <v>1281</v>
       </c>
       <c r="H118" s="15" t="s">
         <v>547</v>
@@ -9850,7 +9870,7 @@
         <v>633</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>1025</v>
+        <v>986</v>
       </c>
       <c r="H119" s="15" t="s">
         <v>687</v>
@@ -9876,7 +9896,7 @@
         <v>633</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>1026</v>
+        <v>987</v>
       </c>
       <c r="H120" s="15" t="s">
         <v>687</v>
@@ -9902,7 +9922,7 @@
         <v>633</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>1027</v>
+        <v>1282</v>
       </c>
       <c r="H121" s="15" t="s">
         <v>548</v>
@@ -9928,7 +9948,7 @@
         <v>633</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>1028</v>
+        <v>988</v>
       </c>
       <c r="H122" s="15" t="s">
         <v>688</v>
@@ -9954,7 +9974,7 @@
         <v>633</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>1029</v>
+        <v>989</v>
       </c>
       <c r="H123" s="15" t="s">
         <v>688</v>
@@ -9980,7 +10000,7 @@
         <v>633</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>1030</v>
+        <v>1283</v>
       </c>
       <c r="H124" s="15" t="s">
         <v>549</v>
@@ -10006,7 +10026,7 @@
         <v>633</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>1031</v>
+        <v>990</v>
       </c>
       <c r="H125" s="15" t="s">
         <v>688</v>
@@ -10032,7 +10052,7 @@
         <v>633</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>1032</v>
+        <v>991</v>
       </c>
       <c r="H126" s="15" t="s">
         <v>689</v>
@@ -10058,7 +10078,7 @@
         <v>633</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>1033</v>
+        <v>1284</v>
       </c>
       <c r="H127" s="15" t="s">
         <v>550</v>
@@ -10084,7 +10104,7 @@
         <v>631</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>1034</v>
+        <v>992</v>
       </c>
       <c r="H128" s="15" t="s">
         <v>689</v>
@@ -10110,7 +10130,7 @@
         <v>631</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>1035</v>
+        <v>993</v>
       </c>
       <c r="H129" s="15" t="s">
         <v>689</v>
@@ -10136,7 +10156,7 @@
         <v>631</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>1036</v>
+        <v>1285</v>
       </c>
       <c r="H130" s="15" t="s">
         <v>784</v>
@@ -10162,7 +10182,7 @@
         <v>631</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>1037</v>
+        <v>994</v>
       </c>
       <c r="H131" s="15" t="s">
         <v>690</v>
@@ -10188,7 +10208,7 @@
         <v>631</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>1038</v>
+        <v>995</v>
       </c>
       <c r="H132" s="15" t="s">
         <v>690</v>
@@ -10214,7 +10234,7 @@
         <v>631</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>1039</v>
+        <v>1286</v>
       </c>
       <c r="H133" s="15" t="s">
         <v>785</v>
@@ -10240,7 +10260,7 @@
         <v>631</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>1040</v>
+        <v>996</v>
       </c>
       <c r="H134" s="15" t="s">
         <v>691</v>
@@ -10266,7 +10286,7 @@
         <v>631</v>
       </c>
       <c r="G135" s="13" t="s">
-        <v>1041</v>
+        <v>997</v>
       </c>
       <c r="H135" s="15" t="s">
         <v>691</v>
@@ -10292,7 +10312,7 @@
         <v>631</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>1042</v>
+        <v>1287</v>
       </c>
       <c r="H136" s="15" t="s">
         <v>786</v>
@@ -10318,7 +10338,7 @@
         <v>631</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>1043</v>
+        <v>998</v>
       </c>
       <c r="H137" s="15" t="s">
         <v>691</v>
@@ -10344,7 +10364,7 @@
         <v>631</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>1044</v>
+        <v>999</v>
       </c>
       <c r="H138" s="15" t="s">
         <v>692</v>
@@ -10370,7 +10390,7 @@
         <v>631</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>1045</v>
+        <v>1288</v>
       </c>
       <c r="H139" s="15" t="s">
         <v>787</v>
@@ -10396,7 +10416,7 @@
         <v>631</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>1046</v>
+        <v>1000</v>
       </c>
       <c r="H140" s="15" t="s">
         <v>692</v>
@@ -10422,7 +10442,7 @@
         <v>631</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>1047</v>
+        <v>1001</v>
       </c>
       <c r="H141" s="15" t="s">
         <v>692</v>
@@ -10448,7 +10468,7 @@
         <v>631</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>1048</v>
+        <v>1289</v>
       </c>
       <c r="H142" s="15" t="s">
         <v>788</v>
@@ -10474,7 +10494,7 @@
         <v>631</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>1049</v>
+        <v>1002</v>
       </c>
       <c r="H143" s="15" t="s">
         <v>693</v>
@@ -10500,7 +10520,7 @@
         <v>631</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>1050</v>
+        <v>1003</v>
       </c>
       <c r="H144" s="15" t="s">
         <v>693</v>
@@ -10526,7 +10546,7 @@
         <v>631</v>
       </c>
       <c r="G145" s="13" t="s">
-        <v>1051</v>
+        <v>1290</v>
       </c>
       <c r="H145" s="15" t="s">
         <v>789</v>
@@ -10552,7 +10572,7 @@
         <v>631</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>1052</v>
+        <v>1004</v>
       </c>
       <c r="H146" s="15" t="s">
         <v>694</v>
@@ -10578,7 +10598,7 @@
         <v>631</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>1053</v>
+        <v>1005</v>
       </c>
       <c r="H147" s="15" t="s">
         <v>694</v>
@@ -10604,7 +10624,7 @@
         <v>631</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>1054</v>
+        <v>1291</v>
       </c>
       <c r="H148" s="15" t="s">
         <v>790</v>
@@ -10630,7 +10650,7 @@
         <v>631</v>
       </c>
       <c r="G149" s="13" t="s">
-        <v>1055</v>
+        <v>1006</v>
       </c>
       <c r="H149" s="15" t="s">
         <v>694</v>
@@ -10656,7 +10676,7 @@
         <v>631</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>1056</v>
+        <v>1007</v>
       </c>
       <c r="H150" s="15" t="s">
         <v>695</v>
@@ -10682,7 +10702,7 @@
         <v>631</v>
       </c>
       <c r="G151" s="13" t="s">
-        <v>1057</v>
+        <v>1292</v>
       </c>
       <c r="H151" s="15" t="s">
         <v>791</v>
@@ -10708,7 +10728,7 @@
         <v>631</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>1058</v>
+        <v>1008</v>
       </c>
       <c r="H152" s="15" t="s">
         <v>695</v>
@@ -10734,7 +10754,7 @@
         <v>631</v>
       </c>
       <c r="G153" s="13" t="s">
-        <v>1059</v>
+        <v>1009</v>
       </c>
       <c r="H153" s="15" t="s">
         <v>695</v>
@@ -10760,7 +10780,7 @@
         <v>631</v>
       </c>
       <c r="G154" s="13" t="s">
-        <v>1060</v>
+        <v>1293</v>
       </c>
       <c r="H154" s="15" t="s">
         <v>792</v>
@@ -10786,7 +10806,7 @@
         <v>631</v>
       </c>
       <c r="G155" s="13" t="s">
-        <v>1061</v>
+        <v>1010</v>
       </c>
       <c r="H155" s="15" t="s">
         <v>696</v>
@@ -10812,7 +10832,7 @@
         <v>631</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>1062</v>
+        <v>1011</v>
       </c>
       <c r="H156" s="15" t="s">
         <v>696</v>
@@ -10838,7 +10858,7 @@
         <v>631</v>
       </c>
       <c r="G157" s="13" t="s">
-        <v>1063</v>
+        <v>1294</v>
       </c>
       <c r="H157" s="15" t="s">
         <v>793</v>
@@ -10864,7 +10884,7 @@
         <v>631</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>1064</v>
+        <v>1012</v>
       </c>
       <c r="H158" s="15" t="s">
         <v>697</v>
@@ -10890,7 +10910,7 @@
         <v>631</v>
       </c>
       <c r="G159" s="13" t="s">
-        <v>1065</v>
+        <v>1013</v>
       </c>
       <c r="H159" s="15" t="s">
         <v>697</v>
@@ -10916,7 +10936,7 @@
         <v>631</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>1066</v>
+        <v>1295</v>
       </c>
       <c r="H160" s="15" t="s">
         <v>794</v>
@@ -10942,7 +10962,7 @@
         <v>631</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>1067</v>
+        <v>1014</v>
       </c>
       <c r="H161" s="15" t="s">
         <v>697</v>
@@ -10968,7 +10988,7 @@
         <v>631</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>1068</v>
+        <v>1015</v>
       </c>
       <c r="H162" s="15" t="s">
         <v>698</v>
@@ -10994,7 +11014,7 @@
         <v>631</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>1069</v>
+        <v>1296</v>
       </c>
       <c r="H163" s="15" t="s">
         <v>795</v>
@@ -11020,7 +11040,7 @@
         <v>631</v>
       </c>
       <c r="G164" s="13" t="s">
-        <v>1070</v>
+        <v>1016</v>
       </c>
       <c r="H164" s="15" t="s">
         <v>698</v>
@@ -11046,7 +11066,7 @@
         <v>631</v>
       </c>
       <c r="G165" s="13" t="s">
-        <v>1071</v>
+        <v>1017</v>
       </c>
       <c r="H165" s="15" t="s">
         <v>698</v>
@@ -11072,7 +11092,7 @@
         <v>631</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>1072</v>
+        <v>1297</v>
       </c>
       <c r="H166" s="15" t="s">
         <v>796</v>
@@ -11098,7 +11118,7 @@
         <v>631</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>1073</v>
+        <v>1018</v>
       </c>
       <c r="H167" s="15" t="s">
         <v>699</v>
@@ -11124,7 +11144,7 @@
         <v>631</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>1074</v>
+        <v>1019</v>
       </c>
       <c r="H168" s="15" t="s">
         <v>699</v>
@@ -11150,7 +11170,7 @@
         <v>631</v>
       </c>
       <c r="G169" s="13" t="s">
-        <v>1075</v>
+        <v>1298</v>
       </c>
       <c r="H169" s="15" t="s">
         <v>797</v>
@@ -11176,7 +11196,7 @@
         <v>631</v>
       </c>
       <c r="G170" s="13" t="s">
-        <v>1076</v>
+        <v>1020</v>
       </c>
       <c r="H170" s="15" t="s">
         <v>700</v>
@@ -11202,7 +11222,7 @@
         <v>631</v>
       </c>
       <c r="G171" s="13" t="s">
-        <v>1077</v>
+        <v>1021</v>
       </c>
       <c r="H171" s="15" t="s">
         <v>700</v>
@@ -11228,7 +11248,7 @@
         <v>631</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>1078</v>
+        <v>1299</v>
       </c>
       <c r="H172" s="15" t="s">
         <v>798</v>
@@ -11254,7 +11274,7 @@
         <v>631</v>
       </c>
       <c r="G173" s="13" t="s">
-        <v>1079</v>
+        <v>1022</v>
       </c>
       <c r="H173" s="15" t="s">
         <v>700</v>
@@ -11280,7 +11300,7 @@
         <v>631</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>1080</v>
+        <v>1023</v>
       </c>
       <c r="H174" s="15" t="s">
         <v>701</v>
@@ -11306,7 +11326,7 @@
         <v>631</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>1081</v>
+        <v>1300</v>
       </c>
       <c r="H175" s="15" t="s">
         <v>799</v>
@@ -11332,7 +11352,7 @@
         <v>631</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>1082</v>
+        <v>1024</v>
       </c>
       <c r="H176" s="15" t="s">
         <v>701</v>
@@ -11358,7 +11378,7 @@
         <v>631</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>1083</v>
+        <v>1025</v>
       </c>
       <c r="H177" s="15" t="s">
         <v>701</v>
@@ -11384,7 +11404,7 @@
         <v>631</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>1084</v>
+        <v>1301</v>
       </c>
       <c r="H178" s="15" t="s">
         <v>800</v>
@@ -11410,7 +11430,7 @@
         <v>631</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>1085</v>
+        <v>1026</v>
       </c>
       <c r="H179" s="15" t="s">
         <v>702</v>
@@ -11436,7 +11456,7 @@
         <v>631</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>1086</v>
+        <v>1027</v>
       </c>
       <c r="H180" s="15" t="s">
         <v>702</v>
@@ -11462,7 +11482,7 @@
         <v>631</v>
       </c>
       <c r="G181" s="13" t="s">
-        <v>1087</v>
+        <v>1302</v>
       </c>
       <c r="H181" s="15" t="s">
         <v>801</v>
@@ -11488,7 +11508,7 @@
         <v>631</v>
       </c>
       <c r="G182" s="13" t="s">
-        <v>1088</v>
+        <v>1028</v>
       </c>
       <c r="H182" s="15" t="s">
         <v>703</v>
@@ -11514,7 +11534,7 @@
         <v>631</v>
       </c>
       <c r="G183" s="13" t="s">
-        <v>1089</v>
+        <v>1029</v>
       </c>
       <c r="H183" s="15" t="s">
         <v>703</v>
@@ -11540,7 +11560,7 @@
         <v>631</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>1090</v>
+        <v>1303</v>
       </c>
       <c r="H184" s="15" t="s">
         <v>802</v>
@@ -11566,7 +11586,7 @@
         <v>631</v>
       </c>
       <c r="G185" s="13" t="s">
-        <v>1091</v>
+        <v>1030</v>
       </c>
       <c r="H185" s="15" t="s">
         <v>703</v>
@@ -11592,7 +11612,7 @@
         <v>631</v>
       </c>
       <c r="G186" s="13" t="s">
-        <v>1092</v>
+        <v>1031</v>
       </c>
       <c r="H186" s="15" t="s">
         <v>704</v>
@@ -11618,7 +11638,7 @@
         <v>631</v>
       </c>
       <c r="G187" s="13" t="s">
-        <v>1093</v>
+        <v>1304</v>
       </c>
       <c r="H187" s="15" t="s">
         <v>803</v>
@@ -11644,7 +11664,7 @@
         <v>631</v>
       </c>
       <c r="G188" s="13" t="s">
-        <v>1094</v>
+        <v>1032</v>
       </c>
       <c r="H188" s="15" t="s">
         <v>704</v>
@@ -11670,7 +11690,7 @@
         <v>631</v>
       </c>
       <c r="G189" s="13" t="s">
-        <v>1095</v>
+        <v>1033</v>
       </c>
       <c r="H189" s="15" t="s">
         <v>704</v>
@@ -11696,7 +11716,7 @@
         <v>631</v>
       </c>
       <c r="G190" s="13" t="s">
-        <v>1096</v>
+        <v>1305</v>
       </c>
       <c r="H190" s="15" t="s">
         <v>804</v>
@@ -11722,7 +11742,7 @@
         <v>633</v>
       </c>
       <c r="G191" s="13" t="s">
-        <v>1097</v>
+        <v>1034</v>
       </c>
       <c r="H191" s="15" t="s">
         <v>705</v>
@@ -11748,7 +11768,7 @@
         <v>633</v>
       </c>
       <c r="G192" s="13" t="s">
-        <v>1098</v>
+        <v>1035</v>
       </c>
       <c r="H192" s="15" t="s">
         <v>705</v>
@@ -11774,7 +11794,7 @@
         <v>633</v>
       </c>
       <c r="G193" s="13" t="s">
-        <v>1099</v>
+        <v>1306</v>
       </c>
       <c r="H193" s="15" t="s">
         <v>805</v>
@@ -11800,7 +11820,7 @@
         <v>633</v>
       </c>
       <c r="G194" s="13" t="s">
-        <v>1100</v>
+        <v>1036</v>
       </c>
       <c r="H194" s="15" t="s">
         <v>706</v>
@@ -11826,7 +11846,7 @@
         <v>633</v>
       </c>
       <c r="G195" s="13" t="s">
-        <v>1101</v>
+        <v>1037</v>
       </c>
       <c r="H195" s="15" t="s">
         <v>706</v>
@@ -11852,7 +11872,7 @@
         <v>633</v>
       </c>
       <c r="G196" s="13" t="s">
-        <v>1102</v>
+        <v>1307</v>
       </c>
       <c r="H196" s="15" t="s">
         <v>806</v>
@@ -11878,7 +11898,7 @@
         <v>633</v>
       </c>
       <c r="G197" s="13" t="s">
-        <v>1103</v>
+        <v>1038</v>
       </c>
       <c r="H197" s="15" t="s">
         <v>706</v>
@@ -11904,7 +11924,7 @@
         <v>633</v>
       </c>
       <c r="G198" s="13" t="s">
-        <v>1104</v>
+        <v>1039</v>
       </c>
       <c r="H198" s="15" t="s">
         <v>707</v>
@@ -11930,7 +11950,7 @@
         <v>633</v>
       </c>
       <c r="G199" s="13" t="s">
-        <v>1105</v>
+        <v>1308</v>
       </c>
       <c r="H199" s="15" t="s">
         <v>807</v>
@@ -11956,7 +11976,7 @@
         <v>633</v>
       </c>
       <c r="G200" s="13" t="s">
-        <v>1106</v>
+        <v>1040</v>
       </c>
       <c r="H200" s="15" t="s">
         <v>707</v>
@@ -11982,7 +12002,7 @@
         <v>633</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>1107</v>
+        <v>1041</v>
       </c>
       <c r="H201" s="15" t="s">
         <v>707</v>
@@ -12008,7 +12028,7 @@
         <v>633</v>
       </c>
       <c r="G202" s="13" t="s">
-        <v>1108</v>
+        <v>1309</v>
       </c>
       <c r="H202" s="15" t="s">
         <v>808</v>
@@ -12034,7 +12054,7 @@
         <v>633</v>
       </c>
       <c r="G203" s="13" t="s">
-        <v>1109</v>
+        <v>1042</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>708</v>
@@ -12060,7 +12080,7 @@
         <v>633</v>
       </c>
       <c r="G204" s="13" t="s">
-        <v>1110</v>
+        <v>1043</v>
       </c>
       <c r="H204" s="15" t="s">
         <v>708</v>
@@ -12086,7 +12106,7 @@
         <v>633</v>
       </c>
       <c r="G205" s="13" t="s">
-        <v>1111</v>
+        <v>1310</v>
       </c>
       <c r="H205" s="15" t="s">
         <v>809</v>
@@ -12112,7 +12132,7 @@
         <v>633</v>
       </c>
       <c r="G206" s="13" t="s">
-        <v>1112</v>
+        <v>1044</v>
       </c>
       <c r="H206" s="15" t="s">
         <v>709</v>
@@ -12138,7 +12158,7 @@
         <v>633</v>
       </c>
       <c r="G207" s="13" t="s">
-        <v>1113</v>
+        <v>1045</v>
       </c>
       <c r="H207" s="15" t="s">
         <v>709</v>
@@ -12164,7 +12184,7 @@
         <v>633</v>
       </c>
       <c r="G208" s="13" t="s">
-        <v>1114</v>
+        <v>1311</v>
       </c>
       <c r="H208" s="15" t="s">
         <v>810</v>
@@ -12190,7 +12210,7 @@
         <v>633</v>
       </c>
       <c r="G209" s="13" t="s">
-        <v>1115</v>
+        <v>1046</v>
       </c>
       <c r="H209" s="15" t="s">
         <v>709</v>
@@ -12216,7 +12236,7 @@
         <v>633</v>
       </c>
       <c r="G210" s="13" t="s">
-        <v>1116</v>
+        <v>1047</v>
       </c>
       <c r="H210" s="15" t="s">
         <v>710</v>
@@ -12242,7 +12262,7 @@
         <v>633</v>
       </c>
       <c r="G211" s="13" t="s">
-        <v>1117</v>
+        <v>1312</v>
       </c>
       <c r="H211" s="15" t="s">
         <v>811</v>
@@ -12268,7 +12288,7 @@
         <v>633</v>
       </c>
       <c r="G212" s="13" t="s">
-        <v>1118</v>
+        <v>1048</v>
       </c>
       <c r="H212" s="15" t="s">
         <v>710</v>
@@ -12294,7 +12314,7 @@
         <v>633</v>
       </c>
       <c r="G213" s="13" t="s">
-        <v>1119</v>
+        <v>1049</v>
       </c>
       <c r="H213" s="15" t="s">
         <v>710</v>
@@ -12320,7 +12340,7 @@
         <v>633</v>
       </c>
       <c r="G214" s="13" t="s">
-        <v>1120</v>
+        <v>1313</v>
       </c>
       <c r="H214" s="15" t="s">
         <v>812</v>
@@ -12346,7 +12366,7 @@
         <v>633</v>
       </c>
       <c r="G215" s="13" t="s">
-        <v>1121</v>
+        <v>1050</v>
       </c>
       <c r="H215" s="15" t="s">
         <v>711</v>
@@ -12372,7 +12392,7 @@
         <v>633</v>
       </c>
       <c r="G216" s="13" t="s">
-        <v>1122</v>
+        <v>1051</v>
       </c>
       <c r="H216" s="15" t="s">
         <v>711</v>
@@ -12398,7 +12418,7 @@
         <v>633</v>
       </c>
       <c r="G217" s="13" t="s">
-        <v>1123</v>
+        <v>1314</v>
       </c>
       <c r="H217" s="15" t="s">
         <v>813</v>
@@ -12424,7 +12444,7 @@
         <v>633</v>
       </c>
       <c r="G218" s="13" t="s">
-        <v>1124</v>
+        <v>1052</v>
       </c>
       <c r="H218" s="15" t="s">
         <v>712</v>
@@ -12450,7 +12470,7 @@
         <v>633</v>
       </c>
       <c r="G219" s="13" t="s">
-        <v>1125</v>
+        <v>1053</v>
       </c>
       <c r="H219" s="15" t="s">
         <v>712</v>
@@ -12476,7 +12496,7 @@
         <v>633</v>
       </c>
       <c r="G220" s="13" t="s">
-        <v>1126</v>
+        <v>1315</v>
       </c>
       <c r="H220" s="15" t="s">
         <v>814</v>
@@ -12502,7 +12522,7 @@
         <v>633</v>
       </c>
       <c r="G221" s="13" t="s">
-        <v>1127</v>
+        <v>1054</v>
       </c>
       <c r="H221" s="15" t="s">
         <v>712</v>
@@ -12528,7 +12548,7 @@
         <v>633</v>
       </c>
       <c r="G222" s="13" t="s">
-        <v>1128</v>
+        <v>1055</v>
       </c>
       <c r="H222" s="15" t="s">
         <v>713</v>
@@ -12554,7 +12574,7 @@
         <v>633</v>
       </c>
       <c r="G223" s="13" t="s">
-        <v>1129</v>
+        <v>1316</v>
       </c>
       <c r="H223" s="15" t="s">
         <v>815</v>
@@ -12580,7 +12600,7 @@
         <v>633</v>
       </c>
       <c r="G224" s="13" t="s">
-        <v>1130</v>
+        <v>1056</v>
       </c>
       <c r="H224" s="15" t="s">
         <v>713</v>
@@ -12606,7 +12626,7 @@
         <v>633</v>
       </c>
       <c r="G225" s="13" t="s">
-        <v>1131</v>
+        <v>1057</v>
       </c>
       <c r="H225" s="15" t="s">
         <v>713</v>
@@ -12632,7 +12652,7 @@
         <v>633</v>
       </c>
       <c r="G226" s="13" t="s">
-        <v>1132</v>
+        <v>1317</v>
       </c>
       <c r="H226" s="15" t="s">
         <v>816</v>
@@ -12658,7 +12678,7 @@
         <v>633</v>
       </c>
       <c r="G227" s="13" t="s">
-        <v>1133</v>
+        <v>1058</v>
       </c>
       <c r="H227" s="15" t="s">
         <v>714</v>
@@ -12684,7 +12704,7 @@
         <v>633</v>
       </c>
       <c r="G228" s="13" t="s">
-        <v>1134</v>
+        <v>1059</v>
       </c>
       <c r="H228" s="15" t="s">
         <v>714</v>
@@ -12710,7 +12730,7 @@
         <v>633</v>
       </c>
       <c r="G229" s="13" t="s">
-        <v>1135</v>
+        <v>1318</v>
       </c>
       <c r="H229" s="15" t="s">
         <v>817</v>
@@ -12736,7 +12756,7 @@
         <v>633</v>
       </c>
       <c r="G230" s="13" t="s">
-        <v>1136</v>
+        <v>1060</v>
       </c>
       <c r="H230" s="15" t="s">
         <v>715</v>
@@ -12762,7 +12782,7 @@
         <v>633</v>
       </c>
       <c r="G231" s="13" t="s">
-        <v>1137</v>
+        <v>1061</v>
       </c>
       <c r="H231" s="15" t="s">
         <v>715</v>
@@ -12788,7 +12808,7 @@
         <v>633</v>
       </c>
       <c r="G232" s="13" t="s">
-        <v>1138</v>
+        <v>1319</v>
       </c>
       <c r="H232" s="15" t="s">
         <v>818</v>
@@ -12814,7 +12834,7 @@
         <v>633</v>
       </c>
       <c r="G233" s="13" t="s">
-        <v>1139</v>
+        <v>1062</v>
       </c>
       <c r="H233" s="15" t="s">
         <v>715</v>
@@ -12840,7 +12860,7 @@
         <v>633</v>
       </c>
       <c r="G234" s="13" t="s">
-        <v>1140</v>
+        <v>1063</v>
       </c>
       <c r="H234" s="15" t="s">
         <v>716</v>
@@ -12866,7 +12886,7 @@
         <v>633</v>
       </c>
       <c r="G235" s="13" t="s">
-        <v>1141</v>
+        <v>1320</v>
       </c>
       <c r="H235" s="15" t="s">
         <v>819</v>
@@ -12892,7 +12912,7 @@
         <v>633</v>
       </c>
       <c r="G236" s="13" t="s">
-        <v>1142</v>
+        <v>1064</v>
       </c>
       <c r="H236" s="15" t="s">
         <v>716</v>
@@ -12918,7 +12938,7 @@
         <v>633</v>
       </c>
       <c r="G237" s="13" t="s">
-        <v>1143</v>
+        <v>1065</v>
       </c>
       <c r="H237" s="15" t="s">
         <v>716</v>
@@ -12944,7 +12964,7 @@
         <v>633</v>
       </c>
       <c r="G238" s="13" t="s">
-        <v>1144</v>
+        <v>1321</v>
       </c>
       <c r="H238" s="15" t="s">
         <v>820</v>
@@ -12970,7 +12990,7 @@
         <v>633</v>
       </c>
       <c r="G239" s="13" t="s">
-        <v>1145</v>
+        <v>1066</v>
       </c>
       <c r="H239" s="15" t="s">
         <v>717</v>
@@ -12996,7 +13016,7 @@
         <v>633</v>
       </c>
       <c r="G240" s="13" t="s">
-        <v>1146</v>
+        <v>1067</v>
       </c>
       <c r="H240" s="15" t="s">
         <v>717</v>
@@ -13022,7 +13042,7 @@
         <v>633</v>
       </c>
       <c r="G241" s="13" t="s">
-        <v>1147</v>
+        <v>1322</v>
       </c>
       <c r="H241" s="15" t="s">
         <v>821</v>
@@ -13048,7 +13068,7 @@
         <v>633</v>
       </c>
       <c r="G242" s="13" t="s">
-        <v>1148</v>
+        <v>1068</v>
       </c>
       <c r="H242" s="15" t="s">
         <v>718</v>
@@ -13074,7 +13094,7 @@
         <v>633</v>
       </c>
       <c r="G243" s="13" t="s">
-        <v>1149</v>
+        <v>1069</v>
       </c>
       <c r="H243" s="15" t="s">
         <v>718</v>
@@ -13100,7 +13120,7 @@
         <v>633</v>
       </c>
       <c r="G244" s="13" t="s">
-        <v>1150</v>
+        <v>1323</v>
       </c>
       <c r="H244" s="15" t="s">
         <v>822</v>
@@ -13126,7 +13146,7 @@
         <v>633</v>
       </c>
       <c r="G245" s="13" t="s">
-        <v>1151</v>
+        <v>1070</v>
       </c>
       <c r="H245" s="15" t="s">
         <v>718</v>
@@ -13152,7 +13172,7 @@
         <v>633</v>
       </c>
       <c r="G246" s="13" t="s">
-        <v>1152</v>
+        <v>1071</v>
       </c>
       <c r="H246" s="15" t="s">
         <v>719</v>
@@ -13178,7 +13198,7 @@
         <v>633</v>
       </c>
       <c r="G247" s="13" t="s">
-        <v>1153</v>
+        <v>1324</v>
       </c>
       <c r="H247" s="15" t="s">
         <v>823</v>
@@ -13204,7 +13224,7 @@
         <v>633</v>
       </c>
       <c r="G248" s="13" t="s">
-        <v>1154</v>
+        <v>1072</v>
       </c>
       <c r="H248" s="15" t="s">
         <v>719</v>
@@ -13230,7 +13250,7 @@
         <v>633</v>
       </c>
       <c r="G249" s="13" t="s">
-        <v>1155</v>
+        <v>1073</v>
       </c>
       <c r="H249" s="15" t="s">
         <v>719</v>
@@ -13256,7 +13276,7 @@
         <v>633</v>
       </c>
       <c r="G250" s="13" t="s">
-        <v>1156</v>
+        <v>1325</v>
       </c>
       <c r="H250" s="15" t="s">
         <v>824</v>
@@ -13282,7 +13302,7 @@
         <v>633</v>
       </c>
       <c r="G251" s="13" t="s">
-        <v>1157</v>
+        <v>1074</v>
       </c>
       <c r="H251" s="15" t="s">
         <v>720</v>
@@ -13308,7 +13328,7 @@
         <v>633</v>
       </c>
       <c r="G252" s="13" t="s">
-        <v>1158</v>
+        <v>1075</v>
       </c>
       <c r="H252" s="15" t="s">
         <v>720</v>
@@ -13334,7 +13354,7 @@
         <v>633</v>
       </c>
       <c r="G253" s="13" t="s">
-        <v>1159</v>
+        <v>1326</v>
       </c>
       <c r="H253" s="15" t="s">
         <v>825</v>
@@ -13360,7 +13380,7 @@
         <v>632</v>
       </c>
       <c r="G254" s="13" t="s">
-        <v>1160</v>
+        <v>1076</v>
       </c>
       <c r="H254" s="15" t="s">
         <v>721</v>
@@ -13386,7 +13406,7 @@
         <v>632</v>
       </c>
       <c r="G255" s="13" t="s">
-        <v>1161</v>
+        <v>1077</v>
       </c>
       <c r="H255" s="15" t="s">
         <v>721</v>
@@ -13412,7 +13432,7 @@
         <v>632</v>
       </c>
       <c r="G256" s="13" t="s">
-        <v>1162</v>
+        <v>1327</v>
       </c>
       <c r="H256" s="15" t="s">
         <v>826</v>
@@ -13438,7 +13458,7 @@
         <v>632</v>
       </c>
       <c r="G257" s="13" t="s">
-        <v>1163</v>
+        <v>1078</v>
       </c>
       <c r="H257" s="15" t="s">
         <v>721</v>
@@ -13464,7 +13484,7 @@
         <v>632</v>
       </c>
       <c r="G258" s="13" t="s">
-        <v>1164</v>
+        <v>1079</v>
       </c>
       <c r="H258" s="15" t="s">
         <v>722</v>
@@ -13490,7 +13510,7 @@
         <v>632</v>
       </c>
       <c r="G259" s="13" t="s">
-        <v>1165</v>
+        <v>1328</v>
       </c>
       <c r="H259" s="15" t="s">
         <v>827</v>
@@ -13516,7 +13536,7 @@
         <v>632</v>
       </c>
       <c r="G260" s="13" t="s">
-        <v>1166</v>
+        <v>1080</v>
       </c>
       <c r="H260" s="15" t="s">
         <v>722</v>
@@ -13542,7 +13562,7 @@
         <v>632</v>
       </c>
       <c r="G261" s="13" t="s">
-        <v>1167</v>
+        <v>1081</v>
       </c>
       <c r="H261" s="15" t="s">
         <v>722</v>
@@ -13568,7 +13588,7 @@
         <v>632</v>
       </c>
       <c r="G262" s="13" t="s">
-        <v>1168</v>
+        <v>1329</v>
       </c>
       <c r="H262" s="15" t="s">
         <v>828</v>
@@ -13594,7 +13614,7 @@
         <v>632</v>
       </c>
       <c r="G263" s="13" t="s">
-        <v>1169</v>
+        <v>1082</v>
       </c>
       <c r="H263" s="15" t="s">
         <v>723</v>
@@ -13620,7 +13640,7 @@
         <v>632</v>
       </c>
       <c r="G264" s="13" t="s">
-        <v>1170</v>
+        <v>1083</v>
       </c>
       <c r="H264" s="15" t="s">
         <v>723</v>
@@ -13646,7 +13666,7 @@
         <v>632</v>
       </c>
       <c r="G265" s="13" t="s">
-        <v>1171</v>
+        <v>1330</v>
       </c>
       <c r="H265" s="15" t="s">
         <v>829</v>
@@ -13672,7 +13692,7 @@
         <v>632</v>
       </c>
       <c r="G266" s="13" t="s">
-        <v>1172</v>
+        <v>1084</v>
       </c>
       <c r="H266" s="15" t="s">
         <v>724</v>
@@ -13698,7 +13718,7 @@
         <v>632</v>
       </c>
       <c r="G267" s="13" t="s">
-        <v>1173</v>
+        <v>1085</v>
       </c>
       <c r="H267" s="15" t="s">
         <v>724</v>
@@ -13724,7 +13744,7 @@
         <v>632</v>
       </c>
       <c r="G268" s="13" t="s">
-        <v>1174</v>
+        <v>1331</v>
       </c>
       <c r="H268" s="15" t="s">
         <v>830</v>
@@ -13750,7 +13770,7 @@
         <v>632</v>
       </c>
       <c r="G269" s="13" t="s">
-        <v>1175</v>
+        <v>1086</v>
       </c>
       <c r="H269" s="15" t="s">
         <v>724</v>
@@ -13776,7 +13796,7 @@
         <v>632</v>
       </c>
       <c r="G270" s="13" t="s">
-        <v>1176</v>
+        <v>1087</v>
       </c>
       <c r="H270" s="15" t="s">
         <v>725</v>
@@ -13802,7 +13822,7 @@
         <v>632</v>
       </c>
       <c r="G271" s="13" t="s">
-        <v>1177</v>
+        <v>1332</v>
       </c>
       <c r="H271" s="15" t="s">
         <v>831</v>
@@ -13828,7 +13848,7 @@
         <v>632</v>
       </c>
       <c r="G272" s="13" t="s">
-        <v>1178</v>
+        <v>1088</v>
       </c>
       <c r="H272" s="15" t="s">
         <v>725</v>
@@ -13854,7 +13874,7 @@
         <v>632</v>
       </c>
       <c r="G273" s="13" t="s">
-        <v>1179</v>
+        <v>1089</v>
       </c>
       <c r="H273" s="15" t="s">
         <v>725</v>
@@ -13880,7 +13900,7 @@
         <v>632</v>
       </c>
       <c r="G274" s="13" t="s">
-        <v>1180</v>
+        <v>1333</v>
       </c>
       <c r="H274" s="15" t="s">
         <v>832</v>
@@ -13906,7 +13926,7 @@
         <v>632</v>
       </c>
       <c r="G275" s="13" t="s">
-        <v>1181</v>
+        <v>1090</v>
       </c>
       <c r="H275" s="15" t="s">
         <v>726</v>
@@ -13932,7 +13952,7 @@
         <v>632</v>
       </c>
       <c r="G276" s="13" t="s">
-        <v>1182</v>
+        <v>1091</v>
       </c>
       <c r="H276" s="15" t="s">
         <v>726</v>
@@ -13958,7 +13978,7 @@
         <v>632</v>
       </c>
       <c r="G277" s="13" t="s">
-        <v>1183</v>
+        <v>1334</v>
       </c>
       <c r="H277" s="15" t="s">
         <v>833</v>
@@ -13984,7 +14004,7 @@
         <v>632</v>
       </c>
       <c r="G278" s="13" t="s">
-        <v>1184</v>
+        <v>1092</v>
       </c>
       <c r="H278" s="15" t="s">
         <v>727</v>
@@ -14010,7 +14030,7 @@
         <v>632</v>
       </c>
       <c r="G279" s="13" t="s">
-        <v>1185</v>
+        <v>1093</v>
       </c>
       <c r="H279" s="15" t="s">
         <v>727</v>
@@ -14036,7 +14056,7 @@
         <v>632</v>
       </c>
       <c r="G280" s="13" t="s">
-        <v>1186</v>
+        <v>1335</v>
       </c>
       <c r="H280" s="15" t="s">
         <v>834</v>
@@ -14062,7 +14082,7 @@
         <v>632</v>
       </c>
       <c r="G281" s="13" t="s">
-        <v>1187</v>
+        <v>1094</v>
       </c>
       <c r="H281" s="15" t="s">
         <v>727</v>
@@ -14088,7 +14108,7 @@
         <v>632</v>
       </c>
       <c r="G282" s="13" t="s">
-        <v>1188</v>
+        <v>1095</v>
       </c>
       <c r="H282" s="15" t="s">
         <v>728</v>
@@ -14114,7 +14134,7 @@
         <v>632</v>
       </c>
       <c r="G283" s="13" t="s">
-        <v>1189</v>
+        <v>1336</v>
       </c>
       <c r="H283" s="15" t="s">
         <v>835</v>
@@ -14140,7 +14160,7 @@
         <v>632</v>
       </c>
       <c r="G284" s="13" t="s">
-        <v>1190</v>
+        <v>1096</v>
       </c>
       <c r="H284" s="15" t="s">
         <v>728</v>
@@ -14166,7 +14186,7 @@
         <v>632</v>
       </c>
       <c r="G285" s="13" t="s">
-        <v>1191</v>
+        <v>1097</v>
       </c>
       <c r="H285" s="15" t="s">
         <v>728</v>
@@ -14192,7 +14212,7 @@
         <v>632</v>
       </c>
       <c r="G286" s="13" t="s">
-        <v>1192</v>
+        <v>1337</v>
       </c>
       <c r="H286" s="15" t="s">
         <v>836</v>
@@ -14218,7 +14238,7 @@
         <v>632</v>
       </c>
       <c r="G287" s="13" t="s">
-        <v>1193</v>
+        <v>1098</v>
       </c>
       <c r="H287" s="15" t="s">
         <v>729</v>
@@ -14244,7 +14264,7 @@
         <v>632</v>
       </c>
       <c r="G288" s="13" t="s">
-        <v>1194</v>
+        <v>1099</v>
       </c>
       <c r="H288" s="15" t="s">
         <v>729</v>
@@ -14270,7 +14290,7 @@
         <v>632</v>
       </c>
       <c r="G289" s="13" t="s">
-        <v>1195</v>
+        <v>1338</v>
       </c>
       <c r="H289" s="15" t="s">
         <v>837</v>
@@ -14296,7 +14316,7 @@
         <v>632</v>
       </c>
       <c r="G290" s="13" t="s">
-        <v>1196</v>
+        <v>1100</v>
       </c>
       <c r="H290" s="15" t="s">
         <v>730</v>
@@ -14322,7 +14342,7 @@
         <v>632</v>
       </c>
       <c r="G291" s="13" t="s">
-        <v>1197</v>
+        <v>1101</v>
       </c>
       <c r="H291" s="15" t="s">
         <v>730</v>
@@ -14348,7 +14368,7 @@
         <v>632</v>
       </c>
       <c r="G292" s="13" t="s">
-        <v>1198</v>
+        <v>1339</v>
       </c>
       <c r="H292" s="15" t="s">
         <v>838</v>
@@ -14374,7 +14394,7 @@
         <v>632</v>
       </c>
       <c r="G293" s="13" t="s">
-        <v>1199</v>
+        <v>1102</v>
       </c>
       <c r="H293" s="15" t="s">
         <v>730</v>
@@ -14400,7 +14420,7 @@
         <v>632</v>
       </c>
       <c r="G294" s="13" t="s">
-        <v>1200</v>
+        <v>1103</v>
       </c>
       <c r="H294" s="15" t="s">
         <v>731</v>
@@ -14426,7 +14446,7 @@
         <v>632</v>
       </c>
       <c r="G295" s="13" t="s">
-        <v>1201</v>
+        <v>1340</v>
       </c>
       <c r="H295" s="15" t="s">
         <v>839</v>
@@ -14452,7 +14472,7 @@
         <v>632</v>
       </c>
       <c r="G296" s="13" t="s">
-        <v>1202</v>
+        <v>1104</v>
       </c>
       <c r="H296" s="15" t="s">
         <v>731</v>
@@ -14478,7 +14498,7 @@
         <v>632</v>
       </c>
       <c r="G297" s="13" t="s">
-        <v>1203</v>
+        <v>1105</v>
       </c>
       <c r="H297" s="15" t="s">
         <v>731</v>
@@ -14504,7 +14524,7 @@
         <v>632</v>
       </c>
       <c r="G298" s="13" t="s">
-        <v>1204</v>
+        <v>1341</v>
       </c>
       <c r="H298" s="15" t="s">
         <v>840</v>
@@ -14530,7 +14550,7 @@
         <v>632</v>
       </c>
       <c r="G299" s="13" t="s">
-        <v>1205</v>
+        <v>1106</v>
       </c>
       <c r="H299" s="15" t="s">
         <v>732</v>
@@ -14556,7 +14576,7 @@
         <v>632</v>
       </c>
       <c r="G300" s="13" t="s">
-        <v>1206</v>
+        <v>1107</v>
       </c>
       <c r="H300" s="15" t="s">
         <v>732</v>
@@ -14582,7 +14602,7 @@
         <v>632</v>
       </c>
       <c r="G301" s="13" t="s">
-        <v>1207</v>
+        <v>1342</v>
       </c>
       <c r="H301" s="15" t="s">
         <v>841</v>
@@ -14608,7 +14628,7 @@
         <v>632</v>
       </c>
       <c r="G302" s="13" t="s">
-        <v>1208</v>
+        <v>1108</v>
       </c>
       <c r="H302" s="15" t="s">
         <v>733</v>
@@ -14634,7 +14654,7 @@
         <v>632</v>
       </c>
       <c r="G303" s="13" t="s">
-        <v>1209</v>
+        <v>1109</v>
       </c>
       <c r="H303" s="15" t="s">
         <v>733</v>
@@ -14660,7 +14680,7 @@
         <v>632</v>
       </c>
       <c r="G304" s="13" t="s">
-        <v>1210</v>
+        <v>1343</v>
       </c>
       <c r="H304" s="15" t="s">
         <v>842</v>
@@ -14686,7 +14706,7 @@
         <v>632</v>
       </c>
       <c r="G305" s="13" t="s">
-        <v>1211</v>
+        <v>1110</v>
       </c>
       <c r="H305" s="15" t="s">
         <v>733</v>
@@ -14712,7 +14732,7 @@
         <v>632</v>
       </c>
       <c r="G306" s="13" t="s">
-        <v>1212</v>
+        <v>1111</v>
       </c>
       <c r="H306" s="15" t="s">
         <v>734</v>
@@ -14738,7 +14758,7 @@
         <v>632</v>
       </c>
       <c r="G307" s="13" t="s">
-        <v>1213</v>
+        <v>1344</v>
       </c>
       <c r="H307" s="15" t="s">
         <v>843</v>
@@ -14764,7 +14784,7 @@
         <v>632</v>
       </c>
       <c r="G308" s="13" t="s">
-        <v>1214</v>
+        <v>1112</v>
       </c>
       <c r="H308" s="15" t="s">
         <v>734</v>
@@ -14790,7 +14810,7 @@
         <v>632</v>
       </c>
       <c r="G309" s="13" t="s">
-        <v>1215</v>
+        <v>1113</v>
       </c>
       <c r="H309" s="15" t="s">
         <v>734</v>
@@ -14816,7 +14836,7 @@
         <v>632</v>
       </c>
       <c r="G310" s="13" t="s">
-        <v>1216</v>
+        <v>1345</v>
       </c>
       <c r="H310" s="15" t="s">
         <v>844</v>
@@ -14842,7 +14862,7 @@
         <v>632</v>
       </c>
       <c r="G311" s="13" t="s">
-        <v>1217</v>
+        <v>1114</v>
       </c>
       <c r="H311" s="15" t="s">
         <v>735</v>
@@ -14868,7 +14888,7 @@
         <v>632</v>
       </c>
       <c r="G312" s="13" t="s">
-        <v>1218</v>
+        <v>1115</v>
       </c>
       <c r="H312" s="15" t="s">
         <v>735</v>
@@ -14894,7 +14914,7 @@
         <v>632</v>
       </c>
       <c r="G313" s="13" t="s">
-        <v>1219</v>
+        <v>1346</v>
       </c>
       <c r="H313" s="15" t="s">
         <v>845</v>
@@ -14920,7 +14940,7 @@
         <v>632</v>
       </c>
       <c r="G314" s="13" t="s">
-        <v>1220</v>
+        <v>1116</v>
       </c>
       <c r="H314" s="15" t="s">
         <v>736</v>
@@ -14946,7 +14966,7 @@
         <v>632</v>
       </c>
       <c r="G315" s="13" t="s">
-        <v>1221</v>
+        <v>1117</v>
       </c>
       <c r="H315" s="15" t="s">
         <v>736</v>
@@ -14972,7 +14992,7 @@
         <v>632</v>
       </c>
       <c r="G316" s="13" t="s">
-        <v>1222</v>
+        <v>1347</v>
       </c>
       <c r="H316" s="15" t="s">
         <v>846</v>
@@ -14998,7 +15018,7 @@
         <v>633</v>
       </c>
       <c r="G317" s="13" t="s">
-        <v>1223</v>
+        <v>1118</v>
       </c>
       <c r="H317" s="15" t="s">
         <v>736</v>
@@ -15024,7 +15044,7 @@
         <v>633</v>
       </c>
       <c r="G318" s="13" t="s">
-        <v>1224</v>
+        <v>1119</v>
       </c>
       <c r="H318" s="15" t="s">
         <v>737</v>
@@ -15050,7 +15070,7 @@
         <v>633</v>
       </c>
       <c r="G319" s="13" t="s">
-        <v>1225</v>
+        <v>1348</v>
       </c>
       <c r="H319" s="15" t="s">
         <v>847</v>
@@ -15076,7 +15096,7 @@
         <v>633</v>
       </c>
       <c r="G320" s="13" t="s">
-        <v>1226</v>
+        <v>1120</v>
       </c>
       <c r="H320" s="15" t="s">
         <v>737</v>
@@ -15102,7 +15122,7 @@
         <v>633</v>
       </c>
       <c r="G321" s="13" t="s">
-        <v>1227</v>
+        <v>1121</v>
       </c>
       <c r="H321" s="15" t="s">
         <v>737</v>
@@ -15128,7 +15148,7 @@
         <v>633</v>
       </c>
       <c r="G322" s="13" t="s">
-        <v>1228</v>
+        <v>1349</v>
       </c>
       <c r="H322" s="15" t="s">
         <v>848</v>
@@ -15154,7 +15174,7 @@
         <v>633</v>
       </c>
       <c r="G323" s="13" t="s">
-        <v>1229</v>
+        <v>1122</v>
       </c>
       <c r="H323" s="15" t="s">
         <v>738</v>
@@ -15180,7 +15200,7 @@
         <v>633</v>
       </c>
       <c r="G324" s="13" t="s">
-        <v>1230</v>
+        <v>1123</v>
       </c>
       <c r="H324" s="15" t="s">
         <v>738</v>
@@ -15206,7 +15226,7 @@
         <v>633</v>
       </c>
       <c r="G325" s="13" t="s">
-        <v>1231</v>
+        <v>1350</v>
       </c>
       <c r="H325" s="15" t="s">
         <v>849</v>
@@ -15232,7 +15252,7 @@
         <v>633</v>
       </c>
       <c r="G326" s="13" t="s">
-        <v>1232</v>
+        <v>1124</v>
       </c>
       <c r="H326" s="15" t="s">
         <v>739</v>
@@ -15258,7 +15278,7 @@
         <v>633</v>
       </c>
       <c r="G327" s="13" t="s">
-        <v>1233</v>
+        <v>1125</v>
       </c>
       <c r="H327" s="15" t="s">
         <v>739</v>
@@ -15284,7 +15304,7 @@
         <v>633</v>
       </c>
       <c r="G328" s="13" t="s">
-        <v>1234</v>
+        <v>1351</v>
       </c>
       <c r="H328" s="15" t="s">
         <v>850</v>
@@ -15310,7 +15330,7 @@
         <v>633</v>
       </c>
       <c r="G329" s="13" t="s">
-        <v>1235</v>
+        <v>1126</v>
       </c>
       <c r="H329" s="15" t="s">
         <v>739</v>
@@ -15336,7 +15356,7 @@
         <v>633</v>
       </c>
       <c r="G330" s="13" t="s">
-        <v>1236</v>
+        <v>1127</v>
       </c>
       <c r="H330" s="15" t="s">
         <v>740</v>
@@ -15362,7 +15382,7 @@
         <v>633</v>
       </c>
       <c r="G331" s="13" t="s">
-        <v>1237</v>
+        <v>1352</v>
       </c>
       <c r="H331" s="15" t="s">
         <v>851</v>
@@ -15388,7 +15408,7 @@
         <v>633</v>
       </c>
       <c r="G332" s="13" t="s">
-        <v>1238</v>
+        <v>1128</v>
       </c>
       <c r="H332" s="15" t="s">
         <v>740</v>
@@ -15414,7 +15434,7 @@
         <v>633</v>
       </c>
       <c r="G333" s="13" t="s">
-        <v>1239</v>
+        <v>1129</v>
       </c>
       <c r="H333" s="15" t="s">
         <v>740</v>
@@ -15440,7 +15460,7 @@
         <v>633</v>
       </c>
       <c r="G334" s="13" t="s">
-        <v>1240</v>
+        <v>1353</v>
       </c>
       <c r="H334" s="15" t="s">
         <v>852</v>
@@ -15466,7 +15486,7 @@
         <v>633</v>
       </c>
       <c r="G335" s="13" t="s">
-        <v>1241</v>
+        <v>1130</v>
       </c>
       <c r="H335" s="15" t="s">
         <v>741</v>
@@ -15492,7 +15512,7 @@
         <v>633</v>
       </c>
       <c r="G336" s="13" t="s">
-        <v>1242</v>
+        <v>1131</v>
       </c>
       <c r="H336" s="15" t="s">
         <v>741</v>
@@ -15518,7 +15538,7 @@
         <v>633</v>
       </c>
       <c r="G337" s="13" t="s">
-        <v>1243</v>
+        <v>1354</v>
       </c>
       <c r="H337" s="15" t="s">
         <v>853</v>
@@ -15544,7 +15564,7 @@
         <v>633</v>
       </c>
       <c r="G338" s="13" t="s">
-        <v>1244</v>
+        <v>1132</v>
       </c>
       <c r="H338" s="15" t="s">
         <v>742</v>
@@ -15570,7 +15590,7 @@
         <v>633</v>
       </c>
       <c r="G339" s="13" t="s">
-        <v>1245</v>
+        <v>1133</v>
       </c>
       <c r="H339" s="15" t="s">
         <v>742</v>
@@ -15596,7 +15616,7 @@
         <v>633</v>
       </c>
       <c r="G340" s="13" t="s">
-        <v>1246</v>
+        <v>1355</v>
       </c>
       <c r="H340" s="15" t="s">
         <v>854</v>
@@ -15622,7 +15642,7 @@
         <v>633</v>
       </c>
       <c r="G341" s="13" t="s">
-        <v>1247</v>
+        <v>1134</v>
       </c>
       <c r="H341" s="15" t="s">
         <v>742</v>
@@ -15648,7 +15668,7 @@
         <v>633</v>
       </c>
       <c r="G342" s="13" t="s">
-        <v>1248</v>
+        <v>1135</v>
       </c>
       <c r="H342" s="15" t="s">
         <v>743</v>
@@ -15674,7 +15694,7 @@
         <v>633</v>
       </c>
       <c r="G343" s="13" t="s">
-        <v>1249</v>
+        <v>1356</v>
       </c>
       <c r="H343" s="15" t="s">
         <v>855</v>
@@ -15700,7 +15720,7 @@
         <v>633</v>
       </c>
       <c r="G344" s="13" t="s">
-        <v>1250</v>
+        <v>1136</v>
       </c>
       <c r="H344" s="15" t="s">
         <v>743</v>
@@ -15726,7 +15746,7 @@
         <v>633</v>
       </c>
       <c r="G345" s="13" t="s">
-        <v>1251</v>
+        <v>1137</v>
       </c>
       <c r="H345" s="15" t="s">
         <v>743</v>
@@ -15752,7 +15772,7 @@
         <v>633</v>
       </c>
       <c r="G346" s="13" t="s">
-        <v>1252</v>
+        <v>1357</v>
       </c>
       <c r="H346" s="15" t="s">
         <v>856</v>
@@ -15778,7 +15798,7 @@
         <v>633</v>
       </c>
       <c r="G347" s="13" t="s">
-        <v>1253</v>
+        <v>1138</v>
       </c>
       <c r="H347" s="15" t="s">
         <v>744</v>
@@ -15804,7 +15824,7 @@
         <v>633</v>
       </c>
       <c r="G348" s="13" t="s">
-        <v>1254</v>
+        <v>1139</v>
       </c>
       <c r="H348" s="15" t="s">
         <v>744</v>
@@ -15830,7 +15850,7 @@
         <v>633</v>
       </c>
       <c r="G349" s="13" t="s">
-        <v>1255</v>
+        <v>1358</v>
       </c>
       <c r="H349" s="15" t="s">
         <v>857</v>
@@ -15856,7 +15876,7 @@
         <v>633</v>
       </c>
       <c r="G350" s="13" t="s">
-        <v>1256</v>
+        <v>1140</v>
       </c>
       <c r="H350" s="15" t="s">
         <v>745</v>
@@ -15882,7 +15902,7 @@
         <v>633</v>
       </c>
       <c r="G351" s="13" t="s">
-        <v>1257</v>
+        <v>1141</v>
       </c>
       <c r="H351" s="15" t="s">
         <v>745</v>
@@ -15908,7 +15928,7 @@
         <v>633</v>
       </c>
       <c r="G352" s="13" t="s">
-        <v>1258</v>
+        <v>1359</v>
       </c>
       <c r="H352" s="15" t="s">
         <v>858</v>
@@ -15934,7 +15954,7 @@
         <v>633</v>
       </c>
       <c r="G353" s="13" t="s">
-        <v>1259</v>
+        <v>1142</v>
       </c>
       <c r="H353" s="15" t="s">
         <v>745</v>
@@ -15960,7 +15980,7 @@
         <v>633</v>
       </c>
       <c r="G354" s="13" t="s">
-        <v>1260</v>
+        <v>1143</v>
       </c>
       <c r="H354" s="15" t="s">
         <v>746</v>
@@ -15986,7 +16006,7 @@
         <v>633</v>
       </c>
       <c r="G355" s="13" t="s">
-        <v>1261</v>
+        <v>1360</v>
       </c>
       <c r="H355" s="15" t="s">
         <v>859</v>
@@ -16012,7 +16032,7 @@
         <v>633</v>
       </c>
       <c r="G356" s="13" t="s">
-        <v>1262</v>
+        <v>1144</v>
       </c>
       <c r="H356" s="15" t="s">
         <v>746</v>
@@ -16038,7 +16058,7 @@
         <v>633</v>
       </c>
       <c r="G357" s="13" t="s">
-        <v>1263</v>
+        <v>1145</v>
       </c>
       <c r="H357" s="15" t="s">
         <v>746</v>
@@ -16064,7 +16084,7 @@
         <v>633</v>
       </c>
       <c r="G358" s="13" t="s">
-        <v>1264</v>
+        <v>1361</v>
       </c>
       <c r="H358" s="15" t="s">
         <v>860</v>
@@ -16090,7 +16110,7 @@
         <v>633</v>
       </c>
       <c r="G359" s="13" t="s">
-        <v>1265</v>
+        <v>1146</v>
       </c>
       <c r="H359" s="15" t="s">
         <v>747</v>
@@ -16116,7 +16136,7 @@
         <v>633</v>
       </c>
       <c r="G360" s="13" t="s">
-        <v>1266</v>
+        <v>1147</v>
       </c>
       <c r="H360" s="15" t="s">
         <v>747</v>
@@ -16142,7 +16162,7 @@
         <v>633</v>
       </c>
       <c r="G361" s="13" t="s">
-        <v>1267</v>
+        <v>1362</v>
       </c>
       <c r="H361" s="15" t="s">
         <v>861</v>
@@ -16168,7 +16188,7 @@
         <v>633</v>
       </c>
       <c r="G362" s="13" t="s">
-        <v>1268</v>
+        <v>1148</v>
       </c>
       <c r="H362" s="15" t="s">
         <v>748</v>
@@ -16194,7 +16214,7 @@
         <v>633</v>
       </c>
       <c r="G363" s="13" t="s">
-        <v>1269</v>
+        <v>1149</v>
       </c>
       <c r="H363" s="15" t="s">
         <v>748</v>
@@ -16220,7 +16240,7 @@
         <v>633</v>
       </c>
       <c r="G364" s="13" t="s">
-        <v>1270</v>
+        <v>1363</v>
       </c>
       <c r="H364" s="15" t="s">
         <v>862</v>
@@ -16246,7 +16266,7 @@
         <v>633</v>
       </c>
       <c r="G365" s="13" t="s">
-        <v>1271</v>
+        <v>1150</v>
       </c>
       <c r="H365" s="15" t="s">
         <v>748</v>
@@ -16272,7 +16292,7 @@
         <v>633</v>
       </c>
       <c r="G366" s="13" t="s">
-        <v>1272</v>
+        <v>1151</v>
       </c>
       <c r="H366" s="15" t="s">
         <v>749</v>
@@ -16298,7 +16318,7 @@
         <v>633</v>
       </c>
       <c r="G367" s="13" t="s">
-        <v>1273</v>
+        <v>1364</v>
       </c>
       <c r="H367" s="15" t="s">
         <v>863</v>
@@ -16324,7 +16344,7 @@
         <v>633</v>
       </c>
       <c r="G368" s="13" t="s">
-        <v>1274</v>
+        <v>1152</v>
       </c>
       <c r="H368" s="15" t="s">
         <v>749</v>
@@ -16350,7 +16370,7 @@
         <v>633</v>
       </c>
       <c r="G369" s="13" t="s">
-        <v>1275</v>
+        <v>1153</v>
       </c>
       <c r="H369" s="15" t="s">
         <v>749</v>
@@ -16376,7 +16396,7 @@
         <v>633</v>
       </c>
       <c r="G370" s="13" t="s">
-        <v>1276</v>
+        <v>1365</v>
       </c>
       <c r="H370" s="15" t="s">
         <v>864</v>
@@ -16402,7 +16422,7 @@
         <v>633</v>
       </c>
       <c r="G371" s="13" t="s">
-        <v>1277</v>
+        <v>1154</v>
       </c>
       <c r="H371" s="15" t="s">
         <v>750</v>
@@ -16428,7 +16448,7 @@
         <v>633</v>
       </c>
       <c r="G372" s="13" t="s">
-        <v>1278</v>
+        <v>1155</v>
       </c>
       <c r="H372" s="15" t="s">
         <v>750</v>
@@ -16454,7 +16474,7 @@
         <v>633</v>
       </c>
       <c r="G373" s="13" t="s">
-        <v>1279</v>
+        <v>1366</v>
       </c>
       <c r="H373" s="15" t="s">
         <v>865</v>
@@ -16480,7 +16500,7 @@
         <v>633</v>
       </c>
       <c r="G374" s="13" t="s">
-        <v>1280</v>
+        <v>1156</v>
       </c>
       <c r="H374" s="15" t="s">
         <v>751</v>
@@ -16506,7 +16526,7 @@
         <v>633</v>
       </c>
       <c r="G375" s="13" t="s">
-        <v>1281</v>
+        <v>1157</v>
       </c>
       <c r="H375" s="15" t="s">
         <v>751</v>
@@ -16532,7 +16552,7 @@
         <v>633</v>
       </c>
       <c r="G376" s="13" t="s">
-        <v>1282</v>
+        <v>1367</v>
       </c>
       <c r="H376" s="15" t="s">
         <v>866</v>
@@ -16558,7 +16578,7 @@
         <v>633</v>
       </c>
       <c r="G377" s="13" t="s">
-        <v>1283</v>
+        <v>1158</v>
       </c>
       <c r="H377" s="15" t="s">
         <v>751</v>
@@ -16584,7 +16604,7 @@
         <v>633</v>
       </c>
       <c r="G378" s="13" t="s">
-        <v>1284</v>
+        <v>1159</v>
       </c>
       <c r="H378" s="15" t="s">
         <v>752</v>
@@ -16610,7 +16630,7 @@
         <v>633</v>
       </c>
       <c r="G379" s="13" t="s">
-        <v>1285</v>
+        <v>1368</v>
       </c>
       <c r="H379" s="15" t="s">
         <v>867</v>
@@ -16636,7 +16656,7 @@
         <v>631</v>
       </c>
       <c r="G380" s="13" t="s">
-        <v>1286</v>
+        <v>1160</v>
       </c>
       <c r="H380" s="15" t="s">
         <v>752</v>
@@ -16662,7 +16682,7 @@
         <v>631</v>
       </c>
       <c r="G381" s="13" t="s">
-        <v>1287</v>
+        <v>1161</v>
       </c>
       <c r="H381" s="15" t="s">
         <v>752</v>
@@ -16688,7 +16708,7 @@
         <v>631</v>
       </c>
       <c r="G382" s="13" t="s">
-        <v>1288</v>
+        <v>1369</v>
       </c>
       <c r="H382" s="15" t="s">
         <v>868</v>
@@ -16714,7 +16734,7 @@
         <v>631</v>
       </c>
       <c r="G383" s="13" t="s">
-        <v>1289</v>
+        <v>1162</v>
       </c>
       <c r="H383" s="15" t="s">
         <v>753</v>
@@ -16740,7 +16760,7 @@
         <v>631</v>
       </c>
       <c r="G384" s="13" t="s">
-        <v>1290</v>
+        <v>1163</v>
       </c>
       <c r="H384" s="15" t="s">
         <v>753</v>
@@ -16766,7 +16786,7 @@
         <v>631</v>
       </c>
       <c r="G385" s="13" t="s">
-        <v>1291</v>
+        <v>1370</v>
       </c>
       <c r="H385" s="15" t="s">
         <v>869</v>
@@ -16792,7 +16812,7 @@
         <v>631</v>
       </c>
       <c r="G386" s="13" t="s">
-        <v>1292</v>
+        <v>1164</v>
       </c>
       <c r="H386" s="15" t="s">
         <v>754</v>
@@ -16818,7 +16838,7 @@
         <v>631</v>
       </c>
       <c r="G387" s="13" t="s">
-        <v>1293</v>
+        <v>1165</v>
       </c>
       <c r="H387" s="15" t="s">
         <v>754</v>
@@ -16844,7 +16864,7 @@
         <v>631</v>
       </c>
       <c r="G388" s="13" t="s">
-        <v>1294</v>
+        <v>1371</v>
       </c>
       <c r="H388" s="15" t="s">
         <v>870</v>
@@ -16870,7 +16890,7 @@
         <v>631</v>
       </c>
       <c r="G389" s="13" t="s">
-        <v>1295</v>
+        <v>1166</v>
       </c>
       <c r="H389" s="15" t="s">
         <v>754</v>
@@ -16896,7 +16916,7 @@
         <v>631</v>
       </c>
       <c r="G390" s="13" t="s">
-        <v>1296</v>
+        <v>1167</v>
       </c>
       <c r="H390" s="15" t="s">
         <v>755</v>
@@ -16922,7 +16942,7 @@
         <v>631</v>
       </c>
       <c r="G391" s="13" t="s">
-        <v>1297</v>
+        <v>1372</v>
       </c>
       <c r="H391" s="15" t="s">
         <v>871</v>
@@ -16948,7 +16968,7 @@
         <v>631</v>
       </c>
       <c r="G392" s="13" t="s">
-        <v>1298</v>
+        <v>1168</v>
       </c>
       <c r="H392" s="15" t="s">
         <v>755</v>
@@ -16974,7 +16994,7 @@
         <v>631</v>
       </c>
       <c r="G393" s="13" t="s">
-        <v>1299</v>
+        <v>1169</v>
       </c>
       <c r="H393" s="15" t="s">
         <v>755</v>
@@ -17000,7 +17020,7 @@
         <v>631</v>
       </c>
       <c r="G394" s="13" t="s">
-        <v>1300</v>
+        <v>1373</v>
       </c>
       <c r="H394" s="15" t="s">
         <v>872</v>
@@ -17026,7 +17046,7 @@
         <v>631</v>
       </c>
       <c r="G395" s="13" t="s">
-        <v>1301</v>
+        <v>1170</v>
       </c>
       <c r="H395" s="15" t="s">
         <v>756</v>
@@ -17052,7 +17072,7 @@
         <v>631</v>
       </c>
       <c r="G396" s="13" t="s">
-        <v>1302</v>
+        <v>1171</v>
       </c>
       <c r="H396" s="15" t="s">
         <v>756</v>
@@ -17078,7 +17098,7 @@
         <v>631</v>
       </c>
       <c r="G397" s="13" t="s">
-        <v>1303</v>
+        <v>1374</v>
       </c>
       <c r="H397" s="15" t="s">
         <v>873</v>
@@ -17104,7 +17124,7 @@
         <v>631</v>
       </c>
       <c r="G398" s="13" t="s">
-        <v>1304</v>
+        <v>1172</v>
       </c>
       <c r="H398" s="15" t="s">
         <v>757</v>
@@ -17130,7 +17150,7 @@
         <v>631</v>
       </c>
       <c r="G399" s="13" t="s">
-        <v>1305</v>
+        <v>1173</v>
       </c>
       <c r="H399" s="15" t="s">
         <v>757</v>
@@ -17156,7 +17176,7 @@
         <v>631</v>
       </c>
       <c r="G400" s="13" t="s">
-        <v>1306</v>
+        <v>1375</v>
       </c>
       <c r="H400" s="15" t="s">
         <v>874</v>
@@ -17182,7 +17202,7 @@
         <v>631</v>
       </c>
       <c r="G401" s="13" t="s">
-        <v>1307</v>
+        <v>1174</v>
       </c>
       <c r="H401" s="15" t="s">
         <v>757</v>
@@ -17208,7 +17228,7 @@
         <v>631</v>
       </c>
       <c r="G402" s="13" t="s">
-        <v>1308</v>
+        <v>1175</v>
       </c>
       <c r="H402" s="15" t="s">
         <v>758</v>
@@ -17234,7 +17254,7 @@
         <v>631</v>
       </c>
       <c r="G403" s="13" t="s">
-        <v>1309</v>
+        <v>1376</v>
       </c>
       <c r="H403" s="15" t="s">
         <v>875</v>
@@ -17260,7 +17280,7 @@
         <v>631</v>
       </c>
       <c r="G404" s="13" t="s">
-        <v>1310</v>
+        <v>1176</v>
       </c>
       <c r="H404" s="15" t="s">
         <v>758</v>
@@ -17286,7 +17306,7 @@
         <v>631</v>
       </c>
       <c r="G405" s="13" t="s">
-        <v>1311</v>
+        <v>1177</v>
       </c>
       <c r="H405" s="15" t="s">
         <v>758</v>
@@ -17312,7 +17332,7 @@
         <v>631</v>
       </c>
       <c r="G406" s="13" t="s">
-        <v>1312</v>
+        <v>1377</v>
       </c>
       <c r="H406" s="15" t="s">
         <v>876</v>
@@ -17338,7 +17358,7 @@
         <v>631</v>
       </c>
       <c r="G407" s="13" t="s">
-        <v>1313</v>
+        <v>1178</v>
       </c>
       <c r="H407" s="15" t="s">
         <v>759</v>
@@ -17364,7 +17384,7 @@
         <v>631</v>
       </c>
       <c r="G408" s="13" t="s">
-        <v>1314</v>
+        <v>1179</v>
       </c>
       <c r="H408" s="15" t="s">
         <v>759</v>
@@ -17390,7 +17410,7 @@
         <v>631</v>
       </c>
       <c r="G409" s="13" t="s">
-        <v>1315</v>
+        <v>1378</v>
       </c>
       <c r="H409" s="15" t="s">
         <v>877</v>
@@ -17416,7 +17436,7 @@
         <v>631</v>
       </c>
       <c r="G410" s="13" t="s">
-        <v>1316</v>
+        <v>1180</v>
       </c>
       <c r="H410" s="15" t="s">
         <v>760</v>
@@ -17442,7 +17462,7 @@
         <v>631</v>
       </c>
       <c r="G411" s="13" t="s">
-        <v>1317</v>
+        <v>1181</v>
       </c>
       <c r="H411" s="15" t="s">
         <v>760</v>
@@ -17468,7 +17488,7 @@
         <v>631</v>
       </c>
       <c r="G412" s="13" t="s">
-        <v>1318</v>
+        <v>1379</v>
       </c>
       <c r="H412" s="15" t="s">
         <v>878</v>
@@ -17494,7 +17514,7 @@
         <v>631</v>
       </c>
       <c r="G413" s="13" t="s">
-        <v>1319</v>
+        <v>1182</v>
       </c>
       <c r="H413" s="15" t="s">
         <v>760</v>
@@ -17520,7 +17540,7 @@
         <v>631</v>
       </c>
       <c r="G414" s="13" t="s">
-        <v>1320</v>
+        <v>1183</v>
       </c>
       <c r="H414" s="15" t="s">
         <v>761</v>
@@ -17546,7 +17566,7 @@
         <v>631</v>
       </c>
       <c r="G415" s="13" t="s">
-        <v>1321</v>
+        <v>1380</v>
       </c>
       <c r="H415" s="15" t="s">
         <v>879</v>
@@ -17572,7 +17592,7 @@
         <v>631</v>
       </c>
       <c r="G416" s="13" t="s">
-        <v>1322</v>
+        <v>1184</v>
       </c>
       <c r="H416" s="15" t="s">
         <v>761</v>
@@ -17598,7 +17618,7 @@
         <v>631</v>
       </c>
       <c r="G417" s="13" t="s">
-        <v>1323</v>
+        <v>1185</v>
       </c>
       <c r="H417" s="15" t="s">
         <v>761</v>
@@ -17624,7 +17644,7 @@
         <v>631</v>
       </c>
       <c r="G418" s="13" t="s">
-        <v>1324</v>
+        <v>1381</v>
       </c>
       <c r="H418" s="15" t="s">
         <v>880</v>
@@ -17650,7 +17670,7 @@
         <v>631</v>
       </c>
       <c r="G419" s="13" t="s">
-        <v>1325</v>
+        <v>1186</v>
       </c>
       <c r="H419" s="15" t="s">
         <v>762</v>
@@ -17676,7 +17696,7 @@
         <v>631</v>
       </c>
       <c r="G420" s="13" t="s">
-        <v>1326</v>
+        <v>1187</v>
       </c>
       <c r="H420" s="15" t="s">
         <v>762</v>
@@ -17702,7 +17722,7 @@
         <v>631</v>
       </c>
       <c r="G421" s="13" t="s">
-        <v>1327</v>
+        <v>1382</v>
       </c>
       <c r="H421" s="15" t="s">
         <v>881</v>
@@ -17728,7 +17748,7 @@
         <v>631</v>
       </c>
       <c r="G422" s="13" t="s">
-        <v>1328</v>
+        <v>1188</v>
       </c>
       <c r="H422" s="15" t="s">
         <v>763</v>
@@ -17754,7 +17774,7 @@
         <v>631</v>
       </c>
       <c r="G423" s="13" t="s">
-        <v>1329</v>
+        <v>1189</v>
       </c>
       <c r="H423" s="15" t="s">
         <v>763</v>
@@ -17780,7 +17800,7 @@
         <v>631</v>
       </c>
       <c r="G424" s="13" t="s">
-        <v>1330</v>
+        <v>1383</v>
       </c>
       <c r="H424" s="15" t="s">
         <v>882</v>
@@ -17806,7 +17826,7 @@
         <v>631</v>
       </c>
       <c r="G425" s="13" t="s">
-        <v>1331</v>
+        <v>1190</v>
       </c>
       <c r="H425" s="15" t="s">
         <v>763</v>
@@ -17832,7 +17852,7 @@
         <v>631</v>
       </c>
       <c r="G426" s="13" t="s">
-        <v>1332</v>
+        <v>1191</v>
       </c>
       <c r="H426" s="15" t="s">
         <v>764</v>
@@ -17858,7 +17878,7 @@
         <v>631</v>
       </c>
       <c r="G427" s="13" t="s">
-        <v>1333</v>
+        <v>1384</v>
       </c>
       <c r="H427" s="15" t="s">
         <v>883</v>
@@ -17884,7 +17904,7 @@
         <v>631</v>
       </c>
       <c r="G428" s="13" t="s">
-        <v>1334</v>
+        <v>1192</v>
       </c>
       <c r="H428" s="15" t="s">
         <v>764</v>
@@ -17910,7 +17930,7 @@
         <v>631</v>
       </c>
       <c r="G429" s="13" t="s">
-        <v>1335</v>
+        <v>1193</v>
       </c>
       <c r="H429" s="15" t="s">
         <v>764</v>
@@ -17936,7 +17956,7 @@
         <v>631</v>
       </c>
       <c r="G430" s="13" t="s">
-        <v>1336</v>
+        <v>1385</v>
       </c>
       <c r="H430" s="15" t="s">
         <v>884</v>
@@ -17962,7 +17982,7 @@
         <v>631</v>
       </c>
       <c r="G431" s="13" t="s">
-        <v>1337</v>
+        <v>1194</v>
       </c>
       <c r="H431" s="15" t="s">
         <v>765</v>
@@ -17988,7 +18008,7 @@
         <v>631</v>
       </c>
       <c r="G432" s="13" t="s">
-        <v>1338</v>
+        <v>1195</v>
       </c>
       <c r="H432" s="15" t="s">
         <v>765</v>
@@ -18014,7 +18034,7 @@
         <v>631</v>
       </c>
       <c r="G433" s="13" t="s">
-        <v>1339</v>
+        <v>1386</v>
       </c>
       <c r="H433" s="15" t="s">
         <v>885</v>
@@ -18040,7 +18060,7 @@
         <v>631</v>
       </c>
       <c r="G434" s="13" t="s">
-        <v>1340</v>
+        <v>1196</v>
       </c>
       <c r="H434" s="15" t="s">
         <v>766</v>
@@ -18066,7 +18086,7 @@
         <v>631</v>
       </c>
       <c r="G435" s="13" t="s">
-        <v>1341</v>
+        <v>1197</v>
       </c>
       <c r="H435" s="15" t="s">
         <v>766</v>
@@ -18092,7 +18112,7 @@
         <v>631</v>
       </c>
       <c r="G436" s="13" t="s">
-        <v>1342</v>
+        <v>1387</v>
       </c>
       <c r="H436" s="15" t="s">
         <v>886</v>
@@ -18118,7 +18138,7 @@
         <v>631</v>
       </c>
       <c r="G437" s="13" t="s">
-        <v>1343</v>
+        <v>1198</v>
       </c>
       <c r="H437" s="15" t="s">
         <v>766</v>
@@ -18144,7 +18164,7 @@
         <v>631</v>
       </c>
       <c r="G438" s="13" t="s">
-        <v>1344</v>
+        <v>1199</v>
       </c>
       <c r="H438" s="15" t="s">
         <v>767</v>
@@ -18170,7 +18190,7 @@
         <v>631</v>
       </c>
       <c r="G439" s="13" t="s">
-        <v>1345</v>
+        <v>1388</v>
       </c>
       <c r="H439" s="15" t="s">
         <v>887</v>
@@ -18196,7 +18216,7 @@
         <v>631</v>
       </c>
       <c r="G440" s="13" t="s">
-        <v>1346</v>
+        <v>1200</v>
       </c>
       <c r="H440" s="15" t="s">
         <v>767</v>
@@ -18222,7 +18242,7 @@
         <v>631</v>
       </c>
       <c r="G441" s="13" t="s">
-        <v>1347</v>
+        <v>1201</v>
       </c>
       <c r="H441" s="15" t="s">
         <v>767</v>
@@ -18248,7 +18268,7 @@
         <v>631</v>
       </c>
       <c r="G442" s="13" t="s">
-        <v>1348</v>
+        <v>1389</v>
       </c>
       <c r="H442" s="15" t="s">
         <v>888</v>
@@ -18274,7 +18294,7 @@
         <v>632</v>
       </c>
       <c r="G443" s="13" t="s">
-        <v>1349</v>
+        <v>1202</v>
       </c>
       <c r="H443" s="15" t="s">
         <v>768</v>
@@ -18300,7 +18320,7 @@
         <v>632</v>
       </c>
       <c r="G444" s="13" t="s">
-        <v>1350</v>
+        <v>1203</v>
       </c>
       <c r="H444" s="15" t="s">
         <v>768</v>
@@ -18326,7 +18346,7 @@
         <v>632</v>
       </c>
       <c r="G445" s="13" t="s">
-        <v>1351</v>
+        <v>1390</v>
       </c>
       <c r="H445" s="15" t="s">
         <v>889</v>
@@ -18352,7 +18372,7 @@
         <v>632</v>
       </c>
       <c r="G446" s="13" t="s">
-        <v>1352</v>
+        <v>1204</v>
       </c>
       <c r="H446" s="15" t="s">
         <v>769</v>
@@ -18378,7 +18398,7 @@
         <v>632</v>
       </c>
       <c r="G447" s="13" t="s">
-        <v>1353</v>
+        <v>1205</v>
       </c>
       <c r="H447" s="15" t="s">
         <v>769</v>
@@ -18404,7 +18424,7 @@
         <v>632</v>
       </c>
       <c r="G448" s="13" t="s">
-        <v>1354</v>
+        <v>1391</v>
       </c>
       <c r="H448" s="15" t="s">
         <v>890</v>
@@ -18430,7 +18450,7 @@
         <v>632</v>
       </c>
       <c r="G449" s="13" t="s">
-        <v>1355</v>
+        <v>1206</v>
       </c>
       <c r="H449" s="15" t="s">
         <v>769</v>
@@ -18456,7 +18476,7 @@
         <v>632</v>
       </c>
       <c r="G450" s="13" t="s">
-        <v>1356</v>
+        <v>1207</v>
       </c>
       <c r="H450" s="15" t="s">
         <v>770</v>
@@ -18482,7 +18502,7 @@
         <v>632</v>
       </c>
       <c r="G451" s="13" t="s">
-        <v>1357</v>
+        <v>1392</v>
       </c>
       <c r="H451" s="15" t="s">
         <v>891</v>
@@ -18508,7 +18528,7 @@
         <v>632</v>
       </c>
       <c r="G452" s="13" t="s">
-        <v>1358</v>
+        <v>1208</v>
       </c>
       <c r="H452" s="15" t="s">
         <v>770</v>
@@ -18534,7 +18554,7 @@
         <v>632</v>
       </c>
       <c r="G453" s="13" t="s">
-        <v>1359</v>
+        <v>1209</v>
       </c>
       <c r="H453" s="15" t="s">
         <v>770</v>
@@ -18560,7 +18580,7 @@
         <v>632</v>
       </c>
       <c r="G454" s="13" t="s">
-        <v>1360</v>
+        <v>1393</v>
       </c>
       <c r="H454" s="15" t="s">
         <v>892</v>
@@ -18586,7 +18606,7 @@
         <v>632</v>
       </c>
       <c r="G455" s="13" t="s">
-        <v>1361</v>
+        <v>1210</v>
       </c>
       <c r="H455" s="15" t="s">
         <v>771</v>
@@ -18612,7 +18632,7 @@
         <v>632</v>
       </c>
       <c r="G456" s="13" t="s">
-        <v>1362</v>
+        <v>1211</v>
       </c>
       <c r="H456" s="15" t="s">
         <v>771</v>
@@ -18638,7 +18658,7 @@
         <v>632</v>
       </c>
       <c r="G457" s="13" t="s">
-        <v>1363</v>
+        <v>1394</v>
       </c>
       <c r="H457" s="15" t="s">
         <v>893</v>
@@ -18664,7 +18684,7 @@
         <v>632</v>
       </c>
       <c r="G458" s="13" t="s">
-        <v>1364</v>
+        <v>1212</v>
       </c>
       <c r="H458" s="15" t="s">
         <v>772</v>
@@ -18690,7 +18710,7 @@
         <v>632</v>
       </c>
       <c r="G459" s="13" t="s">
-        <v>1365</v>
+        <v>1213</v>
       </c>
       <c r="H459" s="15" t="s">
         <v>772</v>
@@ -18716,7 +18736,7 @@
         <v>632</v>
       </c>
       <c r="G460" s="13" t="s">
-        <v>1366</v>
+        <v>1395</v>
       </c>
       <c r="H460" s="15" t="s">
         <v>894</v>
@@ -18742,7 +18762,7 @@
         <v>632</v>
       </c>
       <c r="G461" s="13" t="s">
-        <v>1367</v>
+        <v>1214</v>
       </c>
       <c r="H461" s="15" t="s">
         <v>772</v>
@@ -18768,7 +18788,7 @@
         <v>632</v>
       </c>
       <c r="G462" s="13" t="s">
-        <v>1368</v>
+        <v>1215</v>
       </c>
       <c r="H462" s="15" t="s">
         <v>773</v>
@@ -18794,7 +18814,7 @@
         <v>632</v>
       </c>
       <c r="G463" s="13" t="s">
-        <v>1369</v>
+        <v>1396</v>
       </c>
       <c r="H463" s="15" t="s">
         <v>895</v>
@@ -18820,7 +18840,7 @@
         <v>632</v>
       </c>
       <c r="G464" s="13" t="s">
-        <v>1370</v>
+        <v>1216</v>
       </c>
       <c r="H464" s="15" t="s">
         <v>773</v>
@@ -18846,7 +18866,7 @@
         <v>632</v>
       </c>
       <c r="G465" s="13" t="s">
-        <v>1371</v>
+        <v>1217</v>
       </c>
       <c r="H465" s="15" t="s">
         <v>773</v>
@@ -18872,7 +18892,7 @@
         <v>632</v>
       </c>
       <c r="G466" s="13" t="s">
-        <v>1372</v>
+        <v>1397</v>
       </c>
       <c r="H466" s="15" t="s">
         <v>896</v>
@@ -18898,7 +18918,7 @@
         <v>632</v>
       </c>
       <c r="G467" s="13" t="s">
-        <v>1373</v>
+        <v>1218</v>
       </c>
       <c r="H467" s="15" t="s">
         <v>774</v>
@@ -18924,7 +18944,7 @@
         <v>632</v>
       </c>
       <c r="G468" s="13" t="s">
-        <v>1374</v>
+        <v>1219</v>
       </c>
       <c r="H468" s="15" t="s">
         <v>774</v>
@@ -18950,7 +18970,7 @@
         <v>632</v>
       </c>
       <c r="G469" s="13" t="s">
-        <v>1375</v>
+        <v>1398</v>
       </c>
       <c r="H469" s="15" t="s">
         <v>897</v>
@@ -18976,7 +18996,7 @@
         <v>632</v>
       </c>
       <c r="G470" s="13" t="s">
-        <v>1376</v>
+        <v>1220</v>
       </c>
       <c r="H470" s="15" t="s">
         <v>775</v>
@@ -19002,7 +19022,7 @@
         <v>632</v>
       </c>
       <c r="G471" s="13" t="s">
-        <v>1377</v>
+        <v>1221</v>
       </c>
       <c r="H471" s="15" t="s">
         <v>775</v>
@@ -19028,7 +19048,7 @@
         <v>632</v>
       </c>
       <c r="G472" s="13" t="s">
-        <v>1378</v>
+        <v>1399</v>
       </c>
       <c r="H472" s="15" t="s">
         <v>898</v>
@@ -19054,7 +19074,7 @@
         <v>632</v>
       </c>
       <c r="G473" s="13" t="s">
-        <v>1379</v>
+        <v>1222</v>
       </c>
       <c r="H473" s="15" t="s">
         <v>775</v>
@@ -19080,7 +19100,7 @@
         <v>632</v>
       </c>
       <c r="G474" s="13" t="s">
-        <v>1380</v>
+        <v>1223</v>
       </c>
       <c r="H474" s="15" t="s">
         <v>776</v>
@@ -19106,7 +19126,7 @@
         <v>632</v>
       </c>
       <c r="G475" s="13" t="s">
-        <v>1381</v>
+        <v>1400</v>
       </c>
       <c r="H475" s="15" t="s">
         <v>899</v>
@@ -19132,7 +19152,7 @@
         <v>632</v>
       </c>
       <c r="G476" s="13" t="s">
-        <v>1382</v>
+        <v>1224</v>
       </c>
       <c r="H476" s="15" t="s">
         <v>776</v>
@@ -19158,7 +19178,7 @@
         <v>632</v>
       </c>
       <c r="G477" s="13" t="s">
-        <v>1383</v>
+        <v>1225</v>
       </c>
       <c r="H477" s="15" t="s">
         <v>776</v>
@@ -19184,7 +19204,7 @@
         <v>632</v>
       </c>
       <c r="G478" s="13" t="s">
-        <v>1384</v>
+        <v>1401</v>
       </c>
       <c r="H478" s="15" t="s">
         <v>900</v>
@@ -19210,7 +19230,7 @@
         <v>632</v>
       </c>
       <c r="G479" s="13" t="s">
-        <v>1385</v>
+        <v>1226</v>
       </c>
       <c r="H479" s="15" t="s">
         <v>777</v>
@@ -19236,7 +19256,7 @@
         <v>632</v>
       </c>
       <c r="G480" s="13" t="s">
-        <v>1386</v>
+        <v>1227</v>
       </c>
       <c r="H480" s="15" t="s">
         <v>777</v>
@@ -19262,7 +19282,7 @@
         <v>632</v>
       </c>
       <c r="G481" s="13" t="s">
-        <v>1387</v>
+        <v>1402</v>
       </c>
       <c r="H481" s="15" t="s">
         <v>901</v>
@@ -19288,7 +19308,7 @@
         <v>632</v>
       </c>
       <c r="G482" s="13" t="s">
-        <v>1388</v>
+        <v>1228</v>
       </c>
       <c r="H482" s="15" t="s">
         <v>778</v>
@@ -19314,7 +19334,7 @@
         <v>632</v>
       </c>
       <c r="G483" s="13" t="s">
-        <v>1389</v>
+        <v>1229</v>
       </c>
       <c r="H483" s="15" t="s">
         <v>778</v>
@@ -19340,7 +19360,7 @@
         <v>632</v>
       </c>
       <c r="G484" s="13" t="s">
-        <v>1390</v>
+        <v>1403</v>
       </c>
       <c r="H484" s="15" t="s">
         <v>891</v>
@@ -19366,7 +19386,7 @@
         <v>632</v>
       </c>
       <c r="G485" s="13" t="s">
-        <v>1391</v>
+        <v>1230</v>
       </c>
       <c r="H485" s="15" t="s">
         <v>778</v>
@@ -19392,7 +19412,7 @@
         <v>632</v>
       </c>
       <c r="G486" s="13" t="s">
-        <v>1392</v>
+        <v>1231</v>
       </c>
       <c r="H486" s="15" t="s">
         <v>779</v>
@@ -19418,7 +19438,7 @@
         <v>632</v>
       </c>
       <c r="G487" s="13" t="s">
-        <v>1393</v>
+        <v>1404</v>
       </c>
       <c r="H487" s="15" t="s">
         <v>901</v>
@@ -19444,7 +19464,7 @@
         <v>632</v>
       </c>
       <c r="G488" s="13" t="s">
-        <v>1394</v>
+        <v>1232</v>
       </c>
       <c r="H488" s="15" t="s">
         <v>779</v>
@@ -19470,7 +19490,7 @@
         <v>632</v>
       </c>
       <c r="G489" s="13" t="s">
-        <v>1395</v>
+        <v>1233</v>
       </c>
       <c r="H489" s="15" t="s">
         <v>779</v>
@@ -19496,7 +19516,7 @@
         <v>632</v>
       </c>
       <c r="G490" s="13" t="s">
-        <v>1396</v>
+        <v>1405</v>
       </c>
       <c r="H490" s="15" t="s">
         <v>902</v>
@@ -19522,7 +19542,7 @@
         <v>632</v>
       </c>
       <c r="G491" s="13" t="s">
-        <v>1397</v>
+        <v>1234</v>
       </c>
       <c r="H491" s="15" t="s">
         <v>780</v>
@@ -19548,7 +19568,7 @@
         <v>632</v>
       </c>
       <c r="G492" s="13" t="s">
-        <v>1398</v>
+        <v>1235</v>
       </c>
       <c r="H492" s="15" t="s">
         <v>780</v>
@@ -19574,7 +19594,7 @@
         <v>632</v>
       </c>
       <c r="G493" s="13" t="s">
-        <v>1399</v>
+        <v>1406</v>
       </c>
       <c r="H493" s="15" t="s">
         <v>903</v>
@@ -19600,7 +19620,7 @@
         <v>632</v>
       </c>
       <c r="G494" s="13" t="s">
-        <v>1400</v>
+        <v>1236</v>
       </c>
       <c r="H494" s="15" t="s">
         <v>781</v>
@@ -19626,7 +19646,7 @@
         <v>632</v>
       </c>
       <c r="G495" s="13" t="s">
-        <v>1401</v>
+        <v>1237</v>
       </c>
       <c r="H495" s="15" t="s">
         <v>781</v>
@@ -19652,7 +19672,7 @@
         <v>632</v>
       </c>
       <c r="G496" s="13" t="s">
-        <v>1402</v>
+        <v>1407</v>
       </c>
       <c r="H496" s="15" t="s">
         <v>904</v>
@@ -19678,7 +19698,7 @@
         <v>632</v>
       </c>
       <c r="G497" s="13" t="s">
-        <v>1403</v>
+        <v>1238</v>
       </c>
       <c r="H497" s="15" t="s">
         <v>781</v>
@@ -19704,7 +19724,7 @@
         <v>632</v>
       </c>
       <c r="G498" s="13" t="s">
-        <v>1404</v>
+        <v>1239</v>
       </c>
       <c r="H498" s="15" t="s">
         <v>782</v>
@@ -19730,7 +19750,7 @@
         <v>632</v>
       </c>
       <c r="G499" s="13" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="H499" s="15" t="s">
         <v>905</v>
@@ -19756,7 +19776,7 @@
         <v>632</v>
       </c>
       <c r="G500" s="13" t="s">
-        <v>1406</v>
+        <v>1240</v>
       </c>
       <c r="H500" s="15" t="s">
         <v>782</v>
@@ -19782,7 +19802,7 @@
         <v>632</v>
       </c>
       <c r="G501" s="13" t="s">
-        <v>1407</v>
+        <v>1241</v>
       </c>
       <c r="H501" s="7" t="s">
         <v>782</v>
@@ -19808,7 +19828,7 @@
         <v>632</v>
       </c>
       <c r="G502" s="13" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="H502" s="7" t="s">
         <v>906</v>
@@ -19834,7 +19854,7 @@
         <v>632</v>
       </c>
       <c r="G503" s="13" t="s">
-        <v>1409</v>
+        <v>1242</v>
       </c>
       <c r="H503" s="7" t="s">
         <v>783</v>
@@ -19859,8 +19879,8 @@
       <c r="F504" s="19" t="s">
         <v>632</v>
       </c>
-      <c r="G504" s="13" t="s">
-        <v>1410</v>
+      <c r="G504" s="23" t="s">
+        <v>1411</v>
       </c>
       <c r="H504" s="7" t="s">
         <v>783</v>
@@ -19885,8 +19905,8 @@
       <c r="F505" s="19" t="s">
         <v>632</v>
       </c>
-      <c r="G505" s="6" t="s">
-        <v>1411</v>
+      <c r="G505" s="22" t="s">
+        <v>1410</v>
       </c>
       <c r="H505" s="7" t="s">
         <v>907</v>
@@ -19894,10 +19914,10 @@
     </row>
     <row r="506" spans="1:8" ht="20" customHeight="1">
       <c r="D506" s="19"/>
+      <c r="G506" s="6"/>
     </row>
     <row r="507" spans="1:8" ht="20" customHeight="1">
       <c r="D507" s="19"/>
-      <c r="G507" s="6"/>
     </row>
     <row r="508" spans="1:8" ht="20" customHeight="1">
       <c r="D508" s="19"/>
@@ -19948,7 +19968,7 @@
       <c r="D523" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -21804,7 +21824,7 @@
       <c r="B349" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/Dragonfall/gameData/shared/PvE.xlsx
+++ b/Dragonfall/gameData/shared/PvE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="660" windowWidth="37540" windowHeight="19500" tabRatio="566"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33080" windowHeight="21140" tabRatio="566"/>
   </bookViews>
   <sheets>
     <sheet name="sections" sheetId="12" r:id="rId1"/>
@@ -2794,9 +2794,6 @@
     <t>blueDragon:1:2,horseArcher_1:1:66,crossbowman_1:1:99,ballista_1:1:33,swordsman_1:1:33</t>
   </si>
   <si>
-    <t>blueDragon:1:2,ballista_1:1:72,sentinel_1:1:108,horseArhcer_1:1:36,ranger_1:1:36</t>
-  </si>
-  <si>
     <t>blueDragon:1:2,sentinel_1:1:168,horseArcher_1:1:63,crossbowman_1:1:84,catapult_1:1:21</t>
   </si>
   <si>
@@ -2833,18 +2830,12 @@
     <t>blueDragon:1:4,sentinel_1:1:360,horseArcher_1:1:135,ranger_1:1:180,catapult_1:1:45</t>
   </si>
   <si>
-    <t>blueDragon:1:4,ballista_1:1:192,sentinel_1:1:288,horseArhcer_1:1:96,ranger_1:1:96</t>
-  </si>
-  <si>
     <t>blueDragon:1:4,crossbowman_1:1:396,ballista_1:1:148,sentinel_1:1:198,lancer_1:1:49</t>
   </si>
   <si>
     <t>blueDragon:1:4,horseArcher_1:1:210,crossbowman_1:1:315,ballista_1:1:105,sentinel_1:1:105</t>
   </si>
   <si>
-    <t>blueDragon:1:4,ballista_1:1:216,sentinel_1:1:324,horseArhcer_1:1:108,crossbowman_1:1:108</t>
-  </si>
-  <si>
     <t>blueDragon:1:4,sentinel_1:1:456,horseArcher_1:1:171,crossbowman_1:1:228,ballista_1:1:57</t>
   </si>
   <si>
@@ -2881,9 +2872,6 @@
     <t>greenDragon:1:5,sentinel_1:1:648,horseArcher_1:1:243,crossbowman_1:1:324,catapult_1:1:81</t>
   </si>
   <si>
-    <t>greenDragon:1:6,ballista_1:1:336,sentinel_1:1:504,horseArhcer_1:1:168,crossbowman_1:1:168</t>
-  </si>
-  <si>
     <t>greenDragon:1:6,crossbowman_1:1:684,ballista_1:1:256,sentinel_1:1:342,horseArcher_1:1:85</t>
   </si>
   <si>
@@ -2914,9 +2902,6 @@
     <t>greenDragon:1:7,horseArcher_1:2:426,crossbowman_1:2:639,ballista_1:2:213,swordsman_1:2:213</t>
   </si>
   <si>
-    <t>greenDragon:1:7,ballista_1:2:432,sentinel_1:2:648,horseArhcer_1:2:216,ranger_1:2:216</t>
-  </si>
-  <si>
     <t>greenDragon:1:7,sentinel_1:2:888,horseArcher_1:2:333,crossbowman_1:2:444,catapult_1:2:111</t>
   </si>
   <si>
@@ -2953,18 +2938,12 @@
     <t>redDragon:1:8,sentinel_1:2:1080,horseArcher_1:2:405,ranger_1:2:540,catapult_1:2:135</t>
   </si>
   <si>
-    <t>redDragon:1:8,ballista_1:2:552,sentinel_1:2:828,horseArhcer_1:2:276,ranger_1:2:276</t>
-  </si>
-  <si>
     <t>redDragon:1:8,crossbowman_1:2:1116,ballista_1:2:418,sentinel_1:2:558,lancer_1:2:139</t>
   </si>
   <si>
     <t>redDragon:1:9,horseArcher_1:2:570,crossbowman_1:2:855,ballista_1:2:285,sentinel_1:2:285</t>
   </si>
   <si>
-    <t>redDragon:1:9,ballista_1:2:576,sentinel_1:2:864,horseArhcer_1:2:288,crossbowman_1:2:288</t>
-  </si>
-  <si>
     <t>redDragon:1:9,sentinel_1:2:1176,horseArcher_1:2:441,crossbowman_1:2:588,ballista_1:2:147</t>
   </si>
   <si>
@@ -3001,9 +2980,6 @@
     <t>redDragon:1:10,sentinel_1:2:1368,horseArcher_1:2:513,crossbowman_1:2:684,catapult_1:2:171</t>
   </si>
   <si>
-    <t>redDragon:1:10,ballista_1:2:696,sentinel_1:2:1044,horseArhcer_1:2:348,crossbowman_1:2:348</t>
-  </si>
-  <si>
     <t>redDragon:1:10,crossbowman_1:2:1404,ballista_1:2:526,sentinel_1:2:702,horseArcher_1:2:175</t>
   </si>
   <si>
@@ -3034,9 +3010,6 @@
     <t>blueDragon:2:11,horseArcher_1:3:786,crossbowman_1:3:1179,ballista_1:3:393,swordsman_1:3:393</t>
   </si>
   <si>
-    <t>blueDragon:2:11,ballista_1:3:792,sentinel_1:3:1188,horseArhcer_1:3:396,ranger_1:3:396</t>
-  </si>
-  <si>
     <t>blueDragon:2:12,sentinel_1:3:1608,horseArcher_1:3:603,crossbowman_1:3:804,catapult_1:3:201</t>
   </si>
   <si>
@@ -3073,18 +3046,12 @@
     <t>blueDragon:2:13,sentinel_1:3:1800,horseArcher_1:3:675,ranger_1:3:900,catapult_1:3:225</t>
   </si>
   <si>
-    <t>blueDragon:2:13,ballista_1:3:912,sentinel_1:3:1368,horseArhcer_1:3:456,ranger_1:3:456</t>
-  </si>
-  <si>
     <t>blueDragon:2:13,crossbowman_1:3:1836,ballista_1:3:688,sentinel_1:3:918,lancer_1:3:229</t>
   </si>
   <si>
     <t>blueDragon:2:13,horseArcher_1:3:930,crossbowman_1:3:1395,ballista_1:3:465,sentinel_1:3:465</t>
   </si>
   <si>
-    <t>blueDragon:2:13,ballista_1:3:936,sentinel_1:3:1404,horseArhcer_1:3:468,crossbowman_1:3:468</t>
-  </si>
-  <si>
     <t>blueDragon:2:13,sentinel_1:3:1896,horseArcher_1:3:711,crossbowman_1:3:948,ballista_1:3:237</t>
   </si>
   <si>
@@ -3121,9 +3088,6 @@
     <t>blueDragon:2:15,sentinel_1:3:2088,horseArcher_1:3:783,crossbowman_1:3:1044,catapult_1:3:261</t>
   </si>
   <si>
-    <t>blueDragon:2:15,ballista_1:3:1056,sentinel_1:3:1584,horseArhcer_1:3:528,crossbowman_1:3:528</t>
-  </si>
-  <si>
     <t>blueDragon:2:15,crossbowman_1:3:2124,ballista_1:3:796,sentinel_1:3:1062,horseArcher_1:3:265</t>
   </si>
   <si>
@@ -3154,9 +3118,6 @@
     <t>redDragon:2:16,horseArcher_2:1:1146,crossbowman_2:1:1719,ballista_2:1:573,swordsman_2:1:573</t>
   </si>
   <si>
-    <t>redDragon:2:16,ballista_2:1:1152,sentinel_2:1:1728,horseArhcer_2:1:576,ranger_2:1:576</t>
-  </si>
-  <si>
     <t>redDragon:2:16,sentinel_2:1:2328,horseArcher_2:1:873,crossbowman_2:1:1164,catapult_2:1:291</t>
   </si>
   <si>
@@ -3193,18 +3154,12 @@
     <t>redDragon:2:17,sentinel_2:1:2520,horseArcher_2:1:945,ranger_2:1:1260,catapult_2:1:315</t>
   </si>
   <si>
-    <t>redDragon:2:18,ballista_2:1:1272,sentinel_2:1:1908,horseArhcer_2:1:636,ranger_2:1:636</t>
-  </si>
-  <si>
     <t>redDragon:2:18,crossbowman_2:1:2556,ballista_2:1:958,sentinel_2:1:1278,lancer_2:1:319</t>
   </si>
   <si>
     <t>redDragon:2:18,horseArcher_2:1:1290,crossbowman_2:1:1935,ballista_2:1:645,sentinel_2:1:645</t>
   </si>
   <si>
-    <t>redDragon:2:18,ballista_2:1:1296,sentinel_2:1:1944,horseArhcer_2:1:648,crossbowman_2:1:648</t>
-  </si>
-  <si>
     <t>redDragon:2:18,sentinel_2:1:2616,horseArcher_2:1:981,crossbowman_2:1:1308,ballista_2:1:327</t>
   </si>
   <si>
@@ -3241,9 +3196,6 @@
     <t>redDragon:2:19,sentinel_2:1:2808,horseArcher_2:1:1053,crossbowman_2:1:1404,catapult_2:1:351</t>
   </si>
   <si>
-    <t>redDragon:2:19,ballista_2:1:1416,sentinel_2:1:2124,horseArhcer_2:1:708,crossbowman_2:1:708</t>
-  </si>
-  <si>
     <t>redDragon:2:19,crossbowman_2:1:2844,ballista_2:1:1066,sentinel_2:1:1422,horseArcher_2:1:355</t>
   </si>
   <si>
@@ -3274,9 +3226,6 @@
     <t>greenDragon:3:21,horseArcher_2:2:1506,crossbowman_2:2:2259,ballista_2:2:753,swordsman_2:2:753</t>
   </si>
   <si>
-    <t>greenDragon:3:21,ballista_2:2:1512,sentinel_2:2:2268,horseArhcer_2:2:756,ranger_2:2:756</t>
-  </si>
-  <si>
     <t>greenDragon:3:21,sentinel_2:2:3048,horseArcher_2:2:1143,crossbowman_2:2:1524,catapult_2:2:381</t>
   </si>
   <si>
@@ -3313,18 +3262,12 @@
     <t>greenDragon:3:22,sentinel_2:2:3240,horseArcher_2:2:1215,ranger_2:2:1620,catapult_2:2:405</t>
   </si>
   <si>
-    <t>greenDragon:3:22,ballista_2:2:1632,sentinel_2:2:2448,horseArhcer_2:2:816,ranger_2:2:816</t>
-  </si>
-  <si>
     <t>greenDragon:3:22,crossbowman_2:2:3276,ballista_2:2:1228,sentinel_2:2:1638,lancer_2:2:409</t>
   </si>
   <si>
     <t>greenDragon:3:22,horseArcher_2:2:1650,crossbowman_2:2:2475,ballista_2:2:825,sentinel_2:2:825</t>
   </si>
   <si>
-    <t>greenDragon:3:22,ballista_2:2:1656,sentinel_2:2:2484,horseArhcer_2:2:828,crossbowman_2:2:828</t>
-  </si>
-  <si>
     <t>greenDragon:3:23,sentinel_2:2:3336,horseArcher_2:2:1251,crossbowman_2:2:1668,ballista_2:2:417</t>
   </si>
   <si>
@@ -3361,9 +3304,6 @@
     <t>greenDragon:3:24,sentinel_2:2:3670,horseArcher_2:2:1376,crossbowman_2:2:1835,catapult_2:2:459</t>
   </si>
   <si>
-    <t>greenDragon:3:24,ballista_2:2:1859,sentinel_2:2:2789,horseArhcer_2:2:929,crossbowman_2:2:930</t>
-  </si>
-  <si>
     <t>greenDragon:3:24,crossbowman_2:2:3743,ballista_2:2:1403,sentinel_2:2:1872,horseArcher_2:2:468</t>
   </si>
   <si>
@@ -3394,9 +3334,6 @@
     <t>greenDragon:3:25,horseArcher_2:2:2046,crossbowman_2:2:3070,ballista_2:2:1023,swordsman_2:2:1024</t>
   </si>
   <si>
-    <t>greenDragon:3:25,ballista_2:2:2059,sentinel_2:2:3089,horseArhcer_2:2:1030,ranger_2:2:1030</t>
-  </si>
-  <si>
     <t>redDragon:3:25,sentinel_2:3:4170,horseArcher_2:3:1564,crossbowman_2:3:2085,catapult_2:3:521</t>
   </si>
   <si>
@@ -3433,18 +3370,12 @@
     <t>redDragon:3:27,sentinel_2:3:4594,horseArcher_2:3:1723,ranger_2:3:2297,catapult_2:3:574</t>
   </si>
   <si>
-    <t>redDragon:3:27,ballista_2:3:2324,sentinel_2:3:3486,horseArhcer_2:3:1162,ranger_2:3:1162</t>
-  </si>
-  <si>
     <t>redDragon:3:27,crossbowman_2:3:4676,ballista_2:3:1753,sentinel_2:3:2338,lancer_2:3:584</t>
   </si>
   <si>
     <t>redDragon:3:27,horseArcher_2:3:2365,crossbowman_2:3:3548,ballista_2:3:1183,sentinel_2:3:1183</t>
   </si>
   <si>
-    <t>redDragon:3:27,ballista_2:3:2379,sentinel_2:3:3569,horseArhcer_2:3:1189,crossbowman_2:3:1190</t>
-  </si>
-  <si>
     <t>redDragon:3:27,sentinel_2:3:4814,horseArcher_2:3:1805,crossbowman_2:3:2407,ballista_2:3:602</t>
   </si>
   <si>
@@ -3481,9 +3412,6 @@
     <t>redDragon:3:28,sentinel_2:3:5268,horseArcher_2:3:1975,crossbowman_2:3:2634,catapult_2:3:658</t>
   </si>
   <si>
-    <t>redDragon:3:29,ballista_2:3:2663,sentinel_2:3:3995,horseArhcer_2:3:1331,crossbowman_2:3:1332</t>
-  </si>
-  <si>
     <t>redDragon:3:29,crossbowman_2:3:5356,ballista_2:3:2008,sentinel_2:3:2678,horseArcher_2:3:669</t>
   </si>
   <si>
@@ -3514,9 +3442,6 @@
     <t>redDragon:3:30,horseArcher_2:3:2886,crossbowman_2:3:4330,ballista_2:3:1443,swordsman_2:3:1444</t>
   </si>
   <si>
-    <t>redDragon:3:30,ballista_2:3:2902,sentinel_2:3:4353,horseArhcer_2:3:1451,ranger_2:3:1451</t>
-  </si>
-  <si>
     <t>redDragon:3:30,sentinel_2:3:5865,horseArcher_2:3:2199,crossbowman_2:3:2933,catapult_2:3:733</t>
   </si>
   <si>
@@ -3553,18 +3478,12 @@
     <t>blueDragon:4:31,sentinel_3:1:6365,horseArcher_3:1:2387,ranger_3:1:3183,catapult_3:1:796</t>
   </si>
   <si>
-    <t>blueDragon:4:31,ballista_3:1:3214,sentinel_3:1:4822,horseArhcer_3:1:1607,ranger_3:1:1608</t>
-  </si>
-  <si>
     <t>blueDragon:4:31,crossbowman_3:1:6462,ballista_3:1:2423,sentinel_3:1:3231,lancer_3:1:808</t>
   </si>
   <si>
     <t>blueDragon:4:32,horseArcher_3:1:3263,crossbowman_3:1:4895,ballista_3:1:1631,sentinel_3:1:1632</t>
   </si>
   <si>
-    <t>blueDragon:4:32,ballista_3:1:3279,sentinel_3:1:4919,horseArhcer_3:1:1639,crossbowman_3:1:1640</t>
-  </si>
-  <si>
     <t>blueDragon:4:32,sentinel_3:1:6623,horseArcher_3:1:2484,crossbowman_3:1:3312,ballista_3:1:828</t>
   </si>
   <si>
@@ -3601,9 +3520,6 @@
     <t>blueDragon:4:33,sentinel_3:1:7154,horseArcher_3:1:2683,crossbowman_3:1:3577,catapult_3:1:894</t>
   </si>
   <si>
-    <t>blueDragon:4:33,ballista_3:1:3611,sentinel_3:1:5417,horseArhcer_3:1:1805,crossbowman_3:1:1806</t>
-  </si>
-  <si>
     <t>blueDragon:4:33,crossbowman_3:1:7256,ballista_3:1:2721,sentinel_3:1:3628,horseArcher_3:1:907</t>
   </si>
   <si>
@@ -3634,9 +3550,6 @@
     <t>blueDragon:4:34,horseArcher_3:2:3870,crossbowman_3:2:5806,ballista_3:2:1935,swordsman_3:2:1936</t>
   </si>
   <si>
-    <t>blueDragon:4:34,ballista_3:2:3888,sentinel_3:2:5832,horseArhcer_3:2:1944,ranger_3:2:1944</t>
-  </si>
-  <si>
     <t>blueDragon:4:35,sentinel_3:2:7847,horseArcher_3:2:2943,crossbowman_3:2:3924,catapult_3:2:981</t>
   </si>
   <si>
@@ -3673,18 +3586,12 @@
     <t>greenDragon:4:36,sentinel_3:2:8424,horseArcher_3:2:3159,ranger_3:2:4212,catapult_3:2:1053</t>
   </si>
   <si>
-    <t>greenDragon:4:36,ballista_3:2:4249,sentinel_3:2:6374,horseArhcer_3:2:2124,ranger_3:2:2125</t>
-  </si>
-  <si>
     <t>greenDragon:4:36,crossbowman_3:2:8535,ballista_3:2:3201,sentinel_3:2:4268,lancer_3:2:1067</t>
   </si>
   <si>
     <t>greenDragon:4:36,horseArcher_3:2:4304,crossbowman_3:2:6457,ballista_3:2:2152,sentinel_3:2:2153</t>
   </si>
   <si>
-    <t>greenDragon:4:36,ballista_3:2:4323,sentinel_3:2:6485,horseArhcer_3:2:2161,crossbowman_3:2:2162</t>
-  </si>
-  <si>
     <t>greenDragon:4:36,sentinel_3:2:8721,horseArcher_3:2:3270,crossbowman_3:2:4361,ballista_3:2:1090</t>
   </si>
   <si>
@@ -3721,9 +3628,6 @@
     <t>greenDragon:4:38,sentinel_3:3:9329,horseArcher_3:3:3498,crossbowman_3:3:4665,catapult_3:3:1166</t>
   </si>
   <si>
-    <t>greenDragon:4:38,ballista_3:3:4703,sentinel_3:3:7055,horseArhcer_3:3:2351,crossbowman_3:3:2352</t>
-  </si>
-  <si>
     <t>greenDragon:4:38,crossbowman_3:3:9445,ballista_3:3:3542,sentinel_3:3:4723,horseArcher_3:3:1181</t>
   </si>
   <si>
@@ -3754,9 +3658,6 @@
     <t>greenDragon:4:39,horseArcher_3:3:5131,crossbowman_3:3:7697,ballista_3:3:2565,swordsman_3:3:2566</t>
   </si>
   <si>
-    <t>greenDragon:4:39,ballista_3:3:5166,sentinel_3:3:7749,horseArhcer_3:3:2583,ranger_3:3:2583</t>
-  </si>
-  <si>
     <t>greenDragon:4:39,sentinel_3:3:10473,horseArcher_3:3:3927,crossbowman_3:3:5237,catapult_3:3:1309</t>
   </si>
   <si>
@@ -4273,12 +4174,109 @@
     <t>greenDragon:4:40,deathKnight:3:10828,skeletonArcher:3:16243,meatWagon:3:5414,skeletonWarrior:3:5415</t>
   </si>
   <si>
+    <t>blueDragon:1:2,ballista_1:1:72,sentinel_1:1:108,horseArcher_1:1:36,ranger_1:1:36</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,ballista_1:1:192,sentinel_1:1:288,horseArcher_1:1:96,ranger_1:1:96</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,ballista_1:1:216,sentinel_1:1:324,horseArcher_1:1:108,crossbowman_1:1:108</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,ballista_1:1:336,sentinel_1:1:504,horseArcher_1:1:168,crossbowman_1:1:168</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,ballista_1:2:432,sentinel_1:2:648,horseArcher_1:2:216,ranger_1:2:216</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,ballista_1:2:552,sentinel_1:2:828,horseArcher_1:2:276,ranger_1:2:276</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,ballista_1:2:576,sentinel_1:2:864,horseArcher_1:2:288,crossbowman_1:2:288</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,ballista_1:2:696,sentinel_1:2:1044,horseArcher_1:2:348,crossbowman_1:2:348</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,ballista_1:3:792,sentinel_1:3:1188,horseArcher_1:3:396,ranger_1:3:396</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,ballista_1:3:912,sentinel_1:3:1368,horseArcher_1:3:456,ranger_1:3:456</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,ballista_1:3:936,sentinel_1:3:1404,horseArcher_1:3:468,crossbowman_1:3:468</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,ballista_1:3:1056,sentinel_1:3:1584,horseArcher_1:3:528,crossbowman_1:3:528</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,ballista_2:1:1152,sentinel_2:1:1728,horseArcher_2:1:576,ranger_2:1:576</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,ballista_2:1:1272,sentinel_2:1:1908,horseArcher_2:1:636,ranger_2:1:636</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,ballista_2:1:1296,sentinel_2:1:1944,horseArcher_2:1:648,crossbowman_2:1:648</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,ballista_2:1:1416,sentinel_2:1:2124,horseArcher_2:1:708,crossbowman_2:1:708</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,ballista_2:2:1512,sentinel_2:2:2268,horseArcher_2:2:756,ranger_2:2:756</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,ballista_2:2:1632,sentinel_2:2:2448,horseArcher_2:2:816,ranger_2:2:816</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,ballista_2:2:1656,sentinel_2:2:2484,horseArcher_2:2:828,crossbowman_2:2:828</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,ballista_2:2:1859,sentinel_2:2:2789,horseArcher_2:2:929,crossbowman_2:2:930</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,ballista_2:2:2059,sentinel_2:2:3089,horseArcher_2:2:1030,ranger_2:2:1030</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,ballista_2:3:2324,sentinel_2:3:3486,horseArcher_2:3:1162,ranger_2:3:1162</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,ballista_2:3:2379,sentinel_2:3:3569,horseArcher_2:3:1189,crossbowman_2:3:1190</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,ballista_2:3:2663,sentinel_2:3:3995,horseArcher_2:3:1331,crossbowman_2:3:1332</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,ballista_2:3:2902,sentinel_2:3:4353,horseArcher_2:3:1451,ranger_2:3:1451</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,ballista_3:1:3214,sentinel_3:1:4822,horseArcher_3:1:1607,ranger_3:1:1608</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,ballista_3:1:3279,sentinel_3:1:4919,horseArcher_3:1:1639,crossbowman_3:1:1640</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,ballista_3:1:3611,sentinel_3:1:5417,horseArcher_3:1:1805,crossbowman_3:1:1806</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,ballista_3:2:3888,sentinel_3:2:5832,horseArcher_3:2:1944,ranger_3:2:1944</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,ballista_3:2:4249,sentinel_3:2:6374,horseArcher_3:2:2124,ranger_3:2:2125</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,ballista_3:2:4323,sentinel_3:2:6485,horseArcher_3:2:2161,crossbowman_3:2:2162</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,ballista_3:3:4703,sentinel_3:3:7055,horseArcher_3:3:2351,crossbowman_3:3:2352</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,ballista_3:3:5166,sentinel_3:3:7749,horseArcher_3:3:2583,ranger_3:3:2583</t>
+  </si>
+  <si>
+    <t>greenDragon:4:40,ranger_3:3:10972,catapult_3:3:4114,swordsman_3:3:5486,lancer_3:3:1371</t>
+  </si>
+  <si>
     <t>greenDragon:4:40,skeletonWarrior:3:22089,deathKnight:3:8283,skeletonArcher:3:11045,meatWagon:3:2761</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon:4:40,ranger_3:3:10972,catapult_3:3:4114,swordsman_3:3:5486,lancer_3:3:1371</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4495,7 +4493,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="873">
+  <cellStyleXfs count="875">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -4977,6 +4975,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5446,7 +5446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="873">
+  <cellStyles count="875">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -5885,6 +5885,7 @@
     <cellStyle name="超链接" xfId="867" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="869" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="871" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="873" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -6316,6 +6317,7 @@
     <cellStyle name="访问过的超链接" xfId="868" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="870" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="872" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="874" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -6768,8 +6770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H523"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="G508" sqref="G508"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6880,7 +6882,7 @@
         <v>631</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>1243</v>
+        <v>1210</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>509</v>
@@ -6958,7 +6960,7 @@
         <v>631</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>1244</v>
+        <v>1211</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>510</v>
@@ -7036,7 +7038,7 @@
         <v>631</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>1245</v>
+        <v>1212</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>511</v>
@@ -7114,7 +7116,7 @@
         <v>631</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>1246</v>
+        <v>1213</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>512</v>
@@ -7166,7 +7168,7 @@
         <v>631</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>917</v>
+        <v>1377</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>661</v>
@@ -7192,7 +7194,7 @@
         <v>631</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>1247</v>
+        <v>1214</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>513</v>
@@ -7218,7 +7220,7 @@
         <v>631</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>661</v>
@@ -7244,7 +7246,7 @@
         <v>631</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>662</v>
@@ -7270,7 +7272,7 @@
         <v>631</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>1248</v>
+        <v>1215</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>514</v>
@@ -7296,7 +7298,7 @@
         <v>631</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>662</v>
@@ -7322,7 +7324,7 @@
         <v>631</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H21" s="15" t="s">
         <v>662</v>
@@ -7348,7 +7350,7 @@
         <v>631</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>1249</v>
+        <v>1216</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>515</v>
@@ -7374,7 +7376,7 @@
         <v>631</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>663</v>
@@ -7400,7 +7402,7 @@
         <v>631</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>663</v>
@@ -7426,7 +7428,7 @@
         <v>631</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>1250</v>
+        <v>1217</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>516</v>
@@ -7452,7 +7454,7 @@
         <v>631</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>664</v>
@@ -7478,7 +7480,7 @@
         <v>631</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H27" s="15" t="s">
         <v>664</v>
@@ -7504,7 +7506,7 @@
         <v>631</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>1251</v>
+        <v>1218</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>517</v>
@@ -7530,7 +7532,7 @@
         <v>631</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>664</v>
@@ -7556,7 +7558,7 @@
         <v>631</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H30" s="15" t="s">
         <v>665</v>
@@ -7582,7 +7584,7 @@
         <v>631</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>1252</v>
+        <v>1219</v>
       </c>
       <c r="H31" s="15" t="s">
         <v>518</v>
@@ -7608,7 +7610,7 @@
         <v>631</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H32" s="15" t="s">
         <v>665</v>
@@ -7634,7 +7636,7 @@
         <v>631</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H33" s="15" t="s">
         <v>665</v>
@@ -7660,7 +7662,7 @@
         <v>631</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>1253</v>
+        <v>1220</v>
       </c>
       <c r="H34" s="15" t="s">
         <v>519</v>
@@ -7686,7 +7688,7 @@
         <v>631</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>930</v>
+        <v>1378</v>
       </c>
       <c r="H35" s="15" t="s">
         <v>666</v>
@@ -7712,7 +7714,7 @@
         <v>631</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="H36" s="15" t="s">
         <v>666</v>
@@ -7738,7 +7740,7 @@
         <v>631</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>1254</v>
+        <v>1221</v>
       </c>
       <c r="H37" s="15" t="s">
         <v>520</v>
@@ -7764,7 +7766,7 @@
         <v>631</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="H38" s="15" t="s">
         <v>667</v>
@@ -7790,7 +7792,7 @@
         <v>631</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>933</v>
+        <v>1379</v>
       </c>
       <c r="H39" s="15" t="s">
         <v>667</v>
@@ -7816,7 +7818,7 @@
         <v>631</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>1255</v>
+        <v>1222</v>
       </c>
       <c r="H40" s="15" t="s">
         <v>521</v>
@@ -7842,7 +7844,7 @@
         <v>631</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="H41" s="15" t="s">
         <v>667</v>
@@ -7868,7 +7870,7 @@
         <v>631</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="H42" s="15" t="s">
         <v>668</v>
@@ -7894,7 +7896,7 @@
         <v>631</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>1256</v>
+        <v>1223</v>
       </c>
       <c r="H43" s="15" t="s">
         <v>522</v>
@@ -7920,7 +7922,7 @@
         <v>632</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="H44" s="15" t="s">
         <v>668</v>
@@ -7946,7 +7948,7 @@
         <v>632</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="H45" s="15" t="s">
         <v>668</v>
@@ -7972,7 +7974,7 @@
         <v>632</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>1257</v>
+        <v>1224</v>
       </c>
       <c r="H46" s="15" t="s">
         <v>523</v>
@@ -7998,7 +8000,7 @@
         <v>632</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="H47" s="15" t="s">
         <v>669</v>
@@ -8024,7 +8026,7 @@
         <v>632</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="H48" s="15" t="s">
         <v>669</v>
@@ -8050,7 +8052,7 @@
         <v>632</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>1258</v>
+        <v>1225</v>
       </c>
       <c r="H49" s="15" t="s">
         <v>524</v>
@@ -8076,7 +8078,7 @@
         <v>632</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="H50" s="15" t="s">
         <v>670</v>
@@ -8102,7 +8104,7 @@
         <v>632</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="H51" s="15" t="s">
         <v>670</v>
@@ -8128,7 +8130,7 @@
         <v>632</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>1259</v>
+        <v>1226</v>
       </c>
       <c r="H52" s="15" t="s">
         <v>525</v>
@@ -8154,7 +8156,7 @@
         <v>632</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="H53" s="15" t="s">
         <v>670</v>
@@ -8180,7 +8182,7 @@
         <v>632</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="H54" s="15" t="s">
         <v>671</v>
@@ -8206,7 +8208,7 @@
         <v>632</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>1260</v>
+        <v>1227</v>
       </c>
       <c r="H55" s="15" t="s">
         <v>526</v>
@@ -8232,7 +8234,7 @@
         <v>632</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="H56" s="15" t="s">
         <v>671</v>
@@ -8258,7 +8260,7 @@
         <v>632</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="H57" s="15" t="s">
         <v>671</v>
@@ -8284,7 +8286,7 @@
         <v>632</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>1261</v>
+        <v>1228</v>
       </c>
       <c r="H58" s="15" t="s">
         <v>527</v>
@@ -8310,7 +8312,7 @@
         <v>632</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>946</v>
+        <v>1380</v>
       </c>
       <c r="H59" s="15" t="s">
         <v>672</v>
@@ -8336,7 +8338,7 @@
         <v>632</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="H60" s="15" t="s">
         <v>672</v>
@@ -8362,7 +8364,7 @@
         <v>632</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>1262</v>
+        <v>1229</v>
       </c>
       <c r="H61" s="15" t="s">
         <v>528</v>
@@ -8388,7 +8390,7 @@
         <v>632</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="H62" s="15" t="s">
         <v>673</v>
@@ -8414,7 +8416,7 @@
         <v>632</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="H63" s="15" t="s">
         <v>673</v>
@@ -8440,7 +8442,7 @@
         <v>632</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>1263</v>
+        <v>1230</v>
       </c>
       <c r="H64" s="15" t="s">
         <v>529</v>
@@ -8466,7 +8468,7 @@
         <v>632</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="H65" s="15" t="s">
         <v>673</v>
@@ -8492,7 +8494,7 @@
         <v>632</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="H66" s="15" t="s">
         <v>674</v>
@@ -8518,7 +8520,7 @@
         <v>632</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>1264</v>
+        <v>1231</v>
       </c>
       <c r="H67" s="15" t="s">
         <v>530</v>
@@ -8544,7 +8546,7 @@
         <v>632</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="H68" s="15" t="s">
         <v>674</v>
@@ -8570,7 +8572,7 @@
         <v>632</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="H69" s="15" t="s">
         <v>674</v>
@@ -8596,7 +8598,7 @@
         <v>632</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>1265</v>
+        <v>1232</v>
       </c>
       <c r="H70" s="15" t="s">
         <v>531</v>
@@ -8622,7 +8624,7 @@
         <v>632</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="H71" s="15" t="s">
         <v>675</v>
@@ -8648,7 +8650,7 @@
         <v>632</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="H72" s="15" t="s">
         <v>675</v>
@@ -8674,7 +8676,7 @@
         <v>632</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>1266</v>
+        <v>1233</v>
       </c>
       <c r="H73" s="15" t="s">
         <v>532</v>
@@ -8700,7 +8702,7 @@
         <v>632</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="H74" s="15" t="s">
         <v>676</v>
@@ -8726,7 +8728,7 @@
         <v>632</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>957</v>
+        <v>1381</v>
       </c>
       <c r="H75" s="15" t="s">
         <v>676</v>
@@ -8752,7 +8754,7 @@
         <v>632</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>1267</v>
+        <v>1234</v>
       </c>
       <c r="H76" s="15" t="s">
         <v>533</v>
@@ -8778,7 +8780,7 @@
         <v>632</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="H77" s="15" t="s">
         <v>676</v>
@@ -8804,7 +8806,7 @@
         <v>632</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="H78" s="15" t="s">
         <v>677</v>
@@ -8830,7 +8832,7 @@
         <v>632</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>1268</v>
+        <v>1235</v>
       </c>
       <c r="H79" s="15" t="s">
         <v>534</v>
@@ -8856,7 +8858,7 @@
         <v>632</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="H80" s="15" t="s">
         <v>677</v>
@@ -8882,7 +8884,7 @@
         <v>632</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="H81" s="15" t="s">
         <v>677</v>
@@ -8908,7 +8910,7 @@
         <v>632</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>1269</v>
+        <v>1236</v>
       </c>
       <c r="H82" s="15" t="s">
         <v>535</v>
@@ -8934,7 +8936,7 @@
         <v>632</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="H83" s="15" t="s">
         <v>678</v>
@@ -8960,7 +8962,7 @@
         <v>632</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="H84" s="15" t="s">
         <v>678</v>
@@ -8986,7 +8988,7 @@
         <v>632</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>1270</v>
+        <v>1237</v>
       </c>
       <c r="H85" s="15" t="s">
         <v>536</v>
@@ -9012,7 +9014,7 @@
         <v>633</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="H86" s="15" t="s">
         <v>679</v>
@@ -9038,7 +9040,7 @@
         <v>633</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="H87" s="15" t="s">
         <v>679</v>
@@ -9064,7 +9066,7 @@
         <v>633</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>1271</v>
+        <v>1238</v>
       </c>
       <c r="H88" s="15" t="s">
         <v>537</v>
@@ -9090,7 +9092,7 @@
         <v>633</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="H89" s="15" t="s">
         <v>679</v>
@@ -9116,7 +9118,7 @@
         <v>633</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="H90" s="15" t="s">
         <v>680</v>
@@ -9142,7 +9144,7 @@
         <v>633</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>1272</v>
+        <v>1239</v>
       </c>
       <c r="H91" s="15" t="s">
         <v>538</v>
@@ -9168,7 +9170,7 @@
         <v>633</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="H92" s="15" t="s">
         <v>680</v>
@@ -9194,7 +9196,7 @@
         <v>633</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="H93" s="15" t="s">
         <v>680</v>
@@ -9220,7 +9222,7 @@
         <v>633</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>1273</v>
+        <v>1240</v>
       </c>
       <c r="H94" s="15" t="s">
         <v>539</v>
@@ -9246,7 +9248,7 @@
         <v>633</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>970</v>
+        <v>1382</v>
       </c>
       <c r="H95" s="15" t="s">
         <v>681</v>
@@ -9272,7 +9274,7 @@
         <v>633</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="H96" s="15" t="s">
         <v>681</v>
@@ -9298,7 +9300,7 @@
         <v>633</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>1274</v>
+        <v>1241</v>
       </c>
       <c r="H97" s="15" t="s">
         <v>540</v>
@@ -9324,7 +9326,7 @@
         <v>633</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="H98" s="15" t="s">
         <v>682</v>
@@ -9350,7 +9352,7 @@
         <v>633</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>973</v>
+        <v>1383</v>
       </c>
       <c r="H99" s="15" t="s">
         <v>682</v>
@@ -9376,7 +9378,7 @@
         <v>633</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>1275</v>
+        <v>1242</v>
       </c>
       <c r="H100" s="15" t="s">
         <v>541</v>
@@ -9402,7 +9404,7 @@
         <v>633</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="H101" s="15" t="s">
         <v>682</v>
@@ -9428,7 +9430,7 @@
         <v>633</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="H102" s="15" t="s">
         <v>683</v>
@@ -9454,7 +9456,7 @@
         <v>633</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>1276</v>
+        <v>1243</v>
       </c>
       <c r="H103" s="15" t="s">
         <v>542</v>
@@ -9480,7 +9482,7 @@
         <v>633</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="H104" s="15" t="s">
         <v>683</v>
@@ -9506,7 +9508,7 @@
         <v>633</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="H105" s="15" t="s">
         <v>683</v>
@@ -9532,7 +9534,7 @@
         <v>633</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>1277</v>
+        <v>1244</v>
       </c>
       <c r="H106" s="15" t="s">
         <v>543</v>
@@ -9558,7 +9560,7 @@
         <v>633</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="H107" s="15" t="s">
         <v>684</v>
@@ -9584,7 +9586,7 @@
         <v>633</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="H108" s="15" t="s">
         <v>684</v>
@@ -9610,7 +9612,7 @@
         <v>633</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>1278</v>
+        <v>1245</v>
       </c>
       <c r="H109" s="15" t="s">
         <v>544</v>
@@ -9636,7 +9638,7 @@
         <v>633</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="H110" s="15" t="s">
         <v>685</v>
@@ -9662,7 +9664,7 @@
         <v>633</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="H111" s="15" t="s">
         <v>685</v>
@@ -9688,7 +9690,7 @@
         <v>633</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>1279</v>
+        <v>1246</v>
       </c>
       <c r="H112" s="15" t="s">
         <v>545</v>
@@ -9714,7 +9716,7 @@
         <v>633</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="H113" s="15" t="s">
         <v>685</v>
@@ -9740,7 +9742,7 @@
         <v>633</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="H114" s="15" t="s">
         <v>686</v>
@@ -9766,7 +9768,7 @@
         <v>633</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>1280</v>
+        <v>1247</v>
       </c>
       <c r="H115" s="15" t="s">
         <v>546</v>
@@ -9792,7 +9794,7 @@
         <v>633</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="H116" s="15" t="s">
         <v>686</v>
@@ -9818,7 +9820,7 @@
         <v>633</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="H117" s="15" t="s">
         <v>686</v>
@@ -9844,7 +9846,7 @@
         <v>633</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>1281</v>
+        <v>1248</v>
       </c>
       <c r="H118" s="15" t="s">
         <v>547</v>
@@ -9870,7 +9872,7 @@
         <v>633</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>986</v>
+        <v>1384</v>
       </c>
       <c r="H119" s="15" t="s">
         <v>687</v>
@@ -9896,7 +9898,7 @@
         <v>633</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="H120" s="15" t="s">
         <v>687</v>
@@ -9922,7 +9924,7 @@
         <v>633</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>1282</v>
+        <v>1249</v>
       </c>
       <c r="H121" s="15" t="s">
         <v>548</v>
@@ -9948,7 +9950,7 @@
         <v>633</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="H122" s="15" t="s">
         <v>688</v>
@@ -9974,7 +9976,7 @@
         <v>633</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="H123" s="15" t="s">
         <v>688</v>
@@ -10000,7 +10002,7 @@
         <v>633</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>1283</v>
+        <v>1250</v>
       </c>
       <c r="H124" s="15" t="s">
         <v>549</v>
@@ -10026,7 +10028,7 @@
         <v>633</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="H125" s="15" t="s">
         <v>688</v>
@@ -10052,7 +10054,7 @@
         <v>633</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="H126" s="15" t="s">
         <v>689</v>
@@ -10078,7 +10080,7 @@
         <v>633</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>1284</v>
+        <v>1251</v>
       </c>
       <c r="H127" s="15" t="s">
         <v>550</v>
@@ -10104,7 +10106,7 @@
         <v>631</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="H128" s="15" t="s">
         <v>689</v>
@@ -10130,7 +10132,7 @@
         <v>631</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="H129" s="15" t="s">
         <v>689</v>
@@ -10156,7 +10158,7 @@
         <v>631</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>1285</v>
+        <v>1252</v>
       </c>
       <c r="H130" s="15" t="s">
         <v>784</v>
@@ -10182,7 +10184,7 @@
         <v>631</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="H131" s="15" t="s">
         <v>690</v>
@@ -10208,7 +10210,7 @@
         <v>631</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="H132" s="15" t="s">
         <v>690</v>
@@ -10234,7 +10236,7 @@
         <v>631</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>1286</v>
+        <v>1253</v>
       </c>
       <c r="H133" s="15" t="s">
         <v>785</v>
@@ -10260,7 +10262,7 @@
         <v>631</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="H134" s="15" t="s">
         <v>691</v>
@@ -10286,7 +10288,7 @@
         <v>631</v>
       </c>
       <c r="G135" s="13" t="s">
-        <v>997</v>
+        <v>1385</v>
       </c>
       <c r="H135" s="15" t="s">
         <v>691</v>
@@ -10312,7 +10314,7 @@
         <v>631</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>1287</v>
+        <v>1254</v>
       </c>
       <c r="H136" s="15" t="s">
         <v>786</v>
@@ -10338,7 +10340,7 @@
         <v>631</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="H137" s="15" t="s">
         <v>691</v>
@@ -10364,7 +10366,7 @@
         <v>631</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="H138" s="15" t="s">
         <v>692</v>
@@ -10390,7 +10392,7 @@
         <v>631</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>1288</v>
+        <v>1255</v>
       </c>
       <c r="H139" s="15" t="s">
         <v>787</v>
@@ -10416,7 +10418,7 @@
         <v>631</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="H140" s="15" t="s">
         <v>692</v>
@@ -10442,7 +10444,7 @@
         <v>631</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="H141" s="15" t="s">
         <v>692</v>
@@ -10468,7 +10470,7 @@
         <v>631</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>1289</v>
+        <v>1256</v>
       </c>
       <c r="H142" s="15" t="s">
         <v>788</v>
@@ -10494,7 +10496,7 @@
         <v>631</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="H143" s="15" t="s">
         <v>693</v>
@@ -10520,7 +10522,7 @@
         <v>631</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="H144" s="15" t="s">
         <v>693</v>
@@ -10546,7 +10548,7 @@
         <v>631</v>
       </c>
       <c r="G145" s="13" t="s">
-        <v>1290</v>
+        <v>1257</v>
       </c>
       <c r="H145" s="15" t="s">
         <v>789</v>
@@ -10572,7 +10574,7 @@
         <v>631</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="H146" s="15" t="s">
         <v>694</v>
@@ -10598,7 +10600,7 @@
         <v>631</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="H147" s="15" t="s">
         <v>694</v>
@@ -10624,7 +10626,7 @@
         <v>631</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>1291</v>
+        <v>1258</v>
       </c>
       <c r="H148" s="15" t="s">
         <v>790</v>
@@ -10650,7 +10652,7 @@
         <v>631</v>
       </c>
       <c r="G149" s="13" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="H149" s="15" t="s">
         <v>694</v>
@@ -10676,7 +10678,7 @@
         <v>631</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="H150" s="15" t="s">
         <v>695</v>
@@ -10702,7 +10704,7 @@
         <v>631</v>
       </c>
       <c r="G151" s="13" t="s">
-        <v>1292</v>
+        <v>1259</v>
       </c>
       <c r="H151" s="15" t="s">
         <v>791</v>
@@ -10728,7 +10730,7 @@
         <v>631</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="H152" s="15" t="s">
         <v>695</v>
@@ -10754,7 +10756,7 @@
         <v>631</v>
       </c>
       <c r="G153" s="13" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="H153" s="15" t="s">
         <v>695</v>
@@ -10780,7 +10782,7 @@
         <v>631</v>
       </c>
       <c r="G154" s="13" t="s">
-        <v>1293</v>
+        <v>1260</v>
       </c>
       <c r="H154" s="15" t="s">
         <v>792</v>
@@ -10806,7 +10808,7 @@
         <v>631</v>
       </c>
       <c r="G155" s="13" t="s">
-        <v>1010</v>
+        <v>1386</v>
       </c>
       <c r="H155" s="15" t="s">
         <v>696</v>
@@ -10832,7 +10834,7 @@
         <v>631</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="H156" s="15" t="s">
         <v>696</v>
@@ -10858,7 +10860,7 @@
         <v>631</v>
       </c>
       <c r="G157" s="13" t="s">
-        <v>1294</v>
+        <v>1261</v>
       </c>
       <c r="H157" s="15" t="s">
         <v>793</v>
@@ -10884,7 +10886,7 @@
         <v>631</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="H158" s="15" t="s">
         <v>697</v>
@@ -10910,7 +10912,7 @@
         <v>631</v>
       </c>
       <c r="G159" s="13" t="s">
-        <v>1013</v>
+        <v>1387</v>
       </c>
       <c r="H159" s="15" t="s">
         <v>697</v>
@@ -10936,7 +10938,7 @@
         <v>631</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>1295</v>
+        <v>1262</v>
       </c>
       <c r="H160" s="15" t="s">
         <v>794</v>
@@ -10962,7 +10964,7 @@
         <v>631</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="H161" s="15" t="s">
         <v>697</v>
@@ -10988,7 +10990,7 @@
         <v>631</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="H162" s="15" t="s">
         <v>698</v>
@@ -11014,7 +11016,7 @@
         <v>631</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>1296</v>
+        <v>1263</v>
       </c>
       <c r="H163" s="15" t="s">
         <v>795</v>
@@ -11040,7 +11042,7 @@
         <v>631</v>
       </c>
       <c r="G164" s="13" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="H164" s="15" t="s">
         <v>698</v>
@@ -11066,7 +11068,7 @@
         <v>631</v>
       </c>
       <c r="G165" s="13" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="H165" s="15" t="s">
         <v>698</v>
@@ -11092,7 +11094,7 @@
         <v>631</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>1297</v>
+        <v>1264</v>
       </c>
       <c r="H166" s="15" t="s">
         <v>796</v>
@@ -11118,7 +11120,7 @@
         <v>631</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="H167" s="15" t="s">
         <v>699</v>
@@ -11144,7 +11146,7 @@
         <v>631</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="H168" s="15" t="s">
         <v>699</v>
@@ -11170,7 +11172,7 @@
         <v>631</v>
       </c>
       <c r="G169" s="13" t="s">
-        <v>1298</v>
+        <v>1265</v>
       </c>
       <c r="H169" s="15" t="s">
         <v>797</v>
@@ -11196,7 +11198,7 @@
         <v>631</v>
       </c>
       <c r="G170" s="13" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="H170" s="15" t="s">
         <v>700</v>
@@ -11222,7 +11224,7 @@
         <v>631</v>
       </c>
       <c r="G171" s="13" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="H171" s="15" t="s">
         <v>700</v>
@@ -11248,7 +11250,7 @@
         <v>631</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>1299</v>
+        <v>1266</v>
       </c>
       <c r="H172" s="15" t="s">
         <v>798</v>
@@ -11274,7 +11276,7 @@
         <v>631</v>
       </c>
       <c r="G173" s="13" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="H173" s="15" t="s">
         <v>700</v>
@@ -11300,7 +11302,7 @@
         <v>631</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="H174" s="15" t="s">
         <v>701</v>
@@ -11326,7 +11328,7 @@
         <v>631</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>1300</v>
+        <v>1267</v>
       </c>
       <c r="H175" s="15" t="s">
         <v>799</v>
@@ -11352,7 +11354,7 @@
         <v>631</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="H176" s="15" t="s">
         <v>701</v>
@@ -11378,7 +11380,7 @@
         <v>631</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="H177" s="15" t="s">
         <v>701</v>
@@ -11404,7 +11406,7 @@
         <v>631</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
       <c r="H178" s="15" t="s">
         <v>800</v>
@@ -11430,7 +11432,7 @@
         <v>631</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>1026</v>
+        <v>1388</v>
       </c>
       <c r="H179" s="15" t="s">
         <v>702</v>
@@ -11456,7 +11458,7 @@
         <v>631</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="H180" s="15" t="s">
         <v>702</v>
@@ -11482,7 +11484,7 @@
         <v>631</v>
       </c>
       <c r="G181" s="13" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
       <c r="H181" s="15" t="s">
         <v>801</v>
@@ -11508,7 +11510,7 @@
         <v>631</v>
       </c>
       <c r="G182" s="13" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="H182" s="15" t="s">
         <v>703</v>
@@ -11534,7 +11536,7 @@
         <v>631</v>
       </c>
       <c r="G183" s="13" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="H183" s="15" t="s">
         <v>703</v>
@@ -11560,7 +11562,7 @@
         <v>631</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
       <c r="H184" s="15" t="s">
         <v>802</v>
@@ -11586,7 +11588,7 @@
         <v>631</v>
       </c>
       <c r="G185" s="13" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
       <c r="H185" s="15" t="s">
         <v>703</v>
@@ -11612,7 +11614,7 @@
         <v>631</v>
       </c>
       <c r="G186" s="13" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="H186" s="15" t="s">
         <v>704</v>
@@ -11638,7 +11640,7 @@
         <v>631</v>
       </c>
       <c r="G187" s="13" t="s">
-        <v>1304</v>
+        <v>1271</v>
       </c>
       <c r="H187" s="15" t="s">
         <v>803</v>
@@ -11664,7 +11666,7 @@
         <v>631</v>
       </c>
       <c r="G188" s="13" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
       <c r="H188" s="15" t="s">
         <v>704</v>
@@ -11690,7 +11692,7 @@
         <v>631</v>
       </c>
       <c r="G189" s="13" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="H189" s="15" t="s">
         <v>704</v>
@@ -11716,7 +11718,7 @@
         <v>631</v>
       </c>
       <c r="G190" s="13" t="s">
-        <v>1305</v>
+        <v>1272</v>
       </c>
       <c r="H190" s="15" t="s">
         <v>804</v>
@@ -11742,7 +11744,7 @@
         <v>633</v>
       </c>
       <c r="G191" s="13" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="H191" s="15" t="s">
         <v>705</v>
@@ -11768,7 +11770,7 @@
         <v>633</v>
       </c>
       <c r="G192" s="13" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="H192" s="15" t="s">
         <v>705</v>
@@ -11794,7 +11796,7 @@
         <v>633</v>
       </c>
       <c r="G193" s="13" t="s">
-        <v>1306</v>
+        <v>1273</v>
       </c>
       <c r="H193" s="15" t="s">
         <v>805</v>
@@ -11820,7 +11822,7 @@
         <v>633</v>
       </c>
       <c r="G194" s="13" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="H194" s="15" t="s">
         <v>706</v>
@@ -11846,7 +11848,7 @@
         <v>633</v>
       </c>
       <c r="G195" s="13" t="s">
-        <v>1037</v>
+        <v>1389</v>
       </c>
       <c r="H195" s="15" t="s">
         <v>706</v>
@@ -11872,7 +11874,7 @@
         <v>633</v>
       </c>
       <c r="G196" s="13" t="s">
-        <v>1307</v>
+        <v>1274</v>
       </c>
       <c r="H196" s="15" t="s">
         <v>806</v>
@@ -11898,7 +11900,7 @@
         <v>633</v>
       </c>
       <c r="G197" s="13" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
       <c r="H197" s="15" t="s">
         <v>706</v>
@@ -11924,7 +11926,7 @@
         <v>633</v>
       </c>
       <c r="G198" s="13" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="H198" s="15" t="s">
         <v>707</v>
@@ -11950,7 +11952,7 @@
         <v>633</v>
       </c>
       <c r="G199" s="13" t="s">
-        <v>1308</v>
+        <v>1275</v>
       </c>
       <c r="H199" s="15" t="s">
         <v>807</v>
@@ -11976,7 +11978,7 @@
         <v>633</v>
       </c>
       <c r="G200" s="13" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="H200" s="15" t="s">
         <v>707</v>
@@ -12002,7 +12004,7 @@
         <v>633</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="H201" s="15" t="s">
         <v>707</v>
@@ -12028,7 +12030,7 @@
         <v>633</v>
       </c>
       <c r="G202" s="13" t="s">
-        <v>1309</v>
+        <v>1276</v>
       </c>
       <c r="H202" s="15" t="s">
         <v>808</v>
@@ -12054,7 +12056,7 @@
         <v>633</v>
       </c>
       <c r="G203" s="13" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>708</v>
@@ -12080,7 +12082,7 @@
         <v>633</v>
       </c>
       <c r="G204" s="13" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="H204" s="15" t="s">
         <v>708</v>
@@ -12106,7 +12108,7 @@
         <v>633</v>
       </c>
       <c r="G205" s="13" t="s">
-        <v>1310</v>
+        <v>1277</v>
       </c>
       <c r="H205" s="15" t="s">
         <v>809</v>
@@ -12132,7 +12134,7 @@
         <v>633</v>
       </c>
       <c r="G206" s="13" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
       <c r="H206" s="15" t="s">
         <v>709</v>
@@ -12158,7 +12160,7 @@
         <v>633</v>
       </c>
       <c r="G207" s="13" t="s">
-        <v>1045</v>
+        <v>1032</v>
       </c>
       <c r="H207" s="15" t="s">
         <v>709</v>
@@ -12184,7 +12186,7 @@
         <v>633</v>
       </c>
       <c r="G208" s="13" t="s">
-        <v>1311</v>
+        <v>1278</v>
       </c>
       <c r="H208" s="15" t="s">
         <v>810</v>
@@ -12210,7 +12212,7 @@
         <v>633</v>
       </c>
       <c r="G209" s="13" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="H209" s="15" t="s">
         <v>709</v>
@@ -12236,7 +12238,7 @@
         <v>633</v>
       </c>
       <c r="G210" s="13" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="H210" s="15" t="s">
         <v>710</v>
@@ -12262,7 +12264,7 @@
         <v>633</v>
       </c>
       <c r="G211" s="13" t="s">
-        <v>1312</v>
+        <v>1279</v>
       </c>
       <c r="H211" s="15" t="s">
         <v>811</v>
@@ -12288,7 +12290,7 @@
         <v>633</v>
       </c>
       <c r="G212" s="13" t="s">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="H212" s="15" t="s">
         <v>710</v>
@@ -12314,7 +12316,7 @@
         <v>633</v>
       </c>
       <c r="G213" s="13" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="H213" s="15" t="s">
         <v>710</v>
@@ -12340,7 +12342,7 @@
         <v>633</v>
       </c>
       <c r="G214" s="13" t="s">
-        <v>1313</v>
+        <v>1280</v>
       </c>
       <c r="H214" s="15" t="s">
         <v>812</v>
@@ -12366,7 +12368,7 @@
         <v>633</v>
       </c>
       <c r="G215" s="13" t="s">
-        <v>1050</v>
+        <v>1390</v>
       </c>
       <c r="H215" s="15" t="s">
         <v>711</v>
@@ -12392,7 +12394,7 @@
         <v>633</v>
       </c>
       <c r="G216" s="13" t="s">
-        <v>1051</v>
+        <v>1037</v>
       </c>
       <c r="H216" s="15" t="s">
         <v>711</v>
@@ -12418,7 +12420,7 @@
         <v>633</v>
       </c>
       <c r="G217" s="13" t="s">
-        <v>1314</v>
+        <v>1281</v>
       </c>
       <c r="H217" s="15" t="s">
         <v>813</v>
@@ -12444,7 +12446,7 @@
         <v>633</v>
       </c>
       <c r="G218" s="13" t="s">
-        <v>1052</v>
+        <v>1038</v>
       </c>
       <c r="H218" s="15" t="s">
         <v>712</v>
@@ -12470,7 +12472,7 @@
         <v>633</v>
       </c>
       <c r="G219" s="13" t="s">
-        <v>1053</v>
+        <v>1391</v>
       </c>
       <c r="H219" s="15" t="s">
         <v>712</v>
@@ -12496,7 +12498,7 @@
         <v>633</v>
       </c>
       <c r="G220" s="13" t="s">
-        <v>1315</v>
+        <v>1282</v>
       </c>
       <c r="H220" s="15" t="s">
         <v>814</v>
@@ -12522,7 +12524,7 @@
         <v>633</v>
       </c>
       <c r="G221" s="13" t="s">
-        <v>1054</v>
+        <v>1039</v>
       </c>
       <c r="H221" s="15" t="s">
         <v>712</v>
@@ -12548,7 +12550,7 @@
         <v>633</v>
       </c>
       <c r="G222" s="13" t="s">
-        <v>1055</v>
+        <v>1040</v>
       </c>
       <c r="H222" s="15" t="s">
         <v>713</v>
@@ -12574,7 +12576,7 @@
         <v>633</v>
       </c>
       <c r="G223" s="13" t="s">
-        <v>1316</v>
+        <v>1283</v>
       </c>
       <c r="H223" s="15" t="s">
         <v>815</v>
@@ -12600,7 +12602,7 @@
         <v>633</v>
       </c>
       <c r="G224" s="13" t="s">
-        <v>1056</v>
+        <v>1041</v>
       </c>
       <c r="H224" s="15" t="s">
         <v>713</v>
@@ -12626,7 +12628,7 @@
         <v>633</v>
       </c>
       <c r="G225" s="13" t="s">
-        <v>1057</v>
+        <v>1042</v>
       </c>
       <c r="H225" s="15" t="s">
         <v>713</v>
@@ -12652,7 +12654,7 @@
         <v>633</v>
       </c>
       <c r="G226" s="13" t="s">
-        <v>1317</v>
+        <v>1284</v>
       </c>
       <c r="H226" s="15" t="s">
         <v>816</v>
@@ -12678,7 +12680,7 @@
         <v>633</v>
       </c>
       <c r="G227" s="13" t="s">
-        <v>1058</v>
+        <v>1043</v>
       </c>
       <c r="H227" s="15" t="s">
         <v>714</v>
@@ -12704,7 +12706,7 @@
         <v>633</v>
       </c>
       <c r="G228" s="13" t="s">
-        <v>1059</v>
+        <v>1044</v>
       </c>
       <c r="H228" s="15" t="s">
         <v>714</v>
@@ -12730,7 +12732,7 @@
         <v>633</v>
       </c>
       <c r="G229" s="13" t="s">
-        <v>1318</v>
+        <v>1285</v>
       </c>
       <c r="H229" s="15" t="s">
         <v>817</v>
@@ -12756,7 +12758,7 @@
         <v>633</v>
       </c>
       <c r="G230" s="13" t="s">
-        <v>1060</v>
+        <v>1045</v>
       </c>
       <c r="H230" s="15" t="s">
         <v>715</v>
@@ -12782,7 +12784,7 @@
         <v>633</v>
       </c>
       <c r="G231" s="13" t="s">
-        <v>1061</v>
+        <v>1046</v>
       </c>
       <c r="H231" s="15" t="s">
         <v>715</v>
@@ -12808,7 +12810,7 @@
         <v>633</v>
       </c>
       <c r="G232" s="13" t="s">
-        <v>1319</v>
+        <v>1286</v>
       </c>
       <c r="H232" s="15" t="s">
         <v>818</v>
@@ -12834,7 +12836,7 @@
         <v>633</v>
       </c>
       <c r="G233" s="13" t="s">
-        <v>1062</v>
+        <v>1047</v>
       </c>
       <c r="H233" s="15" t="s">
         <v>715</v>
@@ -12860,7 +12862,7 @@
         <v>633</v>
       </c>
       <c r="G234" s="13" t="s">
-        <v>1063</v>
+        <v>1048</v>
       </c>
       <c r="H234" s="15" t="s">
         <v>716</v>
@@ -12886,7 +12888,7 @@
         <v>633</v>
       </c>
       <c r="G235" s="13" t="s">
-        <v>1320</v>
+        <v>1287</v>
       </c>
       <c r="H235" s="15" t="s">
         <v>819</v>
@@ -12912,7 +12914,7 @@
         <v>633</v>
       </c>
       <c r="G236" s="13" t="s">
-        <v>1064</v>
+        <v>1049</v>
       </c>
       <c r="H236" s="15" t="s">
         <v>716</v>
@@ -12938,7 +12940,7 @@
         <v>633</v>
       </c>
       <c r="G237" s="13" t="s">
-        <v>1065</v>
+        <v>1050</v>
       </c>
       <c r="H237" s="15" t="s">
         <v>716</v>
@@ -12964,7 +12966,7 @@
         <v>633</v>
       </c>
       <c r="G238" s="13" t="s">
-        <v>1321</v>
+        <v>1288</v>
       </c>
       <c r="H238" s="15" t="s">
         <v>820</v>
@@ -12990,7 +12992,7 @@
         <v>633</v>
       </c>
       <c r="G239" s="13" t="s">
-        <v>1066</v>
+        <v>1392</v>
       </c>
       <c r="H239" s="15" t="s">
         <v>717</v>
@@ -13016,7 +13018,7 @@
         <v>633</v>
       </c>
       <c r="G240" s="13" t="s">
-        <v>1067</v>
+        <v>1051</v>
       </c>
       <c r="H240" s="15" t="s">
         <v>717</v>
@@ -13042,7 +13044,7 @@
         <v>633</v>
       </c>
       <c r="G241" s="13" t="s">
-        <v>1322</v>
+        <v>1289</v>
       </c>
       <c r="H241" s="15" t="s">
         <v>821</v>
@@ -13068,7 +13070,7 @@
         <v>633</v>
       </c>
       <c r="G242" s="13" t="s">
-        <v>1068</v>
+        <v>1052</v>
       </c>
       <c r="H242" s="15" t="s">
         <v>718</v>
@@ -13094,7 +13096,7 @@
         <v>633</v>
       </c>
       <c r="G243" s="13" t="s">
-        <v>1069</v>
+        <v>1053</v>
       </c>
       <c r="H243" s="15" t="s">
         <v>718</v>
@@ -13120,7 +13122,7 @@
         <v>633</v>
       </c>
       <c r="G244" s="13" t="s">
-        <v>1323</v>
+        <v>1290</v>
       </c>
       <c r="H244" s="15" t="s">
         <v>822</v>
@@ -13146,7 +13148,7 @@
         <v>633</v>
       </c>
       <c r="G245" s="13" t="s">
-        <v>1070</v>
+        <v>1054</v>
       </c>
       <c r="H245" s="15" t="s">
         <v>718</v>
@@ -13172,7 +13174,7 @@
         <v>633</v>
       </c>
       <c r="G246" s="13" t="s">
-        <v>1071</v>
+        <v>1055</v>
       </c>
       <c r="H246" s="15" t="s">
         <v>719</v>
@@ -13198,7 +13200,7 @@
         <v>633</v>
       </c>
       <c r="G247" s="13" t="s">
-        <v>1324</v>
+        <v>1291</v>
       </c>
       <c r="H247" s="15" t="s">
         <v>823</v>
@@ -13224,7 +13226,7 @@
         <v>633</v>
       </c>
       <c r="G248" s="13" t="s">
-        <v>1072</v>
+        <v>1056</v>
       </c>
       <c r="H248" s="15" t="s">
         <v>719</v>
@@ -13250,7 +13252,7 @@
         <v>633</v>
       </c>
       <c r="G249" s="13" t="s">
-        <v>1073</v>
+        <v>1057</v>
       </c>
       <c r="H249" s="15" t="s">
         <v>719</v>
@@ -13276,7 +13278,7 @@
         <v>633</v>
       </c>
       <c r="G250" s="13" t="s">
-        <v>1325</v>
+        <v>1292</v>
       </c>
       <c r="H250" s="15" t="s">
         <v>824</v>
@@ -13302,7 +13304,7 @@
         <v>633</v>
       </c>
       <c r="G251" s="13" t="s">
-        <v>1074</v>
+        <v>1058</v>
       </c>
       <c r="H251" s="15" t="s">
         <v>720</v>
@@ -13328,7 +13330,7 @@
         <v>633</v>
       </c>
       <c r="G252" s="13" t="s">
-        <v>1075</v>
+        <v>1059</v>
       </c>
       <c r="H252" s="15" t="s">
         <v>720</v>
@@ -13354,7 +13356,7 @@
         <v>633</v>
       </c>
       <c r="G253" s="13" t="s">
-        <v>1326</v>
+        <v>1293</v>
       </c>
       <c r="H253" s="15" t="s">
         <v>825</v>
@@ -13380,7 +13382,7 @@
         <v>632</v>
       </c>
       <c r="G254" s="13" t="s">
-        <v>1076</v>
+        <v>1060</v>
       </c>
       <c r="H254" s="15" t="s">
         <v>721</v>
@@ -13406,7 +13408,7 @@
         <v>632</v>
       </c>
       <c r="G255" s="13" t="s">
-        <v>1077</v>
+        <v>1393</v>
       </c>
       <c r="H255" s="15" t="s">
         <v>721</v>
@@ -13432,7 +13434,7 @@
         <v>632</v>
       </c>
       <c r="G256" s="13" t="s">
-        <v>1327</v>
+        <v>1294</v>
       </c>
       <c r="H256" s="15" t="s">
         <v>826</v>
@@ -13458,7 +13460,7 @@
         <v>632</v>
       </c>
       <c r="G257" s="13" t="s">
-        <v>1078</v>
+        <v>1061</v>
       </c>
       <c r="H257" s="15" t="s">
         <v>721</v>
@@ -13484,7 +13486,7 @@
         <v>632</v>
       </c>
       <c r="G258" s="13" t="s">
-        <v>1079</v>
+        <v>1062</v>
       </c>
       <c r="H258" s="15" t="s">
         <v>722</v>
@@ -13510,7 +13512,7 @@
         <v>632</v>
       </c>
       <c r="G259" s="13" t="s">
-        <v>1328</v>
+        <v>1295</v>
       </c>
       <c r="H259" s="15" t="s">
         <v>827</v>
@@ -13536,7 +13538,7 @@
         <v>632</v>
       </c>
       <c r="G260" s="13" t="s">
-        <v>1080</v>
+        <v>1063</v>
       </c>
       <c r="H260" s="15" t="s">
         <v>722</v>
@@ -13562,7 +13564,7 @@
         <v>632</v>
       </c>
       <c r="G261" s="13" t="s">
-        <v>1081</v>
+        <v>1064</v>
       </c>
       <c r="H261" s="15" t="s">
         <v>722</v>
@@ -13588,7 +13590,7 @@
         <v>632</v>
       </c>
       <c r="G262" s="13" t="s">
-        <v>1329</v>
+        <v>1296</v>
       </c>
       <c r="H262" s="15" t="s">
         <v>828</v>
@@ -13614,7 +13616,7 @@
         <v>632</v>
       </c>
       <c r="G263" s="13" t="s">
-        <v>1082</v>
+        <v>1065</v>
       </c>
       <c r="H263" s="15" t="s">
         <v>723</v>
@@ -13640,7 +13642,7 @@
         <v>632</v>
       </c>
       <c r="G264" s="13" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="H264" s="15" t="s">
         <v>723</v>
@@ -13666,7 +13668,7 @@
         <v>632</v>
       </c>
       <c r="G265" s="13" t="s">
-        <v>1330</v>
+        <v>1297</v>
       </c>
       <c r="H265" s="15" t="s">
         <v>829</v>
@@ -13692,7 +13694,7 @@
         <v>632</v>
       </c>
       <c r="G266" s="13" t="s">
-        <v>1084</v>
+        <v>1067</v>
       </c>
       <c r="H266" s="15" t="s">
         <v>724</v>
@@ -13718,7 +13720,7 @@
         <v>632</v>
       </c>
       <c r="G267" s="13" t="s">
-        <v>1085</v>
+        <v>1068</v>
       </c>
       <c r="H267" s="15" t="s">
         <v>724</v>
@@ -13744,7 +13746,7 @@
         <v>632</v>
       </c>
       <c r="G268" s="13" t="s">
-        <v>1331</v>
+        <v>1298</v>
       </c>
       <c r="H268" s="15" t="s">
         <v>830</v>
@@ -13770,7 +13772,7 @@
         <v>632</v>
       </c>
       <c r="G269" s="13" t="s">
-        <v>1086</v>
+        <v>1069</v>
       </c>
       <c r="H269" s="15" t="s">
         <v>724</v>
@@ -13796,7 +13798,7 @@
         <v>632</v>
       </c>
       <c r="G270" s="13" t="s">
-        <v>1087</v>
+        <v>1070</v>
       </c>
       <c r="H270" s="15" t="s">
         <v>725</v>
@@ -13822,7 +13824,7 @@
         <v>632</v>
       </c>
       <c r="G271" s="13" t="s">
-        <v>1332</v>
+        <v>1299</v>
       </c>
       <c r="H271" s="15" t="s">
         <v>831</v>
@@ -13848,7 +13850,7 @@
         <v>632</v>
       </c>
       <c r="G272" s="13" t="s">
-        <v>1088</v>
+        <v>1071</v>
       </c>
       <c r="H272" s="15" t="s">
         <v>725</v>
@@ -13874,7 +13876,7 @@
         <v>632</v>
       </c>
       <c r="G273" s="13" t="s">
-        <v>1089</v>
+        <v>1072</v>
       </c>
       <c r="H273" s="15" t="s">
         <v>725</v>
@@ -13900,7 +13902,7 @@
         <v>632</v>
       </c>
       <c r="G274" s="13" t="s">
-        <v>1333</v>
+        <v>1300</v>
       </c>
       <c r="H274" s="15" t="s">
         <v>832</v>
@@ -13926,7 +13928,7 @@
         <v>632</v>
       </c>
       <c r="G275" s="13" t="s">
-        <v>1090</v>
+        <v>1394</v>
       </c>
       <c r="H275" s="15" t="s">
         <v>726</v>
@@ -13952,7 +13954,7 @@
         <v>632</v>
       </c>
       <c r="G276" s="13" t="s">
-        <v>1091</v>
+        <v>1073</v>
       </c>
       <c r="H276" s="15" t="s">
         <v>726</v>
@@ -13978,7 +13980,7 @@
         <v>632</v>
       </c>
       <c r="G277" s="13" t="s">
-        <v>1334</v>
+        <v>1301</v>
       </c>
       <c r="H277" s="15" t="s">
         <v>833</v>
@@ -14004,7 +14006,7 @@
         <v>632</v>
       </c>
       <c r="G278" s="13" t="s">
-        <v>1092</v>
+        <v>1074</v>
       </c>
       <c r="H278" s="15" t="s">
         <v>727</v>
@@ -14030,7 +14032,7 @@
         <v>632</v>
       </c>
       <c r="G279" s="13" t="s">
-        <v>1093</v>
+        <v>1395</v>
       </c>
       <c r="H279" s="15" t="s">
         <v>727</v>
@@ -14056,7 +14058,7 @@
         <v>632</v>
       </c>
       <c r="G280" s="13" t="s">
-        <v>1335</v>
+        <v>1302</v>
       </c>
       <c r="H280" s="15" t="s">
         <v>834</v>
@@ -14082,7 +14084,7 @@
         <v>632</v>
       </c>
       <c r="G281" s="13" t="s">
-        <v>1094</v>
+        <v>1075</v>
       </c>
       <c r="H281" s="15" t="s">
         <v>727</v>
@@ -14108,7 +14110,7 @@
         <v>632</v>
       </c>
       <c r="G282" s="13" t="s">
-        <v>1095</v>
+        <v>1076</v>
       </c>
       <c r="H282" s="15" t="s">
         <v>728</v>
@@ -14134,7 +14136,7 @@
         <v>632</v>
       </c>
       <c r="G283" s="13" t="s">
-        <v>1336</v>
+        <v>1303</v>
       </c>
       <c r="H283" s="15" t="s">
         <v>835</v>
@@ -14160,7 +14162,7 @@
         <v>632</v>
       </c>
       <c r="G284" s="13" t="s">
-        <v>1096</v>
+        <v>1077</v>
       </c>
       <c r="H284" s="15" t="s">
         <v>728</v>
@@ -14186,7 +14188,7 @@
         <v>632</v>
       </c>
       <c r="G285" s="13" t="s">
-        <v>1097</v>
+        <v>1078</v>
       </c>
       <c r="H285" s="15" t="s">
         <v>728</v>
@@ -14212,7 +14214,7 @@
         <v>632</v>
       </c>
       <c r="G286" s="13" t="s">
-        <v>1337</v>
+        <v>1304</v>
       </c>
       <c r="H286" s="15" t="s">
         <v>836</v>
@@ -14238,7 +14240,7 @@
         <v>632</v>
       </c>
       <c r="G287" s="13" t="s">
-        <v>1098</v>
+        <v>1079</v>
       </c>
       <c r="H287" s="15" t="s">
         <v>729</v>
@@ -14264,7 +14266,7 @@
         <v>632</v>
       </c>
       <c r="G288" s="13" t="s">
-        <v>1099</v>
+        <v>1080</v>
       </c>
       <c r="H288" s="15" t="s">
         <v>729</v>
@@ -14290,7 +14292,7 @@
         <v>632</v>
       </c>
       <c r="G289" s="13" t="s">
-        <v>1338</v>
+        <v>1305</v>
       </c>
       <c r="H289" s="15" t="s">
         <v>837</v>
@@ -14316,7 +14318,7 @@
         <v>632</v>
       </c>
       <c r="G290" s="13" t="s">
-        <v>1100</v>
+        <v>1081</v>
       </c>
       <c r="H290" s="15" t="s">
         <v>730</v>
@@ -14342,7 +14344,7 @@
         <v>632</v>
       </c>
       <c r="G291" s="13" t="s">
-        <v>1101</v>
+        <v>1082</v>
       </c>
       <c r="H291" s="15" t="s">
         <v>730</v>
@@ -14368,7 +14370,7 @@
         <v>632</v>
       </c>
       <c r="G292" s="13" t="s">
-        <v>1339</v>
+        <v>1306</v>
       </c>
       <c r="H292" s="15" t="s">
         <v>838</v>
@@ -14394,7 +14396,7 @@
         <v>632</v>
       </c>
       <c r="G293" s="13" t="s">
-        <v>1102</v>
+        <v>1083</v>
       </c>
       <c r="H293" s="15" t="s">
         <v>730</v>
@@ -14420,7 +14422,7 @@
         <v>632</v>
       </c>
       <c r="G294" s="13" t="s">
-        <v>1103</v>
+        <v>1084</v>
       </c>
       <c r="H294" s="15" t="s">
         <v>731</v>
@@ -14446,7 +14448,7 @@
         <v>632</v>
       </c>
       <c r="G295" s="13" t="s">
-        <v>1340</v>
+        <v>1307</v>
       </c>
       <c r="H295" s="15" t="s">
         <v>839</v>
@@ -14472,7 +14474,7 @@
         <v>632</v>
       </c>
       <c r="G296" s="13" t="s">
-        <v>1104</v>
+        <v>1085</v>
       </c>
       <c r="H296" s="15" t="s">
         <v>731</v>
@@ -14498,7 +14500,7 @@
         <v>632</v>
       </c>
       <c r="G297" s="13" t="s">
-        <v>1105</v>
+        <v>1086</v>
       </c>
       <c r="H297" s="15" t="s">
         <v>731</v>
@@ -14524,7 +14526,7 @@
         <v>632</v>
       </c>
       <c r="G298" s="13" t="s">
-        <v>1341</v>
+        <v>1308</v>
       </c>
       <c r="H298" s="15" t="s">
         <v>840</v>
@@ -14550,7 +14552,7 @@
         <v>632</v>
       </c>
       <c r="G299" s="13" t="s">
-        <v>1106</v>
+        <v>1396</v>
       </c>
       <c r="H299" s="15" t="s">
         <v>732</v>
@@ -14576,7 +14578,7 @@
         <v>632</v>
       </c>
       <c r="G300" s="13" t="s">
-        <v>1107</v>
+        <v>1087</v>
       </c>
       <c r="H300" s="15" t="s">
         <v>732</v>
@@ -14602,7 +14604,7 @@
         <v>632</v>
       </c>
       <c r="G301" s="13" t="s">
-        <v>1342</v>
+        <v>1309</v>
       </c>
       <c r="H301" s="15" t="s">
         <v>841</v>
@@ -14628,7 +14630,7 @@
         <v>632</v>
       </c>
       <c r="G302" s="13" t="s">
-        <v>1108</v>
+        <v>1088</v>
       </c>
       <c r="H302" s="15" t="s">
         <v>733</v>
@@ -14654,7 +14656,7 @@
         <v>632</v>
       </c>
       <c r="G303" s="13" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="H303" s="15" t="s">
         <v>733</v>
@@ -14680,7 +14682,7 @@
         <v>632</v>
       </c>
       <c r="G304" s="13" t="s">
-        <v>1343</v>
+        <v>1310</v>
       </c>
       <c r="H304" s="15" t="s">
         <v>842</v>
@@ -14706,7 +14708,7 @@
         <v>632</v>
       </c>
       <c r="G305" s="13" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="H305" s="15" t="s">
         <v>733</v>
@@ -14732,7 +14734,7 @@
         <v>632</v>
       </c>
       <c r="G306" s="13" t="s">
-        <v>1111</v>
+        <v>1091</v>
       </c>
       <c r="H306" s="15" t="s">
         <v>734</v>
@@ -14758,7 +14760,7 @@
         <v>632</v>
       </c>
       <c r="G307" s="13" t="s">
-        <v>1344</v>
+        <v>1311</v>
       </c>
       <c r="H307" s="15" t="s">
         <v>843</v>
@@ -14784,7 +14786,7 @@
         <v>632</v>
       </c>
       <c r="G308" s="13" t="s">
-        <v>1112</v>
+        <v>1092</v>
       </c>
       <c r="H308" s="15" t="s">
         <v>734</v>
@@ -14810,7 +14812,7 @@
         <v>632</v>
       </c>
       <c r="G309" s="13" t="s">
-        <v>1113</v>
+        <v>1093</v>
       </c>
       <c r="H309" s="15" t="s">
         <v>734</v>
@@ -14836,7 +14838,7 @@
         <v>632</v>
       </c>
       <c r="G310" s="13" t="s">
-        <v>1345</v>
+        <v>1312</v>
       </c>
       <c r="H310" s="15" t="s">
         <v>844</v>
@@ -14862,7 +14864,7 @@
         <v>632</v>
       </c>
       <c r="G311" s="13" t="s">
-        <v>1114</v>
+        <v>1094</v>
       </c>
       <c r="H311" s="15" t="s">
         <v>735</v>
@@ -14888,7 +14890,7 @@
         <v>632</v>
       </c>
       <c r="G312" s="13" t="s">
-        <v>1115</v>
+        <v>1095</v>
       </c>
       <c r="H312" s="15" t="s">
         <v>735</v>
@@ -14914,7 +14916,7 @@
         <v>632</v>
       </c>
       <c r="G313" s="13" t="s">
-        <v>1346</v>
+        <v>1313</v>
       </c>
       <c r="H313" s="15" t="s">
         <v>845</v>
@@ -14940,7 +14942,7 @@
         <v>632</v>
       </c>
       <c r="G314" s="13" t="s">
-        <v>1116</v>
+        <v>1096</v>
       </c>
       <c r="H314" s="15" t="s">
         <v>736</v>
@@ -14966,7 +14968,7 @@
         <v>632</v>
       </c>
       <c r="G315" s="13" t="s">
-        <v>1117</v>
+        <v>1397</v>
       </c>
       <c r="H315" s="15" t="s">
         <v>736</v>
@@ -14992,7 +14994,7 @@
         <v>632</v>
       </c>
       <c r="G316" s="13" t="s">
-        <v>1347</v>
+        <v>1314</v>
       </c>
       <c r="H316" s="15" t="s">
         <v>846</v>
@@ -15018,7 +15020,7 @@
         <v>633</v>
       </c>
       <c r="G317" s="13" t="s">
-        <v>1118</v>
+        <v>1097</v>
       </c>
       <c r="H317" s="15" t="s">
         <v>736</v>
@@ -15044,7 +15046,7 @@
         <v>633</v>
       </c>
       <c r="G318" s="13" t="s">
-        <v>1119</v>
+        <v>1098</v>
       </c>
       <c r="H318" s="15" t="s">
         <v>737</v>
@@ -15070,7 +15072,7 @@
         <v>633</v>
       </c>
       <c r="G319" s="13" t="s">
-        <v>1348</v>
+        <v>1315</v>
       </c>
       <c r="H319" s="15" t="s">
         <v>847</v>
@@ -15096,7 +15098,7 @@
         <v>633</v>
       </c>
       <c r="G320" s="13" t="s">
-        <v>1120</v>
+        <v>1099</v>
       </c>
       <c r="H320" s="15" t="s">
         <v>737</v>
@@ -15122,7 +15124,7 @@
         <v>633</v>
       </c>
       <c r="G321" s="13" t="s">
-        <v>1121</v>
+        <v>1100</v>
       </c>
       <c r="H321" s="15" t="s">
         <v>737</v>
@@ -15148,7 +15150,7 @@
         <v>633</v>
       </c>
       <c r="G322" s="13" t="s">
-        <v>1349</v>
+        <v>1316</v>
       </c>
       <c r="H322" s="15" t="s">
         <v>848</v>
@@ -15174,7 +15176,7 @@
         <v>633</v>
       </c>
       <c r="G323" s="13" t="s">
-        <v>1122</v>
+        <v>1101</v>
       </c>
       <c r="H323" s="15" t="s">
         <v>738</v>
@@ -15200,7 +15202,7 @@
         <v>633</v>
       </c>
       <c r="G324" s="13" t="s">
-        <v>1123</v>
+        <v>1102</v>
       </c>
       <c r="H324" s="15" t="s">
         <v>738</v>
@@ -15226,7 +15228,7 @@
         <v>633</v>
       </c>
       <c r="G325" s="13" t="s">
-        <v>1350</v>
+        <v>1317</v>
       </c>
       <c r="H325" s="15" t="s">
         <v>849</v>
@@ -15252,7 +15254,7 @@
         <v>633</v>
       </c>
       <c r="G326" s="13" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="H326" s="15" t="s">
         <v>739</v>
@@ -15278,7 +15280,7 @@
         <v>633</v>
       </c>
       <c r="G327" s="13" t="s">
-        <v>1125</v>
+        <v>1104</v>
       </c>
       <c r="H327" s="15" t="s">
         <v>739</v>
@@ -15304,7 +15306,7 @@
         <v>633</v>
       </c>
       <c r="G328" s="13" t="s">
-        <v>1351</v>
+        <v>1318</v>
       </c>
       <c r="H328" s="15" t="s">
         <v>850</v>
@@ -15330,7 +15332,7 @@
         <v>633</v>
       </c>
       <c r="G329" s="13" t="s">
-        <v>1126</v>
+        <v>1105</v>
       </c>
       <c r="H329" s="15" t="s">
         <v>739</v>
@@ -15356,7 +15358,7 @@
         <v>633</v>
       </c>
       <c r="G330" s="13" t="s">
-        <v>1127</v>
+        <v>1106</v>
       </c>
       <c r="H330" s="15" t="s">
         <v>740</v>
@@ -15382,7 +15384,7 @@
         <v>633</v>
       </c>
       <c r="G331" s="13" t="s">
-        <v>1352</v>
+        <v>1319</v>
       </c>
       <c r="H331" s="15" t="s">
         <v>851</v>
@@ -15408,7 +15410,7 @@
         <v>633</v>
       </c>
       <c r="G332" s="13" t="s">
-        <v>1128</v>
+        <v>1107</v>
       </c>
       <c r="H332" s="15" t="s">
         <v>740</v>
@@ -15434,7 +15436,7 @@
         <v>633</v>
       </c>
       <c r="G333" s="13" t="s">
-        <v>1129</v>
+        <v>1108</v>
       </c>
       <c r="H333" s="15" t="s">
         <v>740</v>
@@ -15460,7 +15462,7 @@
         <v>633</v>
       </c>
       <c r="G334" s="13" t="s">
-        <v>1353</v>
+        <v>1320</v>
       </c>
       <c r="H334" s="15" t="s">
         <v>852</v>
@@ -15486,7 +15488,7 @@
         <v>633</v>
       </c>
       <c r="G335" s="13" t="s">
-        <v>1130</v>
+        <v>1398</v>
       </c>
       <c r="H335" s="15" t="s">
         <v>741</v>
@@ -15512,7 +15514,7 @@
         <v>633</v>
       </c>
       <c r="G336" s="13" t="s">
-        <v>1131</v>
+        <v>1109</v>
       </c>
       <c r="H336" s="15" t="s">
         <v>741</v>
@@ -15538,7 +15540,7 @@
         <v>633</v>
       </c>
       <c r="G337" s="13" t="s">
-        <v>1354</v>
+        <v>1321</v>
       </c>
       <c r="H337" s="15" t="s">
         <v>853</v>
@@ -15564,7 +15566,7 @@
         <v>633</v>
       </c>
       <c r="G338" s="13" t="s">
-        <v>1132</v>
+        <v>1110</v>
       </c>
       <c r="H338" s="15" t="s">
         <v>742</v>
@@ -15590,7 +15592,7 @@
         <v>633</v>
       </c>
       <c r="G339" s="13" t="s">
-        <v>1133</v>
+        <v>1399</v>
       </c>
       <c r="H339" s="15" t="s">
         <v>742</v>
@@ -15616,7 +15618,7 @@
         <v>633</v>
       </c>
       <c r="G340" s="13" t="s">
-        <v>1355</v>
+        <v>1322</v>
       </c>
       <c r="H340" s="15" t="s">
         <v>854</v>
@@ -15642,7 +15644,7 @@
         <v>633</v>
       </c>
       <c r="G341" s="13" t="s">
-        <v>1134</v>
+        <v>1111</v>
       </c>
       <c r="H341" s="15" t="s">
         <v>742</v>
@@ -15668,7 +15670,7 @@
         <v>633</v>
       </c>
       <c r="G342" s="13" t="s">
-        <v>1135</v>
+        <v>1112</v>
       </c>
       <c r="H342" s="15" t="s">
         <v>743</v>
@@ -15694,7 +15696,7 @@
         <v>633</v>
       </c>
       <c r="G343" s="13" t="s">
-        <v>1356</v>
+        <v>1323</v>
       </c>
       <c r="H343" s="15" t="s">
         <v>855</v>
@@ -15720,7 +15722,7 @@
         <v>633</v>
       </c>
       <c r="G344" s="13" t="s">
-        <v>1136</v>
+        <v>1113</v>
       </c>
       <c r="H344" s="15" t="s">
         <v>743</v>
@@ -15746,7 +15748,7 @@
         <v>633</v>
       </c>
       <c r="G345" s="13" t="s">
-        <v>1137</v>
+        <v>1114</v>
       </c>
       <c r="H345" s="15" t="s">
         <v>743</v>
@@ -15772,7 +15774,7 @@
         <v>633</v>
       </c>
       <c r="G346" s="13" t="s">
-        <v>1357</v>
+        <v>1324</v>
       </c>
       <c r="H346" s="15" t="s">
         <v>856</v>
@@ -15798,7 +15800,7 @@
         <v>633</v>
       </c>
       <c r="G347" s="13" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="H347" s="15" t="s">
         <v>744</v>
@@ -15824,7 +15826,7 @@
         <v>633</v>
       </c>
       <c r="G348" s="13" t="s">
-        <v>1139</v>
+        <v>1116</v>
       </c>
       <c r="H348" s="15" t="s">
         <v>744</v>
@@ -15850,7 +15852,7 @@
         <v>633</v>
       </c>
       <c r="G349" s="13" t="s">
-        <v>1358</v>
+        <v>1325</v>
       </c>
       <c r="H349" s="15" t="s">
         <v>857</v>
@@ -15876,7 +15878,7 @@
         <v>633</v>
       </c>
       <c r="G350" s="13" t="s">
-        <v>1140</v>
+        <v>1117</v>
       </c>
       <c r="H350" s="15" t="s">
         <v>745</v>
@@ -15902,7 +15904,7 @@
         <v>633</v>
       </c>
       <c r="G351" s="13" t="s">
-        <v>1141</v>
+        <v>1118</v>
       </c>
       <c r="H351" s="15" t="s">
         <v>745</v>
@@ -15928,7 +15930,7 @@
         <v>633</v>
       </c>
       <c r="G352" s="13" t="s">
-        <v>1359</v>
+        <v>1326</v>
       </c>
       <c r="H352" s="15" t="s">
         <v>858</v>
@@ -15954,7 +15956,7 @@
         <v>633</v>
       </c>
       <c r="G353" s="13" t="s">
-        <v>1142</v>
+        <v>1119</v>
       </c>
       <c r="H353" s="15" t="s">
         <v>745</v>
@@ -15980,7 +15982,7 @@
         <v>633</v>
       </c>
       <c r="G354" s="13" t="s">
-        <v>1143</v>
+        <v>1120</v>
       </c>
       <c r="H354" s="15" t="s">
         <v>746</v>
@@ -16006,7 +16008,7 @@
         <v>633</v>
       </c>
       <c r="G355" s="13" t="s">
-        <v>1360</v>
+        <v>1327</v>
       </c>
       <c r="H355" s="15" t="s">
         <v>859</v>
@@ -16032,7 +16034,7 @@
         <v>633</v>
       </c>
       <c r="G356" s="13" t="s">
-        <v>1144</v>
+        <v>1121</v>
       </c>
       <c r="H356" s="15" t="s">
         <v>746</v>
@@ -16058,7 +16060,7 @@
         <v>633</v>
       </c>
       <c r="G357" s="13" t="s">
-        <v>1145</v>
+        <v>1122</v>
       </c>
       <c r="H357" s="15" t="s">
         <v>746</v>
@@ -16084,7 +16086,7 @@
         <v>633</v>
       </c>
       <c r="G358" s="13" t="s">
-        <v>1361</v>
+        <v>1328</v>
       </c>
       <c r="H358" s="15" t="s">
         <v>860</v>
@@ -16110,7 +16112,7 @@
         <v>633</v>
       </c>
       <c r="G359" s="13" t="s">
-        <v>1146</v>
+        <v>1400</v>
       </c>
       <c r="H359" s="15" t="s">
         <v>747</v>
@@ -16136,7 +16138,7 @@
         <v>633</v>
       </c>
       <c r="G360" s="13" t="s">
-        <v>1147</v>
+        <v>1123</v>
       </c>
       <c r="H360" s="15" t="s">
         <v>747</v>
@@ -16162,7 +16164,7 @@
         <v>633</v>
       </c>
       <c r="G361" s="13" t="s">
-        <v>1362</v>
+        <v>1329</v>
       </c>
       <c r="H361" s="15" t="s">
         <v>861</v>
@@ -16188,7 +16190,7 @@
         <v>633</v>
       </c>
       <c r="G362" s="13" t="s">
-        <v>1148</v>
+        <v>1124</v>
       </c>
       <c r="H362" s="15" t="s">
         <v>748</v>
@@ -16214,7 +16216,7 @@
         <v>633</v>
       </c>
       <c r="G363" s="13" t="s">
-        <v>1149</v>
+        <v>1125</v>
       </c>
       <c r="H363" s="15" t="s">
         <v>748</v>
@@ -16240,7 +16242,7 @@
         <v>633</v>
       </c>
       <c r="G364" s="13" t="s">
-        <v>1363</v>
+        <v>1330</v>
       </c>
       <c r="H364" s="15" t="s">
         <v>862</v>
@@ -16266,7 +16268,7 @@
         <v>633</v>
       </c>
       <c r="G365" s="13" t="s">
-        <v>1150</v>
+        <v>1126</v>
       </c>
       <c r="H365" s="15" t="s">
         <v>748</v>
@@ -16292,7 +16294,7 @@
         <v>633</v>
       </c>
       <c r="G366" s="13" t="s">
-        <v>1151</v>
+        <v>1127</v>
       </c>
       <c r="H366" s="15" t="s">
         <v>749</v>
@@ -16318,7 +16320,7 @@
         <v>633</v>
       </c>
       <c r="G367" s="13" t="s">
-        <v>1364</v>
+        <v>1331</v>
       </c>
       <c r="H367" s="15" t="s">
         <v>863</v>
@@ -16344,7 +16346,7 @@
         <v>633</v>
       </c>
       <c r="G368" s="13" t="s">
-        <v>1152</v>
+        <v>1128</v>
       </c>
       <c r="H368" s="15" t="s">
         <v>749</v>
@@ -16370,7 +16372,7 @@
         <v>633</v>
       </c>
       <c r="G369" s="13" t="s">
-        <v>1153</v>
+        <v>1129</v>
       </c>
       <c r="H369" s="15" t="s">
         <v>749</v>
@@ -16396,7 +16398,7 @@
         <v>633</v>
       </c>
       <c r="G370" s="13" t="s">
-        <v>1365</v>
+        <v>1332</v>
       </c>
       <c r="H370" s="15" t="s">
         <v>864</v>
@@ -16422,7 +16424,7 @@
         <v>633</v>
       </c>
       <c r="G371" s="13" t="s">
-        <v>1154</v>
+        <v>1130</v>
       </c>
       <c r="H371" s="15" t="s">
         <v>750</v>
@@ -16448,7 +16450,7 @@
         <v>633</v>
       </c>
       <c r="G372" s="13" t="s">
-        <v>1155</v>
+        <v>1131</v>
       </c>
       <c r="H372" s="15" t="s">
         <v>750</v>
@@ -16474,7 +16476,7 @@
         <v>633</v>
       </c>
       <c r="G373" s="13" t="s">
-        <v>1366</v>
+        <v>1333</v>
       </c>
       <c r="H373" s="15" t="s">
         <v>865</v>
@@ -16500,7 +16502,7 @@
         <v>633</v>
       </c>
       <c r="G374" s="13" t="s">
-        <v>1156</v>
+        <v>1132</v>
       </c>
       <c r="H374" s="15" t="s">
         <v>751</v>
@@ -16526,7 +16528,7 @@
         <v>633</v>
       </c>
       <c r="G375" s="13" t="s">
-        <v>1157</v>
+        <v>1401</v>
       </c>
       <c r="H375" s="15" t="s">
         <v>751</v>
@@ -16552,7 +16554,7 @@
         <v>633</v>
       </c>
       <c r="G376" s="13" t="s">
-        <v>1367</v>
+        <v>1334</v>
       </c>
       <c r="H376" s="15" t="s">
         <v>866</v>
@@ -16578,7 +16580,7 @@
         <v>633</v>
       </c>
       <c r="G377" s="13" t="s">
-        <v>1158</v>
+        <v>1133</v>
       </c>
       <c r="H377" s="15" t="s">
         <v>751</v>
@@ -16604,7 +16606,7 @@
         <v>633</v>
       </c>
       <c r="G378" s="13" t="s">
-        <v>1159</v>
+        <v>1134</v>
       </c>
       <c r="H378" s="15" t="s">
         <v>752</v>
@@ -16630,7 +16632,7 @@
         <v>633</v>
       </c>
       <c r="G379" s="13" t="s">
-        <v>1368</v>
+        <v>1335</v>
       </c>
       <c r="H379" s="15" t="s">
         <v>867</v>
@@ -16656,7 +16658,7 @@
         <v>631</v>
       </c>
       <c r="G380" s="13" t="s">
-        <v>1160</v>
+        <v>1135</v>
       </c>
       <c r="H380" s="15" t="s">
         <v>752</v>
@@ -16682,7 +16684,7 @@
         <v>631</v>
       </c>
       <c r="G381" s="13" t="s">
-        <v>1161</v>
+        <v>1136</v>
       </c>
       <c r="H381" s="15" t="s">
         <v>752</v>
@@ -16708,7 +16710,7 @@
         <v>631</v>
       </c>
       <c r="G382" s="13" t="s">
-        <v>1369</v>
+        <v>1336</v>
       </c>
       <c r="H382" s="15" t="s">
         <v>868</v>
@@ -16734,7 +16736,7 @@
         <v>631</v>
       </c>
       <c r="G383" s="13" t="s">
-        <v>1162</v>
+        <v>1137</v>
       </c>
       <c r="H383" s="15" t="s">
         <v>753</v>
@@ -16760,7 +16762,7 @@
         <v>631</v>
       </c>
       <c r="G384" s="13" t="s">
-        <v>1163</v>
+        <v>1138</v>
       </c>
       <c r="H384" s="15" t="s">
         <v>753</v>
@@ -16786,7 +16788,7 @@
         <v>631</v>
       </c>
       <c r="G385" s="13" t="s">
-        <v>1370</v>
+        <v>1337</v>
       </c>
       <c r="H385" s="15" t="s">
         <v>869</v>
@@ -16812,7 +16814,7 @@
         <v>631</v>
       </c>
       <c r="G386" s="13" t="s">
-        <v>1164</v>
+        <v>1139</v>
       </c>
       <c r="H386" s="15" t="s">
         <v>754</v>
@@ -16838,7 +16840,7 @@
         <v>631</v>
       </c>
       <c r="G387" s="13" t="s">
-        <v>1165</v>
+        <v>1140</v>
       </c>
       <c r="H387" s="15" t="s">
         <v>754</v>
@@ -16864,7 +16866,7 @@
         <v>631</v>
       </c>
       <c r="G388" s="13" t="s">
-        <v>1371</v>
+        <v>1338</v>
       </c>
       <c r="H388" s="15" t="s">
         <v>870</v>
@@ -16890,7 +16892,7 @@
         <v>631</v>
       </c>
       <c r="G389" s="13" t="s">
-        <v>1166</v>
+        <v>1141</v>
       </c>
       <c r="H389" s="15" t="s">
         <v>754</v>
@@ -16916,7 +16918,7 @@
         <v>631</v>
       </c>
       <c r="G390" s="13" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="H390" s="15" t="s">
         <v>755</v>
@@ -16942,7 +16944,7 @@
         <v>631</v>
       </c>
       <c r="G391" s="13" t="s">
-        <v>1372</v>
+        <v>1339</v>
       </c>
       <c r="H391" s="15" t="s">
         <v>871</v>
@@ -16968,7 +16970,7 @@
         <v>631</v>
       </c>
       <c r="G392" s="13" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="H392" s="15" t="s">
         <v>755</v>
@@ -16994,7 +16996,7 @@
         <v>631</v>
       </c>
       <c r="G393" s="13" t="s">
-        <v>1169</v>
+        <v>1144</v>
       </c>
       <c r="H393" s="15" t="s">
         <v>755</v>
@@ -17020,7 +17022,7 @@
         <v>631</v>
       </c>
       <c r="G394" s="13" t="s">
-        <v>1373</v>
+        <v>1340</v>
       </c>
       <c r="H394" s="15" t="s">
         <v>872</v>
@@ -17046,7 +17048,7 @@
         <v>631</v>
       </c>
       <c r="G395" s="13" t="s">
-        <v>1170</v>
+        <v>1402</v>
       </c>
       <c r="H395" s="15" t="s">
         <v>756</v>
@@ -17072,7 +17074,7 @@
         <v>631</v>
       </c>
       <c r="G396" s="13" t="s">
-        <v>1171</v>
+        <v>1145</v>
       </c>
       <c r="H396" s="15" t="s">
         <v>756</v>
@@ -17098,7 +17100,7 @@
         <v>631</v>
       </c>
       <c r="G397" s="13" t="s">
-        <v>1374</v>
+        <v>1341</v>
       </c>
       <c r="H397" s="15" t="s">
         <v>873</v>
@@ -17124,7 +17126,7 @@
         <v>631</v>
       </c>
       <c r="G398" s="13" t="s">
-        <v>1172</v>
+        <v>1146</v>
       </c>
       <c r="H398" s="15" t="s">
         <v>757</v>
@@ -17150,7 +17152,7 @@
         <v>631</v>
       </c>
       <c r="G399" s="13" t="s">
-        <v>1173</v>
+        <v>1403</v>
       </c>
       <c r="H399" s="15" t="s">
         <v>757</v>
@@ -17176,7 +17178,7 @@
         <v>631</v>
       </c>
       <c r="G400" s="13" t="s">
-        <v>1375</v>
+        <v>1342</v>
       </c>
       <c r="H400" s="15" t="s">
         <v>874</v>
@@ -17202,7 +17204,7 @@
         <v>631</v>
       </c>
       <c r="G401" s="13" t="s">
-        <v>1174</v>
+        <v>1147</v>
       </c>
       <c r="H401" s="15" t="s">
         <v>757</v>
@@ -17228,7 +17230,7 @@
         <v>631</v>
       </c>
       <c r="G402" s="13" t="s">
-        <v>1175</v>
+        <v>1148</v>
       </c>
       <c r="H402" s="15" t="s">
         <v>758</v>
@@ -17254,7 +17256,7 @@
         <v>631</v>
       </c>
       <c r="G403" s="13" t="s">
-        <v>1376</v>
+        <v>1343</v>
       </c>
       <c r="H403" s="15" t="s">
         <v>875</v>
@@ -17280,7 +17282,7 @@
         <v>631</v>
       </c>
       <c r="G404" s="13" t="s">
-        <v>1176</v>
+        <v>1149</v>
       </c>
       <c r="H404" s="15" t="s">
         <v>758</v>
@@ -17306,7 +17308,7 @@
         <v>631</v>
       </c>
       <c r="G405" s="13" t="s">
-        <v>1177</v>
+        <v>1150</v>
       </c>
       <c r="H405" s="15" t="s">
         <v>758</v>
@@ -17332,7 +17334,7 @@
         <v>631</v>
       </c>
       <c r="G406" s="13" t="s">
-        <v>1377</v>
+        <v>1344</v>
       </c>
       <c r="H406" s="15" t="s">
         <v>876</v>
@@ -17358,7 +17360,7 @@
         <v>631</v>
       </c>
       <c r="G407" s="13" t="s">
-        <v>1178</v>
+        <v>1151</v>
       </c>
       <c r="H407" s="15" t="s">
         <v>759</v>
@@ -17384,7 +17386,7 @@
         <v>631</v>
       </c>
       <c r="G408" s="13" t="s">
-        <v>1179</v>
+        <v>1152</v>
       </c>
       <c r="H408" s="15" t="s">
         <v>759</v>
@@ -17410,7 +17412,7 @@
         <v>631</v>
       </c>
       <c r="G409" s="13" t="s">
-        <v>1378</v>
+        <v>1345</v>
       </c>
       <c r="H409" s="15" t="s">
         <v>877</v>
@@ -17436,7 +17438,7 @@
         <v>631</v>
       </c>
       <c r="G410" s="13" t="s">
-        <v>1180</v>
+        <v>1153</v>
       </c>
       <c r="H410" s="15" t="s">
         <v>760</v>
@@ -17462,7 +17464,7 @@
         <v>631</v>
       </c>
       <c r="G411" s="13" t="s">
-        <v>1181</v>
+        <v>1154</v>
       </c>
       <c r="H411" s="15" t="s">
         <v>760</v>
@@ -17488,7 +17490,7 @@
         <v>631</v>
       </c>
       <c r="G412" s="13" t="s">
-        <v>1379</v>
+        <v>1346</v>
       </c>
       <c r="H412" s="15" t="s">
         <v>878</v>
@@ -17514,7 +17516,7 @@
         <v>631</v>
       </c>
       <c r="G413" s="13" t="s">
-        <v>1182</v>
+        <v>1155</v>
       </c>
       <c r="H413" s="15" t="s">
         <v>760</v>
@@ -17540,7 +17542,7 @@
         <v>631</v>
       </c>
       <c r="G414" s="13" t="s">
-        <v>1183</v>
+        <v>1156</v>
       </c>
       <c r="H414" s="15" t="s">
         <v>761</v>
@@ -17566,7 +17568,7 @@
         <v>631</v>
       </c>
       <c r="G415" s="13" t="s">
-        <v>1380</v>
+        <v>1347</v>
       </c>
       <c r="H415" s="15" t="s">
         <v>879</v>
@@ -17592,7 +17594,7 @@
         <v>631</v>
       </c>
       <c r="G416" s="13" t="s">
-        <v>1184</v>
+        <v>1157</v>
       </c>
       <c r="H416" s="15" t="s">
         <v>761</v>
@@ -17618,7 +17620,7 @@
         <v>631</v>
       </c>
       <c r="G417" s="13" t="s">
-        <v>1185</v>
+        <v>1158</v>
       </c>
       <c r="H417" s="15" t="s">
         <v>761</v>
@@ -17644,7 +17646,7 @@
         <v>631</v>
       </c>
       <c r="G418" s="13" t="s">
-        <v>1381</v>
+        <v>1348</v>
       </c>
       <c r="H418" s="15" t="s">
         <v>880</v>
@@ -17670,7 +17672,7 @@
         <v>631</v>
       </c>
       <c r="G419" s="13" t="s">
-        <v>1186</v>
+        <v>1404</v>
       </c>
       <c r="H419" s="15" t="s">
         <v>762</v>
@@ -17696,7 +17698,7 @@
         <v>631</v>
       </c>
       <c r="G420" s="13" t="s">
-        <v>1187</v>
+        <v>1159</v>
       </c>
       <c r="H420" s="15" t="s">
         <v>762</v>
@@ -17722,7 +17724,7 @@
         <v>631</v>
       </c>
       <c r="G421" s="13" t="s">
-        <v>1382</v>
+        <v>1349</v>
       </c>
       <c r="H421" s="15" t="s">
         <v>881</v>
@@ -17748,7 +17750,7 @@
         <v>631</v>
       </c>
       <c r="G422" s="13" t="s">
-        <v>1188</v>
+        <v>1160</v>
       </c>
       <c r="H422" s="15" t="s">
         <v>763</v>
@@ -17774,7 +17776,7 @@
         <v>631</v>
       </c>
       <c r="G423" s="13" t="s">
-        <v>1189</v>
+        <v>1161</v>
       </c>
       <c r="H423" s="15" t="s">
         <v>763</v>
@@ -17800,7 +17802,7 @@
         <v>631</v>
       </c>
       <c r="G424" s="13" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
       <c r="H424" s="15" t="s">
         <v>882</v>
@@ -17826,7 +17828,7 @@
         <v>631</v>
       </c>
       <c r="G425" s="13" t="s">
-        <v>1190</v>
+        <v>1162</v>
       </c>
       <c r="H425" s="15" t="s">
         <v>763</v>
@@ -17852,7 +17854,7 @@
         <v>631</v>
       </c>
       <c r="G426" s="13" t="s">
-        <v>1191</v>
+        <v>1163</v>
       </c>
       <c r="H426" s="15" t="s">
         <v>764</v>
@@ -17878,7 +17880,7 @@
         <v>631</v>
       </c>
       <c r="G427" s="13" t="s">
-        <v>1384</v>
+        <v>1351</v>
       </c>
       <c r="H427" s="15" t="s">
         <v>883</v>
@@ -17904,7 +17906,7 @@
         <v>631</v>
       </c>
       <c r="G428" s="13" t="s">
-        <v>1192</v>
+        <v>1164</v>
       </c>
       <c r="H428" s="15" t="s">
         <v>764</v>
@@ -17930,7 +17932,7 @@
         <v>631</v>
       </c>
       <c r="G429" s="13" t="s">
-        <v>1193</v>
+        <v>1165</v>
       </c>
       <c r="H429" s="15" t="s">
         <v>764</v>
@@ -17956,7 +17958,7 @@
         <v>631</v>
       </c>
       <c r="G430" s="13" t="s">
-        <v>1385</v>
+        <v>1352</v>
       </c>
       <c r="H430" s="15" t="s">
         <v>884</v>
@@ -17982,7 +17984,7 @@
         <v>631</v>
       </c>
       <c r="G431" s="13" t="s">
-        <v>1194</v>
+        <v>1166</v>
       </c>
       <c r="H431" s="15" t="s">
         <v>765</v>
@@ -18008,7 +18010,7 @@
         <v>631</v>
       </c>
       <c r="G432" s="13" t="s">
-        <v>1195</v>
+        <v>1167</v>
       </c>
       <c r="H432" s="15" t="s">
         <v>765</v>
@@ -18034,7 +18036,7 @@
         <v>631</v>
       </c>
       <c r="G433" s="13" t="s">
-        <v>1386</v>
+        <v>1353</v>
       </c>
       <c r="H433" s="15" t="s">
         <v>885</v>
@@ -18060,7 +18062,7 @@
         <v>631</v>
       </c>
       <c r="G434" s="13" t="s">
-        <v>1196</v>
+        <v>1168</v>
       </c>
       <c r="H434" s="15" t="s">
         <v>766</v>
@@ -18086,7 +18088,7 @@
         <v>631</v>
       </c>
       <c r="G435" s="13" t="s">
-        <v>1197</v>
+        <v>1405</v>
       </c>
       <c r="H435" s="15" t="s">
         <v>766</v>
@@ -18112,7 +18114,7 @@
         <v>631</v>
       </c>
       <c r="G436" s="13" t="s">
-        <v>1387</v>
+        <v>1354</v>
       </c>
       <c r="H436" s="15" t="s">
         <v>886</v>
@@ -18138,7 +18140,7 @@
         <v>631</v>
       </c>
       <c r="G437" s="13" t="s">
-        <v>1198</v>
+        <v>1169</v>
       </c>
       <c r="H437" s="15" t="s">
         <v>766</v>
@@ -18164,7 +18166,7 @@
         <v>631</v>
       </c>
       <c r="G438" s="13" t="s">
-        <v>1199</v>
+        <v>1170</v>
       </c>
       <c r="H438" s="15" t="s">
         <v>767</v>
@@ -18190,7 +18192,7 @@
         <v>631</v>
       </c>
       <c r="G439" s="13" t="s">
-        <v>1388</v>
+        <v>1355</v>
       </c>
       <c r="H439" s="15" t="s">
         <v>887</v>
@@ -18216,7 +18218,7 @@
         <v>631</v>
       </c>
       <c r="G440" s="13" t="s">
-        <v>1200</v>
+        <v>1171</v>
       </c>
       <c r="H440" s="15" t="s">
         <v>767</v>
@@ -18242,7 +18244,7 @@
         <v>631</v>
       </c>
       <c r="G441" s="13" t="s">
-        <v>1201</v>
+        <v>1172</v>
       </c>
       <c r="H441" s="15" t="s">
         <v>767</v>
@@ -18268,7 +18270,7 @@
         <v>631</v>
       </c>
       <c r="G442" s="13" t="s">
-        <v>1389</v>
+        <v>1356</v>
       </c>
       <c r="H442" s="15" t="s">
         <v>888</v>
@@ -18294,7 +18296,7 @@
         <v>632</v>
       </c>
       <c r="G443" s="13" t="s">
-        <v>1202</v>
+        <v>1173</v>
       </c>
       <c r="H443" s="15" t="s">
         <v>768</v>
@@ -18320,7 +18322,7 @@
         <v>632</v>
       </c>
       <c r="G444" s="13" t="s">
-        <v>1203</v>
+        <v>1174</v>
       </c>
       <c r="H444" s="15" t="s">
         <v>768</v>
@@ -18346,7 +18348,7 @@
         <v>632</v>
       </c>
       <c r="G445" s="13" t="s">
-        <v>1390</v>
+        <v>1357</v>
       </c>
       <c r="H445" s="15" t="s">
         <v>889</v>
@@ -18372,7 +18374,7 @@
         <v>632</v>
       </c>
       <c r="G446" s="13" t="s">
-        <v>1204</v>
+        <v>1175</v>
       </c>
       <c r="H446" s="15" t="s">
         <v>769</v>
@@ -18398,7 +18400,7 @@
         <v>632</v>
       </c>
       <c r="G447" s="13" t="s">
-        <v>1205</v>
+        <v>1176</v>
       </c>
       <c r="H447" s="15" t="s">
         <v>769</v>
@@ -18424,7 +18426,7 @@
         <v>632</v>
       </c>
       <c r="G448" s="13" t="s">
-        <v>1391</v>
+        <v>1358</v>
       </c>
       <c r="H448" s="15" t="s">
         <v>890</v>
@@ -18450,7 +18452,7 @@
         <v>632</v>
       </c>
       <c r="G449" s="13" t="s">
-        <v>1206</v>
+        <v>1177</v>
       </c>
       <c r="H449" s="15" t="s">
         <v>769</v>
@@ -18476,7 +18478,7 @@
         <v>632</v>
       </c>
       <c r="G450" s="13" t="s">
-        <v>1207</v>
+        <v>1178</v>
       </c>
       <c r="H450" s="15" t="s">
         <v>770</v>
@@ -18502,7 +18504,7 @@
         <v>632</v>
       </c>
       <c r="G451" s="13" t="s">
-        <v>1392</v>
+        <v>1359</v>
       </c>
       <c r="H451" s="15" t="s">
         <v>891</v>
@@ -18528,7 +18530,7 @@
         <v>632</v>
       </c>
       <c r="G452" s="13" t="s">
-        <v>1208</v>
+        <v>1179</v>
       </c>
       <c r="H452" s="15" t="s">
         <v>770</v>
@@ -18554,7 +18556,7 @@
         <v>632</v>
       </c>
       <c r="G453" s="13" t="s">
-        <v>1209</v>
+        <v>1180</v>
       </c>
       <c r="H453" s="15" t="s">
         <v>770</v>
@@ -18580,7 +18582,7 @@
         <v>632</v>
       </c>
       <c r="G454" s="13" t="s">
-        <v>1393</v>
+        <v>1360</v>
       </c>
       <c r="H454" s="15" t="s">
         <v>892</v>
@@ -18606,7 +18608,7 @@
         <v>632</v>
       </c>
       <c r="G455" s="13" t="s">
-        <v>1210</v>
+        <v>1406</v>
       </c>
       <c r="H455" s="15" t="s">
         <v>771</v>
@@ -18632,7 +18634,7 @@
         <v>632</v>
       </c>
       <c r="G456" s="13" t="s">
-        <v>1211</v>
+        <v>1181</v>
       </c>
       <c r="H456" s="15" t="s">
         <v>771</v>
@@ -18658,7 +18660,7 @@
         <v>632</v>
       </c>
       <c r="G457" s="13" t="s">
-        <v>1394</v>
+        <v>1361</v>
       </c>
       <c r="H457" s="15" t="s">
         <v>893</v>
@@ -18684,7 +18686,7 @@
         <v>632</v>
       </c>
       <c r="G458" s="13" t="s">
-        <v>1212</v>
+        <v>1182</v>
       </c>
       <c r="H458" s="15" t="s">
         <v>772</v>
@@ -18710,7 +18712,7 @@
         <v>632</v>
       </c>
       <c r="G459" s="13" t="s">
-        <v>1213</v>
+        <v>1407</v>
       </c>
       <c r="H459" s="15" t="s">
         <v>772</v>
@@ -18736,7 +18738,7 @@
         <v>632</v>
       </c>
       <c r="G460" s="13" t="s">
-        <v>1395</v>
+        <v>1362</v>
       </c>
       <c r="H460" s="15" t="s">
         <v>894</v>
@@ -18762,7 +18764,7 @@
         <v>632</v>
       </c>
       <c r="G461" s="13" t="s">
-        <v>1214</v>
+        <v>1183</v>
       </c>
       <c r="H461" s="15" t="s">
         <v>772</v>
@@ -18788,7 +18790,7 @@
         <v>632</v>
       </c>
       <c r="G462" s="13" t="s">
-        <v>1215</v>
+        <v>1184</v>
       </c>
       <c r="H462" s="15" t="s">
         <v>773</v>
@@ -18814,7 +18816,7 @@
         <v>632</v>
       </c>
       <c r="G463" s="13" t="s">
-        <v>1396</v>
+        <v>1363</v>
       </c>
       <c r="H463" s="15" t="s">
         <v>895</v>
@@ -18840,7 +18842,7 @@
         <v>632</v>
       </c>
       <c r="G464" s="13" t="s">
-        <v>1216</v>
+        <v>1185</v>
       </c>
       <c r="H464" s="15" t="s">
         <v>773</v>
@@ -18866,7 +18868,7 @@
         <v>632</v>
       </c>
       <c r="G465" s="13" t="s">
-        <v>1217</v>
+        <v>1186</v>
       </c>
       <c r="H465" s="15" t="s">
         <v>773</v>
@@ -18892,7 +18894,7 @@
         <v>632</v>
       </c>
       <c r="G466" s="13" t="s">
-        <v>1397</v>
+        <v>1364</v>
       </c>
       <c r="H466" s="15" t="s">
         <v>896</v>
@@ -18918,7 +18920,7 @@
         <v>632</v>
       </c>
       <c r="G467" s="13" t="s">
-        <v>1218</v>
+        <v>1187</v>
       </c>
       <c r="H467" s="15" t="s">
         <v>774</v>
@@ -18944,7 +18946,7 @@
         <v>632</v>
       </c>
       <c r="G468" s="13" t="s">
-        <v>1219</v>
+        <v>1188</v>
       </c>
       <c r="H468" s="15" t="s">
         <v>774</v>
@@ -18970,7 +18972,7 @@
         <v>632</v>
       </c>
       <c r="G469" s="13" t="s">
-        <v>1398</v>
+        <v>1365</v>
       </c>
       <c r="H469" s="15" t="s">
         <v>897</v>
@@ -18996,7 +18998,7 @@
         <v>632</v>
       </c>
       <c r="G470" s="13" t="s">
-        <v>1220</v>
+        <v>1189</v>
       </c>
       <c r="H470" s="15" t="s">
         <v>775</v>
@@ -19022,7 +19024,7 @@
         <v>632</v>
       </c>
       <c r="G471" s="13" t="s">
-        <v>1221</v>
+        <v>1190</v>
       </c>
       <c r="H471" s="15" t="s">
         <v>775</v>
@@ -19048,7 +19050,7 @@
         <v>632</v>
       </c>
       <c r="G472" s="13" t="s">
-        <v>1399</v>
+        <v>1366</v>
       </c>
       <c r="H472" s="15" t="s">
         <v>898</v>
@@ -19074,7 +19076,7 @@
         <v>632</v>
       </c>
       <c r="G473" s="13" t="s">
-        <v>1222</v>
+        <v>1191</v>
       </c>
       <c r="H473" s="15" t="s">
         <v>775</v>
@@ -19100,7 +19102,7 @@
         <v>632</v>
       </c>
       <c r="G474" s="13" t="s">
-        <v>1223</v>
+        <v>1192</v>
       </c>
       <c r="H474" s="15" t="s">
         <v>776</v>
@@ -19126,7 +19128,7 @@
         <v>632</v>
       </c>
       <c r="G475" s="13" t="s">
-        <v>1400</v>
+        <v>1367</v>
       </c>
       <c r="H475" s="15" t="s">
         <v>899</v>
@@ -19152,7 +19154,7 @@
         <v>632</v>
       </c>
       <c r="G476" s="13" t="s">
-        <v>1224</v>
+        <v>1193</v>
       </c>
       <c r="H476" s="15" t="s">
         <v>776</v>
@@ -19178,7 +19180,7 @@
         <v>632</v>
       </c>
       <c r="G477" s="13" t="s">
-        <v>1225</v>
+        <v>1194</v>
       </c>
       <c r="H477" s="15" t="s">
         <v>776</v>
@@ -19204,7 +19206,7 @@
         <v>632</v>
       </c>
       <c r="G478" s="13" t="s">
-        <v>1401</v>
+        <v>1368</v>
       </c>
       <c r="H478" s="15" t="s">
         <v>900</v>
@@ -19230,7 +19232,7 @@
         <v>632</v>
       </c>
       <c r="G479" s="13" t="s">
-        <v>1226</v>
+        <v>1408</v>
       </c>
       <c r="H479" s="15" t="s">
         <v>777</v>
@@ -19256,7 +19258,7 @@
         <v>632</v>
       </c>
       <c r="G480" s="13" t="s">
-        <v>1227</v>
+        <v>1195</v>
       </c>
       <c r="H480" s="15" t="s">
         <v>777</v>
@@ -19282,7 +19284,7 @@
         <v>632</v>
       </c>
       <c r="G481" s="13" t="s">
-        <v>1402</v>
+        <v>1369</v>
       </c>
       <c r="H481" s="15" t="s">
         <v>901</v>
@@ -19308,7 +19310,7 @@
         <v>632</v>
       </c>
       <c r="G482" s="13" t="s">
-        <v>1228</v>
+        <v>1196</v>
       </c>
       <c r="H482" s="15" t="s">
         <v>778</v>
@@ -19334,7 +19336,7 @@
         <v>632</v>
       </c>
       <c r="G483" s="13" t="s">
-        <v>1229</v>
+        <v>1197</v>
       </c>
       <c r="H483" s="15" t="s">
         <v>778</v>
@@ -19360,7 +19362,7 @@
         <v>632</v>
       </c>
       <c r="G484" s="13" t="s">
-        <v>1403</v>
+        <v>1370</v>
       </c>
       <c r="H484" s="15" t="s">
         <v>891</v>
@@ -19386,7 +19388,7 @@
         <v>632</v>
       </c>
       <c r="G485" s="13" t="s">
-        <v>1230</v>
+        <v>1198</v>
       </c>
       <c r="H485" s="15" t="s">
         <v>778</v>
@@ -19412,7 +19414,7 @@
         <v>632</v>
       </c>
       <c r="G486" s="13" t="s">
-        <v>1231</v>
+        <v>1199</v>
       </c>
       <c r="H486" s="15" t="s">
         <v>779</v>
@@ -19438,7 +19440,7 @@
         <v>632</v>
       </c>
       <c r="G487" s="13" t="s">
-        <v>1404</v>
+        <v>1371</v>
       </c>
       <c r="H487" s="15" t="s">
         <v>901</v>
@@ -19464,7 +19466,7 @@
         <v>632</v>
       </c>
       <c r="G488" s="13" t="s">
-        <v>1232</v>
+        <v>1200</v>
       </c>
       <c r="H488" s="15" t="s">
         <v>779</v>
@@ -19490,7 +19492,7 @@
         <v>632</v>
       </c>
       <c r="G489" s="13" t="s">
-        <v>1233</v>
+        <v>1201</v>
       </c>
       <c r="H489" s="15" t="s">
         <v>779</v>
@@ -19516,7 +19518,7 @@
         <v>632</v>
       </c>
       <c r="G490" s="13" t="s">
-        <v>1405</v>
+        <v>1372</v>
       </c>
       <c r="H490" s="15" t="s">
         <v>902</v>
@@ -19542,7 +19544,7 @@
         <v>632</v>
       </c>
       <c r="G491" s="13" t="s">
-        <v>1234</v>
+        <v>1202</v>
       </c>
       <c r="H491" s="15" t="s">
         <v>780</v>
@@ -19568,7 +19570,7 @@
         <v>632</v>
       </c>
       <c r="G492" s="13" t="s">
-        <v>1235</v>
+        <v>1203</v>
       </c>
       <c r="H492" s="15" t="s">
         <v>780</v>
@@ -19594,7 +19596,7 @@
         <v>632</v>
       </c>
       <c r="G493" s="13" t="s">
-        <v>1406</v>
+        <v>1373</v>
       </c>
       <c r="H493" s="15" t="s">
         <v>903</v>
@@ -19620,7 +19622,7 @@
         <v>632</v>
       </c>
       <c r="G494" s="13" t="s">
-        <v>1236</v>
+        <v>1204</v>
       </c>
       <c r="H494" s="15" t="s">
         <v>781</v>
@@ -19646,7 +19648,7 @@
         <v>632</v>
       </c>
       <c r="G495" s="13" t="s">
-        <v>1237</v>
+        <v>1409</v>
       </c>
       <c r="H495" s="15" t="s">
         <v>781</v>
@@ -19672,7 +19674,7 @@
         <v>632</v>
       </c>
       <c r="G496" s="13" t="s">
-        <v>1407</v>
+        <v>1374</v>
       </c>
       <c r="H496" s="15" t="s">
         <v>904</v>
@@ -19698,7 +19700,7 @@
         <v>632</v>
       </c>
       <c r="G497" s="13" t="s">
-        <v>1238</v>
+        <v>1205</v>
       </c>
       <c r="H497" s="15" t="s">
         <v>781</v>
@@ -19724,7 +19726,7 @@
         <v>632</v>
       </c>
       <c r="G498" s="13" t="s">
-        <v>1239</v>
+        <v>1206</v>
       </c>
       <c r="H498" s="15" t="s">
         <v>782</v>
@@ -19750,7 +19752,7 @@
         <v>632</v>
       </c>
       <c r="G499" s="13" t="s">
-        <v>1408</v>
+        <v>1375</v>
       </c>
       <c r="H499" s="15" t="s">
         <v>905</v>
@@ -19776,7 +19778,7 @@
         <v>632</v>
       </c>
       <c r="G500" s="13" t="s">
-        <v>1240</v>
+        <v>1207</v>
       </c>
       <c r="H500" s="15" t="s">
         <v>782</v>
@@ -19802,7 +19804,7 @@
         <v>632</v>
       </c>
       <c r="G501" s="13" t="s">
-        <v>1241</v>
+        <v>1208</v>
       </c>
       <c r="H501" s="7" t="s">
         <v>782</v>
@@ -19828,7 +19830,7 @@
         <v>632</v>
       </c>
       <c r="G502" s="13" t="s">
-        <v>1409</v>
+        <v>1376</v>
       </c>
       <c r="H502" s="7" t="s">
         <v>906</v>
@@ -19853,8 +19855,8 @@
       <c r="F503" s="19" t="s">
         <v>632</v>
       </c>
-      <c r="G503" s="13" t="s">
-        <v>1242</v>
+      <c r="G503" s="23" t="s">
+        <v>1209</v>
       </c>
       <c r="H503" s="7" t="s">
         <v>783</v>
@@ -19879,8 +19881,8 @@
       <c r="F504" s="19" t="s">
         <v>632</v>
       </c>
-      <c r="G504" s="23" t="s">
-        <v>1411</v>
+      <c r="G504" s="22" t="s">
+        <v>1410</v>
       </c>
       <c r="H504" s="7" t="s">
         <v>783</v>
@@ -19905,8 +19907,8 @@
       <c r="F505" s="19" t="s">
         <v>632</v>
       </c>
-      <c r="G505" s="22" t="s">
-        <v>1410</v>
+      <c r="G505" s="6" t="s">
+        <v>1411</v>
       </c>
       <c r="H505" s="7" t="s">
         <v>907</v>
@@ -19914,7 +19916,6 @@
     </row>
     <row r="506" spans="1:8" ht="20" customHeight="1">
       <c r="D506" s="19"/>
-      <c r="G506" s="6"/>
     </row>
     <row r="507" spans="1:8" ht="20" customHeight="1">
       <c r="D507" s="19"/>

--- a/Dragonfall/gameData/shared/PvE.xlsx
+++ b/Dragonfall/gameData/shared/PvE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33080" windowHeight="21140" tabRatio="566"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14260" tabRatio="566"/>
   </bookViews>
   <sheets>
     <sheet name="sections" sheetId="12" r:id="rId1"/>
@@ -2767,15 +2767,6 @@
     <t>soldierMaterials:deathHand:5000:25,soldierMaterials:heroBones:5000:25,soldierMaterials:soulStone:5000:25,soldierMaterials:magicBox:5000:25</t>
   </si>
   <si>
-    <t>blueDragon:1:1,lancer_1:1:2,ranger_1:1:5,lancer_1:1:2,catapult_1:1:2,swordsman_1:1:5,catapult_1:1:2</t>
-  </si>
-  <si>
-    <t>blueDragon:1:1,catapult_1:1:4,swordsman_1:1:8,catapult_1:1:4,lancer_1:1:4,ranger_1:1:8,lancer_1:1:4</t>
-  </si>
-  <si>
-    <t>blueDragon:1:1,skeletonArcher:3:4,meatWagon:3:2,skeletonArcher:3:4,skeletonWarrior:3:4,deathKnight:3:2,skeletonWarrior:3:4</t>
-  </si>
-  <si>
     <t>blueDragon:1:1,swordsman_1:1:12,lancer_1:1:6,swordsman_1:1:12,ranger_1:1:12,catapult_1:1:6,ranger_1:1:12</t>
   </si>
   <si>
@@ -4277,6 +4268,18 @@
   </si>
   <si>
     <t>greenDragon:4:40,skeletonWarrior:3:11045,deathKnight:3:5522,skeletonWarrior:3:11045,skeletonArcher:3:11045,meatWagon:3:5522,skeletonArcher:3:11045</t>
+  </si>
+  <si>
+    <t>blueDragon:1:1,swordsman_1:1:5</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon:1:1,swordsman_1:1:8,ranger_1:1:8</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon:1:1,skeletonWarrior:3:4</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6772,8 +6775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H523"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="E482" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G505"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6781,7 +6784,7 @@
     <col min="1" max="1" width="20.6640625" style="1"/>
     <col min="2" max="3" width="20.6640625" style="9"/>
     <col min="4" max="6" width="20.6640625" style="18"/>
-    <col min="7" max="7" width="100.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="136.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="137.6640625" style="6" customWidth="1"/>
     <col min="9" max="16384" width="20.6640625" style="1"/>
   </cols>
@@ -6832,7 +6835,7 @@
         <v>631</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>908</v>
+        <v>1409</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>658</v>
@@ -6858,13 +6861,13 @@
         <v>631</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>909</v>
+        <v>1410</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -6884,13 +6887,13 @@
         <v>631</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>910</v>
+        <v>1411</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -6910,13 +6913,13 @@
         <v>631</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -6936,13 +6939,13 @@
         <v>631</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30">
+    <row r="7" spans="1:8" ht="15">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -6962,13 +6965,13 @@
         <v>631</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30">
+    <row r="8" spans="1:8" ht="15">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -6988,13 +6991,13 @@
         <v>631</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30">
+    <row r="9" spans="1:8" ht="15">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -7014,13 +7017,13 @@
         <v>631</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30">
+    <row r="10" spans="1:8" ht="15">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -7040,13 +7043,13 @@
         <v>631</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30">
+    <row r="11" spans="1:8" ht="15">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
@@ -7066,13 +7069,13 @@
         <v>631</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -7092,13 +7095,13 @@
         <v>631</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30">
+    <row r="13" spans="1:8" ht="15">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
@@ -7118,13 +7121,13 @@
         <v>631</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30">
+    <row r="14" spans="1:8" ht="15">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
@@ -7144,13 +7147,13 @@
         <v>631</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30">
+    <row r="15" spans="1:8" ht="15">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -7170,13 +7173,13 @@
         <v>631</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30">
+    <row r="16" spans="1:8" ht="15">
       <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
@@ -7196,13 +7199,13 @@
         <v>631</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30">
+    <row r="17" spans="1:8" ht="15">
       <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
@@ -7222,13 +7225,13 @@
         <v>631</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30">
+    <row r="18" spans="1:8" ht="15">
       <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
@@ -7248,13 +7251,13 @@
         <v>631</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30">
+    <row r="19" spans="1:8" ht="15">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -7274,13 +7277,13 @@
         <v>631</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30">
+    <row r="20" spans="1:8" ht="15">
       <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
@@ -7300,13 +7303,13 @@
         <v>631</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30">
+    <row r="21" spans="1:8" ht="15">
       <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
@@ -7326,13 +7329,13 @@
         <v>631</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30">
+    <row r="22" spans="1:8" ht="15">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -7352,13 +7355,13 @@
         <v>631</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30">
+    <row r="23" spans="1:8" ht="15">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -7378,13 +7381,13 @@
         <v>631</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30">
+    <row r="24" spans="1:8" ht="15">
       <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
@@ -7404,13 +7407,13 @@
         <v>631</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30">
+    <row r="25" spans="1:8" ht="15">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -7430,7 +7433,7 @@
         <v>631</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>516</v>
@@ -7456,7 +7459,7 @@
         <v>631</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>664</v>
@@ -7482,7 +7485,7 @@
         <v>631</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>664</v>
@@ -7508,7 +7511,7 @@
         <v>631</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>517</v>
@@ -7534,7 +7537,7 @@
         <v>631</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>664</v>
@@ -7560,7 +7563,7 @@
         <v>631</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>665</v>
@@ -7586,7 +7589,7 @@
         <v>631</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>518</v>
@@ -7612,7 +7615,7 @@
         <v>631</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>665</v>
@@ -7638,7 +7641,7 @@
         <v>631</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>665</v>
@@ -7664,7 +7667,7 @@
         <v>631</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>519</v>
@@ -7690,7 +7693,7 @@
         <v>631</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="H35" s="13" t="s">
         <v>666</v>
@@ -7716,7 +7719,7 @@
         <v>631</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>666</v>
@@ -7742,7 +7745,7 @@
         <v>631</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>520</v>
@@ -7768,7 +7771,7 @@
         <v>631</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>667</v>
@@ -7794,7 +7797,7 @@
         <v>631</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>667</v>
@@ -7820,7 +7823,7 @@
         <v>631</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>521</v>
@@ -7846,7 +7849,7 @@
         <v>631</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>667</v>
@@ -7872,7 +7875,7 @@
         <v>631</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>668</v>
@@ -7898,7 +7901,7 @@
         <v>631</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>522</v>
@@ -7924,7 +7927,7 @@
         <v>632</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>668</v>
@@ -7950,7 +7953,7 @@
         <v>632</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>668</v>
@@ -7976,7 +7979,7 @@
         <v>632</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>523</v>
@@ -8002,7 +8005,7 @@
         <v>632</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>669</v>
@@ -8028,7 +8031,7 @@
         <v>632</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>669</v>
@@ -8054,7 +8057,7 @@
         <v>632</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>524</v>
@@ -8080,7 +8083,7 @@
         <v>632</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>670</v>
@@ -8106,7 +8109,7 @@
         <v>632</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>670</v>
@@ -8132,7 +8135,7 @@
         <v>632</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>525</v>
@@ -8158,7 +8161,7 @@
         <v>632</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>670</v>
@@ -8184,7 +8187,7 @@
         <v>632</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>671</v>
@@ -8210,7 +8213,7 @@
         <v>632</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>526</v>
@@ -8236,7 +8239,7 @@
         <v>632</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>671</v>
@@ -8262,7 +8265,7 @@
         <v>632</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="H57" s="13" t="s">
         <v>671</v>
@@ -8288,7 +8291,7 @@
         <v>632</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="H58" s="13" t="s">
         <v>527</v>
@@ -8314,7 +8317,7 @@
         <v>632</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="H59" s="13" t="s">
         <v>672</v>
@@ -8340,7 +8343,7 @@
         <v>632</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="H60" s="13" t="s">
         <v>672</v>
@@ -8366,7 +8369,7 @@
         <v>632</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="H61" s="13" t="s">
         <v>528</v>
@@ -8392,7 +8395,7 @@
         <v>632</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="H62" s="13" t="s">
         <v>673</v>
@@ -8418,7 +8421,7 @@
         <v>632</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="H63" s="13" t="s">
         <v>673</v>
@@ -8444,7 +8447,7 @@
         <v>632</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="H64" s="13" t="s">
         <v>529</v>
@@ -8470,7 +8473,7 @@
         <v>632</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>673</v>
@@ -8496,7 +8499,7 @@
         <v>632</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="H66" s="13" t="s">
         <v>674</v>
@@ -8522,7 +8525,7 @@
         <v>632</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="H67" s="13" t="s">
         <v>530</v>
@@ -8548,7 +8551,7 @@
         <v>632</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="H68" s="13" t="s">
         <v>674</v>
@@ -8574,7 +8577,7 @@
         <v>632</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="H69" s="13" t="s">
         <v>674</v>
@@ -8600,7 +8603,7 @@
         <v>632</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H70" s="13" t="s">
         <v>531</v>
@@ -8626,7 +8629,7 @@
         <v>632</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="H71" s="13" t="s">
         <v>675</v>
@@ -8652,7 +8655,7 @@
         <v>632</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="H72" s="13" t="s">
         <v>675</v>
@@ -8678,7 +8681,7 @@
         <v>632</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="H73" s="13" t="s">
         <v>532</v>
@@ -8704,7 +8707,7 @@
         <v>632</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>676</v>
@@ -8730,7 +8733,7 @@
         <v>632</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="H75" s="13" t="s">
         <v>676</v>
@@ -8756,7 +8759,7 @@
         <v>632</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="H76" s="13" t="s">
         <v>533</v>
@@ -8782,7 +8785,7 @@
         <v>632</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>676</v>
@@ -8808,7 +8811,7 @@
         <v>632</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>677</v>
@@ -8834,7 +8837,7 @@
         <v>632</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>534</v>
@@ -8860,7 +8863,7 @@
         <v>632</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="H80" s="13" t="s">
         <v>677</v>
@@ -8886,7 +8889,7 @@
         <v>632</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="H81" s="13" t="s">
         <v>677</v>
@@ -8912,7 +8915,7 @@
         <v>632</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="H82" s="13" t="s">
         <v>535</v>
@@ -8938,7 +8941,7 @@
         <v>632</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>678</v>
@@ -8964,7 +8967,7 @@
         <v>632</v>
       </c>
       <c r="G84" s="20" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="H84" s="13" t="s">
         <v>678</v>
@@ -8990,7 +8993,7 @@
         <v>632</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="H85" s="13" t="s">
         <v>536</v>
@@ -9016,7 +9019,7 @@
         <v>633</v>
       </c>
       <c r="G86" s="20" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="H86" s="13" t="s">
         <v>679</v>
@@ -9042,7 +9045,7 @@
         <v>633</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="H87" s="13" t="s">
         <v>679</v>
@@ -9068,7 +9071,7 @@
         <v>633</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="H88" s="13" t="s">
         <v>537</v>
@@ -9094,7 +9097,7 @@
         <v>633</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="H89" s="13" t="s">
         <v>679</v>
@@ -9120,7 +9123,7 @@
         <v>633</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="H90" s="13" t="s">
         <v>680</v>
@@ -9146,7 +9149,7 @@
         <v>633</v>
       </c>
       <c r="G91" s="20" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="H91" s="13" t="s">
         <v>538</v>
@@ -9172,7 +9175,7 @@
         <v>633</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="H92" s="13" t="s">
         <v>680</v>
@@ -9198,7 +9201,7 @@
         <v>633</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="H93" s="13" t="s">
         <v>680</v>
@@ -9224,7 +9227,7 @@
         <v>633</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="H94" s="13" t="s">
         <v>539</v>
@@ -9250,7 +9253,7 @@
         <v>633</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="H95" s="13" t="s">
         <v>681</v>
@@ -9276,7 +9279,7 @@
         <v>633</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="H96" s="13" t="s">
         <v>681</v>
@@ -9302,7 +9305,7 @@
         <v>633</v>
       </c>
       <c r="G97" s="20" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="H97" s="13" t="s">
         <v>540</v>
@@ -9328,7 +9331,7 @@
         <v>633</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="H98" s="13" t="s">
         <v>682</v>
@@ -9354,7 +9357,7 @@
         <v>633</v>
       </c>
       <c r="G99" s="20" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="H99" s="13" t="s">
         <v>682</v>
@@ -9380,7 +9383,7 @@
         <v>633</v>
       </c>
       <c r="G100" s="20" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="H100" s="13" t="s">
         <v>541</v>
@@ -9406,7 +9409,7 @@
         <v>633</v>
       </c>
       <c r="G101" s="20" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="H101" s="13" t="s">
         <v>682</v>
@@ -9432,7 +9435,7 @@
         <v>633</v>
       </c>
       <c r="G102" s="20" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="H102" s="13" t="s">
         <v>683</v>
@@ -9458,7 +9461,7 @@
         <v>633</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="H103" s="13" t="s">
         <v>542</v>
@@ -9484,7 +9487,7 @@
         <v>633</v>
       </c>
       <c r="G104" s="20" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="H104" s="13" t="s">
         <v>683</v>
@@ -9510,7 +9513,7 @@
         <v>633</v>
       </c>
       <c r="G105" s="20" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="H105" s="13" t="s">
         <v>683</v>
@@ -9536,7 +9539,7 @@
         <v>633</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="H106" s="13" t="s">
         <v>543</v>
@@ -9562,7 +9565,7 @@
         <v>633</v>
       </c>
       <c r="G107" s="20" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="H107" s="13" t="s">
         <v>684</v>
@@ -9588,7 +9591,7 @@
         <v>633</v>
       </c>
       <c r="G108" s="20" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="H108" s="13" t="s">
         <v>684</v>
@@ -9614,7 +9617,7 @@
         <v>633</v>
       </c>
       <c r="G109" s="20" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="H109" s="13" t="s">
         <v>544</v>
@@ -9640,7 +9643,7 @@
         <v>633</v>
       </c>
       <c r="G110" s="20" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="H110" s="13" t="s">
         <v>685</v>
@@ -9666,7 +9669,7 @@
         <v>633</v>
       </c>
       <c r="G111" s="20" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="H111" s="13" t="s">
         <v>685</v>
@@ -9692,7 +9695,7 @@
         <v>633</v>
       </c>
       <c r="G112" s="20" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="H112" s="13" t="s">
         <v>545</v>
@@ -9718,7 +9721,7 @@
         <v>633</v>
       </c>
       <c r="G113" s="20" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="H113" s="13" t="s">
         <v>685</v>
@@ -9744,7 +9747,7 @@
         <v>633</v>
       </c>
       <c r="G114" s="20" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="H114" s="13" t="s">
         <v>686</v>
@@ -9770,7 +9773,7 @@
         <v>633</v>
       </c>
       <c r="G115" s="20" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="H115" s="13" t="s">
         <v>546</v>
@@ -9796,7 +9799,7 @@
         <v>633</v>
       </c>
       <c r="G116" s="20" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="H116" s="13" t="s">
         <v>686</v>
@@ -9822,7 +9825,7 @@
         <v>633</v>
       </c>
       <c r="G117" s="20" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="H117" s="13" t="s">
         <v>686</v>
@@ -9848,7 +9851,7 @@
         <v>633</v>
       </c>
       <c r="G118" s="20" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="H118" s="13" t="s">
         <v>547</v>
@@ -9874,7 +9877,7 @@
         <v>633</v>
       </c>
       <c r="G119" s="20" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="H119" s="13" t="s">
         <v>687</v>
@@ -9900,7 +9903,7 @@
         <v>633</v>
       </c>
       <c r="G120" s="20" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="H120" s="13" t="s">
         <v>687</v>
@@ -9926,7 +9929,7 @@
         <v>633</v>
       </c>
       <c r="G121" s="20" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="H121" s="13" t="s">
         <v>548</v>
@@ -9952,7 +9955,7 @@
         <v>633</v>
       </c>
       <c r="G122" s="20" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="H122" s="13" t="s">
         <v>688</v>
@@ -9978,7 +9981,7 @@
         <v>633</v>
       </c>
       <c r="G123" s="20" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="H123" s="13" t="s">
         <v>688</v>
@@ -10004,7 +10007,7 @@
         <v>633</v>
       </c>
       <c r="G124" s="20" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="H124" s="13" t="s">
         <v>549</v>
@@ -10030,7 +10033,7 @@
         <v>633</v>
       </c>
       <c r="G125" s="20" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="H125" s="13" t="s">
         <v>688</v>
@@ -10056,7 +10059,7 @@
         <v>633</v>
       </c>
       <c r="G126" s="20" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="H126" s="13" t="s">
         <v>689</v>
@@ -10082,7 +10085,7 @@
         <v>633</v>
       </c>
       <c r="G127" s="20" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="H127" s="13" t="s">
         <v>550</v>
@@ -10108,7 +10111,7 @@
         <v>631</v>
       </c>
       <c r="G128" s="20" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="H128" s="13" t="s">
         <v>689</v>
@@ -10134,7 +10137,7 @@
         <v>631</v>
       </c>
       <c r="G129" s="20" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="H129" s="13" t="s">
         <v>689</v>
@@ -10160,7 +10163,7 @@
         <v>631</v>
       </c>
       <c r="G130" s="20" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="H130" s="13" t="s">
         <v>784</v>
@@ -10186,7 +10189,7 @@
         <v>631</v>
       </c>
       <c r="G131" s="20" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="H131" s="13" t="s">
         <v>690</v>
@@ -10212,7 +10215,7 @@
         <v>631</v>
       </c>
       <c r="G132" s="20" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="H132" s="13" t="s">
         <v>690</v>
@@ -10238,7 +10241,7 @@
         <v>631</v>
       </c>
       <c r="G133" s="20" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="H133" s="13" t="s">
         <v>785</v>
@@ -10264,7 +10267,7 @@
         <v>631</v>
       </c>
       <c r="G134" s="20" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="H134" s="13" t="s">
         <v>691</v>
@@ -10290,7 +10293,7 @@
         <v>631</v>
       </c>
       <c r="G135" s="20" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="H135" s="13" t="s">
         <v>691</v>
@@ -10316,7 +10319,7 @@
         <v>631</v>
       </c>
       <c r="G136" s="20" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="H136" s="13" t="s">
         <v>786</v>
@@ -10342,7 +10345,7 @@
         <v>631</v>
       </c>
       <c r="G137" s="20" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="H137" s="13" t="s">
         <v>691</v>
@@ -10368,7 +10371,7 @@
         <v>631</v>
       </c>
       <c r="G138" s="20" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="H138" s="13" t="s">
         <v>692</v>
@@ -10394,7 +10397,7 @@
         <v>631</v>
       </c>
       <c r="G139" s="20" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="H139" s="13" t="s">
         <v>787</v>
@@ -10420,7 +10423,7 @@
         <v>631</v>
       </c>
       <c r="G140" s="20" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="H140" s="13" t="s">
         <v>692</v>
@@ -10446,7 +10449,7 @@
         <v>631</v>
       </c>
       <c r="G141" s="20" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="H141" s="13" t="s">
         <v>692</v>
@@ -10472,7 +10475,7 @@
         <v>631</v>
       </c>
       <c r="G142" s="20" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="H142" s="13" t="s">
         <v>788</v>
@@ -10498,7 +10501,7 @@
         <v>631</v>
       </c>
       <c r="G143" s="20" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="H143" s="13" t="s">
         <v>693</v>
@@ -10524,7 +10527,7 @@
         <v>631</v>
       </c>
       <c r="G144" s="20" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="H144" s="13" t="s">
         <v>693</v>
@@ -10550,7 +10553,7 @@
         <v>631</v>
       </c>
       <c r="G145" s="20" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="H145" s="13" t="s">
         <v>789</v>
@@ -10576,7 +10579,7 @@
         <v>631</v>
       </c>
       <c r="G146" s="20" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="H146" s="13" t="s">
         <v>694</v>
@@ -10602,7 +10605,7 @@
         <v>631</v>
       </c>
       <c r="G147" s="20" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="H147" s="13" t="s">
         <v>694</v>
@@ -10628,7 +10631,7 @@
         <v>631</v>
       </c>
       <c r="G148" s="20" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="H148" s="13" t="s">
         <v>790</v>
@@ -10654,7 +10657,7 @@
         <v>631</v>
       </c>
       <c r="G149" s="20" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="H149" s="13" t="s">
         <v>694</v>
@@ -10680,7 +10683,7 @@
         <v>631</v>
       </c>
       <c r="G150" s="20" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="H150" s="13" t="s">
         <v>695</v>
@@ -10706,7 +10709,7 @@
         <v>631</v>
       </c>
       <c r="G151" s="20" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="H151" s="13" t="s">
         <v>791</v>
@@ -10732,7 +10735,7 @@
         <v>631</v>
       </c>
       <c r="G152" s="20" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="H152" s="13" t="s">
         <v>695</v>
@@ -10758,7 +10761,7 @@
         <v>631</v>
       </c>
       <c r="G153" s="20" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="H153" s="13" t="s">
         <v>695</v>
@@ -10784,7 +10787,7 @@
         <v>631</v>
       </c>
       <c r="G154" s="20" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="H154" s="13" t="s">
         <v>792</v>
@@ -10810,7 +10813,7 @@
         <v>631</v>
       </c>
       <c r="G155" s="20" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="H155" s="13" t="s">
         <v>696</v>
@@ -10836,7 +10839,7 @@
         <v>631</v>
       </c>
       <c r="G156" s="20" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="H156" s="13" t="s">
         <v>696</v>
@@ -10862,7 +10865,7 @@
         <v>631</v>
       </c>
       <c r="G157" s="20" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="H157" s="13" t="s">
         <v>793</v>
@@ -10888,7 +10891,7 @@
         <v>631</v>
       </c>
       <c r="G158" s="20" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="H158" s="13" t="s">
         <v>697</v>
@@ -10914,7 +10917,7 @@
         <v>631</v>
       </c>
       <c r="G159" s="20" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="H159" s="13" t="s">
         <v>697</v>
@@ -10940,7 +10943,7 @@
         <v>631</v>
       </c>
       <c r="G160" s="20" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="H160" s="13" t="s">
         <v>794</v>
@@ -10966,7 +10969,7 @@
         <v>631</v>
       </c>
       <c r="G161" s="20" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="H161" s="13" t="s">
         <v>697</v>
@@ -10992,7 +10995,7 @@
         <v>631</v>
       </c>
       <c r="G162" s="20" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="H162" s="13" t="s">
         <v>698</v>
@@ -11018,7 +11021,7 @@
         <v>631</v>
       </c>
       <c r="G163" s="20" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="H163" s="13" t="s">
         <v>795</v>
@@ -11044,7 +11047,7 @@
         <v>631</v>
       </c>
       <c r="G164" s="20" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="H164" s="13" t="s">
         <v>698</v>
@@ -11070,7 +11073,7 @@
         <v>631</v>
       </c>
       <c r="G165" s="20" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="H165" s="13" t="s">
         <v>698</v>
@@ -11096,7 +11099,7 @@
         <v>631</v>
       </c>
       <c r="G166" s="20" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="H166" s="13" t="s">
         <v>796</v>
@@ -11122,7 +11125,7 @@
         <v>631</v>
       </c>
       <c r="G167" s="20" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="H167" s="13" t="s">
         <v>699</v>
@@ -11148,7 +11151,7 @@
         <v>631</v>
       </c>
       <c r="G168" s="20" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="H168" s="13" t="s">
         <v>699</v>
@@ -11174,7 +11177,7 @@
         <v>631</v>
       </c>
       <c r="G169" s="20" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="H169" s="13" t="s">
         <v>797</v>
@@ -11200,7 +11203,7 @@
         <v>631</v>
       </c>
       <c r="G170" s="20" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="H170" s="13" t="s">
         <v>700</v>
@@ -11226,7 +11229,7 @@
         <v>631</v>
       </c>
       <c r="G171" s="20" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="H171" s="13" t="s">
         <v>700</v>
@@ -11252,7 +11255,7 @@
         <v>631</v>
       </c>
       <c r="G172" s="20" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="H172" s="13" t="s">
         <v>798</v>
@@ -11278,7 +11281,7 @@
         <v>631</v>
       </c>
       <c r="G173" s="20" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="H173" s="13" t="s">
         <v>700</v>
@@ -11304,7 +11307,7 @@
         <v>631</v>
       </c>
       <c r="G174" s="20" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="H174" s="13" t="s">
         <v>701</v>
@@ -11330,7 +11333,7 @@
         <v>631</v>
       </c>
       <c r="G175" s="20" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="H175" s="13" t="s">
         <v>799</v>
@@ -11356,7 +11359,7 @@
         <v>631</v>
       </c>
       <c r="G176" s="20" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="H176" s="13" t="s">
         <v>701</v>
@@ -11382,7 +11385,7 @@
         <v>631</v>
       </c>
       <c r="G177" s="20" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="H177" s="13" t="s">
         <v>701</v>
@@ -11408,7 +11411,7 @@
         <v>631</v>
       </c>
       <c r="G178" s="20" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="H178" s="13" t="s">
         <v>800</v>
@@ -11434,7 +11437,7 @@
         <v>631</v>
       </c>
       <c r="G179" s="20" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="H179" s="13" t="s">
         <v>702</v>
@@ -11460,7 +11463,7 @@
         <v>631</v>
       </c>
       <c r="G180" s="20" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="H180" s="13" t="s">
         <v>702</v>
@@ -11486,7 +11489,7 @@
         <v>631</v>
       </c>
       <c r="G181" s="20" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="H181" s="13" t="s">
         <v>801</v>
@@ -11512,7 +11515,7 @@
         <v>631</v>
       </c>
       <c r="G182" s="20" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="H182" s="13" t="s">
         <v>703</v>
@@ -11538,7 +11541,7 @@
         <v>631</v>
       </c>
       <c r="G183" s="20" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="H183" s="13" t="s">
         <v>703</v>
@@ -11564,7 +11567,7 @@
         <v>631</v>
       </c>
       <c r="G184" s="20" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="H184" s="13" t="s">
         <v>802</v>
@@ -11590,7 +11593,7 @@
         <v>631</v>
       </c>
       <c r="G185" s="20" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="H185" s="13" t="s">
         <v>703</v>
@@ -11616,7 +11619,7 @@
         <v>631</v>
       </c>
       <c r="G186" s="20" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="H186" s="13" t="s">
         <v>704</v>
@@ -11642,7 +11645,7 @@
         <v>631</v>
       </c>
       <c r="G187" s="20" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="H187" s="13" t="s">
         <v>803</v>
@@ -11668,7 +11671,7 @@
         <v>631</v>
       </c>
       <c r="G188" s="20" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="H188" s="13" t="s">
         <v>704</v>
@@ -11694,7 +11697,7 @@
         <v>631</v>
       </c>
       <c r="G189" s="20" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="H189" s="13" t="s">
         <v>704</v>
@@ -11720,7 +11723,7 @@
         <v>631</v>
       </c>
       <c r="G190" s="20" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="H190" s="13" t="s">
         <v>804</v>
@@ -11746,7 +11749,7 @@
         <v>633</v>
       </c>
       <c r="G191" s="20" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="H191" s="13" t="s">
         <v>705</v>
@@ -11772,7 +11775,7 @@
         <v>633</v>
       </c>
       <c r="G192" s="20" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="H192" s="13" t="s">
         <v>705</v>
@@ -11798,7 +11801,7 @@
         <v>633</v>
       </c>
       <c r="G193" s="20" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="H193" s="13" t="s">
         <v>805</v>
@@ -11824,7 +11827,7 @@
         <v>633</v>
       </c>
       <c r="G194" s="20" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="H194" s="13" t="s">
         <v>706</v>
@@ -11850,7 +11853,7 @@
         <v>633</v>
       </c>
       <c r="G195" s="20" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="H195" s="13" t="s">
         <v>706</v>
@@ -11876,7 +11879,7 @@
         <v>633</v>
       </c>
       <c r="G196" s="20" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="H196" s="13" t="s">
         <v>806</v>
@@ -11902,7 +11905,7 @@
         <v>633</v>
       </c>
       <c r="G197" s="20" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="H197" s="13" t="s">
         <v>706</v>
@@ -11928,7 +11931,7 @@
         <v>633</v>
       </c>
       <c r="G198" s="20" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="H198" s="13" t="s">
         <v>707</v>
@@ -11954,7 +11957,7 @@
         <v>633</v>
       </c>
       <c r="G199" s="20" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="H199" s="13" t="s">
         <v>807</v>
@@ -11980,7 +11983,7 @@
         <v>633</v>
       </c>
       <c r="G200" s="20" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="H200" s="13" t="s">
         <v>707</v>
@@ -12006,7 +12009,7 @@
         <v>633</v>
       </c>
       <c r="G201" s="20" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="H201" s="13" t="s">
         <v>707</v>
@@ -12032,7 +12035,7 @@
         <v>633</v>
       </c>
       <c r="G202" s="20" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="H202" s="13" t="s">
         <v>808</v>
@@ -12058,7 +12061,7 @@
         <v>633</v>
       </c>
       <c r="G203" s="20" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="H203" s="13" t="s">
         <v>708</v>
@@ -12084,7 +12087,7 @@
         <v>633</v>
       </c>
       <c r="G204" s="20" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="H204" s="13" t="s">
         <v>708</v>
@@ -12110,7 +12113,7 @@
         <v>633</v>
       </c>
       <c r="G205" s="20" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="H205" s="13" t="s">
         <v>809</v>
@@ -12136,7 +12139,7 @@
         <v>633</v>
       </c>
       <c r="G206" s="20" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="H206" s="13" t="s">
         <v>709</v>
@@ -12162,7 +12165,7 @@
         <v>633</v>
       </c>
       <c r="G207" s="20" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="H207" s="13" t="s">
         <v>709</v>
@@ -12188,7 +12191,7 @@
         <v>633</v>
       </c>
       <c r="G208" s="20" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="H208" s="13" t="s">
         <v>810</v>
@@ -12214,7 +12217,7 @@
         <v>633</v>
       </c>
       <c r="G209" s="20" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="H209" s="13" t="s">
         <v>709</v>
@@ -12240,7 +12243,7 @@
         <v>633</v>
       </c>
       <c r="G210" s="20" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="H210" s="13" t="s">
         <v>710</v>
@@ -12266,7 +12269,7 @@
         <v>633</v>
       </c>
       <c r="G211" s="20" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="H211" s="13" t="s">
         <v>811</v>
@@ -12292,7 +12295,7 @@
         <v>633</v>
       </c>
       <c r="G212" s="20" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="H212" s="13" t="s">
         <v>710</v>
@@ -12318,7 +12321,7 @@
         <v>633</v>
       </c>
       <c r="G213" s="20" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="H213" s="13" t="s">
         <v>710</v>
@@ -12344,7 +12347,7 @@
         <v>633</v>
       </c>
       <c r="G214" s="20" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="H214" s="13" t="s">
         <v>812</v>
@@ -12370,7 +12373,7 @@
         <v>633</v>
       </c>
       <c r="G215" s="20" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="H215" s="13" t="s">
         <v>711</v>
@@ -12396,7 +12399,7 @@
         <v>633</v>
       </c>
       <c r="G216" s="20" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="H216" s="13" t="s">
         <v>711</v>
@@ -12422,7 +12425,7 @@
         <v>633</v>
       </c>
       <c r="G217" s="20" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="H217" s="13" t="s">
         <v>813</v>
@@ -12448,7 +12451,7 @@
         <v>633</v>
       </c>
       <c r="G218" s="20" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="H218" s="13" t="s">
         <v>712</v>
@@ -12474,7 +12477,7 @@
         <v>633</v>
       </c>
       <c r="G219" s="20" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="H219" s="13" t="s">
         <v>712</v>
@@ -12500,7 +12503,7 @@
         <v>633</v>
       </c>
       <c r="G220" s="20" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="H220" s="13" t="s">
         <v>814</v>
@@ -12526,7 +12529,7 @@
         <v>633</v>
       </c>
       <c r="G221" s="20" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="H221" s="13" t="s">
         <v>712</v>
@@ -12552,7 +12555,7 @@
         <v>633</v>
       </c>
       <c r="G222" s="20" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="H222" s="13" t="s">
         <v>713</v>
@@ -12578,7 +12581,7 @@
         <v>633</v>
       </c>
       <c r="G223" s="20" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="H223" s="13" t="s">
         <v>815</v>
@@ -12604,7 +12607,7 @@
         <v>633</v>
       </c>
       <c r="G224" s="20" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="H224" s="13" t="s">
         <v>713</v>
@@ -12630,7 +12633,7 @@
         <v>633</v>
       </c>
       <c r="G225" s="20" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="H225" s="13" t="s">
         <v>713</v>
@@ -12656,7 +12659,7 @@
         <v>633</v>
       </c>
       <c r="G226" s="20" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="H226" s="13" t="s">
         <v>816</v>
@@ -12682,7 +12685,7 @@
         <v>633</v>
       </c>
       <c r="G227" s="20" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="H227" s="13" t="s">
         <v>714</v>
@@ -12708,7 +12711,7 @@
         <v>633</v>
       </c>
       <c r="G228" s="20" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="H228" s="13" t="s">
         <v>714</v>
@@ -12734,7 +12737,7 @@
         <v>633</v>
       </c>
       <c r="G229" s="20" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="H229" s="13" t="s">
         <v>817</v>
@@ -12760,7 +12763,7 @@
         <v>633</v>
       </c>
       <c r="G230" s="20" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="H230" s="13" t="s">
         <v>715</v>
@@ -12786,7 +12789,7 @@
         <v>633</v>
       </c>
       <c r="G231" s="20" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="H231" s="13" t="s">
         <v>715</v>
@@ -12812,7 +12815,7 @@
         <v>633</v>
       </c>
       <c r="G232" s="20" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="H232" s="13" t="s">
         <v>818</v>
@@ -12838,7 +12841,7 @@
         <v>633</v>
       </c>
       <c r="G233" s="20" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="H233" s="13" t="s">
         <v>715</v>
@@ -12864,7 +12867,7 @@
         <v>633</v>
       </c>
       <c r="G234" s="20" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="H234" s="13" t="s">
         <v>716</v>
@@ -12890,7 +12893,7 @@
         <v>633</v>
       </c>
       <c r="G235" s="20" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="H235" s="13" t="s">
         <v>819</v>
@@ -12916,7 +12919,7 @@
         <v>633</v>
       </c>
       <c r="G236" s="20" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="H236" s="13" t="s">
         <v>716</v>
@@ -12942,7 +12945,7 @@
         <v>633</v>
       </c>
       <c r="G237" s="20" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="H237" s="13" t="s">
         <v>716</v>
@@ -12968,7 +12971,7 @@
         <v>633</v>
       </c>
       <c r="G238" s="20" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="H238" s="13" t="s">
         <v>820</v>
@@ -12994,7 +12997,7 @@
         <v>633</v>
       </c>
       <c r="G239" s="20" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="H239" s="13" t="s">
         <v>717</v>
@@ -13020,7 +13023,7 @@
         <v>633</v>
       </c>
       <c r="G240" s="20" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="H240" s="13" t="s">
         <v>717</v>
@@ -13046,7 +13049,7 @@
         <v>633</v>
       </c>
       <c r="G241" s="20" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="H241" s="13" t="s">
         <v>821</v>
@@ -13072,7 +13075,7 @@
         <v>633</v>
       </c>
       <c r="G242" s="20" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="H242" s="13" t="s">
         <v>718</v>
@@ -13098,7 +13101,7 @@
         <v>633</v>
       </c>
       <c r="G243" s="20" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="H243" s="13" t="s">
         <v>718</v>
@@ -13124,7 +13127,7 @@
         <v>633</v>
       </c>
       <c r="G244" s="20" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="H244" s="13" t="s">
         <v>822</v>
@@ -13150,7 +13153,7 @@
         <v>633</v>
       </c>
       <c r="G245" s="20" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="H245" s="13" t="s">
         <v>718</v>
@@ -13176,7 +13179,7 @@
         <v>633</v>
       </c>
       <c r="G246" s="20" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="H246" s="13" t="s">
         <v>719</v>
@@ -13202,7 +13205,7 @@
         <v>633</v>
       </c>
       <c r="G247" s="20" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="H247" s="13" t="s">
         <v>823</v>
@@ -13228,7 +13231,7 @@
         <v>633</v>
       </c>
       <c r="G248" s="20" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="H248" s="13" t="s">
         <v>719</v>
@@ -13254,7 +13257,7 @@
         <v>633</v>
       </c>
       <c r="G249" s="20" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="H249" s="13" t="s">
         <v>719</v>
@@ -13280,7 +13283,7 @@
         <v>633</v>
       </c>
       <c r="G250" s="20" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="H250" s="13" t="s">
         <v>824</v>
@@ -13306,7 +13309,7 @@
         <v>633</v>
       </c>
       <c r="G251" s="20" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="H251" s="13" t="s">
         <v>720</v>
@@ -13332,7 +13335,7 @@
         <v>633</v>
       </c>
       <c r="G252" s="20" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="H252" s="13" t="s">
         <v>720</v>
@@ -13358,7 +13361,7 @@
         <v>633</v>
       </c>
       <c r="G253" s="20" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="H253" s="13" t="s">
         <v>825</v>
@@ -13384,7 +13387,7 @@
         <v>632</v>
       </c>
       <c r="G254" s="20" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="H254" s="13" t="s">
         <v>721</v>
@@ -13410,7 +13413,7 @@
         <v>632</v>
       </c>
       <c r="G255" s="20" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="H255" s="13" t="s">
         <v>721</v>
@@ -13436,7 +13439,7 @@
         <v>632</v>
       </c>
       <c r="G256" s="20" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="H256" s="13" t="s">
         <v>826</v>
@@ -13462,7 +13465,7 @@
         <v>632</v>
       </c>
       <c r="G257" s="20" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="H257" s="13" t="s">
         <v>721</v>
@@ -13488,7 +13491,7 @@
         <v>632</v>
       </c>
       <c r="G258" s="20" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="H258" s="13" t="s">
         <v>722</v>
@@ -13514,7 +13517,7 @@
         <v>632</v>
       </c>
       <c r="G259" s="20" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="H259" s="13" t="s">
         <v>827</v>
@@ -13540,7 +13543,7 @@
         <v>632</v>
       </c>
       <c r="G260" s="20" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="H260" s="13" t="s">
         <v>722</v>
@@ -13566,7 +13569,7 @@
         <v>632</v>
       </c>
       <c r="G261" s="20" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="H261" s="13" t="s">
         <v>722</v>
@@ -13592,7 +13595,7 @@
         <v>632</v>
       </c>
       <c r="G262" s="20" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="H262" s="13" t="s">
         <v>828</v>
@@ -13618,7 +13621,7 @@
         <v>632</v>
       </c>
       <c r="G263" s="20" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="H263" s="13" t="s">
         <v>723</v>
@@ -13644,7 +13647,7 @@
         <v>632</v>
       </c>
       <c r="G264" s="20" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="H264" s="13" t="s">
         <v>723</v>
@@ -13670,7 +13673,7 @@
         <v>632</v>
       </c>
       <c r="G265" s="20" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="H265" s="13" t="s">
         <v>829</v>
@@ -13696,7 +13699,7 @@
         <v>632</v>
       </c>
       <c r="G266" s="20" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="H266" s="13" t="s">
         <v>724</v>
@@ -13722,7 +13725,7 @@
         <v>632</v>
       </c>
       <c r="G267" s="20" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="H267" s="13" t="s">
         <v>724</v>
@@ -13748,7 +13751,7 @@
         <v>632</v>
       </c>
       <c r="G268" s="20" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="H268" s="13" t="s">
         <v>830</v>
@@ -13774,7 +13777,7 @@
         <v>632</v>
       </c>
       <c r="G269" s="20" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="H269" s="13" t="s">
         <v>724</v>
@@ -13800,7 +13803,7 @@
         <v>632</v>
       </c>
       <c r="G270" s="20" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="H270" s="13" t="s">
         <v>725</v>
@@ -13826,7 +13829,7 @@
         <v>632</v>
       </c>
       <c r="G271" s="20" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="H271" s="13" t="s">
         <v>831</v>
@@ -13852,7 +13855,7 @@
         <v>632</v>
       </c>
       <c r="G272" s="20" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="H272" s="13" t="s">
         <v>725</v>
@@ -13878,7 +13881,7 @@
         <v>632</v>
       </c>
       <c r="G273" s="20" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="H273" s="13" t="s">
         <v>725</v>
@@ -13904,7 +13907,7 @@
         <v>632</v>
       </c>
       <c r="G274" s="20" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="H274" s="13" t="s">
         <v>832</v>
@@ -13930,7 +13933,7 @@
         <v>632</v>
       </c>
       <c r="G275" s="20" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="H275" s="13" t="s">
         <v>726</v>
@@ -13956,7 +13959,7 @@
         <v>632</v>
       </c>
       <c r="G276" s="20" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="H276" s="13" t="s">
         <v>726</v>
@@ -13982,7 +13985,7 @@
         <v>632</v>
       </c>
       <c r="G277" s="20" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="H277" s="13" t="s">
         <v>833</v>
@@ -14008,7 +14011,7 @@
         <v>632</v>
       </c>
       <c r="G278" s="20" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="H278" s="13" t="s">
         <v>727</v>
@@ -14034,7 +14037,7 @@
         <v>632</v>
       </c>
       <c r="G279" s="20" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="H279" s="13" t="s">
         <v>727</v>
@@ -14060,7 +14063,7 @@
         <v>632</v>
       </c>
       <c r="G280" s="20" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="H280" s="13" t="s">
         <v>834</v>
@@ -14086,7 +14089,7 @@
         <v>632</v>
       </c>
       <c r="G281" s="20" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="H281" s="13" t="s">
         <v>727</v>
@@ -14112,7 +14115,7 @@
         <v>632</v>
       </c>
       <c r="G282" s="20" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="H282" s="13" t="s">
         <v>728</v>
@@ -14138,7 +14141,7 @@
         <v>632</v>
       </c>
       <c r="G283" s="20" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="H283" s="13" t="s">
         <v>835</v>
@@ -14164,7 +14167,7 @@
         <v>632</v>
       </c>
       <c r="G284" s="20" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="H284" s="13" t="s">
         <v>728</v>
@@ -14190,7 +14193,7 @@
         <v>632</v>
       </c>
       <c r="G285" s="20" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="H285" s="13" t="s">
         <v>728</v>
@@ -14216,7 +14219,7 @@
         <v>632</v>
       </c>
       <c r="G286" s="20" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="H286" s="13" t="s">
         <v>836</v>
@@ -14242,7 +14245,7 @@
         <v>632</v>
       </c>
       <c r="G287" s="20" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="H287" s="13" t="s">
         <v>729</v>
@@ -14268,7 +14271,7 @@
         <v>632</v>
       </c>
       <c r="G288" s="20" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="H288" s="13" t="s">
         <v>729</v>
@@ -14294,7 +14297,7 @@
         <v>632</v>
       </c>
       <c r="G289" s="20" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="H289" s="13" t="s">
         <v>837</v>
@@ -14320,7 +14323,7 @@
         <v>632</v>
       </c>
       <c r="G290" s="20" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="H290" s="13" t="s">
         <v>730</v>
@@ -14346,7 +14349,7 @@
         <v>632</v>
       </c>
       <c r="G291" s="20" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="H291" s="13" t="s">
         <v>730</v>
@@ -14372,7 +14375,7 @@
         <v>632</v>
       </c>
       <c r="G292" s="20" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="H292" s="13" t="s">
         <v>838</v>
@@ -14398,7 +14401,7 @@
         <v>632</v>
       </c>
       <c r="G293" s="20" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="H293" s="13" t="s">
         <v>730</v>
@@ -14424,7 +14427,7 @@
         <v>632</v>
       </c>
       <c r="G294" s="20" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="H294" s="13" t="s">
         <v>731</v>
@@ -14450,7 +14453,7 @@
         <v>632</v>
       </c>
       <c r="G295" s="20" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="H295" s="13" t="s">
         <v>839</v>
@@ -14476,7 +14479,7 @@
         <v>632</v>
       </c>
       <c r="G296" s="20" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="H296" s="13" t="s">
         <v>731</v>
@@ -14502,7 +14505,7 @@
         <v>632</v>
       </c>
       <c r="G297" s="20" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="H297" s="13" t="s">
         <v>731</v>
@@ -14528,7 +14531,7 @@
         <v>632</v>
       </c>
       <c r="G298" s="20" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="H298" s="13" t="s">
         <v>840</v>
@@ -14554,7 +14557,7 @@
         <v>632</v>
       </c>
       <c r="G299" s="20" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="H299" s="13" t="s">
         <v>732</v>
@@ -14580,7 +14583,7 @@
         <v>632</v>
       </c>
       <c r="G300" s="20" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="H300" s="13" t="s">
         <v>732</v>
@@ -14606,7 +14609,7 @@
         <v>632</v>
       </c>
       <c r="G301" s="20" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="H301" s="13" t="s">
         <v>841</v>
@@ -14632,7 +14635,7 @@
         <v>632</v>
       </c>
       <c r="G302" s="20" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="H302" s="13" t="s">
         <v>733</v>
@@ -14658,7 +14661,7 @@
         <v>632</v>
       </c>
       <c r="G303" s="20" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="H303" s="13" t="s">
         <v>733</v>
@@ -14684,7 +14687,7 @@
         <v>632</v>
       </c>
       <c r="G304" s="20" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="H304" s="13" t="s">
         <v>842</v>
@@ -14710,7 +14713,7 @@
         <v>632</v>
       </c>
       <c r="G305" s="20" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="H305" s="13" t="s">
         <v>733</v>
@@ -14736,7 +14739,7 @@
         <v>632</v>
       </c>
       <c r="G306" s="20" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="H306" s="13" t="s">
         <v>734</v>
@@ -14762,7 +14765,7 @@
         <v>632</v>
       </c>
       <c r="G307" s="20" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="H307" s="13" t="s">
         <v>843</v>
@@ -14788,7 +14791,7 @@
         <v>632</v>
       </c>
       <c r="G308" s="20" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="H308" s="13" t="s">
         <v>734</v>
@@ -14814,7 +14817,7 @@
         <v>632</v>
       </c>
       <c r="G309" s="20" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="H309" s="13" t="s">
         <v>734</v>
@@ -14840,7 +14843,7 @@
         <v>632</v>
       </c>
       <c r="G310" s="20" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="H310" s="13" t="s">
         <v>844</v>
@@ -14866,7 +14869,7 @@
         <v>632</v>
       </c>
       <c r="G311" s="20" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="H311" s="13" t="s">
         <v>735</v>
@@ -14892,7 +14895,7 @@
         <v>632</v>
       </c>
       <c r="G312" s="20" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="H312" s="13" t="s">
         <v>735</v>
@@ -14918,7 +14921,7 @@
         <v>632</v>
       </c>
       <c r="G313" s="20" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="H313" s="13" t="s">
         <v>845</v>
@@ -14944,7 +14947,7 @@
         <v>632</v>
       </c>
       <c r="G314" s="20" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="H314" s="13" t="s">
         <v>736</v>
@@ -14970,7 +14973,7 @@
         <v>632</v>
       </c>
       <c r="G315" s="20" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="H315" s="13" t="s">
         <v>736</v>
@@ -14996,7 +14999,7 @@
         <v>632</v>
       </c>
       <c r="G316" s="20" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="H316" s="13" t="s">
         <v>846</v>
@@ -15022,7 +15025,7 @@
         <v>633</v>
       </c>
       <c r="G317" s="20" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="H317" s="13" t="s">
         <v>736</v>
@@ -15048,7 +15051,7 @@
         <v>633</v>
       </c>
       <c r="G318" s="20" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="H318" s="13" t="s">
         <v>737</v>
@@ -15074,7 +15077,7 @@
         <v>633</v>
       </c>
       <c r="G319" s="20" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="H319" s="13" t="s">
         <v>847</v>
@@ -15100,7 +15103,7 @@
         <v>633</v>
       </c>
       <c r="G320" s="20" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="H320" s="13" t="s">
         <v>737</v>
@@ -15126,7 +15129,7 @@
         <v>633</v>
       </c>
       <c r="G321" s="20" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="H321" s="13" t="s">
         <v>737</v>
@@ -15152,7 +15155,7 @@
         <v>633</v>
       </c>
       <c r="G322" s="20" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="H322" s="13" t="s">
         <v>848</v>
@@ -15178,7 +15181,7 @@
         <v>633</v>
       </c>
       <c r="G323" s="20" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="H323" s="13" t="s">
         <v>738</v>
@@ -15204,7 +15207,7 @@
         <v>633</v>
       </c>
       <c r="G324" s="20" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="H324" s="13" t="s">
         <v>738</v>
@@ -15230,7 +15233,7 @@
         <v>633</v>
       </c>
       <c r="G325" s="20" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="H325" s="13" t="s">
         <v>849</v>
@@ -15256,7 +15259,7 @@
         <v>633</v>
       </c>
       <c r="G326" s="20" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="H326" s="13" t="s">
         <v>739</v>
@@ -15282,7 +15285,7 @@
         <v>633</v>
       </c>
       <c r="G327" s="20" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="H327" s="13" t="s">
         <v>739</v>
@@ -15308,7 +15311,7 @@
         <v>633</v>
       </c>
       <c r="G328" s="20" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="H328" s="13" t="s">
         <v>850</v>
@@ -15334,7 +15337,7 @@
         <v>633</v>
       </c>
       <c r="G329" s="20" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="H329" s="13" t="s">
         <v>739</v>
@@ -15360,7 +15363,7 @@
         <v>633</v>
       </c>
       <c r="G330" s="20" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="H330" s="13" t="s">
         <v>740</v>
@@ -15386,7 +15389,7 @@
         <v>633</v>
       </c>
       <c r="G331" s="20" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="H331" s="13" t="s">
         <v>851</v>
@@ -15412,7 +15415,7 @@
         <v>633</v>
       </c>
       <c r="G332" s="20" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="H332" s="13" t="s">
         <v>740</v>
@@ -15438,7 +15441,7 @@
         <v>633</v>
       </c>
       <c r="G333" s="20" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="H333" s="13" t="s">
         <v>740</v>
@@ -15464,7 +15467,7 @@
         <v>633</v>
       </c>
       <c r="G334" s="20" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="H334" s="13" t="s">
         <v>852</v>
@@ -15490,7 +15493,7 @@
         <v>633</v>
       </c>
       <c r="G335" s="20" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="H335" s="13" t="s">
         <v>741</v>
@@ -15516,7 +15519,7 @@
         <v>633</v>
       </c>
       <c r="G336" s="20" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="H336" s="13" t="s">
         <v>741</v>
@@ -15542,7 +15545,7 @@
         <v>633</v>
       </c>
       <c r="G337" s="20" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="H337" s="13" t="s">
         <v>853</v>
@@ -15568,7 +15571,7 @@
         <v>633</v>
       </c>
       <c r="G338" s="20" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="H338" s="13" t="s">
         <v>742</v>
@@ -15594,7 +15597,7 @@
         <v>633</v>
       </c>
       <c r="G339" s="20" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="H339" s="13" t="s">
         <v>742</v>
@@ -15620,7 +15623,7 @@
         <v>633</v>
       </c>
       <c r="G340" s="20" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="H340" s="13" t="s">
         <v>854</v>
@@ -15646,7 +15649,7 @@
         <v>633</v>
       </c>
       <c r="G341" s="20" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="H341" s="13" t="s">
         <v>742</v>
@@ -15672,7 +15675,7 @@
         <v>633</v>
       </c>
       <c r="G342" s="20" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="H342" s="13" t="s">
         <v>743</v>
@@ -15698,7 +15701,7 @@
         <v>633</v>
       </c>
       <c r="G343" s="20" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="H343" s="13" t="s">
         <v>855</v>
@@ -15724,7 +15727,7 @@
         <v>633</v>
       </c>
       <c r="G344" s="20" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="H344" s="13" t="s">
         <v>743</v>
@@ -15750,7 +15753,7 @@
         <v>633</v>
       </c>
       <c r="G345" s="20" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="H345" s="13" t="s">
         <v>743</v>
@@ -15776,7 +15779,7 @@
         <v>633</v>
       </c>
       <c r="G346" s="20" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="H346" s="13" t="s">
         <v>856</v>
@@ -15802,7 +15805,7 @@
         <v>633</v>
       </c>
       <c r="G347" s="20" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="H347" s="13" t="s">
         <v>744</v>
@@ -15828,7 +15831,7 @@
         <v>633</v>
       </c>
       <c r="G348" s="20" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="H348" s="13" t="s">
         <v>744</v>
@@ -15854,7 +15857,7 @@
         <v>633</v>
       </c>
       <c r="G349" s="20" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="H349" s="13" t="s">
         <v>857</v>
@@ -15880,7 +15883,7 @@
         <v>633</v>
       </c>
       <c r="G350" s="20" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="H350" s="13" t="s">
         <v>745</v>
@@ -15906,7 +15909,7 @@
         <v>633</v>
       </c>
       <c r="G351" s="20" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="H351" s="13" t="s">
         <v>745</v>
@@ -15932,7 +15935,7 @@
         <v>633</v>
       </c>
       <c r="G352" s="20" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="H352" s="13" t="s">
         <v>858</v>
@@ -15958,7 +15961,7 @@
         <v>633</v>
       </c>
       <c r="G353" s="20" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="H353" s="13" t="s">
         <v>745</v>
@@ -15984,7 +15987,7 @@
         <v>633</v>
       </c>
       <c r="G354" s="20" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="H354" s="13" t="s">
         <v>746</v>
@@ -16010,7 +16013,7 @@
         <v>633</v>
       </c>
       <c r="G355" s="20" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="H355" s="13" t="s">
         <v>859</v>
@@ -16036,7 +16039,7 @@
         <v>633</v>
       </c>
       <c r="G356" s="20" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="H356" s="13" t="s">
         <v>746</v>
@@ -16062,7 +16065,7 @@
         <v>633</v>
       </c>
       <c r="G357" s="20" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="H357" s="13" t="s">
         <v>746</v>
@@ -16088,7 +16091,7 @@
         <v>633</v>
       </c>
       <c r="G358" s="20" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="H358" s="13" t="s">
         <v>860</v>
@@ -16114,7 +16117,7 @@
         <v>633</v>
       </c>
       <c r="G359" s="20" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="H359" s="13" t="s">
         <v>747</v>
@@ -16140,7 +16143,7 @@
         <v>633</v>
       </c>
       <c r="G360" s="20" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="H360" s="13" t="s">
         <v>747</v>
@@ -16166,7 +16169,7 @@
         <v>633</v>
       </c>
       <c r="G361" s="20" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="H361" s="13" t="s">
         <v>861</v>
@@ -16192,7 +16195,7 @@
         <v>633</v>
       </c>
       <c r="G362" s="20" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="H362" s="13" t="s">
         <v>748</v>
@@ -16218,7 +16221,7 @@
         <v>633</v>
       </c>
       <c r="G363" s="20" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="H363" s="13" t="s">
         <v>748</v>
@@ -16244,7 +16247,7 @@
         <v>633</v>
       </c>
       <c r="G364" s="20" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="H364" s="13" t="s">
         <v>862</v>
@@ -16270,7 +16273,7 @@
         <v>633</v>
       </c>
       <c r="G365" s="20" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="H365" s="13" t="s">
         <v>748</v>
@@ -16296,7 +16299,7 @@
         <v>633</v>
       </c>
       <c r="G366" s="20" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="H366" s="13" t="s">
         <v>749</v>
@@ -16322,7 +16325,7 @@
         <v>633</v>
       </c>
       <c r="G367" s="20" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="H367" s="13" t="s">
         <v>863</v>
@@ -16348,7 +16351,7 @@
         <v>633</v>
       </c>
       <c r="G368" s="20" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="H368" s="13" t="s">
         <v>749</v>
@@ -16374,7 +16377,7 @@
         <v>633</v>
       </c>
       <c r="G369" s="20" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="H369" s="13" t="s">
         <v>749</v>
@@ -16400,7 +16403,7 @@
         <v>633</v>
       </c>
       <c r="G370" s="20" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="H370" s="13" t="s">
         <v>864</v>
@@ -16426,7 +16429,7 @@
         <v>633</v>
       </c>
       <c r="G371" s="20" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="H371" s="13" t="s">
         <v>750</v>
@@ -16452,7 +16455,7 @@
         <v>633</v>
       </c>
       <c r="G372" s="20" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="H372" s="13" t="s">
         <v>750</v>
@@ -16478,7 +16481,7 @@
         <v>633</v>
       </c>
       <c r="G373" s="20" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="H373" s="13" t="s">
         <v>865</v>
@@ -16504,7 +16507,7 @@
         <v>633</v>
       </c>
       <c r="G374" s="20" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="H374" s="13" t="s">
         <v>751</v>
@@ -16530,7 +16533,7 @@
         <v>633</v>
       </c>
       <c r="G375" s="20" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H375" s="13" t="s">
         <v>751</v>
@@ -16556,7 +16559,7 @@
         <v>633</v>
       </c>
       <c r="G376" s="20" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="H376" s="13" t="s">
         <v>866</v>
@@ -16582,7 +16585,7 @@
         <v>633</v>
       </c>
       <c r="G377" s="20" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="H377" s="13" t="s">
         <v>751</v>
@@ -16608,7 +16611,7 @@
         <v>633</v>
       </c>
       <c r="G378" s="20" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="H378" s="13" t="s">
         <v>752</v>
@@ -16634,7 +16637,7 @@
         <v>633</v>
       </c>
       <c r="G379" s="20" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="H379" s="13" t="s">
         <v>867</v>
@@ -16660,7 +16663,7 @@
         <v>631</v>
       </c>
       <c r="G380" s="20" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="H380" s="13" t="s">
         <v>752</v>
@@ -16686,7 +16689,7 @@
         <v>631</v>
       </c>
       <c r="G381" s="20" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="H381" s="13" t="s">
         <v>752</v>
@@ -16712,7 +16715,7 @@
         <v>631</v>
       </c>
       <c r="G382" s="20" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="H382" s="13" t="s">
         <v>868</v>
@@ -16738,7 +16741,7 @@
         <v>631</v>
       </c>
       <c r="G383" s="20" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="H383" s="13" t="s">
         <v>753</v>
@@ -16764,7 +16767,7 @@
         <v>631</v>
       </c>
       <c r="G384" s="20" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="H384" s="13" t="s">
         <v>753</v>
@@ -16790,7 +16793,7 @@
         <v>631</v>
       </c>
       <c r="G385" s="20" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="H385" s="13" t="s">
         <v>869</v>
@@ -16816,7 +16819,7 @@
         <v>631</v>
       </c>
       <c r="G386" s="20" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="H386" s="13" t="s">
         <v>754</v>
@@ -16842,7 +16845,7 @@
         <v>631</v>
       </c>
       <c r="G387" s="20" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="H387" s="13" t="s">
         <v>754</v>
@@ -16868,7 +16871,7 @@
         <v>631</v>
       </c>
       <c r="G388" s="20" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="H388" s="13" t="s">
         <v>870</v>
@@ -16894,7 +16897,7 @@
         <v>631</v>
       </c>
       <c r="G389" s="20" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="H389" s="13" t="s">
         <v>754</v>
@@ -16920,7 +16923,7 @@
         <v>631</v>
       </c>
       <c r="G390" s="20" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="H390" s="13" t="s">
         <v>755</v>
@@ -16946,7 +16949,7 @@
         <v>631</v>
       </c>
       <c r="G391" s="20" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="H391" s="13" t="s">
         <v>871</v>
@@ -16972,7 +16975,7 @@
         <v>631</v>
       </c>
       <c r="G392" s="20" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="H392" s="13" t="s">
         <v>755</v>
@@ -16998,7 +17001,7 @@
         <v>631</v>
       </c>
       <c r="G393" s="20" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="H393" s="13" t="s">
         <v>755</v>
@@ -17024,7 +17027,7 @@
         <v>631</v>
       </c>
       <c r="G394" s="20" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="H394" s="13" t="s">
         <v>872</v>
@@ -17050,7 +17053,7 @@
         <v>631</v>
       </c>
       <c r="G395" s="20" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="H395" s="13" t="s">
         <v>756</v>
@@ -17076,7 +17079,7 @@
         <v>631</v>
       </c>
       <c r="G396" s="20" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="H396" s="13" t="s">
         <v>756</v>
@@ -17102,7 +17105,7 @@
         <v>631</v>
       </c>
       <c r="G397" s="20" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="H397" s="13" t="s">
         <v>873</v>
@@ -17128,7 +17131,7 @@
         <v>631</v>
       </c>
       <c r="G398" s="20" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="H398" s="13" t="s">
         <v>757</v>
@@ -17154,7 +17157,7 @@
         <v>631</v>
       </c>
       <c r="G399" s="20" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="H399" s="13" t="s">
         <v>757</v>
@@ -17180,7 +17183,7 @@
         <v>631</v>
       </c>
       <c r="G400" s="20" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="H400" s="13" t="s">
         <v>874</v>
@@ -17206,7 +17209,7 @@
         <v>631</v>
       </c>
       <c r="G401" s="20" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="H401" s="13" t="s">
         <v>757</v>
@@ -17232,7 +17235,7 @@
         <v>631</v>
       </c>
       <c r="G402" s="20" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="H402" s="13" t="s">
         <v>758</v>
@@ -17258,7 +17261,7 @@
         <v>631</v>
       </c>
       <c r="G403" s="20" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="H403" s="13" t="s">
         <v>875</v>
@@ -17284,7 +17287,7 @@
         <v>631</v>
       </c>
       <c r="G404" s="20" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="H404" s="13" t="s">
         <v>758</v>
@@ -17310,7 +17313,7 @@
         <v>631</v>
       </c>
       <c r="G405" s="20" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="H405" s="13" t="s">
         <v>758</v>
@@ -17336,7 +17339,7 @@
         <v>631</v>
       </c>
       <c r="G406" s="20" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="H406" s="13" t="s">
         <v>876</v>
@@ -17362,7 +17365,7 @@
         <v>631</v>
       </c>
       <c r="G407" s="20" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="H407" s="13" t="s">
         <v>759</v>
@@ -17388,7 +17391,7 @@
         <v>631</v>
       </c>
       <c r="G408" s="20" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="H408" s="13" t="s">
         <v>759</v>
@@ -17414,7 +17417,7 @@
         <v>631</v>
       </c>
       <c r="G409" s="20" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="H409" s="13" t="s">
         <v>877</v>
@@ -17440,7 +17443,7 @@
         <v>631</v>
       </c>
       <c r="G410" s="20" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="H410" s="13" t="s">
         <v>760</v>
@@ -17466,7 +17469,7 @@
         <v>631</v>
       </c>
       <c r="G411" s="20" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="H411" s="13" t="s">
         <v>760</v>
@@ -17492,7 +17495,7 @@
         <v>631</v>
       </c>
       <c r="G412" s="20" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="H412" s="13" t="s">
         <v>878</v>
@@ -17518,7 +17521,7 @@
         <v>631</v>
       </c>
       <c r="G413" s="20" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="H413" s="13" t="s">
         <v>760</v>
@@ -17544,7 +17547,7 @@
         <v>631</v>
       </c>
       <c r="G414" s="20" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="H414" s="13" t="s">
         <v>761</v>
@@ -17570,7 +17573,7 @@
         <v>631</v>
       </c>
       <c r="G415" s="20" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="H415" s="13" t="s">
         <v>879</v>
@@ -17596,7 +17599,7 @@
         <v>631</v>
       </c>
       <c r="G416" s="20" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="H416" s="13" t="s">
         <v>761</v>
@@ -17622,7 +17625,7 @@
         <v>631</v>
       </c>
       <c r="G417" s="20" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="H417" s="13" t="s">
         <v>761</v>
@@ -17648,7 +17651,7 @@
         <v>631</v>
       </c>
       <c r="G418" s="20" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="H418" s="13" t="s">
         <v>880</v>
@@ -17674,7 +17677,7 @@
         <v>631</v>
       </c>
       <c r="G419" s="20" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="H419" s="13" t="s">
         <v>762</v>
@@ -17700,7 +17703,7 @@
         <v>631</v>
       </c>
       <c r="G420" s="20" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="H420" s="13" t="s">
         <v>762</v>
@@ -17726,7 +17729,7 @@
         <v>631</v>
       </c>
       <c r="G421" s="20" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H421" s="13" t="s">
         <v>881</v>
@@ -17752,7 +17755,7 @@
         <v>631</v>
       </c>
       <c r="G422" s="20" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="H422" s="13" t="s">
         <v>763</v>
@@ -17778,7 +17781,7 @@
         <v>631</v>
       </c>
       <c r="G423" s="20" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="H423" s="13" t="s">
         <v>763</v>
@@ -17804,7 +17807,7 @@
         <v>631</v>
       </c>
       <c r="G424" s="20" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="H424" s="13" t="s">
         <v>882</v>
@@ -17830,7 +17833,7 @@
         <v>631</v>
       </c>
       <c r="G425" s="20" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="H425" s="13" t="s">
         <v>763</v>
@@ -17856,7 +17859,7 @@
         <v>631</v>
       </c>
       <c r="G426" s="20" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="H426" s="13" t="s">
         <v>764</v>
@@ -17882,7 +17885,7 @@
         <v>631</v>
       </c>
       <c r="G427" s="20" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="H427" s="13" t="s">
         <v>883</v>
@@ -17908,7 +17911,7 @@
         <v>631</v>
       </c>
       <c r="G428" s="20" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="H428" s="13" t="s">
         <v>764</v>
@@ -17934,7 +17937,7 @@
         <v>631</v>
       </c>
       <c r="G429" s="20" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="H429" s="13" t="s">
         <v>764</v>
@@ -17960,7 +17963,7 @@
         <v>631</v>
       </c>
       <c r="G430" s="20" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="H430" s="13" t="s">
         <v>884</v>
@@ -17986,7 +17989,7 @@
         <v>631</v>
       </c>
       <c r="G431" s="20" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="H431" s="13" t="s">
         <v>765</v>
@@ -18012,7 +18015,7 @@
         <v>631</v>
       </c>
       <c r="G432" s="20" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="H432" s="13" t="s">
         <v>765</v>
@@ -18038,7 +18041,7 @@
         <v>631</v>
       </c>
       <c r="G433" s="20" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="H433" s="13" t="s">
         <v>885</v>
@@ -18064,7 +18067,7 @@
         <v>631</v>
       </c>
       <c r="G434" s="20" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="H434" s="13" t="s">
         <v>766</v>
@@ -18090,7 +18093,7 @@
         <v>631</v>
       </c>
       <c r="G435" s="20" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="H435" s="13" t="s">
         <v>766</v>
@@ -18116,7 +18119,7 @@
         <v>631</v>
       </c>
       <c r="G436" s="20" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="H436" s="13" t="s">
         <v>886</v>
@@ -18142,7 +18145,7 @@
         <v>631</v>
       </c>
       <c r="G437" s="20" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="H437" s="13" t="s">
         <v>766</v>
@@ -18168,7 +18171,7 @@
         <v>631</v>
       </c>
       <c r="G438" s="20" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="H438" s="13" t="s">
         <v>767</v>
@@ -18194,7 +18197,7 @@
         <v>631</v>
       </c>
       <c r="G439" s="20" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="H439" s="13" t="s">
         <v>887</v>
@@ -18220,7 +18223,7 @@
         <v>631</v>
       </c>
       <c r="G440" s="20" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="H440" s="13" t="s">
         <v>767</v>
@@ -18246,7 +18249,7 @@
         <v>631</v>
       </c>
       <c r="G441" s="20" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="H441" s="13" t="s">
         <v>767</v>
@@ -18272,7 +18275,7 @@
         <v>631</v>
       </c>
       <c r="G442" s="20" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="H442" s="13" t="s">
         <v>888</v>
@@ -18298,7 +18301,7 @@
         <v>632</v>
       </c>
       <c r="G443" s="20" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="H443" s="13" t="s">
         <v>768</v>
@@ -18324,7 +18327,7 @@
         <v>632</v>
       </c>
       <c r="G444" s="20" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="H444" s="13" t="s">
         <v>768</v>
@@ -18350,7 +18353,7 @@
         <v>632</v>
       </c>
       <c r="G445" s="20" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="H445" s="13" t="s">
         <v>889</v>
@@ -18376,7 +18379,7 @@
         <v>632</v>
       </c>
       <c r="G446" s="20" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="H446" s="13" t="s">
         <v>769</v>
@@ -18402,7 +18405,7 @@
         <v>632</v>
       </c>
       <c r="G447" s="20" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="H447" s="13" t="s">
         <v>769</v>
@@ -18428,7 +18431,7 @@
         <v>632</v>
       </c>
       <c r="G448" s="20" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="H448" s="13" t="s">
         <v>890</v>
@@ -18454,7 +18457,7 @@
         <v>632</v>
       </c>
       <c r="G449" s="20" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="H449" s="13" t="s">
         <v>769</v>
@@ -18480,7 +18483,7 @@
         <v>632</v>
       </c>
       <c r="G450" s="20" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="H450" s="13" t="s">
         <v>770</v>
@@ -18506,7 +18509,7 @@
         <v>632</v>
       </c>
       <c r="G451" s="20" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="H451" s="13" t="s">
         <v>891</v>
@@ -18532,7 +18535,7 @@
         <v>632</v>
       </c>
       <c r="G452" s="20" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="H452" s="13" t="s">
         <v>770</v>
@@ -18558,7 +18561,7 @@
         <v>632</v>
       </c>
       <c r="G453" s="20" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="H453" s="13" t="s">
         <v>770</v>
@@ -18584,7 +18587,7 @@
         <v>632</v>
       </c>
       <c r="G454" s="20" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="H454" s="13" t="s">
         <v>892</v>
@@ -18610,7 +18613,7 @@
         <v>632</v>
       </c>
       <c r="G455" s="20" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="H455" s="13" t="s">
         <v>771</v>
@@ -18636,7 +18639,7 @@
         <v>632</v>
       </c>
       <c r="G456" s="20" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="H456" s="13" t="s">
         <v>771</v>
@@ -18662,7 +18665,7 @@
         <v>632</v>
       </c>
       <c r="G457" s="20" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="H457" s="13" t="s">
         <v>893</v>
@@ -18688,7 +18691,7 @@
         <v>632</v>
       </c>
       <c r="G458" s="20" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="H458" s="13" t="s">
         <v>772</v>
@@ -18714,7 +18717,7 @@
         <v>632</v>
       </c>
       <c r="G459" s="20" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="H459" s="13" t="s">
         <v>772</v>
@@ -18740,7 +18743,7 @@
         <v>632</v>
       </c>
       <c r="G460" s="20" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="H460" s="13" t="s">
         <v>894</v>
@@ -18766,7 +18769,7 @@
         <v>632</v>
       </c>
       <c r="G461" s="20" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="H461" s="13" t="s">
         <v>772</v>
@@ -18792,7 +18795,7 @@
         <v>632</v>
       </c>
       <c r="G462" s="20" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="H462" s="13" t="s">
         <v>773</v>
@@ -18818,7 +18821,7 @@
         <v>632</v>
       </c>
       <c r="G463" s="20" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="H463" s="13" t="s">
         <v>895</v>
@@ -18844,7 +18847,7 @@
         <v>632</v>
       </c>
       <c r="G464" s="20" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="H464" s="13" t="s">
         <v>773</v>
@@ -18870,7 +18873,7 @@
         <v>632</v>
       </c>
       <c r="G465" s="20" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="H465" s="13" t="s">
         <v>773</v>
@@ -18896,7 +18899,7 @@
         <v>632</v>
       </c>
       <c r="G466" s="20" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="H466" s="13" t="s">
         <v>896</v>
@@ -18922,7 +18925,7 @@
         <v>632</v>
       </c>
       <c r="G467" s="20" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="H467" s="13" t="s">
         <v>774</v>
@@ -18948,7 +18951,7 @@
         <v>632</v>
       </c>
       <c r="G468" s="20" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="H468" s="13" t="s">
         <v>774</v>
@@ -18974,7 +18977,7 @@
         <v>632</v>
       </c>
       <c r="G469" s="20" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="H469" s="13" t="s">
         <v>897</v>
@@ -19000,7 +19003,7 @@
         <v>632</v>
       </c>
       <c r="G470" s="20" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="H470" s="13" t="s">
         <v>775</v>
@@ -19026,7 +19029,7 @@
         <v>632</v>
       </c>
       <c r="G471" s="20" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="H471" s="13" t="s">
         <v>775</v>
@@ -19052,7 +19055,7 @@
         <v>632</v>
       </c>
       <c r="G472" s="20" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="H472" s="13" t="s">
         <v>898</v>
@@ -19078,7 +19081,7 @@
         <v>632</v>
       </c>
       <c r="G473" s="20" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="H473" s="13" t="s">
         <v>775</v>
@@ -19104,7 +19107,7 @@
         <v>632</v>
       </c>
       <c r="G474" s="20" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="H474" s="13" t="s">
         <v>776</v>
@@ -19130,7 +19133,7 @@
         <v>632</v>
       </c>
       <c r="G475" s="20" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="H475" s="13" t="s">
         <v>899</v>
@@ -19156,7 +19159,7 @@
         <v>632</v>
       </c>
       <c r="G476" s="20" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="H476" s="13" t="s">
         <v>776</v>
@@ -19182,7 +19185,7 @@
         <v>632</v>
       </c>
       <c r="G477" s="20" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="H477" s="13" t="s">
         <v>776</v>
@@ -19208,7 +19211,7 @@
         <v>632</v>
       </c>
       <c r="G478" s="20" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="H478" s="13" t="s">
         <v>900</v>
@@ -19234,7 +19237,7 @@
         <v>632</v>
       </c>
       <c r="G479" s="20" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="H479" s="13" t="s">
         <v>777</v>
@@ -19260,7 +19263,7 @@
         <v>632</v>
       </c>
       <c r="G480" s="20" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="H480" s="13" t="s">
         <v>777</v>
@@ -19286,7 +19289,7 @@
         <v>632</v>
       </c>
       <c r="G481" s="20" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="H481" s="13" t="s">
         <v>901</v>
@@ -19312,7 +19315,7 @@
         <v>632</v>
       </c>
       <c r="G482" s="20" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="H482" s="13" t="s">
         <v>778</v>
@@ -19338,7 +19341,7 @@
         <v>632</v>
       </c>
       <c r="G483" s="20" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="H483" s="13" t="s">
         <v>778</v>
@@ -19364,7 +19367,7 @@
         <v>632</v>
       </c>
       <c r="G484" s="20" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="H484" s="13" t="s">
         <v>891</v>
@@ -19390,7 +19393,7 @@
         <v>632</v>
       </c>
       <c r="G485" s="20" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="H485" s="13" t="s">
         <v>778</v>
@@ -19416,7 +19419,7 @@
         <v>632</v>
       </c>
       <c r="G486" s="20" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="H486" s="13" t="s">
         <v>779</v>
@@ -19442,7 +19445,7 @@
         <v>632</v>
       </c>
       <c r="G487" s="20" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="H487" s="13" t="s">
         <v>901</v>
@@ -19468,7 +19471,7 @@
         <v>632</v>
       </c>
       <c r="G488" s="20" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="H488" s="13" t="s">
         <v>779</v>
@@ -19494,7 +19497,7 @@
         <v>632</v>
       </c>
       <c r="G489" s="20" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="H489" s="13" t="s">
         <v>779</v>
@@ -19520,7 +19523,7 @@
         <v>632</v>
       </c>
       <c r="G490" s="20" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="H490" s="13" t="s">
         <v>902</v>
@@ -19546,7 +19549,7 @@
         <v>632</v>
       </c>
       <c r="G491" s="20" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="H491" s="13" t="s">
         <v>780</v>
@@ -19572,7 +19575,7 @@
         <v>632</v>
       </c>
       <c r="G492" s="20" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="H492" s="13" t="s">
         <v>780</v>
@@ -19598,7 +19601,7 @@
         <v>632</v>
       </c>
       <c r="G493" s="20" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="H493" s="13" t="s">
         <v>903</v>
@@ -19624,7 +19627,7 @@
         <v>632</v>
       </c>
       <c r="G494" s="20" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="H494" s="13" t="s">
         <v>781</v>
@@ -19650,7 +19653,7 @@
         <v>632</v>
       </c>
       <c r="G495" s="20" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="H495" s="13" t="s">
         <v>781</v>
@@ -19676,7 +19679,7 @@
         <v>632</v>
       </c>
       <c r="G496" s="20" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="H496" s="13" t="s">
         <v>904</v>
@@ -19702,7 +19705,7 @@
         <v>632</v>
       </c>
       <c r="G497" s="20" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="H497" s="13" t="s">
         <v>781</v>
@@ -19728,7 +19731,7 @@
         <v>632</v>
       </c>
       <c r="G498" s="20" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="H498" s="13" t="s">
         <v>782</v>
@@ -19754,7 +19757,7 @@
         <v>632</v>
       </c>
       <c r="G499" s="20" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="H499" s="13" t="s">
         <v>905</v>
@@ -19780,7 +19783,7 @@
         <v>632</v>
       </c>
       <c r="G500" s="20" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="H500" s="13" t="s">
         <v>782</v>
@@ -19806,7 +19809,7 @@
         <v>632</v>
       </c>
       <c r="G501" s="20" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="H501" s="6" t="s">
         <v>782</v>
@@ -19832,7 +19835,7 @@
         <v>632</v>
       </c>
       <c r="G502" s="21" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="H502" s="6" t="s">
         <v>906</v>
@@ -19858,7 +19861,7 @@
         <v>632</v>
       </c>
       <c r="G503" s="21" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="H503" s="6" t="s">
         <v>783</v>
@@ -19884,7 +19887,7 @@
         <v>632</v>
       </c>
       <c r="G504" s="6" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="H504" s="6" t="s">
         <v>783</v>
@@ -19910,7 +19913,7 @@
         <v>632</v>
       </c>
       <c r="G505" s="6" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="H505" s="6" t="s">
         <v>907</v>
@@ -19987,8 +19990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C349"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/Dragonfall/gameData/shared/PvE.xlsx
+++ b/Dragonfall/gameData/shared/PvE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14260" tabRatio="566"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32100" windowHeight="17940" tabRatio="566"/>
   </bookViews>
   <sheets>
     <sheet name="sections" sheetId="12" r:id="rId1"/>
@@ -2767,1519 +2767,1516 @@
     <t>soldierMaterials:deathHand:5000:25,soldierMaterials:heroBones:5000:25,soldierMaterials:soulStone:5000:25,soldierMaterials:magicBox:5000:25</t>
   </si>
   <si>
-    <t>blueDragon:1:1,swordsman_1:1:12,lancer_1:1:6,swordsman_1:1:12,ranger_1:1:12,catapult_1:1:6,ranger_1:1:12</t>
-  </si>
-  <si>
-    <t>blueDragon:1:1,horseArcher_1:1:9,ranger_1:1:18,horseArcher_1:1:9,catapult_1:1:9,swordsman_1:1:18,catapult_1:1:9</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,meatWagon:3:5,skeletonWarrior:3:10,meatWagon:3:5,deathKnight:3:5,skeletonArcher:3:10,deathKnight:3:5</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,crossbowman_1:1:30,catapult_1:1:15,crossbowman_1:1:30,swordsman_1:1:30,lancer_1:1:15,swordsman_1:1:30</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,sentinel_1:1:36,lancer_1:1:18,sentinel_1:1:36,ranger_1:1:36,catapult_1:1:18,ranger_1:1:36</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,deathKnight:3:8,skeletonArcher:3:17,deathKnight:3:8,meatWagon:3:8,skeletonWarrior:3:17,meatWagon:3:8</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,ballista_1:1:24,sentinel_1:1:48,ballista_1:1:24,lancer_1:1:24,ranger_1:1:48,lancer_1:1:24</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,crossbowman_1:1:54,ballista_1:1:27,crossbowman_1:1:54,swordsman_1:1:54,lancer_1:1:27,swordsman_1:1:54</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,skeletonWarrior:3:24,deathKnight:3:12,skeletonWarrior:3:24,skeletonArcher:3:24,meatWagon:3:12,skeletonArcher:3:24</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,horseArcher_1:1:33,crossbowman_1:1:66,horseArcher_1:1:33,ballista_1:1:33,swordsman_1:1:66,ballista_1:1:33</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,ballista_1:1:36,sentinel_1:1:72,ballista_1:1:36,horseArcher_1:1:36,ranger_1:1:72,horseArcher_1:1:36</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,skeletonArcher:3:32,meatWagon:3:16,skeletonArcher:3:32,skeletonWarrior:3:32,deathKnight:3:16,skeletonWarrior:3:32</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,sentinel_1:1:84,horseArcher_1:1:42,sentinel_1:1:84,crossbowman_1:1:84,catapult_1:1:42,crossbowman_1:1:84</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,horseArcher_1:1:45,crossbowman_1:1:90,horseArcher_1:1:45,ballista_1:1:45,sentinel_1:1:90,ballista_1:1:45</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,meatWagon:3:19,skeletonWarrior:3:39,meatWagon:3:19,deathKnight:3:19,skeletonArcher:3:39,deathKnight:3:19</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,crossbowman_1:1:102,ballista_1:1:51,crossbowman_1:1:102,sentinel_1:1:102,horseArcher_1:1:51,sentinel_1:1:102</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,sentinel_1:1:108,horseArcher_1:1:54,sentinel_1:1:108,crossbowman_1:1:108,ballista_1:1:54,crossbowman_1:1:108</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,deathKnight:3:23,skeletonArcher:3:46,deathKnight:3:23,meatWagon:3:23,skeletonWarrior:3:46,meatWagon:3:23</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,catapult_1:1:60,swordsman_1:1:120,catapult_1:1:60,lancer_1:1:60,ranger_1:1:120,lancer_1:1:60</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,ranger_1:1:126,catapult_1:1:63,ranger_1:1:126,swordsman_1:1:126,lancer_1:1:63,swordsman_1:1:126</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,skeletonWarrior:3:53,deathKnight:3:26,skeletonWarrior:3:53,skeletonArcher:3:53,meatWagon:3:26,skeletonArcher:3:53</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,horseArcher_1:1:69,ranger_1:1:138,horseArcher_1:1:69,catapult_1:1:69,swordsman_1:1:138,catapult_1:1:69</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,ballista_1:1:72,swordsman_1:1:144,ballista_1:1:72,lancer_1:1:72,ranger_1:1:144,lancer_1:1:72</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,skeletonArcher:3:60,meatWagon:3:30,skeletonArcher:3:60,skeletonWarrior:3:60,deathKnight:3:30,skeletonWarrior:3:60</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,sentinel_1:1:156,lancer_1:1:78,sentinel_1:1:156,ranger_1:1:156,catapult_1:1:78,ranger_1:1:156</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,horseArcher_1:1:81,crossbowman_1:1:162,horseArcher_1:1:81,catapult_1:1:81,swordsman_1:1:162,catapult_1:1:81</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,meatWagon:3:34,skeletonWarrior:3:68,meatWagon:3:34,deathKnight:3:34,skeletonArcher:3:68,deathKnight:3:34</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,crossbowman_1:1:174,ballista_1:1:87,crossbowman_1:1:174,swordsman_1:1:174,lancer_1:1:87,swordsman_1:1:174</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,sentinel_1:1:180,horseArcher_1:1:90,sentinel_1:1:180,ranger_1:1:180,catapult_1:1:90,ranger_1:1:180</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,deathKnight:3:37,skeletonArcher:3:75,deathKnight:3:37,meatWagon:3:37,skeletonWarrior:3:75,meatWagon:3:37</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,ballista_1:1:96,sentinel_1:1:192,ballista_1:1:96,horseArcher_1:1:96,ranger_1:1:192,horseArcher_1:1:96</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,crossbowman_1:1:198,ballista_1:1:99,crossbowman_1:1:198,sentinel_1:1:198,lancer_1:1:99,sentinel_1:1:198</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,skeletonWarrior:3:82,deathKnight:3:41,skeletonWarrior:3:82,skeletonArcher:3:82,meatWagon:3:41,skeletonArcher:3:82</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,horseArcher_1:1:105,crossbowman_1:1:210,horseArcher_1:1:105,ballista_1:1:105,sentinel_1:1:210,ballista_1:1:105</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,ballista_1:1:108,sentinel_1:1:216,ballista_1:1:108,horseArcher_1:1:108,crossbowman_1:1:216,horseArcher_1:1:108</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,skeletonArcher:3:89,meatWagon:3:44,skeletonArcher:3:89,skeletonWarrior:3:89,deathKnight:3:44,skeletonWarrior:3:89</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,sentinel_1:1:228,horseArcher_1:1:114,sentinel_1:1:228,crossbowman_1:1:228,ballista_1:1:114,crossbowman_1:1:228</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,lancer_1:1:117,ranger_1:1:234,lancer_1:1:117,catapult_1:1:117,swordsman_1:1:234,catapult_1:1:117</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,meatWagon:3:48,skeletonWarrior:3:96,meatWagon:3:48,deathKnight:3:48,skeletonArcher:3:96,deathKnight:3:48</t>
-  </si>
-  <si>
-    <t>greenDragon:1:4,ranger_1:1:246,catapult_1:1:123,ranger_1:1:246,swordsman_1:1:246,lancer_1:1:123,swordsman_1:1:246</t>
-  </si>
-  <si>
-    <t>greenDragon:1:4,swordsman_1:1:252,lancer_1:1:126,swordsman_1:1:252,ranger_1:1:252,catapult_1:1:126,ranger_1:1:252</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,deathKnight:3:52,skeletonArcher:3:104,deathKnight:3:52,meatWagon:3:52,skeletonWarrior:3:104,meatWagon:3:52</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,ballista_1:1:132,swordsman_1:1:264,ballista_1:1:132,lancer_1:1:132,ranger_1:1:264,lancer_1:1:132</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,crossbowman_1:1:270,catapult_1:1:135,crossbowman_1:1:270,swordsman_1:1:270,lancer_1:1:135,swordsman_1:1:270</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,skeletonWarrior:3:111,deathKnight:3:55,skeletonWarrior:3:111,skeletonArcher:3:111,meatWagon:3:55,skeletonArcher:3:111</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,horseArcher_1:1:141,crossbowman_1:1:282,horseArcher_1:1:141,catapult_1:1:141,swordsman_1:1:282,catapult_1:1:141</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,ballista_1:1:144,sentinel_1:1:288,ballista_1:1:144,lancer_1:1:144,ranger_1:1:288,lancer_1:1:144</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,skeletonArcher:3:118,meatWagon:3:59,skeletonArcher:3:118,skeletonWarrior:3:118,deathKnight:3:59,skeletonWarrior:3:118</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,sentinel_1:1:300,horseArcher_1:1:150,sentinel_1:1:300,ranger_1:1:300,catapult_1:1:150,ranger_1:1:300</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,horseArcher_1:1:153,crossbowman_1:1:306,horseArcher_1:1:153,ballista_1:1:153,swordsman_1:1:306,ballista_1:1:153</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,meatWagon:3:62,skeletonWarrior:3:125,meatWagon:3:62,deathKnight:3:62,skeletonArcher:3:125,deathKnight:3:62</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,crossbowman_1:1:318,ballista_1:1:159,crossbowman_1:1:318,sentinel_1:1:318,lancer_1:1:159,sentinel_1:1:318</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,sentinel_1:1:324,horseArcher_1:1:162,sentinel_1:1:324,crossbowman_1:1:324,catapult_1:1:162,crossbowman_1:1:324</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,deathKnight:3:66,skeletonArcher:3:132,deathKnight:3:66,meatWagon:3:66,skeletonWarrior:3:132,meatWagon:3:66</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,ballista_1:1:168,sentinel_1:1:336,ballista_1:1:168,horseArcher_1:1:168,crossbowman_1:1:336,horseArcher_1:1:168</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,crossbowman_1:1:342,ballista_1:1:171,crossbowman_1:1:342,sentinel_1:1:342,horseArcher_1:1:171,sentinel_1:1:342</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,skeletonWarrior:3:140,deathKnight:3:70,skeletonWarrior:3:140,skeletonArcher:3:140,meatWagon:3:70,skeletonArcher:3:140</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,lancer_1:1:177,ranger_1:1:354,lancer_1:1:177,catapult_1:1:177,swordsman_1:1:354,catapult_1:1:177</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,catapult_1:1:180,swordsman_1:1:360,catapult_1:1:180,lancer_1:1:180,ranger_1:1:360,lancer_1:1:180</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,skeletonArcher:3:147,meatWagon:3:73,skeletonArcher:3:147,skeletonWarrior:3:147,deathKnight:3:73,skeletonWarrior:3:147</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,swordsman_1:2:372,lancer_1:2:186,swordsman_1:2:372,ranger_1:2:372,catapult_1:2:186,ranger_1:2:372</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,horseArcher_1:2:189,ranger_1:2:378,horseArcher_1:2:189,catapult_1:2:189,swordsman_1:2:378,catapult_1:2:189</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,meatWagon:3:115,skeletonWarrior:3:231,meatWagon:3:115,deathKnight:3:115,skeletonArcher:3:231,deathKnight:3:115</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,crossbowman_1:2:390,catapult_1:2:195,crossbowman_1:2:390,swordsman_1:2:390,lancer_1:2:195,swordsman_1:2:390</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,sentinel_1:2:396,lancer_1:2:198,sentinel_1:2:396,ranger_1:2:396,catapult_1:2:198,ranger_1:2:396</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,deathKnight:3:121,skeletonArcher:3:242,deathKnight:3:121,meatWagon:3:121,skeletonWarrior:3:242,meatWagon:3:121</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,ballista_1:2:204,sentinel_1:2:408,ballista_1:2:204,lancer_1:2:204,ranger_1:2:408,lancer_1:2:204</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,crossbowman_1:2:414,ballista_1:2:207,crossbowman_1:2:414,swordsman_1:2:414,lancer_1:2:207,swordsman_1:2:414</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,skeletonWarrior:3:252,deathKnight:3:126,skeletonWarrior:3:252,skeletonArcher:3:252,meatWagon:3:126,skeletonArcher:3:252</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,horseArcher_1:2:213,crossbowman_1:2:426,horseArcher_1:2:213,ballista_1:2:213,swordsman_1:2:426,ballista_1:2:213</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,ballista_1:2:216,sentinel_1:2:432,ballista_1:2:216,horseArcher_1:2:216,ranger_1:2:432,horseArcher_1:2:216</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,skeletonArcher:3:263,meatWagon:3:131,skeletonArcher:3:263,skeletonWarrior:3:263,deathKnight:3:131,skeletonWarrior:3:263</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,sentinel_1:2:444,horseArcher_1:2:222,sentinel_1:2:444,crossbowman_1:2:444,catapult_1:2:222,crossbowman_1:2:444</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,horseArcher_1:2:225,crossbowman_1:2:450,horseArcher_1:2:225,ballista_1:2:225,sentinel_1:2:450,ballista_1:2:225</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,meatWagon:3:137,skeletonWarrior:3:274,meatWagon:3:137,deathKnight:3:137,skeletonArcher:3:274,deathKnight:3:137</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,crossbowman_1:2:462,ballista_1:2:231,crossbowman_1:2:462,sentinel_1:2:462,horseArcher_1:2:231,sentinel_1:2:462</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,sentinel_1:2:468,horseArcher_1:2:234,sentinel_1:2:468,crossbowman_1:2:468,ballista_1:2:234,crossbowman_1:2:468</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,deathKnight:3:142,skeletonArcher:3:285,deathKnight:3:142,meatWagon:3:142,skeletonWarrior:3:285,meatWagon:3:142</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,catapult_1:2:240,swordsman_1:2:480,catapult_1:2:240,lancer_1:2:240,ranger_1:2:480,lancer_1:2:240</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,ranger_1:2:486,catapult_1:2:243,ranger_1:2:486,swordsman_1:2:486,lancer_1:2:243,swordsman_1:2:486</t>
-  </si>
-  <si>
-    <t>greenDragon:1:8,skeletonWarrior:3:296,deathKnight:3:148,skeletonWarrior:3:296,skeletonArcher:3:296,meatWagon:3:148,skeletonArcher:3:296</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,horseArcher_1:2:249,ranger_1:2:498,horseArcher_1:2:249,catapult_1:2:249,swordsman_1:2:498,catapult_1:2:249</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,ballista_1:2:252,swordsman_1:2:504,ballista_1:2:252,lancer_1:2:252,ranger_1:2:504,lancer_1:2:252</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,skeletonArcher:3:306,meatWagon:3:153,skeletonArcher:3:306,skeletonWarrior:3:306,deathKnight:3:153,skeletonWarrior:3:306</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,sentinel_1:2:516,lancer_1:2:258,sentinel_1:2:516,ranger_1:2:516,catapult_1:2:258,ranger_1:2:516</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,horseArcher_1:2:261,crossbowman_1:2:522,horseArcher_1:2:261,catapult_1:2:261,swordsman_1:2:522,catapult_1:2:261</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,meatWagon:3:158,skeletonWarrior:3:317,meatWagon:3:158,deathKnight:3:158,skeletonArcher:3:317,deathKnight:3:158</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,crossbowman_1:2:534,ballista_1:2:267,crossbowman_1:2:534,swordsman_1:2:534,lancer_1:2:267,swordsman_1:2:534</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,sentinel_1:2:540,horseArcher_1:2:270,sentinel_1:2:540,ranger_1:2:540,catapult_1:2:270,ranger_1:2:540</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,deathKnight:3:164,skeletonArcher:3:328,deathKnight:3:164,meatWagon:3:164,skeletonWarrior:3:328,meatWagon:3:164</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,ballista_1:2:276,sentinel_1:2:552,ballista_1:2:276,horseArcher_1:2:276,ranger_1:2:552,horseArcher_1:2:276</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,crossbowman_1:2:558,ballista_1:2:279,crossbowman_1:2:558,sentinel_1:2:558,lancer_1:2:279,sentinel_1:2:558</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,skeletonWarrior:3:339,deathKnight:3:169,skeletonWarrior:3:339,skeletonArcher:3:339,meatWagon:3:169,skeletonArcher:3:339</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,horseArcher_1:2:285,crossbowman_1:2:570,horseArcher_1:2:285,ballista_1:2:285,sentinel_1:2:570,ballista_1:2:285</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,ballista_1:2:288,sentinel_1:2:576,ballista_1:2:288,horseArcher_1:2:288,crossbowman_1:2:576,horseArcher_1:2:288</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,skeletonArcher:3:350,meatWagon:3:175,skeletonArcher:3:350,skeletonWarrior:3:350,deathKnight:3:175,skeletonWarrior:3:350</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,sentinel_1:2:588,horseArcher_1:2:294,sentinel_1:2:588,crossbowman_1:2:588,ballista_1:2:294,crossbowman_1:2:588</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,lancer_1:2:297,ranger_1:2:594,lancer_1:2:297,catapult_1:2:297,swordsman_1:2:594,catapult_1:2:297</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,meatWagon:3:180,skeletonWarrior:3:360,meatWagon:3:180,deathKnight:3:180,skeletonArcher:3:360,deathKnight:3:180</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,ranger_1:2:606,catapult_1:2:303,ranger_1:2:606,swordsman_1:2:606,lancer_1:2:303,swordsman_1:2:606</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,swordsman_1:2:612,lancer_1:2:306,swordsman_1:2:612,ranger_1:2:612,catapult_1:2:306,ranger_1:2:612</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,deathKnight:3:185,skeletonArcher:3:371,deathKnight:3:185,meatWagon:3:185,skeletonWarrior:3:371,meatWagon:3:185</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,ballista_1:2:312,swordsman_1:2:624,ballista_1:2:312,lancer_1:2:312,ranger_1:2:624,lancer_1:2:312</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,crossbowman_1:2:630,catapult_1:2:315,crossbowman_1:2:630,swordsman_1:2:630,lancer_1:2:315,swordsman_1:2:630</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,skeletonWarrior:3:382,deathKnight:3:191,skeletonWarrior:3:382,skeletonArcher:3:382,meatWagon:3:191,skeletonArcher:3:382</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,horseArcher_1:2:321,crossbowman_1:2:642,horseArcher_1:2:321,catapult_1:2:321,swordsman_1:2:642,catapult_1:2:321</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,ballista_1:2:324,sentinel_1:2:648,ballista_1:2:324,lancer_1:2:324,ranger_1:2:648,lancer_1:2:324</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,skeletonArcher:3:393,meatWagon:3:196,skeletonArcher:3:393,skeletonWarrior:3:393,deathKnight:3:196,skeletonWarrior:3:393</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,sentinel_1:2:660,horseArcher_1:2:330,sentinel_1:2:660,ranger_1:2:660,catapult_1:2:330,ranger_1:2:660</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,horseArcher_1:2:333,crossbowman_1:2:666,horseArcher_1:2:333,ballista_1:2:333,swordsman_1:2:666,ballista_1:2:333</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,meatWagon:3:202,skeletonWarrior:3:404,meatWagon:3:202,deathKnight:3:202,skeletonArcher:3:404,deathKnight:3:202</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,crossbowman_1:2:678,ballista_1:2:339,crossbowman_1:2:678,sentinel_1:2:678,lancer_1:2:339,sentinel_1:2:678</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,sentinel_1:2:684,horseArcher_1:2:342,sentinel_1:2:684,crossbowman_1:2:684,catapult_1:2:342,crossbowman_1:2:684</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,deathKnight:3:207,skeletonArcher:3:414,deathKnight:3:207,meatWagon:3:207,skeletonWarrior:3:414,meatWagon:3:207</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,ballista_1:2:348,sentinel_1:2:696,ballista_1:2:348,horseArcher_1:2:348,crossbowman_1:2:696,horseArcher_1:2:348</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,crossbowman_1:2:702,ballista_1:2:351,crossbowman_1:2:702,sentinel_1:2:702,horseArcher_1:2:351,sentinel_1:2:702</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,skeletonWarrior:3:425,deathKnight:3:212,skeletonWarrior:3:425,skeletonArcher:3:425,meatWagon:3:212,skeletonArcher:3:425</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,lancer_1:2:357,ranger_1:2:714,lancer_1:2:357,catapult_1:2:357,swordsman_1:2:714,catapult_1:2:357</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,catapult_1:2:360,swordsman_1:2:720,catapult_1:2:360,lancer_1:2:360,ranger_1:2:720,lancer_1:2:360</t>
-  </si>
-  <si>
-    <t>redDragon:2:11,skeletonArcher:3:436,meatWagon:3:218,skeletonArcher:3:436,skeletonWarrior:3:436,deathKnight:3:218,skeletonWarrior:3:436</t>
-  </si>
-  <si>
-    <t>redDragon:2:11,swordsman_1:2:732,lancer_1:2:366,swordsman_1:2:732,ranger_1:2:732,catapult_1:2:366,ranger_1:2:732</t>
-  </si>
-  <si>
-    <t>redDragon:2:11,horseArcher_1:2:369,ranger_1:2:738,horseArcher_1:2:369,catapult_1:2:369,swordsman_1:2:738,catapult_1:2:369</t>
-  </si>
-  <si>
-    <t>redDragon:2:11,meatWagon:3:223,skeletonWarrior:3:447,meatWagon:3:223,deathKnight:3:223,skeletonArcher:3:447,deathKnight:3:223</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,crossbowman_1:3:750,catapult_1:3:375,crossbowman_1:3:750,swordsman_1:3:750,lancer_1:3:375,swordsman_1:3:750</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,sentinel_1:3:756,lancer_1:3:378,sentinel_1:3:756,ranger_1:3:756,catapult_1:3:378,ranger_1:3:756</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,deathKnight:3:305,skeletonArcher:3:610,deathKnight:3:305,meatWagon:3:305,skeletonWarrior:3:610,meatWagon:3:305</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,ballista_1:3:384,sentinel_1:3:768,ballista_1:3:384,lancer_1:3:384,ranger_1:3:768,lancer_1:3:384</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,crossbowman_1:3:774,ballista_1:3:387,crossbowman_1:3:774,swordsman_1:3:774,lancer_1:3:387,swordsman_1:3:774</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,skeletonWarrior:3:624,deathKnight:3:312,skeletonWarrior:3:624,skeletonArcher:3:624,meatWagon:3:312,skeletonArcher:3:624</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,horseArcher_1:3:393,crossbowman_1:3:786,horseArcher_1:3:393,ballista_1:3:393,swordsman_1:3:786,ballista_1:3:393</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,ballista_1:3:396,sentinel_1:3:792,ballista_1:3:396,horseArcher_1:3:396,ranger_1:3:792,horseArcher_1:3:396</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,skeletonArcher:3:639,meatWagon:3:319,skeletonArcher:3:639,skeletonWarrior:3:639,deathKnight:3:319,skeletonWarrior:3:639</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,sentinel_1:3:804,horseArcher_1:3:402,sentinel_1:3:804,crossbowman_1:3:804,catapult_1:3:402,crossbowman_1:3:804</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,horseArcher_1:3:405,crossbowman_1:3:810,horseArcher_1:3:405,ballista_1:3:405,sentinel_1:3:810,ballista_1:3:405</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,meatWagon:3:326,skeletonWarrior:3:653,meatWagon:3:326,deathKnight:3:326,skeletonArcher:3:653,deathKnight:3:326</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,crossbowman_1:3:822,ballista_1:3:411,crossbowman_1:3:822,sentinel_1:3:822,horseArcher_1:3:411,sentinel_1:3:822</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,sentinel_1:3:828,horseArcher_1:3:414,sentinel_1:3:828,crossbowman_1:3:828,ballista_1:3:414,crossbowman_1:3:828</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,deathKnight:3:334,skeletonArcher:3:668,deathKnight:3:334,meatWagon:3:334,skeletonWarrior:3:668,meatWagon:3:334</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,catapult_1:3:420,swordsman_1:3:840,catapult_1:3:420,lancer_1:3:420,ranger_1:3:840,lancer_1:3:420</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,ranger_1:3:846,catapult_1:3:423,ranger_1:3:846,swordsman_1:3:846,lancer_1:3:423,swordsman_1:3:846</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,skeletonWarrior:3:682,deathKnight:3:341,skeletonWarrior:3:682,skeletonArcher:3:682,meatWagon:3:341,skeletonArcher:3:682</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,horseArcher_1:3:429,ranger_1:3:858,horseArcher_1:3:429,catapult_1:3:429,swordsman_1:3:858,catapult_1:3:429</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,ballista_1:3:432,swordsman_1:3:864,ballista_1:3:432,lancer_1:3:432,ranger_1:3:864,lancer_1:3:432</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,skeletonArcher:3:696,meatWagon:3:348,skeletonArcher:3:696,skeletonWarrior:3:696,deathKnight:3:348,skeletonWarrior:3:696</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,sentinel_1:3:876,lancer_1:3:438,sentinel_1:3:876,ranger_1:3:876,catapult_1:3:438,ranger_1:3:876</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,horseArcher_1:3:441,crossbowman_1:3:882,horseArcher_1:3:441,catapult_1:3:441,swordsman_1:3:882,catapult_1:3:441</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,meatWagon:3:355,skeletonWarrior:3:711,meatWagon:3:355,deathKnight:3:355,skeletonArcher:3:711,deathKnight:3:355</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,crossbowman_1:3:894,ballista_1:3:447,crossbowman_1:3:894,swordsman_1:3:894,lancer_1:3:447,swordsman_1:3:894</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,sentinel_1:3:900,horseArcher_1:3:450,sentinel_1:3:900,ranger_1:3:900,catapult_1:3:450,ranger_1:3:900</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,deathKnight:3:362,skeletonArcher:3:725,deathKnight:3:362,meatWagon:3:362,skeletonWarrior:3:725,meatWagon:3:362</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,ballista_1:3:456,sentinel_1:3:912,ballista_1:3:456,horseArcher_1:3:456,ranger_1:3:912,horseArcher_1:3:456</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,crossbowman_1:3:918,ballista_1:3:459,crossbowman_1:3:918,sentinel_1:3:918,lancer_1:3:459,sentinel_1:3:918</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,skeletonWarrior:3:740,deathKnight:3:370,skeletonWarrior:3:740,skeletonArcher:3:740,meatWagon:3:370,skeletonArcher:3:740</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,horseArcher_1:3:465,crossbowman_1:3:930,horseArcher_1:3:465,ballista_1:3:465,sentinel_1:3:930,ballista_1:3:465</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,ballista_1:3:468,sentinel_1:3:936,ballista_1:3:468,horseArcher_1:3:468,crossbowman_1:3:936,horseArcher_1:3:468</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,skeletonArcher:3:754,meatWagon:3:377,skeletonArcher:3:754,skeletonWarrior:3:754,deathKnight:3:377,skeletonWarrior:3:754</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,sentinel_1:3:948,horseArcher_1:3:474,sentinel_1:3:948,crossbowman_1:3:948,ballista_1:3:474,crossbowman_1:3:948</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,lancer_1:3:477,ranger_1:3:954,lancer_1:3:477,catapult_1:3:477,swordsman_1:3:954,catapult_1:3:477</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,meatWagon:3:384,skeletonWarrior:3:768,meatWagon:3:384,deathKnight:3:384,skeletonArcher:3:768,deathKnight:3:384</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,ranger_1:3:966,catapult_1:3:483,ranger_1:3:966,swordsman_1:3:966,lancer_1:3:483,swordsman_1:3:966</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,swordsman_1:3:972,lancer_1:3:486,swordsman_1:3:972,ranger_1:3:972,catapult_1:3:486,ranger_1:3:972</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,deathKnight:3:391,skeletonArcher:3:783,deathKnight:3:391,meatWagon:3:391,skeletonWarrior:3:783,meatWagon:3:391</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,ballista_1:3:492,swordsman_1:3:984,ballista_1:3:492,lancer_1:3:492,ranger_1:3:984,lancer_1:3:492</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,crossbowman_1:3:990,catapult_1:3:495,crossbowman_1:3:990,swordsman_1:3:990,lancer_1:3:495,swordsman_1:3:990</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,skeletonWarrior:3:797,deathKnight:3:398,skeletonWarrior:3:797,skeletonArcher:3:797,meatWagon:3:398,skeletonArcher:3:797</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,horseArcher_1:3:501,crossbowman_1:3:1002,horseArcher_1:3:501,catapult_1:3:501,swordsman_1:3:1002,catapult_1:3:501</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,ballista_1:3:504,sentinel_1:3:1008,ballista_1:3:504,lancer_1:3:504,ranger_1:3:1008,lancer_1:3:504</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,skeletonArcher:3:812,meatWagon:3:406,skeletonArcher:3:812,skeletonWarrior:3:812,deathKnight:3:406,skeletonWarrior:3:812</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,sentinel_1:3:1020,horseArcher_1:3:510,sentinel_1:3:1020,ranger_1:3:1020,catapult_1:3:510,ranger_1:3:1020</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,horseArcher_1:3:513,crossbowman_1:3:1026,horseArcher_1:3:513,ballista_1:3:513,swordsman_1:3:1026,ballista_1:3:513</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,meatWagon:3:413,skeletonWarrior:3:826,meatWagon:3:413,deathKnight:3:413,skeletonArcher:3:826,deathKnight:3:413</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,crossbowman_1:3:1038,ballista_1:3:519,crossbowman_1:3:1038,sentinel_1:3:1038,lancer_1:3:519,sentinel_1:3:1038</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,sentinel_1:3:1044,horseArcher_1:3:522,sentinel_1:3:1044,crossbowman_1:3:1044,catapult_1:3:522,crossbowman_1:3:1044</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,deathKnight:3:420,skeletonArcher:3:840,deathKnight:3:420,meatWagon:3:420,skeletonWarrior:3:840,meatWagon:3:420</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,ballista_1:3:528,sentinel_1:3:1056,ballista_1:3:528,horseArcher_1:3:528,crossbowman_1:3:1056,horseArcher_1:3:528</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,crossbowman_1:3:1062,ballista_1:3:531,crossbowman_1:3:1062,sentinel_1:3:1062,horseArcher_1:3:531,sentinel_1:3:1062</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,skeletonWarrior:3:855,deathKnight:3:427,skeletonWarrior:3:855,skeletonArcher:3:855,meatWagon:3:427,skeletonArcher:3:855</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,lancer_1:3:537,ranger_1:3:1074,lancer_1:3:537,catapult_1:3:537,swordsman_1:3:1074,catapult_1:3:537</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,catapult_1:3:540,swordsman_1:3:1080,catapult_1:3:540,lancer_1:3:540,ranger_1:3:1080,lancer_1:3:540</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,skeletonArcher:3:869,meatWagon:3:434,skeletonArcher:3:869,skeletonWarrior:3:869,deathKnight:3:434,skeletonWarrior:3:869</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,swordsman_1:3:1092,lancer_1:3:546,swordsman_1:3:1092,ranger_1:3:1092,catapult_1:3:546,ranger_1:3:1092</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,horseArcher_1:3:549,ranger_1:3:1098,horseArcher_1:3:549,catapult_1:3:549,swordsman_1:3:1098,catapult_1:3:549</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,meatWagon:3:442,skeletonWarrior:3:884,meatWagon:3:442,deathKnight:3:442,skeletonArcher:3:884,deathKnight:3:442</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,crossbowman_1:3:1110,catapult_1:3:555,crossbowman_1:3:1110,swordsman_1:3:1110,lancer_1:3:555,swordsman_1:3:1110</t>
-  </si>
-  <si>
-    <t>blueDragon:2:16,sentinel_1:3:1116,lancer_1:3:558,sentinel_1:3:1116,ranger_1:3:1116,catapult_1:3:558,ranger_1:3:1116</t>
-  </si>
-  <si>
-    <t>blueDragon:2:16,deathKnight:3:449,skeletonArcher:3:898,deathKnight:3:449,meatWagon:3:449,skeletonWarrior:3:898,meatWagon:3:449</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,ballista_2:1:564,sentinel_2:1:1128,ballista_2:1:564,lancer_2:1:564,ranger_2:1:1128,lancer_2:1:564</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,crossbowman_2:1:1134,ballista_2:1:567,crossbowman_2:1:1134,swordsman_2:1:1134,lancer_2:1:567,swordsman_2:1:1134</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,skeletonWarrior:3:1140,deathKnight:3:570,skeletonWarrior:3:1140,skeletonArcher:3:1140,meatWagon:3:570,skeletonArcher:3:1140</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,horseArcher_2:1:573,crossbowman_2:1:1146,horseArcher_2:1:573,ballista_2:1:573,swordsman_2:1:1146,ballista_2:1:573</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,ballista_2:1:576,sentinel_2:1:1152,ballista_2:1:576,horseArcher_2:1:576,ranger_2:1:1152,horseArcher_2:1:576</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,skeletonArcher:3:1158,meatWagon:3:579,skeletonArcher:3:1158,skeletonWarrior:3:1158,deathKnight:3:579,skeletonWarrior:3:1158</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,sentinel_2:1:1164,horseArcher_2:1:582,sentinel_2:1:1164,crossbowman_2:1:1164,catapult_2:1:582,crossbowman_2:1:1164</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,horseArcher_2:1:585,crossbowman_2:1:1170,horseArcher_2:1:585,ballista_2:1:585,sentinel_2:1:1170,ballista_2:1:585</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,meatWagon:3:588,skeletonWarrior:3:1176,meatWagon:3:588,deathKnight:3:588,skeletonArcher:3:1176,deathKnight:3:588</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,crossbowman_2:1:1182,ballista_2:1:591,crossbowman_2:1:1182,sentinel_2:1:1182,horseArcher_2:1:591,sentinel_2:1:1182</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,sentinel_2:1:1188,horseArcher_2:1:594,sentinel_2:1:1188,crossbowman_2:1:1188,ballista_2:1:594,crossbowman_2:1:1188</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,deathKnight:3:597,skeletonArcher:3:1194,deathKnight:3:597,meatWagon:3:597,skeletonWarrior:3:1194,meatWagon:3:597</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,catapult_2:1:600,swordsman_2:1:1200,catapult_2:1:600,lancer_2:1:600,ranger_2:1:1200,lancer_2:1:600</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,ranger_2:1:1206,catapult_2:1:603,ranger_2:1:1206,swordsman_2:1:1206,lancer_2:1:603,swordsman_2:1:1206</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,skeletonWarrior:3:1212,deathKnight:3:606,skeletonWarrior:3:1212,skeletonArcher:3:1212,meatWagon:3:606,skeletonArcher:3:1212</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,horseArcher_2:1:609,ranger_2:1:1218,horseArcher_2:1:609,catapult_2:1:609,swordsman_2:1:1218,catapult_2:1:609</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,ballista_2:1:612,swordsman_2:1:1224,ballista_2:1:612,lancer_2:1:612,ranger_2:1:1224,lancer_2:1:612</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,skeletonArcher:3:1230,meatWagon:3:615,skeletonArcher:3:1230,skeletonWarrior:3:1230,deathKnight:3:615,skeletonWarrior:3:1230</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,sentinel_2:1:1236,lancer_2:1:618,sentinel_2:1:1236,ranger_2:1:1236,catapult_2:1:618,ranger_2:1:1236</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,horseArcher_2:1:621,crossbowman_2:1:1242,horseArcher_2:1:621,catapult_2:1:621,swordsman_2:1:1242,catapult_2:1:621</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,meatWagon:3:624,skeletonWarrior:3:1248,meatWagon:3:624,deathKnight:3:624,skeletonArcher:3:1248,deathKnight:3:624</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,crossbowman_2:1:1254,ballista_2:1:627,crossbowman_2:1:1254,swordsman_2:1:1254,lancer_2:1:627,swordsman_2:1:1254</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,sentinel_2:1:1260,horseArcher_2:1:630,sentinel_2:1:1260,ranger_2:1:1260,catapult_2:1:630,ranger_2:1:1260</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,deathKnight:3:633,skeletonArcher:3:1266,deathKnight:3:633,meatWagon:3:633,skeletonWarrior:3:1266,meatWagon:3:633</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,ballista_2:1:636,sentinel_2:1:1272,ballista_2:1:636,horseArcher_2:1:636,ranger_2:1:1272,horseArcher_2:1:636</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,crossbowman_2:1:1278,ballista_2:1:639,crossbowman_2:1:1278,sentinel_2:1:1278,lancer_2:1:639,sentinel_2:1:1278</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,skeletonWarrior:3:1284,deathKnight:3:642,skeletonWarrior:3:1284,skeletonArcher:3:1284,meatWagon:3:642,skeletonArcher:3:1284</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,horseArcher_2:1:645,crossbowman_2:1:1290,horseArcher_2:1:645,ballista_2:1:645,sentinel_2:1:1290,ballista_2:1:645</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,ballista_2:1:648,sentinel_2:1:1296,ballista_2:1:648,horseArcher_2:1:648,crossbowman_2:1:1296,horseArcher_2:1:648</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,skeletonArcher:3:1302,meatWagon:3:651,skeletonArcher:3:1302,skeletonWarrior:3:1302,deathKnight:3:651,skeletonWarrior:3:1302</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,sentinel_2:1:1308,horseArcher_2:1:654,sentinel_2:1:1308,crossbowman_2:1:1308,ballista_2:1:654,crossbowman_2:1:1308</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,lancer_2:1:657,ranger_2:1:1314,lancer_2:1:657,catapult_2:1:657,swordsman_2:1:1314,catapult_2:1:657</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,meatWagon:3:660,skeletonWarrior:3:1320,meatWagon:3:660,deathKnight:3:660,skeletonArcher:3:1320,deathKnight:3:660</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,ranger_2:1:1326,catapult_2:1:663,ranger_2:1:1326,swordsman_2:1:1326,lancer_2:1:663,swordsman_2:1:1326</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,swordsman_2:1:1332,lancer_2:1:666,swordsman_2:1:1332,ranger_2:1:1332,catapult_2:1:666,ranger_2:1:1332</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,deathKnight:3:669,skeletonArcher:3:1338,deathKnight:3:669,meatWagon:3:669,skeletonWarrior:3:1338,meatWagon:3:669</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,ballista_2:1:672,swordsman_2:1:1344,ballista_2:1:672,lancer_2:1:672,ranger_2:1:1344,lancer_2:1:672</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,crossbowman_2:1:1350,catapult_2:1:675,crossbowman_2:1:1350,swordsman_2:1:1350,lancer_2:1:675,swordsman_2:1:1350</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,skeletonWarrior:3:1356,deathKnight:3:678,skeletonWarrior:3:1356,skeletonArcher:3:1356,meatWagon:3:678,skeletonArcher:3:1356</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,horseArcher_2:1:681,crossbowman_2:1:1362,horseArcher_2:1:681,catapult_2:1:681,swordsman_2:1:1362,catapult_2:1:681</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,ballista_2:1:684,sentinel_2:1:1368,ballista_2:1:684,lancer_2:1:684,ranger_2:1:1368,lancer_2:1:684</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,skeletonArcher:3:1374,meatWagon:3:687,skeletonArcher:3:1374,skeletonWarrior:3:1374,deathKnight:3:687,skeletonWarrior:3:1374</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,sentinel_2:1:1380,horseArcher_2:1:690,sentinel_2:1:1380,ranger_2:1:1380,catapult_2:1:690,ranger_2:1:1380</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,horseArcher_2:1:693,crossbowman_2:1:1386,horseArcher_2:1:693,ballista_2:1:693,swordsman_2:1:1386,ballista_2:1:693</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,meatWagon:3:696,skeletonWarrior:3:1392,meatWagon:3:696,deathKnight:3:696,skeletonArcher:3:1392,deathKnight:3:696</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,crossbowman_2:1:1398,ballista_2:1:699,crossbowman_2:1:1398,sentinel_2:1:1398,lancer_2:1:699,sentinel_2:1:1398</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,sentinel_2:1:1404,horseArcher_2:1:702,sentinel_2:1:1404,crossbowman_2:1:1404,catapult_2:1:702,crossbowman_2:1:1404</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,deathKnight:3:705,skeletonArcher:3:1410,deathKnight:3:705,meatWagon:3:705,skeletonWarrior:3:1410,meatWagon:3:705</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,ballista_2:1:708,sentinel_2:1:1416,ballista_2:1:708,horseArcher_2:1:708,crossbowman_2:1:1416,horseArcher_2:1:708</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,crossbowman_2:1:1422,ballista_2:1:711,crossbowman_2:1:1422,sentinel_2:1:1422,horseArcher_2:1:711,sentinel_2:1:1422</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,skeletonWarrior:3:1428,deathKnight:3:714,skeletonWarrior:3:1428,skeletonArcher:3:1428,meatWagon:3:714,skeletonArcher:3:1428</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,lancer_2:1:717,ranger_2:1:1434,lancer_2:1:717,catapult_2:1:717,swordsman_2:1:1434,catapult_2:1:717</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,catapult_2:1:720,swordsman_2:1:1440,catapult_2:1:720,lancer_2:1:720,ranger_2:1:1440,lancer_2:1:720</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,skeletonArcher:3:1446,meatWagon:3:723,skeletonArcher:3:1446,skeletonWarrior:3:1446,deathKnight:3:723,skeletonWarrior:3:1446</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,swordsman_2:1:1452,lancer_2:1:726,swordsman_2:1:1452,ranger_2:1:1452,catapult_2:1:726,ranger_2:1:1452</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,horseArcher_2:1:729,ranger_2:1:1458,horseArcher_2:1:729,catapult_2:1:729,swordsman_2:1:1458,catapult_2:1:729</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,meatWagon:3:732,skeletonWarrior:3:1464,meatWagon:3:732,deathKnight:3:732,skeletonArcher:3:1464,deathKnight:3:732</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,crossbowman_2:1:1470,catapult_2:1:735,crossbowman_2:1:1470,swordsman_2:1:1470,lancer_2:1:735,swordsman_2:1:1470</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,sentinel_2:1:1476,lancer_2:1:738,sentinel_2:1:1476,ranger_2:1:1476,catapult_2:1:738,ranger_2:1:1476</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,deathKnight:3:741,skeletonArcher:3:1482,deathKnight:3:741,meatWagon:3:741,skeletonWarrior:3:1482,meatWagon:3:741</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,ballista_2:1:744,sentinel_2:1:1488,ballista_2:1:744,lancer_2:1:744,ranger_2:1:1488,lancer_2:1:744</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,crossbowman_2:1:1494,ballista_2:1:747,crossbowman_2:1:1494,swordsman_2:1:1494,lancer_2:1:747,swordsman_2:1:1494</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,skeletonWarrior:3:1500,deathKnight:3:750,skeletonWarrior:3:1500,skeletonArcher:3:1500,meatWagon:3:750,skeletonArcher:3:1500</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,horseArcher_2:2:753,crossbowman_2:2:1506,horseArcher_2:2:753,ballista_2:2:753,swordsman_2:2:1506,ballista_2:2:753</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,ballista_2:2:756,sentinel_2:2:1512,ballista_2:2:756,horseArcher_2:2:756,ranger_2:2:1512,horseArcher_2:2:756</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,skeletonArcher:3:1822,meatWagon:3:911,skeletonArcher:3:1822,skeletonWarrior:3:1822,deathKnight:3:911,skeletonWarrior:3:1822</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,sentinel_2:2:1524,horseArcher_2:2:762,sentinel_2:2:1524,crossbowman_2:2:1524,catapult_2:2:762,crossbowman_2:2:1524</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,horseArcher_2:2:765,crossbowman_2:2:1530,horseArcher_2:2:765,ballista_2:2:765,sentinel_2:2:1530,ballista_2:2:765</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,meatWagon:3:922,skeletonWarrior:3:1844,meatWagon:3:922,deathKnight:3:922,skeletonArcher:3:1844,deathKnight:3:922</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,crossbowman_2:2:1542,ballista_2:2:771,crossbowman_2:2:1542,sentinel_2:2:1542,horseArcher_2:2:771,sentinel_2:2:1542</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,sentinel_2:2:1548,horseArcher_2:2:774,sentinel_2:2:1548,crossbowman_2:2:1548,ballista_2:2:774,crossbowman_2:2:1548</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,deathKnight:3:932,skeletonArcher:3:1865,deathKnight:3:932,meatWagon:3:932,skeletonWarrior:3:1865,meatWagon:3:932</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,catapult_2:2:780,swordsman_2:2:1560,catapult_2:2:780,lancer_2:2:780,ranger_2:2:1560,lancer_2:2:780</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,ranger_2:2:1566,catapult_2:2:783,ranger_2:2:1566,swordsman_2:2:1566,lancer_2:2:783,swordsman_2:2:1566</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,skeletonWarrior:3:1887,deathKnight:3:943,skeletonWarrior:3:1887,skeletonArcher:3:1887,meatWagon:3:943,skeletonArcher:3:1887</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,horseArcher_2:2:789,ranger_2:2:1578,horseArcher_2:2:789,catapult_2:2:789,swordsman_2:2:1578,catapult_2:2:789</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,ballista_2:2:792,swordsman_2:2:1584,ballista_2:2:792,lancer_2:2:792,ranger_2:2:1584,lancer_2:2:792</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,skeletonArcher:3:1908,meatWagon:3:954,skeletonArcher:3:1908,skeletonWarrior:3:1908,deathKnight:3:954,skeletonWarrior:3:1908</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,sentinel_2:2:1596,lancer_2:2:798,sentinel_2:2:1596,ranger_2:2:1596,catapult_2:2:798,ranger_2:2:1596</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,horseArcher_2:2:801,crossbowman_2:2:1602,horseArcher_2:2:801,catapult_2:2:801,swordsman_2:2:1602,catapult_2:2:801</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,meatWagon:3:965,skeletonWarrior:3:1930,meatWagon:3:965,deathKnight:3:965,skeletonArcher:3:1930,deathKnight:3:965</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,crossbowman_2:2:1614,ballista_2:2:807,crossbowman_2:2:1614,swordsman_2:2:1614,lancer_2:2:807,swordsman_2:2:1614</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,sentinel_2:2:1620,horseArcher_2:2:810,sentinel_2:2:1620,ranger_2:2:1620,catapult_2:2:810,ranger_2:2:1620</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,deathKnight:3:976,skeletonArcher:3:1952,deathKnight:3:976,meatWagon:3:976,skeletonWarrior:3:1952,meatWagon:3:976</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,ballista_2:2:816,sentinel_2:2:1632,ballista_2:2:816,horseArcher_2:2:816,ranger_2:2:1632,horseArcher_2:2:816</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,crossbowman_2:2:1638,ballista_2:2:819,crossbowman_2:2:1638,sentinel_2:2:1638,lancer_2:2:819,sentinel_2:2:1638</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,skeletonWarrior:3:1973,deathKnight:3:986,skeletonWarrior:3:1973,skeletonArcher:3:1973,meatWagon:3:986,skeletonArcher:3:1973</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,horseArcher_2:2:825,crossbowman_2:2:1650,horseArcher_2:2:825,ballista_2:2:825,sentinel_2:2:1650,ballista_2:2:825</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,ballista_2:2:828,sentinel_2:2:1656,ballista_2:2:828,horseArcher_2:2:828,crossbowman_2:2:1656,horseArcher_2:2:828</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,skeletonArcher:3:1995,meatWagon:3:997,skeletonArcher:3:1995,skeletonWarrior:3:1995,deathKnight:3:997,skeletonWarrior:3:1995</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,sentinel_2:2:1668,horseArcher_2:2:834,sentinel_2:2:1668,crossbowman_2:2:1668,ballista_2:2:834,crossbowman_2:2:1668</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,lancer_2:2:837,ranger_2:2:1674,lancer_2:2:837,catapult_2:2:837,swordsman_2:2:1674,catapult_2:2:837</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,meatWagon:3:1008,skeletonWarrior:3:2016,meatWagon:3:1008,deathKnight:3:1008,skeletonArcher:3:2016,deathKnight:3:1008</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,ranger_2:2:1686,catapult_2:2:843,ranger_2:2:1686,swordsman_2:2:1686,lancer_2:2:843,swordsman_2:2:1686</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,swordsman_2:2:1692,lancer_2:2:846,swordsman_2:2:1692,ranger_2:2:1692,catapult_2:2:846,ranger_2:2:1692</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,deathKnight:3:1022,skeletonArcher:3:2045,deathKnight:3:1022,meatWagon:3:1022,skeletonWarrior:3:2045,meatWagon:3:1022</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,ballista_2:2:858,swordsman_2:2:1716,ballista_2:2:858,lancer_2:2:858,ranger_2:2:1716,lancer_2:2:858</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,crossbowman_2:2:1728,catapult_2:2:864,crossbowman_2:2:1728,swordsman_2:2:1728,lancer_2:2:864,swordsman_2:2:1728</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,skeletonWarrior:3:2087,deathKnight:3:1043,skeletonWarrior:3:2087,skeletonArcher:3:2087,meatWagon:3:1043,skeletonArcher:3:2087</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,horseArcher_2:2:875,crossbowman_2:2:1751,horseArcher_2:2:875,catapult_2:2:875,swordsman_2:2:1751,catapult_2:2:875</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,ballista_2:2:881,sentinel_2:2:1763,ballista_2:2:881,lancer_2:2:881,ranger_2:2:1763,lancer_2:2:881</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,skeletonArcher:3:2130,meatWagon:3:1065,skeletonArcher:3:2130,skeletonWarrior:3:2130,deathKnight:3:1065,skeletonWarrior:3:2130</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,sentinel_2:2:1787,horseArcher_2:2:893,sentinel_2:2:1787,ranger_2:2:1787,catapult_2:2:893,ranger_2:2:1787</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,horseArcher_2:2:899,crossbowman_2:2:1799,horseArcher_2:2:899,ballista_2:2:899,swordsman_2:2:1799,ballista_2:2:899</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,meatWagon:3:1086,skeletonWarrior:3:2173,meatWagon:3:1086,deathKnight:3:1086,skeletonArcher:3:2173,deathKnight:3:1086</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,crossbowman_2:2:1823,ballista_2:2:911,crossbowman_2:2:1823,sentinel_2:2:1823,lancer_2:2:911,sentinel_2:2:1823</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,sentinel_2:2:1835,horseArcher_2:2:917,sentinel_2:2:1835,crossbowman_2:2:1835,catapult_2:2:917,crossbowman_2:2:1835</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,deathKnight:3:1108,skeletonArcher:3:2217,deathKnight:3:1108,meatWagon:3:1108,skeletonWarrior:3:2217,meatWagon:3:1108</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,ballista_2:2:929,sentinel_2:2:1859,ballista_2:2:929,horseArcher_2:2:929,crossbowman_2:2:1859,horseArcher_2:2:929</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,crossbowman_2:2:1872,ballista_2:2:936,crossbowman_2:2:1872,sentinel_2:2:1872,horseArcher_2:2:936,sentinel_2:2:1872</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,skeletonWarrior:3:2261,deathKnight:3:1130,skeletonWarrior:3:2261,skeletonArcher:3:2261,meatWagon:3:1130,skeletonArcher:3:2261</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,lancer_2:2:948,ranger_2:2:1896,lancer_2:2:948,catapult_2:2:948,swordsman_2:2:1896,catapult_2:2:948</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,catapult_2:2:954,swordsman_2:2:1908,catapult_2:2:954,lancer_2:2:954,ranger_2:2:1908,lancer_2:2:954</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,skeletonArcher:3:2305,meatWagon:3:1152,skeletonArcher:3:2305,skeletonWarrior:3:2305,deathKnight:3:1152,skeletonWarrior:3:2305</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,swordsman_2:2:1933,lancer_2:2:966,swordsman_2:2:1933,ranger_2:2:1933,catapult_2:2:966,ranger_2:2:1933</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,horseArcher_2:2:973,ranger_2:2:1946,horseArcher_2:2:973,catapult_2:2:973,swordsman_2:2:1946,catapult_2:2:973</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,meatWagon:3:1175,skeletonWarrior:3:2350,meatWagon:3:1175,deathKnight:3:1175,skeletonArcher:3:2350,deathKnight:3:1175</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,crossbowman_2:2:1971,catapult_2:2:985,crossbowman_2:2:1971,swordsman_2:2:1971,lancer_2:2:985,swordsman_2:2:1971</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,sentinel_2:2:1983,lancer_2:2:991,sentinel_2:2:1983,ranger_2:2:1983,catapult_2:2:991,ranger_2:2:1983</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,deathKnight:3:1197,skeletonArcher:3:2395,deathKnight:3:1197,meatWagon:3:1197,skeletonWarrior:3:2395,meatWagon:3:1197</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,ballista_2:2:1004,sentinel_2:2:2009,ballista_2:2:1004,lancer_2:2:1004,ranger_2:2:2009,lancer_2:2:1004</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,crossbowman_2:2:2021,ballista_2:2:1010,crossbowman_2:2:2021,swordsman_2:2:2021,lancer_2:2:1010,swordsman_2:2:2021</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,skeletonWarrior:3:2441,deathKnight:3:1220,skeletonWarrior:3:2441,skeletonArcher:3:2441,meatWagon:3:1220,skeletonArcher:3:2441</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,horseArcher_2:2:1023,crossbowman_2:2:2047,horseArcher_2:2:1023,ballista_2:2:1023,swordsman_2:2:2047,ballista_2:2:1023</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,ballista_2:2:1030,sentinel_2:2:2060,ballista_2:2:1030,horseArcher_2:2:1030,ranger_2:2:2060,horseArcher_2:2:1030</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,skeletonArcher:3:2487,meatWagon:3:1243,skeletonArcher:3:2487,skeletonWarrior:3:2487,deathKnight:3:1243,skeletonWarrior:3:2487</t>
-  </si>
-  <si>
-    <t>redDragon:3:25,sentinel_2:3:2085,horseArcher_2:3:1042,sentinel_2:3:2085,crossbowman_2:3:2085,catapult_2:3:1042,crossbowman_2:3:2085</t>
-  </si>
-  <si>
-    <t>redDragon:3:25,horseArcher_2:3:1049,crossbowman_2:3:2098,horseArcher_2:3:1049,ballista_2:3:1049,sentinel_2:3:2098,ballista_2:3:1049</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,meatWagon:3:1478,skeletonWarrior:3:2956,meatWagon:3:1478,deathKnight:3:1478,skeletonArcher:3:2956,deathKnight:3:1478</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,crossbowman_2:3:2124,ballista_2:3:1062,crossbowman_2:3:2124,sentinel_2:3:2124,horseArcher_2:3:1062,sentinel_2:3:2124</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,sentinel_2:3:2137,horseArcher_2:3:1068,sentinel_2:3:2137,crossbowman_2:3:2137,ballista_2:3:1068,crossbowman_2:3:2137</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,deathKnight:3:1505,skeletonArcher:3:3011,deathKnight:3:1505,meatWagon:3:1505,skeletonWarrior:3:3011,meatWagon:3:1505</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,catapult_2:3:1082,swordsman_2:3:2164,catapult_2:3:1082,lancer_2:3:1082,ranger_2:3:2164,lancer_2:3:1082</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,ranger_2:3:2177,catapult_2:3:1088,ranger_2:3:2177,swordsman_2:3:2177,lancer_2:3:1088,swordsman_2:3:2177</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,skeletonWarrior:3:3066,deathKnight:3:1533,skeletonWarrior:3:3066,skeletonArcher:3:3066,meatWagon:3:1533,skeletonArcher:3:3066</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,horseArcher_2:3:1101,ranger_2:3:2203,horseArcher_2:3:1101,catapult_2:3:1101,swordsman_2:3:2203,catapult_2:3:1101</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,ballista_2:3:1108,swordsman_2:3:2217,ballista_2:3:1108,lancer_2:3:1108,ranger_2:3:2217,lancer_2:3:1108</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,skeletonArcher:3:3122,meatWagon:3:1561,skeletonArcher:3:3122,skeletonWarrior:3:3122,deathKnight:3:1561,skeletonWarrior:3:3122</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,sentinel_2:3:2243,lancer_2:3:1121,sentinel_2:3:2243,ranger_2:3:2243,catapult_2:3:1121,ranger_2:3:2243</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,horseArcher_2:3:1128,crossbowman_2:3:2257,horseArcher_2:3:1128,catapult_2:3:1128,swordsman_2:3:2257,catapult_2:3:1128</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,meatWagon:3:1589,skeletonWarrior:3:3178,meatWagon:3:1589,deathKnight:3:1589,skeletonArcher:3:3178,deathKnight:3:1589</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,crossbowman_2:3:2284,ballista_2:3:1142,crossbowman_2:3:2284,swordsman_2:3:2284,lancer_2:3:1142,swordsman_2:3:2284</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,sentinel_2:3:2297,horseArcher_2:3:1148,sentinel_2:3:2297,ranger_2:3:2297,catapult_2:3:1148,ranger_2:3:2297</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,deathKnight:3:1617,skeletonArcher:3:3235,deathKnight:3:1617,meatWagon:3:1617,skeletonWarrior:3:3235,meatWagon:3:1617</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,ballista_2:3:1162,sentinel_2:3:2324,ballista_2:3:1162,horseArcher_2:3:1162,ranger_2:3:2324,horseArcher_2:3:1162</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,crossbowman_2:3:2338,ballista_2:3:1169,crossbowman_2:3:2338,sentinel_2:3:2338,lancer_2:3:1169,sentinel_2:3:2338</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,skeletonWarrior:3:3292,deathKnight:3:1646,skeletonWarrior:3:3292,skeletonArcher:3:3292,meatWagon:3:1646,skeletonArcher:3:3292</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,horseArcher_2:3:1183,crossbowman_2:3:2366,horseArcher_2:3:1183,ballista_2:3:1183,sentinel_2:3:2366,ballista_2:3:1183</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,ballista_2:3:1189,sentinel_2:3:2379,ballista_2:3:1189,horseArcher_2:3:1189,crossbowman_2:3:2379,horseArcher_2:3:1189</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,skeletonArcher:3:3350,meatWagon:3:1675,skeletonArcher:3:3350,skeletonWarrior:3:3350,deathKnight:3:1675,skeletonWarrior:3:3350</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,sentinel_2:3:2407,horseArcher_2:3:1203,sentinel_2:3:2407,crossbowman_2:3:2407,ballista_2:3:1203,crossbowman_2:3:2407</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,lancer_2:3:1210,ranger_2:3:2421,lancer_2:3:1210,catapult_2:3:1210,swordsman_2:3:2421,catapult_2:3:1210</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,meatWagon:3:1704,skeletonWarrior:3:3409,meatWagon:3:1704,deathKnight:3:1704,skeletonArcher:3:3409,deathKnight:3:1704</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,ranger_2:3:2449,catapult_2:3:1224,ranger_2:3:2449,swordsman_2:3:2449,lancer_2:3:1224,swordsman_2:3:2449</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,swordsman_2:3:2463,lancer_2:3:1231,swordsman_2:3:2463,ranger_2:3:2463,catapult_2:3:1231,ranger_2:3:2463</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,deathKnight:3:1734,skeletonArcher:3:3468,deathKnight:3:1734,meatWagon:3:1734,skeletonWarrior:3:3468,meatWagon:3:1734</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,ballista_2:3:1245,swordsman_2:3:2491,ballista_2:3:1245,lancer_2:3:1245,ranger_2:3:2491,lancer_2:3:1245</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,crossbowman_2:3:2505,catapult_2:3:1252,crossbowman_2:3:2505,swordsman_2:3:2505,lancer_2:3:1252,swordsman_2:3:2505</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,skeletonWarrior:3:3527,deathKnight:3:1763,skeletonWarrior:3:3527,skeletonArcher:3:3527,meatWagon:3:1763,skeletonArcher:3:3527</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,horseArcher_2:3:1267,crossbowman_2:3:2534,horseArcher_2:3:1267,catapult_2:3:1267,swordsman_2:3:2534,catapult_2:3:1267</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,ballista_2:3:1274,sentinel_2:3:2548,ballista_2:3:1274,lancer_2:3:1274,ranger_2:3:2548,lancer_2:3:1274</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,skeletonArcher:3:3587,meatWagon:3:1793,skeletonArcher:3:3587,skeletonWarrior:3:3587,deathKnight:3:1793,skeletonWarrior:3:3587</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,sentinel_2:3:2576,horseArcher_2:3:1288,sentinel_2:3:2576,ranger_2:3:2576,catapult_2:3:1288,ranger_2:3:2576</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,horseArcher_2:3:1295,crossbowman_2:3:2591,horseArcher_2:3:1295,ballista_2:3:1295,swordsman_2:3:2591,ballista_2:3:1295</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,meatWagon:3:1823,skeletonWarrior:3:3647,meatWagon:3:1823,deathKnight:3:1823,skeletonArcher:3:3647,deathKnight:3:1823</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,crossbowman_2:3:2620,ballista_2:3:1310,crossbowman_2:3:2620,sentinel_2:3:2620,lancer_2:3:1310,sentinel_2:3:2620</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,sentinel_2:3:2634,horseArcher_2:3:1317,sentinel_2:3:2634,crossbowman_2:3:2634,catapult_2:3:1317,crossbowman_2:3:2634</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,deathKnight:3:1854,skeletonArcher:3:3708,deathKnight:3:1854,meatWagon:3:1854,skeletonWarrior:3:3708,meatWagon:3:1854</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,ballista_2:3:1331,sentinel_2:3:2663,ballista_2:3:1331,horseArcher_2:3:1331,crossbowman_2:3:2663,horseArcher_2:3:1331</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,crossbowman_2:3:2678,ballista_2:3:1339,crossbowman_2:3:2678,sentinel_2:3:2678,horseArcher_2:3:1339,sentinel_2:3:2678</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,skeletonWarrior:3:3770,deathKnight:3:1885,skeletonWarrior:3:3770,skeletonArcher:3:3770,meatWagon:3:1885,skeletonArcher:3:3770</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,lancer_2:3:1353,ranger_2:3:2707,lancer_2:3:1353,catapult_2:3:1353,swordsman_2:3:2707,catapult_2:3:1353</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,catapult_2:3:1361,swordsman_2:3:2722,catapult_2:3:1361,lancer_2:3:1361,ranger_2:3:2722,lancer_2:3:1361</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,skeletonArcher:3:3831,meatWagon:3:1915,skeletonArcher:3:3831,skeletonWarrior:3:3831,deathKnight:3:1915,skeletonWarrior:3:3831</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,swordsman_2:3:2752,lancer_2:3:1376,swordsman_2:3:2752,ranger_2:3:2752,catapult_2:3:1376,ranger_2:3:2752</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,horseArcher_2:3:1383,ranger_2:3:2767,horseArcher_2:3:1383,catapult_2:3:1383,swordsman_2:3:2767,catapult_2:3:1383</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,meatWagon:3:1947,skeletonWarrior:3:3894,meatWagon:3:1947,deathKnight:3:1947,skeletonArcher:3:3894,deathKnight:3:1947</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,crossbowman_2:3:2796,catapult_2:3:1398,crossbowman_2:3:2796,swordsman_2:3:2796,lancer_2:3:1398,swordsman_2:3:2796</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,sentinel_2:3:2811,lancer_2:3:1405,sentinel_2:3:2811,ranger_2:3:2811,catapult_2:3:1405,ranger_2:3:2811</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,deathKnight:3:1978,skeletonArcher:3:3957,deathKnight:3:1978,meatWagon:3:1978,skeletonWarrior:3:3957,meatWagon:3:1978</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,ballista_2:3:1420,sentinel_2:3:2841,ballista_2:3:1420,lancer_2:3:1420,ranger_2:3:2841,lancer_2:3:1420</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,crossbowman_2:3:2857,ballista_2:3:1428,crossbowman_2:3:2857,swordsman_2:3:2857,lancer_2:3:1428,swordsman_2:3:2857</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,skeletonWarrior:3:4020,deathKnight:3:2010,skeletonWarrior:3:4020,skeletonArcher:3:4020,meatWagon:3:2010,skeletonArcher:3:4020</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,horseArcher_2:3:1443,crossbowman_2:3:2887,horseArcher_2:3:1443,ballista_2:3:1443,swordsman_2:3:2887,ballista_2:3:1443</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,ballista_2:3:1451,sentinel_2:3:2902,ballista_2:3:1451,horseArcher_2:3:1451,ranger_2:3:2902,horseArcher_2:3:1451</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,skeletonArcher:3:4084,meatWagon:3:2042,skeletonArcher:3:4084,skeletonWarrior:3:4084,deathKnight:3:2042,skeletonWarrior:3:4084</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,sentinel_2:3:2933,horseArcher_2:3:1466,sentinel_2:3:2933,crossbowman_2:3:2933,catapult_2:3:1466,crossbowman_2:3:2933</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,horseArcher_2:3:1474,crossbowman_2:3:2948,horseArcher_2:3:1474,ballista_2:3:1474,sentinel_2:3:2948,ballista_2:3:1474</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,meatWagon:3:2074,skeletonWarrior:3:4149,meatWagon:3:2074,deathKnight:3:2074,skeletonArcher:3:4149,deathKnight:3:2074</t>
-  </si>
-  <si>
-    <t>blueDragon:3:30,crossbowman_3:1:2979,ballista_3:1:1489,crossbowman_3:1:2979,sentinel_3:1:2979,horseArcher_3:1:1489,sentinel_3:1:2979</t>
-  </si>
-  <si>
-    <t>blueDragon:3:30,sentinel_3:1:2994,horseArcher_3:1:1497,sentinel_3:1:2994,crossbowman_3:1:2994,ballista_3:1:1497,crossbowman_3:1:2994</t>
-  </si>
-  <si>
-    <t>blueDragon:3:30,deathKnight:3:2407,skeletonArcher:3:4815,deathKnight:3:2407,meatWagon:3:2407,skeletonWarrior:3:4815,meatWagon:3:2407</t>
-  </si>
-  <si>
-    <t>blueDragon:3:30,catapult_3:1:1512,swordsman_3:1:3025,catapult_3:1:1512,lancer_3:1:1512,ranger_3:1:3025,lancer_3:1:1512</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,ranger_3:1:3041,catapult_3:1:1520,ranger_3:1:3041,swordsman_3:1:3041,lancer_3:1:1520,swordsman_3:1:3041</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,skeletonWarrior:3:4890,deathKnight:3:2445,skeletonWarrior:3:4890,skeletonArcher:3:4890,meatWagon:3:2445,skeletonArcher:3:4890</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,horseArcher_3:1:1536,ranger_3:1:3072,horseArcher_3:1:1536,catapult_3:1:1536,swordsman_3:1:3072,catapult_3:1:1536</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,ballista_3:1:1544,swordsman_3:1:3088,ballista_3:1:1544,lancer_3:1:1544,ranger_3:1:3088,lancer_3:1:1544</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,skeletonArcher:3:4965,meatWagon:3:2482,skeletonArcher:3:4965,skeletonWarrior:3:4965,deathKnight:3:2482,skeletonWarrior:3:4965</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,sentinel_3:1:3119,lancer_3:1:1559,sentinel_3:1:3119,ranger_3:1:3119,catapult_3:1:1559,ranger_3:1:3119</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,horseArcher_3:1:1567,crossbowman_3:1:3135,horseArcher_3:1:1567,catapult_3:1:1567,swordsman_3:1:3135,catapult_3:1:1567</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,meatWagon:3:2520,skeletonWarrior:3:5041,meatWagon:3:2520,deathKnight:3:2520,skeletonArcher:3:5041,deathKnight:3:2520</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,crossbowman_3:1:3167,ballista_3:1:1583,crossbowman_3:1:3167,swordsman_3:1:3167,lancer_3:1:1583,swordsman_3:1:3167</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,sentinel_3:1:3183,horseArcher_3:1:1591,sentinel_3:1:3183,ranger_3:1:3183,catapult_3:1:1591,ranger_3:1:3183</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,deathKnight:3:2559,skeletonArcher:3:5118,deathKnight:3:2559,meatWagon:3:2559,skeletonWarrior:3:5118,meatWagon:3:2559</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,ballista_3:1:1607,sentinel_3:1:3215,ballista_3:1:1607,horseArcher_3:1:1607,ranger_3:1:3215,horseArcher_3:1:1607</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,crossbowman_3:1:3231,ballista_3:1:1615,crossbowman_3:1:3231,sentinel_3:1:3231,lancer_3:1:1615,sentinel_3:1:3231</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,skeletonWarrior:3:5195,deathKnight:3:2597,skeletonWarrior:3:5195,skeletonArcher:3:5195,meatWagon:3:2597,skeletonArcher:3:5195</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,horseArcher_3:1:1631,crossbowman_3:1:3263,horseArcher_3:1:1631,ballista_3:1:1631,sentinel_3:1:3263,ballista_3:1:1631</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,ballista_3:1:1639,sentinel_3:1:3279,ballista_3:1:1639,horseArcher_3:1:1639,crossbowman_3:1:3279,horseArcher_3:1:1639</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,skeletonArcher:3:5273,meatWagon:3:2636,skeletonArcher:3:5273,skeletonWarrior:3:5273,deathKnight:3:2636,skeletonWarrior:3:5273</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,sentinel_3:1:3312,horseArcher_3:1:1656,sentinel_3:1:3312,crossbowman_3:1:3312,ballista_3:1:1656,crossbowman_3:1:3312</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,lancer_3:1:1664,ranger_3:1:3328,lancer_3:1:1664,catapult_3:1:1664,swordsman_3:1:3328,catapult_3:1:1664</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,meatWagon:3:2675,skeletonWarrior:3:5351,meatWagon:3:2675,deathKnight:3:2675,skeletonArcher:3:5351,deathKnight:3:2675</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,ranger_3:1:3361,catapult_3:1:1680,ranger_3:1:3361,swordsman_3:1:3361,lancer_3:1:1680,swordsman_3:1:3361</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,swordsman_3:1:3377,lancer_3:1:1688,swordsman_3:1:3377,ranger_3:1:3377,catapult_3:1:1688,ranger_3:1:3377</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,deathKnight:3:2715,skeletonArcher:3:5430,deathKnight:3:2715,meatWagon:3:2715,skeletonWarrior:3:5430,meatWagon:3:2715</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,ballista_3:1:1705,swordsman_3:1:3410,ballista_3:1:1705,lancer_3:1:1705,ranger_3:1:3410,lancer_3:1:1705</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,crossbowman_3:1:3427,catapult_3:1:1713,crossbowman_3:1:3427,swordsman_3:1:3427,lancer_3:1:1713,swordsman_3:1:3427</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,skeletonWarrior:3:5509,deathKnight:3:2754,skeletonWarrior:3:5509,skeletonArcher:3:5509,meatWagon:3:2754,skeletonArcher:3:5509</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,horseArcher_3:1:1730,crossbowman_3:1:3460,horseArcher_3:1:1730,catapult_3:1:1730,swordsman_3:1:3460,catapult_3:1:1730</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,ballista_3:1:1738,sentinel_3:1:3477,ballista_3:1:1738,lancer_3:1:1738,ranger_3:1:3477,lancer_3:1:1738</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,skeletonArcher:3:5589,meatWagon:3:2794,skeletonArcher:3:5589,skeletonWarrior:3:5589,deathKnight:3:2794,skeletonWarrior:3:5589</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,sentinel_3:1:3510,horseArcher_3:1:1755,sentinel_3:1:3510,ranger_3:1:3510,catapult_3:1:1755,ranger_3:1:3510</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,horseArcher_3:1:1763,crossbowman_3:1:3527,horseArcher_3:1:1763,ballista_3:1:1763,swordsman_3:1:3527,ballista_3:1:1763</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,meatWagon:3:2835,skeletonWarrior:3:5670,meatWagon:3:2835,deathKnight:3:2835,skeletonArcher:3:5670,deathKnight:3:2835</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,crossbowman_3:1:3561,ballista_3:1:1780,crossbowman_3:1:3561,sentinel_3:1:3561,lancer_3:1:1780,sentinel_3:1:3561</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,sentinel_3:1:3577,horseArcher_3:1:1788,sentinel_3:1:3577,crossbowman_3:1:3577,catapult_3:1:1788,crossbowman_3:1:3577</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,deathKnight:3:2875,skeletonArcher:3:5751,deathKnight:3:2875,meatWagon:3:2875,skeletonWarrior:3:5751,meatWagon:3:2875</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,ballista_3:1:1805,sentinel_3:1:3611,ballista_3:1:1805,horseArcher_3:1:1805,crossbowman_3:1:3611,horseArcher_3:1:1805</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,crossbowman_3:1:3628,ballista_3:1:1814,crossbowman_3:1:3628,sentinel_3:1:3628,horseArcher_3:1:1814,sentinel_3:1:3628</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,skeletonWarrior:3:5832,deathKnight:3:2916,skeletonWarrior:3:5832,skeletonArcher:3:5832,meatWagon:3:2916,skeletonArcher:3:5832</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,lancer_3:2:1831,ranger_3:2:3663,lancer_3:2:1831,catapult_3:2:1831,swordsman_3:2:3663,catapult_3:2:1831</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,catapult_3:2:1840,swordsman_3:2:3680,catapult_3:2:1840,lancer_3:2:1840,ranger_3:2:3680,lancer_3:2:1840</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,skeletonArcher:3:6654,meatWagon:3:3327,skeletonArcher:3:6654,skeletonWarrior:3:6654,deathKnight:3:3327,skeletonWarrior:3:6654</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,swordsman_3:2:3714,lancer_3:2:1857,swordsman_3:2:3714,ranger_3:2:3714,catapult_3:2:1857,ranger_3:2:3714</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,horseArcher_3:2:1865,ranger_3:2:3731,horseArcher_3:2:1865,catapult_3:2:1865,swordsman_3:2:3731,catapult_3:2:1865</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,meatWagon:3:3373,skeletonWarrior:3:6747,meatWagon:3:3373,deathKnight:3:3373,skeletonArcher:3:6747,deathKnight:3:3373</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,crossbowman_3:2:3766,catapult_3:2:1883,crossbowman_3:2:3766,swordsman_3:2:3766,lancer_3:2:1883,swordsman_3:2:3766</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,sentinel_3:2:3783,lancer_3:2:1891,sentinel_3:2:3783,ranger_3:2:3783,catapult_3:2:1891,ranger_3:2:3783</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,deathKnight:3:3420,skeletonArcher:3:6841,deathKnight:3:3420,meatWagon:3:3420,skeletonWarrior:3:6841,meatWagon:3:3420</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,ballista_3:2:1909,sentinel_3:2:3818,ballista_3:2:1909,lancer_3:2:1909,ranger_3:2:3818,lancer_3:2:1909</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,crossbowman_3:2:3836,ballista_3:2:1918,crossbowman_3:2:3836,swordsman_3:2:3836,lancer_3:2:1918,swordsman_3:2:3836</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,skeletonWarrior:3:6936,deathKnight:3:3468,skeletonWarrior:3:6936,skeletonArcher:3:6936,meatWagon:3:3468,skeletonArcher:3:6936</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,horseArcher_3:2:1935,crossbowman_3:2:3871,horseArcher_3:2:1935,ballista_3:2:1935,swordsman_3:2:3871,ballista_3:2:1935</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,ballista_3:2:1944,sentinel_3:2:3888,ballista_3:2:1944,horseArcher_3:2:1944,ranger_3:2:3888,horseArcher_3:2:1944</t>
-  </si>
-  <si>
-    <t>blueDragon:4:35,skeletonArcher:3:7031,meatWagon:3:3515,skeletonArcher:3:7031,skeletonWarrior:3:7031,deathKnight:3:3515,skeletonWarrior:3:7031</t>
-  </si>
-  <si>
-    <t>blueDragon:4:35,sentinel_3:2:3924,horseArcher_3:2:1962,sentinel_3:2:3924,crossbowman_3:2:3924,catapult_3:2:1962,crossbowman_3:2:3924</t>
-  </si>
-  <si>
-    <t>blueDragon:4:35,horseArcher_3:2:1971,crossbowman_3:2:3942,horseArcher_3:2:1971,ballista_3:2:1971,sentinel_3:2:3942,ballista_3:2:1971</t>
-  </si>
-  <si>
-    <t>blueDragon:4:35,meatWagon:3:3563,skeletonWarrior:3:7126,meatWagon:3:3563,deathKnight:3:3563,skeletonArcher:3:7126,deathKnight:3:3563</t>
-  </si>
-  <si>
-    <t>blueDragon:4:35,crossbowman_3:2:3977,ballista_3:2:1988,crossbowman_3:2:3977,sentinel_3:2:3977,horseArcher_3:2:1988,sentinel_3:2:3977</t>
-  </si>
-  <si>
-    <t>blueDragon:4:35,sentinel_3:2:3995,horseArcher_3:2:1997,sentinel_3:2:3995,crossbowman_3:2:3995,ballista_3:2:1997,crossbowman_3:2:3995</t>
-  </si>
-  <si>
-    <t>blueDragon:4:35,deathKnight:3:3611,skeletonArcher:3:7223,deathKnight:3:3611,meatWagon:3:3611,skeletonWarrior:3:7223,meatWagon:3:3611</t>
-  </si>
-  <si>
-    <t>greenDragon:4:35,catapult_3:2:2015,swordsman_3:2:4031,catapult_3:2:2015,lancer_3:2:2015,ranger_3:2:4031,lancer_3:2:2015</t>
-  </si>
-  <si>
-    <t>greenDragon:4:35,ranger_3:2:4049,catapult_3:2:2024,ranger_3:2:4049,swordsman_3:2:4049,lancer_3:2:2024,swordsman_3:2:4049</t>
-  </si>
-  <si>
-    <t>greenDragon:4:35,skeletonWarrior:3:7320,deathKnight:3:3660,skeletonWarrior:3:7320,skeletonArcher:3:7320,meatWagon:3:3660,skeletonArcher:3:7320</t>
-  </si>
-  <si>
-    <t>greenDragon:4:35,horseArcher_3:2:2042,ranger_3:2:4085,horseArcher_3:2:2042,catapult_3:2:2042,swordsman_3:2:4085,catapult_3:2:2042</t>
-  </si>
-  <si>
-    <t>greenDragon:4:35,ballista_3:2:2051,swordsman_3:2:4103,ballista_3:2:2051,lancer_3:2:2051,ranger_3:2:4103,lancer_3:2:2051</t>
-  </si>
-  <si>
-    <t>greenDragon:4:35,skeletonArcher:3:7418,meatWagon:3:3709,skeletonArcher:3:7418,skeletonWarrior:3:7418,deathKnight:3:3709,skeletonWarrior:3:7418</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,sentinel_3:2:4139,lancer_3:2:2069,sentinel_3:2:4139,ranger_3:2:4139,catapult_3:2:2069,ranger_3:2:4139</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,horseArcher_3:2:2079,crossbowman_3:2:4158,horseArcher_3:2:2079,catapult_3:2:2079,swordsman_3:2:4158,catapult_3:2:2079</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,meatWagon:3:3758,skeletonWarrior:3:7516,meatWagon:3:3758,deathKnight:3:3758,skeletonArcher:3:7516,deathKnight:3:3758</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,crossbowman_3:2:4194,ballista_3:2:2097,crossbowman_3:2:4194,swordsman_3:2:4194,lancer_3:2:2097,swordsman_3:2:4194</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,sentinel_3:2:4212,horseArcher_3:2:2106,sentinel_3:2:4212,ranger_3:2:4212,catapult_3:2:2106,ranger_3:2:4212</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,deathKnight:3:3807,skeletonArcher:3:7615,deathKnight:3:3807,meatWagon:3:3807,skeletonWarrior:3:7615,meatWagon:3:3807</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,ballista_3:2:2124,sentinel_3:2:4249,ballista_3:2:2124,horseArcher_3:2:2124,ranger_3:2:4249,horseArcher_3:2:2124</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,crossbowman_3:2:4268,ballista_3:2:2134,crossbowman_3:2:4268,sentinel_3:2:4268,lancer_3:2:2134,sentinel_3:2:4268</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,skeletonWarrior:3:7715,deathKnight:3:3857,skeletonWarrior:3:7715,skeletonArcher:3:7715,meatWagon:3:3857,skeletonArcher:3:7715</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,horseArcher_3:2:2152,crossbowman_3:2:4305,horseArcher_3:2:2152,ballista_3:2:2152,sentinel_3:2:4305,ballista_3:2:2152</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,ballista_3:2:2161,sentinel_3:2:4323,ballista_3:2:2161,horseArcher_3:2:2161,crossbowman_3:2:4323,horseArcher_3:2:2161</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,skeletonArcher:3:7815,meatWagon:3:3907,skeletonArcher:3:7815,skeletonWarrior:3:7815,deathKnight:3:3907,skeletonWarrior:3:7815</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,sentinel_3:2:4361,horseArcher_3:2:2180,sentinel_3:2:4361,crossbowman_3:2:4361,ballista_3:2:2180,crossbowman_3:2:4361</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,lancer_3:2:2189,ranger_3:2:4379,lancer_3:2:2189,catapult_3:2:2189,swordsman_3:2:4379,catapult_3:2:2189</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,meatWagon:3:3958,skeletonWarrior:3:7916,meatWagon:3:3958,deathKnight:3:3958,skeletonArcher:3:7916,deathKnight:3:3958</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,ranger_3:3:4417,catapult_3:3:2208,ranger_3:3:4417,swordsman_3:3:4417,lancer_3:3:2208,swordsman_3:3:4417</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,swordsman_3:3:4436,lancer_3:3:2218,swordsman_3:3:4436,ranger_3:3:4436,catapult_3:3:2218,ranger_3:3:4436</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,deathKnight:3:4454,skeletonArcher:3:8909,deathKnight:3:4454,meatWagon:3:4454,skeletonWarrior:3:8909,meatWagon:3:4454</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,ballista_3:3:2236,swordsman_3:3:4473,ballista_3:3:2236,lancer_3:3:2236,ranger_3:3:4473,lancer_3:3:2236</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,crossbowman_3:3:4492,catapult_3:3:2246,crossbowman_3:3:4492,swordsman_3:3:4492,lancer_3:3:2246,swordsman_3:3:4492</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,skeletonWarrior:3:9022,deathKnight:3:4511,skeletonWarrior:3:9022,skeletonArcher:3:9022,meatWagon:3:4511,skeletonArcher:3:9022</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,horseArcher_3:3:2265,crossbowman_3:3:4530,horseArcher_3:3:2265,catapult_3:3:2265,swordsman_3:3:4530,catapult_3:3:2265</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,ballista_3:3:2274,sentinel_3:3:4549,ballista_3:3:2274,lancer_3:3:2274,ranger_3:3:4549,lancer_3:3:2274</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,skeletonArcher:3:9137,meatWagon:3:4568,skeletonArcher:3:9137,skeletonWarrior:3:9137,deathKnight:3:4568,skeletonWarrior:3:9137</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,sentinel_3:3:4588,horseArcher_3:3:2294,sentinel_3:3:4588,ranger_3:3:4588,catapult_3:3:2294,ranger_3:3:4588</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,horseArcher_3:3:2303,crossbowman_3:3:4607,horseArcher_3:3:2303,ballista_3:3:2303,swordsman_3:3:4607,ballista_3:3:2303</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,meatWagon:3:4626,skeletonWarrior:3:9252,meatWagon:3:4626,deathKnight:3:4626,skeletonArcher:3:9252,deathKnight:3:4626</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,crossbowman_3:3:4645,ballista_3:3:2322,crossbowman_3:3:4645,sentinel_3:3:4645,lancer_3:3:2322,sentinel_3:3:4645</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,sentinel_3:3:4665,horseArcher_3:3:2332,sentinel_3:3:4665,crossbowman_3:3:4665,catapult_3:3:2332,crossbowman_3:3:4665</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,deathKnight:3:4683,skeletonArcher:3:9367,deathKnight:3:4683,meatWagon:3:4683,skeletonWarrior:3:9367,meatWagon:3:4683</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,ballista_3:3:2351,sentinel_3:3:4703,ballista_3:3:2351,horseArcher_3:3:2351,crossbowman_3:3:4703,horseArcher_3:3:2351</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,crossbowman_3:3:4723,ballista_3:3:2361,crossbowman_3:3:4723,sentinel_3:3:4723,horseArcher_3:3:2361,sentinel_3:3:4723</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,skeletonWarrior:3:9484,deathKnight:3:4742,skeletonWarrior:3:9484,skeletonArcher:3:9484,meatWagon:3:4742,skeletonArcher:3:9484</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,lancer_3:3:2381,ranger_3:3:4762,lancer_3:3:2381,catapult_3:3:2381,swordsman_3:3:4762,catapult_3:3:2381</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,catapult_3:3:2390,swordsman_3:3:4781,catapult_3:3:2390,lancer_3:3:2390,ranger_3:3:4781,lancer_3:3:2390</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,skeletonArcher:3:9621,meatWagon:3:4810,skeletonArcher:3:9621,skeletonWarrior:3:9621,deathKnight:3:4810,skeletonWarrior:3:9621</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,swordsman_3:3:4820,lancer_3:3:2410,swordsman_3:3:4820,ranger_3:3:4820,catapult_3:3:2410,ranger_3:3:4820</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,horseArcher_3:3:2427,ranger_3:3:4855,horseArcher_3:3:2427,catapult_3:3:2427,swordsman_3:3:4855,catapult_3:3:2427</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,meatWagon:3:4888,skeletonWarrior:3:9777,meatWagon:3:4888,deathKnight:3:4888,skeletonArcher:3:9777,deathKnight:3:4888</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,crossbowman_3:3:4923,catapult_3:3:2461,crossbowman_3:3:4923,swordsman_3:3:4923,lancer_3:3:2461,swordsman_3:3:4923</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,sentinel_3:3:4958,lancer_3:3:2479,sentinel_3:3:4958,ranger_3:3:4958,catapult_3:3:2479,ranger_3:3:4958</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,deathKnight:3:4992,skeletonArcher:3:9984,deathKnight:3:4992,meatWagon:3:4992,skeletonWarrior:3:9984,meatWagon:3:4992</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,ballista_3:3:2513,sentinel_3:3:5027,ballista_3:3:2513,lancer_3:3:2513,ranger_3:3:5027,lancer_3:3:2513</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,crossbowman_3:3:5062,ballista_3:3:2531,crossbowman_3:3:5062,swordsman_3:3:5062,lancer_3:3:2531,swordsman_3:3:5062</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,skeletonWarrior:3:10192,deathKnight:3:5096,skeletonWarrior:3:10192,skeletonArcher:3:10192,meatWagon:3:5096,skeletonArcher:3:10192</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,horseArcher_3:3:2565,crossbowman_3:3:5131,horseArcher_3:3:2565,ballista_3:3:2565,swordsman_3:3:5131,ballista_3:3:2565</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,ballista_3:3:2583,sentinel_3:3:5166,ballista_3:3:2583,horseArcher_3:3:2583,ranger_3:3:5166,horseArcher_3:3:2583</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,skeletonArcher:3:10403,meatWagon:3:5201,skeletonArcher:3:10403,skeletonWarrior:3:10403,deathKnight:3:5201,skeletonWarrior:3:10403</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,sentinel_3:3:5237,horseArcher_3:3:2618,sentinel_3:3:5237,crossbowman_3:3:5237,catapult_3:3:2618,crossbowman_3:3:5237</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,horseArcher_3:3:2636,crossbowman_3:3:5272,horseArcher_3:3:2636,ballista_3:3:2636,sentinel_3:3:5272,ballista_3:3:2636</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,meatWagon:3:5307,skeletonWarrior:3:10615,meatWagon:3:5307,deathKnight:3:5307,skeletonArcher:3:10615,deathKnight:3:5307</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,crossbowman_3:3:5343,ballista_3:3:2671,crossbowman_3:3:5343,sentinel_3:3:5343,horseArcher_3:3:2671,sentinel_3:3:5343</t>
-  </si>
-  <si>
-    <t>greenDragon:4:40,sentinel_3:3:5379,horseArcher_3:3:2689,sentinel_3:3:5379,crossbowman_3:3:5379,ballista_3:3:2689,crossbowman_3:3:5379</t>
-  </si>
-  <si>
-    <t>greenDragon:4:40,deathKnight:3:5414,skeletonArcher:3:10829,deathKnight:3:5414,meatWagon:3:5414,skeletonWarrior:3:10829,meatWagon:3:5414</t>
-  </si>
-  <si>
-    <t>greenDragon:4:40,catapult_3:3:2725,swordsman_3:3:5450,catapult_3:3:2725,lancer_3:3:2725,ranger_3:3:5450,lancer_3:3:2725</t>
-  </si>
-  <si>
-    <t>greenDragon:4:40,ranger_3:3:5486,catapult_3:3:2743,ranger_3:3:5486,swordsman_3:3:5486,lancer_3:3:2743,swordsman_3:3:5486</t>
-  </si>
-  <si>
-    <t>greenDragon:4:40,skeletonWarrior:3:11045,deathKnight:3:5522,skeletonWarrior:3:11045,skeletonArcher:3:11045,meatWagon:3:5522,skeletonArcher:3:11045</t>
-  </si>
-  <si>
-    <t>blueDragon:1:1,swordsman_1:1:5</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon:1:1,swordsman_1:1:8,ranger_1:1:8</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon:1:1,skeletonWarrior:3:4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <t>blueDragon:1:1,lancer_1:1:2</t>
+  </si>
+  <si>
+    <t>blueDragon:1:1,catapult_1:1:4,swordsman_1:1:8</t>
+  </si>
+  <si>
+    <t>blueDragon:1:1,skeletonArcher:3:4</t>
+  </si>
+  <si>
+    <t>blueDragon:1:1,swordsman_1:1:12,lancer_1:1:6,swordsman_1:1:12</t>
+  </si>
+  <si>
+    <t>blueDragon:1:1,horseArcher_1:1:9,ranger_1:1:18,horseArcher_1:1:9</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,meatWagon:3:5,skeletonWarrior:3:10,meatWagon:3:5</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,crossbowman_1:1:30,catapult_1:1:15,crossbowman_1:1:30</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,sentinel_1:1:36,lancer_1:1:18,sentinel_1:1:36</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,deathKnight:3:8,skeletonArcher:3:17,deathKnight:3:8</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,ballista_1:1:24,sentinel_1:1:48,ballista_1:1:24</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,crossbowman_1:1:54,ballista_1:1:27,crossbowman_1:1:54</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,skeletonWarrior:3:24,deathKnight:3:12,skeletonWarrior:3:24</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,horseArcher_1:1:33,crossbowman_1:1:66,horseArcher_1:1:33</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,ballista_1:1:36,sentinel_1:1:72,ballista_1:1:36</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,skeletonArcher:3:32,meatWagon:3:16,skeletonArcher:3:32</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,sentinel_1:1:84,horseArcher_1:1:42,sentinel_1:1:84</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,horseArcher_1:1:45,crossbowman_1:1:90,horseArcher_1:1:45</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,meatWagon:3:19,skeletonWarrior:3:39,meatWagon:3:19</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,crossbowman_1:1:102,ballista_1:1:51,crossbowman_1:1:102</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,sentinel_1:1:108,horseArcher_1:1:54,sentinel_1:1:108</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,deathKnight:3:23,skeletonArcher:3:46,deathKnight:3:23</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,catapult_1:1:60,swordsman_1:1:120,catapult_1:1:60,lancer_1:1:45</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,ranger_1:1:126,catapult_1:1:63,ranger_1:1:126,swordsman_1:1:95</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,skeletonWarrior:3:53,deathKnight:3:26,skeletonWarrior:3:53,skeletonArcher:3:40</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,horseArcher_1:1:69,ranger_1:1:138,horseArcher_1:1:69,catapult_1:1:52</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,ballista_1:1:72,swordsman_1:1:144,ballista_1:1:72,lancer_1:1:54</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,skeletonArcher:3:60,meatWagon:3:30,skeletonArcher:3:60,skeletonWarrior:3:45</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,sentinel_1:1:156,lancer_1:1:78,sentinel_1:1:156,ranger_1:1:117</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,horseArcher_1:1:81,crossbowman_1:1:162,horseArcher_1:1:81,catapult_1:1:61</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,meatWagon:3:34,skeletonWarrior:3:68,meatWagon:3:34,deathKnight:3:25</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,crossbowman_1:1:174,ballista_1:1:87,crossbowman_1:1:174,swordsman_1:1:131</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,sentinel_1:1:180,horseArcher_1:1:90,sentinel_1:1:180,ranger_1:1:135</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,deathKnight:3:37,skeletonArcher:3:75,deathKnight:3:37,meatWagon:3:28</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,ballista_1:1:96,sentinel_1:1:192,ballista_1:1:96,horseArcher_1:1:72</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,crossbowman_1:1:198,ballista_1:1:99,crossbowman_1:1:198,sentinel_1:1:149</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,skeletonWarrior:3:82,deathKnight:3:41,skeletonWarrior:3:82,skeletonArcher:3:62</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,horseArcher_1:1:105,crossbowman_1:1:210,horseArcher_1:1:105,ballista_1:1:79</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,ballista_1:1:108,sentinel_1:1:216,ballista_1:1:108,horseArcher_1:1:81</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,skeletonArcher:3:89,meatWagon:3:44,skeletonArcher:3:89,skeletonWarrior:3:67</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,sentinel_1:1:228,horseArcher_1:1:114,sentinel_1:1:228,crossbowman_1:1:171</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,lancer_1:1:117,ranger_1:1:234,lancer_1:1:117,catapult_1:1:88</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,meatWagon:3:48,skeletonWarrior:3:96,meatWagon:3:48,deathKnight:3:36</t>
+  </si>
+  <si>
+    <t>greenDragon:1:4,ranger_1:1:246,catapult_1:1:123,ranger_1:1:246,swordsman_1:1:185,lancer_1:1:92</t>
+  </si>
+  <si>
+    <t>greenDragon:1:4,swordsman_1:1:252,lancer_1:1:126,swordsman_1:1:252,ranger_1:1:189,catapult_1:1:94</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,deathKnight:3:52,skeletonArcher:3:104,deathKnight:3:52,meatWagon:3:39,skeletonWarrior:3:78</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,ballista_1:1:132,swordsman_1:1:264,ballista_1:1:132,lancer_1:1:99,ranger_1:1:198</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,crossbowman_1:1:270,catapult_1:1:135,crossbowman_1:1:270,swordsman_1:1:203,lancer_1:1:101</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,skeletonWarrior:3:111,deathKnight:3:55,skeletonWarrior:3:111,skeletonArcher:3:83,meatWagon:3:41</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,horseArcher_1:1:141,crossbowman_1:1:282,horseArcher_1:1:141,catapult_1:1:106,swordsman_1:1:212</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,ballista_1:1:144,sentinel_1:1:288,ballista_1:1:144,lancer_1:1:108,ranger_1:1:216</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,skeletonArcher:3:118,meatWagon:3:59,skeletonArcher:3:118,skeletonWarrior:3:89,deathKnight:3:44</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,sentinel_1:1:300,horseArcher_1:1:150,sentinel_1:1:300,ranger_1:1:225,catapult_1:1:112</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,horseArcher_1:1:153,crossbowman_1:1:306,horseArcher_1:1:153,ballista_1:1:115,swordsman_1:1:230</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,meatWagon:3:62,skeletonWarrior:3:125,meatWagon:3:62,deathKnight:3:47,skeletonArcher:3:94</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,crossbowman_1:1:318,ballista_1:1:159,crossbowman_1:1:318,sentinel_1:1:239,lancer_1:1:119</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,sentinel_1:1:324,horseArcher_1:1:162,sentinel_1:1:324,crossbowman_1:1:243,catapult_1:1:121</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,deathKnight:3:66,skeletonArcher:3:132,deathKnight:3:66,meatWagon:3:49,skeletonWarrior:3:99</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,ballista_1:1:168,sentinel_1:1:336,ballista_1:1:168,horseArcher_1:1:126,crossbowman_1:1:252</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,crossbowman_1:1:342,ballista_1:1:171,crossbowman_1:1:342,sentinel_1:1:257,horseArcher_1:1:128</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,skeletonWarrior:3:140,deathKnight:3:70,skeletonWarrior:3:140,skeletonArcher:3:105,meatWagon:3:52</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,lancer_1:1:177,ranger_1:1:354,lancer_1:1:177,catapult_1:1:133,swordsman_1:1:266</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,catapult_1:1:180,swordsman_1:1:360,catapult_1:1:180,lancer_1:1:135,ranger_1:1:270</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,skeletonArcher:3:147,meatWagon:3:73,skeletonArcher:3:147,skeletonWarrior:3:110,deathKnight:3:55</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,swordsman_1:2:372,lancer_1:2:186,swordsman_1:2:372,ranger_1:2:279,catapult_1:2:139,ranger_1:2:279</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,horseArcher_1:2:189,ranger_1:2:378,horseArcher_1:2:189,catapult_1:2:142,swordsman_1:2:284,catapult_1:2:142</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,meatWagon:3:115,skeletonWarrior:3:231,meatWagon:3:115,deathKnight:3:86,skeletonArcher:3:173,deathKnight:3:86</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,crossbowman_1:2:390,catapult_1:2:195,crossbowman_1:2:390,swordsman_1:2:293,lancer_1:2:146,swordsman_1:2:293</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,sentinel_1:2:396,lancer_1:2:198,sentinel_1:2:396,ranger_1:2:297,catapult_1:2:148,ranger_1:2:297</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,deathKnight:3:121,skeletonArcher:3:242,deathKnight:3:121,meatWagon:3:90,skeletonWarrior:3:181,meatWagon:3:90</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,ballista_1:2:204,sentinel_1:2:408,ballista_1:2:204,lancer_1:2:153,ranger_1:2:306,lancer_1:2:153</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,crossbowman_1:2:414,ballista_1:2:207,crossbowman_1:2:414,swordsman_1:2:311,lancer_1:2:155,swordsman_1:2:311</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,skeletonWarrior:3:252,deathKnight:3:126,skeletonWarrior:3:252,skeletonArcher:3:189,meatWagon:3:94,skeletonArcher:3:189</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,horseArcher_1:2:213,crossbowman_1:2:426,horseArcher_1:2:213,ballista_1:2:160,swordsman_1:2:320,ballista_1:2:160</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,ballista_1:2:216,sentinel_1:2:432,ballista_1:2:216,horseArcher_1:2:162,ranger_1:2:324,horseArcher_1:2:162</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,skeletonArcher:3:263,meatWagon:3:131,skeletonArcher:3:263,skeletonWarrior:3:198,deathKnight:3:99,skeletonWarrior:3:198</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,sentinel_1:2:444,horseArcher_1:2:222,sentinel_1:2:444,crossbowman_1:2:333,catapult_1:2:166,crossbowman_1:2:333</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,horseArcher_1:2:225,crossbowman_1:2:450,horseArcher_1:2:225,ballista_1:2:169,sentinel_1:2:338,ballista_1:2:169</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,meatWagon:3:137,skeletonWarrior:3:274,meatWagon:3:137,deathKnight:3:103,skeletonArcher:3:206,deathKnight:3:103</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,crossbowman_1:2:462,ballista_1:2:231,crossbowman_1:2:462,sentinel_1:2:347,horseArcher_1:2:173,sentinel_1:2:347</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,sentinel_1:2:468,horseArcher_1:2:234,sentinel_1:2:468,crossbowman_1:2:351,ballista_1:2:175,crossbowman_1:2:351</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,deathKnight:3:142,skeletonArcher:3:285,deathKnight:3:142,meatWagon:3:107,skeletonWarrior:3:214,meatWagon:3:107</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,catapult_1:2:240,swordsman_1:2:480,catapult_1:2:240,lancer_1:2:180,ranger_1:2:360,lancer_1:2:180</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,ranger_1:2:486,catapult_1:2:243,ranger_1:2:486,swordsman_1:2:365,lancer_1:2:182,swordsman_1:2:365</t>
+  </si>
+  <si>
+    <t>greenDragon:1:8,skeletonWarrior:3:296,deathKnight:3:148,skeletonWarrior:3:296,skeletonArcher:3:222,meatWagon:3:111,skeletonArcher:3:222</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,horseArcher_1:2:249,ranger_1:2:498,horseArcher_1:2:249,catapult_1:2:187,swordsman_1:2:374,catapult_1:2:187</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,ballista_1:2:252,swordsman_1:2:504,ballista_1:2:252,lancer_1:2:189,ranger_1:2:378,lancer_1:2:189</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,skeletonArcher:3:306,meatWagon:3:153,skeletonArcher:3:306,skeletonWarrior:3:230,deathKnight:3:115,skeletonWarrior:3:230</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,sentinel_1:2:516,lancer_1:2:258,sentinel_1:2:516,ranger_1:2:387,catapult_1:2:193,ranger_1:2:387</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,horseArcher_1:2:261,crossbowman_1:2:522,horseArcher_1:2:261,catapult_1:2:196,swordsman_1:2:392,catapult_1:2:196</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,meatWagon:3:158,skeletonWarrior:3:317,meatWagon:3:158,deathKnight:3:119,skeletonArcher:3:238,deathKnight:3:119</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,crossbowman_1:2:534,ballista_1:2:267,crossbowman_1:2:534,swordsman_1:2:401,lancer_1:2:200,swordsman_1:2:401</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,sentinel_1:2:540,horseArcher_1:2:270,sentinel_1:2:540,ranger_1:2:405,catapult_1:2:202,ranger_1:2:405</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,deathKnight:3:164,skeletonArcher:3:328,deathKnight:3:164,meatWagon:3:123,skeletonWarrior:3:246,meatWagon:3:123</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,ballista_1:2:276,sentinel_1:2:552,ballista_1:2:276,horseArcher_1:2:207,ranger_1:2:414,horseArcher_1:2:207</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,crossbowman_1:2:558,ballista_1:2:279,crossbowman_1:2:558,sentinel_1:2:419,lancer_1:2:209,sentinel_1:2:419</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,skeletonWarrior:3:339,deathKnight:3:169,skeletonWarrior:3:339,skeletonArcher:3:254,meatWagon:3:127,skeletonArcher:3:254</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,horseArcher_1:2:285,crossbowman_1:2:570,horseArcher_1:2:285,ballista_1:2:214,sentinel_1:2:428,ballista_1:2:214</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,ballista_1:2:288,sentinel_1:2:576,ballista_1:2:288,horseArcher_1:2:216,crossbowman_1:2:432,horseArcher_1:2:216</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,skeletonArcher:3:350,meatWagon:3:175,skeletonArcher:3:350,skeletonWarrior:3:262,deathKnight:3:131,skeletonWarrior:3:262</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,sentinel_1:2:588,horseArcher_1:2:294,sentinel_1:2:588,crossbowman_1:2:441,ballista_1:2:220,crossbowman_1:2:441</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,lancer_1:2:297,ranger_1:2:594,lancer_1:2:297,catapult_1:2:223,swordsman_1:2:446,catapult_1:2:223</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,meatWagon:3:180,skeletonWarrior:3:360,meatWagon:3:180,deathKnight:3:135,skeletonArcher:3:270,deathKnight:3:135</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,ranger_1:2:606,catapult_1:2:303,ranger_1:2:606,swordsman_1:2:455,lancer_1:2:227,swordsman_1:2:455</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,swordsman_1:2:612,lancer_1:2:306,swordsman_1:2:612,ranger_1:2:459,catapult_1:2:229,ranger_1:2:459</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,deathKnight:3:185,skeletonArcher:3:371,deathKnight:3:185,meatWagon:3:139,skeletonWarrior:3:279,meatWagon:3:139</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,ballista_1:2:312,swordsman_1:2:624,ballista_1:2:312,lancer_1:2:234,ranger_1:2:468,lancer_1:2:234</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,crossbowman_1:2:630,catapult_1:2:315,crossbowman_1:2:630,swordsman_1:2:473,lancer_1:2:236,swordsman_1:2:473</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,skeletonWarrior:3:382,deathKnight:3:191,skeletonWarrior:3:382,skeletonArcher:3:287,meatWagon:3:143,skeletonArcher:3:287</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,horseArcher_1:2:321,crossbowman_1:2:642,horseArcher_1:2:321,catapult_1:2:241,swordsman_1:2:482,catapult_1:2:241</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,ballista_1:2:324,sentinel_1:2:648,ballista_1:2:324,lancer_1:2:243,ranger_1:2:486,lancer_1:2:243</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,skeletonArcher:3:393,meatWagon:3:196,skeletonArcher:3:393,skeletonWarrior:3:295,deathKnight:3:147,skeletonWarrior:3:295</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,sentinel_1:2:660,horseArcher_1:2:330,sentinel_1:2:660,ranger_1:2:495,catapult_1:2:247,ranger_1:2:495</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,horseArcher_1:2:333,crossbowman_1:2:666,horseArcher_1:2:333,ballista_1:2:250,swordsman_1:2:500,ballista_1:2:250</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,meatWagon:3:202,skeletonWarrior:3:404,meatWagon:3:202,deathKnight:3:151,skeletonArcher:3:303,deathKnight:3:151</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,crossbowman_1:2:678,ballista_1:2:339,crossbowman_1:2:678,sentinel_1:2:509,lancer_1:2:254,sentinel_1:2:509</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,sentinel_1:2:684,horseArcher_1:2:342,sentinel_1:2:684,crossbowman_1:2:513,catapult_1:2:256,crossbowman_1:2:513</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,deathKnight:3:207,skeletonArcher:3:414,deathKnight:3:207,meatWagon:3:155,skeletonWarrior:3:311,meatWagon:3:155</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,ballista_1:2:348,sentinel_1:2:696,ballista_1:2:348,horseArcher_1:2:261,crossbowman_1:2:522,horseArcher_1:2:261</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,crossbowman_1:2:702,ballista_1:2:351,crossbowman_1:2:702,sentinel_1:2:527,horseArcher_1:2:263,sentinel_1:2:527</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,skeletonWarrior:3:425,deathKnight:3:212,skeletonWarrior:3:425,skeletonArcher:3:319,meatWagon:3:159,skeletonArcher:3:319</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,lancer_1:2:357,ranger_1:2:714,lancer_1:2:357,catapult_1:2:268,swordsman_1:2:536,catapult_1:2:268</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,catapult_1:2:360,swordsman_1:2:720,catapult_1:2:360,lancer_1:2:270,ranger_1:2:540,lancer_1:2:270</t>
+  </si>
+  <si>
+    <t>redDragon:2:11,skeletonArcher:3:436,meatWagon:3:218,skeletonArcher:3:436,skeletonWarrior:3:327,deathKnight:3:163,skeletonWarrior:3:327</t>
+  </si>
+  <si>
+    <t>redDragon:2:11,swordsman_1:2:732,lancer_1:2:366,swordsman_1:2:732,ranger_1:2:549,catapult_1:2:274,ranger_1:2:549</t>
+  </si>
+  <si>
+    <t>redDragon:2:11,horseArcher_1:2:369,ranger_1:2:738,horseArcher_1:2:369,catapult_1:2:277,swordsman_1:2:554,catapult_1:2:277</t>
+  </si>
+  <si>
+    <t>redDragon:2:11,meatWagon:3:223,skeletonWarrior:3:447,meatWagon:3:223,deathKnight:3:167,skeletonArcher:3:335,deathKnight:3:167</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,crossbowman_1:3:750,catapult_1:3:375,crossbowman_1:3:750,swordsman_1:3:563,lancer_1:3:281,swordsman_1:3:563</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,sentinel_1:3:756,lancer_1:3:378,sentinel_1:3:756,ranger_1:3:567,catapult_1:3:283,ranger_1:3:567</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,deathKnight:3:305,skeletonArcher:3:610,deathKnight:3:305,meatWagon:3:229,skeletonWarrior:3:458,meatWagon:3:229</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,ballista_1:3:384,sentinel_1:3:768,ballista_1:3:384,lancer_1:3:288,ranger_1:3:576,lancer_1:3:288</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,crossbowman_1:3:774,ballista_1:3:387,crossbowman_1:3:774,swordsman_1:3:581,lancer_1:3:290,swordsman_1:3:581</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,skeletonWarrior:3:624,deathKnight:3:312,skeletonWarrior:3:624,skeletonArcher:3:468,meatWagon:3:234,skeletonArcher:3:468</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,horseArcher_1:3:393,crossbowman_1:3:786,horseArcher_1:3:393,ballista_1:3:295,swordsman_1:3:590,ballista_1:3:295</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,ballista_1:3:396,sentinel_1:3:792,ballista_1:3:396,horseArcher_1:3:297,ranger_1:3:594,horseArcher_1:3:297</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,skeletonArcher:3:639,meatWagon:3:319,skeletonArcher:3:639,skeletonWarrior:3:479,deathKnight:3:239,skeletonWarrior:3:479</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,sentinel_1:3:804,horseArcher_1:3:402,sentinel_1:3:804,crossbowman_1:3:603,catapult_1:3:301,crossbowman_1:3:603</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,horseArcher_1:3:405,crossbowman_1:3:810,horseArcher_1:3:405,ballista_1:3:304,sentinel_1:3:608,ballista_1:3:304</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,meatWagon:3:326,skeletonWarrior:3:653,meatWagon:3:326,deathKnight:3:245,skeletonArcher:3:490,deathKnight:3:245</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,crossbowman_1:3:822,ballista_1:3:411,crossbowman_1:3:822,sentinel_1:3:617,horseArcher_1:3:308,sentinel_1:3:617</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,sentinel_1:3:828,horseArcher_1:3:414,sentinel_1:3:828,crossbowman_1:3:621,ballista_1:3:310,crossbowman_1:3:621</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,deathKnight:3:334,skeletonArcher:3:668,deathKnight:3:334,meatWagon:3:250,skeletonWarrior:3:501,meatWagon:3:250</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,catapult_1:3:420,swordsman_1:3:840,catapult_1:3:420,lancer_1:3:315,ranger_1:3:630,lancer_1:3:315</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,ranger_1:3:846,catapult_1:3:423,ranger_1:3:846,swordsman_1:3:635,lancer_1:3:317,swordsman_1:3:635</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,skeletonWarrior:3:682,deathKnight:3:341,skeletonWarrior:3:682,skeletonArcher:3:512,meatWagon:3:256,skeletonArcher:3:512</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,horseArcher_1:3:429,ranger_1:3:858,horseArcher_1:3:429,catapult_1:3:322,swordsman_1:3:644,catapult_1:3:322</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,ballista_1:3:432,swordsman_1:3:864,ballista_1:3:432,lancer_1:3:324,ranger_1:3:648,lancer_1:3:324</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,skeletonArcher:3:696,meatWagon:3:348,skeletonArcher:3:696,skeletonWarrior:3:522,deathKnight:3:261,skeletonWarrior:3:522</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,sentinel_1:3:876,lancer_1:3:438,sentinel_1:3:876,ranger_1:3:657,catapult_1:3:328,ranger_1:3:657</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,horseArcher_1:3:441,crossbowman_1:3:882,horseArcher_1:3:441,catapult_1:3:331,swordsman_1:3:662,catapult_1:3:331</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,meatWagon:3:355,skeletonWarrior:3:711,meatWagon:3:355,deathKnight:3:266,skeletonArcher:3:533,deathKnight:3:266</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,crossbowman_1:3:894,ballista_1:3:447,crossbowman_1:3:894,swordsman_1:3:671,lancer_1:3:335,swordsman_1:3:671</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,sentinel_1:3:900,horseArcher_1:3:450,sentinel_1:3:900,ranger_1:3:675,catapult_1:3:337,ranger_1:3:675</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,deathKnight:3:362,skeletonArcher:3:725,deathKnight:3:362,meatWagon:3:272,skeletonWarrior:3:544,meatWagon:3:272</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,ballista_1:3:456,sentinel_1:3:912,ballista_1:3:456,horseArcher_1:3:342,ranger_1:3:684,horseArcher_1:3:342</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,crossbowman_1:3:918,ballista_1:3:459,crossbowman_1:3:918,sentinel_1:3:689,lancer_1:3:344,sentinel_1:3:689</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,skeletonWarrior:3:740,deathKnight:3:370,skeletonWarrior:3:740,skeletonArcher:3:555,meatWagon:3:277,skeletonArcher:3:555</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,horseArcher_1:3:465,crossbowman_1:3:930,horseArcher_1:3:465,ballista_1:3:349,sentinel_1:3:698,ballista_1:3:349</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,ballista_1:3:468,sentinel_1:3:936,ballista_1:3:468,horseArcher_1:3:351,crossbowman_1:3:702,horseArcher_1:3:351</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,skeletonArcher:3:754,meatWagon:3:377,skeletonArcher:3:754,skeletonWarrior:3:566,deathKnight:3:283,skeletonWarrior:3:566</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,sentinel_1:3:948,horseArcher_1:3:474,sentinel_1:3:948,crossbowman_1:3:711,ballista_1:3:355,crossbowman_1:3:711</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,lancer_1:3:477,ranger_1:3:954,lancer_1:3:477,catapult_1:3:358,swordsman_1:3:716,catapult_1:3:358</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,meatWagon:3:384,skeletonWarrior:3:768,meatWagon:3:384,deathKnight:3:288,skeletonArcher:3:576,deathKnight:3:288</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,ranger_1:3:966,catapult_1:3:483,ranger_1:3:966,swordsman_1:3:725,lancer_1:3:362,swordsman_1:3:725</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,swordsman_1:3:972,lancer_1:3:486,swordsman_1:3:972,ranger_1:3:729,catapult_1:3:364,ranger_1:3:729</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,deathKnight:3:391,skeletonArcher:3:783,deathKnight:3:391,meatWagon:3:293,skeletonWarrior:3:587,meatWagon:3:293</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,ballista_1:3:492,swordsman_1:3:984,ballista_1:3:492,lancer_1:3:369,ranger_1:3:738,lancer_1:3:369</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,crossbowman_1:3:990,catapult_1:3:495,crossbowman_1:3:990,swordsman_1:3:743,lancer_1:3:371,swordsman_1:3:743</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,skeletonWarrior:3:797,deathKnight:3:398,skeletonWarrior:3:797,skeletonArcher:3:598,meatWagon:3:299,skeletonArcher:3:598</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,horseArcher_1:3:501,crossbowman_1:3:1002,horseArcher_1:3:501,catapult_1:3:376,swordsman_1:3:752,catapult_1:3:376</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,ballista_1:3:504,sentinel_1:3:1008,ballista_1:3:504,lancer_1:3:378,ranger_1:3:756,lancer_1:3:378</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,skeletonArcher:3:812,meatWagon:3:406,skeletonArcher:3:812,skeletonWarrior:3:609,deathKnight:3:304,skeletonWarrior:3:609</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,sentinel_1:3:1020,horseArcher_1:3:510,sentinel_1:3:1020,ranger_1:3:765,catapult_1:3:382,ranger_1:3:765</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,horseArcher_1:3:513,crossbowman_1:3:1026,horseArcher_1:3:513,ballista_1:3:385,swordsman_1:3:770,ballista_1:3:385</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,meatWagon:3:413,skeletonWarrior:3:826,meatWagon:3:413,deathKnight:3:310,skeletonArcher:3:620,deathKnight:3:310</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,crossbowman_1:3:1038,ballista_1:3:519,crossbowman_1:3:1038,sentinel_1:3:779,lancer_1:3:389,sentinel_1:3:779</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,sentinel_1:3:1044,horseArcher_1:3:522,sentinel_1:3:1044,crossbowman_1:3:783,catapult_1:3:391,crossbowman_1:3:783</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,deathKnight:3:420,skeletonArcher:3:840,deathKnight:3:420,meatWagon:3:315,skeletonWarrior:3:630,meatWagon:3:315</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,ballista_1:3:528,sentinel_1:3:1056,ballista_1:3:528,horseArcher_1:3:396,crossbowman_1:3:792,horseArcher_1:3:396</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,crossbowman_1:3:1062,ballista_1:3:531,crossbowman_1:3:1062,sentinel_1:3:797,horseArcher_1:3:398,sentinel_1:3:797</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,skeletonWarrior:3:855,deathKnight:3:427,skeletonWarrior:3:855,skeletonArcher:3:641,meatWagon:3:320,skeletonArcher:3:641</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,lancer_1:3:537,ranger_1:3:1074,lancer_1:3:537,catapult_1:3:403,swordsman_1:3:806,catapult_1:3:403</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,catapult_1:3:540,swordsman_1:3:1080,catapult_1:3:540,lancer_1:3:405,ranger_1:3:810,lancer_1:3:405</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,skeletonArcher:3:869,meatWagon:3:434,skeletonArcher:3:869,skeletonWarrior:3:652,deathKnight:3:326,skeletonWarrior:3:652</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,swordsman_1:3:1092,lancer_1:3:546,swordsman_1:3:1092,ranger_1:3:819,catapult_1:3:409,ranger_1:3:819</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,horseArcher_1:3:549,ranger_1:3:1098,horseArcher_1:3:549,catapult_1:3:412,swordsman_1:3:824,catapult_1:3:412</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,meatWagon:3:442,skeletonWarrior:3:884,meatWagon:3:442,deathKnight:3:331,skeletonArcher:3:663,deathKnight:3:331</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,crossbowman_1:3:1110,catapult_1:3:555,crossbowman_1:3:1110,swordsman_1:3:833,lancer_1:3:416,swordsman_1:3:833</t>
+  </si>
+  <si>
+    <t>blueDragon:2:16,sentinel_1:3:1116,lancer_1:3:558,sentinel_1:3:1116,ranger_1:3:837,catapult_1:3:418,ranger_1:3:837</t>
+  </si>
+  <si>
+    <t>blueDragon:2:16,deathKnight:3:449,skeletonArcher:3:898,deathKnight:3:449,meatWagon:3:337,skeletonWarrior:3:674,meatWagon:3:337</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,ballista_2:1:564,sentinel_2:1:1128,ballista_2:1:564,lancer_2:1:423,ranger_2:1:846,lancer_2:1:423</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,crossbowman_2:1:1134,ballista_2:1:567,crossbowman_2:1:1134,swordsman_2:1:851,lancer_2:1:425,swordsman_2:1:851</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,skeletonWarrior:3:1140,deathKnight:3:570,skeletonWarrior:3:1140,skeletonArcher:3:855,meatWagon:3:427,skeletonArcher:3:855</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,horseArcher_2:1:573,crossbowman_2:1:1146,horseArcher_2:1:573,ballista_2:1:430,swordsman_2:1:860,ballista_2:1:430</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,ballista_2:1:576,sentinel_2:1:1152,ballista_2:1:576,horseArcher_2:1:432,ranger_2:1:864,horseArcher_2:1:432</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,skeletonArcher:3:1158,meatWagon:3:579,skeletonArcher:3:1158,skeletonWarrior:3:869,deathKnight:3:434,skeletonWarrior:3:869</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,sentinel_2:1:1164,horseArcher_2:1:582,sentinel_2:1:1164,crossbowman_2:1:873,catapult_2:1:436,crossbowman_2:1:873</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,horseArcher_2:1:585,crossbowman_2:1:1170,horseArcher_2:1:585,ballista_2:1:439,sentinel_2:1:878,ballista_2:1:439</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,meatWagon:3:588,skeletonWarrior:3:1176,meatWagon:3:588,deathKnight:3:441,skeletonArcher:3:882,deathKnight:3:441</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,crossbowman_2:1:1182,ballista_2:1:591,crossbowman_2:1:1182,sentinel_2:1:887,horseArcher_2:1:443,sentinel_2:1:887</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,sentinel_2:1:1188,horseArcher_2:1:594,sentinel_2:1:1188,crossbowman_2:1:891,ballista_2:1:445,crossbowman_2:1:891</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,deathKnight:3:597,skeletonArcher:3:1194,deathKnight:3:597,meatWagon:3:448,skeletonWarrior:3:896,meatWagon:3:448</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,catapult_2:1:600,swordsman_2:1:1200,catapult_2:1:600,lancer_2:1:450,ranger_2:1:900,lancer_2:1:450</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,ranger_2:1:1206,catapult_2:1:603,ranger_2:1:1206,swordsman_2:1:905,lancer_2:1:452,swordsman_2:1:905</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,skeletonWarrior:3:1212,deathKnight:3:606,skeletonWarrior:3:1212,skeletonArcher:3:909,meatWagon:3:454,skeletonArcher:3:909</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,horseArcher_2:1:609,ranger_2:1:1218,horseArcher_2:1:609,catapult_2:1:457,swordsman_2:1:914,catapult_2:1:457</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,ballista_2:1:612,swordsman_2:1:1224,ballista_2:1:612,lancer_2:1:459,ranger_2:1:918,lancer_2:1:459</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,skeletonArcher:3:1230,meatWagon:3:615,skeletonArcher:3:1230,skeletonWarrior:3:923,deathKnight:3:461,skeletonWarrior:3:923</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,sentinel_2:1:1236,lancer_2:1:618,sentinel_2:1:1236,ranger_2:1:927,catapult_2:1:463,ranger_2:1:927</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,horseArcher_2:1:621,crossbowman_2:1:1242,horseArcher_2:1:621,catapult_2:1:466,swordsman_2:1:932,catapult_2:1:466</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,meatWagon:3:624,skeletonWarrior:3:1248,meatWagon:3:624,deathKnight:3:468,skeletonArcher:3:936,deathKnight:3:468</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,crossbowman_2:1:1254,ballista_2:1:627,crossbowman_2:1:1254,swordsman_2:1:941,lancer_2:1:470,swordsman_2:1:941</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,sentinel_2:1:1260,horseArcher_2:1:630,sentinel_2:1:1260,ranger_2:1:945,catapult_2:1:472,ranger_2:1:945</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,deathKnight:3:633,skeletonArcher:3:1266,deathKnight:3:633,meatWagon:3:475,skeletonWarrior:3:950,meatWagon:3:475</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,ballista_2:1:636,sentinel_2:1:1272,ballista_2:1:636,horseArcher_2:1:477,ranger_2:1:954,horseArcher_2:1:477</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,crossbowman_2:1:1278,ballista_2:1:639,crossbowman_2:1:1278,sentinel_2:1:959,lancer_2:1:479,sentinel_2:1:959</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,skeletonWarrior:3:1284,deathKnight:3:642,skeletonWarrior:3:1284,skeletonArcher:3:963,meatWagon:3:481,skeletonArcher:3:963</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,horseArcher_2:1:645,crossbowman_2:1:1290,horseArcher_2:1:645,ballista_2:1:484,sentinel_2:1:968,ballista_2:1:484</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,ballista_2:1:648,sentinel_2:1:1296,ballista_2:1:648,horseArcher_2:1:486,crossbowman_2:1:972,horseArcher_2:1:486</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,skeletonArcher:3:1302,meatWagon:3:651,skeletonArcher:3:1302,skeletonWarrior:3:977,deathKnight:3:488,skeletonWarrior:3:977</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,sentinel_2:1:1308,horseArcher_2:1:654,sentinel_2:1:1308,crossbowman_2:1:981,ballista_2:1:490,crossbowman_2:1:981</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,lancer_2:1:657,ranger_2:1:1314,lancer_2:1:657,catapult_2:1:493,swordsman_2:1:986,catapult_2:1:493</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,meatWagon:3:660,skeletonWarrior:3:1320,meatWagon:3:660,deathKnight:3:495,skeletonArcher:3:990,deathKnight:3:495</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,ranger_2:1:1326,catapult_2:1:663,ranger_2:1:1326,swordsman_2:1:995,lancer_2:1:497,swordsman_2:1:995</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,swordsman_2:1:1332,lancer_2:1:666,swordsman_2:1:1332,ranger_2:1:999,catapult_2:1:499,ranger_2:1:999</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,deathKnight:3:669,skeletonArcher:3:1338,deathKnight:3:669,meatWagon:3:502,skeletonWarrior:3:1004,meatWagon:3:502</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,ballista_2:1:672,swordsman_2:1:1344,ballista_2:1:672,lancer_2:1:504,ranger_2:1:1008,lancer_2:1:504</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,crossbowman_2:1:1350,catapult_2:1:675,crossbowman_2:1:1350,swordsman_2:1:1013,lancer_2:1:506,swordsman_2:1:1013</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,skeletonWarrior:3:1356,deathKnight:3:678,skeletonWarrior:3:1356,skeletonArcher:3:1017,meatWagon:3:508,skeletonArcher:3:1017</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,horseArcher_2:1:681,crossbowman_2:1:1362,horseArcher_2:1:681,catapult_2:1:511,swordsman_2:1:1022,catapult_2:1:511</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,ballista_2:1:684,sentinel_2:1:1368,ballista_2:1:684,lancer_2:1:513,ranger_2:1:1026,lancer_2:1:513</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,skeletonArcher:3:1374,meatWagon:3:687,skeletonArcher:3:1374,skeletonWarrior:3:1031,deathKnight:3:515,skeletonWarrior:3:1031</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,sentinel_2:1:1380,horseArcher_2:1:690,sentinel_2:1:1380,ranger_2:1:1035,catapult_2:1:517,ranger_2:1:1035</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,horseArcher_2:1:693,crossbowman_2:1:1386,horseArcher_2:1:693,ballista_2:1:520,swordsman_2:1:1040,ballista_2:1:520</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,meatWagon:3:696,skeletonWarrior:3:1392,meatWagon:3:696,deathKnight:3:522,skeletonArcher:3:1044,deathKnight:3:522</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,crossbowman_2:1:1398,ballista_2:1:699,crossbowman_2:1:1398,sentinel_2:1:1049,lancer_2:1:524,sentinel_2:1:1049</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,sentinel_2:1:1404,horseArcher_2:1:702,sentinel_2:1:1404,crossbowman_2:1:1053,catapult_2:1:526,crossbowman_2:1:1053</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,deathKnight:3:705,skeletonArcher:3:1410,deathKnight:3:705,meatWagon:3:529,skeletonWarrior:3:1058,meatWagon:3:529</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,ballista_2:1:708,sentinel_2:1:1416,ballista_2:1:708,horseArcher_2:1:531,crossbowman_2:1:1062,horseArcher_2:1:531</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,crossbowman_2:1:1422,ballista_2:1:711,crossbowman_2:1:1422,sentinel_2:1:1067,horseArcher_2:1:533,sentinel_2:1:1067</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,skeletonWarrior:3:1428,deathKnight:3:714,skeletonWarrior:3:1428,skeletonArcher:3:1071,meatWagon:3:535,skeletonArcher:3:1071</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,lancer_2:1:717,ranger_2:1:1434,lancer_2:1:717,catapult_2:1:538,swordsman_2:1:1076,catapult_2:1:538</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,catapult_2:1:720,swordsman_2:1:1440,catapult_2:1:720,lancer_2:1:540,ranger_2:1:1080,lancer_2:1:540</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,skeletonArcher:3:1446,meatWagon:3:723,skeletonArcher:3:1446,skeletonWarrior:3:1085,deathKnight:3:542,skeletonWarrior:3:1085</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,swordsman_2:1:1452,lancer_2:1:726,swordsman_2:1:1452,ranger_2:1:1089,catapult_2:1:544,ranger_2:1:1089</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,horseArcher_2:1:729,ranger_2:1:1458,horseArcher_2:1:729,catapult_2:1:547,swordsman_2:1:1094,catapult_2:1:547</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,meatWagon:3:732,skeletonWarrior:3:1464,meatWagon:3:732,deathKnight:3:549,skeletonArcher:3:1098,deathKnight:3:549</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,crossbowman_2:1:1470,catapult_2:1:735,crossbowman_2:1:1470,swordsman_2:1:1103,lancer_2:1:551,swordsman_2:1:1103</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,sentinel_2:1:1476,lancer_2:1:738,sentinel_2:1:1476,ranger_2:1:1107,catapult_2:1:553,ranger_2:1:1107</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,deathKnight:3:741,skeletonArcher:3:1482,deathKnight:3:741,meatWagon:3:556,skeletonWarrior:3:1112,meatWagon:3:556</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,ballista_2:1:744,sentinel_2:1:1488,ballista_2:1:744,lancer_2:1:558,ranger_2:1:1116,lancer_2:1:558</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,crossbowman_2:1:1494,ballista_2:1:747,crossbowman_2:1:1494,swordsman_2:1:1121,lancer_2:1:560,swordsman_2:1:1121</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,skeletonWarrior:3:1500,deathKnight:3:750,skeletonWarrior:3:1500,skeletonArcher:3:1125,meatWagon:3:562,skeletonArcher:3:1125</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,horseArcher_2:2:753,crossbowman_2:2:1506,horseArcher_2:2:753,ballista_2:2:565,swordsman_2:2:1130,ballista_2:2:565</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,ballista_2:2:756,sentinel_2:2:1512,ballista_2:2:756,horseArcher_2:2:567,ranger_2:2:1134,horseArcher_2:2:567</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,skeletonArcher:3:1822,meatWagon:3:911,skeletonArcher:3:1822,skeletonWarrior:3:1367,deathKnight:3:683,skeletonWarrior:3:1367</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,sentinel_2:2:1524,horseArcher_2:2:762,sentinel_2:2:1524,crossbowman_2:2:1143,catapult_2:2:571,crossbowman_2:2:1143</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,horseArcher_2:2:765,crossbowman_2:2:1530,horseArcher_2:2:765,ballista_2:2:574,sentinel_2:2:1148,ballista_2:2:574</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,meatWagon:3:922,skeletonWarrior:3:1844,meatWagon:3:922,deathKnight:3:691,skeletonArcher:3:1383,deathKnight:3:691</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,crossbowman_2:2:1542,ballista_2:2:771,crossbowman_2:2:1542,sentinel_2:2:1157,horseArcher_2:2:578,sentinel_2:2:1157</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,sentinel_2:2:1548,horseArcher_2:2:774,sentinel_2:2:1548,crossbowman_2:2:1161,ballista_2:2:580,crossbowman_2:2:1161</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,deathKnight:3:932,skeletonArcher:3:1865,deathKnight:3:932,meatWagon:3:699,skeletonWarrior:3:1399,meatWagon:3:699</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,catapult_2:2:780,swordsman_2:2:1560,catapult_2:2:780,lancer_2:2:585,ranger_2:2:1170,lancer_2:2:585</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,ranger_2:2:1566,catapult_2:2:783,ranger_2:2:1566,swordsman_2:2:1175,lancer_2:2:587,swordsman_2:2:1175</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,skeletonWarrior:3:1887,deathKnight:3:943,skeletonWarrior:3:1887,skeletonArcher:3:1415,meatWagon:3:707,skeletonArcher:3:1415</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,horseArcher_2:2:789,ranger_2:2:1578,horseArcher_2:2:789,catapult_2:2:592,swordsman_2:2:1184,catapult_2:2:592</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,ballista_2:2:792,swordsman_2:2:1584,ballista_2:2:792,lancer_2:2:594,ranger_2:2:1188,lancer_2:2:594</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,skeletonArcher:3:1908,meatWagon:3:954,skeletonArcher:3:1908,skeletonWarrior:3:1431,deathKnight:3:715,skeletonWarrior:3:1431</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,sentinel_2:2:1596,lancer_2:2:798,sentinel_2:2:1596,ranger_2:2:1197,catapult_2:2:598,ranger_2:2:1197</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,horseArcher_2:2:801,crossbowman_2:2:1602,horseArcher_2:2:801,catapult_2:2:601,swordsman_2:2:1202,catapult_2:2:601</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,meatWagon:3:965,skeletonWarrior:3:1930,meatWagon:3:965,deathKnight:3:724,skeletonArcher:3:1448,deathKnight:3:724</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,crossbowman_2:2:1614,ballista_2:2:807,crossbowman_2:2:1614,swordsman_2:2:1211,lancer_2:2:605,swordsman_2:2:1211</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,sentinel_2:2:1620,horseArcher_2:2:810,sentinel_2:2:1620,ranger_2:2:1215,catapult_2:2:607,ranger_2:2:1215</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,deathKnight:3:976,skeletonArcher:3:1952,deathKnight:3:976,meatWagon:3:732,skeletonWarrior:3:1464,meatWagon:3:732</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,ballista_2:2:816,sentinel_2:2:1632,ballista_2:2:816,horseArcher_2:2:612,ranger_2:2:1224,horseArcher_2:2:612</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,crossbowman_2:2:1638,ballista_2:2:819,crossbowman_2:2:1638,sentinel_2:2:1229,lancer_2:2:614,sentinel_2:2:1229</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,skeletonWarrior:3:1973,deathKnight:3:986,skeletonWarrior:3:1973,skeletonArcher:3:1480,meatWagon:3:740,skeletonArcher:3:1480</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,horseArcher_2:2:825,crossbowman_2:2:1650,horseArcher_2:2:825,ballista_2:2:619,sentinel_2:2:1238,ballista_2:2:619</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,ballista_2:2:828,sentinel_2:2:1656,ballista_2:2:828,horseArcher_2:2:621,crossbowman_2:2:1242,horseArcher_2:2:621</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,skeletonArcher:3:1995,meatWagon:3:997,skeletonArcher:3:1995,skeletonWarrior:3:1496,deathKnight:3:748,skeletonWarrior:3:1496</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,sentinel_2:2:1668,horseArcher_2:2:834,sentinel_2:2:1668,crossbowman_2:2:1251,ballista_2:2:625,crossbowman_2:2:1251</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,lancer_2:2:837,ranger_2:2:1674,lancer_2:2:837,catapult_2:2:628,swordsman_2:2:1256,catapult_2:2:628</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,meatWagon:3:1008,skeletonWarrior:3:2016,meatWagon:3:1008,deathKnight:3:756,skeletonArcher:3:1512,deathKnight:3:756</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,ranger_2:2:1686,catapult_2:2:843,ranger_2:2:1686,swordsman_2:2:1265,lancer_2:2:632,swordsman_2:2:1265</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,swordsman_2:2:1692,lancer_2:2:846,swordsman_2:2:1692,ranger_2:2:1269,catapult_2:2:634,ranger_2:2:1269</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,deathKnight:3:1022,skeletonArcher:3:2045,deathKnight:3:1022,meatWagon:3:767,skeletonWarrior:3:1534,meatWagon:3:767</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,ballista_2:2:858,swordsman_2:2:1716,ballista_2:2:858,lancer_2:2:643,ranger_2:2:1287,lancer_2:2:643</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,crossbowman_2:2:1728,catapult_2:2:864,crossbowman_2:2:1728,swordsman_2:2:1296,lancer_2:2:648,swordsman_2:2:1296</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,skeletonWarrior:3:2087,deathKnight:3:1043,skeletonWarrior:3:2087,skeletonArcher:3:1566,meatWagon:3:783,skeletonArcher:3:1566</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,horseArcher_2:2:875,crossbowman_2:2:1751,horseArcher_2:2:875,catapult_2:2:657,swordsman_2:2:1314,catapult_2:2:657</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,ballista_2:2:881,sentinel_2:2:1763,ballista_2:2:881,lancer_2:2:661,ranger_2:2:1322,lancer_2:2:661</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,skeletonArcher:3:2130,meatWagon:3:1065,skeletonArcher:3:2130,skeletonWarrior:3:1598,deathKnight:3:799,skeletonWarrior:3:1598</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,sentinel_2:2:1787,horseArcher_2:2:893,sentinel_2:2:1787,ranger_2:2:1340,catapult_2:2:670,ranger_2:2:1340</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,horseArcher_2:2:899,crossbowman_2:2:1799,horseArcher_2:2:899,ballista_2:2:674,swordsman_2:2:1349,ballista_2:2:674</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,meatWagon:3:1086,skeletonWarrior:3:2173,meatWagon:3:1086,deathKnight:3:815,skeletonArcher:3:1630,deathKnight:3:815</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,crossbowman_2:2:1823,ballista_2:2:911,crossbowman_2:2:1823,sentinel_2:2:1367,lancer_2:2:683,sentinel_2:2:1367</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,sentinel_2:2:1835,horseArcher_2:2:917,sentinel_2:2:1835,crossbowman_2:2:1376,catapult_2:2:688,crossbowman_2:2:1376</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,deathKnight:3:1108,skeletonArcher:3:2217,deathKnight:3:1108,meatWagon:3:831,skeletonWarrior:3:1663,meatWagon:3:831</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,ballista_2:2:929,sentinel_2:2:1859,ballista_2:2:929,horseArcher_2:2:697,crossbowman_2:2:1395,horseArcher_2:2:697</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,crossbowman_2:2:1872,ballista_2:2:936,crossbowman_2:2:1872,sentinel_2:2:1404,horseArcher_2:2:702,sentinel_2:2:1404</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,skeletonWarrior:3:2261,deathKnight:3:1130,skeletonWarrior:3:2261,skeletonArcher:3:1696,meatWagon:3:848,skeletonArcher:3:1696</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,lancer_2:2:948,ranger_2:2:1896,lancer_2:2:948,catapult_2:2:711,swordsman_2:2:1422,catapult_2:2:711</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,catapult_2:2:954,swordsman_2:2:1908,catapult_2:2:954,lancer_2:2:715,ranger_2:2:1431,lancer_2:2:715</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,skeletonArcher:3:2305,meatWagon:3:1152,skeletonArcher:3:2305,skeletonWarrior:3:1729,deathKnight:3:864,skeletonWarrior:3:1729</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,swordsman_2:2:1933,lancer_2:2:966,swordsman_2:2:1933,ranger_2:2:1450,catapult_2:2:725,ranger_2:2:1450</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,horseArcher_2:2:973,ranger_2:2:1946,horseArcher_2:2:973,catapult_2:2:730,swordsman_2:2:1460,catapult_2:2:730</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,meatWagon:3:1175,skeletonWarrior:3:2350,meatWagon:3:1175,deathKnight:3:881,skeletonArcher:3:1763,deathKnight:3:881</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,crossbowman_2:2:1971,catapult_2:2:985,crossbowman_2:2:1971,swordsman_2:2:1478,lancer_2:2:739,swordsman_2:2:1478</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,sentinel_2:2:1983,lancer_2:2:991,sentinel_2:2:1983,ranger_2:2:1488,catapult_2:2:744,ranger_2:2:1488</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,deathKnight:3:1197,skeletonArcher:3:2395,deathKnight:3:1197,meatWagon:3:898,skeletonWarrior:3:1796,meatWagon:3:898</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,ballista_2:2:1004,sentinel_2:2:2009,ballista_2:2:1004,lancer_2:2:753,ranger_2:2:1507,lancer_2:2:753</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,crossbowman_2:2:2021,ballista_2:2:1010,crossbowman_2:2:2021,swordsman_2:2:1516,lancer_2:2:758,swordsman_2:2:1516</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,skeletonWarrior:3:2441,deathKnight:3:1220,skeletonWarrior:3:2441,skeletonArcher:3:1831,meatWagon:3:915,skeletonArcher:3:1831</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,horseArcher_2:2:1023,crossbowman_2:2:2047,horseArcher_2:2:1023,ballista_2:2:767,swordsman_2:2:1535,ballista_2:2:767</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,ballista_2:2:1030,sentinel_2:2:2060,ballista_2:2:1030,horseArcher_2:2:772,ranger_2:2:1545,horseArcher_2:2:772</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,skeletonArcher:3:2487,meatWagon:3:1243,skeletonArcher:3:2487,skeletonWarrior:3:1865,deathKnight:3:932,skeletonWarrior:3:1865</t>
+  </si>
+  <si>
+    <t>redDragon:3:25,sentinel_2:3:2085,horseArcher_2:3:1042,sentinel_2:3:2085,crossbowman_2:3:1564,catapult_2:3:782,crossbowman_2:3:1564</t>
+  </si>
+  <si>
+    <t>redDragon:3:25,horseArcher_2:3:1049,crossbowman_2:3:2098,horseArcher_2:3:1049,ballista_2:3:787,sentinel_2:3:1574,ballista_2:3:787</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,meatWagon:3:1478,skeletonWarrior:3:2956,meatWagon:3:1478,deathKnight:3:1108,skeletonArcher:3:2217,deathKnight:3:1108</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,crossbowman_2:3:2124,ballista_2:3:1062,crossbowman_2:3:2124,sentinel_2:3:1593,horseArcher_2:3:796,sentinel_2:3:1593</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,sentinel_2:3:2137,horseArcher_2:3:1068,sentinel_2:3:2137,crossbowman_2:3:1603,ballista_2:3:801,crossbowman_2:3:1603</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,deathKnight:3:1505,skeletonArcher:3:3011,deathKnight:3:1505,meatWagon:3:1129,skeletonWarrior:3:2258,meatWagon:3:1129</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,catapult_2:3:1082,swordsman_2:3:2164,catapult_2:3:1082,lancer_2:3:811,ranger_2:3:1623,lancer_2:3:811</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,ranger_2:3:2177,catapult_2:3:1088,ranger_2:3:2177,swordsman_2:3:1633,lancer_2:3:816,swordsman_2:3:1633</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,skeletonWarrior:3:3066,deathKnight:3:1533,skeletonWarrior:3:3066,skeletonArcher:3:2300,meatWagon:3:1150,skeletonArcher:3:2300</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,horseArcher_2:3:1101,ranger_2:3:2203,horseArcher_2:3:1101,catapult_2:3:826,swordsman_2:3:1653,catapult_2:3:826</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,ballista_2:3:1108,swordsman_2:3:2217,ballista_2:3:1108,lancer_2:3:831,ranger_2:3:1663,lancer_2:3:831</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,skeletonArcher:3:3122,meatWagon:3:1561,skeletonArcher:3:3122,skeletonWarrior:3:2342,deathKnight:3:1171,skeletonWarrior:3:2342</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,sentinel_2:3:2243,lancer_2:3:1121,sentinel_2:3:2243,ranger_2:3:1683,catapult_2:3:841,ranger_2:3:1683</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,horseArcher_2:3:1128,crossbowman_2:3:2257,horseArcher_2:3:1128,catapult_2:3:846,swordsman_2:3:1693,catapult_2:3:846</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,meatWagon:3:1589,skeletonWarrior:3:3178,meatWagon:3:1589,deathKnight:3:1192,skeletonArcher:3:2384,deathKnight:3:1192</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,crossbowman_2:3:2284,ballista_2:3:1142,crossbowman_2:3:2284,swordsman_2:3:1713,lancer_2:3:856,swordsman_2:3:1713</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,sentinel_2:3:2297,horseArcher_2:3:1148,sentinel_2:3:2297,ranger_2:3:1723,catapult_2:3:861,ranger_2:3:1723</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,deathKnight:3:1617,skeletonArcher:3:3235,deathKnight:3:1617,meatWagon:3:1213,skeletonWarrior:3:2426,meatWagon:3:1213</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,ballista_2:3:1162,sentinel_2:3:2324,ballista_2:3:1162,horseArcher_2:3:871,ranger_2:3:1743,horseArcher_2:3:871</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,crossbowman_2:3:2338,ballista_2:3:1169,crossbowman_2:3:2338,sentinel_2:3:1754,lancer_2:3:877,sentinel_2:3:1754</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,skeletonWarrior:3:3292,deathKnight:3:1646,skeletonWarrior:3:3292,skeletonArcher:3:2469,meatWagon:3:1234,skeletonArcher:3:2469</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,horseArcher_2:3:1183,crossbowman_2:3:2366,horseArcher_2:3:1183,ballista_2:3:887,sentinel_2:3:1774,ballista_2:3:887</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,ballista_2:3:1189,sentinel_2:3:2379,ballista_2:3:1189,horseArcher_2:3:892,crossbowman_2:3:1785,horseArcher_2:3:892</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,skeletonArcher:3:3350,meatWagon:3:1675,skeletonArcher:3:3350,skeletonWarrior:3:2513,deathKnight:3:1256,skeletonWarrior:3:2513</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,sentinel_2:3:2407,horseArcher_2:3:1203,sentinel_2:3:2407,crossbowman_2:3:1805,ballista_2:3:902,crossbowman_2:3:1805</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,lancer_2:3:1210,ranger_2:3:2421,lancer_2:3:1210,catapult_2:3:908,swordsman_2:3:1816,catapult_2:3:908</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,meatWagon:3:1704,skeletonWarrior:3:3409,meatWagon:3:1704,deathKnight:3:1278,skeletonArcher:3:2557,deathKnight:3:1278</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,ranger_2:3:2449,catapult_2:3:1224,ranger_2:3:2449,swordsman_2:3:1837,lancer_2:3:918,swordsman_2:3:1837</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,swordsman_2:3:2463,lancer_2:3:1231,swordsman_2:3:2463,ranger_2:3:1847,catapult_2:3:923,ranger_2:3:1847</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,deathKnight:3:1734,skeletonArcher:3:3468,deathKnight:3:1734,meatWagon:3:1300,skeletonWarrior:3:2601,meatWagon:3:1300</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,ballista_2:3:1245,swordsman_2:3:2491,ballista_2:3:1245,lancer_2:3:934,ranger_2:3:1868,lancer_2:3:934</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,crossbowman_2:3:2505,catapult_2:3:1252,crossbowman_2:3:2505,swordsman_2:3:1879,lancer_2:3:939,swordsman_2:3:1879</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,skeletonWarrior:3:3527,deathKnight:3:1763,skeletonWarrior:3:3527,skeletonArcher:3:2645,meatWagon:3:1322,skeletonArcher:3:2645</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,horseArcher_2:3:1267,crossbowman_2:3:2534,horseArcher_2:3:1267,catapult_2:3:950,swordsman_2:3:1900,catapult_2:3:950</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,ballista_2:3:1274,sentinel_2:3:2548,ballista_2:3:1274,lancer_2:3:955,ranger_2:3:1911,lancer_2:3:955</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,skeletonArcher:3:3587,meatWagon:3:1793,skeletonArcher:3:3587,skeletonWarrior:3:2690,deathKnight:3:1345,skeletonWarrior:3:2690</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,sentinel_2:3:2576,horseArcher_2:3:1288,sentinel_2:3:2576,ranger_2:3:1932,catapult_2:3:966,ranger_2:3:1932</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,horseArcher_2:3:1295,crossbowman_2:3:2591,horseArcher_2:3:1295,ballista_2:3:971,swordsman_2:3:1943,ballista_2:3:971</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,meatWagon:3:1823,skeletonWarrior:3:3647,meatWagon:3:1823,deathKnight:3:1368,skeletonArcher:3:2736,deathKnight:3:1368</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,crossbowman_2:3:2620,ballista_2:3:1310,crossbowman_2:3:2620,sentinel_2:3:1965,lancer_2:3:982,sentinel_2:3:1965</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,sentinel_2:3:2634,horseArcher_2:3:1317,sentinel_2:3:2634,crossbowman_2:3:1976,catapult_2:3:988,crossbowman_2:3:1976</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,deathKnight:3:1854,skeletonArcher:3:3708,deathKnight:3:1854,meatWagon:3:1390,skeletonWarrior:3:2781,meatWagon:3:1390</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,ballista_2:3:1331,sentinel_2:3:2663,ballista_2:3:1331,horseArcher_2:3:999,crossbowman_2:3:1998,horseArcher_2:3:999</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,crossbowman_2:3:2678,ballista_2:3:1339,crossbowman_2:3:2678,sentinel_2:3:2009,horseArcher_2:3:1004,sentinel_2:3:2009</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,skeletonWarrior:3:3770,deathKnight:3:1885,skeletonWarrior:3:3770,skeletonArcher:3:2827,meatWagon:3:1413,skeletonArcher:3:2827</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,lancer_2:3:1353,ranger_2:3:2707,lancer_2:3:1353,catapult_2:3:1015,swordsman_2:3:2031,catapult_2:3:1015</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,catapult_2:3:1361,swordsman_2:3:2722,catapult_2:3:1361,lancer_2:3:1021,ranger_2:3:2042,lancer_2:3:1021</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,skeletonArcher:3:3831,meatWagon:3:1915,skeletonArcher:3:3831,skeletonWarrior:3:2874,deathKnight:3:1437,skeletonWarrior:3:2874</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,swordsman_2:3:2752,lancer_2:3:1376,swordsman_2:3:2752,ranger_2:3:2064,catapult_2:3:1032,ranger_2:3:2064</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,horseArcher_2:3:1383,ranger_2:3:2767,horseArcher_2:3:1383,catapult_2:3:1037,swordsman_2:3:2075,catapult_2:3:1037</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,meatWagon:3:1947,skeletonWarrior:3:3894,meatWagon:3:1947,deathKnight:3:1460,skeletonArcher:3:2921,deathKnight:3:1460</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,crossbowman_2:3:2796,catapult_2:3:1398,crossbowman_2:3:2796,swordsman_2:3:2097,lancer_2:3:1048,swordsman_2:3:2097</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,sentinel_2:3:2811,lancer_2:3:1405,sentinel_2:3:2811,ranger_2:3:2109,catapult_2:3:1054,ranger_2:3:2109</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,deathKnight:3:1978,skeletonArcher:3:3957,deathKnight:3:1978,meatWagon:3:1484,skeletonWarrior:3:2968,meatWagon:3:1484</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,ballista_2:3:1420,sentinel_2:3:2841,ballista_2:3:1420,lancer_2:3:1065,ranger_2:3:2131,lancer_2:3:1065</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,crossbowman_2:3:2857,ballista_2:3:1428,crossbowman_2:3:2857,swordsman_2:3:2143,lancer_2:3:1071,swordsman_2:3:2143</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,skeletonWarrior:3:4020,deathKnight:3:2010,skeletonWarrior:3:4020,skeletonArcher:3:3015,meatWagon:3:1507,skeletonArcher:3:3015</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,horseArcher_2:3:1443,crossbowman_2:3:2887,horseArcher_2:3:1443,ballista_2:3:1082,swordsman_2:3:2165,ballista_2:3:1082</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,ballista_2:3:1451,sentinel_2:3:2902,ballista_2:3:1451,horseArcher_2:3:1088,ranger_2:3:2177,horseArcher_2:3:1088</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,skeletonArcher:3:4084,meatWagon:3:2042,skeletonArcher:3:4084,skeletonWarrior:3:3063,deathKnight:3:1531,skeletonWarrior:3:3063</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,sentinel_2:3:2933,horseArcher_2:3:1466,sentinel_2:3:2933,crossbowman_2:3:2200,catapult_2:3:1100,crossbowman_2:3:2200</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,horseArcher_2:3:1474,crossbowman_2:3:2948,horseArcher_2:3:1474,ballista_2:3:1105,sentinel_2:3:2211,ballista_2:3:1105</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,meatWagon:3:2074,skeletonWarrior:3:4149,meatWagon:3:2074,deathKnight:3:1556,skeletonArcher:3:3112,deathKnight:3:1556</t>
+  </si>
+  <si>
+    <t>blueDragon:3:30,crossbowman_3:1:2979,ballista_3:1:1489,crossbowman_3:1:2979,sentinel_3:1:2234,horseArcher_3:1:1117,sentinel_3:1:2234</t>
+  </si>
+  <si>
+    <t>blueDragon:3:30,sentinel_3:1:2994,horseArcher_3:1:1497,sentinel_3:1:2994,crossbowman_3:1:2246,ballista_3:1:1123,crossbowman_3:1:2246</t>
+  </si>
+  <si>
+    <t>blueDragon:3:30,deathKnight:3:2407,skeletonArcher:3:4815,deathKnight:3:2407,meatWagon:3:1806,skeletonWarrior:3:3612,meatWagon:3:1806</t>
+  </si>
+  <si>
+    <t>blueDragon:3:30,catapult_3:1:1512,swordsman_3:1:3025,catapult_3:1:1512,lancer_3:1:1134,ranger_3:1:2269,lancer_3:1:1134</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,ranger_3:1:3041,catapult_3:1:1520,ranger_3:1:3041,swordsman_3:1:2281,lancer_3:1:1140,swordsman_3:1:2281</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,skeletonWarrior:3:4890,deathKnight:3:2445,skeletonWarrior:3:4890,skeletonArcher:3:3668,meatWagon:3:1834,skeletonArcher:3:3668</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,horseArcher_3:1:1536,ranger_3:1:3072,horseArcher_3:1:1536,catapult_3:1:1152,swordsman_3:1:2304,catapult_3:1:1152</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,ballista_3:1:1544,swordsman_3:1:3088,ballista_3:1:1544,lancer_3:1:1158,ranger_3:1:2316,lancer_3:1:1158</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,skeletonArcher:3:4965,meatWagon:3:2482,skeletonArcher:3:4965,skeletonWarrior:3:3724,deathKnight:3:1862,skeletonWarrior:3:3724</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,sentinel_3:1:3119,lancer_3:1:1559,sentinel_3:1:3119,ranger_3:1:2340,catapult_3:1:1170,ranger_3:1:2340</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,horseArcher_3:1:1567,crossbowman_3:1:3135,horseArcher_3:1:1567,catapult_3:1:1176,swordsman_3:1:2352,catapult_3:1:1176</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,meatWagon:3:2520,skeletonWarrior:3:5041,meatWagon:3:2520,deathKnight:3:1890,skeletonArcher:3:3781,deathKnight:3:1890</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,crossbowman_3:1:3167,ballista_3:1:1583,crossbowman_3:1:3167,swordsman_3:1:2375,lancer_3:1:1187,swordsman_3:1:2375</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,sentinel_3:1:3183,horseArcher_3:1:1591,sentinel_3:1:3183,ranger_3:1:2387,catapult_3:1:1193,ranger_3:1:2387</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,deathKnight:3:2559,skeletonArcher:3:5118,deathKnight:3:2559,meatWagon:3:1919,skeletonWarrior:3:3839,meatWagon:3:1919</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,ballista_3:1:1607,sentinel_3:1:3215,ballista_3:1:1607,horseArcher_3:1:1205,ranger_3:1:2411,horseArcher_3:1:1205</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,crossbowman_3:1:3231,ballista_3:1:1615,crossbowman_3:1:3231,sentinel_3:1:2423,lancer_3:1:1211,sentinel_3:1:2423</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,skeletonWarrior:3:5195,deathKnight:3:2597,skeletonWarrior:3:5195,skeletonArcher:3:3896,meatWagon:3:1948,skeletonArcher:3:3896</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,horseArcher_3:1:1631,crossbowman_3:1:3263,horseArcher_3:1:1631,ballista_3:1:1224,sentinel_3:1:2448,ballista_3:1:1224</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,ballista_3:1:1639,sentinel_3:1:3279,ballista_3:1:1639,horseArcher_3:1:1230,crossbowman_3:1:2460,horseArcher_3:1:1230</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,skeletonArcher:3:5273,meatWagon:3:2636,skeletonArcher:3:5273,skeletonWarrior:3:3955,deathKnight:3:1977,skeletonWarrior:3:3955</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,sentinel_3:1:3312,horseArcher_3:1:1656,sentinel_3:1:3312,crossbowman_3:1:2484,ballista_3:1:1242,crossbowman_3:1:2484</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,lancer_3:1:1664,ranger_3:1:3328,lancer_3:1:1664,catapult_3:1:1248,swordsman_3:1:2496,catapult_3:1:1248</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,meatWagon:3:2675,skeletonWarrior:3:5351,meatWagon:3:2675,deathKnight:3:2006,skeletonArcher:3:4013,deathKnight:3:2006</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,ranger_3:1:3361,catapult_3:1:1680,ranger_3:1:3361,swordsman_3:1:2521,lancer_3:1:1260,swordsman_3:1:2521</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,swordsman_3:1:3377,lancer_3:1:1688,swordsman_3:1:3377,ranger_3:1:2533,catapult_3:1:1266,ranger_3:1:2533</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,deathKnight:3:2715,skeletonArcher:3:5430,deathKnight:3:2715,meatWagon:3:2036,skeletonWarrior:3:4073,meatWagon:3:2036</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,ballista_3:1:1705,swordsman_3:1:3410,ballista_3:1:1705,lancer_3:1:1279,ranger_3:1:2558,lancer_3:1:1279</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,crossbowman_3:1:3427,catapult_3:1:1713,crossbowman_3:1:3427,swordsman_3:1:2570,lancer_3:1:1285,swordsman_3:1:2570</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,skeletonWarrior:3:5509,deathKnight:3:2754,skeletonWarrior:3:5509,skeletonArcher:3:4132,meatWagon:3:2066,skeletonArcher:3:4132</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,horseArcher_3:1:1730,crossbowman_3:1:3460,horseArcher_3:1:1730,catapult_3:1:1297,swordsman_3:1:2595,catapult_3:1:1297</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,ballista_3:1:1738,sentinel_3:1:3477,ballista_3:1:1738,lancer_3:1:1304,ranger_3:1:2608,lancer_3:1:1304</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,skeletonArcher:3:5589,meatWagon:3:2794,skeletonArcher:3:5589,skeletonWarrior:3:4192,deathKnight:3:2096,skeletonWarrior:3:4192</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,sentinel_3:1:3510,horseArcher_3:1:1755,sentinel_3:1:3510,ranger_3:1:2633,catapult_3:1:1316,ranger_3:1:2633</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,horseArcher_3:1:1763,crossbowman_3:1:3527,horseArcher_3:1:1763,ballista_3:1:1322,swordsman_3:1:2645,ballista_3:1:1322</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,meatWagon:3:2835,skeletonWarrior:3:5670,meatWagon:3:2835,deathKnight:3:2126,skeletonArcher:3:4252,deathKnight:3:2126</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,crossbowman_3:1:3561,ballista_3:1:1780,crossbowman_3:1:3561,sentinel_3:1:2671,lancer_3:1:1335,sentinel_3:1:2671</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,sentinel_3:1:3577,horseArcher_3:1:1788,sentinel_3:1:3577,crossbowman_3:1:2683,catapult_3:1:1341,crossbowman_3:1:2683</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,deathKnight:3:2875,skeletonArcher:3:5751,deathKnight:3:2875,meatWagon:3:2156,skeletonWarrior:3:4313,meatWagon:3:2156</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,ballista_3:1:1805,sentinel_3:1:3611,ballista_3:1:1805,horseArcher_3:1:1354,crossbowman_3:1:2709,horseArcher_3:1:1354</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,crossbowman_3:1:3628,ballista_3:1:1814,crossbowman_3:1:3628,sentinel_3:1:2721,horseArcher_3:1:1360,sentinel_3:1:2721</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,skeletonWarrior:3:5832,deathKnight:3:2916,skeletonWarrior:3:5832,skeletonArcher:3:4374,meatWagon:3:2187,skeletonArcher:3:4374</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,lancer_3:2:1831,ranger_3:2:3663,lancer_3:2:1831,catapult_3:2:1373,swordsman_3:2:2747,catapult_3:2:1373</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,catapult_3:2:1840,swordsman_3:2:3680,catapult_3:2:1840,lancer_3:2:1380,ranger_3:2:2760,lancer_3:2:1380</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,skeletonArcher:3:6654,meatWagon:3:3327,skeletonArcher:3:6654,skeletonWarrior:3:4991,deathKnight:3:2495,skeletonWarrior:3:4991</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,swordsman_3:2:3714,lancer_3:2:1857,swordsman_3:2:3714,ranger_3:2:2786,catapult_3:2:1393,ranger_3:2:2786</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,horseArcher_3:2:1865,ranger_3:2:3731,horseArcher_3:2:1865,catapult_3:2:1399,swordsman_3:2:2799,catapult_3:2:1399</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,meatWagon:3:3373,skeletonWarrior:3:6747,meatWagon:3:3373,deathKnight:3:2530,skeletonArcher:3:5061,deathKnight:3:2530</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,crossbowman_3:2:3766,catapult_3:2:1883,crossbowman_3:2:3766,swordsman_3:2:2825,lancer_3:2:1412,swordsman_3:2:2825</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,sentinel_3:2:3783,lancer_3:2:1891,sentinel_3:2:3783,ranger_3:2:2838,catapult_3:2:1419,ranger_3:2:2838</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,deathKnight:3:3420,skeletonArcher:3:6841,deathKnight:3:3420,meatWagon:3:2565,skeletonWarrior:3:5131,meatWagon:3:2565</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,ballista_3:2:1909,sentinel_3:2:3818,ballista_3:2:1909,lancer_3:2:1432,ranger_3:2:2864,lancer_3:2:1432</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,crossbowman_3:2:3836,ballista_3:2:1918,crossbowman_3:2:3836,swordsman_3:2:2877,lancer_3:2:1438,swordsman_3:2:2877</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,skeletonWarrior:3:6936,deathKnight:3:3468,skeletonWarrior:3:6936,skeletonArcher:3:5202,meatWagon:3:2601,skeletonArcher:3:5202</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,horseArcher_3:2:1935,crossbowman_3:2:3871,horseArcher_3:2:1935,ballista_3:2:1451,swordsman_3:2:2903,ballista_3:2:1451</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,ballista_3:2:1944,sentinel_3:2:3888,ballista_3:2:1944,horseArcher_3:2:1458,ranger_3:2:2916,horseArcher_3:2:1458</t>
+  </si>
+  <si>
+    <t>blueDragon:4:35,skeletonArcher:3:7031,meatWagon:3:3515,skeletonArcher:3:7031,skeletonWarrior:3:5273,deathKnight:3:2636,skeletonWarrior:3:5273</t>
+  </si>
+  <si>
+    <t>blueDragon:4:35,sentinel_3:2:3924,horseArcher_3:2:1962,sentinel_3:2:3924,crossbowman_3:2:2943,catapult_3:2:1471,crossbowman_3:2:2943</t>
+  </si>
+  <si>
+    <t>blueDragon:4:35,horseArcher_3:2:1971,crossbowman_3:2:3942,horseArcher_3:2:1971,ballista_3:2:1478,sentinel_3:2:2956,ballista_3:2:1478</t>
+  </si>
+  <si>
+    <t>blueDragon:4:35,meatWagon:3:3563,skeletonWarrior:3:7126,meatWagon:3:3563,deathKnight:3:2672,skeletonArcher:3:5345,deathKnight:3:2672</t>
+  </si>
+  <si>
+    <t>blueDragon:4:35,crossbowman_3:2:3977,ballista_3:2:1988,crossbowman_3:2:3977,sentinel_3:2:2983,horseArcher_3:2:1491,sentinel_3:2:2983</t>
+  </si>
+  <si>
+    <t>blueDragon:4:35,sentinel_3:2:3995,horseArcher_3:2:1997,sentinel_3:2:3995,crossbowman_3:2:2996,ballista_3:2:1498,crossbowman_3:2:2996</t>
+  </si>
+  <si>
+    <t>blueDragon:4:35,deathKnight:3:3611,skeletonArcher:3:7223,deathKnight:3:3611,meatWagon:3:2708,skeletonWarrior:3:5417,meatWagon:3:2708</t>
+  </si>
+  <si>
+    <t>greenDragon:4:35,catapult_3:2:2015,swordsman_3:2:4031,catapult_3:2:2015,lancer_3:2:1511,ranger_3:2:3023,lancer_3:2:1511</t>
+  </si>
+  <si>
+    <t>greenDragon:4:35,ranger_3:2:4049,catapult_3:2:2024,ranger_3:2:4049,swordsman_3:2:3037,lancer_3:2:1518,swordsman_3:2:3037</t>
+  </si>
+  <si>
+    <t>greenDragon:4:35,skeletonWarrior:3:7320,deathKnight:3:3660,skeletonWarrior:3:7320,skeletonArcher:3:5490,meatWagon:3:2745,skeletonArcher:3:5490</t>
+  </si>
+  <si>
+    <t>greenDragon:4:35,horseArcher_3:2:2042,ranger_3:2:4085,horseArcher_3:2:2042,catapult_3:2:1532,swordsman_3:2:3064,catapult_3:2:1532</t>
+  </si>
+  <si>
+    <t>greenDragon:4:35,ballista_3:2:2051,swordsman_3:2:4103,ballista_3:2:2051,lancer_3:2:1538,ranger_3:2:3077,lancer_3:2:1538</t>
+  </si>
+  <si>
+    <t>greenDragon:4:35,skeletonArcher:3:7418,meatWagon:3:3709,skeletonArcher:3:7418,skeletonWarrior:3:5564,deathKnight:3:2782,skeletonWarrior:3:5564</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,sentinel_3:2:4139,lancer_3:2:2069,sentinel_3:2:4139,ranger_3:2:3105,catapult_3:2:1552,ranger_3:2:3105</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,horseArcher_3:2:2079,crossbowman_3:2:4158,horseArcher_3:2:2079,catapult_3:2:1559,swordsman_3:2:3118,catapult_3:2:1559</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,meatWagon:3:3758,skeletonWarrior:3:7516,meatWagon:3:3758,deathKnight:3:2818,skeletonArcher:3:5637,deathKnight:3:2818</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,crossbowman_3:2:4194,ballista_3:2:2097,crossbowman_3:2:4194,swordsman_3:2:3146,lancer_3:2:1573,swordsman_3:2:3146</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,sentinel_3:2:4212,horseArcher_3:2:2106,sentinel_3:2:4212,ranger_3:2:3159,catapult_3:2:1579,ranger_3:2:3159</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,deathKnight:3:3807,skeletonArcher:3:7615,deathKnight:3:3807,meatWagon:3:2856,skeletonWarrior:3:5712,meatWagon:3:2856</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,ballista_3:2:2124,sentinel_3:2:4249,ballista_3:2:2124,horseArcher_3:2:1593,ranger_3:2:3187,horseArcher_3:2:1593</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,crossbowman_3:2:4268,ballista_3:2:2134,crossbowman_3:2:4268,sentinel_3:2:3201,lancer_3:2:1600,sentinel_3:2:3201</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,skeletonWarrior:3:7715,deathKnight:3:3857,skeletonWarrior:3:7715,skeletonArcher:3:5786,meatWagon:3:2893,skeletonArcher:3:5786</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,horseArcher_3:2:2152,crossbowman_3:2:4305,horseArcher_3:2:2152,ballista_3:2:1614,sentinel_3:2:3229,ballista_3:2:1614</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,ballista_3:2:2161,sentinel_3:2:4323,ballista_3:2:2161,horseArcher_3:2:1621,crossbowman_3:2:3243,horseArcher_3:2:1621</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,skeletonArcher:3:7815,meatWagon:3:3907,skeletonArcher:3:7815,skeletonWarrior:3:5862,deathKnight:3:2931,skeletonWarrior:3:5862</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,sentinel_3:2:4361,horseArcher_3:2:2180,sentinel_3:2:4361,crossbowman_3:2:3271,ballista_3:2:1635,crossbowman_3:2:3271</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,lancer_3:2:2189,ranger_3:2:4379,lancer_3:2:2189,catapult_3:2:1642,swordsman_3:2:3285,catapult_3:2:1642</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,meatWagon:3:3958,skeletonWarrior:3:7916,meatWagon:3:3958,deathKnight:3:2968,skeletonArcher:3:5937,deathKnight:3:2968</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,ranger_3:3:4417,catapult_3:3:2208,ranger_3:3:4417,swordsman_3:3:3313,lancer_3:3:1656,swordsman_3:3:3313</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,swordsman_3:3:4436,lancer_3:3:2218,swordsman_3:3:4436,ranger_3:3:3327,catapult_3:3:1663,ranger_3:3:3327</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,deathKnight:3:4454,skeletonArcher:3:8909,deathKnight:3:4454,meatWagon:3:3341,skeletonWarrior:3:6682,meatWagon:3:3341</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,ballista_3:3:2236,swordsman_3:3:4473,ballista_3:3:2236,lancer_3:3:1677,ranger_3:3:3355,lancer_3:3:1677</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,crossbowman_3:3:4492,catapult_3:3:2246,crossbowman_3:3:4492,swordsman_3:3:3369,lancer_3:3:1684,swordsman_3:3:3369</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,skeletonWarrior:3:9022,deathKnight:3:4511,skeletonWarrior:3:9022,skeletonArcher:3:6767,meatWagon:3:3383,skeletonArcher:3:6767</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,horseArcher_3:3:2265,crossbowman_3:3:4530,horseArcher_3:3:2265,catapult_3:3:1699,swordsman_3:3:3398,catapult_3:3:1699</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,ballista_3:3:2274,sentinel_3:3:4549,ballista_3:3:2274,lancer_3:3:1706,ranger_3:3:3412,lancer_3:3:1706</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,skeletonArcher:3:9137,meatWagon:3:4568,skeletonArcher:3:9137,skeletonWarrior:3:6853,deathKnight:3:3426,skeletonWarrior:3:6853</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,sentinel_3:3:4588,horseArcher_3:3:2294,sentinel_3:3:4588,ranger_3:3:3441,catapult_3:3:1720,ranger_3:3:3441</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,horseArcher_3:3:2303,crossbowman_3:3:4607,horseArcher_3:3:2303,ballista_3:3:1727,swordsman_3:3:3455,ballista_3:3:1727</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,meatWagon:3:4626,skeletonWarrior:3:9252,meatWagon:3:4626,deathKnight:3:3469,skeletonArcher:3:6939,deathKnight:3:3469</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,crossbowman_3:3:4645,ballista_3:3:2322,crossbowman_3:3:4645,sentinel_3:3:3484,lancer_3:3:1742,sentinel_3:3:3484</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,sentinel_3:3:4665,horseArcher_3:3:2332,sentinel_3:3:4665,crossbowman_3:3:3499,catapult_3:3:1749,crossbowman_3:3:3499</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,deathKnight:3:4683,skeletonArcher:3:9367,deathKnight:3:4683,meatWagon:3:3513,skeletonWarrior:3:7026,meatWagon:3:3513</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,ballista_3:3:2351,sentinel_3:3:4703,ballista_3:3:2351,horseArcher_3:3:1764,crossbowman_3:3:3528,horseArcher_3:3:1764</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,crossbowman_3:3:4723,ballista_3:3:2361,crossbowman_3:3:4723,sentinel_3:3:3542,horseArcher_3:3:1771,sentinel_3:3:3542</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,skeletonWarrior:3:9484,deathKnight:3:4742,skeletonWarrior:3:9484,skeletonArcher:3:7113,meatWagon:3:3556,skeletonArcher:3:7113</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,lancer_3:3:2381,ranger_3:3:4762,lancer_3:3:2381,catapult_3:3:1786,swordsman_3:3:3572,catapult_3:3:1786</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,catapult_3:3:2390,swordsman_3:3:4781,catapult_3:3:2390,lancer_3:3:1793,ranger_3:3:3586,lancer_3:3:1793</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,skeletonArcher:3:9621,meatWagon:3:4810,skeletonArcher:3:9621,skeletonWarrior:3:7216,deathKnight:3:3608,skeletonWarrior:3:7216</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,swordsman_3:3:4820,lancer_3:3:2410,swordsman_3:3:4820,ranger_3:3:3615,catapult_3:3:1807,ranger_3:3:3615</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,horseArcher_3:3:2427,ranger_3:3:4855,horseArcher_3:3:2427,catapult_3:3:1820,swordsman_3:3:3641,catapult_3:3:1820</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,meatWagon:3:4888,skeletonWarrior:3:9777,meatWagon:3:4888,deathKnight:3:3666,skeletonArcher:3:7333,deathKnight:3:3666</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,crossbowman_3:3:4923,catapult_3:3:2461,crossbowman_3:3:4923,swordsman_3:3:3693,lancer_3:3:1846,swordsman_3:3:3693</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,sentinel_3:3:4958,lancer_3:3:2479,sentinel_3:3:4958,ranger_3:3:3718,catapult_3:3:1859,ranger_3:3:3718</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,deathKnight:3:4992,skeletonArcher:3:9984,deathKnight:3:4992,meatWagon:3:3744,skeletonWarrior:3:7488,meatWagon:3:3744</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,ballista_3:3:2513,sentinel_3:3:5027,ballista_3:3:2513,lancer_3:3:1885,ranger_3:3:3770,lancer_3:3:1885</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,crossbowman_3:3:5062,ballista_3:3:2531,crossbowman_3:3:5062,swordsman_3:3:3796,lancer_3:3:1898,swordsman_3:3:3796</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,skeletonWarrior:3:10192,deathKnight:3:5096,skeletonWarrior:3:10192,skeletonArcher:3:7644,meatWagon:3:3822,skeletonArcher:3:7644</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,horseArcher_3:3:2565,crossbowman_3:3:5131,horseArcher_3:3:2565,ballista_3:3:1924,swordsman_3:3:3849,ballista_3:3:1924</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,ballista_3:3:2583,sentinel_3:3:5166,ballista_3:3:2583,horseArcher_3:3:1937,ranger_3:3:3875,horseArcher_3:3:1937</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,skeletonArcher:3:10403,meatWagon:3:5201,skeletonArcher:3:10403,skeletonWarrior:3:7802,deathKnight:3:3901,skeletonWarrior:3:7802</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,sentinel_3:3:5237,horseArcher_3:3:2618,sentinel_3:3:5237,crossbowman_3:3:3928,catapult_3:3:1964,crossbowman_3:3:3928</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,horseArcher_3:3:2636,crossbowman_3:3:5272,horseArcher_3:3:2636,ballista_3:3:1977,sentinel_3:3:3954,ballista_3:3:1977</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,meatWagon:3:5307,skeletonWarrior:3:10615,meatWagon:3:5307,deathKnight:3:3980,skeletonArcher:3:7961,deathKnight:3:3980</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,crossbowman_3:3:5343,ballista_3:3:2671,crossbowman_3:3:5343,sentinel_3:3:4008,horseArcher_3:3:2004,sentinel_3:3:4008</t>
+  </si>
+  <si>
+    <t>greenDragon:4:40,sentinel_3:3:5379,horseArcher_3:3:2689,sentinel_3:3:5379,crossbowman_3:3:4034,ballista_3:3:2017,crossbowman_3:3:4034</t>
+  </si>
+  <si>
+    <t>greenDragon:4:40,deathKnight:3:5414,skeletonArcher:3:10829,deathKnight:3:5414,meatWagon:3:4061,skeletonWarrior:3:8122,meatWagon:3:4061</t>
+  </si>
+  <si>
+    <t>greenDragon:4:40,catapult_3:3:2725,swordsman_3:3:5450,catapult_3:3:2725,lancer_3:3:2044,ranger_3:3:4088,lancer_3:3:2044</t>
+  </si>
+  <si>
+    <t>greenDragon:4:40,ranger_3:3:5486,catapult_3:3:2743,ranger_3:3:5486,swordsman_3:3:4115,lancer_3:3:2057,swordsman_3:3:4115</t>
+  </si>
+  <si>
+    <t>greenDragon:4:40,skeletonWarrior:3:11045,deathKnight:3:5522,skeletonWarrior:3:11045,skeletonArcher:3:8284,meatWagon:3:4142,skeletonArcher:3:8284</t>
   </si>
 </sst>
 </file>
@@ -4496,7 +4493,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="879">
+  <cellStyleXfs count="881">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -4978,6 +4975,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5447,7 +5446,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="879">
+  <cellStyles count="881">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -5889,6 +5888,7 @@
     <cellStyle name="超链接" xfId="873" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="875" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="877" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="879" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -6323,6 +6323,7 @@
     <cellStyle name="访问过的超链接" xfId="874" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="876" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="878" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="880" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -6776,7 +6777,7 @@
   <dimension ref="A1:H523"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G2" sqref="G2:G508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6835,7 +6836,7 @@
         <v>631</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>1409</v>
+        <v>908</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>658</v>
@@ -6861,7 +6862,7 @@
         <v>631</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>1410</v>
+        <v>909</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>658</v>
@@ -6887,7 +6888,7 @@
         <v>631</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>1411</v>
+        <v>910</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>509</v>
@@ -6913,7 +6914,7 @@
         <v>631</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>658</v>
@@ -6939,7 +6940,7 @@
         <v>631</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>659</v>
@@ -6965,7 +6966,7 @@
         <v>631</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>510</v>
@@ -6991,7 +6992,7 @@
         <v>631</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>659</v>
@@ -7017,7 +7018,7 @@
         <v>631</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>659</v>
@@ -7043,7 +7044,7 @@
         <v>631</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>511</v>
@@ -7069,7 +7070,7 @@
         <v>631</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>660</v>
@@ -7095,7 +7096,7 @@
         <v>631</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>660</v>
@@ -7121,7 +7122,7 @@
         <v>631</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>512</v>
@@ -7147,7 +7148,7 @@
         <v>631</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>661</v>
@@ -7173,7 +7174,7 @@
         <v>631</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>661</v>
@@ -7199,7 +7200,7 @@
         <v>631</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>513</v>
@@ -7225,7 +7226,7 @@
         <v>631</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>661</v>
@@ -7251,7 +7252,7 @@
         <v>631</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>662</v>
@@ -7277,7 +7278,7 @@
         <v>631</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>514</v>
@@ -7303,7 +7304,7 @@
         <v>631</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>662</v>
@@ -7329,7 +7330,7 @@
         <v>631</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>662</v>
@@ -7355,7 +7356,7 @@
         <v>631</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>515</v>
@@ -7381,7 +7382,7 @@
         <v>631</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>663</v>
@@ -7407,7 +7408,7 @@
         <v>631</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>663</v>
@@ -7433,7 +7434,7 @@
         <v>631</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>516</v>
@@ -7459,7 +7460,7 @@
         <v>631</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>664</v>
@@ -7485,7 +7486,7 @@
         <v>631</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>664</v>
@@ -7511,7 +7512,7 @@
         <v>631</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>517</v>
@@ -7537,7 +7538,7 @@
         <v>631</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>664</v>
@@ -7563,7 +7564,7 @@
         <v>631</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>665</v>
@@ -7589,7 +7590,7 @@
         <v>631</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>518</v>
@@ -7615,7 +7616,7 @@
         <v>631</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>665</v>
@@ -7641,7 +7642,7 @@
         <v>631</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>665</v>
@@ -7667,7 +7668,7 @@
         <v>631</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>519</v>
@@ -7693,7 +7694,7 @@
         <v>631</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="H35" s="13" t="s">
         <v>666</v>
@@ -7719,7 +7720,7 @@
         <v>631</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>666</v>
@@ -7745,7 +7746,7 @@
         <v>631</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>520</v>
@@ -7771,7 +7772,7 @@
         <v>631</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>667</v>
@@ -7797,7 +7798,7 @@
         <v>631</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>667</v>
@@ -7823,7 +7824,7 @@
         <v>631</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>521</v>
@@ -7849,7 +7850,7 @@
         <v>631</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>667</v>
@@ -7875,7 +7876,7 @@
         <v>631</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>668</v>
@@ -7901,7 +7902,7 @@
         <v>631</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>522</v>
@@ -7927,7 +7928,7 @@
         <v>632</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>668</v>
@@ -7953,7 +7954,7 @@
         <v>632</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>668</v>
@@ -7979,7 +7980,7 @@
         <v>632</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>523</v>
@@ -8005,7 +8006,7 @@
         <v>632</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>669</v>
@@ -8031,7 +8032,7 @@
         <v>632</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>669</v>
@@ -8057,7 +8058,7 @@
         <v>632</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>524</v>
@@ -8083,7 +8084,7 @@
         <v>632</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>670</v>
@@ -8109,7 +8110,7 @@
         <v>632</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>670</v>
@@ -8135,7 +8136,7 @@
         <v>632</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>525</v>
@@ -8161,7 +8162,7 @@
         <v>632</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>670</v>
@@ -8187,7 +8188,7 @@
         <v>632</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>671</v>
@@ -8213,7 +8214,7 @@
         <v>632</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>526</v>
@@ -8239,7 +8240,7 @@
         <v>632</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>671</v>
@@ -8265,7 +8266,7 @@
         <v>632</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="H57" s="13" t="s">
         <v>671</v>
@@ -8291,7 +8292,7 @@
         <v>632</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="H58" s="13" t="s">
         <v>527</v>
@@ -8317,7 +8318,7 @@
         <v>632</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="H59" s="13" t="s">
         <v>672</v>
@@ -8343,7 +8344,7 @@
         <v>632</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="H60" s="13" t="s">
         <v>672</v>
@@ -8369,7 +8370,7 @@
         <v>632</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="H61" s="13" t="s">
         <v>528</v>
@@ -8395,7 +8396,7 @@
         <v>632</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="H62" s="13" t="s">
         <v>673</v>
@@ -8421,7 +8422,7 @@
         <v>632</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="H63" s="13" t="s">
         <v>673</v>
@@ -8447,7 +8448,7 @@
         <v>632</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="H64" s="13" t="s">
         <v>529</v>
@@ -8473,7 +8474,7 @@
         <v>632</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>673</v>
@@ -8499,7 +8500,7 @@
         <v>632</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="H66" s="13" t="s">
         <v>674</v>
@@ -8525,7 +8526,7 @@
         <v>632</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="H67" s="13" t="s">
         <v>530</v>
@@ -8551,7 +8552,7 @@
         <v>632</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="H68" s="13" t="s">
         <v>674</v>
@@ -8577,7 +8578,7 @@
         <v>632</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="H69" s="13" t="s">
         <v>674</v>
@@ -8603,7 +8604,7 @@
         <v>632</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="H70" s="13" t="s">
         <v>531</v>
@@ -8629,7 +8630,7 @@
         <v>632</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="H71" s="13" t="s">
         <v>675</v>
@@ -8655,7 +8656,7 @@
         <v>632</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="H72" s="13" t="s">
         <v>675</v>
@@ -8681,7 +8682,7 @@
         <v>632</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="H73" s="13" t="s">
         <v>532</v>
@@ -8707,7 +8708,7 @@
         <v>632</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>676</v>
@@ -8733,7 +8734,7 @@
         <v>632</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="H75" s="13" t="s">
         <v>676</v>
@@ -8759,7 +8760,7 @@
         <v>632</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="H76" s="13" t="s">
         <v>533</v>
@@ -8785,7 +8786,7 @@
         <v>632</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>676</v>
@@ -8811,7 +8812,7 @@
         <v>632</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>677</v>
@@ -8837,7 +8838,7 @@
         <v>632</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>534</v>
@@ -8863,7 +8864,7 @@
         <v>632</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="H80" s="13" t="s">
         <v>677</v>
@@ -8889,7 +8890,7 @@
         <v>632</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="H81" s="13" t="s">
         <v>677</v>
@@ -8915,7 +8916,7 @@
         <v>632</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="H82" s="13" t="s">
         <v>535</v>
@@ -8941,7 +8942,7 @@
         <v>632</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>678</v>
@@ -8967,7 +8968,7 @@
         <v>632</v>
       </c>
       <c r="G84" s="20" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="H84" s="13" t="s">
         <v>678</v>
@@ -8993,7 +8994,7 @@
         <v>632</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="H85" s="13" t="s">
         <v>536</v>
@@ -9019,7 +9020,7 @@
         <v>633</v>
       </c>
       <c r="G86" s="20" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="H86" s="13" t="s">
         <v>679</v>
@@ -9045,7 +9046,7 @@
         <v>633</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="H87" s="13" t="s">
         <v>679</v>
@@ -9071,7 +9072,7 @@
         <v>633</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="H88" s="13" t="s">
         <v>537</v>
@@ -9097,7 +9098,7 @@
         <v>633</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="H89" s="13" t="s">
         <v>679</v>
@@ -9123,7 +9124,7 @@
         <v>633</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="H90" s="13" t="s">
         <v>680</v>
@@ -9149,7 +9150,7 @@
         <v>633</v>
       </c>
       <c r="G91" s="20" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="H91" s="13" t="s">
         <v>538</v>
@@ -9175,7 +9176,7 @@
         <v>633</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="H92" s="13" t="s">
         <v>680</v>
@@ -9201,7 +9202,7 @@
         <v>633</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="H93" s="13" t="s">
         <v>680</v>
@@ -9227,7 +9228,7 @@
         <v>633</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="H94" s="13" t="s">
         <v>539</v>
@@ -9253,7 +9254,7 @@
         <v>633</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="H95" s="13" t="s">
         <v>681</v>
@@ -9279,7 +9280,7 @@
         <v>633</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="H96" s="13" t="s">
         <v>681</v>
@@ -9305,7 +9306,7 @@
         <v>633</v>
       </c>
       <c r="G97" s="20" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="H97" s="13" t="s">
         <v>540</v>
@@ -9331,7 +9332,7 @@
         <v>633</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="H98" s="13" t="s">
         <v>682</v>
@@ -9357,7 +9358,7 @@
         <v>633</v>
       </c>
       <c r="G99" s="20" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="H99" s="13" t="s">
         <v>682</v>
@@ -9383,7 +9384,7 @@
         <v>633</v>
       </c>
       <c r="G100" s="20" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="H100" s="13" t="s">
         <v>541</v>
@@ -9409,7 +9410,7 @@
         <v>633</v>
       </c>
       <c r="G101" s="20" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="H101" s="13" t="s">
         <v>682</v>
@@ -9435,7 +9436,7 @@
         <v>633</v>
       </c>
       <c r="G102" s="20" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="H102" s="13" t="s">
         <v>683</v>
@@ -9461,7 +9462,7 @@
         <v>633</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="H103" s="13" t="s">
         <v>542</v>
@@ -9487,7 +9488,7 @@
         <v>633</v>
       </c>
       <c r="G104" s="20" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="H104" s="13" t="s">
         <v>683</v>
@@ -9513,7 +9514,7 @@
         <v>633</v>
       </c>
       <c r="G105" s="20" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="H105" s="13" t="s">
         <v>683</v>
@@ -9539,7 +9540,7 @@
         <v>633</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="H106" s="13" t="s">
         <v>543</v>
@@ -9565,7 +9566,7 @@
         <v>633</v>
       </c>
       <c r="G107" s="20" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="H107" s="13" t="s">
         <v>684</v>
@@ -9591,7 +9592,7 @@
         <v>633</v>
       </c>
       <c r="G108" s="20" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="H108" s="13" t="s">
         <v>684</v>
@@ -9617,7 +9618,7 @@
         <v>633</v>
       </c>
       <c r="G109" s="20" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="H109" s="13" t="s">
         <v>544</v>
@@ -9643,7 +9644,7 @@
         <v>633</v>
       </c>
       <c r="G110" s="20" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="H110" s="13" t="s">
         <v>685</v>
@@ -9669,7 +9670,7 @@
         <v>633</v>
       </c>
       <c r="G111" s="20" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="H111" s="13" t="s">
         <v>685</v>
@@ -9695,7 +9696,7 @@
         <v>633</v>
       </c>
       <c r="G112" s="20" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="H112" s="13" t="s">
         <v>545</v>
@@ -9721,7 +9722,7 @@
         <v>633</v>
       </c>
       <c r="G113" s="20" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="H113" s="13" t="s">
         <v>685</v>
@@ -9747,7 +9748,7 @@
         <v>633</v>
       </c>
       <c r="G114" s="20" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="H114" s="13" t="s">
         <v>686</v>
@@ -9773,7 +9774,7 @@
         <v>633</v>
       </c>
       <c r="G115" s="20" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="H115" s="13" t="s">
         <v>546</v>
@@ -9799,7 +9800,7 @@
         <v>633</v>
       </c>
       <c r="G116" s="20" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="H116" s="13" t="s">
         <v>686</v>
@@ -9825,7 +9826,7 @@
         <v>633</v>
       </c>
       <c r="G117" s="20" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="H117" s="13" t="s">
         <v>686</v>
@@ -9851,7 +9852,7 @@
         <v>633</v>
       </c>
       <c r="G118" s="20" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="H118" s="13" t="s">
         <v>547</v>
@@ -9877,7 +9878,7 @@
         <v>633</v>
       </c>
       <c r="G119" s="20" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="H119" s="13" t="s">
         <v>687</v>
@@ -9903,7 +9904,7 @@
         <v>633</v>
       </c>
       <c r="G120" s="20" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="H120" s="13" t="s">
         <v>687</v>
@@ -9929,7 +9930,7 @@
         <v>633</v>
       </c>
       <c r="G121" s="20" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="H121" s="13" t="s">
         <v>548</v>
@@ -9955,7 +9956,7 @@
         <v>633</v>
       </c>
       <c r="G122" s="20" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="H122" s="13" t="s">
         <v>688</v>
@@ -9981,7 +9982,7 @@
         <v>633</v>
       </c>
       <c r="G123" s="20" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="H123" s="13" t="s">
         <v>688</v>
@@ -10007,7 +10008,7 @@
         <v>633</v>
       </c>
       <c r="G124" s="20" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="H124" s="13" t="s">
         <v>549</v>
@@ -10033,7 +10034,7 @@
         <v>633</v>
       </c>
       <c r="G125" s="20" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="H125" s="13" t="s">
         <v>688</v>
@@ -10059,7 +10060,7 @@
         <v>633</v>
       </c>
       <c r="G126" s="20" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="H126" s="13" t="s">
         <v>689</v>
@@ -10085,7 +10086,7 @@
         <v>633</v>
       </c>
       <c r="G127" s="20" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="H127" s="13" t="s">
         <v>550</v>
@@ -10111,7 +10112,7 @@
         <v>631</v>
       </c>
       <c r="G128" s="20" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="H128" s="13" t="s">
         <v>689</v>
@@ -10137,7 +10138,7 @@
         <v>631</v>
       </c>
       <c r="G129" s="20" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="H129" s="13" t="s">
         <v>689</v>
@@ -10163,7 +10164,7 @@
         <v>631</v>
       </c>
       <c r="G130" s="20" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="H130" s="13" t="s">
         <v>784</v>
@@ -10189,7 +10190,7 @@
         <v>631</v>
       </c>
       <c r="G131" s="20" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="H131" s="13" t="s">
         <v>690</v>
@@ -10215,7 +10216,7 @@
         <v>631</v>
       </c>
       <c r="G132" s="20" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="H132" s="13" t="s">
         <v>690</v>
@@ -10241,7 +10242,7 @@
         <v>631</v>
       </c>
       <c r="G133" s="20" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="H133" s="13" t="s">
         <v>785</v>
@@ -10267,7 +10268,7 @@
         <v>631</v>
       </c>
       <c r="G134" s="20" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="H134" s="13" t="s">
         <v>691</v>
@@ -10293,7 +10294,7 @@
         <v>631</v>
       </c>
       <c r="G135" s="20" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="H135" s="13" t="s">
         <v>691</v>
@@ -10319,7 +10320,7 @@
         <v>631</v>
       </c>
       <c r="G136" s="20" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="H136" s="13" t="s">
         <v>786</v>
@@ -10345,7 +10346,7 @@
         <v>631</v>
       </c>
       <c r="G137" s="20" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="H137" s="13" t="s">
         <v>691</v>
@@ -10371,7 +10372,7 @@
         <v>631</v>
       </c>
       <c r="G138" s="20" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="H138" s="13" t="s">
         <v>692</v>
@@ -10397,7 +10398,7 @@
         <v>631</v>
       </c>
       <c r="G139" s="20" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="H139" s="13" t="s">
         <v>787</v>
@@ -10423,7 +10424,7 @@
         <v>631</v>
       </c>
       <c r="G140" s="20" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="H140" s="13" t="s">
         <v>692</v>
@@ -10449,7 +10450,7 @@
         <v>631</v>
       </c>
       <c r="G141" s="20" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="H141" s="13" t="s">
         <v>692</v>
@@ -10475,7 +10476,7 @@
         <v>631</v>
       </c>
       <c r="G142" s="20" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="H142" s="13" t="s">
         <v>788</v>
@@ -10501,7 +10502,7 @@
         <v>631</v>
       </c>
       <c r="G143" s="20" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="H143" s="13" t="s">
         <v>693</v>
@@ -10527,7 +10528,7 @@
         <v>631</v>
       </c>
       <c r="G144" s="20" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="H144" s="13" t="s">
         <v>693</v>
@@ -10553,7 +10554,7 @@
         <v>631</v>
       </c>
       <c r="G145" s="20" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="H145" s="13" t="s">
         <v>789</v>
@@ -10579,7 +10580,7 @@
         <v>631</v>
       </c>
       <c r="G146" s="20" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="H146" s="13" t="s">
         <v>694</v>
@@ -10605,7 +10606,7 @@
         <v>631</v>
       </c>
       <c r="G147" s="20" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="H147" s="13" t="s">
         <v>694</v>
@@ -10631,7 +10632,7 @@
         <v>631</v>
       </c>
       <c r="G148" s="20" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="H148" s="13" t="s">
         <v>790</v>
@@ -10657,7 +10658,7 @@
         <v>631</v>
       </c>
       <c r="G149" s="20" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="H149" s="13" t="s">
         <v>694</v>
@@ -10683,7 +10684,7 @@
         <v>631</v>
       </c>
       <c r="G150" s="20" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="H150" s="13" t="s">
         <v>695</v>
@@ -10709,7 +10710,7 @@
         <v>631</v>
       </c>
       <c r="G151" s="20" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="H151" s="13" t="s">
         <v>791</v>
@@ -10735,7 +10736,7 @@
         <v>631</v>
       </c>
       <c r="G152" s="20" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="H152" s="13" t="s">
         <v>695</v>
@@ -10761,7 +10762,7 @@
         <v>631</v>
       </c>
       <c r="G153" s="20" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="H153" s="13" t="s">
         <v>695</v>
@@ -10787,7 +10788,7 @@
         <v>631</v>
       </c>
       <c r="G154" s="20" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="H154" s="13" t="s">
         <v>792</v>
@@ -10813,7 +10814,7 @@
         <v>631</v>
       </c>
       <c r="G155" s="20" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="H155" s="13" t="s">
         <v>696</v>
@@ -10839,7 +10840,7 @@
         <v>631</v>
       </c>
       <c r="G156" s="20" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="H156" s="13" t="s">
         <v>696</v>
@@ -10865,7 +10866,7 @@
         <v>631</v>
       </c>
       <c r="G157" s="20" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="H157" s="13" t="s">
         <v>793</v>
@@ -10891,7 +10892,7 @@
         <v>631</v>
       </c>
       <c r="G158" s="20" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="H158" s="13" t="s">
         <v>697</v>
@@ -10917,7 +10918,7 @@
         <v>631</v>
       </c>
       <c r="G159" s="20" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="H159" s="13" t="s">
         <v>697</v>
@@ -10943,7 +10944,7 @@
         <v>631</v>
       </c>
       <c r="G160" s="20" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="H160" s="13" t="s">
         <v>794</v>
@@ -10969,7 +10970,7 @@
         <v>631</v>
       </c>
       <c r="G161" s="20" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="H161" s="13" t="s">
         <v>697</v>
@@ -10995,7 +10996,7 @@
         <v>631</v>
       </c>
       <c r="G162" s="20" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="H162" s="13" t="s">
         <v>698</v>
@@ -11021,7 +11022,7 @@
         <v>631</v>
       </c>
       <c r="G163" s="20" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="H163" s="13" t="s">
         <v>795</v>
@@ -11047,7 +11048,7 @@
         <v>631</v>
       </c>
       <c r="G164" s="20" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="H164" s="13" t="s">
         <v>698</v>
@@ -11073,7 +11074,7 @@
         <v>631</v>
       </c>
       <c r="G165" s="20" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="H165" s="13" t="s">
         <v>698</v>
@@ -11099,7 +11100,7 @@
         <v>631</v>
       </c>
       <c r="G166" s="20" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="H166" s="13" t="s">
         <v>796</v>
@@ -11125,7 +11126,7 @@
         <v>631</v>
       </c>
       <c r="G167" s="20" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="H167" s="13" t="s">
         <v>699</v>
@@ -11151,7 +11152,7 @@
         <v>631</v>
       </c>
       <c r="G168" s="20" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="H168" s="13" t="s">
         <v>699</v>
@@ -11177,7 +11178,7 @@
         <v>631</v>
       </c>
       <c r="G169" s="20" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="H169" s="13" t="s">
         <v>797</v>
@@ -11203,7 +11204,7 @@
         <v>631</v>
       </c>
       <c r="G170" s="20" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="H170" s="13" t="s">
         <v>700</v>
@@ -11229,7 +11230,7 @@
         <v>631</v>
       </c>
       <c r="G171" s="20" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="H171" s="13" t="s">
         <v>700</v>
@@ -11255,7 +11256,7 @@
         <v>631</v>
       </c>
       <c r="G172" s="20" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="H172" s="13" t="s">
         <v>798</v>
@@ -11281,7 +11282,7 @@
         <v>631</v>
       </c>
       <c r="G173" s="20" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="H173" s="13" t="s">
         <v>700</v>
@@ -11307,7 +11308,7 @@
         <v>631</v>
       </c>
       <c r="G174" s="20" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="H174" s="13" t="s">
         <v>701</v>
@@ -11333,7 +11334,7 @@
         <v>631</v>
       </c>
       <c r="G175" s="20" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="H175" s="13" t="s">
         <v>799</v>
@@ -11359,7 +11360,7 @@
         <v>631</v>
       </c>
       <c r="G176" s="20" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="H176" s="13" t="s">
         <v>701</v>
@@ -11385,7 +11386,7 @@
         <v>631</v>
       </c>
       <c r="G177" s="20" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="H177" s="13" t="s">
         <v>701</v>
@@ -11411,7 +11412,7 @@
         <v>631</v>
       </c>
       <c r="G178" s="20" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="H178" s="13" t="s">
         <v>800</v>
@@ -11437,7 +11438,7 @@
         <v>631</v>
       </c>
       <c r="G179" s="20" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="H179" s="13" t="s">
         <v>702</v>
@@ -11463,7 +11464,7 @@
         <v>631</v>
       </c>
       <c r="G180" s="20" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="H180" s="13" t="s">
         <v>702</v>
@@ -11489,7 +11490,7 @@
         <v>631</v>
       </c>
       <c r="G181" s="20" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="H181" s="13" t="s">
         <v>801</v>
@@ -11515,7 +11516,7 @@
         <v>631</v>
       </c>
       <c r="G182" s="20" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="H182" s="13" t="s">
         <v>703</v>
@@ -11541,7 +11542,7 @@
         <v>631</v>
       </c>
       <c r="G183" s="20" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="H183" s="13" t="s">
         <v>703</v>
@@ -11567,7 +11568,7 @@
         <v>631</v>
       </c>
       <c r="G184" s="20" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="H184" s="13" t="s">
         <v>802</v>
@@ -11593,7 +11594,7 @@
         <v>631</v>
       </c>
       <c r="G185" s="20" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="H185" s="13" t="s">
         <v>703</v>
@@ -11619,7 +11620,7 @@
         <v>631</v>
       </c>
       <c r="G186" s="20" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="H186" s="13" t="s">
         <v>704</v>
@@ -11645,7 +11646,7 @@
         <v>631</v>
       </c>
       <c r="G187" s="20" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="H187" s="13" t="s">
         <v>803</v>
@@ -11671,7 +11672,7 @@
         <v>631</v>
       </c>
       <c r="G188" s="20" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="H188" s="13" t="s">
         <v>704</v>
@@ -11697,7 +11698,7 @@
         <v>631</v>
       </c>
       <c r="G189" s="20" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="H189" s="13" t="s">
         <v>704</v>
@@ -11723,7 +11724,7 @@
         <v>631</v>
       </c>
       <c r="G190" s="20" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="H190" s="13" t="s">
         <v>804</v>
@@ -11749,7 +11750,7 @@
         <v>633</v>
       </c>
       <c r="G191" s="20" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="H191" s="13" t="s">
         <v>705</v>
@@ -11775,7 +11776,7 @@
         <v>633</v>
       </c>
       <c r="G192" s="20" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="H192" s="13" t="s">
         <v>705</v>
@@ -11801,7 +11802,7 @@
         <v>633</v>
       </c>
       <c r="G193" s="20" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="H193" s="13" t="s">
         <v>805</v>
@@ -11827,7 +11828,7 @@
         <v>633</v>
       </c>
       <c r="G194" s="20" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="H194" s="13" t="s">
         <v>706</v>
@@ -11853,7 +11854,7 @@
         <v>633</v>
       </c>
       <c r="G195" s="20" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="H195" s="13" t="s">
         <v>706</v>
@@ -11879,7 +11880,7 @@
         <v>633</v>
       </c>
       <c r="G196" s="20" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="H196" s="13" t="s">
         <v>806</v>
@@ -11905,7 +11906,7 @@
         <v>633</v>
       </c>
       <c r="G197" s="20" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="H197" s="13" t="s">
         <v>706</v>
@@ -11931,7 +11932,7 @@
         <v>633</v>
       </c>
       <c r="G198" s="20" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="H198" s="13" t="s">
         <v>707</v>
@@ -11957,7 +11958,7 @@
         <v>633</v>
       </c>
       <c r="G199" s="20" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="H199" s="13" t="s">
         <v>807</v>
@@ -11983,7 +11984,7 @@
         <v>633</v>
       </c>
       <c r="G200" s="20" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="H200" s="13" t="s">
         <v>707</v>
@@ -12009,7 +12010,7 @@
         <v>633</v>
       </c>
       <c r="G201" s="20" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="H201" s="13" t="s">
         <v>707</v>
@@ -12035,7 +12036,7 @@
         <v>633</v>
       </c>
       <c r="G202" s="20" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="H202" s="13" t="s">
         <v>808</v>
@@ -12061,7 +12062,7 @@
         <v>633</v>
       </c>
       <c r="G203" s="20" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="H203" s="13" t="s">
         <v>708</v>
@@ -12087,7 +12088,7 @@
         <v>633</v>
       </c>
       <c r="G204" s="20" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="H204" s="13" t="s">
         <v>708</v>
@@ -12113,7 +12114,7 @@
         <v>633</v>
       </c>
       <c r="G205" s="20" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="H205" s="13" t="s">
         <v>809</v>
@@ -12139,7 +12140,7 @@
         <v>633</v>
       </c>
       <c r="G206" s="20" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="H206" s="13" t="s">
         <v>709</v>
@@ -12165,7 +12166,7 @@
         <v>633</v>
       </c>
       <c r="G207" s="20" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="H207" s="13" t="s">
         <v>709</v>
@@ -12191,7 +12192,7 @@
         <v>633</v>
       </c>
       <c r="G208" s="20" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="H208" s="13" t="s">
         <v>810</v>
@@ -12217,7 +12218,7 @@
         <v>633</v>
       </c>
       <c r="G209" s="20" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="H209" s="13" t="s">
         <v>709</v>
@@ -12243,7 +12244,7 @@
         <v>633</v>
       </c>
       <c r="G210" s="20" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="H210" s="13" t="s">
         <v>710</v>
@@ -12269,7 +12270,7 @@
         <v>633</v>
       </c>
       <c r="G211" s="20" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="H211" s="13" t="s">
         <v>811</v>
@@ -12295,7 +12296,7 @@
         <v>633</v>
       </c>
       <c r="G212" s="20" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="H212" s="13" t="s">
         <v>710</v>
@@ -12321,7 +12322,7 @@
         <v>633</v>
       </c>
       <c r="G213" s="20" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="H213" s="13" t="s">
         <v>710</v>
@@ -12347,7 +12348,7 @@
         <v>633</v>
       </c>
       <c r="G214" s="20" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="H214" s="13" t="s">
         <v>812</v>
@@ -12373,7 +12374,7 @@
         <v>633</v>
       </c>
       <c r="G215" s="20" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="H215" s="13" t="s">
         <v>711</v>
@@ -12399,7 +12400,7 @@
         <v>633</v>
       </c>
       <c r="G216" s="20" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="H216" s="13" t="s">
         <v>711</v>
@@ -12425,7 +12426,7 @@
         <v>633</v>
       </c>
       <c r="G217" s="20" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="H217" s="13" t="s">
         <v>813</v>
@@ -12451,7 +12452,7 @@
         <v>633</v>
       </c>
       <c r="G218" s="20" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="H218" s="13" t="s">
         <v>712</v>
@@ -12477,7 +12478,7 @@
         <v>633</v>
       </c>
       <c r="G219" s="20" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="H219" s="13" t="s">
         <v>712</v>
@@ -12503,7 +12504,7 @@
         <v>633</v>
       </c>
       <c r="G220" s="20" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="H220" s="13" t="s">
         <v>814</v>
@@ -12529,7 +12530,7 @@
         <v>633</v>
       </c>
       <c r="G221" s="20" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="H221" s="13" t="s">
         <v>712</v>
@@ -12555,7 +12556,7 @@
         <v>633</v>
       </c>
       <c r="G222" s="20" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="H222" s="13" t="s">
         <v>713</v>
@@ -12581,7 +12582,7 @@
         <v>633</v>
       </c>
       <c r="G223" s="20" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="H223" s="13" t="s">
         <v>815</v>
@@ -12607,7 +12608,7 @@
         <v>633</v>
       </c>
       <c r="G224" s="20" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="H224" s="13" t="s">
         <v>713</v>
@@ -12633,7 +12634,7 @@
         <v>633</v>
       </c>
       <c r="G225" s="20" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="H225" s="13" t="s">
         <v>713</v>
@@ -12659,7 +12660,7 @@
         <v>633</v>
       </c>
       <c r="G226" s="20" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="H226" s="13" t="s">
         <v>816</v>
@@ -12685,7 +12686,7 @@
         <v>633</v>
       </c>
       <c r="G227" s="20" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="H227" s="13" t="s">
         <v>714</v>
@@ -12711,7 +12712,7 @@
         <v>633</v>
       </c>
       <c r="G228" s="20" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="H228" s="13" t="s">
         <v>714</v>
@@ -12737,7 +12738,7 @@
         <v>633</v>
       </c>
       <c r="G229" s="20" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="H229" s="13" t="s">
         <v>817</v>
@@ -12763,7 +12764,7 @@
         <v>633</v>
       </c>
       <c r="G230" s="20" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="H230" s="13" t="s">
         <v>715</v>
@@ -12789,7 +12790,7 @@
         <v>633</v>
       </c>
       <c r="G231" s="20" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="H231" s="13" t="s">
         <v>715</v>
@@ -12815,7 +12816,7 @@
         <v>633</v>
       </c>
       <c r="G232" s="20" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="H232" s="13" t="s">
         <v>818</v>
@@ -12841,7 +12842,7 @@
         <v>633</v>
       </c>
       <c r="G233" s="20" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="H233" s="13" t="s">
         <v>715</v>
@@ -12867,7 +12868,7 @@
         <v>633</v>
       </c>
       <c r="G234" s="20" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="H234" s="13" t="s">
         <v>716</v>
@@ -12893,7 +12894,7 @@
         <v>633</v>
       </c>
       <c r="G235" s="20" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="H235" s="13" t="s">
         <v>819</v>
@@ -12919,7 +12920,7 @@
         <v>633</v>
       </c>
       <c r="G236" s="20" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="H236" s="13" t="s">
         <v>716</v>
@@ -12945,7 +12946,7 @@
         <v>633</v>
       </c>
       <c r="G237" s="20" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="H237" s="13" t="s">
         <v>716</v>
@@ -12971,7 +12972,7 @@
         <v>633</v>
       </c>
       <c r="G238" s="20" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="H238" s="13" t="s">
         <v>820</v>
@@ -12997,7 +12998,7 @@
         <v>633</v>
       </c>
       <c r="G239" s="20" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="H239" s="13" t="s">
         <v>717</v>
@@ -13023,7 +13024,7 @@
         <v>633</v>
       </c>
       <c r="G240" s="20" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="H240" s="13" t="s">
         <v>717</v>
@@ -13049,7 +13050,7 @@
         <v>633</v>
       </c>
       <c r="G241" s="20" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="H241" s="13" t="s">
         <v>821</v>
@@ -13075,7 +13076,7 @@
         <v>633</v>
       </c>
       <c r="G242" s="20" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="H242" s="13" t="s">
         <v>718</v>
@@ -13101,7 +13102,7 @@
         <v>633</v>
       </c>
       <c r="G243" s="20" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="H243" s="13" t="s">
         <v>718</v>
@@ -13127,7 +13128,7 @@
         <v>633</v>
       </c>
       <c r="G244" s="20" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="H244" s="13" t="s">
         <v>822</v>
@@ -13153,7 +13154,7 @@
         <v>633</v>
       </c>
       <c r="G245" s="20" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="H245" s="13" t="s">
         <v>718</v>
@@ -13179,7 +13180,7 @@
         <v>633</v>
       </c>
       <c r="G246" s="20" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="H246" s="13" t="s">
         <v>719</v>
@@ -13205,7 +13206,7 @@
         <v>633</v>
       </c>
       <c r="G247" s="20" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="H247" s="13" t="s">
         <v>823</v>
@@ -13231,7 +13232,7 @@
         <v>633</v>
       </c>
       <c r="G248" s="20" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="H248" s="13" t="s">
         <v>719</v>
@@ -13257,7 +13258,7 @@
         <v>633</v>
       </c>
       <c r="G249" s="20" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="H249" s="13" t="s">
         <v>719</v>
@@ -13283,7 +13284,7 @@
         <v>633</v>
       </c>
       <c r="G250" s="20" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="H250" s="13" t="s">
         <v>824</v>
@@ -13309,7 +13310,7 @@
         <v>633</v>
       </c>
       <c r="G251" s="20" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="H251" s="13" t="s">
         <v>720</v>
@@ -13335,7 +13336,7 @@
         <v>633</v>
       </c>
       <c r="G252" s="20" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="H252" s="13" t="s">
         <v>720</v>
@@ -13361,7 +13362,7 @@
         <v>633</v>
       </c>
       <c r="G253" s="20" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="H253" s="13" t="s">
         <v>825</v>
@@ -13387,7 +13388,7 @@
         <v>632</v>
       </c>
       <c r="G254" s="20" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="H254" s="13" t="s">
         <v>721</v>
@@ -13413,7 +13414,7 @@
         <v>632</v>
       </c>
       <c r="G255" s="20" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="H255" s="13" t="s">
         <v>721</v>
@@ -13439,7 +13440,7 @@
         <v>632</v>
       </c>
       <c r="G256" s="20" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="H256" s="13" t="s">
         <v>826</v>
@@ -13465,7 +13466,7 @@
         <v>632</v>
       </c>
       <c r="G257" s="20" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="H257" s="13" t="s">
         <v>721</v>
@@ -13491,7 +13492,7 @@
         <v>632</v>
       </c>
       <c r="G258" s="20" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="H258" s="13" t="s">
         <v>722</v>
@@ -13517,7 +13518,7 @@
         <v>632</v>
       </c>
       <c r="G259" s="20" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="H259" s="13" t="s">
         <v>827</v>
@@ -13543,7 +13544,7 @@
         <v>632</v>
       </c>
       <c r="G260" s="20" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="H260" s="13" t="s">
         <v>722</v>
@@ -13569,7 +13570,7 @@
         <v>632</v>
       </c>
       <c r="G261" s="20" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="H261" s="13" t="s">
         <v>722</v>
@@ -13595,7 +13596,7 @@
         <v>632</v>
       </c>
       <c r="G262" s="20" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="H262" s="13" t="s">
         <v>828</v>
@@ -13621,7 +13622,7 @@
         <v>632</v>
       </c>
       <c r="G263" s="20" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="H263" s="13" t="s">
         <v>723</v>
@@ -13647,7 +13648,7 @@
         <v>632</v>
       </c>
       <c r="G264" s="20" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="H264" s="13" t="s">
         <v>723</v>
@@ -13673,7 +13674,7 @@
         <v>632</v>
       </c>
       <c r="G265" s="20" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="H265" s="13" t="s">
         <v>829</v>
@@ -13699,7 +13700,7 @@
         <v>632</v>
       </c>
       <c r="G266" s="20" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="H266" s="13" t="s">
         <v>724</v>
@@ -13725,7 +13726,7 @@
         <v>632</v>
       </c>
       <c r="G267" s="20" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="H267" s="13" t="s">
         <v>724</v>
@@ -13751,7 +13752,7 @@
         <v>632</v>
       </c>
       <c r="G268" s="20" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="H268" s="13" t="s">
         <v>830</v>
@@ -13777,7 +13778,7 @@
         <v>632</v>
       </c>
       <c r="G269" s="20" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="H269" s="13" t="s">
         <v>724</v>
@@ -13803,7 +13804,7 @@
         <v>632</v>
       </c>
       <c r="G270" s="20" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="H270" s="13" t="s">
         <v>725</v>
@@ -13829,7 +13830,7 @@
         <v>632</v>
       </c>
       <c r="G271" s="20" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="H271" s="13" t="s">
         <v>831</v>
@@ -13855,7 +13856,7 @@
         <v>632</v>
       </c>
       <c r="G272" s="20" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="H272" s="13" t="s">
         <v>725</v>
@@ -13881,7 +13882,7 @@
         <v>632</v>
       </c>
       <c r="G273" s="20" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="H273" s="13" t="s">
         <v>725</v>
@@ -13907,7 +13908,7 @@
         <v>632</v>
       </c>
       <c r="G274" s="20" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="H274" s="13" t="s">
         <v>832</v>
@@ -13933,7 +13934,7 @@
         <v>632</v>
       </c>
       <c r="G275" s="20" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="H275" s="13" t="s">
         <v>726</v>
@@ -13959,7 +13960,7 @@
         <v>632</v>
       </c>
       <c r="G276" s="20" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="H276" s="13" t="s">
         <v>726</v>
@@ -13985,7 +13986,7 @@
         <v>632</v>
       </c>
       <c r="G277" s="20" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="H277" s="13" t="s">
         <v>833</v>
@@ -14011,7 +14012,7 @@
         <v>632</v>
       </c>
       <c r="G278" s="20" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="H278" s="13" t="s">
         <v>727</v>
@@ -14037,7 +14038,7 @@
         <v>632</v>
       </c>
       <c r="G279" s="20" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="H279" s="13" t="s">
         <v>727</v>
@@ -14063,7 +14064,7 @@
         <v>632</v>
       </c>
       <c r="G280" s="20" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="H280" s="13" t="s">
         <v>834</v>
@@ -14089,7 +14090,7 @@
         <v>632</v>
       </c>
       <c r="G281" s="20" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="H281" s="13" t="s">
         <v>727</v>
@@ -14115,7 +14116,7 @@
         <v>632</v>
       </c>
       <c r="G282" s="20" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="H282" s="13" t="s">
         <v>728</v>
@@ -14141,7 +14142,7 @@
         <v>632</v>
       </c>
       <c r="G283" s="20" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="H283" s="13" t="s">
         <v>835</v>
@@ -14167,7 +14168,7 @@
         <v>632</v>
       </c>
       <c r="G284" s="20" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="H284" s="13" t="s">
         <v>728</v>
@@ -14193,7 +14194,7 @@
         <v>632</v>
       </c>
       <c r="G285" s="20" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="H285" s="13" t="s">
         <v>728</v>
@@ -14219,7 +14220,7 @@
         <v>632</v>
       </c>
       <c r="G286" s="20" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="H286" s="13" t="s">
         <v>836</v>
@@ -14245,7 +14246,7 @@
         <v>632</v>
       </c>
       <c r="G287" s="20" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="H287" s="13" t="s">
         <v>729</v>
@@ -14271,7 +14272,7 @@
         <v>632</v>
       </c>
       <c r="G288" s="20" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="H288" s="13" t="s">
         <v>729</v>
@@ -14297,7 +14298,7 @@
         <v>632</v>
       </c>
       <c r="G289" s="20" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="H289" s="13" t="s">
         <v>837</v>
@@ -14323,7 +14324,7 @@
         <v>632</v>
       </c>
       <c r="G290" s="20" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="H290" s="13" t="s">
         <v>730</v>
@@ -14349,7 +14350,7 @@
         <v>632</v>
       </c>
       <c r="G291" s="20" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="H291" s="13" t="s">
         <v>730</v>
@@ -14375,7 +14376,7 @@
         <v>632</v>
       </c>
       <c r="G292" s="20" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="H292" s="13" t="s">
         <v>838</v>
@@ -14401,7 +14402,7 @@
         <v>632</v>
       </c>
       <c r="G293" s="20" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="H293" s="13" t="s">
         <v>730</v>
@@ -14427,7 +14428,7 @@
         <v>632</v>
       </c>
       <c r="G294" s="20" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="H294" s="13" t="s">
         <v>731</v>
@@ -14453,7 +14454,7 @@
         <v>632</v>
       </c>
       <c r="G295" s="20" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="H295" s="13" t="s">
         <v>839</v>
@@ -14479,7 +14480,7 @@
         <v>632</v>
       </c>
       <c r="G296" s="20" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="H296" s="13" t="s">
         <v>731</v>
@@ -14505,7 +14506,7 @@
         <v>632</v>
       </c>
       <c r="G297" s="20" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="H297" s="13" t="s">
         <v>731</v>
@@ -14531,7 +14532,7 @@
         <v>632</v>
       </c>
       <c r="G298" s="20" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="H298" s="13" t="s">
         <v>840</v>
@@ -14557,7 +14558,7 @@
         <v>632</v>
       </c>
       <c r="G299" s="20" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="H299" s="13" t="s">
         <v>732</v>
@@ -14583,7 +14584,7 @@
         <v>632</v>
       </c>
       <c r="G300" s="20" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="H300" s="13" t="s">
         <v>732</v>
@@ -14609,7 +14610,7 @@
         <v>632</v>
       </c>
       <c r="G301" s="20" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="H301" s="13" t="s">
         <v>841</v>
@@ -14635,7 +14636,7 @@
         <v>632</v>
       </c>
       <c r="G302" s="20" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="H302" s="13" t="s">
         <v>733</v>
@@ -14661,7 +14662,7 @@
         <v>632</v>
       </c>
       <c r="G303" s="20" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="H303" s="13" t="s">
         <v>733</v>
@@ -14687,7 +14688,7 @@
         <v>632</v>
       </c>
       <c r="G304" s="20" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="H304" s="13" t="s">
         <v>842</v>
@@ -14713,7 +14714,7 @@
         <v>632</v>
       </c>
       <c r="G305" s="20" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="H305" s="13" t="s">
         <v>733</v>
@@ -14739,7 +14740,7 @@
         <v>632</v>
       </c>
       <c r="G306" s="20" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="H306" s="13" t="s">
         <v>734</v>
@@ -14765,7 +14766,7 @@
         <v>632</v>
       </c>
       <c r="G307" s="20" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="H307" s="13" t="s">
         <v>843</v>
@@ -14791,7 +14792,7 @@
         <v>632</v>
       </c>
       <c r="G308" s="20" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="H308" s="13" t="s">
         <v>734</v>
@@ -14817,7 +14818,7 @@
         <v>632</v>
       </c>
       <c r="G309" s="20" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="H309" s="13" t="s">
         <v>734</v>
@@ -14843,7 +14844,7 @@
         <v>632</v>
       </c>
       <c r="G310" s="20" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="H310" s="13" t="s">
         <v>844</v>
@@ -14869,7 +14870,7 @@
         <v>632</v>
       </c>
       <c r="G311" s="20" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="H311" s="13" t="s">
         <v>735</v>
@@ -14895,7 +14896,7 @@
         <v>632</v>
       </c>
       <c r="G312" s="20" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="H312" s="13" t="s">
         <v>735</v>
@@ -14921,7 +14922,7 @@
         <v>632</v>
       </c>
       <c r="G313" s="20" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="H313" s="13" t="s">
         <v>845</v>
@@ -14947,7 +14948,7 @@
         <v>632</v>
       </c>
       <c r="G314" s="20" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="H314" s="13" t="s">
         <v>736</v>
@@ -14973,7 +14974,7 @@
         <v>632</v>
       </c>
       <c r="G315" s="20" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="H315" s="13" t="s">
         <v>736</v>
@@ -14999,7 +15000,7 @@
         <v>632</v>
       </c>
       <c r="G316" s="20" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="H316" s="13" t="s">
         <v>846</v>
@@ -15025,7 +15026,7 @@
         <v>633</v>
       </c>
       <c r="G317" s="20" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="H317" s="13" t="s">
         <v>736</v>
@@ -15051,7 +15052,7 @@
         <v>633</v>
       </c>
       <c r="G318" s="20" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="H318" s="13" t="s">
         <v>737</v>
@@ -15077,7 +15078,7 @@
         <v>633</v>
       </c>
       <c r="G319" s="20" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="H319" s="13" t="s">
         <v>847</v>
@@ -15103,7 +15104,7 @@
         <v>633</v>
       </c>
       <c r="G320" s="20" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="H320" s="13" t="s">
         <v>737</v>
@@ -15129,7 +15130,7 @@
         <v>633</v>
       </c>
       <c r="G321" s="20" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="H321" s="13" t="s">
         <v>737</v>
@@ -15155,7 +15156,7 @@
         <v>633</v>
       </c>
       <c r="G322" s="20" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="H322" s="13" t="s">
         <v>848</v>
@@ -15181,7 +15182,7 @@
         <v>633</v>
       </c>
       <c r="G323" s="20" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="H323" s="13" t="s">
         <v>738</v>
@@ -15207,7 +15208,7 @@
         <v>633</v>
       </c>
       <c r="G324" s="20" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="H324" s="13" t="s">
         <v>738</v>
@@ -15233,7 +15234,7 @@
         <v>633</v>
       </c>
       <c r="G325" s="20" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="H325" s="13" t="s">
         <v>849</v>
@@ -15259,7 +15260,7 @@
         <v>633</v>
       </c>
       <c r="G326" s="20" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="H326" s="13" t="s">
         <v>739</v>
@@ -15285,7 +15286,7 @@
         <v>633</v>
       </c>
       <c r="G327" s="20" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="H327" s="13" t="s">
         <v>739</v>
@@ -15311,7 +15312,7 @@
         <v>633</v>
       </c>
       <c r="G328" s="20" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="H328" s="13" t="s">
         <v>850</v>
@@ -15337,7 +15338,7 @@
         <v>633</v>
       </c>
       <c r="G329" s="20" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="H329" s="13" t="s">
         <v>739</v>
@@ -15363,7 +15364,7 @@
         <v>633</v>
       </c>
       <c r="G330" s="20" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="H330" s="13" t="s">
         <v>740</v>
@@ -15389,7 +15390,7 @@
         <v>633</v>
       </c>
       <c r="G331" s="20" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="H331" s="13" t="s">
         <v>851</v>
@@ -15415,7 +15416,7 @@
         <v>633</v>
       </c>
       <c r="G332" s="20" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="H332" s="13" t="s">
         <v>740</v>
@@ -15441,7 +15442,7 @@
         <v>633</v>
       </c>
       <c r="G333" s="20" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="H333" s="13" t="s">
         <v>740</v>
@@ -15467,7 +15468,7 @@
         <v>633</v>
       </c>
       <c r="G334" s="20" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="H334" s="13" t="s">
         <v>852</v>
@@ -15493,7 +15494,7 @@
         <v>633</v>
       </c>
       <c r="G335" s="20" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="H335" s="13" t="s">
         <v>741</v>
@@ -15519,7 +15520,7 @@
         <v>633</v>
       </c>
       <c r="G336" s="20" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="H336" s="13" t="s">
         <v>741</v>
@@ -15545,7 +15546,7 @@
         <v>633</v>
       </c>
       <c r="G337" s="20" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="H337" s="13" t="s">
         <v>853</v>
@@ -15571,7 +15572,7 @@
         <v>633</v>
       </c>
       <c r="G338" s="20" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="H338" s="13" t="s">
         <v>742</v>
@@ -15597,7 +15598,7 @@
         <v>633</v>
       </c>
       <c r="G339" s="20" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="H339" s="13" t="s">
         <v>742</v>
@@ -15623,7 +15624,7 @@
         <v>633</v>
       </c>
       <c r="G340" s="20" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="H340" s="13" t="s">
         <v>854</v>
@@ -15649,7 +15650,7 @@
         <v>633</v>
       </c>
       <c r="G341" s="20" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="H341" s="13" t="s">
         <v>742</v>
@@ -15675,7 +15676,7 @@
         <v>633</v>
       </c>
       <c r="G342" s="20" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="H342" s="13" t="s">
         <v>743</v>
@@ -15701,7 +15702,7 @@
         <v>633</v>
       </c>
       <c r="G343" s="20" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="H343" s="13" t="s">
         <v>855</v>
@@ -15727,7 +15728,7 @@
         <v>633</v>
       </c>
       <c r="G344" s="20" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="H344" s="13" t="s">
         <v>743</v>
@@ -15753,7 +15754,7 @@
         <v>633</v>
       </c>
       <c r="G345" s="20" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="H345" s="13" t="s">
         <v>743</v>
@@ -15779,7 +15780,7 @@
         <v>633</v>
       </c>
       <c r="G346" s="20" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="H346" s="13" t="s">
         <v>856</v>
@@ -15805,7 +15806,7 @@
         <v>633</v>
       </c>
       <c r="G347" s="20" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="H347" s="13" t="s">
         <v>744</v>
@@ -15831,7 +15832,7 @@
         <v>633</v>
       </c>
       <c r="G348" s="20" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="H348" s="13" t="s">
         <v>744</v>
@@ -15857,7 +15858,7 @@
         <v>633</v>
       </c>
       <c r="G349" s="20" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="H349" s="13" t="s">
         <v>857</v>
@@ -15883,7 +15884,7 @@
         <v>633</v>
       </c>
       <c r="G350" s="20" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="H350" s="13" t="s">
         <v>745</v>
@@ -15909,7 +15910,7 @@
         <v>633</v>
       </c>
       <c r="G351" s="20" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="H351" s="13" t="s">
         <v>745</v>
@@ -15935,7 +15936,7 @@
         <v>633</v>
       </c>
       <c r="G352" s="20" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="H352" s="13" t="s">
         <v>858</v>
@@ -15961,7 +15962,7 @@
         <v>633</v>
       </c>
       <c r="G353" s="20" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="H353" s="13" t="s">
         <v>745</v>
@@ -15987,7 +15988,7 @@
         <v>633</v>
       </c>
       <c r="G354" s="20" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="H354" s="13" t="s">
         <v>746</v>
@@ -16013,7 +16014,7 @@
         <v>633</v>
       </c>
       <c r="G355" s="20" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="H355" s="13" t="s">
         <v>859</v>
@@ -16039,7 +16040,7 @@
         <v>633</v>
       </c>
       <c r="G356" s="20" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="H356" s="13" t="s">
         <v>746</v>
@@ -16065,7 +16066,7 @@
         <v>633</v>
       </c>
       <c r="G357" s="20" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="H357" s="13" t="s">
         <v>746</v>
@@ -16091,7 +16092,7 @@
         <v>633</v>
       </c>
       <c r="G358" s="20" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="H358" s="13" t="s">
         <v>860</v>
@@ -16117,7 +16118,7 @@
         <v>633</v>
       </c>
       <c r="G359" s="20" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="H359" s="13" t="s">
         <v>747</v>
@@ -16143,7 +16144,7 @@
         <v>633</v>
       </c>
       <c r="G360" s="20" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="H360" s="13" t="s">
         <v>747</v>
@@ -16169,7 +16170,7 @@
         <v>633</v>
       </c>
       <c r="G361" s="20" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="H361" s="13" t="s">
         <v>861</v>
@@ -16195,7 +16196,7 @@
         <v>633</v>
       </c>
       <c r="G362" s="20" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="H362" s="13" t="s">
         <v>748</v>
@@ -16221,7 +16222,7 @@
         <v>633</v>
       </c>
       <c r="G363" s="20" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="H363" s="13" t="s">
         <v>748</v>
@@ -16247,7 +16248,7 @@
         <v>633</v>
       </c>
       <c r="G364" s="20" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="H364" s="13" t="s">
         <v>862</v>
@@ -16273,7 +16274,7 @@
         <v>633</v>
       </c>
       <c r="G365" s="20" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="H365" s="13" t="s">
         <v>748</v>
@@ -16299,7 +16300,7 @@
         <v>633</v>
       </c>
       <c r="G366" s="20" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="H366" s="13" t="s">
         <v>749</v>
@@ -16325,7 +16326,7 @@
         <v>633</v>
       </c>
       <c r="G367" s="20" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="H367" s="13" t="s">
         <v>863</v>
@@ -16351,7 +16352,7 @@
         <v>633</v>
       </c>
       <c r="G368" s="20" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="H368" s="13" t="s">
         <v>749</v>
@@ -16377,7 +16378,7 @@
         <v>633</v>
       </c>
       <c r="G369" s="20" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="H369" s="13" t="s">
         <v>749</v>
@@ -16403,7 +16404,7 @@
         <v>633</v>
       </c>
       <c r="G370" s="20" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="H370" s="13" t="s">
         <v>864</v>
@@ -16429,7 +16430,7 @@
         <v>633</v>
       </c>
       <c r="G371" s="20" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="H371" s="13" t="s">
         <v>750</v>
@@ -16455,7 +16456,7 @@
         <v>633</v>
       </c>
       <c r="G372" s="20" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="H372" s="13" t="s">
         <v>750</v>
@@ -16481,7 +16482,7 @@
         <v>633</v>
       </c>
       <c r="G373" s="20" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="H373" s="13" t="s">
         <v>865</v>
@@ -16507,7 +16508,7 @@
         <v>633</v>
       </c>
       <c r="G374" s="20" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="H374" s="13" t="s">
         <v>751</v>
@@ -16533,7 +16534,7 @@
         <v>633</v>
       </c>
       <c r="G375" s="20" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="H375" s="13" t="s">
         <v>751</v>
@@ -16559,7 +16560,7 @@
         <v>633</v>
       </c>
       <c r="G376" s="20" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="H376" s="13" t="s">
         <v>866</v>
@@ -16585,7 +16586,7 @@
         <v>633</v>
       </c>
       <c r="G377" s="20" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="H377" s="13" t="s">
         <v>751</v>
@@ -16611,7 +16612,7 @@
         <v>633</v>
       </c>
       <c r="G378" s="20" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="H378" s="13" t="s">
         <v>752</v>
@@ -16637,7 +16638,7 @@
         <v>633</v>
       </c>
       <c r="G379" s="20" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="H379" s="13" t="s">
         <v>867</v>
@@ -16663,7 +16664,7 @@
         <v>631</v>
       </c>
       <c r="G380" s="20" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="H380" s="13" t="s">
         <v>752</v>
@@ -16689,7 +16690,7 @@
         <v>631</v>
       </c>
       <c r="G381" s="20" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="H381" s="13" t="s">
         <v>752</v>
@@ -16715,7 +16716,7 @@
         <v>631</v>
       </c>
       <c r="G382" s="20" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="H382" s="13" t="s">
         <v>868</v>
@@ -16741,7 +16742,7 @@
         <v>631</v>
       </c>
       <c r="G383" s="20" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="H383" s="13" t="s">
         <v>753</v>
@@ -16767,7 +16768,7 @@
         <v>631</v>
       </c>
       <c r="G384" s="20" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="H384" s="13" t="s">
         <v>753</v>
@@ -16793,7 +16794,7 @@
         <v>631</v>
       </c>
       <c r="G385" s="20" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="H385" s="13" t="s">
         <v>869</v>
@@ -16819,7 +16820,7 @@
         <v>631</v>
       </c>
       <c r="G386" s="20" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="H386" s="13" t="s">
         <v>754</v>
@@ -16845,7 +16846,7 @@
         <v>631</v>
       </c>
       <c r="G387" s="20" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="H387" s="13" t="s">
         <v>754</v>
@@ -16871,7 +16872,7 @@
         <v>631</v>
       </c>
       <c r="G388" s="20" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="H388" s="13" t="s">
         <v>870</v>
@@ -16897,7 +16898,7 @@
         <v>631</v>
       </c>
       <c r="G389" s="20" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="H389" s="13" t="s">
         <v>754</v>
@@ -16923,7 +16924,7 @@
         <v>631</v>
       </c>
       <c r="G390" s="20" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="H390" s="13" t="s">
         <v>755</v>
@@ -16949,7 +16950,7 @@
         <v>631</v>
       </c>
       <c r="G391" s="20" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="H391" s="13" t="s">
         <v>871</v>
@@ -16975,7 +16976,7 @@
         <v>631</v>
       </c>
       <c r="G392" s="20" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="H392" s="13" t="s">
         <v>755</v>
@@ -17001,7 +17002,7 @@
         <v>631</v>
       </c>
       <c r="G393" s="20" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="H393" s="13" t="s">
         <v>755</v>
@@ -17027,7 +17028,7 @@
         <v>631</v>
       </c>
       <c r="G394" s="20" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="H394" s="13" t="s">
         <v>872</v>
@@ -17053,7 +17054,7 @@
         <v>631</v>
       </c>
       <c r="G395" s="20" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="H395" s="13" t="s">
         <v>756</v>
@@ -17079,7 +17080,7 @@
         <v>631</v>
       </c>
       <c r="G396" s="20" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="H396" s="13" t="s">
         <v>756</v>
@@ -17105,7 +17106,7 @@
         <v>631</v>
       </c>
       <c r="G397" s="20" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="H397" s="13" t="s">
         <v>873</v>
@@ -17131,7 +17132,7 @@
         <v>631</v>
       </c>
       <c r="G398" s="20" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="H398" s="13" t="s">
         <v>757</v>
@@ -17157,7 +17158,7 @@
         <v>631</v>
       </c>
       <c r="G399" s="20" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="H399" s="13" t="s">
         <v>757</v>
@@ -17183,7 +17184,7 @@
         <v>631</v>
       </c>
       <c r="G400" s="20" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="H400" s="13" t="s">
         <v>874</v>
@@ -17209,7 +17210,7 @@
         <v>631</v>
       </c>
       <c r="G401" s="20" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="H401" s="13" t="s">
         <v>757</v>
@@ -17235,7 +17236,7 @@
         <v>631</v>
       </c>
       <c r="G402" s="20" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="H402" s="13" t="s">
         <v>758</v>
@@ -17261,7 +17262,7 @@
         <v>631</v>
       </c>
       <c r="G403" s="20" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="H403" s="13" t="s">
         <v>875</v>
@@ -17287,7 +17288,7 @@
         <v>631</v>
       </c>
       <c r="G404" s="20" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="H404" s="13" t="s">
         <v>758</v>
@@ -17313,7 +17314,7 @@
         <v>631</v>
       </c>
       <c r="G405" s="20" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="H405" s="13" t="s">
         <v>758</v>
@@ -17339,7 +17340,7 @@
         <v>631</v>
       </c>
       <c r="G406" s="20" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="H406" s="13" t="s">
         <v>876</v>
@@ -17365,7 +17366,7 @@
         <v>631</v>
       </c>
       <c r="G407" s="20" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="H407" s="13" t="s">
         <v>759</v>
@@ -17391,7 +17392,7 @@
         <v>631</v>
       </c>
       <c r="G408" s="20" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="H408" s="13" t="s">
         <v>759</v>
@@ -17417,7 +17418,7 @@
         <v>631</v>
       </c>
       <c r="G409" s="20" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="H409" s="13" t="s">
         <v>877</v>
@@ -17443,7 +17444,7 @@
         <v>631</v>
       </c>
       <c r="G410" s="20" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="H410" s="13" t="s">
         <v>760</v>
@@ -17469,7 +17470,7 @@
         <v>631</v>
       </c>
       <c r="G411" s="20" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="H411" s="13" t="s">
         <v>760</v>
@@ -17495,7 +17496,7 @@
         <v>631</v>
       </c>
       <c r="G412" s="20" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="H412" s="13" t="s">
         <v>878</v>
@@ -17521,7 +17522,7 @@
         <v>631</v>
       </c>
       <c r="G413" s="20" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="H413" s="13" t="s">
         <v>760</v>
@@ -17547,7 +17548,7 @@
         <v>631</v>
       </c>
       <c r="G414" s="20" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="H414" s="13" t="s">
         <v>761</v>
@@ -17573,7 +17574,7 @@
         <v>631</v>
       </c>
       <c r="G415" s="20" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="H415" s="13" t="s">
         <v>879</v>
@@ -17599,7 +17600,7 @@
         <v>631</v>
       </c>
       <c r="G416" s="20" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="H416" s="13" t="s">
         <v>761</v>
@@ -17625,7 +17626,7 @@
         <v>631</v>
       </c>
       <c r="G417" s="20" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="H417" s="13" t="s">
         <v>761</v>
@@ -17651,7 +17652,7 @@
         <v>631</v>
       </c>
       <c r="G418" s="20" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="H418" s="13" t="s">
         <v>880</v>
@@ -17677,7 +17678,7 @@
         <v>631</v>
       </c>
       <c r="G419" s="20" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="H419" s="13" t="s">
         <v>762</v>
@@ -17703,7 +17704,7 @@
         <v>631</v>
       </c>
       <c r="G420" s="20" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="H420" s="13" t="s">
         <v>762</v>
@@ -17729,7 +17730,7 @@
         <v>631</v>
       </c>
       <c r="G421" s="20" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="H421" s="13" t="s">
         <v>881</v>
@@ -17755,7 +17756,7 @@
         <v>631</v>
       </c>
       <c r="G422" s="20" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="H422" s="13" t="s">
         <v>763</v>
@@ -17781,7 +17782,7 @@
         <v>631</v>
       </c>
       <c r="G423" s="20" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="H423" s="13" t="s">
         <v>763</v>
@@ -17807,7 +17808,7 @@
         <v>631</v>
       </c>
       <c r="G424" s="20" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="H424" s="13" t="s">
         <v>882</v>
@@ -17833,7 +17834,7 @@
         <v>631</v>
       </c>
       <c r="G425" s="20" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="H425" s="13" t="s">
         <v>763</v>
@@ -17859,7 +17860,7 @@
         <v>631</v>
       </c>
       <c r="G426" s="20" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="H426" s="13" t="s">
         <v>764</v>
@@ -17885,7 +17886,7 @@
         <v>631</v>
       </c>
       <c r="G427" s="20" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="H427" s="13" t="s">
         <v>883</v>
@@ -17911,7 +17912,7 @@
         <v>631</v>
       </c>
       <c r="G428" s="20" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="H428" s="13" t="s">
         <v>764</v>
@@ -17937,7 +17938,7 @@
         <v>631</v>
       </c>
       <c r="G429" s="20" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="H429" s="13" t="s">
         <v>764</v>
@@ -17963,7 +17964,7 @@
         <v>631</v>
       </c>
       <c r="G430" s="20" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="H430" s="13" t="s">
         <v>884</v>
@@ -17989,7 +17990,7 @@
         <v>631</v>
       </c>
       <c r="G431" s="20" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="H431" s="13" t="s">
         <v>765</v>
@@ -18015,7 +18016,7 @@
         <v>631</v>
       </c>
       <c r="G432" s="20" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="H432" s="13" t="s">
         <v>765</v>
@@ -18041,7 +18042,7 @@
         <v>631</v>
       </c>
       <c r="G433" s="20" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="H433" s="13" t="s">
         <v>885</v>
@@ -18067,7 +18068,7 @@
         <v>631</v>
       </c>
       <c r="G434" s="20" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="H434" s="13" t="s">
         <v>766</v>
@@ -18093,7 +18094,7 @@
         <v>631</v>
       </c>
       <c r="G435" s="20" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="H435" s="13" t="s">
         <v>766</v>
@@ -18119,7 +18120,7 @@
         <v>631</v>
       </c>
       <c r="G436" s="20" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="H436" s="13" t="s">
         <v>886</v>
@@ -18145,7 +18146,7 @@
         <v>631</v>
       </c>
       <c r="G437" s="20" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="H437" s="13" t="s">
         <v>766</v>
@@ -18171,7 +18172,7 @@
         <v>631</v>
       </c>
       <c r="G438" s="20" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="H438" s="13" t="s">
         <v>767</v>
@@ -18197,7 +18198,7 @@
         <v>631</v>
       </c>
       <c r="G439" s="20" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="H439" s="13" t="s">
         <v>887</v>
@@ -18223,7 +18224,7 @@
         <v>631</v>
       </c>
       <c r="G440" s="20" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="H440" s="13" t="s">
         <v>767</v>
@@ -18249,7 +18250,7 @@
         <v>631</v>
       </c>
       <c r="G441" s="20" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="H441" s="13" t="s">
         <v>767</v>
@@ -18275,7 +18276,7 @@
         <v>631</v>
       </c>
       <c r="G442" s="20" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="H442" s="13" t="s">
         <v>888</v>
@@ -18301,7 +18302,7 @@
         <v>632</v>
       </c>
       <c r="G443" s="20" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="H443" s="13" t="s">
         <v>768</v>
@@ -18327,7 +18328,7 @@
         <v>632</v>
       </c>
       <c r="G444" s="20" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="H444" s="13" t="s">
         <v>768</v>
@@ -18353,7 +18354,7 @@
         <v>632</v>
       </c>
       <c r="G445" s="20" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="H445" s="13" t="s">
         <v>889</v>
@@ -18379,7 +18380,7 @@
         <v>632</v>
       </c>
       <c r="G446" s="20" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="H446" s="13" t="s">
         <v>769</v>
@@ -18405,7 +18406,7 @@
         <v>632</v>
       </c>
       <c r="G447" s="20" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="H447" s="13" t="s">
         <v>769</v>
@@ -18431,7 +18432,7 @@
         <v>632</v>
       </c>
       <c r="G448" s="20" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="H448" s="13" t="s">
         <v>890</v>
@@ -18457,7 +18458,7 @@
         <v>632</v>
       </c>
       <c r="G449" s="20" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="H449" s="13" t="s">
         <v>769</v>
@@ -18483,7 +18484,7 @@
         <v>632</v>
       </c>
       <c r="G450" s="20" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="H450" s="13" t="s">
         <v>770</v>
@@ -18509,7 +18510,7 @@
         <v>632</v>
       </c>
       <c r="G451" s="20" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="H451" s="13" t="s">
         <v>891</v>
@@ -18535,7 +18536,7 @@
         <v>632</v>
       </c>
       <c r="G452" s="20" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="H452" s="13" t="s">
         <v>770</v>
@@ -18561,7 +18562,7 @@
         <v>632</v>
       </c>
       <c r="G453" s="20" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="H453" s="13" t="s">
         <v>770</v>
@@ -18587,7 +18588,7 @@
         <v>632</v>
       </c>
       <c r="G454" s="20" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="H454" s="13" t="s">
         <v>892</v>
@@ -18613,7 +18614,7 @@
         <v>632</v>
       </c>
       <c r="G455" s="20" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="H455" s="13" t="s">
         <v>771</v>
@@ -18639,7 +18640,7 @@
         <v>632</v>
       </c>
       <c r="G456" s="20" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="H456" s="13" t="s">
         <v>771</v>
@@ -18665,7 +18666,7 @@
         <v>632</v>
       </c>
       <c r="G457" s="20" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="H457" s="13" t="s">
         <v>893</v>
@@ -18691,7 +18692,7 @@
         <v>632</v>
       </c>
       <c r="G458" s="20" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="H458" s="13" t="s">
         <v>772</v>
@@ -18717,7 +18718,7 @@
         <v>632</v>
       </c>
       <c r="G459" s="20" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="H459" s="13" t="s">
         <v>772</v>
@@ -18743,7 +18744,7 @@
         <v>632</v>
       </c>
       <c r="G460" s="20" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="H460" s="13" t="s">
         <v>894</v>
@@ -18769,7 +18770,7 @@
         <v>632</v>
       </c>
       <c r="G461" s="20" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="H461" s="13" t="s">
         <v>772</v>
@@ -18795,7 +18796,7 @@
         <v>632</v>
       </c>
       <c r="G462" s="20" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="H462" s="13" t="s">
         <v>773</v>
@@ -18821,7 +18822,7 @@
         <v>632</v>
       </c>
       <c r="G463" s="20" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="H463" s="13" t="s">
         <v>895</v>
@@ -18847,7 +18848,7 @@
         <v>632</v>
       </c>
       <c r="G464" s="20" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="H464" s="13" t="s">
         <v>773</v>
@@ -18873,7 +18874,7 @@
         <v>632</v>
       </c>
       <c r="G465" s="20" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="H465" s="13" t="s">
         <v>773</v>
@@ -18899,7 +18900,7 @@
         <v>632</v>
       </c>
       <c r="G466" s="20" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="H466" s="13" t="s">
         <v>896</v>
@@ -18925,7 +18926,7 @@
         <v>632</v>
       </c>
       <c r="G467" s="20" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="H467" s="13" t="s">
         <v>774</v>
@@ -18951,7 +18952,7 @@
         <v>632</v>
       </c>
       <c r="G468" s="20" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="H468" s="13" t="s">
         <v>774</v>
@@ -18977,7 +18978,7 @@
         <v>632</v>
       </c>
       <c r="G469" s="20" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="H469" s="13" t="s">
         <v>897</v>
@@ -19003,7 +19004,7 @@
         <v>632</v>
       </c>
       <c r="G470" s="20" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="H470" s="13" t="s">
         <v>775</v>
@@ -19029,7 +19030,7 @@
         <v>632</v>
       </c>
       <c r="G471" s="20" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="H471" s="13" t="s">
         <v>775</v>
@@ -19055,7 +19056,7 @@
         <v>632</v>
       </c>
       <c r="G472" s="20" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="H472" s="13" t="s">
         <v>898</v>
@@ -19081,7 +19082,7 @@
         <v>632</v>
       </c>
       <c r="G473" s="20" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="H473" s="13" t="s">
         <v>775</v>
@@ -19107,7 +19108,7 @@
         <v>632</v>
       </c>
       <c r="G474" s="20" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="H474" s="13" t="s">
         <v>776</v>
@@ -19133,7 +19134,7 @@
         <v>632</v>
       </c>
       <c r="G475" s="20" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="H475" s="13" t="s">
         <v>899</v>
@@ -19159,7 +19160,7 @@
         <v>632</v>
       </c>
       <c r="G476" s="20" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="H476" s="13" t="s">
         <v>776</v>
@@ -19185,7 +19186,7 @@
         <v>632</v>
       </c>
       <c r="G477" s="20" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="H477" s="13" t="s">
         <v>776</v>
@@ -19211,7 +19212,7 @@
         <v>632</v>
       </c>
       <c r="G478" s="20" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="H478" s="13" t="s">
         <v>900</v>
@@ -19237,7 +19238,7 @@
         <v>632</v>
       </c>
       <c r="G479" s="20" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="H479" s="13" t="s">
         <v>777</v>
@@ -19263,7 +19264,7 @@
         <v>632</v>
       </c>
       <c r="G480" s="20" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="H480" s="13" t="s">
         <v>777</v>
@@ -19289,7 +19290,7 @@
         <v>632</v>
       </c>
       <c r="G481" s="20" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="H481" s="13" t="s">
         <v>901</v>
@@ -19315,7 +19316,7 @@
         <v>632</v>
       </c>
       <c r="G482" s="20" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="H482" s="13" t="s">
         <v>778</v>
@@ -19341,7 +19342,7 @@
         <v>632</v>
       </c>
       <c r="G483" s="20" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="H483" s="13" t="s">
         <v>778</v>
@@ -19367,7 +19368,7 @@
         <v>632</v>
       </c>
       <c r="G484" s="20" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="H484" s="13" t="s">
         <v>891</v>
@@ -19393,7 +19394,7 @@
         <v>632</v>
       </c>
       <c r="G485" s="20" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="H485" s="13" t="s">
         <v>778</v>
@@ -19419,7 +19420,7 @@
         <v>632</v>
       </c>
       <c r="G486" s="20" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="H486" s="13" t="s">
         <v>779</v>
@@ -19445,7 +19446,7 @@
         <v>632</v>
       </c>
       <c r="G487" s="20" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="H487" s="13" t="s">
         <v>901</v>
@@ -19471,7 +19472,7 @@
         <v>632</v>
       </c>
       <c r="G488" s="20" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="H488" s="13" t="s">
         <v>779</v>
@@ -19497,7 +19498,7 @@
         <v>632</v>
       </c>
       <c r="G489" s="20" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="H489" s="13" t="s">
         <v>779</v>
@@ -19523,7 +19524,7 @@
         <v>632</v>
       </c>
       <c r="G490" s="20" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="H490" s="13" t="s">
         <v>902</v>
@@ -19549,7 +19550,7 @@
         <v>632</v>
       </c>
       <c r="G491" s="20" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="H491" s="13" t="s">
         <v>780</v>
@@ -19575,7 +19576,7 @@
         <v>632</v>
       </c>
       <c r="G492" s="20" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="H492" s="13" t="s">
         <v>780</v>
@@ -19601,7 +19602,7 @@
         <v>632</v>
       </c>
       <c r="G493" s="20" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="H493" s="13" t="s">
         <v>903</v>
@@ -19627,7 +19628,7 @@
         <v>632</v>
       </c>
       <c r="G494" s="20" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="H494" s="13" t="s">
         <v>781</v>
@@ -19653,7 +19654,7 @@
         <v>632</v>
       </c>
       <c r="G495" s="20" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="H495" s="13" t="s">
         <v>781</v>
@@ -19679,7 +19680,7 @@
         <v>632</v>
       </c>
       <c r="G496" s="20" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="H496" s="13" t="s">
         <v>904</v>
@@ -19705,7 +19706,7 @@
         <v>632</v>
       </c>
       <c r="G497" s="20" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="H497" s="13" t="s">
         <v>781</v>
@@ -19731,7 +19732,7 @@
         <v>632</v>
       </c>
       <c r="G498" s="20" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="H498" s="13" t="s">
         <v>782</v>
@@ -19757,7 +19758,7 @@
         <v>632</v>
       </c>
       <c r="G499" s="20" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="H499" s="13" t="s">
         <v>905</v>
@@ -19783,7 +19784,7 @@
         <v>632</v>
       </c>
       <c r="G500" s="20" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="H500" s="13" t="s">
         <v>782</v>
@@ -19808,8 +19809,8 @@
       <c r="F501" s="17" t="s">
         <v>632</v>
       </c>
-      <c r="G501" s="20" t="s">
-        <v>1404</v>
+      <c r="G501" s="21" t="s">
+        <v>1407</v>
       </c>
       <c r="H501" s="6" t="s">
         <v>782</v>
@@ -19835,7 +19836,7 @@
         <v>632</v>
       </c>
       <c r="G502" s="21" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="H502" s="6" t="s">
         <v>906</v>
@@ -19860,8 +19861,8 @@
       <c r="F503" s="17" t="s">
         <v>632</v>
       </c>
-      <c r="G503" s="21" t="s">
-        <v>1406</v>
+      <c r="G503" s="6" t="s">
+        <v>1409</v>
       </c>
       <c r="H503" s="6" t="s">
         <v>783</v>
@@ -19887,7 +19888,7 @@
         <v>632</v>
       </c>
       <c r="G504" s="6" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="H504" s="6" t="s">
         <v>783</v>
@@ -19912,8 +19913,8 @@
       <c r="F505" s="17" t="s">
         <v>632</v>
       </c>
-      <c r="G505" s="6" t="s">
-        <v>1408</v>
+      <c r="G505" s="1" t="s">
+        <v>1411</v>
       </c>
       <c r="H505" s="6" t="s">
         <v>907</v>
@@ -19921,10 +19922,10 @@
     </row>
     <row r="506" spans="1:8" ht="20" customHeight="1">
       <c r="D506" s="17"/>
+      <c r="G506" s="6"/>
     </row>
     <row r="507" spans="1:8" ht="20" customHeight="1">
       <c r="D507" s="17"/>
-      <c r="G507" s="6"/>
     </row>
     <row r="508" spans="1:8" ht="20" customHeight="1">
       <c r="D508" s="17"/>

--- a/Dragonfall/gameData/shared/PvE.xlsx
+++ b/Dragonfall/gameData/shared/PvE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32100" windowHeight="17940" tabRatio="566"/>
+    <workbookView xWindow="580" yWindow="2660" windowWidth="32100" windowHeight="17940" tabRatio="566"/>
   </bookViews>
   <sheets>
     <sheet name="sections" sheetId="12" r:id="rId1"/>
@@ -2776,1507 +2776,1507 @@
     <t>blueDragon:1:1,skeletonArcher:3:4</t>
   </si>
   <si>
-    <t>blueDragon:1:1,swordsman_1:1:12,lancer_1:1:6,swordsman_1:1:12</t>
-  </si>
-  <si>
-    <t>blueDragon:1:1,horseArcher_1:1:9,ranger_1:1:18,horseArcher_1:1:9</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,meatWagon:3:5,skeletonWarrior:3:10,meatWagon:3:5</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,crossbowman_1:1:30,catapult_1:1:15,crossbowman_1:1:30</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,sentinel_1:1:36,lancer_1:1:18,sentinel_1:1:36</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,deathKnight:3:8,skeletonArcher:3:17,deathKnight:3:8</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,ballista_1:1:24,sentinel_1:1:48,ballista_1:1:24</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,crossbowman_1:1:54,ballista_1:1:27,crossbowman_1:1:54</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,skeletonWarrior:3:24,deathKnight:3:12,skeletonWarrior:3:24</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,horseArcher_1:1:33,crossbowman_1:1:66,horseArcher_1:1:33</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,ballista_1:1:36,sentinel_1:1:72,ballista_1:1:36</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,skeletonArcher:3:32,meatWagon:3:16,skeletonArcher:3:32</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,sentinel_1:1:84,horseArcher_1:1:42,sentinel_1:1:84</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,horseArcher_1:1:45,crossbowman_1:1:90,horseArcher_1:1:45</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,meatWagon:3:19,skeletonWarrior:3:39,meatWagon:3:19</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,crossbowman_1:1:102,ballista_1:1:51,crossbowman_1:1:102</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,sentinel_1:1:108,horseArcher_1:1:54,sentinel_1:1:108</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,deathKnight:3:23,skeletonArcher:3:46,deathKnight:3:23</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,catapult_1:1:60,swordsman_1:1:120,catapult_1:1:60,lancer_1:1:45</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,ranger_1:1:126,catapult_1:1:63,ranger_1:1:126,swordsman_1:1:95</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,skeletonWarrior:3:53,deathKnight:3:26,skeletonWarrior:3:53,skeletonArcher:3:40</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,horseArcher_1:1:69,ranger_1:1:138,horseArcher_1:1:69,catapult_1:1:52</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,ballista_1:1:72,swordsman_1:1:144,ballista_1:1:72,lancer_1:1:54</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,skeletonArcher:3:60,meatWagon:3:30,skeletonArcher:3:60,skeletonWarrior:3:45</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,sentinel_1:1:156,lancer_1:1:78,sentinel_1:1:156,ranger_1:1:117</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,horseArcher_1:1:81,crossbowman_1:1:162,horseArcher_1:1:81,catapult_1:1:61</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,meatWagon:3:34,skeletonWarrior:3:68,meatWagon:3:34,deathKnight:3:25</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,crossbowman_1:1:174,ballista_1:1:87,crossbowman_1:1:174,swordsman_1:1:131</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,sentinel_1:1:180,horseArcher_1:1:90,sentinel_1:1:180,ranger_1:1:135</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,deathKnight:3:37,skeletonArcher:3:75,deathKnight:3:37,meatWagon:3:28</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,ballista_1:1:96,sentinel_1:1:192,ballista_1:1:96,horseArcher_1:1:72</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,crossbowman_1:1:198,ballista_1:1:99,crossbowman_1:1:198,sentinel_1:1:149</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,skeletonWarrior:3:82,deathKnight:3:41,skeletonWarrior:3:82,skeletonArcher:3:62</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,horseArcher_1:1:105,crossbowman_1:1:210,horseArcher_1:1:105,ballista_1:1:79</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,ballista_1:1:108,sentinel_1:1:216,ballista_1:1:108,horseArcher_1:1:81</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,skeletonArcher:3:89,meatWagon:3:44,skeletonArcher:3:89,skeletonWarrior:3:67</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,sentinel_1:1:228,horseArcher_1:1:114,sentinel_1:1:228,crossbowman_1:1:171</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,lancer_1:1:117,ranger_1:1:234,lancer_1:1:117,catapult_1:1:88</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,meatWagon:3:48,skeletonWarrior:3:96,meatWagon:3:48,deathKnight:3:36</t>
-  </si>
-  <si>
-    <t>greenDragon:1:4,ranger_1:1:246,catapult_1:1:123,ranger_1:1:246,swordsman_1:1:185,lancer_1:1:92</t>
-  </si>
-  <si>
-    <t>greenDragon:1:4,swordsman_1:1:252,lancer_1:1:126,swordsman_1:1:252,ranger_1:1:189,catapult_1:1:94</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,deathKnight:3:52,skeletonArcher:3:104,deathKnight:3:52,meatWagon:3:39,skeletonWarrior:3:78</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,ballista_1:1:132,swordsman_1:1:264,ballista_1:1:132,lancer_1:1:99,ranger_1:1:198</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,crossbowman_1:1:270,catapult_1:1:135,crossbowman_1:1:270,swordsman_1:1:203,lancer_1:1:101</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,skeletonWarrior:3:111,deathKnight:3:55,skeletonWarrior:3:111,skeletonArcher:3:83,meatWagon:3:41</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,horseArcher_1:1:141,crossbowman_1:1:282,horseArcher_1:1:141,catapult_1:1:106,swordsman_1:1:212</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,ballista_1:1:144,sentinel_1:1:288,ballista_1:1:144,lancer_1:1:108,ranger_1:1:216</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,skeletonArcher:3:118,meatWagon:3:59,skeletonArcher:3:118,skeletonWarrior:3:89,deathKnight:3:44</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,sentinel_1:1:300,horseArcher_1:1:150,sentinel_1:1:300,ranger_1:1:225,catapult_1:1:112</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,horseArcher_1:1:153,crossbowman_1:1:306,horseArcher_1:1:153,ballista_1:1:115,swordsman_1:1:230</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,meatWagon:3:62,skeletonWarrior:3:125,meatWagon:3:62,deathKnight:3:47,skeletonArcher:3:94</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,crossbowman_1:1:318,ballista_1:1:159,crossbowman_1:1:318,sentinel_1:1:239,lancer_1:1:119</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,sentinel_1:1:324,horseArcher_1:1:162,sentinel_1:1:324,crossbowman_1:1:243,catapult_1:1:121</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,deathKnight:3:66,skeletonArcher:3:132,deathKnight:3:66,meatWagon:3:49,skeletonWarrior:3:99</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,ballista_1:1:168,sentinel_1:1:336,ballista_1:1:168,horseArcher_1:1:126,crossbowman_1:1:252</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,crossbowman_1:1:342,ballista_1:1:171,crossbowman_1:1:342,sentinel_1:1:257,horseArcher_1:1:128</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,skeletonWarrior:3:140,deathKnight:3:70,skeletonWarrior:3:140,skeletonArcher:3:105,meatWagon:3:52</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,lancer_1:1:177,ranger_1:1:354,lancer_1:1:177,catapult_1:1:133,swordsman_1:1:266</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,catapult_1:1:180,swordsman_1:1:360,catapult_1:1:180,lancer_1:1:135,ranger_1:1:270</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,skeletonArcher:3:147,meatWagon:3:73,skeletonArcher:3:147,skeletonWarrior:3:110,deathKnight:3:55</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,swordsman_1:2:372,lancer_1:2:186,swordsman_1:2:372,ranger_1:2:279,catapult_1:2:139,ranger_1:2:279</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,horseArcher_1:2:189,ranger_1:2:378,horseArcher_1:2:189,catapult_1:2:142,swordsman_1:2:284,catapult_1:2:142</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,meatWagon:3:115,skeletonWarrior:3:231,meatWagon:3:115,deathKnight:3:86,skeletonArcher:3:173,deathKnight:3:86</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,crossbowman_1:2:390,catapult_1:2:195,crossbowman_1:2:390,swordsman_1:2:293,lancer_1:2:146,swordsman_1:2:293</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,sentinel_1:2:396,lancer_1:2:198,sentinel_1:2:396,ranger_1:2:297,catapult_1:2:148,ranger_1:2:297</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,deathKnight:3:121,skeletonArcher:3:242,deathKnight:3:121,meatWagon:3:90,skeletonWarrior:3:181,meatWagon:3:90</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,ballista_1:2:204,sentinel_1:2:408,ballista_1:2:204,lancer_1:2:153,ranger_1:2:306,lancer_1:2:153</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,crossbowman_1:2:414,ballista_1:2:207,crossbowman_1:2:414,swordsman_1:2:311,lancer_1:2:155,swordsman_1:2:311</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,skeletonWarrior:3:252,deathKnight:3:126,skeletonWarrior:3:252,skeletonArcher:3:189,meatWagon:3:94,skeletonArcher:3:189</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,horseArcher_1:2:213,crossbowman_1:2:426,horseArcher_1:2:213,ballista_1:2:160,swordsman_1:2:320,ballista_1:2:160</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,ballista_1:2:216,sentinel_1:2:432,ballista_1:2:216,horseArcher_1:2:162,ranger_1:2:324,horseArcher_1:2:162</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,skeletonArcher:3:263,meatWagon:3:131,skeletonArcher:3:263,skeletonWarrior:3:198,deathKnight:3:99,skeletonWarrior:3:198</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,sentinel_1:2:444,horseArcher_1:2:222,sentinel_1:2:444,crossbowman_1:2:333,catapult_1:2:166,crossbowman_1:2:333</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,horseArcher_1:2:225,crossbowman_1:2:450,horseArcher_1:2:225,ballista_1:2:169,sentinel_1:2:338,ballista_1:2:169</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,meatWagon:3:137,skeletonWarrior:3:274,meatWagon:3:137,deathKnight:3:103,skeletonArcher:3:206,deathKnight:3:103</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,crossbowman_1:2:462,ballista_1:2:231,crossbowman_1:2:462,sentinel_1:2:347,horseArcher_1:2:173,sentinel_1:2:347</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,sentinel_1:2:468,horseArcher_1:2:234,sentinel_1:2:468,crossbowman_1:2:351,ballista_1:2:175,crossbowman_1:2:351</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,deathKnight:3:142,skeletonArcher:3:285,deathKnight:3:142,meatWagon:3:107,skeletonWarrior:3:214,meatWagon:3:107</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,catapult_1:2:240,swordsman_1:2:480,catapult_1:2:240,lancer_1:2:180,ranger_1:2:360,lancer_1:2:180</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,ranger_1:2:486,catapult_1:2:243,ranger_1:2:486,swordsman_1:2:365,lancer_1:2:182,swordsman_1:2:365</t>
-  </si>
-  <si>
-    <t>greenDragon:1:8,skeletonWarrior:3:296,deathKnight:3:148,skeletonWarrior:3:296,skeletonArcher:3:222,meatWagon:3:111,skeletonArcher:3:222</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,horseArcher_1:2:249,ranger_1:2:498,horseArcher_1:2:249,catapult_1:2:187,swordsman_1:2:374,catapult_1:2:187</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,ballista_1:2:252,swordsman_1:2:504,ballista_1:2:252,lancer_1:2:189,ranger_1:2:378,lancer_1:2:189</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,skeletonArcher:3:306,meatWagon:3:153,skeletonArcher:3:306,skeletonWarrior:3:230,deathKnight:3:115,skeletonWarrior:3:230</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,sentinel_1:2:516,lancer_1:2:258,sentinel_1:2:516,ranger_1:2:387,catapult_1:2:193,ranger_1:2:387</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,horseArcher_1:2:261,crossbowman_1:2:522,horseArcher_1:2:261,catapult_1:2:196,swordsman_1:2:392,catapult_1:2:196</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,meatWagon:3:158,skeletonWarrior:3:317,meatWagon:3:158,deathKnight:3:119,skeletonArcher:3:238,deathKnight:3:119</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,crossbowman_1:2:534,ballista_1:2:267,crossbowman_1:2:534,swordsman_1:2:401,lancer_1:2:200,swordsman_1:2:401</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,sentinel_1:2:540,horseArcher_1:2:270,sentinel_1:2:540,ranger_1:2:405,catapult_1:2:202,ranger_1:2:405</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,deathKnight:3:164,skeletonArcher:3:328,deathKnight:3:164,meatWagon:3:123,skeletonWarrior:3:246,meatWagon:3:123</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,ballista_1:2:276,sentinel_1:2:552,ballista_1:2:276,horseArcher_1:2:207,ranger_1:2:414,horseArcher_1:2:207</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,crossbowman_1:2:558,ballista_1:2:279,crossbowman_1:2:558,sentinel_1:2:419,lancer_1:2:209,sentinel_1:2:419</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,skeletonWarrior:3:339,deathKnight:3:169,skeletonWarrior:3:339,skeletonArcher:3:254,meatWagon:3:127,skeletonArcher:3:254</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,horseArcher_1:2:285,crossbowman_1:2:570,horseArcher_1:2:285,ballista_1:2:214,sentinel_1:2:428,ballista_1:2:214</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,ballista_1:2:288,sentinel_1:2:576,ballista_1:2:288,horseArcher_1:2:216,crossbowman_1:2:432,horseArcher_1:2:216</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,skeletonArcher:3:350,meatWagon:3:175,skeletonArcher:3:350,skeletonWarrior:3:262,deathKnight:3:131,skeletonWarrior:3:262</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,sentinel_1:2:588,horseArcher_1:2:294,sentinel_1:2:588,crossbowman_1:2:441,ballista_1:2:220,crossbowman_1:2:441</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,lancer_1:2:297,ranger_1:2:594,lancer_1:2:297,catapult_1:2:223,swordsman_1:2:446,catapult_1:2:223</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,meatWagon:3:180,skeletonWarrior:3:360,meatWagon:3:180,deathKnight:3:135,skeletonArcher:3:270,deathKnight:3:135</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,ranger_1:2:606,catapult_1:2:303,ranger_1:2:606,swordsman_1:2:455,lancer_1:2:227,swordsman_1:2:455</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,swordsman_1:2:612,lancer_1:2:306,swordsman_1:2:612,ranger_1:2:459,catapult_1:2:229,ranger_1:2:459</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,deathKnight:3:185,skeletonArcher:3:371,deathKnight:3:185,meatWagon:3:139,skeletonWarrior:3:279,meatWagon:3:139</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,ballista_1:2:312,swordsman_1:2:624,ballista_1:2:312,lancer_1:2:234,ranger_1:2:468,lancer_1:2:234</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,crossbowman_1:2:630,catapult_1:2:315,crossbowman_1:2:630,swordsman_1:2:473,lancer_1:2:236,swordsman_1:2:473</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,skeletonWarrior:3:382,deathKnight:3:191,skeletonWarrior:3:382,skeletonArcher:3:287,meatWagon:3:143,skeletonArcher:3:287</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,horseArcher_1:2:321,crossbowman_1:2:642,horseArcher_1:2:321,catapult_1:2:241,swordsman_1:2:482,catapult_1:2:241</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,ballista_1:2:324,sentinel_1:2:648,ballista_1:2:324,lancer_1:2:243,ranger_1:2:486,lancer_1:2:243</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,skeletonArcher:3:393,meatWagon:3:196,skeletonArcher:3:393,skeletonWarrior:3:295,deathKnight:3:147,skeletonWarrior:3:295</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,sentinel_1:2:660,horseArcher_1:2:330,sentinel_1:2:660,ranger_1:2:495,catapult_1:2:247,ranger_1:2:495</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,horseArcher_1:2:333,crossbowman_1:2:666,horseArcher_1:2:333,ballista_1:2:250,swordsman_1:2:500,ballista_1:2:250</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,meatWagon:3:202,skeletonWarrior:3:404,meatWagon:3:202,deathKnight:3:151,skeletonArcher:3:303,deathKnight:3:151</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,crossbowman_1:2:678,ballista_1:2:339,crossbowman_1:2:678,sentinel_1:2:509,lancer_1:2:254,sentinel_1:2:509</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,sentinel_1:2:684,horseArcher_1:2:342,sentinel_1:2:684,crossbowman_1:2:513,catapult_1:2:256,crossbowman_1:2:513</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,deathKnight:3:207,skeletonArcher:3:414,deathKnight:3:207,meatWagon:3:155,skeletonWarrior:3:311,meatWagon:3:155</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,ballista_1:2:348,sentinel_1:2:696,ballista_1:2:348,horseArcher_1:2:261,crossbowman_1:2:522,horseArcher_1:2:261</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,crossbowman_1:2:702,ballista_1:2:351,crossbowman_1:2:702,sentinel_1:2:527,horseArcher_1:2:263,sentinel_1:2:527</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,skeletonWarrior:3:425,deathKnight:3:212,skeletonWarrior:3:425,skeletonArcher:3:319,meatWagon:3:159,skeletonArcher:3:319</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,lancer_1:2:357,ranger_1:2:714,lancer_1:2:357,catapult_1:2:268,swordsman_1:2:536,catapult_1:2:268</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,catapult_1:2:360,swordsman_1:2:720,catapult_1:2:360,lancer_1:2:270,ranger_1:2:540,lancer_1:2:270</t>
-  </si>
-  <si>
-    <t>redDragon:2:11,skeletonArcher:3:436,meatWagon:3:218,skeletonArcher:3:436,skeletonWarrior:3:327,deathKnight:3:163,skeletonWarrior:3:327</t>
-  </si>
-  <si>
-    <t>redDragon:2:11,swordsman_1:2:732,lancer_1:2:366,swordsman_1:2:732,ranger_1:2:549,catapult_1:2:274,ranger_1:2:549</t>
-  </si>
-  <si>
-    <t>redDragon:2:11,horseArcher_1:2:369,ranger_1:2:738,horseArcher_1:2:369,catapult_1:2:277,swordsman_1:2:554,catapult_1:2:277</t>
-  </si>
-  <si>
-    <t>redDragon:2:11,meatWagon:3:223,skeletonWarrior:3:447,meatWagon:3:223,deathKnight:3:167,skeletonArcher:3:335,deathKnight:3:167</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,crossbowman_1:3:750,catapult_1:3:375,crossbowman_1:3:750,swordsman_1:3:563,lancer_1:3:281,swordsman_1:3:563</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,sentinel_1:3:756,lancer_1:3:378,sentinel_1:3:756,ranger_1:3:567,catapult_1:3:283,ranger_1:3:567</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,deathKnight:3:305,skeletonArcher:3:610,deathKnight:3:305,meatWagon:3:229,skeletonWarrior:3:458,meatWagon:3:229</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,ballista_1:3:384,sentinel_1:3:768,ballista_1:3:384,lancer_1:3:288,ranger_1:3:576,lancer_1:3:288</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,crossbowman_1:3:774,ballista_1:3:387,crossbowman_1:3:774,swordsman_1:3:581,lancer_1:3:290,swordsman_1:3:581</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,skeletonWarrior:3:624,deathKnight:3:312,skeletonWarrior:3:624,skeletonArcher:3:468,meatWagon:3:234,skeletonArcher:3:468</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,horseArcher_1:3:393,crossbowman_1:3:786,horseArcher_1:3:393,ballista_1:3:295,swordsman_1:3:590,ballista_1:3:295</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,ballista_1:3:396,sentinel_1:3:792,ballista_1:3:396,horseArcher_1:3:297,ranger_1:3:594,horseArcher_1:3:297</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,skeletonArcher:3:639,meatWagon:3:319,skeletonArcher:3:639,skeletonWarrior:3:479,deathKnight:3:239,skeletonWarrior:3:479</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,sentinel_1:3:804,horseArcher_1:3:402,sentinel_1:3:804,crossbowman_1:3:603,catapult_1:3:301,crossbowman_1:3:603</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,horseArcher_1:3:405,crossbowman_1:3:810,horseArcher_1:3:405,ballista_1:3:304,sentinel_1:3:608,ballista_1:3:304</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,meatWagon:3:326,skeletonWarrior:3:653,meatWagon:3:326,deathKnight:3:245,skeletonArcher:3:490,deathKnight:3:245</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,crossbowman_1:3:822,ballista_1:3:411,crossbowman_1:3:822,sentinel_1:3:617,horseArcher_1:3:308,sentinel_1:3:617</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,sentinel_1:3:828,horseArcher_1:3:414,sentinel_1:3:828,crossbowman_1:3:621,ballista_1:3:310,crossbowman_1:3:621</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,deathKnight:3:334,skeletonArcher:3:668,deathKnight:3:334,meatWagon:3:250,skeletonWarrior:3:501,meatWagon:3:250</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,catapult_1:3:420,swordsman_1:3:840,catapult_1:3:420,lancer_1:3:315,ranger_1:3:630,lancer_1:3:315</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,ranger_1:3:846,catapult_1:3:423,ranger_1:3:846,swordsman_1:3:635,lancer_1:3:317,swordsman_1:3:635</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,skeletonWarrior:3:682,deathKnight:3:341,skeletonWarrior:3:682,skeletonArcher:3:512,meatWagon:3:256,skeletonArcher:3:512</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,horseArcher_1:3:429,ranger_1:3:858,horseArcher_1:3:429,catapult_1:3:322,swordsman_1:3:644,catapult_1:3:322</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,ballista_1:3:432,swordsman_1:3:864,ballista_1:3:432,lancer_1:3:324,ranger_1:3:648,lancer_1:3:324</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,skeletonArcher:3:696,meatWagon:3:348,skeletonArcher:3:696,skeletonWarrior:3:522,deathKnight:3:261,skeletonWarrior:3:522</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,sentinel_1:3:876,lancer_1:3:438,sentinel_1:3:876,ranger_1:3:657,catapult_1:3:328,ranger_1:3:657</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,horseArcher_1:3:441,crossbowman_1:3:882,horseArcher_1:3:441,catapult_1:3:331,swordsman_1:3:662,catapult_1:3:331</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,meatWagon:3:355,skeletonWarrior:3:711,meatWagon:3:355,deathKnight:3:266,skeletonArcher:3:533,deathKnight:3:266</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,crossbowman_1:3:894,ballista_1:3:447,crossbowman_1:3:894,swordsman_1:3:671,lancer_1:3:335,swordsman_1:3:671</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,sentinel_1:3:900,horseArcher_1:3:450,sentinel_1:3:900,ranger_1:3:675,catapult_1:3:337,ranger_1:3:675</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,deathKnight:3:362,skeletonArcher:3:725,deathKnight:3:362,meatWagon:3:272,skeletonWarrior:3:544,meatWagon:3:272</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,ballista_1:3:456,sentinel_1:3:912,ballista_1:3:456,horseArcher_1:3:342,ranger_1:3:684,horseArcher_1:3:342</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,crossbowman_1:3:918,ballista_1:3:459,crossbowman_1:3:918,sentinel_1:3:689,lancer_1:3:344,sentinel_1:3:689</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,skeletonWarrior:3:740,deathKnight:3:370,skeletonWarrior:3:740,skeletonArcher:3:555,meatWagon:3:277,skeletonArcher:3:555</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,horseArcher_1:3:465,crossbowman_1:3:930,horseArcher_1:3:465,ballista_1:3:349,sentinel_1:3:698,ballista_1:3:349</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,ballista_1:3:468,sentinel_1:3:936,ballista_1:3:468,horseArcher_1:3:351,crossbowman_1:3:702,horseArcher_1:3:351</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,skeletonArcher:3:754,meatWagon:3:377,skeletonArcher:3:754,skeletonWarrior:3:566,deathKnight:3:283,skeletonWarrior:3:566</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,sentinel_1:3:948,horseArcher_1:3:474,sentinel_1:3:948,crossbowman_1:3:711,ballista_1:3:355,crossbowman_1:3:711</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,lancer_1:3:477,ranger_1:3:954,lancer_1:3:477,catapult_1:3:358,swordsman_1:3:716,catapult_1:3:358</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,meatWagon:3:384,skeletonWarrior:3:768,meatWagon:3:384,deathKnight:3:288,skeletonArcher:3:576,deathKnight:3:288</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,ranger_1:3:966,catapult_1:3:483,ranger_1:3:966,swordsman_1:3:725,lancer_1:3:362,swordsman_1:3:725</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,swordsman_1:3:972,lancer_1:3:486,swordsman_1:3:972,ranger_1:3:729,catapult_1:3:364,ranger_1:3:729</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,deathKnight:3:391,skeletonArcher:3:783,deathKnight:3:391,meatWagon:3:293,skeletonWarrior:3:587,meatWagon:3:293</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,ballista_1:3:492,swordsman_1:3:984,ballista_1:3:492,lancer_1:3:369,ranger_1:3:738,lancer_1:3:369</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,crossbowman_1:3:990,catapult_1:3:495,crossbowman_1:3:990,swordsman_1:3:743,lancer_1:3:371,swordsman_1:3:743</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,skeletonWarrior:3:797,deathKnight:3:398,skeletonWarrior:3:797,skeletonArcher:3:598,meatWagon:3:299,skeletonArcher:3:598</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,horseArcher_1:3:501,crossbowman_1:3:1002,horseArcher_1:3:501,catapult_1:3:376,swordsman_1:3:752,catapult_1:3:376</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,ballista_1:3:504,sentinel_1:3:1008,ballista_1:3:504,lancer_1:3:378,ranger_1:3:756,lancer_1:3:378</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,skeletonArcher:3:812,meatWagon:3:406,skeletonArcher:3:812,skeletonWarrior:3:609,deathKnight:3:304,skeletonWarrior:3:609</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,sentinel_1:3:1020,horseArcher_1:3:510,sentinel_1:3:1020,ranger_1:3:765,catapult_1:3:382,ranger_1:3:765</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,horseArcher_1:3:513,crossbowman_1:3:1026,horseArcher_1:3:513,ballista_1:3:385,swordsman_1:3:770,ballista_1:3:385</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,meatWagon:3:413,skeletonWarrior:3:826,meatWagon:3:413,deathKnight:3:310,skeletonArcher:3:620,deathKnight:3:310</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,crossbowman_1:3:1038,ballista_1:3:519,crossbowman_1:3:1038,sentinel_1:3:779,lancer_1:3:389,sentinel_1:3:779</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,sentinel_1:3:1044,horseArcher_1:3:522,sentinel_1:3:1044,crossbowman_1:3:783,catapult_1:3:391,crossbowman_1:3:783</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,deathKnight:3:420,skeletonArcher:3:840,deathKnight:3:420,meatWagon:3:315,skeletonWarrior:3:630,meatWagon:3:315</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,ballista_1:3:528,sentinel_1:3:1056,ballista_1:3:528,horseArcher_1:3:396,crossbowman_1:3:792,horseArcher_1:3:396</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,crossbowman_1:3:1062,ballista_1:3:531,crossbowman_1:3:1062,sentinel_1:3:797,horseArcher_1:3:398,sentinel_1:3:797</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,skeletonWarrior:3:855,deathKnight:3:427,skeletonWarrior:3:855,skeletonArcher:3:641,meatWagon:3:320,skeletonArcher:3:641</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,lancer_1:3:537,ranger_1:3:1074,lancer_1:3:537,catapult_1:3:403,swordsman_1:3:806,catapult_1:3:403</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,catapult_1:3:540,swordsman_1:3:1080,catapult_1:3:540,lancer_1:3:405,ranger_1:3:810,lancer_1:3:405</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,skeletonArcher:3:869,meatWagon:3:434,skeletonArcher:3:869,skeletonWarrior:3:652,deathKnight:3:326,skeletonWarrior:3:652</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,swordsman_1:3:1092,lancer_1:3:546,swordsman_1:3:1092,ranger_1:3:819,catapult_1:3:409,ranger_1:3:819</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,horseArcher_1:3:549,ranger_1:3:1098,horseArcher_1:3:549,catapult_1:3:412,swordsman_1:3:824,catapult_1:3:412</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,meatWagon:3:442,skeletonWarrior:3:884,meatWagon:3:442,deathKnight:3:331,skeletonArcher:3:663,deathKnight:3:331</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,crossbowman_1:3:1110,catapult_1:3:555,crossbowman_1:3:1110,swordsman_1:3:833,lancer_1:3:416,swordsman_1:3:833</t>
-  </si>
-  <si>
-    <t>blueDragon:2:16,sentinel_1:3:1116,lancer_1:3:558,sentinel_1:3:1116,ranger_1:3:837,catapult_1:3:418,ranger_1:3:837</t>
-  </si>
-  <si>
-    <t>blueDragon:2:16,deathKnight:3:449,skeletonArcher:3:898,deathKnight:3:449,meatWagon:3:337,skeletonWarrior:3:674,meatWagon:3:337</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,ballista_2:1:564,sentinel_2:1:1128,ballista_2:1:564,lancer_2:1:423,ranger_2:1:846,lancer_2:1:423</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,crossbowman_2:1:1134,ballista_2:1:567,crossbowman_2:1:1134,swordsman_2:1:851,lancer_2:1:425,swordsman_2:1:851</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,skeletonWarrior:3:1140,deathKnight:3:570,skeletonWarrior:3:1140,skeletonArcher:3:855,meatWagon:3:427,skeletonArcher:3:855</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,horseArcher_2:1:573,crossbowman_2:1:1146,horseArcher_2:1:573,ballista_2:1:430,swordsman_2:1:860,ballista_2:1:430</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,ballista_2:1:576,sentinel_2:1:1152,ballista_2:1:576,horseArcher_2:1:432,ranger_2:1:864,horseArcher_2:1:432</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,skeletonArcher:3:1158,meatWagon:3:579,skeletonArcher:3:1158,skeletonWarrior:3:869,deathKnight:3:434,skeletonWarrior:3:869</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,sentinel_2:1:1164,horseArcher_2:1:582,sentinel_2:1:1164,crossbowman_2:1:873,catapult_2:1:436,crossbowman_2:1:873</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,horseArcher_2:1:585,crossbowman_2:1:1170,horseArcher_2:1:585,ballista_2:1:439,sentinel_2:1:878,ballista_2:1:439</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,meatWagon:3:588,skeletonWarrior:3:1176,meatWagon:3:588,deathKnight:3:441,skeletonArcher:3:882,deathKnight:3:441</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,crossbowman_2:1:1182,ballista_2:1:591,crossbowman_2:1:1182,sentinel_2:1:887,horseArcher_2:1:443,sentinel_2:1:887</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,sentinel_2:1:1188,horseArcher_2:1:594,sentinel_2:1:1188,crossbowman_2:1:891,ballista_2:1:445,crossbowman_2:1:891</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,deathKnight:3:597,skeletonArcher:3:1194,deathKnight:3:597,meatWagon:3:448,skeletonWarrior:3:896,meatWagon:3:448</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,catapult_2:1:600,swordsman_2:1:1200,catapult_2:1:600,lancer_2:1:450,ranger_2:1:900,lancer_2:1:450</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,ranger_2:1:1206,catapult_2:1:603,ranger_2:1:1206,swordsman_2:1:905,lancer_2:1:452,swordsman_2:1:905</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,skeletonWarrior:3:1212,deathKnight:3:606,skeletonWarrior:3:1212,skeletonArcher:3:909,meatWagon:3:454,skeletonArcher:3:909</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,horseArcher_2:1:609,ranger_2:1:1218,horseArcher_2:1:609,catapult_2:1:457,swordsman_2:1:914,catapult_2:1:457</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,ballista_2:1:612,swordsman_2:1:1224,ballista_2:1:612,lancer_2:1:459,ranger_2:1:918,lancer_2:1:459</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,skeletonArcher:3:1230,meatWagon:3:615,skeletonArcher:3:1230,skeletonWarrior:3:923,deathKnight:3:461,skeletonWarrior:3:923</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,sentinel_2:1:1236,lancer_2:1:618,sentinel_2:1:1236,ranger_2:1:927,catapult_2:1:463,ranger_2:1:927</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,horseArcher_2:1:621,crossbowman_2:1:1242,horseArcher_2:1:621,catapult_2:1:466,swordsman_2:1:932,catapult_2:1:466</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,meatWagon:3:624,skeletonWarrior:3:1248,meatWagon:3:624,deathKnight:3:468,skeletonArcher:3:936,deathKnight:3:468</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,crossbowman_2:1:1254,ballista_2:1:627,crossbowman_2:1:1254,swordsman_2:1:941,lancer_2:1:470,swordsman_2:1:941</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,sentinel_2:1:1260,horseArcher_2:1:630,sentinel_2:1:1260,ranger_2:1:945,catapult_2:1:472,ranger_2:1:945</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,deathKnight:3:633,skeletonArcher:3:1266,deathKnight:3:633,meatWagon:3:475,skeletonWarrior:3:950,meatWagon:3:475</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,ballista_2:1:636,sentinel_2:1:1272,ballista_2:1:636,horseArcher_2:1:477,ranger_2:1:954,horseArcher_2:1:477</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,crossbowman_2:1:1278,ballista_2:1:639,crossbowman_2:1:1278,sentinel_2:1:959,lancer_2:1:479,sentinel_2:1:959</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,skeletonWarrior:3:1284,deathKnight:3:642,skeletonWarrior:3:1284,skeletonArcher:3:963,meatWagon:3:481,skeletonArcher:3:963</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,horseArcher_2:1:645,crossbowman_2:1:1290,horseArcher_2:1:645,ballista_2:1:484,sentinel_2:1:968,ballista_2:1:484</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,ballista_2:1:648,sentinel_2:1:1296,ballista_2:1:648,horseArcher_2:1:486,crossbowman_2:1:972,horseArcher_2:1:486</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,skeletonArcher:3:1302,meatWagon:3:651,skeletonArcher:3:1302,skeletonWarrior:3:977,deathKnight:3:488,skeletonWarrior:3:977</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,sentinel_2:1:1308,horseArcher_2:1:654,sentinel_2:1:1308,crossbowman_2:1:981,ballista_2:1:490,crossbowman_2:1:981</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,lancer_2:1:657,ranger_2:1:1314,lancer_2:1:657,catapult_2:1:493,swordsman_2:1:986,catapult_2:1:493</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,meatWagon:3:660,skeletonWarrior:3:1320,meatWagon:3:660,deathKnight:3:495,skeletonArcher:3:990,deathKnight:3:495</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,ranger_2:1:1326,catapult_2:1:663,ranger_2:1:1326,swordsman_2:1:995,lancer_2:1:497,swordsman_2:1:995</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,swordsman_2:1:1332,lancer_2:1:666,swordsman_2:1:1332,ranger_2:1:999,catapult_2:1:499,ranger_2:1:999</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,deathKnight:3:669,skeletonArcher:3:1338,deathKnight:3:669,meatWagon:3:502,skeletonWarrior:3:1004,meatWagon:3:502</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,ballista_2:1:672,swordsman_2:1:1344,ballista_2:1:672,lancer_2:1:504,ranger_2:1:1008,lancer_2:1:504</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,crossbowman_2:1:1350,catapult_2:1:675,crossbowman_2:1:1350,swordsman_2:1:1013,lancer_2:1:506,swordsman_2:1:1013</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,skeletonWarrior:3:1356,deathKnight:3:678,skeletonWarrior:3:1356,skeletonArcher:3:1017,meatWagon:3:508,skeletonArcher:3:1017</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,horseArcher_2:1:681,crossbowman_2:1:1362,horseArcher_2:1:681,catapult_2:1:511,swordsman_2:1:1022,catapult_2:1:511</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,ballista_2:1:684,sentinel_2:1:1368,ballista_2:1:684,lancer_2:1:513,ranger_2:1:1026,lancer_2:1:513</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,skeletonArcher:3:1374,meatWagon:3:687,skeletonArcher:3:1374,skeletonWarrior:3:1031,deathKnight:3:515,skeletonWarrior:3:1031</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,sentinel_2:1:1380,horseArcher_2:1:690,sentinel_2:1:1380,ranger_2:1:1035,catapult_2:1:517,ranger_2:1:1035</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,horseArcher_2:1:693,crossbowman_2:1:1386,horseArcher_2:1:693,ballista_2:1:520,swordsman_2:1:1040,ballista_2:1:520</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,meatWagon:3:696,skeletonWarrior:3:1392,meatWagon:3:696,deathKnight:3:522,skeletonArcher:3:1044,deathKnight:3:522</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,crossbowman_2:1:1398,ballista_2:1:699,crossbowman_2:1:1398,sentinel_2:1:1049,lancer_2:1:524,sentinel_2:1:1049</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,sentinel_2:1:1404,horseArcher_2:1:702,sentinel_2:1:1404,crossbowman_2:1:1053,catapult_2:1:526,crossbowman_2:1:1053</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,deathKnight:3:705,skeletonArcher:3:1410,deathKnight:3:705,meatWagon:3:529,skeletonWarrior:3:1058,meatWagon:3:529</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,ballista_2:1:708,sentinel_2:1:1416,ballista_2:1:708,horseArcher_2:1:531,crossbowman_2:1:1062,horseArcher_2:1:531</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,crossbowman_2:1:1422,ballista_2:1:711,crossbowman_2:1:1422,sentinel_2:1:1067,horseArcher_2:1:533,sentinel_2:1:1067</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,skeletonWarrior:3:1428,deathKnight:3:714,skeletonWarrior:3:1428,skeletonArcher:3:1071,meatWagon:3:535,skeletonArcher:3:1071</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,lancer_2:1:717,ranger_2:1:1434,lancer_2:1:717,catapult_2:1:538,swordsman_2:1:1076,catapult_2:1:538</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,catapult_2:1:720,swordsman_2:1:1440,catapult_2:1:720,lancer_2:1:540,ranger_2:1:1080,lancer_2:1:540</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,skeletonArcher:3:1446,meatWagon:3:723,skeletonArcher:3:1446,skeletonWarrior:3:1085,deathKnight:3:542,skeletonWarrior:3:1085</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,swordsman_2:1:1452,lancer_2:1:726,swordsman_2:1:1452,ranger_2:1:1089,catapult_2:1:544,ranger_2:1:1089</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,horseArcher_2:1:729,ranger_2:1:1458,horseArcher_2:1:729,catapult_2:1:547,swordsman_2:1:1094,catapult_2:1:547</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,meatWagon:3:732,skeletonWarrior:3:1464,meatWagon:3:732,deathKnight:3:549,skeletonArcher:3:1098,deathKnight:3:549</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,crossbowman_2:1:1470,catapult_2:1:735,crossbowman_2:1:1470,swordsman_2:1:1103,lancer_2:1:551,swordsman_2:1:1103</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,sentinel_2:1:1476,lancer_2:1:738,sentinel_2:1:1476,ranger_2:1:1107,catapult_2:1:553,ranger_2:1:1107</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,deathKnight:3:741,skeletonArcher:3:1482,deathKnight:3:741,meatWagon:3:556,skeletonWarrior:3:1112,meatWagon:3:556</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,ballista_2:1:744,sentinel_2:1:1488,ballista_2:1:744,lancer_2:1:558,ranger_2:1:1116,lancer_2:1:558</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,crossbowman_2:1:1494,ballista_2:1:747,crossbowman_2:1:1494,swordsman_2:1:1121,lancer_2:1:560,swordsman_2:1:1121</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,skeletonWarrior:3:1500,deathKnight:3:750,skeletonWarrior:3:1500,skeletonArcher:3:1125,meatWagon:3:562,skeletonArcher:3:1125</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,horseArcher_2:2:753,crossbowman_2:2:1506,horseArcher_2:2:753,ballista_2:2:565,swordsman_2:2:1130,ballista_2:2:565</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,ballista_2:2:756,sentinel_2:2:1512,ballista_2:2:756,horseArcher_2:2:567,ranger_2:2:1134,horseArcher_2:2:567</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,skeletonArcher:3:1822,meatWagon:3:911,skeletonArcher:3:1822,skeletonWarrior:3:1367,deathKnight:3:683,skeletonWarrior:3:1367</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,sentinel_2:2:1524,horseArcher_2:2:762,sentinel_2:2:1524,crossbowman_2:2:1143,catapult_2:2:571,crossbowman_2:2:1143</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,horseArcher_2:2:765,crossbowman_2:2:1530,horseArcher_2:2:765,ballista_2:2:574,sentinel_2:2:1148,ballista_2:2:574</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,meatWagon:3:922,skeletonWarrior:3:1844,meatWagon:3:922,deathKnight:3:691,skeletonArcher:3:1383,deathKnight:3:691</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,crossbowman_2:2:1542,ballista_2:2:771,crossbowman_2:2:1542,sentinel_2:2:1157,horseArcher_2:2:578,sentinel_2:2:1157</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,sentinel_2:2:1548,horseArcher_2:2:774,sentinel_2:2:1548,crossbowman_2:2:1161,ballista_2:2:580,crossbowman_2:2:1161</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,deathKnight:3:932,skeletonArcher:3:1865,deathKnight:3:932,meatWagon:3:699,skeletonWarrior:3:1399,meatWagon:3:699</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,catapult_2:2:780,swordsman_2:2:1560,catapult_2:2:780,lancer_2:2:585,ranger_2:2:1170,lancer_2:2:585</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,ranger_2:2:1566,catapult_2:2:783,ranger_2:2:1566,swordsman_2:2:1175,lancer_2:2:587,swordsman_2:2:1175</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,skeletonWarrior:3:1887,deathKnight:3:943,skeletonWarrior:3:1887,skeletonArcher:3:1415,meatWagon:3:707,skeletonArcher:3:1415</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,horseArcher_2:2:789,ranger_2:2:1578,horseArcher_2:2:789,catapult_2:2:592,swordsman_2:2:1184,catapult_2:2:592</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,ballista_2:2:792,swordsman_2:2:1584,ballista_2:2:792,lancer_2:2:594,ranger_2:2:1188,lancer_2:2:594</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,skeletonArcher:3:1908,meatWagon:3:954,skeletonArcher:3:1908,skeletonWarrior:3:1431,deathKnight:3:715,skeletonWarrior:3:1431</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,sentinel_2:2:1596,lancer_2:2:798,sentinel_2:2:1596,ranger_2:2:1197,catapult_2:2:598,ranger_2:2:1197</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,horseArcher_2:2:801,crossbowman_2:2:1602,horseArcher_2:2:801,catapult_2:2:601,swordsman_2:2:1202,catapult_2:2:601</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,meatWagon:3:965,skeletonWarrior:3:1930,meatWagon:3:965,deathKnight:3:724,skeletonArcher:3:1448,deathKnight:3:724</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,crossbowman_2:2:1614,ballista_2:2:807,crossbowman_2:2:1614,swordsman_2:2:1211,lancer_2:2:605,swordsman_2:2:1211</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,sentinel_2:2:1620,horseArcher_2:2:810,sentinel_2:2:1620,ranger_2:2:1215,catapult_2:2:607,ranger_2:2:1215</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,deathKnight:3:976,skeletonArcher:3:1952,deathKnight:3:976,meatWagon:3:732,skeletonWarrior:3:1464,meatWagon:3:732</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,ballista_2:2:816,sentinel_2:2:1632,ballista_2:2:816,horseArcher_2:2:612,ranger_2:2:1224,horseArcher_2:2:612</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,crossbowman_2:2:1638,ballista_2:2:819,crossbowman_2:2:1638,sentinel_2:2:1229,lancer_2:2:614,sentinel_2:2:1229</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,skeletonWarrior:3:1973,deathKnight:3:986,skeletonWarrior:3:1973,skeletonArcher:3:1480,meatWagon:3:740,skeletonArcher:3:1480</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,horseArcher_2:2:825,crossbowman_2:2:1650,horseArcher_2:2:825,ballista_2:2:619,sentinel_2:2:1238,ballista_2:2:619</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,ballista_2:2:828,sentinel_2:2:1656,ballista_2:2:828,horseArcher_2:2:621,crossbowman_2:2:1242,horseArcher_2:2:621</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,skeletonArcher:3:1995,meatWagon:3:997,skeletonArcher:3:1995,skeletonWarrior:3:1496,deathKnight:3:748,skeletonWarrior:3:1496</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,sentinel_2:2:1668,horseArcher_2:2:834,sentinel_2:2:1668,crossbowman_2:2:1251,ballista_2:2:625,crossbowman_2:2:1251</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,lancer_2:2:837,ranger_2:2:1674,lancer_2:2:837,catapult_2:2:628,swordsman_2:2:1256,catapult_2:2:628</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,meatWagon:3:1008,skeletonWarrior:3:2016,meatWagon:3:1008,deathKnight:3:756,skeletonArcher:3:1512,deathKnight:3:756</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,ranger_2:2:1686,catapult_2:2:843,ranger_2:2:1686,swordsman_2:2:1265,lancer_2:2:632,swordsman_2:2:1265</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,swordsman_2:2:1692,lancer_2:2:846,swordsman_2:2:1692,ranger_2:2:1269,catapult_2:2:634,ranger_2:2:1269</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,deathKnight:3:1022,skeletonArcher:3:2045,deathKnight:3:1022,meatWagon:3:767,skeletonWarrior:3:1534,meatWagon:3:767</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,ballista_2:2:858,swordsman_2:2:1716,ballista_2:2:858,lancer_2:2:643,ranger_2:2:1287,lancer_2:2:643</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,crossbowman_2:2:1728,catapult_2:2:864,crossbowman_2:2:1728,swordsman_2:2:1296,lancer_2:2:648,swordsman_2:2:1296</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,skeletonWarrior:3:2087,deathKnight:3:1043,skeletonWarrior:3:2087,skeletonArcher:3:1566,meatWagon:3:783,skeletonArcher:3:1566</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,horseArcher_2:2:875,crossbowman_2:2:1751,horseArcher_2:2:875,catapult_2:2:657,swordsman_2:2:1314,catapult_2:2:657</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,ballista_2:2:881,sentinel_2:2:1763,ballista_2:2:881,lancer_2:2:661,ranger_2:2:1322,lancer_2:2:661</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,skeletonArcher:3:2130,meatWagon:3:1065,skeletonArcher:3:2130,skeletonWarrior:3:1598,deathKnight:3:799,skeletonWarrior:3:1598</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,sentinel_2:2:1787,horseArcher_2:2:893,sentinel_2:2:1787,ranger_2:2:1340,catapult_2:2:670,ranger_2:2:1340</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,horseArcher_2:2:899,crossbowman_2:2:1799,horseArcher_2:2:899,ballista_2:2:674,swordsman_2:2:1349,ballista_2:2:674</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,meatWagon:3:1086,skeletonWarrior:3:2173,meatWagon:3:1086,deathKnight:3:815,skeletonArcher:3:1630,deathKnight:3:815</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,crossbowman_2:2:1823,ballista_2:2:911,crossbowman_2:2:1823,sentinel_2:2:1367,lancer_2:2:683,sentinel_2:2:1367</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,sentinel_2:2:1835,horseArcher_2:2:917,sentinel_2:2:1835,crossbowman_2:2:1376,catapult_2:2:688,crossbowman_2:2:1376</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,deathKnight:3:1108,skeletonArcher:3:2217,deathKnight:3:1108,meatWagon:3:831,skeletonWarrior:3:1663,meatWagon:3:831</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,ballista_2:2:929,sentinel_2:2:1859,ballista_2:2:929,horseArcher_2:2:697,crossbowman_2:2:1395,horseArcher_2:2:697</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,crossbowman_2:2:1872,ballista_2:2:936,crossbowman_2:2:1872,sentinel_2:2:1404,horseArcher_2:2:702,sentinel_2:2:1404</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,skeletonWarrior:3:2261,deathKnight:3:1130,skeletonWarrior:3:2261,skeletonArcher:3:1696,meatWagon:3:848,skeletonArcher:3:1696</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,lancer_2:2:948,ranger_2:2:1896,lancer_2:2:948,catapult_2:2:711,swordsman_2:2:1422,catapult_2:2:711</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,catapult_2:2:954,swordsman_2:2:1908,catapult_2:2:954,lancer_2:2:715,ranger_2:2:1431,lancer_2:2:715</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,skeletonArcher:3:2305,meatWagon:3:1152,skeletonArcher:3:2305,skeletonWarrior:3:1729,deathKnight:3:864,skeletonWarrior:3:1729</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,swordsman_2:2:1933,lancer_2:2:966,swordsman_2:2:1933,ranger_2:2:1450,catapult_2:2:725,ranger_2:2:1450</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,horseArcher_2:2:973,ranger_2:2:1946,horseArcher_2:2:973,catapult_2:2:730,swordsman_2:2:1460,catapult_2:2:730</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,meatWagon:3:1175,skeletonWarrior:3:2350,meatWagon:3:1175,deathKnight:3:881,skeletonArcher:3:1763,deathKnight:3:881</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,crossbowman_2:2:1971,catapult_2:2:985,crossbowman_2:2:1971,swordsman_2:2:1478,lancer_2:2:739,swordsman_2:2:1478</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,sentinel_2:2:1983,lancer_2:2:991,sentinel_2:2:1983,ranger_2:2:1488,catapult_2:2:744,ranger_2:2:1488</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,deathKnight:3:1197,skeletonArcher:3:2395,deathKnight:3:1197,meatWagon:3:898,skeletonWarrior:3:1796,meatWagon:3:898</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,ballista_2:2:1004,sentinel_2:2:2009,ballista_2:2:1004,lancer_2:2:753,ranger_2:2:1507,lancer_2:2:753</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,crossbowman_2:2:2021,ballista_2:2:1010,crossbowman_2:2:2021,swordsman_2:2:1516,lancer_2:2:758,swordsman_2:2:1516</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,skeletonWarrior:3:2441,deathKnight:3:1220,skeletonWarrior:3:2441,skeletonArcher:3:1831,meatWagon:3:915,skeletonArcher:3:1831</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,horseArcher_2:2:1023,crossbowman_2:2:2047,horseArcher_2:2:1023,ballista_2:2:767,swordsman_2:2:1535,ballista_2:2:767</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,ballista_2:2:1030,sentinel_2:2:2060,ballista_2:2:1030,horseArcher_2:2:772,ranger_2:2:1545,horseArcher_2:2:772</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,skeletonArcher:3:2487,meatWagon:3:1243,skeletonArcher:3:2487,skeletonWarrior:3:1865,deathKnight:3:932,skeletonWarrior:3:1865</t>
-  </si>
-  <si>
-    <t>redDragon:3:25,sentinel_2:3:2085,horseArcher_2:3:1042,sentinel_2:3:2085,crossbowman_2:3:1564,catapult_2:3:782,crossbowman_2:3:1564</t>
-  </si>
-  <si>
-    <t>redDragon:3:25,horseArcher_2:3:1049,crossbowman_2:3:2098,horseArcher_2:3:1049,ballista_2:3:787,sentinel_2:3:1574,ballista_2:3:787</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,meatWagon:3:1478,skeletonWarrior:3:2956,meatWagon:3:1478,deathKnight:3:1108,skeletonArcher:3:2217,deathKnight:3:1108</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,crossbowman_2:3:2124,ballista_2:3:1062,crossbowman_2:3:2124,sentinel_2:3:1593,horseArcher_2:3:796,sentinel_2:3:1593</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,sentinel_2:3:2137,horseArcher_2:3:1068,sentinel_2:3:2137,crossbowman_2:3:1603,ballista_2:3:801,crossbowman_2:3:1603</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,deathKnight:3:1505,skeletonArcher:3:3011,deathKnight:3:1505,meatWagon:3:1129,skeletonWarrior:3:2258,meatWagon:3:1129</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,catapult_2:3:1082,swordsman_2:3:2164,catapult_2:3:1082,lancer_2:3:811,ranger_2:3:1623,lancer_2:3:811</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,ranger_2:3:2177,catapult_2:3:1088,ranger_2:3:2177,swordsman_2:3:1633,lancer_2:3:816,swordsman_2:3:1633</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,skeletonWarrior:3:3066,deathKnight:3:1533,skeletonWarrior:3:3066,skeletonArcher:3:2300,meatWagon:3:1150,skeletonArcher:3:2300</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,horseArcher_2:3:1101,ranger_2:3:2203,horseArcher_2:3:1101,catapult_2:3:826,swordsman_2:3:1653,catapult_2:3:826</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,ballista_2:3:1108,swordsman_2:3:2217,ballista_2:3:1108,lancer_2:3:831,ranger_2:3:1663,lancer_2:3:831</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,skeletonArcher:3:3122,meatWagon:3:1561,skeletonArcher:3:3122,skeletonWarrior:3:2342,deathKnight:3:1171,skeletonWarrior:3:2342</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,sentinel_2:3:2243,lancer_2:3:1121,sentinel_2:3:2243,ranger_2:3:1683,catapult_2:3:841,ranger_2:3:1683</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,horseArcher_2:3:1128,crossbowman_2:3:2257,horseArcher_2:3:1128,catapult_2:3:846,swordsman_2:3:1693,catapult_2:3:846</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,meatWagon:3:1589,skeletonWarrior:3:3178,meatWagon:3:1589,deathKnight:3:1192,skeletonArcher:3:2384,deathKnight:3:1192</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,crossbowman_2:3:2284,ballista_2:3:1142,crossbowman_2:3:2284,swordsman_2:3:1713,lancer_2:3:856,swordsman_2:3:1713</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,sentinel_2:3:2297,horseArcher_2:3:1148,sentinel_2:3:2297,ranger_2:3:1723,catapult_2:3:861,ranger_2:3:1723</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,deathKnight:3:1617,skeletonArcher:3:3235,deathKnight:3:1617,meatWagon:3:1213,skeletonWarrior:3:2426,meatWagon:3:1213</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,ballista_2:3:1162,sentinel_2:3:2324,ballista_2:3:1162,horseArcher_2:3:871,ranger_2:3:1743,horseArcher_2:3:871</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,crossbowman_2:3:2338,ballista_2:3:1169,crossbowman_2:3:2338,sentinel_2:3:1754,lancer_2:3:877,sentinel_2:3:1754</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,skeletonWarrior:3:3292,deathKnight:3:1646,skeletonWarrior:3:3292,skeletonArcher:3:2469,meatWagon:3:1234,skeletonArcher:3:2469</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,horseArcher_2:3:1183,crossbowman_2:3:2366,horseArcher_2:3:1183,ballista_2:3:887,sentinel_2:3:1774,ballista_2:3:887</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,ballista_2:3:1189,sentinel_2:3:2379,ballista_2:3:1189,horseArcher_2:3:892,crossbowman_2:3:1785,horseArcher_2:3:892</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,skeletonArcher:3:3350,meatWagon:3:1675,skeletonArcher:3:3350,skeletonWarrior:3:2513,deathKnight:3:1256,skeletonWarrior:3:2513</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,sentinel_2:3:2407,horseArcher_2:3:1203,sentinel_2:3:2407,crossbowman_2:3:1805,ballista_2:3:902,crossbowman_2:3:1805</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,lancer_2:3:1210,ranger_2:3:2421,lancer_2:3:1210,catapult_2:3:908,swordsman_2:3:1816,catapult_2:3:908</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,meatWagon:3:1704,skeletonWarrior:3:3409,meatWagon:3:1704,deathKnight:3:1278,skeletonArcher:3:2557,deathKnight:3:1278</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,ranger_2:3:2449,catapult_2:3:1224,ranger_2:3:2449,swordsman_2:3:1837,lancer_2:3:918,swordsman_2:3:1837</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,swordsman_2:3:2463,lancer_2:3:1231,swordsman_2:3:2463,ranger_2:3:1847,catapult_2:3:923,ranger_2:3:1847</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,deathKnight:3:1734,skeletonArcher:3:3468,deathKnight:3:1734,meatWagon:3:1300,skeletonWarrior:3:2601,meatWagon:3:1300</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,ballista_2:3:1245,swordsman_2:3:2491,ballista_2:3:1245,lancer_2:3:934,ranger_2:3:1868,lancer_2:3:934</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,crossbowman_2:3:2505,catapult_2:3:1252,crossbowman_2:3:2505,swordsman_2:3:1879,lancer_2:3:939,swordsman_2:3:1879</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,skeletonWarrior:3:3527,deathKnight:3:1763,skeletonWarrior:3:3527,skeletonArcher:3:2645,meatWagon:3:1322,skeletonArcher:3:2645</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,horseArcher_2:3:1267,crossbowman_2:3:2534,horseArcher_2:3:1267,catapult_2:3:950,swordsman_2:3:1900,catapult_2:3:950</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,ballista_2:3:1274,sentinel_2:3:2548,ballista_2:3:1274,lancer_2:3:955,ranger_2:3:1911,lancer_2:3:955</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,skeletonArcher:3:3587,meatWagon:3:1793,skeletonArcher:3:3587,skeletonWarrior:3:2690,deathKnight:3:1345,skeletonWarrior:3:2690</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,sentinel_2:3:2576,horseArcher_2:3:1288,sentinel_2:3:2576,ranger_2:3:1932,catapult_2:3:966,ranger_2:3:1932</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,horseArcher_2:3:1295,crossbowman_2:3:2591,horseArcher_2:3:1295,ballista_2:3:971,swordsman_2:3:1943,ballista_2:3:971</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,meatWagon:3:1823,skeletonWarrior:3:3647,meatWagon:3:1823,deathKnight:3:1368,skeletonArcher:3:2736,deathKnight:3:1368</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,crossbowman_2:3:2620,ballista_2:3:1310,crossbowman_2:3:2620,sentinel_2:3:1965,lancer_2:3:982,sentinel_2:3:1965</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,sentinel_2:3:2634,horseArcher_2:3:1317,sentinel_2:3:2634,crossbowman_2:3:1976,catapult_2:3:988,crossbowman_2:3:1976</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,deathKnight:3:1854,skeletonArcher:3:3708,deathKnight:3:1854,meatWagon:3:1390,skeletonWarrior:3:2781,meatWagon:3:1390</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,ballista_2:3:1331,sentinel_2:3:2663,ballista_2:3:1331,horseArcher_2:3:999,crossbowman_2:3:1998,horseArcher_2:3:999</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,crossbowman_2:3:2678,ballista_2:3:1339,crossbowman_2:3:2678,sentinel_2:3:2009,horseArcher_2:3:1004,sentinel_2:3:2009</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,skeletonWarrior:3:3770,deathKnight:3:1885,skeletonWarrior:3:3770,skeletonArcher:3:2827,meatWagon:3:1413,skeletonArcher:3:2827</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,lancer_2:3:1353,ranger_2:3:2707,lancer_2:3:1353,catapult_2:3:1015,swordsman_2:3:2031,catapult_2:3:1015</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,catapult_2:3:1361,swordsman_2:3:2722,catapult_2:3:1361,lancer_2:3:1021,ranger_2:3:2042,lancer_2:3:1021</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,skeletonArcher:3:3831,meatWagon:3:1915,skeletonArcher:3:3831,skeletonWarrior:3:2874,deathKnight:3:1437,skeletonWarrior:3:2874</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,swordsman_2:3:2752,lancer_2:3:1376,swordsman_2:3:2752,ranger_2:3:2064,catapult_2:3:1032,ranger_2:3:2064</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,horseArcher_2:3:1383,ranger_2:3:2767,horseArcher_2:3:1383,catapult_2:3:1037,swordsman_2:3:2075,catapult_2:3:1037</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,meatWagon:3:1947,skeletonWarrior:3:3894,meatWagon:3:1947,deathKnight:3:1460,skeletonArcher:3:2921,deathKnight:3:1460</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,crossbowman_2:3:2796,catapult_2:3:1398,crossbowman_2:3:2796,swordsman_2:3:2097,lancer_2:3:1048,swordsman_2:3:2097</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,sentinel_2:3:2811,lancer_2:3:1405,sentinel_2:3:2811,ranger_2:3:2109,catapult_2:3:1054,ranger_2:3:2109</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,deathKnight:3:1978,skeletonArcher:3:3957,deathKnight:3:1978,meatWagon:3:1484,skeletonWarrior:3:2968,meatWagon:3:1484</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,ballista_2:3:1420,sentinel_2:3:2841,ballista_2:3:1420,lancer_2:3:1065,ranger_2:3:2131,lancer_2:3:1065</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,crossbowman_2:3:2857,ballista_2:3:1428,crossbowman_2:3:2857,swordsman_2:3:2143,lancer_2:3:1071,swordsman_2:3:2143</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,skeletonWarrior:3:4020,deathKnight:3:2010,skeletonWarrior:3:4020,skeletonArcher:3:3015,meatWagon:3:1507,skeletonArcher:3:3015</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,horseArcher_2:3:1443,crossbowman_2:3:2887,horseArcher_2:3:1443,ballista_2:3:1082,swordsman_2:3:2165,ballista_2:3:1082</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,ballista_2:3:1451,sentinel_2:3:2902,ballista_2:3:1451,horseArcher_2:3:1088,ranger_2:3:2177,horseArcher_2:3:1088</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,skeletonArcher:3:4084,meatWagon:3:2042,skeletonArcher:3:4084,skeletonWarrior:3:3063,deathKnight:3:1531,skeletonWarrior:3:3063</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,sentinel_2:3:2933,horseArcher_2:3:1466,sentinel_2:3:2933,crossbowman_2:3:2200,catapult_2:3:1100,crossbowman_2:3:2200</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,horseArcher_2:3:1474,crossbowman_2:3:2948,horseArcher_2:3:1474,ballista_2:3:1105,sentinel_2:3:2211,ballista_2:3:1105</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,meatWagon:3:2074,skeletonWarrior:3:4149,meatWagon:3:2074,deathKnight:3:1556,skeletonArcher:3:3112,deathKnight:3:1556</t>
-  </si>
-  <si>
-    <t>blueDragon:3:30,crossbowman_3:1:2979,ballista_3:1:1489,crossbowman_3:1:2979,sentinel_3:1:2234,horseArcher_3:1:1117,sentinel_3:1:2234</t>
-  </si>
-  <si>
-    <t>blueDragon:3:30,sentinel_3:1:2994,horseArcher_3:1:1497,sentinel_3:1:2994,crossbowman_3:1:2246,ballista_3:1:1123,crossbowman_3:1:2246</t>
-  </si>
-  <si>
-    <t>blueDragon:3:30,deathKnight:3:2407,skeletonArcher:3:4815,deathKnight:3:2407,meatWagon:3:1806,skeletonWarrior:3:3612,meatWagon:3:1806</t>
-  </si>
-  <si>
-    <t>blueDragon:3:30,catapult_3:1:1512,swordsman_3:1:3025,catapult_3:1:1512,lancer_3:1:1134,ranger_3:1:2269,lancer_3:1:1134</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,ranger_3:1:3041,catapult_3:1:1520,ranger_3:1:3041,swordsman_3:1:2281,lancer_3:1:1140,swordsman_3:1:2281</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,skeletonWarrior:3:4890,deathKnight:3:2445,skeletonWarrior:3:4890,skeletonArcher:3:3668,meatWagon:3:1834,skeletonArcher:3:3668</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,horseArcher_3:1:1536,ranger_3:1:3072,horseArcher_3:1:1536,catapult_3:1:1152,swordsman_3:1:2304,catapult_3:1:1152</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,ballista_3:1:1544,swordsman_3:1:3088,ballista_3:1:1544,lancer_3:1:1158,ranger_3:1:2316,lancer_3:1:1158</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,skeletonArcher:3:4965,meatWagon:3:2482,skeletonArcher:3:4965,skeletonWarrior:3:3724,deathKnight:3:1862,skeletonWarrior:3:3724</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,sentinel_3:1:3119,lancer_3:1:1559,sentinel_3:1:3119,ranger_3:1:2340,catapult_3:1:1170,ranger_3:1:2340</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,horseArcher_3:1:1567,crossbowman_3:1:3135,horseArcher_3:1:1567,catapult_3:1:1176,swordsman_3:1:2352,catapult_3:1:1176</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,meatWagon:3:2520,skeletonWarrior:3:5041,meatWagon:3:2520,deathKnight:3:1890,skeletonArcher:3:3781,deathKnight:3:1890</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,crossbowman_3:1:3167,ballista_3:1:1583,crossbowman_3:1:3167,swordsman_3:1:2375,lancer_3:1:1187,swordsman_3:1:2375</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,sentinel_3:1:3183,horseArcher_3:1:1591,sentinel_3:1:3183,ranger_3:1:2387,catapult_3:1:1193,ranger_3:1:2387</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,deathKnight:3:2559,skeletonArcher:3:5118,deathKnight:3:2559,meatWagon:3:1919,skeletonWarrior:3:3839,meatWagon:3:1919</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,ballista_3:1:1607,sentinel_3:1:3215,ballista_3:1:1607,horseArcher_3:1:1205,ranger_3:1:2411,horseArcher_3:1:1205</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,crossbowman_3:1:3231,ballista_3:1:1615,crossbowman_3:1:3231,sentinel_3:1:2423,lancer_3:1:1211,sentinel_3:1:2423</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,skeletonWarrior:3:5195,deathKnight:3:2597,skeletonWarrior:3:5195,skeletonArcher:3:3896,meatWagon:3:1948,skeletonArcher:3:3896</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,horseArcher_3:1:1631,crossbowman_3:1:3263,horseArcher_3:1:1631,ballista_3:1:1224,sentinel_3:1:2448,ballista_3:1:1224</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,ballista_3:1:1639,sentinel_3:1:3279,ballista_3:1:1639,horseArcher_3:1:1230,crossbowman_3:1:2460,horseArcher_3:1:1230</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,skeletonArcher:3:5273,meatWagon:3:2636,skeletonArcher:3:5273,skeletonWarrior:3:3955,deathKnight:3:1977,skeletonWarrior:3:3955</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,sentinel_3:1:3312,horseArcher_3:1:1656,sentinel_3:1:3312,crossbowman_3:1:2484,ballista_3:1:1242,crossbowman_3:1:2484</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,lancer_3:1:1664,ranger_3:1:3328,lancer_3:1:1664,catapult_3:1:1248,swordsman_3:1:2496,catapult_3:1:1248</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,meatWagon:3:2675,skeletonWarrior:3:5351,meatWagon:3:2675,deathKnight:3:2006,skeletonArcher:3:4013,deathKnight:3:2006</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,ranger_3:1:3361,catapult_3:1:1680,ranger_3:1:3361,swordsman_3:1:2521,lancer_3:1:1260,swordsman_3:1:2521</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,swordsman_3:1:3377,lancer_3:1:1688,swordsman_3:1:3377,ranger_3:1:2533,catapult_3:1:1266,ranger_3:1:2533</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,deathKnight:3:2715,skeletonArcher:3:5430,deathKnight:3:2715,meatWagon:3:2036,skeletonWarrior:3:4073,meatWagon:3:2036</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,ballista_3:1:1705,swordsman_3:1:3410,ballista_3:1:1705,lancer_3:1:1279,ranger_3:1:2558,lancer_3:1:1279</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,crossbowman_3:1:3427,catapult_3:1:1713,crossbowman_3:1:3427,swordsman_3:1:2570,lancer_3:1:1285,swordsman_3:1:2570</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,skeletonWarrior:3:5509,deathKnight:3:2754,skeletonWarrior:3:5509,skeletonArcher:3:4132,meatWagon:3:2066,skeletonArcher:3:4132</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,horseArcher_3:1:1730,crossbowman_3:1:3460,horseArcher_3:1:1730,catapult_3:1:1297,swordsman_3:1:2595,catapult_3:1:1297</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,ballista_3:1:1738,sentinel_3:1:3477,ballista_3:1:1738,lancer_3:1:1304,ranger_3:1:2608,lancer_3:1:1304</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,skeletonArcher:3:5589,meatWagon:3:2794,skeletonArcher:3:5589,skeletonWarrior:3:4192,deathKnight:3:2096,skeletonWarrior:3:4192</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,sentinel_3:1:3510,horseArcher_3:1:1755,sentinel_3:1:3510,ranger_3:1:2633,catapult_3:1:1316,ranger_3:1:2633</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,horseArcher_3:1:1763,crossbowman_3:1:3527,horseArcher_3:1:1763,ballista_3:1:1322,swordsman_3:1:2645,ballista_3:1:1322</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,meatWagon:3:2835,skeletonWarrior:3:5670,meatWagon:3:2835,deathKnight:3:2126,skeletonArcher:3:4252,deathKnight:3:2126</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,crossbowman_3:1:3561,ballista_3:1:1780,crossbowman_3:1:3561,sentinel_3:1:2671,lancer_3:1:1335,sentinel_3:1:2671</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,sentinel_3:1:3577,horseArcher_3:1:1788,sentinel_3:1:3577,crossbowman_3:1:2683,catapult_3:1:1341,crossbowman_3:1:2683</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,deathKnight:3:2875,skeletonArcher:3:5751,deathKnight:3:2875,meatWagon:3:2156,skeletonWarrior:3:4313,meatWagon:3:2156</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,ballista_3:1:1805,sentinel_3:1:3611,ballista_3:1:1805,horseArcher_3:1:1354,crossbowman_3:1:2709,horseArcher_3:1:1354</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,crossbowman_3:1:3628,ballista_3:1:1814,crossbowman_3:1:3628,sentinel_3:1:2721,horseArcher_3:1:1360,sentinel_3:1:2721</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,skeletonWarrior:3:5832,deathKnight:3:2916,skeletonWarrior:3:5832,skeletonArcher:3:4374,meatWagon:3:2187,skeletonArcher:3:4374</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,lancer_3:2:1831,ranger_3:2:3663,lancer_3:2:1831,catapult_3:2:1373,swordsman_3:2:2747,catapult_3:2:1373</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,catapult_3:2:1840,swordsman_3:2:3680,catapult_3:2:1840,lancer_3:2:1380,ranger_3:2:2760,lancer_3:2:1380</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,skeletonArcher:3:6654,meatWagon:3:3327,skeletonArcher:3:6654,skeletonWarrior:3:4991,deathKnight:3:2495,skeletonWarrior:3:4991</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,swordsman_3:2:3714,lancer_3:2:1857,swordsman_3:2:3714,ranger_3:2:2786,catapult_3:2:1393,ranger_3:2:2786</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,horseArcher_3:2:1865,ranger_3:2:3731,horseArcher_3:2:1865,catapult_3:2:1399,swordsman_3:2:2799,catapult_3:2:1399</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,meatWagon:3:3373,skeletonWarrior:3:6747,meatWagon:3:3373,deathKnight:3:2530,skeletonArcher:3:5061,deathKnight:3:2530</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,crossbowman_3:2:3766,catapult_3:2:1883,crossbowman_3:2:3766,swordsman_3:2:2825,lancer_3:2:1412,swordsman_3:2:2825</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,sentinel_3:2:3783,lancer_3:2:1891,sentinel_3:2:3783,ranger_3:2:2838,catapult_3:2:1419,ranger_3:2:2838</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,deathKnight:3:3420,skeletonArcher:3:6841,deathKnight:3:3420,meatWagon:3:2565,skeletonWarrior:3:5131,meatWagon:3:2565</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,ballista_3:2:1909,sentinel_3:2:3818,ballista_3:2:1909,lancer_3:2:1432,ranger_3:2:2864,lancer_3:2:1432</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,crossbowman_3:2:3836,ballista_3:2:1918,crossbowman_3:2:3836,swordsman_3:2:2877,lancer_3:2:1438,swordsman_3:2:2877</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,skeletonWarrior:3:6936,deathKnight:3:3468,skeletonWarrior:3:6936,skeletonArcher:3:5202,meatWagon:3:2601,skeletonArcher:3:5202</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,horseArcher_3:2:1935,crossbowman_3:2:3871,horseArcher_3:2:1935,ballista_3:2:1451,swordsman_3:2:2903,ballista_3:2:1451</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,ballista_3:2:1944,sentinel_3:2:3888,ballista_3:2:1944,horseArcher_3:2:1458,ranger_3:2:2916,horseArcher_3:2:1458</t>
-  </si>
-  <si>
-    <t>blueDragon:4:35,skeletonArcher:3:7031,meatWagon:3:3515,skeletonArcher:3:7031,skeletonWarrior:3:5273,deathKnight:3:2636,skeletonWarrior:3:5273</t>
-  </si>
-  <si>
-    <t>blueDragon:4:35,sentinel_3:2:3924,horseArcher_3:2:1962,sentinel_3:2:3924,crossbowman_3:2:2943,catapult_3:2:1471,crossbowman_3:2:2943</t>
-  </si>
-  <si>
-    <t>blueDragon:4:35,horseArcher_3:2:1971,crossbowman_3:2:3942,horseArcher_3:2:1971,ballista_3:2:1478,sentinel_3:2:2956,ballista_3:2:1478</t>
-  </si>
-  <si>
-    <t>blueDragon:4:35,meatWagon:3:3563,skeletonWarrior:3:7126,meatWagon:3:3563,deathKnight:3:2672,skeletonArcher:3:5345,deathKnight:3:2672</t>
-  </si>
-  <si>
-    <t>blueDragon:4:35,crossbowman_3:2:3977,ballista_3:2:1988,crossbowman_3:2:3977,sentinel_3:2:2983,horseArcher_3:2:1491,sentinel_3:2:2983</t>
-  </si>
-  <si>
-    <t>blueDragon:4:35,sentinel_3:2:3995,horseArcher_3:2:1997,sentinel_3:2:3995,crossbowman_3:2:2996,ballista_3:2:1498,crossbowman_3:2:2996</t>
-  </si>
-  <si>
-    <t>blueDragon:4:35,deathKnight:3:3611,skeletonArcher:3:7223,deathKnight:3:3611,meatWagon:3:2708,skeletonWarrior:3:5417,meatWagon:3:2708</t>
-  </si>
-  <si>
-    <t>greenDragon:4:35,catapult_3:2:2015,swordsman_3:2:4031,catapult_3:2:2015,lancer_3:2:1511,ranger_3:2:3023,lancer_3:2:1511</t>
-  </si>
-  <si>
-    <t>greenDragon:4:35,ranger_3:2:4049,catapult_3:2:2024,ranger_3:2:4049,swordsman_3:2:3037,lancer_3:2:1518,swordsman_3:2:3037</t>
-  </si>
-  <si>
-    <t>greenDragon:4:35,skeletonWarrior:3:7320,deathKnight:3:3660,skeletonWarrior:3:7320,skeletonArcher:3:5490,meatWagon:3:2745,skeletonArcher:3:5490</t>
-  </si>
-  <si>
-    <t>greenDragon:4:35,horseArcher_3:2:2042,ranger_3:2:4085,horseArcher_3:2:2042,catapult_3:2:1532,swordsman_3:2:3064,catapult_3:2:1532</t>
-  </si>
-  <si>
-    <t>greenDragon:4:35,ballista_3:2:2051,swordsman_3:2:4103,ballista_3:2:2051,lancer_3:2:1538,ranger_3:2:3077,lancer_3:2:1538</t>
-  </si>
-  <si>
-    <t>greenDragon:4:35,skeletonArcher:3:7418,meatWagon:3:3709,skeletonArcher:3:7418,skeletonWarrior:3:5564,deathKnight:3:2782,skeletonWarrior:3:5564</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,sentinel_3:2:4139,lancer_3:2:2069,sentinel_3:2:4139,ranger_3:2:3105,catapult_3:2:1552,ranger_3:2:3105</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,horseArcher_3:2:2079,crossbowman_3:2:4158,horseArcher_3:2:2079,catapult_3:2:1559,swordsman_3:2:3118,catapult_3:2:1559</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,meatWagon:3:3758,skeletonWarrior:3:7516,meatWagon:3:3758,deathKnight:3:2818,skeletonArcher:3:5637,deathKnight:3:2818</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,crossbowman_3:2:4194,ballista_3:2:2097,crossbowman_3:2:4194,swordsman_3:2:3146,lancer_3:2:1573,swordsman_3:2:3146</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,sentinel_3:2:4212,horseArcher_3:2:2106,sentinel_3:2:4212,ranger_3:2:3159,catapult_3:2:1579,ranger_3:2:3159</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,deathKnight:3:3807,skeletonArcher:3:7615,deathKnight:3:3807,meatWagon:3:2856,skeletonWarrior:3:5712,meatWagon:3:2856</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,ballista_3:2:2124,sentinel_3:2:4249,ballista_3:2:2124,horseArcher_3:2:1593,ranger_3:2:3187,horseArcher_3:2:1593</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,crossbowman_3:2:4268,ballista_3:2:2134,crossbowman_3:2:4268,sentinel_3:2:3201,lancer_3:2:1600,sentinel_3:2:3201</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,skeletonWarrior:3:7715,deathKnight:3:3857,skeletonWarrior:3:7715,skeletonArcher:3:5786,meatWagon:3:2893,skeletonArcher:3:5786</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,horseArcher_3:2:2152,crossbowman_3:2:4305,horseArcher_3:2:2152,ballista_3:2:1614,sentinel_3:2:3229,ballista_3:2:1614</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,ballista_3:2:2161,sentinel_3:2:4323,ballista_3:2:2161,horseArcher_3:2:1621,crossbowman_3:2:3243,horseArcher_3:2:1621</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,skeletonArcher:3:7815,meatWagon:3:3907,skeletonArcher:3:7815,skeletonWarrior:3:5862,deathKnight:3:2931,skeletonWarrior:3:5862</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,sentinel_3:2:4361,horseArcher_3:2:2180,sentinel_3:2:4361,crossbowman_3:2:3271,ballista_3:2:1635,crossbowman_3:2:3271</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,lancer_3:2:2189,ranger_3:2:4379,lancer_3:2:2189,catapult_3:2:1642,swordsman_3:2:3285,catapult_3:2:1642</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,meatWagon:3:3958,skeletonWarrior:3:7916,meatWagon:3:3958,deathKnight:3:2968,skeletonArcher:3:5937,deathKnight:3:2968</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,ranger_3:3:4417,catapult_3:3:2208,ranger_3:3:4417,swordsman_3:3:3313,lancer_3:3:1656,swordsman_3:3:3313</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,swordsman_3:3:4436,lancer_3:3:2218,swordsman_3:3:4436,ranger_3:3:3327,catapult_3:3:1663,ranger_3:3:3327</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,deathKnight:3:4454,skeletonArcher:3:8909,deathKnight:3:4454,meatWagon:3:3341,skeletonWarrior:3:6682,meatWagon:3:3341</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,ballista_3:3:2236,swordsman_3:3:4473,ballista_3:3:2236,lancer_3:3:1677,ranger_3:3:3355,lancer_3:3:1677</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,crossbowman_3:3:4492,catapult_3:3:2246,crossbowman_3:3:4492,swordsman_3:3:3369,lancer_3:3:1684,swordsman_3:3:3369</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,skeletonWarrior:3:9022,deathKnight:3:4511,skeletonWarrior:3:9022,skeletonArcher:3:6767,meatWagon:3:3383,skeletonArcher:3:6767</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,horseArcher_3:3:2265,crossbowman_3:3:4530,horseArcher_3:3:2265,catapult_3:3:1699,swordsman_3:3:3398,catapult_3:3:1699</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,ballista_3:3:2274,sentinel_3:3:4549,ballista_3:3:2274,lancer_3:3:1706,ranger_3:3:3412,lancer_3:3:1706</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,skeletonArcher:3:9137,meatWagon:3:4568,skeletonArcher:3:9137,skeletonWarrior:3:6853,deathKnight:3:3426,skeletonWarrior:3:6853</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,sentinel_3:3:4588,horseArcher_3:3:2294,sentinel_3:3:4588,ranger_3:3:3441,catapult_3:3:1720,ranger_3:3:3441</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,horseArcher_3:3:2303,crossbowman_3:3:4607,horseArcher_3:3:2303,ballista_3:3:1727,swordsman_3:3:3455,ballista_3:3:1727</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,meatWagon:3:4626,skeletonWarrior:3:9252,meatWagon:3:4626,deathKnight:3:3469,skeletonArcher:3:6939,deathKnight:3:3469</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,crossbowman_3:3:4645,ballista_3:3:2322,crossbowman_3:3:4645,sentinel_3:3:3484,lancer_3:3:1742,sentinel_3:3:3484</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,sentinel_3:3:4665,horseArcher_3:3:2332,sentinel_3:3:4665,crossbowman_3:3:3499,catapult_3:3:1749,crossbowman_3:3:3499</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,deathKnight:3:4683,skeletonArcher:3:9367,deathKnight:3:4683,meatWagon:3:3513,skeletonWarrior:3:7026,meatWagon:3:3513</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,ballista_3:3:2351,sentinel_3:3:4703,ballista_3:3:2351,horseArcher_3:3:1764,crossbowman_3:3:3528,horseArcher_3:3:1764</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,crossbowman_3:3:4723,ballista_3:3:2361,crossbowman_3:3:4723,sentinel_3:3:3542,horseArcher_3:3:1771,sentinel_3:3:3542</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,skeletonWarrior:3:9484,deathKnight:3:4742,skeletonWarrior:3:9484,skeletonArcher:3:7113,meatWagon:3:3556,skeletonArcher:3:7113</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,lancer_3:3:2381,ranger_3:3:4762,lancer_3:3:2381,catapult_3:3:1786,swordsman_3:3:3572,catapult_3:3:1786</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,catapult_3:3:2390,swordsman_3:3:4781,catapult_3:3:2390,lancer_3:3:1793,ranger_3:3:3586,lancer_3:3:1793</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,skeletonArcher:3:9621,meatWagon:3:4810,skeletonArcher:3:9621,skeletonWarrior:3:7216,deathKnight:3:3608,skeletonWarrior:3:7216</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,swordsman_3:3:4820,lancer_3:3:2410,swordsman_3:3:4820,ranger_3:3:3615,catapult_3:3:1807,ranger_3:3:3615</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,horseArcher_3:3:2427,ranger_3:3:4855,horseArcher_3:3:2427,catapult_3:3:1820,swordsman_3:3:3641,catapult_3:3:1820</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,meatWagon:3:4888,skeletonWarrior:3:9777,meatWagon:3:4888,deathKnight:3:3666,skeletonArcher:3:7333,deathKnight:3:3666</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,crossbowman_3:3:4923,catapult_3:3:2461,crossbowman_3:3:4923,swordsman_3:3:3693,lancer_3:3:1846,swordsman_3:3:3693</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,sentinel_3:3:4958,lancer_3:3:2479,sentinel_3:3:4958,ranger_3:3:3718,catapult_3:3:1859,ranger_3:3:3718</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,deathKnight:3:4992,skeletonArcher:3:9984,deathKnight:3:4992,meatWagon:3:3744,skeletonWarrior:3:7488,meatWagon:3:3744</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,ballista_3:3:2513,sentinel_3:3:5027,ballista_3:3:2513,lancer_3:3:1885,ranger_3:3:3770,lancer_3:3:1885</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,crossbowman_3:3:5062,ballista_3:3:2531,crossbowman_3:3:5062,swordsman_3:3:3796,lancer_3:3:1898,swordsman_3:3:3796</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,skeletonWarrior:3:10192,deathKnight:3:5096,skeletonWarrior:3:10192,skeletonArcher:3:7644,meatWagon:3:3822,skeletonArcher:3:7644</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,horseArcher_3:3:2565,crossbowman_3:3:5131,horseArcher_3:3:2565,ballista_3:3:1924,swordsman_3:3:3849,ballista_3:3:1924</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,ballista_3:3:2583,sentinel_3:3:5166,ballista_3:3:2583,horseArcher_3:3:1937,ranger_3:3:3875,horseArcher_3:3:1937</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,skeletonArcher:3:10403,meatWagon:3:5201,skeletonArcher:3:10403,skeletonWarrior:3:7802,deathKnight:3:3901,skeletonWarrior:3:7802</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,sentinel_3:3:5237,horseArcher_3:3:2618,sentinel_3:3:5237,crossbowman_3:3:3928,catapult_3:3:1964,crossbowman_3:3:3928</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,horseArcher_3:3:2636,crossbowman_3:3:5272,horseArcher_3:3:2636,ballista_3:3:1977,sentinel_3:3:3954,ballista_3:3:1977</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,meatWagon:3:5307,skeletonWarrior:3:10615,meatWagon:3:5307,deathKnight:3:3980,skeletonArcher:3:7961,deathKnight:3:3980</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,crossbowman_3:3:5343,ballista_3:3:2671,crossbowman_3:3:5343,sentinel_3:3:4008,horseArcher_3:3:2004,sentinel_3:3:4008</t>
-  </si>
-  <si>
-    <t>greenDragon:4:40,sentinel_3:3:5379,horseArcher_3:3:2689,sentinel_3:3:5379,crossbowman_3:3:4034,ballista_3:3:2017,crossbowman_3:3:4034</t>
-  </si>
-  <si>
-    <t>greenDragon:4:40,deathKnight:3:5414,skeletonArcher:3:10829,deathKnight:3:5414,meatWagon:3:4061,skeletonWarrior:3:8122,meatWagon:3:4061</t>
-  </si>
-  <si>
-    <t>greenDragon:4:40,catapult_3:3:2725,swordsman_3:3:5450,catapult_3:3:2725,lancer_3:3:2044,ranger_3:3:4088,lancer_3:3:2044</t>
-  </si>
-  <si>
-    <t>greenDragon:4:40,ranger_3:3:5486,catapult_3:3:2743,ranger_3:3:5486,swordsman_3:3:4115,lancer_3:3:2057,swordsman_3:3:4115</t>
-  </si>
-  <si>
-    <t>greenDragon:4:40,skeletonWarrior:3:11045,deathKnight:3:5522,skeletonWarrior:3:11045,skeletonArcher:3:8284,meatWagon:3:4142,skeletonArcher:3:8284</t>
+    <t>blueDragon:1:1,swordsman_1:1:8,lancer_1:1:4,swordsman_1:1:8</t>
+  </si>
+  <si>
+    <t>blueDragon:1:1,horseArcher_1:1:5,ranger_1:1:11,horseArcher_1:1:5</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,meatWagon:3:3,skeletonWarrior:3:6,meatWagon:3:3</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,crossbowman_1:1:18,catapult_1:1:9,crossbowman_1:1:18</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,sentinel_1:1:22,lancer_1:1:11,sentinel_1:1:22</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,deathKnight:3:5,skeletonArcher:3:11,deathKnight:3:5</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,ballista_1:1:14,sentinel_1:1:29,ballista_1:1:14</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,crossbowman_1:1:33,ballista_1:1:16,crossbowman_1:1:33</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,skeletonWarrior:3:15,deathKnight:3:7,skeletonWarrior:3:15</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,horseArcher_1:1:20,crossbowman_1:1:40,horseArcher_1:1:20</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,ballista_1:1:22,sentinel_1:1:44,ballista_1:1:22</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,skeletonArcher:3:19,meatWagon:3:9,skeletonArcher:3:19</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,sentinel_1:1:51,horseArcher_1:1:25,sentinel_1:1:51</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,horseArcher_1:1:27,crossbowman_1:1:54,horseArcher_1:1:27</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,meatWagon:3:12,skeletonWarrior:3:24,meatWagon:3:12</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,crossbowman_1:1:62,ballista_1:1:31,crossbowman_1:1:62</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,sentinel_1:1:65,horseArcher_1:1:32,sentinel_1:1:65</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,deathKnight:3:14,skeletonArcher:3:28,deathKnight:3:14</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,catapult_1:1:36,swordsman_1:1:72,catapult_1:1:36,lancer_1:1:27</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,ranger_1:1:76,catapult_1:1:38,ranger_1:1:76,swordsman_1:1:57</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,skeletonWarrior:3:32,deathKnight:3:16,skeletonWarrior:3:32,skeletonArcher:3:24</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,horseArcher_1:1:41,ranger_1:1:83,horseArcher_1:1:41,catapult_1:1:31</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,ballista_1:1:43,swordsman_1:1:87,ballista_1:1:43,lancer_1:1:32</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,skeletonArcher:3:36,meatWagon:3:18,skeletonArcher:3:36,skeletonWarrior:3:27</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,sentinel_1:1:94,lancer_1:1:47,sentinel_1:1:94,ranger_1:1:71</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,horseArcher_1:1:49,crossbowman_1:1:98,horseArcher_1:1:49,catapult_1:1:36</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,meatWagon:3:20,skeletonWarrior:3:41,meatWagon:3:20,deathKnight:3:15</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,crossbowman_1:1:105,ballista_1:1:52,crossbowman_1:1:105,swordsman_1:1:79</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,sentinel_1:1:108,horseArcher_1:1:54,sentinel_1:1:108,ranger_1:1:81</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,deathKnight:3:22,skeletonArcher:3:45,deathKnight:3:22,meatWagon:3:17</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,ballista_1:1:58,sentinel_1:1:116,ballista_1:1:58,horseArcher_1:1:43</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,crossbowman_1:1:119,ballista_1:1:59,crossbowman_1:1:119,sentinel_1:1:90</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,skeletonWarrior:3:49,deathKnight:3:24,skeletonWarrior:3:49,skeletonArcher:3:37</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,horseArcher_1:1:63,crossbowman_1:1:126,horseArcher_1:1:63,ballista_1:1:47</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,ballista_1:1:65,sentinel_1:1:130,ballista_1:1:65,horseArcher_1:1:49</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,skeletonArcher:3:54,meatWagon:3:27,skeletonArcher:3:54,skeletonWarrior:3:41</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,sentinel_1:1:137,horseArcher_1:1:68,sentinel_1:1:137,crossbowman_1:1:103</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,lancer_1:1:70,ranger_1:1:141,lancer_1:1:70,catapult_1:1:53</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,meatWagon:3:29,skeletonWarrior:3:58,meatWagon:3:29,deathKnight:3:22</t>
+  </si>
+  <si>
+    <t>greenDragon:1:4,ranger_1:1:148,catapult_1:1:74,ranger_1:1:148,swordsman_1:1:111,lancer_1:1:55</t>
+  </si>
+  <si>
+    <t>greenDragon:1:4,swordsman_1:1:152,lancer_1:1:76,swordsman_1:1:152,ranger_1:1:114,catapult_1:1:57</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,deathKnight:3:31,skeletonArcher:3:62,deathKnight:3:31,meatWagon:3:23,skeletonWarrior:3:47</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,ballista_1:1:79,swordsman_1:1:159,ballista_1:1:79,lancer_1:1:59,ranger_1:1:119</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,crossbowman_1:1:162,catapult_1:1:81,crossbowman_1:1:162,swordsman_1:1:122,lancer_1:1:61</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,skeletonWarrior:3:67,deathKnight:3:33,skeletonWarrior:3:67,skeletonArcher:3:50,meatWagon:3:25</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,horseArcher_1:1:85,crossbowman_1:1:170,horseArcher_1:1:85,catapult_1:1:63,swordsman_1:1:127</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,ballista_1:1:86,sentinel_1:1:173,ballista_1:1:86,lancer_1:1:65,ranger_1:1:130</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,skeletonArcher:3:71,meatWagon:3:35,skeletonArcher:3:71,skeletonWarrior:3:53,deathKnight:3:26</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,sentinel_1:1:180,horseArcher_1:1:90,sentinel_1:1:180,ranger_1:1:135,catapult_1:1:67</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,horseArcher_1:1:92,crossbowman_1:1:184,horseArcher_1:1:92,ballista_1:1:69,swordsman_1:1:138</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,meatWagon:3:37,skeletonWarrior:3:75,meatWagon:3:37,deathKnight:3:28,skeletonArcher:3:57</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,crossbowman_1:1:191,ballista_1:1:95,crossbowman_1:1:191,sentinel_1:1:144,lancer_1:1:72</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,sentinel_1:1:195,horseArcher_1:1:97,sentinel_1:1:195,crossbowman_1:1:146,catapult_1:1:73</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,deathKnight:3:40,skeletonArcher:3:80,deathKnight:3:40,meatWagon:3:30,skeletonWarrior:3:60</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,ballista_1:1:101,sentinel_1:1:202,ballista_1:1:101,horseArcher_1:1:76,crossbowman_1:1:152</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,crossbowman_1:1:206,ballista_1:1:103,crossbowman_1:1:206,sentinel_1:1:154,horseArcher_1:1:77</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,skeletonWarrior:3:84,deathKnight:3:42,skeletonWarrior:3:84,skeletonArcher:3:63,meatWagon:3:31</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,lancer_1:1:106,ranger_1:1:213,lancer_1:1:106,catapult_1:1:80,swordsman_1:1:160</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,catapult_1:1:108,swordsman_1:1:216,catapult_1:1:108,lancer_1:1:81,ranger_1:1:162</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,skeletonArcher:3:88,meatWagon:3:44,skeletonArcher:3:88,skeletonWarrior:3:66,deathKnight:3:33</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,swordsman_1:2:224,lancer_1:2:112,swordsman_1:2:224,ranger_1:2:168,catapult_1:2:84,ranger_1:2:168</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,horseArcher_1:2:113,ranger_1:2:227,horseArcher_1:2:113,catapult_1:2:85,swordsman_1:2:171,catapult_1:2:85</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,meatWagon:3:69,skeletonWarrior:3:139,meatWagon:3:69,deathKnight:3:52,skeletonArcher:3:104,deathKnight:3:52</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,crossbowman_1:2:234,catapult_1:2:117,crossbowman_1:2:234,swordsman_1:2:176,lancer_1:2:88,swordsman_1:2:176</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,sentinel_1:2:238,lancer_1:2:119,sentinel_1:2:238,ranger_1:2:179,catapult_1:2:89,ranger_1:2:179</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,deathKnight:3:72,skeletonArcher:3:145,deathKnight:3:72,meatWagon:3:54,skeletonWarrior:3:109,meatWagon:3:54</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,ballista_1:2:122,sentinel_1:2:245,ballista_1:2:122,lancer_1:2:92,ranger_1:2:184,lancer_1:2:92</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,crossbowman_1:2:249,ballista_1:2:124,crossbowman_1:2:249,swordsman_1:2:187,lancer_1:2:93,swordsman_1:2:187</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,skeletonWarrior:3:152,deathKnight:3:76,skeletonWarrior:3:152,skeletonArcher:3:114,meatWagon:3:57,skeletonArcher:3:114</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,horseArcher_1:2:128,crossbowman_1:2:256,horseArcher_1:2:128,ballista_1:2:96,swordsman_1:2:192,ballista_1:2:96</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,ballista_1:2:130,sentinel_1:2:260,ballista_1:2:130,horseArcher_1:2:97,ranger_1:2:195,horseArcher_1:2:97</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,skeletonArcher:3:158,meatWagon:3:79,skeletonArcher:3:158,skeletonWarrior:3:119,deathKnight:3:59,skeletonWarrior:3:119</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,sentinel_1:2:267,horseArcher_1:2:133,sentinel_1:2:267,crossbowman_1:2:200,catapult_1:2:100,crossbowman_1:2:200</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,horseArcher_1:2:135,crossbowman_1:2:270,horseArcher_1:2:135,ballista_1:2:101,sentinel_1:2:203,ballista_1:2:101</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,meatWagon:3:82,skeletonWarrior:3:165,meatWagon:3:82,deathKnight:3:62,skeletonArcher:3:124,deathKnight:3:62</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,crossbowman_1:2:278,ballista_1:2:139,crossbowman_1:2:278,sentinel_1:2:208,horseArcher_1:2:104,sentinel_1:2:208</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,sentinel_1:2:281,horseArcher_1:2:140,sentinel_1:2:281,crossbowman_1:2:211,ballista_1:2:105,crossbowman_1:2:211</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,deathKnight:3:85,skeletonArcher:3:171,deathKnight:3:85,meatWagon:3:64,skeletonWarrior:3:129,meatWagon:3:64</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,catapult_1:2:144,swordsman_1:2:288,catapult_1:2:144,lancer_1:2:108,ranger_1:2:216,lancer_1:2:108</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,ranger_1:2:292,catapult_1:2:146,ranger_1:2:292,swordsman_1:2:219,lancer_1:2:109,swordsman_1:2:219</t>
+  </si>
+  <si>
+    <t>greenDragon:1:8,skeletonWarrior:3:178,deathKnight:3:89,skeletonWarrior:3:178,skeletonArcher:3:133,meatWagon:3:66,skeletonArcher:3:133</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,horseArcher_1:2:149,ranger_1:2:299,horseArcher_1:2:149,catapult_1:2:112,swordsman_1:2:225,catapult_1:2:112</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,ballista_1:2:151,swordsman_1:2:303,ballista_1:2:151,lancer_1:2:113,ranger_1:2:227,lancer_1:2:113</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,skeletonArcher:3:184,meatWagon:3:92,skeletonArcher:3:184,skeletonWarrior:3:138,deathKnight:3:69,skeletonWarrior:3:138</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,sentinel_1:2:310,lancer_1:2:155,sentinel_1:2:310,ranger_1:2:233,catapult_1:2:116,ranger_1:2:233</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,horseArcher_1:2:157,crossbowman_1:2:314,horseArcher_1:2:157,catapult_1:2:117,swordsman_1:2:235,catapult_1:2:117</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,meatWagon:3:95,skeletonWarrior:3:191,meatWagon:3:95,deathKnight:3:71,skeletonArcher:3:143,deathKnight:3:71</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,crossbowman_1:2:321,ballista_1:2:160,crossbowman_1:2:321,swordsman_1:2:241,lancer_1:2:120,swordsman_1:2:241</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,sentinel_1:2:324,horseArcher_1:2:162,sentinel_1:2:324,ranger_1:2:243,catapult_1:2:121,ranger_1:2:243</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,deathKnight:3:98,skeletonArcher:3:197,deathKnight:3:98,meatWagon:3:74,skeletonWarrior:3:148,meatWagon:3:74</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,ballista_1:2:166,sentinel_1:2:332,ballista_1:2:166,horseArcher_1:2:124,ranger_1:2:249,horseArcher_1:2:124</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,crossbowman_1:2:335,ballista_1:2:167,crossbowman_1:2:335,sentinel_1:2:252,lancer_1:2:126,sentinel_1:2:252</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,skeletonWarrior:3:204,deathKnight:3:102,skeletonWarrior:3:204,skeletonArcher:3:153,meatWagon:3:76,skeletonArcher:3:153</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,horseArcher_1:2:171,crossbowman_1:2:342,horseArcher_1:2:171,ballista_1:2:128,sentinel_1:2:257,ballista_1:2:128</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,ballista_1:2:173,sentinel_1:2:346,ballista_1:2:173,horseArcher_1:2:130,crossbowman_1:2:260,horseArcher_1:2:130</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,skeletonArcher:3:210,meatWagon:3:105,skeletonArcher:3:210,skeletonWarrior:3:158,deathKnight:3:79,skeletonWarrior:3:158</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,sentinel_1:2:353,horseArcher_1:2:176,sentinel_1:2:353,crossbowman_1:2:265,ballista_1:2:132,crossbowman_1:2:265</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,lancer_1:2:178,ranger_1:2:357,lancer_1:2:178,catapult_1:2:134,swordsman_1:2:268,catapult_1:2:134</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,meatWagon:3:108,skeletonWarrior:3:216,meatWagon:3:108,deathKnight:3:81,skeletonArcher:3:162,deathKnight:3:81</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,ranger_1:2:364,catapult_1:2:182,ranger_1:2:364,swordsman_1:2:273,lancer_1:2:136,swordsman_1:2:273</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,swordsman_1:2:368,lancer_1:2:184,swordsman_1:2:368,ranger_1:2:276,catapult_1:2:138,ranger_1:2:276</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,deathKnight:3:111,skeletonArcher:3:223,deathKnight:3:111,meatWagon:3:83,skeletonWarrior:3:167,meatWagon:3:83</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,ballista_1:2:187,swordsman_1:2:375,ballista_1:2:187,lancer_1:2:140,ranger_1:2:281,lancer_1:2:140</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,crossbowman_1:2:378,catapult_1:2:189,crossbowman_1:2:378,swordsman_1:2:284,lancer_1:2:142,swordsman_1:2:284</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,skeletonWarrior:3:229,deathKnight:3:114,skeletonWarrior:3:229,skeletonArcher:3:172,meatWagon:3:86,skeletonArcher:3:172</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,horseArcher_1:2:193,crossbowman_1:2:386,horseArcher_1:2:193,catapult_1:2:144,swordsman_1:2:289,catapult_1:2:144</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,ballista_1:2:194,sentinel_1:2:389,ballista_1:2:194,lancer_1:2:146,ranger_1:2:292,lancer_1:2:146</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,skeletonArcher:3:236,meatWagon:3:118,skeletonArcher:3:236,skeletonWarrior:3:177,deathKnight:3:88,skeletonWarrior:3:177</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,sentinel_1:2:396,horseArcher_1:2:198,sentinel_1:2:396,ranger_1:2:297,catapult_1:2:148,ranger_1:2:297</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,horseArcher_1:2:200,crossbowman_1:2:400,horseArcher_1:2:200,ballista_1:2:150,swordsman_1:2:300,ballista_1:2:150</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,meatWagon:3:121,skeletonWarrior:3:242,meatWagon:3:121,deathKnight:3:91,skeletonArcher:3:182,deathKnight:3:91</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,crossbowman_1:2:407,ballista_1:2:203,crossbowman_1:2:407,sentinel_1:2:306,lancer_1:2:153,sentinel_1:2:306</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,sentinel_1:2:411,horseArcher_1:2:205,sentinel_1:2:411,crossbowman_1:2:308,catapult_1:2:154,crossbowman_1:2:308</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,deathKnight:3:124,skeletonArcher:3:249,deathKnight:3:124,meatWagon:3:93,skeletonWarrior:3:187,meatWagon:3:93</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,ballista_1:2:209,sentinel_1:2:418,ballista_1:2:209,horseArcher_1:2:157,crossbowman_1:2:314,horseArcher_1:2:157</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,crossbowman_1:2:422,ballista_1:2:211,crossbowman_1:2:422,sentinel_1:2:316,horseArcher_1:2:158,sentinel_1:2:316</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,skeletonWarrior:3:255,deathKnight:3:127,skeletonWarrior:3:255,skeletonArcher:3:192,meatWagon:3:96,skeletonArcher:3:192</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,lancer_1:2:214,ranger_1:2:429,lancer_1:2:214,catapult_1:2:161,swordsman_1:2:322,catapult_1:2:161</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,catapult_1:2:216,swordsman_1:2:432,catapult_1:2:216,lancer_1:2:162,ranger_1:2:324,lancer_1:2:162</t>
+  </si>
+  <si>
+    <t>redDragon:2:11,skeletonArcher:3:262,meatWagon:3:131,skeletonArcher:3:262,skeletonWarrior:3:197,deathKnight:3:98,skeletonWarrior:3:197</t>
+  </si>
+  <si>
+    <t>redDragon:2:11,swordsman_1:2:440,lancer_1:2:220,swordsman_1:2:440,ranger_1:2:330,catapult_1:2:165,ranger_1:2:330</t>
+  </si>
+  <si>
+    <t>redDragon:2:11,horseArcher_1:2:221,ranger_1:2:443,horseArcher_1:2:221,catapult_1:2:166,swordsman_1:2:333,catapult_1:2:166</t>
+  </si>
+  <si>
+    <t>redDragon:2:11,meatWagon:3:134,skeletonWarrior:3:268,meatWagon:3:134,deathKnight:3:100,skeletonArcher:3:201,deathKnight:3:100</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,crossbowman_1:3:450,catapult_1:3:225,crossbowman_1:3:450,swordsman_1:3:338,lancer_1:3:169,swordsman_1:3:338</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,sentinel_1:3:454,lancer_1:3:227,sentinel_1:3:454,ranger_1:3:341,catapult_1:3:170,ranger_1:3:341</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,deathKnight:3:183,skeletonArcher:3:366,deathKnight:3:183,meatWagon:3:137,skeletonWarrior:3:275,meatWagon:3:137</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,ballista_1:3:230,sentinel_1:3:461,ballista_1:3:230,lancer_1:3:173,ranger_1:3:346,lancer_1:3:173</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,crossbowman_1:3:465,ballista_1:3:232,crossbowman_1:3:465,swordsman_1:3:349,lancer_1:3:174,swordsman_1:3:349</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,skeletonWarrior:3:375,deathKnight:3:187,skeletonWarrior:3:375,skeletonArcher:3:281,meatWagon:3:140,skeletonArcher:3:281</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,horseArcher_1:3:236,crossbowman_1:3:472,horseArcher_1:3:236,ballista_1:3:177,swordsman_1:3:354,ballista_1:3:177</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,ballista_1:3:238,sentinel_1:3:476,ballista_1:3:238,horseArcher_1:3:178,ranger_1:3:357,horseArcher_1:3:178</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,skeletonArcher:3:384,meatWagon:3:192,skeletonArcher:3:384,skeletonWarrior:3:288,deathKnight:3:144,skeletonWarrior:3:288</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,sentinel_1:3:483,horseArcher_1:3:241,sentinel_1:3:483,crossbowman_1:3:362,catapult_1:3:181,crossbowman_1:3:362</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,horseArcher_1:3:243,crossbowman_1:3:486,horseArcher_1:3:243,ballista_1:3:182,sentinel_1:3:365,ballista_1:3:182</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,meatWagon:3:196,skeletonWarrior:3:392,meatWagon:3:196,deathKnight:3:147,skeletonArcher:3:294,deathKnight:3:147</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,crossbowman_1:3:494,ballista_1:3:247,crossbowman_1:3:494,sentinel_1:3:370,horseArcher_1:3:185,sentinel_1:3:370</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,sentinel_1:3:497,horseArcher_1:3:248,sentinel_1:3:497,crossbowman_1:3:373,ballista_1:3:186,crossbowman_1:3:373</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,deathKnight:3:200,skeletonArcher:3:401,deathKnight:3:200,meatWagon:3:150,skeletonWarrior:3:301,meatWagon:3:150</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,catapult_1:3:252,swordsman_1:3:504,catapult_1:3:252,lancer_1:3:189,ranger_1:3:378,lancer_1:3:189</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,ranger_1:3:508,catapult_1:3:254,ranger_1:3:508,swordsman_1:3:381,lancer_1:3:190,swordsman_1:3:381</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,skeletonWarrior:3:409,deathKnight:3:204,skeletonWarrior:3:409,skeletonArcher:3:307,meatWagon:3:153,skeletonArcher:3:307</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,horseArcher_1:3:257,ranger_1:3:515,horseArcher_1:3:257,catapult_1:3:193,swordsman_1:3:387,catapult_1:3:193</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,ballista_1:3:259,swordsman_1:3:519,ballista_1:3:259,lancer_1:3:194,ranger_1:3:389,lancer_1:3:194</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,skeletonArcher:3:418,meatWagon:3:209,skeletonArcher:3:418,skeletonWarrior:3:314,deathKnight:3:157,skeletonWarrior:3:314</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,sentinel_1:3:526,lancer_1:3:263,sentinel_1:3:526,ranger_1:3:395,catapult_1:3:197,ranger_1:3:395</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,horseArcher_1:3:265,crossbowman_1:3:530,horseArcher_1:3:265,catapult_1:3:198,swordsman_1:3:397,catapult_1:3:198</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,meatWagon:3:213,skeletonWarrior:3:427,meatWagon:3:213,deathKnight:3:160,skeletonArcher:3:320,deathKnight:3:160</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,crossbowman_1:3:537,ballista_1:3:268,crossbowman_1:3:537,swordsman_1:3:403,lancer_1:3:201,swordsman_1:3:403</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,sentinel_1:3:540,horseArcher_1:3:270,sentinel_1:3:540,ranger_1:3:405,catapult_1:3:202,ranger_1:3:405</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,deathKnight:3:217,skeletonArcher:3:435,deathKnight:3:217,meatWagon:3:163,skeletonWarrior:3:327,meatWagon:3:163</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,ballista_1:3:274,sentinel_1:3:548,ballista_1:3:274,horseArcher_1:3:205,ranger_1:3:411,horseArcher_1:3:205</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,crossbowman_1:3:551,ballista_1:3:275,crossbowman_1:3:551,sentinel_1:3:414,lancer_1:3:207,sentinel_1:3:414</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,skeletonWarrior:3:444,deathKnight:3:222,skeletonWarrior:3:444,skeletonArcher:3:333,meatWagon:3:166,skeletonArcher:3:333</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,horseArcher_1:3:279,crossbowman_1:3:558,horseArcher_1:3:279,ballista_1:3:209,sentinel_1:3:419,ballista_1:3:209</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,ballista_1:3:281,sentinel_1:3:562,ballista_1:3:281,horseArcher_1:3:211,crossbowman_1:3:422,horseArcher_1:3:211</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,skeletonArcher:3:453,meatWagon:3:226,skeletonArcher:3:453,skeletonWarrior:3:340,deathKnight:3:170,skeletonWarrior:3:340</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,sentinel_1:3:569,horseArcher_1:3:284,sentinel_1:3:569,crossbowman_1:3:427,ballista_1:3:213,crossbowman_1:3:427</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,lancer_1:3:286,ranger_1:3:573,lancer_1:3:286,catapult_1:3:215,swordsman_1:3:430,catapult_1:3:215</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,meatWagon:3:230,skeletonWarrior:3:461,meatWagon:3:230,deathKnight:3:173,skeletonArcher:3:346,deathKnight:3:173</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,ranger_1:3:580,catapult_1:3:290,ranger_1:3:580,swordsman_1:3:435,lancer_1:3:217,swordsman_1:3:435</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,swordsman_1:3:584,lancer_1:3:292,swordsman_1:3:584,ranger_1:3:438,catapult_1:3:219,ranger_1:3:438</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,deathKnight:3:235,skeletonArcher:3:470,deathKnight:3:235,meatWagon:3:176,skeletonWarrior:3:353,meatWagon:3:176</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,ballista_1:3:295,swordsman_1:3:591,ballista_1:3:295,lancer_1:3:221,ranger_1:3:443,lancer_1:3:221</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,crossbowman_1:3:594,catapult_1:3:297,crossbowman_1:3:594,swordsman_1:3:446,lancer_1:3:223,swordsman_1:3:446</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,skeletonWarrior:3:479,deathKnight:3:239,skeletonWarrior:3:479,skeletonArcher:3:359,meatWagon:3:179,skeletonArcher:3:359</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,horseArcher_1:3:301,crossbowman_1:3:602,horseArcher_1:3:301,catapult_1:3:225,swordsman_1:3:451,catapult_1:3:225</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,ballista_1:3:302,sentinel_1:3:605,ballista_1:3:302,lancer_1:3:227,ranger_1:3:454,lancer_1:3:227</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,skeletonArcher:3:487,meatWagon:3:243,skeletonArcher:3:487,skeletonWarrior:3:366,deathKnight:3:183,skeletonWarrior:3:366</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,sentinel_1:3:612,horseArcher_1:3:306,sentinel_1:3:612,ranger_1:3:459,catapult_1:3:229,ranger_1:3:459</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,horseArcher_1:3:308,crossbowman_1:3:616,horseArcher_1:3:308,ballista_1:3:231,swordsman_1:3:462,ballista_1:3:231</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,meatWagon:3:248,skeletonWarrior:3:496,meatWagon:3:248,deathKnight:3:186,skeletonArcher:3:372,deathKnight:3:186</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,crossbowman_1:3:623,ballista_1:3:311,crossbowman_1:3:623,sentinel_1:3:468,lancer_1:3:234,sentinel_1:3:468</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,sentinel_1:3:627,horseArcher_1:3:313,sentinel_1:3:627,crossbowman_1:3:470,catapult_1:3:235,crossbowman_1:3:470</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,deathKnight:3:252,skeletonArcher:3:504,deathKnight:3:252,meatWagon:3:189,skeletonWarrior:3:378,meatWagon:3:189</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,ballista_1:3:317,sentinel_1:3:634,ballista_1:3:317,horseArcher_1:3:238,crossbowman_1:3:476,horseArcher_1:3:238</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,crossbowman_1:3:638,ballista_1:3:319,crossbowman_1:3:638,sentinel_1:3:478,horseArcher_1:3:239,sentinel_1:3:478</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,skeletonWarrior:3:513,deathKnight:3:256,skeletonWarrior:3:513,skeletonArcher:3:385,meatWagon:3:192,skeletonArcher:3:385</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,lancer_1:3:322,ranger_1:3:645,lancer_1:3:322,catapult_1:3:242,swordsman_1:3:484,catapult_1:3:242</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,catapult_1:3:324,swordsman_1:3:648,catapult_1:3:324,lancer_1:3:243,ranger_1:3:486,lancer_1:3:243</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,skeletonArcher:3:522,meatWagon:3:261,skeletonArcher:3:522,skeletonWarrior:3:392,deathKnight:3:196,skeletonWarrior:3:392</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,swordsman_1:3:656,lancer_1:3:328,swordsman_1:3:656,ranger_1:3:492,catapult_1:3:246,ranger_1:3:492</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,horseArcher_1:3:329,ranger_1:3:659,horseArcher_1:3:329,catapult_1:3:247,swordsman_1:3:495,catapult_1:3:247</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,meatWagon:3:265,skeletonWarrior:3:530,meatWagon:3:265,deathKnight:3:199,skeletonArcher:3:398,deathKnight:3:199</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,crossbowman_1:3:666,catapult_1:3:333,crossbowman_1:3:666,swordsman_1:3:500,lancer_1:3:250,swordsman_1:3:500</t>
+  </si>
+  <si>
+    <t>blueDragon:2:16,sentinel_1:3:670,lancer_1:3:335,sentinel_1:3:670,ranger_1:3:503,catapult_1:3:251,ranger_1:3:503</t>
+  </si>
+  <si>
+    <t>blueDragon:2:16,deathKnight:3:269,skeletonArcher:3:539,deathKnight:3:269,meatWagon:3:202,skeletonWarrior:3:404,meatWagon:3:202</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,ballista_2:1:338,sentinel_2:1:677,ballista_2:1:338,lancer_2:1:254,ranger_2:1:508,lancer_2:1:254</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,crossbowman_2:1:681,ballista_2:1:340,crossbowman_2:1:681,swordsman_2:1:511,lancer_2:1:255,swordsman_2:1:511</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,skeletonWarrior:3:684,deathKnight:3:342,skeletonWarrior:3:684,skeletonArcher:3:513,meatWagon:3:256,skeletonArcher:3:513</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,horseArcher_2:1:344,crossbowman_2:1:688,horseArcher_2:1:344,ballista_2:1:258,swordsman_2:1:516,ballista_2:1:258</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,ballista_2:1:346,sentinel_2:1:692,ballista_2:1:346,horseArcher_2:1:259,ranger_2:1:519,horseArcher_2:1:259</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,skeletonArcher:3:695,meatWagon:3:347,skeletonArcher:3:695,skeletonWarrior:3:522,deathKnight:3:261,skeletonWarrior:3:522</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,sentinel_2:1:699,horseArcher_2:1:349,sentinel_2:1:699,crossbowman_2:1:524,catapult_2:1:262,crossbowman_2:1:524</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,horseArcher_2:1:351,crossbowman_2:1:702,horseArcher_2:1:351,ballista_2:1:263,sentinel_2:1:527,ballista_2:1:263</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,meatWagon:3:353,skeletonWarrior:3:706,meatWagon:3:353,deathKnight:3:265,skeletonArcher:3:530,deathKnight:3:265</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,crossbowman_2:1:710,ballista_2:1:355,crossbowman_2:1:710,sentinel_2:1:532,horseArcher_2:1:266,sentinel_2:1:532</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,sentinel_2:1:713,horseArcher_2:1:356,sentinel_2:1:713,crossbowman_2:1:535,ballista_2:1:267,crossbowman_2:1:535</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,deathKnight:3:358,skeletonArcher:3:717,deathKnight:3:358,meatWagon:3:269,skeletonWarrior:3:538,meatWagon:3:269</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,catapult_2:1:360,swordsman_2:1:720,catapult_2:1:360,lancer_2:1:270,ranger_2:1:540,lancer_2:1:270</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,ranger_2:1:724,catapult_2:1:362,ranger_2:1:724,swordsman_2:1:543,lancer_2:1:271,swordsman_2:1:543</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,skeletonWarrior:3:728,deathKnight:3:364,skeletonWarrior:3:728,skeletonArcher:3:546,meatWagon:3:273,skeletonArcher:3:546</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,horseArcher_2:1:365,ranger_2:1:731,horseArcher_2:1:365,catapult_2:1:274,swordsman_2:1:549,catapult_2:1:274</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,ballista_2:1:367,swordsman_2:1:735,ballista_2:1:367,lancer_2:1:275,ranger_2:1:551,lancer_2:1:275</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,skeletonArcher:3:738,meatWagon:3:369,skeletonArcher:3:738,skeletonWarrior:3:554,deathKnight:3:277,skeletonWarrior:3:554</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,sentinel_2:1:742,lancer_2:1:371,sentinel_2:1:742,ranger_2:1:557,catapult_2:1:278,ranger_2:1:557</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,horseArcher_2:1:373,crossbowman_2:1:746,horseArcher_2:1:373,catapult_2:1:279,swordsman_2:1:559,catapult_2:1:279</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,meatWagon:3:374,skeletonWarrior:3:749,meatWagon:3:374,deathKnight:3:281,skeletonArcher:3:562,deathKnight:3:281</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,crossbowman_2:1:753,ballista_2:1:376,crossbowman_2:1:753,swordsman_2:1:565,lancer_2:1:282,swordsman_2:1:565</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,sentinel_2:1:756,horseArcher_2:1:378,sentinel_2:1:756,ranger_2:1:567,catapult_2:1:283,ranger_2:1:567</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,deathKnight:3:380,skeletonArcher:3:760,deathKnight:3:380,meatWagon:3:285,skeletonWarrior:3:570,meatWagon:3:285</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,ballista_2:1:382,sentinel_2:1:764,ballista_2:1:382,horseArcher_2:1:286,ranger_2:1:573,horseArcher_2:1:286</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,crossbowman_2:1:767,ballista_2:1:383,crossbowman_2:1:767,sentinel_2:1:576,lancer_2:1:288,sentinel_2:1:576</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,skeletonWarrior:3:771,deathKnight:3:385,skeletonWarrior:3:771,skeletonArcher:3:578,meatWagon:3:289,skeletonArcher:3:578</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,horseArcher_2:1:387,crossbowman_2:1:774,horseArcher_2:1:387,ballista_2:1:290,sentinel_2:1:581,ballista_2:1:290</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,ballista_2:1:389,sentinel_2:1:778,ballista_2:1:389,horseArcher_2:1:292,crossbowman_2:1:584,horseArcher_2:1:292</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,skeletonArcher:3:782,meatWagon:3:391,skeletonArcher:3:782,skeletonWarrior:3:586,deathKnight:3:293,skeletonWarrior:3:586</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,sentinel_2:1:785,horseArcher_2:1:392,sentinel_2:1:785,crossbowman_2:1:589,ballista_2:1:294,crossbowman_2:1:589</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,lancer_2:1:394,ranger_2:1:789,lancer_2:1:394,catapult_2:1:296,swordsman_2:1:592,catapult_2:1:296</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,meatWagon:3:396,skeletonWarrior:3:792,meatWagon:3:396,deathKnight:3:297,skeletonArcher:3:594,deathKnight:3:297</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,ranger_2:1:796,catapult_2:1:398,ranger_2:1:796,swordsman_2:1:597,lancer_2:1:298,swordsman_2:1:597</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,swordsman_2:1:800,lancer_2:1:400,swordsman_2:1:800,ranger_2:1:600,catapult_2:1:300,ranger_2:1:600</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,deathKnight:3:401,skeletonArcher:3:803,deathKnight:3:401,meatWagon:3:301,skeletonWarrior:3:603,meatWagon:3:301</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,ballista_2:1:403,swordsman_2:1:807,ballista_2:1:403,lancer_2:1:302,ranger_2:1:605,lancer_2:1:302</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,crossbowman_2:1:810,catapult_2:1:405,crossbowman_2:1:810,swordsman_2:1:608,lancer_2:1:304,swordsman_2:1:608</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,skeletonWarrior:3:814,deathKnight:3:407,skeletonWarrior:3:814,skeletonArcher:3:611,meatWagon:3:305,skeletonArcher:3:611</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,horseArcher_2:1:409,crossbowman_2:1:818,horseArcher_2:1:409,catapult_2:1:306,swordsman_2:1:613,catapult_2:1:306</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,ballista_2:1:410,sentinel_2:1:821,ballista_2:1:410,lancer_2:1:308,ranger_2:1:616,lancer_2:1:308</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,skeletonArcher:3:825,meatWagon:3:412,skeletonArcher:3:825,skeletonWarrior:3:619,deathKnight:3:309,skeletonWarrior:3:619</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,sentinel_2:1:828,horseArcher_2:1:414,sentinel_2:1:828,ranger_2:1:621,catapult_2:1:310,ranger_2:1:621</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,horseArcher_2:1:416,crossbowman_2:1:832,horseArcher_2:1:416,ballista_2:1:312,swordsman_2:1:624,ballista_2:1:312</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,meatWagon:3:418,skeletonWarrior:3:836,meatWagon:3:418,deathKnight:3:313,skeletonArcher:3:627,deathKnight:3:313</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,crossbowman_2:1:839,ballista_2:1:419,crossbowman_2:1:839,sentinel_2:1:630,lancer_2:1:315,sentinel_2:1:630</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,sentinel_2:1:843,horseArcher_2:1:421,sentinel_2:1:843,crossbowman_2:1:632,catapult_2:1:316,crossbowman_2:1:632</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,deathKnight:3:423,skeletonArcher:3:846,deathKnight:3:423,meatWagon:3:317,skeletonWarrior:3:635,meatWagon:3:317</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,ballista_2:1:425,sentinel_2:1:850,ballista_2:1:425,horseArcher_2:1:319,crossbowman_2:1:638,horseArcher_2:1:319</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,crossbowman_2:1:854,ballista_2:1:427,crossbowman_2:1:854,sentinel_2:1:640,horseArcher_2:1:320,sentinel_2:1:640</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,skeletonWarrior:3:857,deathKnight:3:428,skeletonWarrior:3:857,skeletonArcher:3:643,meatWagon:3:321,skeletonArcher:3:643</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,lancer_2:1:430,ranger_2:1:861,lancer_2:1:430,catapult_2:1:323,swordsman_2:1:646,catapult_2:1:323</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,catapult_2:1:432,swordsman_2:1:864,catapult_2:1:432,lancer_2:1:324,ranger_2:1:648,lancer_2:1:324</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,skeletonArcher:3:868,meatWagon:3:434,skeletonArcher:3:868,skeletonWarrior:3:651,deathKnight:3:325,skeletonWarrior:3:651</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,swordsman_2:1:872,lancer_2:1:436,swordsman_2:1:872,ranger_2:1:654,catapult_2:1:327,ranger_2:1:654</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,horseArcher_2:1:437,ranger_2:1:875,horseArcher_2:1:437,catapult_2:1:328,swordsman_2:1:657,catapult_2:1:328</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,meatWagon:3:439,skeletonWarrior:3:879,meatWagon:3:439,deathKnight:3:329,skeletonArcher:3:659,deathKnight:3:329</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,crossbowman_2:1:882,catapult_2:1:441,crossbowman_2:1:882,swordsman_2:1:662,lancer_2:1:331,swordsman_2:1:662</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,sentinel_2:1:886,lancer_2:1:443,sentinel_2:1:886,ranger_2:1:665,catapult_2:1:332,ranger_2:1:665</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,deathKnight:3:445,skeletonArcher:3:890,deathKnight:3:445,meatWagon:3:333,skeletonWarrior:3:667,meatWagon:3:333</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,ballista_2:1:446,sentinel_2:1:893,ballista_2:1:446,lancer_2:1:335,ranger_2:1:670,lancer_2:1:335</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,crossbowman_2:1:897,ballista_2:1:448,crossbowman_2:1:897,swordsman_2:1:673,lancer_2:1:336,swordsman_2:1:673</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,skeletonWarrior:3:900,deathKnight:3:450,skeletonWarrior:3:900,skeletonArcher:3:675,meatWagon:3:337,skeletonArcher:3:675</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,horseArcher_2:2:452,crossbowman_2:2:904,horseArcher_2:2:452,ballista_2:2:339,swordsman_2:2:678,ballista_2:2:339</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,ballista_2:2:454,sentinel_2:2:908,ballista_2:2:454,horseArcher_2:2:340,ranger_2:2:681,horseArcher_2:2:340</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,skeletonArcher:3:1093,meatWagon:3:546,skeletonArcher:3:1093,skeletonWarrior:3:820,deathKnight:3:410,skeletonWarrior:3:820</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,sentinel_2:2:915,horseArcher_2:2:457,sentinel_2:2:915,crossbowman_2:2:686,catapult_2:2:343,crossbowman_2:2:686</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,horseArcher_2:2:459,crossbowman_2:2:918,horseArcher_2:2:459,ballista_2:2:344,sentinel_2:2:689,ballista_2:2:344</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,meatWagon:3:553,skeletonWarrior:3:1106,meatWagon:3:553,deathKnight:3:415,skeletonArcher:3:830,deathKnight:3:415</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,crossbowman_2:2:926,ballista_2:2:463,crossbowman_2:2:926,sentinel_2:2:694,horseArcher_2:2:347,sentinel_2:2:694</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,sentinel_2:2:929,horseArcher_2:2:464,sentinel_2:2:929,crossbowman_2:2:697,ballista_2:2:348,crossbowman_2:2:697</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,deathKnight:3:559,skeletonArcher:3:1119,deathKnight:3:559,meatWagon:3:420,skeletonWarrior:3:840,meatWagon:3:420</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,catapult_2:2:468,swordsman_2:2:936,catapult_2:2:468,lancer_2:2:351,ranger_2:2:702,lancer_2:2:351</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,ranger_2:2:940,catapult_2:2:470,ranger_2:2:940,swordsman_2:2:705,lancer_2:2:352,swordsman_2:2:705</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,skeletonWarrior:3:1132,deathKnight:3:566,skeletonWarrior:3:1132,skeletonArcher:3:849,meatWagon:3:424,skeletonArcher:3:849</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,horseArcher_2:2:473,ranger_2:2:947,horseArcher_2:2:473,catapult_2:2:355,swordsman_2:2:711,catapult_2:2:355</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,ballista_2:2:475,swordsman_2:2:951,ballista_2:2:475,lancer_2:2:356,ranger_2:2:713,lancer_2:2:356</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,skeletonArcher:3:1145,meatWagon:3:572,skeletonArcher:3:1145,skeletonWarrior:3:859,deathKnight:3:429,skeletonWarrior:3:859</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,sentinel_2:2:958,lancer_2:2:479,sentinel_2:2:958,ranger_2:2:719,catapult_2:2:359,ranger_2:2:719</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,horseArcher_2:2:481,crossbowman_2:2:962,horseArcher_2:2:481,catapult_2:2:360,swordsman_2:2:721,catapult_2:2:360</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,meatWagon:3:579,skeletonWarrior:3:1158,meatWagon:3:579,deathKnight:3:434,skeletonArcher:3:869,deathKnight:3:434</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,crossbowman_2:2:969,ballista_2:2:484,crossbowman_2:2:969,swordsman_2:2:727,lancer_2:2:363,swordsman_2:2:727</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,sentinel_2:2:972,horseArcher_2:2:486,sentinel_2:2:972,ranger_2:2:729,catapult_2:2:364,ranger_2:2:729</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,deathKnight:3:585,skeletonArcher:3:1171,deathKnight:3:585,meatWagon:3:439,skeletonWarrior:3:879,meatWagon:3:439</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,ballista_2:2:490,sentinel_2:2:980,ballista_2:2:490,horseArcher_2:2:367,ranger_2:2:735,horseArcher_2:2:367</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,crossbowman_2:2:983,ballista_2:2:491,crossbowman_2:2:983,sentinel_2:2:738,lancer_2:2:369,sentinel_2:2:738</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,skeletonWarrior:3:1184,deathKnight:3:592,skeletonWarrior:3:1184,skeletonArcher:3:888,meatWagon:3:444,skeletonArcher:3:888</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,horseArcher_2:2:495,crossbowman_2:2:990,horseArcher_2:2:495,ballista_2:2:371,sentinel_2:2:743,ballista_2:2:371</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,ballista_2:2:497,sentinel_2:2:994,ballista_2:2:497,horseArcher_2:2:373,crossbowman_2:2:746,horseArcher_2:2:373</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,skeletonArcher:3:1197,meatWagon:3:598,skeletonArcher:3:1197,skeletonWarrior:3:898,deathKnight:3:449,skeletonWarrior:3:898</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,sentinel_2:2:1001,horseArcher_2:2:500,sentinel_2:2:1001,crossbowman_2:2:751,ballista_2:2:375,crossbowman_2:2:751</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,lancer_2:2:502,ranger_2:2:1005,lancer_2:2:502,catapult_2:2:377,swordsman_2:2:754,catapult_2:2:377</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,meatWagon:3:605,skeletonWarrior:3:1210,meatWagon:3:605,deathKnight:3:454,skeletonArcher:3:908,deathKnight:3:454</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,ranger_2:2:1012,catapult_2:2:506,ranger_2:2:1012,swordsman_2:2:759,lancer_2:2:379,swordsman_2:2:759</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,swordsman_2:2:1016,lancer_2:2:508,swordsman_2:2:1016,ranger_2:2:762,catapult_2:2:381,ranger_2:2:762</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,deathKnight:3:613,skeletonArcher:3:1227,deathKnight:3:613,meatWagon:3:460,skeletonWarrior:3:921,meatWagon:3:460</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,ballista_2:2:515,swordsman_2:2:1030,ballista_2:2:515,lancer_2:2:386,ranger_2:2:773,lancer_2:2:386</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,crossbowman_2:2:1037,catapult_2:2:518,crossbowman_2:2:1037,swordsman_2:2:778,lancer_2:2:389,swordsman_2:2:778</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,skeletonWarrior:3:1252,deathKnight:3:626,skeletonWarrior:3:1252,skeletonArcher:3:939,meatWagon:3:469,skeletonArcher:3:939</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,horseArcher_2:2:525,crossbowman_2:2:1051,horseArcher_2:2:525,catapult_2:2:394,swordsman_2:2:788,catapult_2:2:394</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,ballista_2:2:529,sentinel_2:2:1058,ballista_2:2:529,lancer_2:2:397,ranger_2:2:794,lancer_2:2:397</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,skeletonArcher:3:1278,meatWagon:3:639,skeletonArcher:3:1278,skeletonWarrior:3:959,deathKnight:3:479,skeletonWarrior:3:959</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,sentinel_2:2:1072,horseArcher_2:2:536,sentinel_2:2:1072,ranger_2:2:804,catapult_2:2:402,ranger_2:2:804</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,horseArcher_2:2:540,crossbowman_2:2:1080,horseArcher_2:2:540,ballista_2:2:405,swordsman_2:2:810,ballista_2:2:405</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,meatWagon:3:652,skeletonWarrior:3:1304,meatWagon:3:652,deathKnight:3:489,skeletonArcher:3:978,deathKnight:3:489</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,crossbowman_2:2:1094,ballista_2:2:547,crossbowman_2:2:1094,sentinel_2:2:821,lancer_2:2:410,sentinel_2:2:821</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,sentinel_2:2:1101,horseArcher_2:2:550,sentinel_2:2:1101,crossbowman_2:2:826,catapult_2:2:413,crossbowman_2:2:826</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,deathKnight:3:665,skeletonArcher:3:1330,deathKnight:3:665,meatWagon:3:499,skeletonWarrior:3:998,meatWagon:3:499</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,ballista_2:2:558,sentinel_2:2:1116,ballista_2:2:558,horseArcher_2:2:418,crossbowman_2:2:837,horseArcher_2:2:418</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,crossbowman_2:2:1123,ballista_2:2:561,crossbowman_2:2:1123,sentinel_2:2:843,horseArcher_2:2:421,sentinel_2:2:843</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,skeletonWarrior:3:1357,deathKnight:3:678,skeletonWarrior:3:1357,skeletonArcher:3:1018,meatWagon:3:509,skeletonArcher:3:1018</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,lancer_2:2:569,ranger_2:2:1138,lancer_2:2:569,catapult_2:2:427,swordsman_2:2:854,catapult_2:2:427</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,catapult_2:2:572,swordsman_2:2:1145,catapult_2:2:572,lancer_2:2:429,ranger_2:2:859,lancer_2:2:429</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,skeletonArcher:3:1383,meatWagon:3:691,skeletonArcher:3:1383,skeletonWarrior:3:1038,deathKnight:3:519,skeletonWarrior:3:1038</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,swordsman_2:2:1160,lancer_2:2:580,swordsman_2:2:1160,ranger_2:2:870,catapult_2:2:435,ranger_2:2:870</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,horseArcher_2:2:584,ranger_2:2:1168,horseArcher_2:2:584,catapult_2:2:438,swordsman_2:2:876,catapult_2:2:438</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,meatWagon:3:705,skeletonWarrior:3:1410,meatWagon:3:705,deathKnight:3:529,skeletonArcher:3:1058,deathKnight:3:529</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,crossbowman_2:2:1183,catapult_2:2:591,crossbowman_2:2:1183,swordsman_2:2:887,lancer_2:2:443,swordsman_2:2:887</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,sentinel_2:2:1190,lancer_2:2:595,sentinel_2:2:1190,ranger_2:2:893,catapult_2:2:446,ranger_2:2:893</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,deathKnight:3:718,skeletonArcher:3:1437,deathKnight:3:718,meatWagon:3:539,skeletonWarrior:3:1078,meatWagon:3:539</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,ballista_2:2:602,sentinel_2:2:1205,ballista_2:2:602,lancer_2:2:452,ranger_2:2:904,lancer_2:2:452</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,crossbowman_2:2:1213,ballista_2:2:606,crossbowman_2:2:1213,swordsman_2:2:910,lancer_2:2:455,swordsman_2:2:910</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,skeletonWarrior:3:1465,deathKnight:3:732,skeletonWarrior:3:1465,skeletonArcher:3:1099,meatWagon:3:549,skeletonArcher:3:1099</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,horseArcher_2:2:614,crossbowman_2:2:1228,horseArcher_2:2:614,ballista_2:2:460,swordsman_2:2:921,ballista_2:2:460</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,ballista_2:2:618,sentinel_2:2:1236,ballista_2:2:618,horseArcher_2:2:463,ranger_2:2:927,horseArcher_2:2:463</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,skeletonArcher:3:1492,meatWagon:3:746,skeletonArcher:3:1492,skeletonWarrior:3:1119,deathKnight:3:559,skeletonWarrior:3:1119</t>
+  </si>
+  <si>
+    <t>redDragon:3:25,sentinel_2:3:1251,horseArcher_2:3:625,sentinel_2:3:1251,crossbowman_2:3:939,catapult_2:3:469,crossbowman_2:3:939</t>
+  </si>
+  <si>
+    <t>redDragon:3:25,horseArcher_2:3:629,crossbowman_2:3:1259,horseArcher_2:3:629,ballista_2:3:472,sentinel_2:3:945,ballista_2:3:472</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,meatWagon:3:887,skeletonWarrior:3:1774,meatWagon:3:887,deathKnight:3:665,skeletonArcher:3:1330,deathKnight:3:665</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,crossbowman_2:3:1275,ballista_2:3:637,crossbowman_2:3:1275,sentinel_2:3:956,horseArcher_2:3:478,sentinel_2:3:956</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,sentinel_2:3:1283,horseArcher_2:3:641,sentinel_2:3:1283,crossbowman_2:3:962,ballista_2:3:481,crossbowman_2:3:962</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,deathKnight:3:903,skeletonArcher:3:1807,deathKnight:3:903,meatWagon:3:677,skeletonWarrior:3:1355,meatWagon:3:677</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,catapult_2:3:649,swordsman_2:3:1298,catapult_2:3:649,lancer_2:3:487,ranger_2:3:974,lancer_2:3:487</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,ranger_2:3:1306,catapult_2:3:653,ranger_2:3:1306,swordsman_2:3:980,lancer_2:3:490,swordsman_2:3:980</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,skeletonWarrior:3:1840,deathKnight:3:920,skeletonWarrior:3:1840,skeletonArcher:3:1380,meatWagon:3:690,skeletonArcher:3:1380</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,horseArcher_2:3:661,ranger_2:3:1322,horseArcher_2:3:661,catapult_2:3:496,swordsman_2:3:992,catapult_2:3:496</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,ballista_2:3:665,swordsman_2:3:1330,ballista_2:3:665,lancer_2:3:499,ranger_2:3:998,lancer_2:3:499</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,skeletonArcher:3:1873,meatWagon:3:936,skeletonArcher:3:1873,skeletonWarrior:3:1405,deathKnight:3:702,skeletonWarrior:3:1405</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,sentinel_2:3:1346,lancer_2:3:673,sentinel_2:3:1346,ranger_2:3:1010,catapult_2:3:505,ranger_2:3:1010</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,horseArcher_2:3:677,crossbowman_2:3:1354,horseArcher_2:3:677,catapult_2:3:508,swordsman_2:3:1016,catapult_2:3:508</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,meatWagon:3:953,skeletonWarrior:3:1907,meatWagon:3:953,deathKnight:3:715,skeletonArcher:3:1430,deathKnight:3:715</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,crossbowman_2:3:1370,ballista_2:3:685,crossbowman_2:3:1370,swordsman_2:3:1028,lancer_2:3:514,swordsman_2:3:1028</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,sentinel_2:3:1379,horseArcher_2:3:689,sentinel_2:3:1379,ranger_2:3:1034,catapult_2:3:517,ranger_2:3:1034</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,deathKnight:3:970,skeletonArcher:3:1941,deathKnight:3:970,meatWagon:3:728,skeletonWarrior:3:1456,meatWagon:3:728</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,ballista_2:3:697,sentinel_2:3:1395,ballista_2:3:697,horseArcher_2:3:523,ranger_2:3:1046,horseArcher_2:3:523</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,crossbowman_2:3:1403,ballista_2:3:701,crossbowman_2:3:1403,sentinel_2:3:1052,lancer_2:3:526,sentinel_2:3:1052</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,skeletonWarrior:3:1976,deathKnight:3:988,skeletonWarrior:3:1976,skeletonArcher:3:1482,meatWagon:3:741,skeletonArcher:3:1482</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,horseArcher_2:3:710,crossbowman_2:3:1420,horseArcher_2:3:710,ballista_2:3:532,sentinel_2:3:1065,ballista_2:3:532</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,ballista_2:3:714,sentinel_2:3:1428,ballista_2:3:714,horseArcher_2:3:535,crossbowman_2:3:1071,horseArcher_2:3:535</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,skeletonArcher:3:2010,meatWagon:3:1005,skeletonArcher:3:2010,skeletonWarrior:3:1508,deathKnight:3:754,skeletonWarrior:3:1508</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,sentinel_2:3:1444,horseArcher_2:3:722,sentinel_2:3:1444,crossbowman_2:3:1083,ballista_2:3:541,crossbowman_2:3:1083</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,lancer_2:3:726,ranger_2:3:1453,lancer_2:3:726,catapult_2:3:545,swordsman_2:3:1090,catapult_2:3:545</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,meatWagon:3:1022,skeletonWarrior:3:2045,meatWagon:3:1022,deathKnight:3:767,skeletonArcher:3:1534,deathKnight:3:767</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,ranger_2:3:1470,catapult_2:3:735,ranger_2:3:1470,swordsman_2:3:1102,lancer_2:3:551,swordsman_2:3:1102</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,swordsman_2:3:1478,lancer_2:3:739,swordsman_2:3:1478,ranger_2:3:1109,catapult_2:3:554,ranger_2:3:1109</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,deathKnight:3:1040,skeletonArcher:3:2081,deathKnight:3:1040,meatWagon:3:780,skeletonWarrior:3:1561,meatWagon:3:780</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,ballista_2:3:747,swordsman_2:3:1495,ballista_2:3:747,lancer_2:3:560,ranger_2:3:1121,lancer_2:3:560</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,crossbowman_2:3:1503,catapult_2:3:751,crossbowman_2:3:1503,swordsman_2:3:1128,lancer_2:3:564,swordsman_2:3:1128</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,skeletonWarrior:3:2116,deathKnight:3:1058,skeletonWarrior:3:2116,skeletonArcher:3:1587,meatWagon:3:793,skeletonArcher:3:1587</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,horseArcher_2:3:760,crossbowman_2:3:1520,horseArcher_2:3:760,catapult_2:3:570,swordsman_2:3:1140,catapult_2:3:570</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,ballista_2:3:764,sentinel_2:3:1529,ballista_2:3:764,lancer_2:3:573,ranger_2:3:1147,lancer_2:3:573</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,skeletonArcher:3:2152,meatWagon:3:1076,skeletonArcher:3:2152,skeletonWarrior:3:1614,deathKnight:3:807,skeletonWarrior:3:1614</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,sentinel_2:3:1546,horseArcher_2:3:773,sentinel_2:3:1546,ranger_2:3:1160,catapult_2:3:580,ranger_2:3:1160</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,horseArcher_2:3:777,crossbowman_2:3:1555,horseArcher_2:3:777,ballista_2:3:583,swordsman_2:3:1166,ballista_2:3:583</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,meatWagon:3:1094,skeletonWarrior:3:2189,meatWagon:3:1094,deathKnight:3:821,skeletonArcher:3:1642,deathKnight:3:821</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,crossbowman_2:3:1572,ballista_2:3:786,crossbowman_2:3:1572,sentinel_2:3:1179,lancer_2:3:589,sentinel_2:3:1179</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,sentinel_2:3:1581,horseArcher_2:3:790,sentinel_2:3:1581,crossbowman_2:3:1186,catapult_2:3:593,crossbowman_2:3:1186</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,deathKnight:3:1112,skeletonArcher:3:2225,deathKnight:3:1112,meatWagon:3:834,skeletonWarrior:3:1669,meatWagon:3:834</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,ballista_2:3:799,sentinel_2:3:1598,ballista_2:3:799,horseArcher_2:3:599,crossbowman_2:3:1199,horseArcher_2:3:599</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,crossbowman_2:3:1607,ballista_2:3:803,crossbowman_2:3:1607,sentinel_2:3:1205,horseArcher_2:3:602,sentinel_2:3:1205</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,skeletonWarrior:3:2262,deathKnight:3:1131,skeletonWarrior:3:2262,skeletonArcher:3:1697,meatWagon:3:848,skeletonArcher:3:1697</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,lancer_2:3:812,ranger_2:3:1625,lancer_2:3:812,catapult_2:3:609,swordsman_2:3:1219,catapult_2:3:609</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,catapult_2:3:816,swordsman_2:3:1633,catapult_2:3:816,lancer_2:3:612,ranger_2:3:1225,lancer_2:3:612</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,skeletonArcher:3:2299,meatWagon:3:1149,skeletonArcher:3:2299,skeletonWarrior:3:1724,deathKnight:3:862,skeletonWarrior:3:1724</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,swordsman_2:3:1651,lancer_2:3:825,swordsman_2:3:1651,ranger_2:3:1239,catapult_2:3:619,ranger_2:3:1239</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,horseArcher_2:3:830,ranger_2:3:1660,horseArcher_2:3:830,catapult_2:3:622,swordsman_2:3:1245,catapult_2:3:622</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,meatWagon:3:1168,skeletonWarrior:3:2337,meatWagon:3:1168,deathKnight:3:876,skeletonArcher:3:1753,deathKnight:3:876</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,crossbowman_2:3:1678,catapult_2:3:839,crossbowman_2:3:1678,swordsman_2:3:1259,lancer_2:3:629,swordsman_2:3:1259</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,sentinel_2:3:1687,lancer_2:3:843,sentinel_2:3:1687,ranger_2:3:1265,catapult_2:3:632,ranger_2:3:1265</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,deathKnight:3:1187,skeletonArcher:3:2374,deathKnight:3:1187,meatWagon:3:890,skeletonWarrior:3:1781,meatWagon:3:890</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,ballista_2:3:852,sentinel_2:3:1705,ballista_2:3:852,lancer_2:3:639,ranger_2:3:1279,lancer_2:3:639</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,crossbowman_2:3:1714,ballista_2:3:857,crossbowman_2:3:1714,swordsman_2:3:1286,lancer_2:3:643,swordsman_2:3:1286</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,skeletonWarrior:3:2412,deathKnight:3:1206,skeletonWarrior:3:2412,skeletonArcher:3:1809,meatWagon:3:904,skeletonArcher:3:1809</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,horseArcher_2:3:866,crossbowman_2:3:1732,horseArcher_2:3:866,ballista_2:3:649,swordsman_2:3:1299,ballista_2:3:649</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,ballista_2:3:870,sentinel_2:3:1741,ballista_2:3:870,horseArcher_2:3:653,ranger_2:3:1306,horseArcher_2:3:653</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,skeletonArcher:3:2451,meatWagon:3:1225,skeletonArcher:3:2451,skeletonWarrior:3:1838,deathKnight:3:919,skeletonWarrior:3:1838</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,sentinel_2:3:1760,horseArcher_2:3:880,sentinel_2:3:1760,crossbowman_2:3:1320,catapult_2:3:660,crossbowman_2:3:1320</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,horseArcher_2:3:884,crossbowman_2:3:1769,horseArcher_2:3:884,ballista_2:3:663,sentinel_2:3:1327,ballista_2:3:663</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,meatWagon:3:1244,skeletonWarrior:3:2489,meatWagon:3:1244,deathKnight:3:933,skeletonArcher:3:1867,deathKnight:3:933</t>
+  </si>
+  <si>
+    <t>blueDragon:3:30,crossbowman_3:1:1787,ballista_3:1:893,crossbowman_3:1:1787,sentinel_3:1:1341,horseArcher_3:1:670,sentinel_3:1:1341</t>
+  </si>
+  <si>
+    <t>blueDragon:3:30,sentinel_3:1:1797,horseArcher_3:1:898,sentinel_3:1:1797,crossbowman_3:1:1348,ballista_3:1:674,crossbowman_3:1:1348</t>
+  </si>
+  <si>
+    <t>blueDragon:3:30,deathKnight:3:1444,skeletonArcher:3:2889,deathKnight:3:1444,meatWagon:3:1083,skeletonWarrior:3:2167,meatWagon:3:1083</t>
+  </si>
+  <si>
+    <t>blueDragon:3:30,catapult_3:1:907,swordsman_3:1:1815,catapult_3:1:907,lancer_3:1:681,ranger_3:1:1362,lancer_3:1:681</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,ranger_3:1:1825,catapult_3:1:912,ranger_3:1:1825,swordsman_3:1:1369,lancer_3:1:684,swordsman_3:1:1369</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,skeletonWarrior:3:2934,deathKnight:3:1467,skeletonWarrior:3:2934,skeletonArcher:3:2201,meatWagon:3:1100,skeletonArcher:3:2201</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,horseArcher_3:1:921,ranger_3:1:1843,horseArcher_3:1:921,catapult_3:1:691,swordsman_3:1:1383,catapult_3:1:691</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,ballista_3:1:926,swordsman_3:1:1853,ballista_3:1:926,lancer_3:1:695,ranger_3:1:1390,lancer_3:1:695</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,skeletonArcher:3:2979,meatWagon:3:1489,skeletonArcher:3:2979,skeletonWarrior:3:2235,deathKnight:3:1117,skeletonWarrior:3:2235</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,sentinel_3:1:1872,lancer_3:1:936,sentinel_3:1:1872,ranger_3:1:1404,catapult_3:1:702,ranger_3:1:1404</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,horseArcher_3:1:940,crossbowman_3:1:1881,horseArcher_3:1:940,catapult_3:1:705,swordsman_3:1:1411,catapult_3:1:705</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,meatWagon:3:1512,skeletonWarrior:3:3025,meatWagon:3:1512,deathKnight:3:1134,skeletonArcher:3:2269,deathKnight:3:1134</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,crossbowman_3:1:1900,ballista_3:1:950,crossbowman_3:1:1900,swordsman_3:1:1425,lancer_3:1:712,swordsman_3:1:1425</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,sentinel_3:1:1910,horseArcher_3:1:955,sentinel_3:1:1910,ranger_3:1:1433,catapult_3:1:716,ranger_3:1:1433</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,deathKnight:3:1535,skeletonArcher:3:3071,deathKnight:3:1535,meatWagon:3:1151,skeletonWarrior:3:2303,meatWagon:3:1151</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,ballista_3:1:964,sentinel_3:1:1929,ballista_3:1:964,horseArcher_3:1:723,ranger_3:1:1447,horseArcher_3:1:723</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,crossbowman_3:1:1939,ballista_3:1:969,crossbowman_3:1:1939,sentinel_3:1:1454,lancer_3:1:727,sentinel_3:1:1454</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,skeletonWarrior:3:3117,deathKnight:3:1558,skeletonWarrior:3:3117,skeletonArcher:3:2338,meatWagon:3:1169,skeletonArcher:3:2338</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,horseArcher_3:1:979,crossbowman_3:1:1958,horseArcher_3:1:979,ballista_3:1:734,sentinel_3:1:1469,ballista_3:1:734</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,ballista_3:1:984,sentinel_3:1:1968,ballista_3:1:984,horseArcher_3:1:738,crossbowman_3:1:1476,horseArcher_3:1:738</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,skeletonArcher:3:3164,meatWagon:3:1582,skeletonArcher:3:3164,skeletonWarrior:3:2373,deathKnight:3:1186,skeletonWarrior:3:2373</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,sentinel_3:1:1987,horseArcher_3:1:993,sentinel_3:1:1987,crossbowman_3:1:1491,ballista_3:1:745,crossbowman_3:1:1491</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,lancer_3:1:998,ranger_3:1:1997,lancer_3:1:998,catapult_3:1:749,swordsman_3:1:1498,catapult_3:1:749</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,meatWagon:3:1605,skeletonWarrior:3:3211,meatWagon:3:1605,deathKnight:3:1204,skeletonArcher:3:2408,deathKnight:3:1204</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,ranger_3:1:2017,catapult_3:1:1008,ranger_3:1:2017,swordsman_3:1:1513,lancer_3:1:756,swordsman_3:1:1513</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,swordsman_3:1:2027,lancer_3:1:1013,swordsman_3:1:2027,ranger_3:1:1520,catapult_3:1:760,ranger_3:1:1520</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,deathKnight:3:1629,skeletonArcher:3:3258,deathKnight:3:1629,meatWagon:3:1222,skeletonWarrior:3:2444,meatWagon:3:1222</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,ballista_3:1:1023,swordsman_3:1:2046,ballista_3:1:1023,lancer_3:1:767,ranger_3:1:1535,lancer_3:1:767</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,crossbowman_3:1:2056,catapult_3:1:1028,crossbowman_3:1:2056,swordsman_3:1:1542,lancer_3:1:771,swordsman_3:1:1542</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,skeletonWarrior:3:3306,deathKnight:3:1653,skeletonWarrior:3:3306,skeletonArcher:3:2479,meatWagon:3:1239,skeletonArcher:3:2479</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,horseArcher_3:1:1038,crossbowman_3:1:2076,horseArcher_3:1:1038,catapult_3:1:778,swordsman_3:1:1557,catapult_3:1:778</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,ballista_3:1:1043,sentinel_3:1:2086,ballista_3:1:1043,lancer_3:1:782,ranger_3:1:1565,lancer_3:1:782</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,skeletonArcher:3:3354,meatWagon:3:1677,skeletonArcher:3:3354,skeletonWarrior:3:2515,deathKnight:3:1257,skeletonWarrior:3:2515</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,sentinel_3:1:2106,horseArcher_3:1:1053,sentinel_3:1:2106,ranger_3:1:1580,catapult_3:1:790,ranger_3:1:1580</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,horseArcher_3:1:1058,crossbowman_3:1:2116,horseArcher_3:1:1058,ballista_3:1:793,swordsman_3:1:1587,ballista_3:1:793</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,meatWagon:3:1701,skeletonWarrior:3:3402,meatWagon:3:1701,deathKnight:3:1276,skeletonArcher:3:2552,deathKnight:3:1276</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,crossbowman_3:1:2137,ballista_3:1:1068,crossbowman_3:1:2137,sentinel_3:1:1603,lancer_3:1:801,sentinel_3:1:1603</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,sentinel_3:1:2147,horseArcher_3:1:1073,sentinel_3:1:2147,crossbowman_3:1:1610,catapult_3:1:805,crossbowman_3:1:1610</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,deathKnight:3:1725,skeletonArcher:3:3451,deathKnight:3:1725,meatWagon:3:1294,skeletonWarrior:3:2588,meatWagon:3:1294</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,ballista_3:1:1083,sentinel_3:1:2167,ballista_3:1:1083,horseArcher_3:1:812,crossbowman_3:1:1625,horseArcher_3:1:812</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,crossbowman_3:1:2177,ballista_3:1:1088,crossbowman_3:1:2177,sentinel_3:1:1633,horseArcher_3:1:816,sentinel_3:1:1633</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,skeletonWarrior:3:3500,deathKnight:3:1750,skeletonWarrior:3:3500,skeletonArcher:3:2625,meatWagon:3:1312,skeletonArcher:3:2625</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,lancer_3:2:1099,ranger_3:2:2198,lancer_3:2:1099,catapult_3:2:824,swordsman_3:2:1649,catapult_3:2:824</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,catapult_3:2:1104,swordsman_3:2:2208,catapult_3:2:1104,lancer_3:2:828,ranger_3:2:1656,lancer_3:2:828</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,skeletonArcher:3:3993,meatWagon:3:1996,skeletonArcher:3:3993,skeletonWarrior:3:2995,deathKnight:3:1497,skeletonWarrior:3:2995</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,swordsman_3:2:2229,lancer_3:2:1114,swordsman_3:2:2229,ranger_3:2:1672,catapult_3:2:836,ranger_3:2:1672</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,horseArcher_3:2:1119,ranger_3:2:2239,horseArcher_3:2:1119,catapult_3:2:839,swordsman_3:2:1679,catapult_3:2:839</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,meatWagon:3:2024,skeletonWarrior:3:4049,meatWagon:3:2024,deathKnight:3:1518,skeletonArcher:3:3037,deathKnight:3:1518</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,crossbowman_3:2:2260,catapult_3:2:1130,crossbowman_3:2:2260,swordsman_3:2:1695,lancer_3:2:847,swordsman_3:2:1695</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,sentinel_3:2:2270,lancer_3:2:1135,sentinel_3:2:2270,ranger_3:2:1703,catapult_3:2:851,ranger_3:2:1703</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,deathKnight:3:2052,skeletonArcher:3:4105,deathKnight:3:2052,meatWagon:3:1539,skeletonWarrior:3:3079,meatWagon:3:1539</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,ballista_3:2:1145,sentinel_3:2:2291,ballista_3:2:1145,lancer_3:2:859,ranger_3:2:1719,lancer_3:2:859</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,crossbowman_3:2:2302,ballista_3:2:1151,crossbowman_3:2:2302,swordsman_3:2:1726,lancer_3:2:863,swordsman_3:2:1726</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,skeletonWarrior:3:4162,deathKnight:3:2081,skeletonWarrior:3:4162,skeletonArcher:3:3121,meatWagon:3:1560,skeletonArcher:3:3121</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,horseArcher_3:2:1161,crossbowman_3:2:2323,horseArcher_3:2:1161,ballista_3:2:871,swordsman_3:2:1742,ballista_3:2:871</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,ballista_3:2:1166,sentinel_3:2:2333,ballista_3:2:1166,horseArcher_3:2:875,ranger_3:2:1750,horseArcher_3:2:875</t>
+  </si>
+  <si>
+    <t>blueDragon:4:35,skeletonArcher:3:4219,meatWagon:3:2109,skeletonArcher:3:4219,skeletonWarrior:3:3164,deathKnight:3:1582,skeletonWarrior:3:3164</t>
+  </si>
+  <si>
+    <t>blueDragon:4:35,sentinel_3:2:2355,horseArcher_3:2:1177,sentinel_3:2:2355,crossbowman_3:2:1766,catapult_3:2:883,crossbowman_3:2:1766</t>
+  </si>
+  <si>
+    <t>blueDragon:4:35,horseArcher_3:2:1182,crossbowman_3:2:2365,horseArcher_3:2:1182,ballista_3:2:887,sentinel_3:2:1774,ballista_3:2:887</t>
+  </si>
+  <si>
+    <t>blueDragon:4:35,meatWagon:3:2138,skeletonWarrior:3:4276,meatWagon:3:2138,deathKnight:3:1603,skeletonArcher:3:3207,deathKnight:3:1603</t>
+  </si>
+  <si>
+    <t>blueDragon:4:35,crossbowman_3:2:2387,ballista_3:2:1193,crossbowman_3:2:2387,sentinel_3:2:1790,horseArcher_3:2:895,sentinel_3:2:1790</t>
+  </si>
+  <si>
+    <t>blueDragon:4:35,sentinel_3:2:2397,horseArcher_3:2:1198,sentinel_3:2:2397,crossbowman_3:2:1798,ballista_3:2:899,crossbowman_3:2:1798</t>
+  </si>
+  <si>
+    <t>blueDragon:4:35,deathKnight:3:2167,skeletonArcher:3:4334,deathKnight:3:2167,meatWagon:3:1625,skeletonWarrior:3:3251,meatWagon:3:1625</t>
+  </si>
+  <si>
+    <t>greenDragon:4:35,catapult_3:2:1209,swordsman_3:2:2419,catapult_3:2:1209,lancer_3:2:907,ranger_3:2:1814,lancer_3:2:907</t>
+  </si>
+  <si>
+    <t>greenDragon:4:35,ranger_3:2:2430,catapult_3:2:1215,ranger_3:2:2430,swordsman_3:2:1822,lancer_3:2:911,swordsman_3:2:1822</t>
+  </si>
+  <si>
+    <t>greenDragon:4:35,skeletonWarrior:3:4392,deathKnight:3:2196,skeletonWarrior:3:4392,skeletonArcher:3:3294,meatWagon:3:1647,skeletonArcher:3:3294</t>
+  </si>
+  <si>
+    <t>greenDragon:4:35,horseArcher_3:2:1225,ranger_3:2:2451,horseArcher_3:2:1225,catapult_3:2:919,swordsman_3:2:1839,catapult_3:2:919</t>
+  </si>
+  <si>
+    <t>greenDragon:4:35,ballista_3:2:1231,swordsman_3:2:2462,ballista_3:2:1231,lancer_3:2:923,ranger_3:2:1847,lancer_3:2:923</t>
+  </si>
+  <si>
+    <t>greenDragon:4:35,skeletonArcher:3:4451,meatWagon:3:2225,skeletonArcher:3:4451,skeletonWarrior:3:3338,deathKnight:3:1669,skeletonWarrior:3:3338</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,sentinel_3:2:2484,lancer_3:2:1242,sentinel_3:2:2484,ranger_3:2:1863,catapult_3:2:931,ranger_3:2:1863</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,horseArcher_3:2:1247,crossbowman_3:2:2495,horseArcher_3:2:1247,catapult_3:2:935,swordsman_3:2:1871,catapult_3:2:935</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,meatWagon:3:2255,skeletonWarrior:3:4510,meatWagon:3:2255,deathKnight:3:1691,skeletonArcher:3:3383,deathKnight:3:1691</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,crossbowman_3:2:2517,ballista_3:2:1258,crossbowman_3:2:2517,swordsman_3:2:1888,lancer_3:2:944,swordsman_3:2:1888</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,sentinel_3:2:2528,horseArcher_3:2:1264,sentinel_3:2:2528,ranger_3:2:1896,catapult_3:2:948,ranger_3:2:1896</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,deathKnight:3:2284,skeletonArcher:3:4569,deathKnight:3:2284,meatWagon:3:1713,skeletonWarrior:3:3427,meatWagon:3:1713</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,ballista_3:2:1275,sentinel_3:2:2550,ballista_3:2:1275,horseArcher_3:2:956,ranger_3:2:1913,horseArcher_3:2:956</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,crossbowman_3:2:2561,ballista_3:2:1280,crossbowman_3:2:2561,sentinel_3:2:1921,lancer_3:2:960,sentinel_3:2:1921</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,skeletonWarrior:3:4629,deathKnight:3:2314,skeletonWarrior:3:4629,skeletonArcher:3:3472,meatWagon:3:1736,skeletonArcher:3:3472</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,horseArcher_3:2:1291,crossbowman_3:2:2583,horseArcher_3:2:1291,ballista_3:2:968,sentinel_3:2:1937,ballista_3:2:968</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,ballista_3:2:1297,sentinel_3:2:2594,ballista_3:2:1297,horseArcher_3:2:973,crossbowman_3:2:1946,horseArcher_3:2:973</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,skeletonArcher:3:4689,meatWagon:3:2344,skeletonArcher:3:4689,skeletonWarrior:3:3517,deathKnight:3:1758,skeletonWarrior:3:3517</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,sentinel_3:2:2617,horseArcher_3:2:1308,sentinel_3:2:2617,crossbowman_3:2:1963,ballista_3:2:981,crossbowman_3:2:1963</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,lancer_3:2:1314,ranger_3:2:2628,lancer_3:2:1314,catapult_3:2:985,swordsman_3:2:1971,catapult_3:2:985</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,meatWagon:3:2375,skeletonWarrior:3:4750,meatWagon:3:2375,deathKnight:3:1781,skeletonArcher:3:3563,deathKnight:3:1781</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,ranger_3:3:2650,catapult_3:3:1325,ranger_3:3:2650,swordsman_3:3:1988,lancer_3:3:994,swordsman_3:3:1988</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,swordsman_3:3:2662,lancer_3:3:1331,swordsman_3:3:2662,ranger_3:3:1996,catapult_3:3:998,ranger_3:3:1996</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,deathKnight:3:2672,skeletonArcher:3:5345,deathKnight:3:2672,meatWagon:3:2004,skeletonWarrior:3:4009,meatWagon:3:2004</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,ballista_3:3:1342,swordsman_3:3:2684,ballista_3:3:1342,lancer_3:3:1006,ranger_3:3:2013,lancer_3:3:1006</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,crossbowman_3:3:2696,catapult_3:3:1348,crossbowman_3:3:2696,swordsman_3:3:2022,lancer_3:3:1011,swordsman_3:3:2022</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,skeletonWarrior:3:5414,deathKnight:3:2707,skeletonWarrior:3:5414,skeletonArcher:3:4060,meatWagon:3:2030,skeletonArcher:3:4060</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,horseArcher_3:3:1359,crossbowman_3:3:2718,horseArcher_3:3:1359,catapult_3:3:1019,swordsman_3:3:2039,catapult_3:3:1019</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,ballista_3:3:1365,sentinel_3:3:2730,ballista_3:3:1365,lancer_3:3:1024,ranger_3:3:2048,lancer_3:3:1024</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,skeletonArcher:3:5482,meatWagon:3:2741,skeletonArcher:3:5482,skeletonWarrior:3:4112,deathKnight:3:2056,skeletonWarrior:3:4112</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,sentinel_3:3:2753,horseArcher_3:3:1376,sentinel_3:3:2753,ranger_3:3:2065,catapult_3:3:1032,ranger_3:3:2065</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,horseArcher_3:3:1382,crossbowman_3:3:2764,horseArcher_3:3:1382,ballista_3:3:1036,swordsman_3:3:2073,ballista_3:3:1036</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,meatWagon:3:2775,skeletonWarrior:3:5551,meatWagon:3:2775,deathKnight:3:2082,skeletonArcher:3:4164,deathKnight:3:2082</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,crossbowman_3:3:2787,ballista_3:3:1393,crossbowman_3:3:2787,sentinel_3:3:2091,lancer_3:3:1045,sentinel_3:3:2091</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,sentinel_3:3:2799,horseArcher_3:3:1399,sentinel_3:3:2799,crossbowman_3:3:2099,catapult_3:3:1049,crossbowman_3:3:2099</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,deathKnight:3:2810,skeletonArcher:3:5621,deathKnight:3:2810,meatWagon:3:2108,skeletonWarrior:3:4216,meatWagon:3:2108</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,ballista_3:3:1411,sentinel_3:3:2822,ballista_3:3:1411,horseArcher_3:3:1058,crossbowman_3:3:2117,horseArcher_3:3:1058</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,crossbowman_3:3:2834,ballista_3:3:1417,crossbowman_3:3:2834,sentinel_3:3:2126,horseArcher_3:3:1063,sentinel_3:3:2126</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,skeletonWarrior:3:5691,deathKnight:3:2845,skeletonWarrior:3:5691,skeletonArcher:3:4268,meatWagon:3:2134,skeletonArcher:3:4268</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,lancer_3:3:1428,ranger_3:3:2857,lancer_3:3:1428,catapult_3:3:1071,swordsman_3:3:2143,catapult_3:3:1071</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,catapult_3:3:1434,swordsman_3:3:2869,catapult_3:3:1434,lancer_3:3:1076,ranger_3:3:2152,lancer_3:3:1076</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,skeletonArcher:3:5773,meatWagon:3:2886,skeletonArcher:3:5773,skeletonWarrior:3:4330,deathKnight:3:2165,skeletonWarrior:3:4330</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,swordsman_3:3:2892,lancer_3:3:1446,swordsman_3:3:2892,ranger_3:3:2169,catapult_3:3:1084,ranger_3:3:2169</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,horseArcher_3:3:1456,ranger_3:3:2913,horseArcher_3:3:1456,catapult_3:3:1092,swordsman_3:3:2185,catapult_3:3:1092</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,meatWagon:3:2933,skeletonWarrior:3:5867,meatWagon:3:2933,deathKnight:3:2200,skeletonArcher:3:4400,deathKnight:3:2200</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,crossbowman_3:3:2954,catapult_3:3:1477,crossbowman_3:3:2954,swordsman_3:3:2216,lancer_3:3:1108,swordsman_3:3:2216</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,sentinel_3:3:2975,lancer_3:3:1487,sentinel_3:3:2975,ranger_3:3:2231,catapult_3:3:1115,ranger_3:3:2231</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,deathKnight:3:2995,skeletonArcher:3:5991,deathKnight:3:2995,meatWagon:3:2246,skeletonWarrior:3:4493,meatWagon:3:2246</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,ballista_3:3:1508,sentinel_3:3:3016,ballista_3:3:1508,lancer_3:3:1131,ranger_3:3:2262,lancer_3:3:1131</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,crossbowman_3:3:3037,ballista_3:3:1518,crossbowman_3:3:3037,swordsman_3:3:2278,lancer_3:3:1139,swordsman_3:3:2278</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,skeletonWarrior:3:6116,deathKnight:3:3058,skeletonWarrior:3:6116,skeletonArcher:3:4587,meatWagon:3:2293,skeletonArcher:3:4587</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,horseArcher_3:3:1539,crossbowman_3:3:3079,horseArcher_3:3:1539,ballista_3:3:1154,swordsman_3:3:2309,ballista_3:3:1154</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,ballista_3:3:1550,sentinel_3:3:3100,ballista_3:3:1550,horseArcher_3:3:1162,ranger_3:3:2325,horseArcher_3:3:1162</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,skeletonArcher:3:6242,meatWagon:3:3121,skeletonArcher:3:6242,skeletonWarrior:3:4682,deathKnight:3:2341,skeletonWarrior:3:4682</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,sentinel_3:3:3142,horseArcher_3:3:1571,sentinel_3:3:3142,crossbowman_3:3:2357,catapult_3:3:1178,crossbowman_3:3:2357</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,horseArcher_3:3:1582,crossbowman_3:3:3164,horseArcher_3:3:1582,ballista_3:3:1186,sentinel_3:3:2373,ballista_3:3:1186</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,meatWagon:3:3184,skeletonWarrior:3:6369,meatWagon:3:3184,deathKnight:3:2388,skeletonArcher:3:4777,deathKnight:3:2388</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,crossbowman_3:3:3206,ballista_3:3:1603,crossbowman_3:3:3206,sentinel_3:3:2405,horseArcher_3:3:1202,sentinel_3:3:2405</t>
+  </si>
+  <si>
+    <t>greenDragon:4:40,sentinel_3:3:3228,horseArcher_3:3:1614,sentinel_3:3:3228,crossbowman_3:3:2421,ballista_3:3:1210,crossbowman_3:3:2421</t>
+  </si>
+  <si>
+    <t>greenDragon:4:40,deathKnight:3:3248,skeletonArcher:3:6497,deathKnight:3:3248,meatWagon:3:2436,skeletonWarrior:3:4873,meatWagon:3:2436</t>
+  </si>
+  <si>
+    <t>greenDragon:4:40,catapult_3:3:1635,swordsman_3:3:3270,catapult_3:3:1635,lancer_3:3:1226,ranger_3:3:2453,lancer_3:3:1226</t>
+  </si>
+  <si>
+    <t>greenDragon:4:40,ranger_3:3:3292,catapult_3:3:1646,ranger_3:3:3292,swordsman_3:3:2469,lancer_3:3:1234,swordsman_3:3:2469</t>
+  </si>
+  <si>
+    <t>greenDragon:4:40,skeletonWarrior:3:6627,deathKnight:3:3313,skeletonWarrior:3:6627,skeletonArcher:3:4970,meatWagon:3:2485,skeletonArcher:3:4970</t>
   </si>
 </sst>
 </file>
@@ -4493,7 +4493,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="881">
+  <cellStyleXfs count="889">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -4975,6 +4975,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5446,7 +5454,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="881">
+  <cellStyles count="889">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -5889,6 +5897,10 @@
     <cellStyle name="超链接" xfId="875" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="877" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="879" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="881" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="883" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="885" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="887" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -6324,6 +6336,10 @@
     <cellStyle name="访问过的超链接" xfId="876" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="878" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="880" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="882" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="884" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="886" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="888" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -6776,8 +6792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H523"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G508"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A481" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -19757,7 +19773,7 @@
       <c r="F499" s="17" t="s">
         <v>632</v>
       </c>
-      <c r="G499" s="20" t="s">
+      <c r="G499" s="21" t="s">
         <v>1405</v>
       </c>
       <c r="H499" s="13" t="s">
@@ -19783,7 +19799,7 @@
       <c r="F500" s="17" t="s">
         <v>632</v>
       </c>
-      <c r="G500" s="20" t="s">
+      <c r="G500" s="21" t="s">
         <v>1406</v>
       </c>
       <c r="H500" s="13" t="s">
@@ -19809,7 +19825,7 @@
       <c r="F501" s="17" t="s">
         <v>632</v>
       </c>
-      <c r="G501" s="21" t="s">
+      <c r="G501" s="6" t="s">
         <v>1407</v>
       </c>
       <c r="H501" s="6" t="s">
@@ -19835,7 +19851,7 @@
       <c r="F502" s="17" t="s">
         <v>632</v>
       </c>
-      <c r="G502" s="21" t="s">
+      <c r="G502" s="6" t="s">
         <v>1408</v>
       </c>
       <c r="H502" s="6" t="s">
@@ -19861,7 +19877,7 @@
       <c r="F503" s="17" t="s">
         <v>632</v>
       </c>
-      <c r="G503" s="6" t="s">
+      <c r="G503" s="1" t="s">
         <v>1409</v>
       </c>
       <c r="H503" s="6" t="s">
@@ -19922,7 +19938,6 @@
     </row>
     <row r="506" spans="1:8" ht="20" customHeight="1">
       <c r="D506" s="17"/>
-      <c r="G506" s="6"/>
     </row>
     <row r="507" spans="1:8" ht="20" customHeight="1">
       <c r="D507" s="17"/>

--- a/Dragonfall/gameData/shared/PvE.xlsx
+++ b/Dragonfall/gameData/shared/PvE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="2660" windowWidth="32100" windowHeight="17940" tabRatio="566"/>
+    <workbookView xWindow="1240" yWindow="0" windowWidth="32100" windowHeight="17940" tabRatio="566"/>
   </bookViews>
   <sheets>
     <sheet name="sections" sheetId="12" r:id="rId1"/>
@@ -2767,1516 +2767,1516 @@
     <t>soldierMaterials:deathHand:5000:25,soldierMaterials:heroBones:5000:25,soldierMaterials:soulStone:5000:25,soldierMaterials:magicBox:5000:25</t>
   </si>
   <si>
+    <t>blueDragon:1:1,catapult_1:1:4,swordsman_1:1:8</t>
+  </si>
+  <si>
+    <t>blueDragon:1:1,skeletonArcher:3:4</t>
+  </si>
+  <si>
+    <t>blueDragon:1:1,swordsman_1:1:8,lancer_1:1:4,swordsman_1:1:8</t>
+  </si>
+  <si>
+    <t>blueDragon:1:1,horseArcher_1:1:5,ranger_1:1:11,horseArcher_1:1:5</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,crossbowman_1:1:18,catapult_1:1:9,crossbowman_1:1:18</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,sentinel_1:1:22,lancer_1:1:11,sentinel_1:1:22</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,ballista_1:1:14,sentinel_1:1:29,ballista_1:1:14</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,crossbowman_1:1:33,ballista_1:1:16,crossbowman_1:1:33</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,horseArcher_1:1:20,crossbowman_1:1:40,horseArcher_1:1:20</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,ballista_1:1:22,sentinel_1:1:44,ballista_1:1:22</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,sentinel_1:1:51,horseArcher_1:1:25,sentinel_1:1:51</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,horseArcher_1:1:27,crossbowman_1:1:54,horseArcher_1:1:27</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,crossbowman_1:1:62,ballista_1:1:31,crossbowman_1:1:62</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,sentinel_1:1:65,horseArcher_1:1:32,sentinel_1:1:65</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,catapult_1:1:36,swordsman_1:1:72,catapult_1:1:36,lancer_1:1:27</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,ranger_1:1:76,catapult_1:1:38,ranger_1:1:76,swordsman_1:1:57</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,horseArcher_1:1:41,ranger_1:1:83,horseArcher_1:1:41,catapult_1:1:31</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,ballista_1:1:43,swordsman_1:1:87,ballista_1:1:43,lancer_1:1:32</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,sentinel_1:1:94,lancer_1:1:47,sentinel_1:1:94,ranger_1:1:71</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,horseArcher_1:1:49,crossbowman_1:1:98,horseArcher_1:1:49,catapult_1:1:36</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,crossbowman_1:1:105,ballista_1:1:52,crossbowman_1:1:105,swordsman_1:1:79</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,sentinel_1:1:108,horseArcher_1:1:54,sentinel_1:1:108,ranger_1:1:81</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,ballista_1:1:58,sentinel_1:1:116,ballista_1:1:58,horseArcher_1:1:43</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,crossbowman_1:1:119,ballista_1:1:59,crossbowman_1:1:119,sentinel_1:1:90</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,horseArcher_1:1:63,crossbowman_1:1:126,horseArcher_1:1:63,ballista_1:1:47</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,ballista_1:1:65,sentinel_1:1:130,ballista_1:1:65,horseArcher_1:1:49</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,sentinel_1:1:137,horseArcher_1:1:68,sentinel_1:1:137,crossbowman_1:1:103</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,lancer_1:1:70,ranger_1:1:141,lancer_1:1:70,catapult_1:1:53</t>
+  </si>
+  <si>
+    <t>greenDragon:1:4,ranger_1:1:148,catapult_1:1:74,ranger_1:1:148,swordsman_1:1:111,lancer_1:1:55</t>
+  </si>
+  <si>
+    <t>greenDragon:1:4,swordsman_1:1:152,lancer_1:1:76,swordsman_1:1:152,ranger_1:1:114,catapult_1:1:57</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,ballista_1:1:79,swordsman_1:1:159,ballista_1:1:79,lancer_1:1:59,ranger_1:1:119</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,crossbowman_1:1:162,catapult_1:1:81,crossbowman_1:1:162,swordsman_1:1:122,lancer_1:1:61</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,horseArcher_1:1:85,crossbowman_1:1:170,horseArcher_1:1:85,catapult_1:1:63,swordsman_1:1:127</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,ballista_1:1:86,sentinel_1:1:173,ballista_1:1:86,lancer_1:1:65,ranger_1:1:130</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,sentinel_1:1:180,horseArcher_1:1:90,sentinel_1:1:180,ranger_1:1:135,catapult_1:1:67</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,horseArcher_1:1:92,crossbowman_1:1:184,horseArcher_1:1:92,ballista_1:1:69,swordsman_1:1:138</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,crossbowman_1:1:191,ballista_1:1:95,crossbowman_1:1:191,sentinel_1:1:144,lancer_1:1:72</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,sentinel_1:1:195,horseArcher_1:1:97,sentinel_1:1:195,crossbowman_1:1:146,catapult_1:1:73</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,ballista_1:1:101,sentinel_1:1:202,ballista_1:1:101,horseArcher_1:1:76,crossbowman_1:1:152</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,crossbowman_1:1:206,ballista_1:1:103,crossbowman_1:1:206,sentinel_1:1:154,horseArcher_1:1:77</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,lancer_1:1:106,ranger_1:1:213,lancer_1:1:106,catapult_1:1:80,swordsman_1:1:160</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,catapult_1:1:108,swordsman_1:1:216,catapult_1:1:108,lancer_1:1:81,ranger_1:1:162</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,swordsman_1:2:224,lancer_1:2:112,swordsman_1:2:224,ranger_1:2:168,catapult_1:2:84,ranger_1:2:168</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,horseArcher_1:2:113,ranger_1:2:227,horseArcher_1:2:113,catapult_1:2:85,swordsman_1:2:171,catapult_1:2:85</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,crossbowman_1:2:234,catapult_1:2:117,crossbowman_1:2:234,swordsman_1:2:176,lancer_1:2:88,swordsman_1:2:176</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,sentinel_1:2:238,lancer_1:2:119,sentinel_1:2:238,ranger_1:2:179,catapult_1:2:89,ranger_1:2:179</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,ballista_1:2:122,sentinel_1:2:245,ballista_1:2:122,lancer_1:2:92,ranger_1:2:184,lancer_1:2:92</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,crossbowman_1:2:249,ballista_1:2:124,crossbowman_1:2:249,swordsman_1:2:187,lancer_1:2:93,swordsman_1:2:187</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,horseArcher_1:2:128,crossbowman_1:2:256,horseArcher_1:2:128,ballista_1:2:96,swordsman_1:2:192,ballista_1:2:96</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,ballista_1:2:130,sentinel_1:2:260,ballista_1:2:130,horseArcher_1:2:97,ranger_1:2:195,horseArcher_1:2:97</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,sentinel_1:2:267,horseArcher_1:2:133,sentinel_1:2:267,crossbowman_1:2:200,catapult_1:2:100,crossbowman_1:2:200</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,horseArcher_1:2:135,crossbowman_1:2:270,horseArcher_1:2:135,ballista_1:2:101,sentinel_1:2:203,ballista_1:2:101</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,crossbowman_1:2:278,ballista_1:2:139,crossbowman_1:2:278,sentinel_1:2:208,horseArcher_1:2:104,sentinel_1:2:208</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,sentinel_1:2:281,horseArcher_1:2:140,sentinel_1:2:281,crossbowman_1:2:211,ballista_1:2:105,crossbowman_1:2:211</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,catapult_1:2:144,swordsman_1:2:288,catapult_1:2:144,lancer_1:2:108,ranger_1:2:216,lancer_1:2:108</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,ranger_1:2:292,catapult_1:2:146,ranger_1:2:292,swordsman_1:2:219,lancer_1:2:109,swordsman_1:2:219</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,horseArcher_1:2:149,ranger_1:2:299,horseArcher_1:2:149,catapult_1:2:112,swordsman_1:2:225,catapult_1:2:112</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,ballista_1:2:151,swordsman_1:2:303,ballista_1:2:151,lancer_1:2:113,ranger_1:2:227,lancer_1:2:113</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,sentinel_1:2:310,lancer_1:2:155,sentinel_1:2:310,ranger_1:2:233,catapult_1:2:116,ranger_1:2:233</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,horseArcher_1:2:157,crossbowman_1:2:314,horseArcher_1:2:157,catapult_1:2:117,swordsman_1:2:235,catapult_1:2:117</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,crossbowman_1:2:321,ballista_1:2:160,crossbowman_1:2:321,swordsman_1:2:241,lancer_1:2:120,swordsman_1:2:241</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,sentinel_1:2:324,horseArcher_1:2:162,sentinel_1:2:324,ranger_1:2:243,catapult_1:2:121,ranger_1:2:243</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,ballista_1:2:166,sentinel_1:2:332,ballista_1:2:166,horseArcher_1:2:124,ranger_1:2:249,horseArcher_1:2:124</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,crossbowman_1:2:335,ballista_1:2:167,crossbowman_1:2:335,sentinel_1:2:252,lancer_1:2:126,sentinel_1:2:252</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,horseArcher_1:2:171,crossbowman_1:2:342,horseArcher_1:2:171,ballista_1:2:128,sentinel_1:2:257,ballista_1:2:128</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,ballista_1:2:173,sentinel_1:2:346,ballista_1:2:173,horseArcher_1:2:130,crossbowman_1:2:260,horseArcher_1:2:130</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,sentinel_1:2:353,horseArcher_1:2:176,sentinel_1:2:353,crossbowman_1:2:265,ballista_1:2:132,crossbowman_1:2:265</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,lancer_1:2:178,ranger_1:2:357,lancer_1:2:178,catapult_1:2:134,swordsman_1:2:268,catapult_1:2:134</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,ranger_1:2:364,catapult_1:2:182,ranger_1:2:364,swordsman_1:2:273,lancer_1:2:136,swordsman_1:2:273</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,swordsman_1:2:368,lancer_1:2:184,swordsman_1:2:368,ranger_1:2:276,catapult_1:2:138,ranger_1:2:276</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,ballista_1:2:187,swordsman_1:2:375,ballista_1:2:187,lancer_1:2:140,ranger_1:2:281,lancer_1:2:140</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,crossbowman_1:2:378,catapult_1:2:189,crossbowman_1:2:378,swordsman_1:2:284,lancer_1:2:142,swordsman_1:2:284</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,horseArcher_1:2:193,crossbowman_1:2:386,horseArcher_1:2:193,catapult_1:2:144,swordsman_1:2:289,catapult_1:2:144</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,ballista_1:2:194,sentinel_1:2:389,ballista_1:2:194,lancer_1:2:146,ranger_1:2:292,lancer_1:2:146</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,sentinel_1:2:396,horseArcher_1:2:198,sentinel_1:2:396,ranger_1:2:297,catapult_1:2:148,ranger_1:2:297</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,horseArcher_1:2:200,crossbowman_1:2:400,horseArcher_1:2:200,ballista_1:2:150,swordsman_1:2:300,ballista_1:2:150</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,crossbowman_1:2:407,ballista_1:2:203,crossbowman_1:2:407,sentinel_1:2:306,lancer_1:2:153,sentinel_1:2:306</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,sentinel_1:2:411,horseArcher_1:2:205,sentinel_1:2:411,crossbowman_1:2:308,catapult_1:2:154,crossbowman_1:2:308</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,ballista_1:2:209,sentinel_1:2:418,ballista_1:2:209,horseArcher_1:2:157,crossbowman_1:2:314,horseArcher_1:2:157</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,crossbowman_1:2:422,ballista_1:2:211,crossbowman_1:2:422,sentinel_1:2:316,horseArcher_1:2:158,sentinel_1:2:316</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,lancer_1:2:214,ranger_1:2:429,lancer_1:2:214,catapult_1:2:161,swordsman_1:2:322,catapult_1:2:161</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,catapult_1:2:216,swordsman_1:2:432,catapult_1:2:216,lancer_1:2:162,ranger_1:2:324,lancer_1:2:162</t>
+  </si>
+  <si>
+    <t>redDragon:2:11,swordsman_1:2:440,lancer_1:2:220,swordsman_1:2:440,ranger_1:2:330,catapult_1:2:165,ranger_1:2:330</t>
+  </si>
+  <si>
+    <t>redDragon:2:11,horseArcher_1:2:221,ranger_1:2:443,horseArcher_1:2:221,catapult_1:2:166,swordsman_1:2:333,catapult_1:2:166</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,crossbowman_1:3:450,catapult_1:3:225,crossbowman_1:3:450,swordsman_1:3:338,lancer_1:3:169,swordsman_1:3:338</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,sentinel_1:3:454,lancer_1:3:227,sentinel_1:3:454,ranger_1:3:341,catapult_1:3:170,ranger_1:3:341</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,ballista_1:3:230,sentinel_1:3:461,ballista_1:3:230,lancer_1:3:173,ranger_1:3:346,lancer_1:3:173</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,crossbowman_1:3:465,ballista_1:3:232,crossbowman_1:3:465,swordsman_1:3:349,lancer_1:3:174,swordsman_1:3:349</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,horseArcher_1:3:236,crossbowman_1:3:472,horseArcher_1:3:236,ballista_1:3:177,swordsman_1:3:354,ballista_1:3:177</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,ballista_1:3:238,sentinel_1:3:476,ballista_1:3:238,horseArcher_1:3:178,ranger_1:3:357,horseArcher_1:3:178</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,sentinel_1:3:483,horseArcher_1:3:241,sentinel_1:3:483,crossbowman_1:3:362,catapult_1:3:181,crossbowman_1:3:362</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,horseArcher_1:3:243,crossbowman_1:3:486,horseArcher_1:3:243,ballista_1:3:182,sentinel_1:3:365,ballista_1:3:182</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,crossbowman_1:3:494,ballista_1:3:247,crossbowman_1:3:494,sentinel_1:3:370,horseArcher_1:3:185,sentinel_1:3:370</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,sentinel_1:3:497,horseArcher_1:3:248,sentinel_1:3:497,crossbowman_1:3:373,ballista_1:3:186,crossbowman_1:3:373</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,catapult_1:3:252,swordsman_1:3:504,catapult_1:3:252,lancer_1:3:189,ranger_1:3:378,lancer_1:3:189</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,ranger_1:3:508,catapult_1:3:254,ranger_1:3:508,swordsman_1:3:381,lancer_1:3:190,swordsman_1:3:381</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,horseArcher_1:3:257,ranger_1:3:515,horseArcher_1:3:257,catapult_1:3:193,swordsman_1:3:387,catapult_1:3:193</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,ballista_1:3:259,swordsman_1:3:519,ballista_1:3:259,lancer_1:3:194,ranger_1:3:389,lancer_1:3:194</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,sentinel_1:3:526,lancer_1:3:263,sentinel_1:3:526,ranger_1:3:395,catapult_1:3:197,ranger_1:3:395</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,horseArcher_1:3:265,crossbowman_1:3:530,horseArcher_1:3:265,catapult_1:3:198,swordsman_1:3:397,catapult_1:3:198</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,crossbowman_1:3:537,ballista_1:3:268,crossbowman_1:3:537,swordsman_1:3:403,lancer_1:3:201,swordsman_1:3:403</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,sentinel_1:3:540,horseArcher_1:3:270,sentinel_1:3:540,ranger_1:3:405,catapult_1:3:202,ranger_1:3:405</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,ballista_1:3:274,sentinel_1:3:548,ballista_1:3:274,horseArcher_1:3:205,ranger_1:3:411,horseArcher_1:3:205</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,crossbowman_1:3:551,ballista_1:3:275,crossbowman_1:3:551,sentinel_1:3:414,lancer_1:3:207,sentinel_1:3:414</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,horseArcher_1:3:279,crossbowman_1:3:558,horseArcher_1:3:279,ballista_1:3:209,sentinel_1:3:419,ballista_1:3:209</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,ballista_1:3:281,sentinel_1:3:562,ballista_1:3:281,horseArcher_1:3:211,crossbowman_1:3:422,horseArcher_1:3:211</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,sentinel_1:3:569,horseArcher_1:3:284,sentinel_1:3:569,crossbowman_1:3:427,ballista_1:3:213,crossbowman_1:3:427</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,lancer_1:3:286,ranger_1:3:573,lancer_1:3:286,catapult_1:3:215,swordsman_1:3:430,catapult_1:3:215</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,ranger_1:3:580,catapult_1:3:290,ranger_1:3:580,swordsman_1:3:435,lancer_1:3:217,swordsman_1:3:435</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,swordsman_1:3:584,lancer_1:3:292,swordsman_1:3:584,ranger_1:3:438,catapult_1:3:219,ranger_1:3:438</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,ballista_1:3:295,swordsman_1:3:591,ballista_1:3:295,lancer_1:3:221,ranger_1:3:443,lancer_1:3:221</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,crossbowman_1:3:594,catapult_1:3:297,crossbowman_1:3:594,swordsman_1:3:446,lancer_1:3:223,swordsman_1:3:446</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,horseArcher_1:3:301,crossbowman_1:3:602,horseArcher_1:3:301,catapult_1:3:225,swordsman_1:3:451,catapult_1:3:225</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,ballista_1:3:302,sentinel_1:3:605,ballista_1:3:302,lancer_1:3:227,ranger_1:3:454,lancer_1:3:227</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,sentinel_1:3:612,horseArcher_1:3:306,sentinel_1:3:612,ranger_1:3:459,catapult_1:3:229,ranger_1:3:459</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,horseArcher_1:3:308,crossbowman_1:3:616,horseArcher_1:3:308,ballista_1:3:231,swordsman_1:3:462,ballista_1:3:231</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,crossbowman_1:3:623,ballista_1:3:311,crossbowman_1:3:623,sentinel_1:3:468,lancer_1:3:234,sentinel_1:3:468</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,sentinel_1:3:627,horseArcher_1:3:313,sentinel_1:3:627,crossbowman_1:3:470,catapult_1:3:235,crossbowman_1:3:470</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,ballista_1:3:317,sentinel_1:3:634,ballista_1:3:317,horseArcher_1:3:238,crossbowman_1:3:476,horseArcher_1:3:238</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,crossbowman_1:3:638,ballista_1:3:319,crossbowman_1:3:638,sentinel_1:3:478,horseArcher_1:3:239,sentinel_1:3:478</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,lancer_1:3:322,ranger_1:3:645,lancer_1:3:322,catapult_1:3:242,swordsman_1:3:484,catapult_1:3:242</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,catapult_1:3:324,swordsman_1:3:648,catapult_1:3:324,lancer_1:3:243,ranger_1:3:486,lancer_1:3:243</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,swordsman_1:3:656,lancer_1:3:328,swordsman_1:3:656,ranger_1:3:492,catapult_1:3:246,ranger_1:3:492</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,horseArcher_1:3:329,ranger_1:3:659,horseArcher_1:3:329,catapult_1:3:247,swordsman_1:3:495,catapult_1:3:247</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,crossbowman_1:3:666,catapult_1:3:333,crossbowman_1:3:666,swordsman_1:3:500,lancer_1:3:250,swordsman_1:3:500</t>
+  </si>
+  <si>
+    <t>blueDragon:2:16,sentinel_1:3:670,lancer_1:3:335,sentinel_1:3:670,ranger_1:3:503,catapult_1:3:251,ranger_1:3:503</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,ballista_2:1:338,sentinel_2:1:677,ballista_2:1:338,lancer_2:1:254,ranger_2:1:508,lancer_2:1:254</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,crossbowman_2:1:681,ballista_2:1:340,crossbowman_2:1:681,swordsman_2:1:511,lancer_2:1:255,swordsman_2:1:511</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,horseArcher_2:1:344,crossbowman_2:1:688,horseArcher_2:1:344,ballista_2:1:258,swordsman_2:1:516,ballista_2:1:258</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,ballista_2:1:346,sentinel_2:1:692,ballista_2:1:346,horseArcher_2:1:259,ranger_2:1:519,horseArcher_2:1:259</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,sentinel_2:1:699,horseArcher_2:1:349,sentinel_2:1:699,crossbowman_2:1:524,catapult_2:1:262,crossbowman_2:1:524</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,horseArcher_2:1:351,crossbowman_2:1:702,horseArcher_2:1:351,ballista_2:1:263,sentinel_2:1:527,ballista_2:1:263</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,crossbowman_2:1:710,ballista_2:1:355,crossbowman_2:1:710,sentinel_2:1:532,horseArcher_2:1:266,sentinel_2:1:532</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,sentinel_2:1:713,horseArcher_2:1:356,sentinel_2:1:713,crossbowman_2:1:535,ballista_2:1:267,crossbowman_2:1:535</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,catapult_2:1:360,swordsman_2:1:720,catapult_2:1:360,lancer_2:1:270,ranger_2:1:540,lancer_2:1:270</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,ranger_2:1:724,catapult_2:1:362,ranger_2:1:724,swordsman_2:1:543,lancer_2:1:271,swordsman_2:1:543</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,horseArcher_2:1:365,ranger_2:1:731,horseArcher_2:1:365,catapult_2:1:274,swordsman_2:1:549,catapult_2:1:274</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,ballista_2:1:367,swordsman_2:1:735,ballista_2:1:367,lancer_2:1:275,ranger_2:1:551,lancer_2:1:275</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,sentinel_2:1:742,lancer_2:1:371,sentinel_2:1:742,ranger_2:1:557,catapult_2:1:278,ranger_2:1:557</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,horseArcher_2:1:373,crossbowman_2:1:746,horseArcher_2:1:373,catapult_2:1:279,swordsman_2:1:559,catapult_2:1:279</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,crossbowman_2:1:753,ballista_2:1:376,crossbowman_2:1:753,swordsman_2:1:565,lancer_2:1:282,swordsman_2:1:565</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,sentinel_2:1:756,horseArcher_2:1:378,sentinel_2:1:756,ranger_2:1:567,catapult_2:1:283,ranger_2:1:567</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,ballista_2:1:382,sentinel_2:1:764,ballista_2:1:382,horseArcher_2:1:286,ranger_2:1:573,horseArcher_2:1:286</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,crossbowman_2:1:767,ballista_2:1:383,crossbowman_2:1:767,sentinel_2:1:576,lancer_2:1:288,sentinel_2:1:576</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,horseArcher_2:1:387,crossbowman_2:1:774,horseArcher_2:1:387,ballista_2:1:290,sentinel_2:1:581,ballista_2:1:290</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,ballista_2:1:389,sentinel_2:1:778,ballista_2:1:389,horseArcher_2:1:292,crossbowman_2:1:584,horseArcher_2:1:292</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,sentinel_2:1:785,horseArcher_2:1:392,sentinel_2:1:785,crossbowman_2:1:589,ballista_2:1:294,crossbowman_2:1:589</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,lancer_2:1:394,ranger_2:1:789,lancer_2:1:394,catapult_2:1:296,swordsman_2:1:592,catapult_2:1:296</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,ranger_2:1:796,catapult_2:1:398,ranger_2:1:796,swordsman_2:1:597,lancer_2:1:298,swordsman_2:1:597</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,swordsman_2:1:800,lancer_2:1:400,swordsman_2:1:800,ranger_2:1:600,catapult_2:1:300,ranger_2:1:600</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,ballista_2:1:403,swordsman_2:1:807,ballista_2:1:403,lancer_2:1:302,ranger_2:1:605,lancer_2:1:302</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,crossbowman_2:1:810,catapult_2:1:405,crossbowman_2:1:810,swordsman_2:1:608,lancer_2:1:304,swordsman_2:1:608</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,horseArcher_2:1:409,crossbowman_2:1:818,horseArcher_2:1:409,catapult_2:1:306,swordsman_2:1:613,catapult_2:1:306</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,ballista_2:1:410,sentinel_2:1:821,ballista_2:1:410,lancer_2:1:308,ranger_2:1:616,lancer_2:1:308</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,sentinel_2:1:828,horseArcher_2:1:414,sentinel_2:1:828,ranger_2:1:621,catapult_2:1:310,ranger_2:1:621</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,horseArcher_2:1:416,crossbowman_2:1:832,horseArcher_2:1:416,ballista_2:1:312,swordsman_2:1:624,ballista_2:1:312</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,crossbowman_2:1:839,ballista_2:1:419,crossbowman_2:1:839,sentinel_2:1:630,lancer_2:1:315,sentinel_2:1:630</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,sentinel_2:1:843,horseArcher_2:1:421,sentinel_2:1:843,crossbowman_2:1:632,catapult_2:1:316,crossbowman_2:1:632</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,ballista_2:1:425,sentinel_2:1:850,ballista_2:1:425,horseArcher_2:1:319,crossbowman_2:1:638,horseArcher_2:1:319</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,crossbowman_2:1:854,ballista_2:1:427,crossbowman_2:1:854,sentinel_2:1:640,horseArcher_2:1:320,sentinel_2:1:640</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,lancer_2:1:430,ranger_2:1:861,lancer_2:1:430,catapult_2:1:323,swordsman_2:1:646,catapult_2:1:323</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,catapult_2:1:432,swordsman_2:1:864,catapult_2:1:432,lancer_2:1:324,ranger_2:1:648,lancer_2:1:324</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,swordsman_2:1:872,lancer_2:1:436,swordsman_2:1:872,ranger_2:1:654,catapult_2:1:327,ranger_2:1:654</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,horseArcher_2:1:437,ranger_2:1:875,horseArcher_2:1:437,catapult_2:1:328,swordsman_2:1:657,catapult_2:1:328</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,crossbowman_2:1:882,catapult_2:1:441,crossbowman_2:1:882,swordsman_2:1:662,lancer_2:1:331,swordsman_2:1:662</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,sentinel_2:1:886,lancer_2:1:443,sentinel_2:1:886,ranger_2:1:665,catapult_2:1:332,ranger_2:1:665</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,ballista_2:1:446,sentinel_2:1:893,ballista_2:1:446,lancer_2:1:335,ranger_2:1:670,lancer_2:1:335</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,crossbowman_2:1:897,ballista_2:1:448,crossbowman_2:1:897,swordsman_2:1:673,lancer_2:1:336,swordsman_2:1:673</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,horseArcher_2:2:452,crossbowman_2:2:904,horseArcher_2:2:452,ballista_2:2:339,swordsman_2:2:678,ballista_2:2:339</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,ballista_2:2:454,sentinel_2:2:908,ballista_2:2:454,horseArcher_2:2:340,ranger_2:2:681,horseArcher_2:2:340</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,sentinel_2:2:915,horseArcher_2:2:457,sentinel_2:2:915,crossbowman_2:2:686,catapult_2:2:343,crossbowman_2:2:686</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,horseArcher_2:2:459,crossbowman_2:2:918,horseArcher_2:2:459,ballista_2:2:344,sentinel_2:2:689,ballista_2:2:344</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,crossbowman_2:2:926,ballista_2:2:463,crossbowman_2:2:926,sentinel_2:2:694,horseArcher_2:2:347,sentinel_2:2:694</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,sentinel_2:2:929,horseArcher_2:2:464,sentinel_2:2:929,crossbowman_2:2:697,ballista_2:2:348,crossbowman_2:2:697</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,catapult_2:2:468,swordsman_2:2:936,catapult_2:2:468,lancer_2:2:351,ranger_2:2:702,lancer_2:2:351</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,ranger_2:2:940,catapult_2:2:470,ranger_2:2:940,swordsman_2:2:705,lancer_2:2:352,swordsman_2:2:705</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,horseArcher_2:2:473,ranger_2:2:947,horseArcher_2:2:473,catapult_2:2:355,swordsman_2:2:711,catapult_2:2:355</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,ballista_2:2:475,swordsman_2:2:951,ballista_2:2:475,lancer_2:2:356,ranger_2:2:713,lancer_2:2:356</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,sentinel_2:2:958,lancer_2:2:479,sentinel_2:2:958,ranger_2:2:719,catapult_2:2:359,ranger_2:2:719</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,horseArcher_2:2:481,crossbowman_2:2:962,horseArcher_2:2:481,catapult_2:2:360,swordsman_2:2:721,catapult_2:2:360</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,crossbowman_2:2:969,ballista_2:2:484,crossbowman_2:2:969,swordsman_2:2:727,lancer_2:2:363,swordsman_2:2:727</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,sentinel_2:2:972,horseArcher_2:2:486,sentinel_2:2:972,ranger_2:2:729,catapult_2:2:364,ranger_2:2:729</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,ballista_2:2:490,sentinel_2:2:980,ballista_2:2:490,horseArcher_2:2:367,ranger_2:2:735,horseArcher_2:2:367</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,crossbowman_2:2:983,ballista_2:2:491,crossbowman_2:2:983,sentinel_2:2:738,lancer_2:2:369,sentinel_2:2:738</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,horseArcher_2:2:495,crossbowman_2:2:990,horseArcher_2:2:495,ballista_2:2:371,sentinel_2:2:743,ballista_2:2:371</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,ballista_2:2:497,sentinel_2:2:994,ballista_2:2:497,horseArcher_2:2:373,crossbowman_2:2:746,horseArcher_2:2:373</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,sentinel_2:2:1001,horseArcher_2:2:500,sentinel_2:2:1001,crossbowman_2:2:751,ballista_2:2:375,crossbowman_2:2:751</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,lancer_2:2:502,ranger_2:2:1005,lancer_2:2:502,catapult_2:2:377,swordsman_2:2:754,catapult_2:2:377</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,ranger_2:2:1012,catapult_2:2:506,ranger_2:2:1012,swordsman_2:2:759,lancer_2:2:379,swordsman_2:2:759</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,swordsman_2:2:1016,lancer_2:2:508,swordsman_2:2:1016,ranger_2:2:762,catapult_2:2:381,ranger_2:2:762</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,ballista_2:2:515,swordsman_2:2:1030,ballista_2:2:515,lancer_2:2:386,ranger_2:2:773,lancer_2:2:386</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,crossbowman_2:2:1037,catapult_2:2:518,crossbowman_2:2:1037,swordsman_2:2:778,lancer_2:2:389,swordsman_2:2:778</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,horseArcher_2:2:525,crossbowman_2:2:1051,horseArcher_2:2:525,catapult_2:2:394,swordsman_2:2:788,catapult_2:2:394</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,ballista_2:2:529,sentinel_2:2:1058,ballista_2:2:529,lancer_2:2:397,ranger_2:2:794,lancer_2:2:397</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,sentinel_2:2:1072,horseArcher_2:2:536,sentinel_2:2:1072,ranger_2:2:804,catapult_2:2:402,ranger_2:2:804</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,horseArcher_2:2:540,crossbowman_2:2:1080,horseArcher_2:2:540,ballista_2:2:405,swordsman_2:2:810,ballista_2:2:405</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,crossbowman_2:2:1094,ballista_2:2:547,crossbowman_2:2:1094,sentinel_2:2:821,lancer_2:2:410,sentinel_2:2:821</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,sentinel_2:2:1101,horseArcher_2:2:550,sentinel_2:2:1101,crossbowman_2:2:826,catapult_2:2:413,crossbowman_2:2:826</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,ballista_2:2:558,sentinel_2:2:1116,ballista_2:2:558,horseArcher_2:2:418,crossbowman_2:2:837,horseArcher_2:2:418</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,crossbowman_2:2:1123,ballista_2:2:561,crossbowman_2:2:1123,sentinel_2:2:843,horseArcher_2:2:421,sentinel_2:2:843</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,lancer_2:2:569,ranger_2:2:1138,lancer_2:2:569,catapult_2:2:427,swordsman_2:2:854,catapult_2:2:427</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,catapult_2:2:572,swordsman_2:2:1145,catapult_2:2:572,lancer_2:2:429,ranger_2:2:859,lancer_2:2:429</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,swordsman_2:2:1160,lancer_2:2:580,swordsman_2:2:1160,ranger_2:2:870,catapult_2:2:435,ranger_2:2:870</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,horseArcher_2:2:584,ranger_2:2:1168,horseArcher_2:2:584,catapult_2:2:438,swordsman_2:2:876,catapult_2:2:438</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,crossbowman_2:2:1183,catapult_2:2:591,crossbowman_2:2:1183,swordsman_2:2:887,lancer_2:2:443,swordsman_2:2:887</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,sentinel_2:2:1190,lancer_2:2:595,sentinel_2:2:1190,ranger_2:2:893,catapult_2:2:446,ranger_2:2:893</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,ballista_2:2:602,sentinel_2:2:1205,ballista_2:2:602,lancer_2:2:452,ranger_2:2:904,lancer_2:2:452</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,crossbowman_2:2:1213,ballista_2:2:606,crossbowman_2:2:1213,swordsman_2:2:910,lancer_2:2:455,swordsman_2:2:910</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,horseArcher_2:2:614,crossbowman_2:2:1228,horseArcher_2:2:614,ballista_2:2:460,swordsman_2:2:921,ballista_2:2:460</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,ballista_2:2:618,sentinel_2:2:1236,ballista_2:2:618,horseArcher_2:2:463,ranger_2:2:927,horseArcher_2:2:463</t>
+  </si>
+  <si>
+    <t>redDragon:3:25,sentinel_2:3:1251,horseArcher_2:3:625,sentinel_2:3:1251,crossbowman_2:3:939,catapult_2:3:469,crossbowman_2:3:939</t>
+  </si>
+  <si>
+    <t>redDragon:3:25,horseArcher_2:3:629,crossbowman_2:3:1259,horseArcher_2:3:629,ballista_2:3:472,sentinel_2:3:945,ballista_2:3:472</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,crossbowman_2:3:1275,ballista_2:3:637,crossbowman_2:3:1275,sentinel_2:3:956,horseArcher_2:3:478,sentinel_2:3:956</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,sentinel_2:3:1283,horseArcher_2:3:641,sentinel_2:3:1283,crossbowman_2:3:962,ballista_2:3:481,crossbowman_2:3:962</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,catapult_2:3:649,swordsman_2:3:1298,catapult_2:3:649,lancer_2:3:487,ranger_2:3:974,lancer_2:3:487</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,ranger_2:3:1306,catapult_2:3:653,ranger_2:3:1306,swordsman_2:3:980,lancer_2:3:490,swordsman_2:3:980</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,horseArcher_2:3:661,ranger_2:3:1322,horseArcher_2:3:661,catapult_2:3:496,swordsman_2:3:992,catapult_2:3:496</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,ballista_2:3:665,swordsman_2:3:1330,ballista_2:3:665,lancer_2:3:499,ranger_2:3:998,lancer_2:3:499</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,sentinel_2:3:1346,lancer_2:3:673,sentinel_2:3:1346,ranger_2:3:1010,catapult_2:3:505,ranger_2:3:1010</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,horseArcher_2:3:677,crossbowman_2:3:1354,horseArcher_2:3:677,catapult_2:3:508,swordsman_2:3:1016,catapult_2:3:508</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,crossbowman_2:3:1370,ballista_2:3:685,crossbowman_2:3:1370,swordsman_2:3:1028,lancer_2:3:514,swordsman_2:3:1028</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,sentinel_2:3:1379,horseArcher_2:3:689,sentinel_2:3:1379,ranger_2:3:1034,catapult_2:3:517,ranger_2:3:1034</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,ballista_2:3:697,sentinel_2:3:1395,ballista_2:3:697,horseArcher_2:3:523,ranger_2:3:1046,horseArcher_2:3:523</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,crossbowman_2:3:1403,ballista_2:3:701,crossbowman_2:3:1403,sentinel_2:3:1052,lancer_2:3:526,sentinel_2:3:1052</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,horseArcher_2:3:710,crossbowman_2:3:1420,horseArcher_2:3:710,ballista_2:3:532,sentinel_2:3:1065,ballista_2:3:532</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,ballista_2:3:714,sentinel_2:3:1428,ballista_2:3:714,horseArcher_2:3:535,crossbowman_2:3:1071,horseArcher_2:3:535</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,sentinel_2:3:1444,horseArcher_2:3:722,sentinel_2:3:1444,crossbowman_2:3:1083,ballista_2:3:541,crossbowman_2:3:1083</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,lancer_2:3:726,ranger_2:3:1453,lancer_2:3:726,catapult_2:3:545,swordsman_2:3:1090,catapult_2:3:545</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,ranger_2:3:1470,catapult_2:3:735,ranger_2:3:1470,swordsman_2:3:1102,lancer_2:3:551,swordsman_2:3:1102</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,swordsman_2:3:1478,lancer_2:3:739,swordsman_2:3:1478,ranger_2:3:1109,catapult_2:3:554,ranger_2:3:1109</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,ballista_2:3:747,swordsman_2:3:1495,ballista_2:3:747,lancer_2:3:560,ranger_2:3:1121,lancer_2:3:560</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,crossbowman_2:3:1503,catapult_2:3:751,crossbowman_2:3:1503,swordsman_2:3:1128,lancer_2:3:564,swordsman_2:3:1128</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,horseArcher_2:3:760,crossbowman_2:3:1520,horseArcher_2:3:760,catapult_2:3:570,swordsman_2:3:1140,catapult_2:3:570</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,ballista_2:3:764,sentinel_2:3:1529,ballista_2:3:764,lancer_2:3:573,ranger_2:3:1147,lancer_2:3:573</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,sentinel_2:3:1546,horseArcher_2:3:773,sentinel_2:3:1546,ranger_2:3:1160,catapult_2:3:580,ranger_2:3:1160</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,horseArcher_2:3:777,crossbowman_2:3:1555,horseArcher_2:3:777,ballista_2:3:583,swordsman_2:3:1166,ballista_2:3:583</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,crossbowman_2:3:1572,ballista_2:3:786,crossbowman_2:3:1572,sentinel_2:3:1179,lancer_2:3:589,sentinel_2:3:1179</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,sentinel_2:3:1581,horseArcher_2:3:790,sentinel_2:3:1581,crossbowman_2:3:1186,catapult_2:3:593,crossbowman_2:3:1186</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,ballista_2:3:799,sentinel_2:3:1598,ballista_2:3:799,horseArcher_2:3:599,crossbowman_2:3:1199,horseArcher_2:3:599</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,crossbowman_2:3:1607,ballista_2:3:803,crossbowman_2:3:1607,sentinel_2:3:1205,horseArcher_2:3:602,sentinel_2:3:1205</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,lancer_2:3:812,ranger_2:3:1625,lancer_2:3:812,catapult_2:3:609,swordsman_2:3:1219,catapult_2:3:609</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,catapult_2:3:816,swordsman_2:3:1633,catapult_2:3:816,lancer_2:3:612,ranger_2:3:1225,lancer_2:3:612</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,swordsman_2:3:1651,lancer_2:3:825,swordsman_2:3:1651,ranger_2:3:1239,catapult_2:3:619,ranger_2:3:1239</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,horseArcher_2:3:830,ranger_2:3:1660,horseArcher_2:3:830,catapult_2:3:622,swordsman_2:3:1245,catapult_2:3:622</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,crossbowman_2:3:1678,catapult_2:3:839,crossbowman_2:3:1678,swordsman_2:3:1259,lancer_2:3:629,swordsman_2:3:1259</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,sentinel_2:3:1687,lancer_2:3:843,sentinel_2:3:1687,ranger_2:3:1265,catapult_2:3:632,ranger_2:3:1265</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,ballista_2:3:852,sentinel_2:3:1705,ballista_2:3:852,lancer_2:3:639,ranger_2:3:1279,lancer_2:3:639</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,crossbowman_2:3:1714,ballista_2:3:857,crossbowman_2:3:1714,swordsman_2:3:1286,lancer_2:3:643,swordsman_2:3:1286</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,horseArcher_2:3:866,crossbowman_2:3:1732,horseArcher_2:3:866,ballista_2:3:649,swordsman_2:3:1299,ballista_2:3:649</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,ballista_2:3:870,sentinel_2:3:1741,ballista_2:3:870,horseArcher_2:3:653,ranger_2:3:1306,horseArcher_2:3:653</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,sentinel_2:3:1760,horseArcher_2:3:880,sentinel_2:3:1760,crossbowman_2:3:1320,catapult_2:3:660,crossbowman_2:3:1320</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,horseArcher_2:3:884,crossbowman_2:3:1769,horseArcher_2:3:884,ballista_2:3:663,sentinel_2:3:1327,ballista_2:3:663</t>
+  </si>
+  <si>
+    <t>blueDragon:3:30,crossbowman_3:1:1787,ballista_3:1:893,crossbowman_3:1:1787,sentinel_3:1:1341,horseArcher_3:1:670,sentinel_3:1:1341</t>
+  </si>
+  <si>
+    <t>blueDragon:3:30,sentinel_3:1:1797,horseArcher_3:1:898,sentinel_3:1:1797,crossbowman_3:1:1348,ballista_3:1:674,crossbowman_3:1:1348</t>
+  </si>
+  <si>
+    <t>blueDragon:3:30,catapult_3:1:907,swordsman_3:1:1815,catapult_3:1:907,lancer_3:1:681,ranger_3:1:1362,lancer_3:1:681</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,ranger_3:1:1825,catapult_3:1:912,ranger_3:1:1825,swordsman_3:1:1369,lancer_3:1:684,swordsman_3:1:1369</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,horseArcher_3:1:921,ranger_3:1:1843,horseArcher_3:1:921,catapult_3:1:691,swordsman_3:1:1383,catapult_3:1:691</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,ballista_3:1:926,swordsman_3:1:1853,ballista_3:1:926,lancer_3:1:695,ranger_3:1:1390,lancer_3:1:695</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,sentinel_3:1:1872,lancer_3:1:936,sentinel_3:1:1872,ranger_3:1:1404,catapult_3:1:702,ranger_3:1:1404</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,horseArcher_3:1:940,crossbowman_3:1:1881,horseArcher_3:1:940,catapult_3:1:705,swordsman_3:1:1411,catapult_3:1:705</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,crossbowman_3:1:1900,ballista_3:1:950,crossbowman_3:1:1900,swordsman_3:1:1425,lancer_3:1:712,swordsman_3:1:1425</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,sentinel_3:1:1910,horseArcher_3:1:955,sentinel_3:1:1910,ranger_3:1:1433,catapult_3:1:716,ranger_3:1:1433</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,ballista_3:1:964,sentinel_3:1:1929,ballista_3:1:964,horseArcher_3:1:723,ranger_3:1:1447,horseArcher_3:1:723</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,crossbowman_3:1:1939,ballista_3:1:969,crossbowman_3:1:1939,sentinel_3:1:1454,lancer_3:1:727,sentinel_3:1:1454</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,horseArcher_3:1:979,crossbowman_3:1:1958,horseArcher_3:1:979,ballista_3:1:734,sentinel_3:1:1469,ballista_3:1:734</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,ballista_3:1:984,sentinel_3:1:1968,ballista_3:1:984,horseArcher_3:1:738,crossbowman_3:1:1476,horseArcher_3:1:738</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,sentinel_3:1:1987,horseArcher_3:1:993,sentinel_3:1:1987,crossbowman_3:1:1491,ballista_3:1:745,crossbowman_3:1:1491</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,lancer_3:1:998,ranger_3:1:1997,lancer_3:1:998,catapult_3:1:749,swordsman_3:1:1498,catapult_3:1:749</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,ranger_3:1:2017,catapult_3:1:1008,ranger_3:1:2017,swordsman_3:1:1513,lancer_3:1:756,swordsman_3:1:1513</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,swordsman_3:1:2027,lancer_3:1:1013,swordsman_3:1:2027,ranger_3:1:1520,catapult_3:1:760,ranger_3:1:1520</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,ballista_3:1:1023,swordsman_3:1:2046,ballista_3:1:1023,lancer_3:1:767,ranger_3:1:1535,lancer_3:1:767</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,crossbowman_3:1:2056,catapult_3:1:1028,crossbowman_3:1:2056,swordsman_3:1:1542,lancer_3:1:771,swordsman_3:1:1542</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,horseArcher_3:1:1038,crossbowman_3:1:2076,horseArcher_3:1:1038,catapult_3:1:778,swordsman_3:1:1557,catapult_3:1:778</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,ballista_3:1:1043,sentinel_3:1:2086,ballista_3:1:1043,lancer_3:1:782,ranger_3:1:1565,lancer_3:1:782</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,sentinel_3:1:2106,horseArcher_3:1:1053,sentinel_3:1:2106,ranger_3:1:1580,catapult_3:1:790,ranger_3:1:1580</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,horseArcher_3:1:1058,crossbowman_3:1:2116,horseArcher_3:1:1058,ballista_3:1:793,swordsman_3:1:1587,ballista_3:1:793</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,crossbowman_3:1:2137,ballista_3:1:1068,crossbowman_3:1:2137,sentinel_3:1:1603,lancer_3:1:801,sentinel_3:1:1603</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,sentinel_3:1:2147,horseArcher_3:1:1073,sentinel_3:1:2147,crossbowman_3:1:1610,catapult_3:1:805,crossbowman_3:1:1610</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,ballista_3:1:1083,sentinel_3:1:2167,ballista_3:1:1083,horseArcher_3:1:812,crossbowman_3:1:1625,horseArcher_3:1:812</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,crossbowman_3:1:2177,ballista_3:1:1088,crossbowman_3:1:2177,sentinel_3:1:1633,horseArcher_3:1:816,sentinel_3:1:1633</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,lancer_3:2:1099,ranger_3:2:2198,lancer_3:2:1099,catapult_3:2:824,swordsman_3:2:1649,catapult_3:2:824</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,catapult_3:2:1104,swordsman_3:2:2208,catapult_3:2:1104,lancer_3:2:828,ranger_3:2:1656,lancer_3:2:828</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,swordsman_3:2:2229,lancer_3:2:1114,swordsman_3:2:2229,ranger_3:2:1672,catapult_3:2:836,ranger_3:2:1672</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,horseArcher_3:2:1119,ranger_3:2:2239,horseArcher_3:2:1119,catapult_3:2:839,swordsman_3:2:1679,catapult_3:2:839</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,crossbowman_3:2:2260,catapult_3:2:1130,crossbowman_3:2:2260,swordsman_3:2:1695,lancer_3:2:847,swordsman_3:2:1695</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,sentinel_3:2:2270,lancer_3:2:1135,sentinel_3:2:2270,ranger_3:2:1703,catapult_3:2:851,ranger_3:2:1703</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,ballista_3:2:1145,sentinel_3:2:2291,ballista_3:2:1145,lancer_3:2:859,ranger_3:2:1719,lancer_3:2:859</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,crossbowman_3:2:2302,ballista_3:2:1151,crossbowman_3:2:2302,swordsman_3:2:1726,lancer_3:2:863,swordsman_3:2:1726</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,horseArcher_3:2:1161,crossbowman_3:2:2323,horseArcher_3:2:1161,ballista_3:2:871,swordsman_3:2:1742,ballista_3:2:871</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,ballista_3:2:1166,sentinel_3:2:2333,ballista_3:2:1166,horseArcher_3:2:875,ranger_3:2:1750,horseArcher_3:2:875</t>
+  </si>
+  <si>
+    <t>blueDragon:4:35,sentinel_3:2:2355,horseArcher_3:2:1177,sentinel_3:2:2355,crossbowman_3:2:1766,catapult_3:2:883,crossbowman_3:2:1766</t>
+  </si>
+  <si>
+    <t>blueDragon:4:35,horseArcher_3:2:1182,crossbowman_3:2:2365,horseArcher_3:2:1182,ballista_3:2:887,sentinel_3:2:1774,ballista_3:2:887</t>
+  </si>
+  <si>
+    <t>blueDragon:4:35,crossbowman_3:2:2387,ballista_3:2:1193,crossbowman_3:2:2387,sentinel_3:2:1790,horseArcher_3:2:895,sentinel_3:2:1790</t>
+  </si>
+  <si>
+    <t>blueDragon:4:35,sentinel_3:2:2397,horseArcher_3:2:1198,sentinel_3:2:2397,crossbowman_3:2:1798,ballista_3:2:899,crossbowman_3:2:1798</t>
+  </si>
+  <si>
+    <t>greenDragon:4:35,catapult_3:2:1209,swordsman_3:2:2419,catapult_3:2:1209,lancer_3:2:907,ranger_3:2:1814,lancer_3:2:907</t>
+  </si>
+  <si>
+    <t>greenDragon:4:35,ranger_3:2:2430,catapult_3:2:1215,ranger_3:2:2430,swordsman_3:2:1822,lancer_3:2:911,swordsman_3:2:1822</t>
+  </si>
+  <si>
+    <t>greenDragon:4:35,horseArcher_3:2:1225,ranger_3:2:2451,horseArcher_3:2:1225,catapult_3:2:919,swordsman_3:2:1839,catapult_3:2:919</t>
+  </si>
+  <si>
+    <t>greenDragon:4:35,ballista_3:2:1231,swordsman_3:2:2462,ballista_3:2:1231,lancer_3:2:923,ranger_3:2:1847,lancer_3:2:923</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,sentinel_3:2:2484,lancer_3:2:1242,sentinel_3:2:2484,ranger_3:2:1863,catapult_3:2:931,ranger_3:2:1863</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,horseArcher_3:2:1247,crossbowman_3:2:2495,horseArcher_3:2:1247,catapult_3:2:935,swordsman_3:2:1871,catapult_3:2:935</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,crossbowman_3:2:2517,ballista_3:2:1258,crossbowman_3:2:2517,swordsman_3:2:1888,lancer_3:2:944,swordsman_3:2:1888</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,sentinel_3:2:2528,horseArcher_3:2:1264,sentinel_3:2:2528,ranger_3:2:1896,catapult_3:2:948,ranger_3:2:1896</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,ballista_3:2:1275,sentinel_3:2:2550,ballista_3:2:1275,horseArcher_3:2:956,ranger_3:2:1913,horseArcher_3:2:956</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,crossbowman_3:2:2561,ballista_3:2:1280,crossbowman_3:2:2561,sentinel_3:2:1921,lancer_3:2:960,sentinel_3:2:1921</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,horseArcher_3:2:1291,crossbowman_3:2:2583,horseArcher_3:2:1291,ballista_3:2:968,sentinel_3:2:1937,ballista_3:2:968</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,ballista_3:2:1297,sentinel_3:2:2594,ballista_3:2:1297,horseArcher_3:2:973,crossbowman_3:2:1946,horseArcher_3:2:973</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,sentinel_3:2:2617,horseArcher_3:2:1308,sentinel_3:2:2617,crossbowman_3:2:1963,ballista_3:2:981,crossbowman_3:2:1963</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,lancer_3:2:1314,ranger_3:2:2628,lancer_3:2:1314,catapult_3:2:985,swordsman_3:2:1971,catapult_3:2:985</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,ranger_3:3:2650,catapult_3:3:1325,ranger_3:3:2650,swordsman_3:3:1988,lancer_3:3:994,swordsman_3:3:1988</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,swordsman_3:3:2662,lancer_3:3:1331,swordsman_3:3:2662,ranger_3:3:1996,catapult_3:3:998,ranger_3:3:1996</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,ballista_3:3:1342,swordsman_3:3:2684,ballista_3:3:1342,lancer_3:3:1006,ranger_3:3:2013,lancer_3:3:1006</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,crossbowman_3:3:2696,catapult_3:3:1348,crossbowman_3:3:2696,swordsman_3:3:2022,lancer_3:3:1011,swordsman_3:3:2022</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,horseArcher_3:3:1359,crossbowman_3:3:2718,horseArcher_3:3:1359,catapult_3:3:1019,swordsman_3:3:2039,catapult_3:3:1019</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,ballista_3:3:1365,sentinel_3:3:2730,ballista_3:3:1365,lancer_3:3:1024,ranger_3:3:2048,lancer_3:3:1024</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,sentinel_3:3:2753,horseArcher_3:3:1376,sentinel_3:3:2753,ranger_3:3:2065,catapult_3:3:1032,ranger_3:3:2065</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,horseArcher_3:3:1382,crossbowman_3:3:2764,horseArcher_3:3:1382,ballista_3:3:1036,swordsman_3:3:2073,ballista_3:3:1036</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,crossbowman_3:3:2787,ballista_3:3:1393,crossbowman_3:3:2787,sentinel_3:3:2091,lancer_3:3:1045,sentinel_3:3:2091</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,sentinel_3:3:2799,horseArcher_3:3:1399,sentinel_3:3:2799,crossbowman_3:3:2099,catapult_3:3:1049,crossbowman_3:3:2099</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,ballista_3:3:1411,sentinel_3:3:2822,ballista_3:3:1411,horseArcher_3:3:1058,crossbowman_3:3:2117,horseArcher_3:3:1058</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,crossbowman_3:3:2834,ballista_3:3:1417,crossbowman_3:3:2834,sentinel_3:3:2126,horseArcher_3:3:1063,sentinel_3:3:2126</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,lancer_3:3:1428,ranger_3:3:2857,lancer_3:3:1428,catapult_3:3:1071,swordsman_3:3:2143,catapult_3:3:1071</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,catapult_3:3:1434,swordsman_3:3:2869,catapult_3:3:1434,lancer_3:3:1076,ranger_3:3:2152,lancer_3:3:1076</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,swordsman_3:3:2892,lancer_3:3:1446,swordsman_3:3:2892,ranger_3:3:2169,catapult_3:3:1084,ranger_3:3:2169</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,horseArcher_3:3:1456,ranger_3:3:2913,horseArcher_3:3:1456,catapult_3:3:1092,swordsman_3:3:2185,catapult_3:3:1092</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,crossbowman_3:3:2954,catapult_3:3:1477,crossbowman_3:3:2954,swordsman_3:3:2216,lancer_3:3:1108,swordsman_3:3:2216</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,sentinel_3:3:2975,lancer_3:3:1487,sentinel_3:3:2975,ranger_3:3:2231,catapult_3:3:1115,ranger_3:3:2231</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,ballista_3:3:1508,sentinel_3:3:3016,ballista_3:3:1508,lancer_3:3:1131,ranger_3:3:2262,lancer_3:3:1131</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,crossbowman_3:3:3037,ballista_3:3:1518,crossbowman_3:3:3037,swordsman_3:3:2278,lancer_3:3:1139,swordsman_3:3:2278</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,horseArcher_3:3:1539,crossbowman_3:3:3079,horseArcher_3:3:1539,ballista_3:3:1154,swordsman_3:3:2309,ballista_3:3:1154</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,ballista_3:3:1550,sentinel_3:3:3100,ballista_3:3:1550,horseArcher_3:3:1162,ranger_3:3:2325,horseArcher_3:3:1162</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,sentinel_3:3:3142,horseArcher_3:3:1571,sentinel_3:3:3142,crossbowman_3:3:2357,catapult_3:3:1178,crossbowman_3:3:2357</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,horseArcher_3:3:1582,crossbowman_3:3:3164,horseArcher_3:3:1582,ballista_3:3:1186,sentinel_3:3:2373,ballista_3:3:1186</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,crossbowman_3:3:3206,ballista_3:3:1603,crossbowman_3:3:3206,sentinel_3:3:2405,horseArcher_3:3:1202,sentinel_3:3:2405</t>
+  </si>
+  <si>
+    <t>greenDragon:4:40,sentinel_3:3:3228,horseArcher_3:3:1614,sentinel_3:3:3228,crossbowman_3:3:2421,ballista_3:3:1210,crossbowman_3:3:2421</t>
+  </si>
+  <si>
+    <t>greenDragon:4:40,catapult_3:3:1635,swordsman_3:3:3270,catapult_3:3:1635,lancer_3:3:1226,ranger_3:3:2453,lancer_3:3:1226</t>
+  </si>
+  <si>
+    <t>greenDragon:4:40,ranger_3:3:3292,catapult_3:3:1646,ranger_3:3:3292,swordsman_3:3:2469,lancer_3:3:1234,swordsman_3:3:2469</t>
+  </si>
+  <si>
     <t>blueDragon:1:1,lancer_1:1:2</t>
   </si>
   <si>
-    <t>blueDragon:1:1,catapult_1:1:4,swordsman_1:1:8</t>
-  </si>
-  <si>
-    <t>blueDragon:1:1,skeletonArcher:3:4</t>
-  </si>
-  <si>
-    <t>blueDragon:1:1,swordsman_1:1:8,lancer_1:1:4,swordsman_1:1:8</t>
-  </si>
-  <si>
-    <t>blueDragon:1:1,horseArcher_1:1:5,ranger_1:1:11,horseArcher_1:1:5</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,meatWagon:3:3,skeletonWarrior:3:6,meatWagon:3:3</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,crossbowman_1:1:18,catapult_1:1:9,crossbowman_1:1:18</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,sentinel_1:1:22,lancer_1:1:11,sentinel_1:1:22</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,deathKnight:3:5,skeletonArcher:3:11,deathKnight:3:5</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,ballista_1:1:14,sentinel_1:1:29,ballista_1:1:14</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,crossbowman_1:1:33,ballista_1:1:16,crossbowman_1:1:33</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,skeletonWarrior:3:15,deathKnight:3:7,skeletonWarrior:3:15</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,horseArcher_1:1:20,crossbowman_1:1:40,horseArcher_1:1:20</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,ballista_1:1:22,sentinel_1:1:44,ballista_1:1:22</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,skeletonArcher:3:19,meatWagon:3:9,skeletonArcher:3:19</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,sentinel_1:1:51,horseArcher_1:1:25,sentinel_1:1:51</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,horseArcher_1:1:27,crossbowman_1:1:54,horseArcher_1:1:27</t>
-  </si>
-  <si>
-    <t>blueDragon:1:2,meatWagon:3:12,skeletonWarrior:3:24,meatWagon:3:12</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,crossbowman_1:1:62,ballista_1:1:31,crossbowman_1:1:62</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,sentinel_1:1:65,horseArcher_1:1:32,sentinel_1:1:65</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,deathKnight:3:14,skeletonArcher:3:28,deathKnight:3:14</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,catapult_1:1:36,swordsman_1:1:72,catapult_1:1:36,lancer_1:1:27</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,ranger_1:1:76,catapult_1:1:38,ranger_1:1:76,swordsman_1:1:57</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,skeletonWarrior:3:32,deathKnight:3:16,skeletonWarrior:3:32,skeletonArcher:3:24</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,horseArcher_1:1:41,ranger_1:1:83,horseArcher_1:1:41,catapult_1:1:31</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,ballista_1:1:43,swordsman_1:1:87,ballista_1:1:43,lancer_1:1:32</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,skeletonArcher:3:36,meatWagon:3:18,skeletonArcher:3:36,skeletonWarrior:3:27</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,sentinel_1:1:94,lancer_1:1:47,sentinel_1:1:94,ranger_1:1:71</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,horseArcher_1:1:49,crossbowman_1:1:98,horseArcher_1:1:49,catapult_1:1:36</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,meatWagon:3:20,skeletonWarrior:3:41,meatWagon:3:20,deathKnight:3:15</t>
-  </si>
-  <si>
-    <t>blueDragon:1:3,crossbowman_1:1:105,ballista_1:1:52,crossbowman_1:1:105,swordsman_1:1:79</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,sentinel_1:1:108,horseArcher_1:1:54,sentinel_1:1:108,ranger_1:1:81</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,deathKnight:3:22,skeletonArcher:3:45,deathKnight:3:22,meatWagon:3:17</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,ballista_1:1:58,sentinel_1:1:116,ballista_1:1:58,horseArcher_1:1:43</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,crossbowman_1:1:119,ballista_1:1:59,crossbowman_1:1:119,sentinel_1:1:90</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,skeletonWarrior:3:49,deathKnight:3:24,skeletonWarrior:3:49,skeletonArcher:3:37</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,horseArcher_1:1:63,crossbowman_1:1:126,horseArcher_1:1:63,ballista_1:1:47</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,ballista_1:1:65,sentinel_1:1:130,ballista_1:1:65,horseArcher_1:1:49</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,skeletonArcher:3:54,meatWagon:3:27,skeletonArcher:3:54,skeletonWarrior:3:41</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,sentinel_1:1:137,horseArcher_1:1:68,sentinel_1:1:137,crossbowman_1:1:103</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,lancer_1:1:70,ranger_1:1:141,lancer_1:1:70,catapult_1:1:53</t>
-  </si>
-  <si>
-    <t>blueDragon:1:4,meatWagon:3:29,skeletonWarrior:3:58,meatWagon:3:29,deathKnight:3:22</t>
-  </si>
-  <si>
-    <t>greenDragon:1:4,ranger_1:1:148,catapult_1:1:74,ranger_1:1:148,swordsman_1:1:111,lancer_1:1:55</t>
-  </si>
-  <si>
-    <t>greenDragon:1:4,swordsman_1:1:152,lancer_1:1:76,swordsman_1:1:152,ranger_1:1:114,catapult_1:1:57</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,deathKnight:3:31,skeletonArcher:3:62,deathKnight:3:31,meatWagon:3:23,skeletonWarrior:3:47</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,ballista_1:1:79,swordsman_1:1:159,ballista_1:1:79,lancer_1:1:59,ranger_1:1:119</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,crossbowman_1:1:162,catapult_1:1:81,crossbowman_1:1:162,swordsman_1:1:122,lancer_1:1:61</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,skeletonWarrior:3:67,deathKnight:3:33,skeletonWarrior:3:67,skeletonArcher:3:50,meatWagon:3:25</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,horseArcher_1:1:85,crossbowman_1:1:170,horseArcher_1:1:85,catapult_1:1:63,swordsman_1:1:127</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,ballista_1:1:86,sentinel_1:1:173,ballista_1:1:86,lancer_1:1:65,ranger_1:1:130</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,skeletonArcher:3:71,meatWagon:3:35,skeletonArcher:3:71,skeletonWarrior:3:53,deathKnight:3:26</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,sentinel_1:1:180,horseArcher_1:1:90,sentinel_1:1:180,ranger_1:1:135,catapult_1:1:67</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,horseArcher_1:1:92,crossbowman_1:1:184,horseArcher_1:1:92,ballista_1:1:69,swordsman_1:1:138</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,meatWagon:3:37,skeletonWarrior:3:75,meatWagon:3:37,deathKnight:3:28,skeletonArcher:3:57</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,crossbowman_1:1:191,ballista_1:1:95,crossbowman_1:1:191,sentinel_1:1:144,lancer_1:1:72</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,sentinel_1:1:195,horseArcher_1:1:97,sentinel_1:1:195,crossbowman_1:1:146,catapult_1:1:73</t>
-  </si>
-  <si>
-    <t>greenDragon:1:5,deathKnight:3:40,skeletonArcher:3:80,deathKnight:3:40,meatWagon:3:30,skeletonWarrior:3:60</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,ballista_1:1:101,sentinel_1:1:202,ballista_1:1:101,horseArcher_1:1:76,crossbowman_1:1:152</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,crossbowman_1:1:206,ballista_1:1:103,crossbowman_1:1:206,sentinel_1:1:154,horseArcher_1:1:77</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,skeletonWarrior:3:84,deathKnight:3:42,skeletonWarrior:3:84,skeletonArcher:3:63,meatWagon:3:31</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,lancer_1:1:106,ranger_1:1:213,lancer_1:1:106,catapult_1:1:80,swordsman_1:1:160</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,catapult_1:1:108,swordsman_1:1:216,catapult_1:1:108,lancer_1:1:81,ranger_1:1:162</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,skeletonArcher:3:88,meatWagon:3:44,skeletonArcher:3:88,skeletonWarrior:3:66,deathKnight:3:33</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,swordsman_1:2:224,lancer_1:2:112,swordsman_1:2:224,ranger_1:2:168,catapult_1:2:84,ranger_1:2:168</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,horseArcher_1:2:113,ranger_1:2:227,horseArcher_1:2:113,catapult_1:2:85,swordsman_1:2:171,catapult_1:2:85</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,meatWagon:3:69,skeletonWarrior:3:139,meatWagon:3:69,deathKnight:3:52,skeletonArcher:3:104,deathKnight:3:52</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,crossbowman_1:2:234,catapult_1:2:117,crossbowman_1:2:234,swordsman_1:2:176,lancer_1:2:88,swordsman_1:2:176</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,sentinel_1:2:238,lancer_1:2:119,sentinel_1:2:238,ranger_1:2:179,catapult_1:2:89,ranger_1:2:179</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,deathKnight:3:72,skeletonArcher:3:145,deathKnight:3:72,meatWagon:3:54,skeletonWarrior:3:109,meatWagon:3:54</t>
-  </si>
-  <si>
-    <t>greenDragon:1:6,ballista_1:2:122,sentinel_1:2:245,ballista_1:2:122,lancer_1:2:92,ranger_1:2:184,lancer_1:2:92</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,crossbowman_1:2:249,ballista_1:2:124,crossbowman_1:2:249,swordsman_1:2:187,lancer_1:2:93,swordsman_1:2:187</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,skeletonWarrior:3:152,deathKnight:3:76,skeletonWarrior:3:152,skeletonArcher:3:114,meatWagon:3:57,skeletonArcher:3:114</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,horseArcher_1:2:128,crossbowman_1:2:256,horseArcher_1:2:128,ballista_1:2:96,swordsman_1:2:192,ballista_1:2:96</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,ballista_1:2:130,sentinel_1:2:260,ballista_1:2:130,horseArcher_1:2:97,ranger_1:2:195,horseArcher_1:2:97</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,skeletonArcher:3:158,meatWagon:3:79,skeletonArcher:3:158,skeletonWarrior:3:119,deathKnight:3:59,skeletonWarrior:3:119</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,sentinel_1:2:267,horseArcher_1:2:133,sentinel_1:2:267,crossbowman_1:2:200,catapult_1:2:100,crossbowman_1:2:200</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,horseArcher_1:2:135,crossbowman_1:2:270,horseArcher_1:2:135,ballista_1:2:101,sentinel_1:2:203,ballista_1:2:101</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,meatWagon:3:82,skeletonWarrior:3:165,meatWagon:3:82,deathKnight:3:62,skeletonArcher:3:124,deathKnight:3:62</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,crossbowman_1:2:278,ballista_1:2:139,crossbowman_1:2:278,sentinel_1:2:208,horseArcher_1:2:104,sentinel_1:2:208</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,sentinel_1:2:281,horseArcher_1:2:140,sentinel_1:2:281,crossbowman_1:2:211,ballista_1:2:105,crossbowman_1:2:211</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,deathKnight:3:85,skeletonArcher:3:171,deathKnight:3:85,meatWagon:3:64,skeletonWarrior:3:129,meatWagon:3:64</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,catapult_1:2:144,swordsman_1:2:288,catapult_1:2:144,lancer_1:2:108,ranger_1:2:216,lancer_1:2:108</t>
-  </si>
-  <si>
-    <t>greenDragon:1:7,ranger_1:2:292,catapult_1:2:146,ranger_1:2:292,swordsman_1:2:219,lancer_1:2:109,swordsman_1:2:219</t>
-  </si>
-  <si>
-    <t>greenDragon:1:8,skeletonWarrior:3:178,deathKnight:3:89,skeletonWarrior:3:178,skeletonArcher:3:133,meatWagon:3:66,skeletonArcher:3:133</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,horseArcher_1:2:149,ranger_1:2:299,horseArcher_1:2:149,catapult_1:2:112,swordsman_1:2:225,catapult_1:2:112</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,ballista_1:2:151,swordsman_1:2:303,ballista_1:2:151,lancer_1:2:113,ranger_1:2:227,lancer_1:2:113</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,skeletonArcher:3:184,meatWagon:3:92,skeletonArcher:3:184,skeletonWarrior:3:138,deathKnight:3:69,skeletonWarrior:3:138</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,sentinel_1:2:310,lancer_1:2:155,sentinel_1:2:310,ranger_1:2:233,catapult_1:2:116,ranger_1:2:233</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,horseArcher_1:2:157,crossbowman_1:2:314,horseArcher_1:2:157,catapult_1:2:117,swordsman_1:2:235,catapult_1:2:117</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,meatWagon:3:95,skeletonWarrior:3:191,meatWagon:3:95,deathKnight:3:71,skeletonArcher:3:143,deathKnight:3:71</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,crossbowman_1:2:321,ballista_1:2:160,crossbowman_1:2:321,swordsman_1:2:241,lancer_1:2:120,swordsman_1:2:241</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,sentinel_1:2:324,horseArcher_1:2:162,sentinel_1:2:324,ranger_1:2:243,catapult_1:2:121,ranger_1:2:243</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,deathKnight:3:98,skeletonArcher:3:197,deathKnight:3:98,meatWagon:3:74,skeletonWarrior:3:148,meatWagon:3:74</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,ballista_1:2:166,sentinel_1:2:332,ballista_1:2:166,horseArcher_1:2:124,ranger_1:2:249,horseArcher_1:2:124</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,crossbowman_1:2:335,ballista_1:2:167,crossbowman_1:2:335,sentinel_1:2:252,lancer_1:2:126,sentinel_1:2:252</t>
-  </si>
-  <si>
-    <t>redDragon:1:8,skeletonWarrior:3:204,deathKnight:3:102,skeletonWarrior:3:204,skeletonArcher:3:153,meatWagon:3:76,skeletonArcher:3:153</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,horseArcher_1:2:171,crossbowman_1:2:342,horseArcher_1:2:171,ballista_1:2:128,sentinel_1:2:257,ballista_1:2:128</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,ballista_1:2:173,sentinel_1:2:346,ballista_1:2:173,horseArcher_1:2:130,crossbowman_1:2:260,horseArcher_1:2:130</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,skeletonArcher:3:210,meatWagon:3:105,skeletonArcher:3:210,skeletonWarrior:3:158,deathKnight:3:79,skeletonWarrior:3:158</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,sentinel_1:2:353,horseArcher_1:2:176,sentinel_1:2:353,crossbowman_1:2:265,ballista_1:2:132,crossbowman_1:2:265</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,lancer_1:2:178,ranger_1:2:357,lancer_1:2:178,catapult_1:2:134,swordsman_1:2:268,catapult_1:2:134</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,meatWagon:3:108,skeletonWarrior:3:216,meatWagon:3:108,deathKnight:3:81,skeletonArcher:3:162,deathKnight:3:81</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,ranger_1:2:364,catapult_1:2:182,ranger_1:2:364,swordsman_1:2:273,lancer_1:2:136,swordsman_1:2:273</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,swordsman_1:2:368,lancer_1:2:184,swordsman_1:2:368,ranger_1:2:276,catapult_1:2:138,ranger_1:2:276</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,deathKnight:3:111,skeletonArcher:3:223,deathKnight:3:111,meatWagon:3:83,skeletonWarrior:3:167,meatWagon:3:83</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,ballista_1:2:187,swordsman_1:2:375,ballista_1:2:187,lancer_1:2:140,ranger_1:2:281,lancer_1:2:140</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,crossbowman_1:2:378,catapult_1:2:189,crossbowman_1:2:378,swordsman_1:2:284,lancer_1:2:142,swordsman_1:2:284</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,skeletonWarrior:3:229,deathKnight:3:114,skeletonWarrior:3:229,skeletonArcher:3:172,meatWagon:3:86,skeletonArcher:3:172</t>
-  </si>
-  <si>
-    <t>redDragon:1:9,horseArcher_1:2:193,crossbowman_1:2:386,horseArcher_1:2:193,catapult_1:2:144,swordsman_1:2:289,catapult_1:2:144</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,ballista_1:2:194,sentinel_1:2:389,ballista_1:2:194,lancer_1:2:146,ranger_1:2:292,lancer_1:2:146</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,skeletonArcher:3:236,meatWagon:3:118,skeletonArcher:3:236,skeletonWarrior:3:177,deathKnight:3:88,skeletonWarrior:3:177</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,sentinel_1:2:396,horseArcher_1:2:198,sentinel_1:2:396,ranger_1:2:297,catapult_1:2:148,ranger_1:2:297</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,horseArcher_1:2:200,crossbowman_1:2:400,horseArcher_1:2:200,ballista_1:2:150,swordsman_1:2:300,ballista_1:2:150</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,meatWagon:3:121,skeletonWarrior:3:242,meatWagon:3:121,deathKnight:3:91,skeletonArcher:3:182,deathKnight:3:91</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,crossbowman_1:2:407,ballista_1:2:203,crossbowman_1:2:407,sentinel_1:2:306,lancer_1:2:153,sentinel_1:2:306</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,sentinel_1:2:411,horseArcher_1:2:205,sentinel_1:2:411,crossbowman_1:2:308,catapult_1:2:154,crossbowman_1:2:308</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,deathKnight:3:124,skeletonArcher:3:249,deathKnight:3:124,meatWagon:3:93,skeletonWarrior:3:187,meatWagon:3:93</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,ballista_1:2:209,sentinel_1:2:418,ballista_1:2:209,horseArcher_1:2:157,crossbowman_1:2:314,horseArcher_1:2:157</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,crossbowman_1:2:422,ballista_1:2:211,crossbowman_1:2:422,sentinel_1:2:316,horseArcher_1:2:158,sentinel_1:2:316</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,skeletonWarrior:3:255,deathKnight:3:127,skeletonWarrior:3:255,skeletonArcher:3:192,meatWagon:3:96,skeletonArcher:3:192</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,lancer_1:2:214,ranger_1:2:429,lancer_1:2:214,catapult_1:2:161,swordsman_1:2:322,catapult_1:2:161</t>
-  </si>
-  <si>
-    <t>redDragon:1:10,catapult_1:2:216,swordsman_1:2:432,catapult_1:2:216,lancer_1:2:162,ranger_1:2:324,lancer_1:2:162</t>
-  </si>
-  <si>
-    <t>redDragon:2:11,skeletonArcher:3:262,meatWagon:3:131,skeletonArcher:3:262,skeletonWarrior:3:197,deathKnight:3:98,skeletonWarrior:3:197</t>
-  </si>
-  <si>
-    <t>redDragon:2:11,swordsman_1:2:440,lancer_1:2:220,swordsman_1:2:440,ranger_1:2:330,catapult_1:2:165,ranger_1:2:330</t>
-  </si>
-  <si>
-    <t>redDragon:2:11,horseArcher_1:2:221,ranger_1:2:443,horseArcher_1:2:221,catapult_1:2:166,swordsman_1:2:333,catapult_1:2:166</t>
-  </si>
-  <si>
-    <t>redDragon:2:11,meatWagon:3:134,skeletonWarrior:3:268,meatWagon:3:134,deathKnight:3:100,skeletonArcher:3:201,deathKnight:3:100</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,crossbowman_1:3:450,catapult_1:3:225,crossbowman_1:3:450,swordsman_1:3:338,lancer_1:3:169,swordsman_1:3:338</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,sentinel_1:3:454,lancer_1:3:227,sentinel_1:3:454,ranger_1:3:341,catapult_1:3:170,ranger_1:3:341</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,deathKnight:3:183,skeletonArcher:3:366,deathKnight:3:183,meatWagon:3:137,skeletonWarrior:3:275,meatWagon:3:137</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,ballista_1:3:230,sentinel_1:3:461,ballista_1:3:230,lancer_1:3:173,ranger_1:3:346,lancer_1:3:173</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,crossbowman_1:3:465,ballista_1:3:232,crossbowman_1:3:465,swordsman_1:3:349,lancer_1:3:174,swordsman_1:3:349</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,skeletonWarrior:3:375,deathKnight:3:187,skeletonWarrior:3:375,skeletonArcher:3:281,meatWagon:3:140,skeletonArcher:3:281</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,horseArcher_1:3:236,crossbowman_1:3:472,horseArcher_1:3:236,ballista_1:3:177,swordsman_1:3:354,ballista_1:3:177</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,ballista_1:3:238,sentinel_1:3:476,ballista_1:3:238,horseArcher_1:3:178,ranger_1:3:357,horseArcher_1:3:178</t>
-  </si>
-  <si>
-    <t>blueDragon:2:11,skeletonArcher:3:384,meatWagon:3:192,skeletonArcher:3:384,skeletonWarrior:3:288,deathKnight:3:144,skeletonWarrior:3:288</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,sentinel_1:3:483,horseArcher_1:3:241,sentinel_1:3:483,crossbowman_1:3:362,catapult_1:3:181,crossbowman_1:3:362</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,horseArcher_1:3:243,crossbowman_1:3:486,horseArcher_1:3:243,ballista_1:3:182,sentinel_1:3:365,ballista_1:3:182</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,meatWagon:3:196,skeletonWarrior:3:392,meatWagon:3:196,deathKnight:3:147,skeletonArcher:3:294,deathKnight:3:147</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,crossbowman_1:3:494,ballista_1:3:247,crossbowman_1:3:494,sentinel_1:3:370,horseArcher_1:3:185,sentinel_1:3:370</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,sentinel_1:3:497,horseArcher_1:3:248,sentinel_1:3:497,crossbowman_1:3:373,ballista_1:3:186,crossbowman_1:3:373</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,deathKnight:3:200,skeletonArcher:3:401,deathKnight:3:200,meatWagon:3:150,skeletonWarrior:3:301,meatWagon:3:150</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,catapult_1:3:252,swordsman_1:3:504,catapult_1:3:252,lancer_1:3:189,ranger_1:3:378,lancer_1:3:189</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,ranger_1:3:508,catapult_1:3:254,ranger_1:3:508,swordsman_1:3:381,lancer_1:3:190,swordsman_1:3:381</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,skeletonWarrior:3:409,deathKnight:3:204,skeletonWarrior:3:409,skeletonArcher:3:307,meatWagon:3:153,skeletonArcher:3:307</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,horseArcher_1:3:257,ranger_1:3:515,horseArcher_1:3:257,catapult_1:3:193,swordsman_1:3:387,catapult_1:3:193</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,ballista_1:3:259,swordsman_1:3:519,ballista_1:3:259,lancer_1:3:194,ranger_1:3:389,lancer_1:3:194</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,skeletonArcher:3:418,meatWagon:3:209,skeletonArcher:3:418,skeletonWarrior:3:314,deathKnight:3:157,skeletonWarrior:3:314</t>
-  </si>
-  <si>
-    <t>blueDragon:2:12,sentinel_1:3:526,lancer_1:3:263,sentinel_1:3:526,ranger_1:3:395,catapult_1:3:197,ranger_1:3:395</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,horseArcher_1:3:265,crossbowman_1:3:530,horseArcher_1:3:265,catapult_1:3:198,swordsman_1:3:397,catapult_1:3:198</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,meatWagon:3:213,skeletonWarrior:3:427,meatWagon:3:213,deathKnight:3:160,skeletonArcher:3:320,deathKnight:3:160</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,crossbowman_1:3:537,ballista_1:3:268,crossbowman_1:3:537,swordsman_1:3:403,lancer_1:3:201,swordsman_1:3:403</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,sentinel_1:3:540,horseArcher_1:3:270,sentinel_1:3:540,ranger_1:3:405,catapult_1:3:202,ranger_1:3:405</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,deathKnight:3:217,skeletonArcher:3:435,deathKnight:3:217,meatWagon:3:163,skeletonWarrior:3:327,meatWagon:3:163</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,ballista_1:3:274,sentinel_1:3:548,ballista_1:3:274,horseArcher_1:3:205,ranger_1:3:411,horseArcher_1:3:205</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,crossbowman_1:3:551,ballista_1:3:275,crossbowman_1:3:551,sentinel_1:3:414,lancer_1:3:207,sentinel_1:3:414</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,skeletonWarrior:3:444,deathKnight:3:222,skeletonWarrior:3:444,skeletonArcher:3:333,meatWagon:3:166,skeletonArcher:3:333</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,horseArcher_1:3:279,crossbowman_1:3:558,horseArcher_1:3:279,ballista_1:3:209,sentinel_1:3:419,ballista_1:3:209</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,ballista_1:3:281,sentinel_1:3:562,ballista_1:3:281,horseArcher_1:3:211,crossbowman_1:3:422,horseArcher_1:3:211</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,skeletonArcher:3:453,meatWagon:3:226,skeletonArcher:3:453,skeletonWarrior:3:340,deathKnight:3:170,skeletonWarrior:3:340</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,sentinel_1:3:569,horseArcher_1:3:284,sentinel_1:3:569,crossbowman_1:3:427,ballista_1:3:213,crossbowman_1:3:427</t>
-  </si>
-  <si>
-    <t>blueDragon:2:13,lancer_1:3:286,ranger_1:3:573,lancer_1:3:286,catapult_1:3:215,swordsman_1:3:430,catapult_1:3:215</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,meatWagon:3:230,skeletonWarrior:3:461,meatWagon:3:230,deathKnight:3:173,skeletonArcher:3:346,deathKnight:3:173</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,ranger_1:3:580,catapult_1:3:290,ranger_1:3:580,swordsman_1:3:435,lancer_1:3:217,swordsman_1:3:435</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,swordsman_1:3:584,lancer_1:3:292,swordsman_1:3:584,ranger_1:3:438,catapult_1:3:219,ranger_1:3:438</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,deathKnight:3:235,skeletonArcher:3:470,deathKnight:3:235,meatWagon:3:176,skeletonWarrior:3:353,meatWagon:3:176</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,ballista_1:3:295,swordsman_1:3:591,ballista_1:3:295,lancer_1:3:221,ranger_1:3:443,lancer_1:3:221</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,crossbowman_1:3:594,catapult_1:3:297,crossbowman_1:3:594,swordsman_1:3:446,lancer_1:3:223,swordsman_1:3:446</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,skeletonWarrior:3:479,deathKnight:3:239,skeletonWarrior:3:479,skeletonArcher:3:359,meatWagon:3:179,skeletonArcher:3:359</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,horseArcher_1:3:301,crossbowman_1:3:602,horseArcher_1:3:301,catapult_1:3:225,swordsman_1:3:451,catapult_1:3:225</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,ballista_1:3:302,sentinel_1:3:605,ballista_1:3:302,lancer_1:3:227,ranger_1:3:454,lancer_1:3:227</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,skeletonArcher:3:487,meatWagon:3:243,skeletonArcher:3:487,skeletonWarrior:3:366,deathKnight:3:183,skeletonWarrior:3:366</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,sentinel_1:3:612,horseArcher_1:3:306,sentinel_1:3:612,ranger_1:3:459,catapult_1:3:229,ranger_1:3:459</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,horseArcher_1:3:308,crossbowman_1:3:616,horseArcher_1:3:308,ballista_1:3:231,swordsman_1:3:462,ballista_1:3:231</t>
-  </si>
-  <si>
-    <t>blueDragon:2:14,meatWagon:3:248,skeletonWarrior:3:496,meatWagon:3:248,deathKnight:3:186,skeletonArcher:3:372,deathKnight:3:186</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,crossbowman_1:3:623,ballista_1:3:311,crossbowman_1:3:623,sentinel_1:3:468,lancer_1:3:234,sentinel_1:3:468</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,sentinel_1:3:627,horseArcher_1:3:313,sentinel_1:3:627,crossbowman_1:3:470,catapult_1:3:235,crossbowman_1:3:470</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,deathKnight:3:252,skeletonArcher:3:504,deathKnight:3:252,meatWagon:3:189,skeletonWarrior:3:378,meatWagon:3:189</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,ballista_1:3:317,sentinel_1:3:634,ballista_1:3:317,horseArcher_1:3:238,crossbowman_1:3:476,horseArcher_1:3:238</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,crossbowman_1:3:638,ballista_1:3:319,crossbowman_1:3:638,sentinel_1:3:478,horseArcher_1:3:239,sentinel_1:3:478</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,skeletonWarrior:3:513,deathKnight:3:256,skeletonWarrior:3:513,skeletonArcher:3:385,meatWagon:3:192,skeletonArcher:3:385</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,lancer_1:3:322,ranger_1:3:645,lancer_1:3:322,catapult_1:3:242,swordsman_1:3:484,catapult_1:3:242</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,catapult_1:3:324,swordsman_1:3:648,catapult_1:3:324,lancer_1:3:243,ranger_1:3:486,lancer_1:3:243</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,skeletonArcher:3:522,meatWagon:3:261,skeletonArcher:3:522,skeletonWarrior:3:392,deathKnight:3:196,skeletonWarrior:3:392</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,swordsman_1:3:656,lancer_1:3:328,swordsman_1:3:656,ranger_1:3:492,catapult_1:3:246,ranger_1:3:492</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,horseArcher_1:3:329,ranger_1:3:659,horseArcher_1:3:329,catapult_1:3:247,swordsman_1:3:495,catapult_1:3:247</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,meatWagon:3:265,skeletonWarrior:3:530,meatWagon:3:265,deathKnight:3:199,skeletonArcher:3:398,deathKnight:3:199</t>
-  </si>
-  <si>
-    <t>blueDragon:2:15,crossbowman_1:3:666,catapult_1:3:333,crossbowman_1:3:666,swordsman_1:3:500,lancer_1:3:250,swordsman_1:3:500</t>
-  </si>
-  <si>
-    <t>blueDragon:2:16,sentinel_1:3:670,lancer_1:3:335,sentinel_1:3:670,ranger_1:3:503,catapult_1:3:251,ranger_1:3:503</t>
-  </si>
-  <si>
-    <t>blueDragon:2:16,deathKnight:3:269,skeletonArcher:3:539,deathKnight:3:269,meatWagon:3:202,skeletonWarrior:3:404,meatWagon:3:202</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,ballista_2:1:338,sentinel_2:1:677,ballista_2:1:338,lancer_2:1:254,ranger_2:1:508,lancer_2:1:254</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,crossbowman_2:1:681,ballista_2:1:340,crossbowman_2:1:681,swordsman_2:1:511,lancer_2:1:255,swordsman_2:1:511</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,skeletonWarrior:3:684,deathKnight:3:342,skeletonWarrior:3:684,skeletonArcher:3:513,meatWagon:3:256,skeletonArcher:3:513</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,horseArcher_2:1:344,crossbowman_2:1:688,horseArcher_2:1:344,ballista_2:1:258,swordsman_2:1:516,ballista_2:1:258</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,ballista_2:1:346,sentinel_2:1:692,ballista_2:1:346,horseArcher_2:1:259,ranger_2:1:519,horseArcher_2:1:259</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,skeletonArcher:3:695,meatWagon:3:347,skeletonArcher:3:695,skeletonWarrior:3:522,deathKnight:3:261,skeletonWarrior:3:522</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,sentinel_2:1:699,horseArcher_2:1:349,sentinel_2:1:699,crossbowman_2:1:524,catapult_2:1:262,crossbowman_2:1:524</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,horseArcher_2:1:351,crossbowman_2:1:702,horseArcher_2:1:351,ballista_2:1:263,sentinel_2:1:527,ballista_2:1:263</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,meatWagon:3:353,skeletonWarrior:3:706,meatWagon:3:353,deathKnight:3:265,skeletonArcher:3:530,deathKnight:3:265</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,crossbowman_2:1:710,ballista_2:1:355,crossbowman_2:1:710,sentinel_2:1:532,horseArcher_2:1:266,sentinel_2:1:532</t>
-  </si>
-  <si>
-    <t>redDragon:2:16,sentinel_2:1:713,horseArcher_2:1:356,sentinel_2:1:713,crossbowman_2:1:535,ballista_2:1:267,crossbowman_2:1:535</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,deathKnight:3:358,skeletonArcher:3:717,deathKnight:3:358,meatWagon:3:269,skeletonWarrior:3:538,meatWagon:3:269</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,catapult_2:1:360,swordsman_2:1:720,catapult_2:1:360,lancer_2:1:270,ranger_2:1:540,lancer_2:1:270</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,ranger_2:1:724,catapult_2:1:362,ranger_2:1:724,swordsman_2:1:543,lancer_2:1:271,swordsman_2:1:543</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,skeletonWarrior:3:728,deathKnight:3:364,skeletonWarrior:3:728,skeletonArcher:3:546,meatWagon:3:273,skeletonArcher:3:546</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,horseArcher_2:1:365,ranger_2:1:731,horseArcher_2:1:365,catapult_2:1:274,swordsman_2:1:549,catapult_2:1:274</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,ballista_2:1:367,swordsman_2:1:735,ballista_2:1:367,lancer_2:1:275,ranger_2:1:551,lancer_2:1:275</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,skeletonArcher:3:738,meatWagon:3:369,skeletonArcher:3:738,skeletonWarrior:3:554,deathKnight:3:277,skeletonWarrior:3:554</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,sentinel_2:1:742,lancer_2:1:371,sentinel_2:1:742,ranger_2:1:557,catapult_2:1:278,ranger_2:1:557</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,horseArcher_2:1:373,crossbowman_2:1:746,horseArcher_2:1:373,catapult_2:1:279,swordsman_2:1:559,catapult_2:1:279</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,meatWagon:3:374,skeletonWarrior:3:749,meatWagon:3:374,deathKnight:3:281,skeletonArcher:3:562,deathKnight:3:281</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,crossbowman_2:1:753,ballista_2:1:376,crossbowman_2:1:753,swordsman_2:1:565,lancer_2:1:282,swordsman_2:1:565</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,sentinel_2:1:756,horseArcher_2:1:378,sentinel_2:1:756,ranger_2:1:567,catapult_2:1:283,ranger_2:1:567</t>
-  </si>
-  <si>
-    <t>redDragon:2:17,deathKnight:3:380,skeletonArcher:3:760,deathKnight:3:380,meatWagon:3:285,skeletonWarrior:3:570,meatWagon:3:285</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,ballista_2:1:382,sentinel_2:1:764,ballista_2:1:382,horseArcher_2:1:286,ranger_2:1:573,horseArcher_2:1:286</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,crossbowman_2:1:767,ballista_2:1:383,crossbowman_2:1:767,sentinel_2:1:576,lancer_2:1:288,sentinel_2:1:576</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,skeletonWarrior:3:771,deathKnight:3:385,skeletonWarrior:3:771,skeletonArcher:3:578,meatWagon:3:289,skeletonArcher:3:578</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,horseArcher_2:1:387,crossbowman_2:1:774,horseArcher_2:1:387,ballista_2:1:290,sentinel_2:1:581,ballista_2:1:290</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,ballista_2:1:389,sentinel_2:1:778,ballista_2:1:389,horseArcher_2:1:292,crossbowman_2:1:584,horseArcher_2:1:292</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,skeletonArcher:3:782,meatWagon:3:391,skeletonArcher:3:782,skeletonWarrior:3:586,deathKnight:3:293,skeletonWarrior:3:586</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,sentinel_2:1:785,horseArcher_2:1:392,sentinel_2:1:785,crossbowman_2:1:589,ballista_2:1:294,crossbowman_2:1:589</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,lancer_2:1:394,ranger_2:1:789,lancer_2:1:394,catapult_2:1:296,swordsman_2:1:592,catapult_2:1:296</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,meatWagon:3:396,skeletonWarrior:3:792,meatWagon:3:396,deathKnight:3:297,skeletonArcher:3:594,deathKnight:3:297</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,ranger_2:1:796,catapult_2:1:398,ranger_2:1:796,swordsman_2:1:597,lancer_2:1:298,swordsman_2:1:597</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,swordsman_2:1:800,lancer_2:1:400,swordsman_2:1:800,ranger_2:1:600,catapult_2:1:300,ranger_2:1:600</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,deathKnight:3:401,skeletonArcher:3:803,deathKnight:3:401,meatWagon:3:301,skeletonWarrior:3:603,meatWagon:3:301</t>
-  </si>
-  <si>
-    <t>redDragon:2:18,ballista_2:1:403,swordsman_2:1:807,ballista_2:1:403,lancer_2:1:302,ranger_2:1:605,lancer_2:1:302</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,crossbowman_2:1:810,catapult_2:1:405,crossbowman_2:1:810,swordsman_2:1:608,lancer_2:1:304,swordsman_2:1:608</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,skeletonWarrior:3:814,deathKnight:3:407,skeletonWarrior:3:814,skeletonArcher:3:611,meatWagon:3:305,skeletonArcher:3:611</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,horseArcher_2:1:409,crossbowman_2:1:818,horseArcher_2:1:409,catapult_2:1:306,swordsman_2:1:613,catapult_2:1:306</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,ballista_2:1:410,sentinel_2:1:821,ballista_2:1:410,lancer_2:1:308,ranger_2:1:616,lancer_2:1:308</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,skeletonArcher:3:825,meatWagon:3:412,skeletonArcher:3:825,skeletonWarrior:3:619,deathKnight:3:309,skeletonWarrior:3:619</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,sentinel_2:1:828,horseArcher_2:1:414,sentinel_2:1:828,ranger_2:1:621,catapult_2:1:310,ranger_2:1:621</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,horseArcher_2:1:416,crossbowman_2:1:832,horseArcher_2:1:416,ballista_2:1:312,swordsman_2:1:624,ballista_2:1:312</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,meatWagon:3:418,skeletonWarrior:3:836,meatWagon:3:418,deathKnight:3:313,skeletonArcher:3:627,deathKnight:3:313</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,crossbowman_2:1:839,ballista_2:1:419,crossbowman_2:1:839,sentinel_2:1:630,lancer_2:1:315,sentinel_2:1:630</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,sentinel_2:1:843,horseArcher_2:1:421,sentinel_2:1:843,crossbowman_2:1:632,catapult_2:1:316,crossbowman_2:1:632</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,deathKnight:3:423,skeletonArcher:3:846,deathKnight:3:423,meatWagon:3:317,skeletonWarrior:3:635,meatWagon:3:317</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,ballista_2:1:425,sentinel_2:1:850,ballista_2:1:425,horseArcher_2:1:319,crossbowman_2:1:638,horseArcher_2:1:319</t>
-  </si>
-  <si>
-    <t>redDragon:2:19,crossbowman_2:1:854,ballista_2:1:427,crossbowman_2:1:854,sentinel_2:1:640,horseArcher_2:1:320,sentinel_2:1:640</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,skeletonWarrior:3:857,deathKnight:3:428,skeletonWarrior:3:857,skeletonArcher:3:643,meatWagon:3:321,skeletonArcher:3:643</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,lancer_2:1:430,ranger_2:1:861,lancer_2:1:430,catapult_2:1:323,swordsman_2:1:646,catapult_2:1:323</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,catapult_2:1:432,swordsman_2:1:864,catapult_2:1:432,lancer_2:1:324,ranger_2:1:648,lancer_2:1:324</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,skeletonArcher:3:868,meatWagon:3:434,skeletonArcher:3:868,skeletonWarrior:3:651,deathKnight:3:325,skeletonWarrior:3:651</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,swordsman_2:1:872,lancer_2:1:436,swordsman_2:1:872,ranger_2:1:654,catapult_2:1:327,ranger_2:1:654</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,horseArcher_2:1:437,ranger_2:1:875,horseArcher_2:1:437,catapult_2:1:328,swordsman_2:1:657,catapult_2:1:328</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,meatWagon:3:439,skeletonWarrior:3:879,meatWagon:3:439,deathKnight:3:329,skeletonArcher:3:659,deathKnight:3:329</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,crossbowman_2:1:882,catapult_2:1:441,crossbowman_2:1:882,swordsman_2:1:662,lancer_2:1:331,swordsman_2:1:662</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,sentinel_2:1:886,lancer_2:1:443,sentinel_2:1:886,ranger_2:1:665,catapult_2:1:332,ranger_2:1:665</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,deathKnight:3:445,skeletonArcher:3:890,deathKnight:3:445,meatWagon:3:333,skeletonWarrior:3:667,meatWagon:3:333</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,ballista_2:1:446,sentinel_2:1:893,ballista_2:1:446,lancer_2:1:335,ranger_2:1:670,lancer_2:1:335</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,crossbowman_2:1:897,ballista_2:1:448,crossbowman_2:1:897,swordsman_2:1:673,lancer_2:1:336,swordsman_2:1:673</t>
-  </si>
-  <si>
-    <t>redDragon:2:20,skeletonWarrior:3:900,deathKnight:3:450,skeletonWarrior:3:900,skeletonArcher:3:675,meatWagon:3:337,skeletonArcher:3:675</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,horseArcher_2:2:452,crossbowman_2:2:904,horseArcher_2:2:452,ballista_2:2:339,swordsman_2:2:678,ballista_2:2:339</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,ballista_2:2:454,sentinel_2:2:908,ballista_2:2:454,horseArcher_2:2:340,ranger_2:2:681,horseArcher_2:2:340</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,skeletonArcher:3:1093,meatWagon:3:546,skeletonArcher:3:1093,skeletonWarrior:3:820,deathKnight:3:410,skeletonWarrior:3:820</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,sentinel_2:2:915,horseArcher_2:2:457,sentinel_2:2:915,crossbowman_2:2:686,catapult_2:2:343,crossbowman_2:2:686</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,horseArcher_2:2:459,crossbowman_2:2:918,horseArcher_2:2:459,ballista_2:2:344,sentinel_2:2:689,ballista_2:2:344</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,meatWagon:3:553,skeletonWarrior:3:1106,meatWagon:3:553,deathKnight:3:415,skeletonArcher:3:830,deathKnight:3:415</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,crossbowman_2:2:926,ballista_2:2:463,crossbowman_2:2:926,sentinel_2:2:694,horseArcher_2:2:347,sentinel_2:2:694</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,sentinel_2:2:929,horseArcher_2:2:464,sentinel_2:2:929,crossbowman_2:2:697,ballista_2:2:348,crossbowman_2:2:697</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,deathKnight:3:559,skeletonArcher:3:1119,deathKnight:3:559,meatWagon:3:420,skeletonWarrior:3:840,meatWagon:3:420</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,catapult_2:2:468,swordsman_2:2:936,catapult_2:2:468,lancer_2:2:351,ranger_2:2:702,lancer_2:2:351</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,ranger_2:2:940,catapult_2:2:470,ranger_2:2:940,swordsman_2:2:705,lancer_2:2:352,swordsman_2:2:705</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,skeletonWarrior:3:1132,deathKnight:3:566,skeletonWarrior:3:1132,skeletonArcher:3:849,meatWagon:3:424,skeletonArcher:3:849</t>
-  </si>
-  <si>
-    <t>greenDragon:3:21,horseArcher_2:2:473,ranger_2:2:947,horseArcher_2:2:473,catapult_2:2:355,swordsman_2:2:711,catapult_2:2:355</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,ballista_2:2:475,swordsman_2:2:951,ballista_2:2:475,lancer_2:2:356,ranger_2:2:713,lancer_2:2:356</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,skeletonArcher:3:1145,meatWagon:3:572,skeletonArcher:3:1145,skeletonWarrior:3:859,deathKnight:3:429,skeletonWarrior:3:859</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,sentinel_2:2:958,lancer_2:2:479,sentinel_2:2:958,ranger_2:2:719,catapult_2:2:359,ranger_2:2:719</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,horseArcher_2:2:481,crossbowman_2:2:962,horseArcher_2:2:481,catapult_2:2:360,swordsman_2:2:721,catapult_2:2:360</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,meatWagon:3:579,skeletonWarrior:3:1158,meatWagon:3:579,deathKnight:3:434,skeletonArcher:3:869,deathKnight:3:434</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,crossbowman_2:2:969,ballista_2:2:484,crossbowman_2:2:969,swordsman_2:2:727,lancer_2:2:363,swordsman_2:2:727</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,sentinel_2:2:972,horseArcher_2:2:486,sentinel_2:2:972,ranger_2:2:729,catapult_2:2:364,ranger_2:2:729</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,deathKnight:3:585,skeletonArcher:3:1171,deathKnight:3:585,meatWagon:3:439,skeletonWarrior:3:879,meatWagon:3:439</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,ballista_2:2:490,sentinel_2:2:980,ballista_2:2:490,horseArcher_2:2:367,ranger_2:2:735,horseArcher_2:2:367</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,crossbowman_2:2:983,ballista_2:2:491,crossbowman_2:2:983,sentinel_2:2:738,lancer_2:2:369,sentinel_2:2:738</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,skeletonWarrior:3:1184,deathKnight:3:592,skeletonWarrior:3:1184,skeletonArcher:3:888,meatWagon:3:444,skeletonArcher:3:888</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,horseArcher_2:2:495,crossbowman_2:2:990,horseArcher_2:2:495,ballista_2:2:371,sentinel_2:2:743,ballista_2:2:371</t>
-  </si>
-  <si>
-    <t>greenDragon:3:22,ballista_2:2:497,sentinel_2:2:994,ballista_2:2:497,horseArcher_2:2:373,crossbowman_2:2:746,horseArcher_2:2:373</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,skeletonArcher:3:1197,meatWagon:3:598,skeletonArcher:3:1197,skeletonWarrior:3:898,deathKnight:3:449,skeletonWarrior:3:898</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,sentinel_2:2:1001,horseArcher_2:2:500,sentinel_2:2:1001,crossbowman_2:2:751,ballista_2:2:375,crossbowman_2:2:751</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,lancer_2:2:502,ranger_2:2:1005,lancer_2:2:502,catapult_2:2:377,swordsman_2:2:754,catapult_2:2:377</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,meatWagon:3:605,skeletonWarrior:3:1210,meatWagon:3:605,deathKnight:3:454,skeletonArcher:3:908,deathKnight:3:454</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,ranger_2:2:1012,catapult_2:2:506,ranger_2:2:1012,swordsman_2:2:759,lancer_2:2:379,swordsman_2:2:759</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,swordsman_2:2:1016,lancer_2:2:508,swordsman_2:2:1016,ranger_2:2:762,catapult_2:2:381,ranger_2:2:762</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,deathKnight:3:613,skeletonArcher:3:1227,deathKnight:3:613,meatWagon:3:460,skeletonWarrior:3:921,meatWagon:3:460</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,ballista_2:2:515,swordsman_2:2:1030,ballista_2:2:515,lancer_2:2:386,ranger_2:2:773,lancer_2:2:386</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,crossbowman_2:2:1037,catapult_2:2:518,crossbowman_2:2:1037,swordsman_2:2:778,lancer_2:2:389,swordsman_2:2:778</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,skeletonWarrior:3:1252,deathKnight:3:626,skeletonWarrior:3:1252,skeletonArcher:3:939,meatWagon:3:469,skeletonArcher:3:939</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,horseArcher_2:2:525,crossbowman_2:2:1051,horseArcher_2:2:525,catapult_2:2:394,swordsman_2:2:788,catapult_2:2:394</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,ballista_2:2:529,sentinel_2:2:1058,ballista_2:2:529,lancer_2:2:397,ranger_2:2:794,lancer_2:2:397</t>
-  </si>
-  <si>
-    <t>greenDragon:3:23,skeletonArcher:3:1278,meatWagon:3:639,skeletonArcher:3:1278,skeletonWarrior:3:959,deathKnight:3:479,skeletonWarrior:3:959</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,sentinel_2:2:1072,horseArcher_2:2:536,sentinel_2:2:1072,ranger_2:2:804,catapult_2:2:402,ranger_2:2:804</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,horseArcher_2:2:540,crossbowman_2:2:1080,horseArcher_2:2:540,ballista_2:2:405,swordsman_2:2:810,ballista_2:2:405</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,meatWagon:3:652,skeletonWarrior:3:1304,meatWagon:3:652,deathKnight:3:489,skeletonArcher:3:978,deathKnight:3:489</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,crossbowman_2:2:1094,ballista_2:2:547,crossbowman_2:2:1094,sentinel_2:2:821,lancer_2:2:410,sentinel_2:2:821</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,sentinel_2:2:1101,horseArcher_2:2:550,sentinel_2:2:1101,crossbowman_2:2:826,catapult_2:2:413,crossbowman_2:2:826</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,deathKnight:3:665,skeletonArcher:3:1330,deathKnight:3:665,meatWagon:3:499,skeletonWarrior:3:998,meatWagon:3:499</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,ballista_2:2:558,sentinel_2:2:1116,ballista_2:2:558,horseArcher_2:2:418,crossbowman_2:2:837,horseArcher_2:2:418</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,crossbowman_2:2:1123,ballista_2:2:561,crossbowman_2:2:1123,sentinel_2:2:843,horseArcher_2:2:421,sentinel_2:2:843</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,skeletonWarrior:3:1357,deathKnight:3:678,skeletonWarrior:3:1357,skeletonArcher:3:1018,meatWagon:3:509,skeletonArcher:3:1018</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,lancer_2:2:569,ranger_2:2:1138,lancer_2:2:569,catapult_2:2:427,swordsman_2:2:854,catapult_2:2:427</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,catapult_2:2:572,swordsman_2:2:1145,catapult_2:2:572,lancer_2:2:429,ranger_2:2:859,lancer_2:2:429</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,skeletonArcher:3:1383,meatWagon:3:691,skeletonArcher:3:1383,skeletonWarrior:3:1038,deathKnight:3:519,skeletonWarrior:3:1038</t>
-  </si>
-  <si>
-    <t>greenDragon:3:24,swordsman_2:2:1160,lancer_2:2:580,swordsman_2:2:1160,ranger_2:2:870,catapult_2:2:435,ranger_2:2:870</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,horseArcher_2:2:584,ranger_2:2:1168,horseArcher_2:2:584,catapult_2:2:438,swordsman_2:2:876,catapult_2:2:438</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,meatWagon:3:705,skeletonWarrior:3:1410,meatWagon:3:705,deathKnight:3:529,skeletonArcher:3:1058,deathKnight:3:529</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,crossbowman_2:2:1183,catapult_2:2:591,crossbowman_2:2:1183,swordsman_2:2:887,lancer_2:2:443,swordsman_2:2:887</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,sentinel_2:2:1190,lancer_2:2:595,sentinel_2:2:1190,ranger_2:2:893,catapult_2:2:446,ranger_2:2:893</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,deathKnight:3:718,skeletonArcher:3:1437,deathKnight:3:718,meatWagon:3:539,skeletonWarrior:3:1078,meatWagon:3:539</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,ballista_2:2:602,sentinel_2:2:1205,ballista_2:2:602,lancer_2:2:452,ranger_2:2:904,lancer_2:2:452</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,crossbowman_2:2:1213,ballista_2:2:606,crossbowman_2:2:1213,swordsman_2:2:910,lancer_2:2:455,swordsman_2:2:910</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,skeletonWarrior:3:1465,deathKnight:3:732,skeletonWarrior:3:1465,skeletonArcher:3:1099,meatWagon:3:549,skeletonArcher:3:1099</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,horseArcher_2:2:614,crossbowman_2:2:1228,horseArcher_2:2:614,ballista_2:2:460,swordsman_2:2:921,ballista_2:2:460</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,ballista_2:2:618,sentinel_2:2:1236,ballista_2:2:618,horseArcher_2:2:463,ranger_2:2:927,horseArcher_2:2:463</t>
-  </si>
-  <si>
-    <t>greenDragon:3:25,skeletonArcher:3:1492,meatWagon:3:746,skeletonArcher:3:1492,skeletonWarrior:3:1119,deathKnight:3:559,skeletonWarrior:3:1119</t>
-  </si>
-  <si>
-    <t>redDragon:3:25,sentinel_2:3:1251,horseArcher_2:3:625,sentinel_2:3:1251,crossbowman_2:3:939,catapult_2:3:469,crossbowman_2:3:939</t>
-  </si>
-  <si>
-    <t>redDragon:3:25,horseArcher_2:3:629,crossbowman_2:3:1259,horseArcher_2:3:629,ballista_2:3:472,sentinel_2:3:945,ballista_2:3:472</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,meatWagon:3:887,skeletonWarrior:3:1774,meatWagon:3:887,deathKnight:3:665,skeletonArcher:3:1330,deathKnight:3:665</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,crossbowman_2:3:1275,ballista_2:3:637,crossbowman_2:3:1275,sentinel_2:3:956,horseArcher_2:3:478,sentinel_2:3:956</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,sentinel_2:3:1283,horseArcher_2:3:641,sentinel_2:3:1283,crossbowman_2:3:962,ballista_2:3:481,crossbowman_2:3:962</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,deathKnight:3:903,skeletonArcher:3:1807,deathKnight:3:903,meatWagon:3:677,skeletonWarrior:3:1355,meatWagon:3:677</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,catapult_2:3:649,swordsman_2:3:1298,catapult_2:3:649,lancer_2:3:487,ranger_2:3:974,lancer_2:3:487</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,ranger_2:3:1306,catapult_2:3:653,ranger_2:3:1306,swordsman_2:3:980,lancer_2:3:490,swordsman_2:3:980</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,skeletonWarrior:3:1840,deathKnight:3:920,skeletonWarrior:3:1840,skeletonArcher:3:1380,meatWagon:3:690,skeletonArcher:3:1380</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,horseArcher_2:3:661,ranger_2:3:1322,horseArcher_2:3:661,catapult_2:3:496,swordsman_2:3:992,catapult_2:3:496</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,ballista_2:3:665,swordsman_2:3:1330,ballista_2:3:665,lancer_2:3:499,ranger_2:3:998,lancer_2:3:499</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,skeletonArcher:3:1873,meatWagon:3:936,skeletonArcher:3:1873,skeletonWarrior:3:1405,deathKnight:3:702,skeletonWarrior:3:1405</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,sentinel_2:3:1346,lancer_2:3:673,sentinel_2:3:1346,ranger_2:3:1010,catapult_2:3:505,ranger_2:3:1010</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,horseArcher_2:3:677,crossbowman_2:3:1354,horseArcher_2:3:677,catapult_2:3:508,swordsman_2:3:1016,catapult_2:3:508</t>
-  </si>
-  <si>
-    <t>redDragon:3:26,meatWagon:3:953,skeletonWarrior:3:1907,meatWagon:3:953,deathKnight:3:715,skeletonArcher:3:1430,deathKnight:3:715</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,crossbowman_2:3:1370,ballista_2:3:685,crossbowman_2:3:1370,swordsman_2:3:1028,lancer_2:3:514,swordsman_2:3:1028</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,sentinel_2:3:1379,horseArcher_2:3:689,sentinel_2:3:1379,ranger_2:3:1034,catapult_2:3:517,ranger_2:3:1034</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,deathKnight:3:970,skeletonArcher:3:1941,deathKnight:3:970,meatWagon:3:728,skeletonWarrior:3:1456,meatWagon:3:728</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,ballista_2:3:697,sentinel_2:3:1395,ballista_2:3:697,horseArcher_2:3:523,ranger_2:3:1046,horseArcher_2:3:523</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,crossbowman_2:3:1403,ballista_2:3:701,crossbowman_2:3:1403,sentinel_2:3:1052,lancer_2:3:526,sentinel_2:3:1052</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,skeletonWarrior:3:1976,deathKnight:3:988,skeletonWarrior:3:1976,skeletonArcher:3:1482,meatWagon:3:741,skeletonArcher:3:1482</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,horseArcher_2:3:710,crossbowman_2:3:1420,horseArcher_2:3:710,ballista_2:3:532,sentinel_2:3:1065,ballista_2:3:532</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,ballista_2:3:714,sentinel_2:3:1428,ballista_2:3:714,horseArcher_2:3:535,crossbowman_2:3:1071,horseArcher_2:3:535</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,skeletonArcher:3:2010,meatWagon:3:1005,skeletonArcher:3:2010,skeletonWarrior:3:1508,deathKnight:3:754,skeletonWarrior:3:1508</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,sentinel_2:3:1444,horseArcher_2:3:722,sentinel_2:3:1444,crossbowman_2:3:1083,ballista_2:3:541,crossbowman_2:3:1083</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,lancer_2:3:726,ranger_2:3:1453,lancer_2:3:726,catapult_2:3:545,swordsman_2:3:1090,catapult_2:3:545</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,meatWagon:3:1022,skeletonWarrior:3:2045,meatWagon:3:1022,deathKnight:3:767,skeletonArcher:3:1534,deathKnight:3:767</t>
-  </si>
-  <si>
-    <t>redDragon:3:27,ranger_2:3:1470,catapult_2:3:735,ranger_2:3:1470,swordsman_2:3:1102,lancer_2:3:551,swordsman_2:3:1102</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,swordsman_2:3:1478,lancer_2:3:739,swordsman_2:3:1478,ranger_2:3:1109,catapult_2:3:554,ranger_2:3:1109</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,deathKnight:3:1040,skeletonArcher:3:2081,deathKnight:3:1040,meatWagon:3:780,skeletonWarrior:3:1561,meatWagon:3:780</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,ballista_2:3:747,swordsman_2:3:1495,ballista_2:3:747,lancer_2:3:560,ranger_2:3:1121,lancer_2:3:560</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,crossbowman_2:3:1503,catapult_2:3:751,crossbowman_2:3:1503,swordsman_2:3:1128,lancer_2:3:564,swordsman_2:3:1128</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,skeletonWarrior:3:2116,deathKnight:3:1058,skeletonWarrior:3:2116,skeletonArcher:3:1587,meatWagon:3:793,skeletonArcher:3:1587</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,horseArcher_2:3:760,crossbowman_2:3:1520,horseArcher_2:3:760,catapult_2:3:570,swordsman_2:3:1140,catapult_2:3:570</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,ballista_2:3:764,sentinel_2:3:1529,ballista_2:3:764,lancer_2:3:573,ranger_2:3:1147,lancer_2:3:573</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,skeletonArcher:3:2152,meatWagon:3:1076,skeletonArcher:3:2152,skeletonWarrior:3:1614,deathKnight:3:807,skeletonWarrior:3:1614</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,sentinel_2:3:1546,horseArcher_2:3:773,sentinel_2:3:1546,ranger_2:3:1160,catapult_2:3:580,ranger_2:3:1160</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,horseArcher_2:3:777,crossbowman_2:3:1555,horseArcher_2:3:777,ballista_2:3:583,swordsman_2:3:1166,ballista_2:3:583</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,meatWagon:3:1094,skeletonWarrior:3:2189,meatWagon:3:1094,deathKnight:3:821,skeletonArcher:3:1642,deathKnight:3:821</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,crossbowman_2:3:1572,ballista_2:3:786,crossbowman_2:3:1572,sentinel_2:3:1179,lancer_2:3:589,sentinel_2:3:1179</t>
-  </si>
-  <si>
-    <t>redDragon:3:28,sentinel_2:3:1581,horseArcher_2:3:790,sentinel_2:3:1581,crossbowman_2:3:1186,catapult_2:3:593,crossbowman_2:3:1186</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,deathKnight:3:1112,skeletonArcher:3:2225,deathKnight:3:1112,meatWagon:3:834,skeletonWarrior:3:1669,meatWagon:3:834</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,ballista_2:3:799,sentinel_2:3:1598,ballista_2:3:799,horseArcher_2:3:599,crossbowman_2:3:1199,horseArcher_2:3:599</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,crossbowman_2:3:1607,ballista_2:3:803,crossbowman_2:3:1607,sentinel_2:3:1205,horseArcher_2:3:602,sentinel_2:3:1205</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,skeletonWarrior:3:2262,deathKnight:3:1131,skeletonWarrior:3:2262,skeletonArcher:3:1697,meatWagon:3:848,skeletonArcher:3:1697</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,lancer_2:3:812,ranger_2:3:1625,lancer_2:3:812,catapult_2:3:609,swordsman_2:3:1219,catapult_2:3:609</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,catapult_2:3:816,swordsman_2:3:1633,catapult_2:3:816,lancer_2:3:612,ranger_2:3:1225,lancer_2:3:612</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,skeletonArcher:3:2299,meatWagon:3:1149,skeletonArcher:3:2299,skeletonWarrior:3:1724,deathKnight:3:862,skeletonWarrior:3:1724</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,swordsman_2:3:1651,lancer_2:3:825,swordsman_2:3:1651,ranger_2:3:1239,catapult_2:3:619,ranger_2:3:1239</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,horseArcher_2:3:830,ranger_2:3:1660,horseArcher_2:3:830,catapult_2:3:622,swordsman_2:3:1245,catapult_2:3:622</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,meatWagon:3:1168,skeletonWarrior:3:2337,meatWagon:3:1168,deathKnight:3:876,skeletonArcher:3:1753,deathKnight:3:876</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,crossbowman_2:3:1678,catapult_2:3:839,crossbowman_2:3:1678,swordsman_2:3:1259,lancer_2:3:629,swordsman_2:3:1259</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,sentinel_2:3:1687,lancer_2:3:843,sentinel_2:3:1687,ranger_2:3:1265,catapult_2:3:632,ranger_2:3:1265</t>
-  </si>
-  <si>
-    <t>redDragon:3:29,deathKnight:3:1187,skeletonArcher:3:2374,deathKnight:3:1187,meatWagon:3:890,skeletonWarrior:3:1781,meatWagon:3:890</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,ballista_2:3:852,sentinel_2:3:1705,ballista_2:3:852,lancer_2:3:639,ranger_2:3:1279,lancer_2:3:639</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,crossbowman_2:3:1714,ballista_2:3:857,crossbowman_2:3:1714,swordsman_2:3:1286,lancer_2:3:643,swordsman_2:3:1286</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,skeletonWarrior:3:2412,deathKnight:3:1206,skeletonWarrior:3:2412,skeletonArcher:3:1809,meatWagon:3:904,skeletonArcher:3:1809</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,horseArcher_2:3:866,crossbowman_2:3:1732,horseArcher_2:3:866,ballista_2:3:649,swordsman_2:3:1299,ballista_2:3:649</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,ballista_2:3:870,sentinel_2:3:1741,ballista_2:3:870,horseArcher_2:3:653,ranger_2:3:1306,horseArcher_2:3:653</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,skeletonArcher:3:2451,meatWagon:3:1225,skeletonArcher:3:2451,skeletonWarrior:3:1838,deathKnight:3:919,skeletonWarrior:3:1838</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,sentinel_2:3:1760,horseArcher_2:3:880,sentinel_2:3:1760,crossbowman_2:3:1320,catapult_2:3:660,crossbowman_2:3:1320</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,horseArcher_2:3:884,crossbowman_2:3:1769,horseArcher_2:3:884,ballista_2:3:663,sentinel_2:3:1327,ballista_2:3:663</t>
-  </si>
-  <si>
-    <t>redDragon:3:30,meatWagon:3:1244,skeletonWarrior:3:2489,meatWagon:3:1244,deathKnight:3:933,skeletonArcher:3:1867,deathKnight:3:933</t>
-  </si>
-  <si>
-    <t>blueDragon:3:30,crossbowman_3:1:1787,ballista_3:1:893,crossbowman_3:1:1787,sentinel_3:1:1341,horseArcher_3:1:670,sentinel_3:1:1341</t>
-  </si>
-  <si>
-    <t>blueDragon:3:30,sentinel_3:1:1797,horseArcher_3:1:898,sentinel_3:1:1797,crossbowman_3:1:1348,ballista_3:1:674,crossbowman_3:1:1348</t>
-  </si>
-  <si>
-    <t>blueDragon:3:30,deathKnight:3:1444,skeletonArcher:3:2889,deathKnight:3:1444,meatWagon:3:1083,skeletonWarrior:3:2167,meatWagon:3:1083</t>
-  </si>
-  <si>
-    <t>blueDragon:3:30,catapult_3:1:907,swordsman_3:1:1815,catapult_3:1:907,lancer_3:1:681,ranger_3:1:1362,lancer_3:1:681</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,ranger_3:1:1825,catapult_3:1:912,ranger_3:1:1825,swordsman_3:1:1369,lancer_3:1:684,swordsman_3:1:1369</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,skeletonWarrior:3:2934,deathKnight:3:1467,skeletonWarrior:3:2934,skeletonArcher:3:2201,meatWagon:3:1100,skeletonArcher:3:2201</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,horseArcher_3:1:921,ranger_3:1:1843,horseArcher_3:1:921,catapult_3:1:691,swordsman_3:1:1383,catapult_3:1:691</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,ballista_3:1:926,swordsman_3:1:1853,ballista_3:1:926,lancer_3:1:695,ranger_3:1:1390,lancer_3:1:695</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,skeletonArcher:3:2979,meatWagon:3:1489,skeletonArcher:3:2979,skeletonWarrior:3:2235,deathKnight:3:1117,skeletonWarrior:3:2235</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,sentinel_3:1:1872,lancer_3:1:936,sentinel_3:1:1872,ranger_3:1:1404,catapult_3:1:702,ranger_3:1:1404</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,horseArcher_3:1:940,crossbowman_3:1:1881,horseArcher_3:1:940,catapult_3:1:705,swordsman_3:1:1411,catapult_3:1:705</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,meatWagon:3:1512,skeletonWarrior:3:3025,meatWagon:3:1512,deathKnight:3:1134,skeletonArcher:3:2269,deathKnight:3:1134</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,crossbowman_3:1:1900,ballista_3:1:950,crossbowman_3:1:1900,swordsman_3:1:1425,lancer_3:1:712,swordsman_3:1:1425</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,sentinel_3:1:1910,horseArcher_3:1:955,sentinel_3:1:1910,ranger_3:1:1433,catapult_3:1:716,ranger_3:1:1433</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,deathKnight:3:1535,skeletonArcher:3:3071,deathKnight:3:1535,meatWagon:3:1151,skeletonWarrior:3:2303,meatWagon:3:1151</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,ballista_3:1:964,sentinel_3:1:1929,ballista_3:1:964,horseArcher_3:1:723,ranger_3:1:1447,horseArcher_3:1:723</t>
-  </si>
-  <si>
-    <t>blueDragon:4:31,crossbowman_3:1:1939,ballista_3:1:969,crossbowman_3:1:1939,sentinel_3:1:1454,lancer_3:1:727,sentinel_3:1:1454</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,skeletonWarrior:3:3117,deathKnight:3:1558,skeletonWarrior:3:3117,skeletonArcher:3:2338,meatWagon:3:1169,skeletonArcher:3:2338</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,horseArcher_3:1:979,crossbowman_3:1:1958,horseArcher_3:1:979,ballista_3:1:734,sentinel_3:1:1469,ballista_3:1:734</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,ballista_3:1:984,sentinel_3:1:1968,ballista_3:1:984,horseArcher_3:1:738,crossbowman_3:1:1476,horseArcher_3:1:738</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,skeletonArcher:3:3164,meatWagon:3:1582,skeletonArcher:3:3164,skeletonWarrior:3:2373,deathKnight:3:1186,skeletonWarrior:3:2373</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,sentinel_3:1:1987,horseArcher_3:1:993,sentinel_3:1:1987,crossbowman_3:1:1491,ballista_3:1:745,crossbowman_3:1:1491</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,lancer_3:1:998,ranger_3:1:1997,lancer_3:1:998,catapult_3:1:749,swordsman_3:1:1498,catapult_3:1:749</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,meatWagon:3:1605,skeletonWarrior:3:3211,meatWagon:3:1605,deathKnight:3:1204,skeletonArcher:3:2408,deathKnight:3:1204</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,ranger_3:1:2017,catapult_3:1:1008,ranger_3:1:2017,swordsman_3:1:1513,lancer_3:1:756,swordsman_3:1:1513</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,swordsman_3:1:2027,lancer_3:1:1013,swordsman_3:1:2027,ranger_3:1:1520,catapult_3:1:760,ranger_3:1:1520</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,deathKnight:3:1629,skeletonArcher:3:3258,deathKnight:3:1629,meatWagon:3:1222,skeletonWarrior:3:2444,meatWagon:3:1222</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,ballista_3:1:1023,swordsman_3:1:2046,ballista_3:1:1023,lancer_3:1:767,ranger_3:1:1535,lancer_3:1:767</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,crossbowman_3:1:2056,catapult_3:1:1028,crossbowman_3:1:2056,swordsman_3:1:1542,lancer_3:1:771,swordsman_3:1:1542</t>
-  </si>
-  <si>
-    <t>blueDragon:4:32,skeletonWarrior:3:3306,deathKnight:3:1653,skeletonWarrior:3:3306,skeletonArcher:3:2479,meatWagon:3:1239,skeletonArcher:3:2479</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,horseArcher_3:1:1038,crossbowman_3:1:2076,horseArcher_3:1:1038,catapult_3:1:778,swordsman_3:1:1557,catapult_3:1:778</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,ballista_3:1:1043,sentinel_3:1:2086,ballista_3:1:1043,lancer_3:1:782,ranger_3:1:1565,lancer_3:1:782</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,skeletonArcher:3:3354,meatWagon:3:1677,skeletonArcher:3:3354,skeletonWarrior:3:2515,deathKnight:3:1257,skeletonWarrior:3:2515</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,sentinel_3:1:2106,horseArcher_3:1:1053,sentinel_3:1:2106,ranger_3:1:1580,catapult_3:1:790,ranger_3:1:1580</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,horseArcher_3:1:1058,crossbowman_3:1:2116,horseArcher_3:1:1058,ballista_3:1:793,swordsman_3:1:1587,ballista_3:1:793</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,meatWagon:3:1701,skeletonWarrior:3:3402,meatWagon:3:1701,deathKnight:3:1276,skeletonArcher:3:2552,deathKnight:3:1276</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,crossbowman_3:1:2137,ballista_3:1:1068,crossbowman_3:1:2137,sentinel_3:1:1603,lancer_3:1:801,sentinel_3:1:1603</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,sentinel_3:1:2147,horseArcher_3:1:1073,sentinel_3:1:2147,crossbowman_3:1:1610,catapult_3:1:805,crossbowman_3:1:1610</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,deathKnight:3:1725,skeletonArcher:3:3451,deathKnight:3:1725,meatWagon:3:1294,skeletonWarrior:3:2588,meatWagon:3:1294</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,ballista_3:1:1083,sentinel_3:1:2167,ballista_3:1:1083,horseArcher_3:1:812,crossbowman_3:1:1625,horseArcher_3:1:812</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,crossbowman_3:1:2177,ballista_3:1:1088,crossbowman_3:1:2177,sentinel_3:1:1633,horseArcher_3:1:816,sentinel_3:1:1633</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,skeletonWarrior:3:3500,deathKnight:3:1750,skeletonWarrior:3:3500,skeletonArcher:3:2625,meatWagon:3:1312,skeletonArcher:3:2625</t>
-  </si>
-  <si>
-    <t>blueDragon:4:33,lancer_3:2:1099,ranger_3:2:2198,lancer_3:2:1099,catapult_3:2:824,swordsman_3:2:1649,catapult_3:2:824</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,catapult_3:2:1104,swordsman_3:2:2208,catapult_3:2:1104,lancer_3:2:828,ranger_3:2:1656,lancer_3:2:828</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,skeletonArcher:3:3993,meatWagon:3:1996,skeletonArcher:3:3993,skeletonWarrior:3:2995,deathKnight:3:1497,skeletonWarrior:3:2995</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,swordsman_3:2:2229,lancer_3:2:1114,swordsman_3:2:2229,ranger_3:2:1672,catapult_3:2:836,ranger_3:2:1672</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,horseArcher_3:2:1119,ranger_3:2:2239,horseArcher_3:2:1119,catapult_3:2:839,swordsman_3:2:1679,catapult_3:2:839</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,meatWagon:3:2024,skeletonWarrior:3:4049,meatWagon:3:2024,deathKnight:3:1518,skeletonArcher:3:3037,deathKnight:3:1518</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,crossbowman_3:2:2260,catapult_3:2:1130,crossbowman_3:2:2260,swordsman_3:2:1695,lancer_3:2:847,swordsman_3:2:1695</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,sentinel_3:2:2270,lancer_3:2:1135,sentinel_3:2:2270,ranger_3:2:1703,catapult_3:2:851,ranger_3:2:1703</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,deathKnight:3:2052,skeletonArcher:3:4105,deathKnight:3:2052,meatWagon:3:1539,skeletonWarrior:3:3079,meatWagon:3:1539</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,ballista_3:2:1145,sentinel_3:2:2291,ballista_3:2:1145,lancer_3:2:859,ranger_3:2:1719,lancer_3:2:859</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,crossbowman_3:2:2302,ballista_3:2:1151,crossbowman_3:2:2302,swordsman_3:2:1726,lancer_3:2:863,swordsman_3:2:1726</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,skeletonWarrior:3:4162,deathKnight:3:2081,skeletonWarrior:3:4162,skeletonArcher:3:3121,meatWagon:3:1560,skeletonArcher:3:3121</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,horseArcher_3:2:1161,crossbowman_3:2:2323,horseArcher_3:2:1161,ballista_3:2:871,swordsman_3:2:1742,ballista_3:2:871</t>
-  </si>
-  <si>
-    <t>blueDragon:4:34,ballista_3:2:1166,sentinel_3:2:2333,ballista_3:2:1166,horseArcher_3:2:875,ranger_3:2:1750,horseArcher_3:2:875</t>
-  </si>
-  <si>
-    <t>blueDragon:4:35,skeletonArcher:3:4219,meatWagon:3:2109,skeletonArcher:3:4219,skeletonWarrior:3:3164,deathKnight:3:1582,skeletonWarrior:3:3164</t>
-  </si>
-  <si>
-    <t>blueDragon:4:35,sentinel_3:2:2355,horseArcher_3:2:1177,sentinel_3:2:2355,crossbowman_3:2:1766,catapult_3:2:883,crossbowman_3:2:1766</t>
-  </si>
-  <si>
-    <t>blueDragon:4:35,horseArcher_3:2:1182,crossbowman_3:2:2365,horseArcher_3:2:1182,ballista_3:2:887,sentinel_3:2:1774,ballista_3:2:887</t>
-  </si>
-  <si>
-    <t>blueDragon:4:35,meatWagon:3:2138,skeletonWarrior:3:4276,meatWagon:3:2138,deathKnight:3:1603,skeletonArcher:3:3207,deathKnight:3:1603</t>
-  </si>
-  <si>
-    <t>blueDragon:4:35,crossbowman_3:2:2387,ballista_3:2:1193,crossbowman_3:2:2387,sentinel_3:2:1790,horseArcher_3:2:895,sentinel_3:2:1790</t>
-  </si>
-  <si>
-    <t>blueDragon:4:35,sentinel_3:2:2397,horseArcher_3:2:1198,sentinel_3:2:2397,crossbowman_3:2:1798,ballista_3:2:899,crossbowman_3:2:1798</t>
-  </si>
-  <si>
-    <t>blueDragon:4:35,deathKnight:3:2167,skeletonArcher:3:4334,deathKnight:3:2167,meatWagon:3:1625,skeletonWarrior:3:3251,meatWagon:3:1625</t>
-  </si>
-  <si>
-    <t>greenDragon:4:35,catapult_3:2:1209,swordsman_3:2:2419,catapult_3:2:1209,lancer_3:2:907,ranger_3:2:1814,lancer_3:2:907</t>
-  </si>
-  <si>
-    <t>greenDragon:4:35,ranger_3:2:2430,catapult_3:2:1215,ranger_3:2:2430,swordsman_3:2:1822,lancer_3:2:911,swordsman_3:2:1822</t>
-  </si>
-  <si>
-    <t>greenDragon:4:35,skeletonWarrior:3:4392,deathKnight:3:2196,skeletonWarrior:3:4392,skeletonArcher:3:3294,meatWagon:3:1647,skeletonArcher:3:3294</t>
-  </si>
-  <si>
-    <t>greenDragon:4:35,horseArcher_3:2:1225,ranger_3:2:2451,horseArcher_3:2:1225,catapult_3:2:919,swordsman_3:2:1839,catapult_3:2:919</t>
-  </si>
-  <si>
-    <t>greenDragon:4:35,ballista_3:2:1231,swordsman_3:2:2462,ballista_3:2:1231,lancer_3:2:923,ranger_3:2:1847,lancer_3:2:923</t>
-  </si>
-  <si>
-    <t>greenDragon:4:35,skeletonArcher:3:4451,meatWagon:3:2225,skeletonArcher:3:4451,skeletonWarrior:3:3338,deathKnight:3:1669,skeletonWarrior:3:3338</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,sentinel_3:2:2484,lancer_3:2:1242,sentinel_3:2:2484,ranger_3:2:1863,catapult_3:2:931,ranger_3:2:1863</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,horseArcher_3:2:1247,crossbowman_3:2:2495,horseArcher_3:2:1247,catapult_3:2:935,swordsman_3:2:1871,catapult_3:2:935</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,meatWagon:3:2255,skeletonWarrior:3:4510,meatWagon:3:2255,deathKnight:3:1691,skeletonArcher:3:3383,deathKnight:3:1691</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,crossbowman_3:2:2517,ballista_3:2:1258,crossbowman_3:2:2517,swordsman_3:2:1888,lancer_3:2:944,swordsman_3:2:1888</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,sentinel_3:2:2528,horseArcher_3:2:1264,sentinel_3:2:2528,ranger_3:2:1896,catapult_3:2:948,ranger_3:2:1896</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,deathKnight:3:2284,skeletonArcher:3:4569,deathKnight:3:2284,meatWagon:3:1713,skeletonWarrior:3:3427,meatWagon:3:1713</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,ballista_3:2:1275,sentinel_3:2:2550,ballista_3:2:1275,horseArcher_3:2:956,ranger_3:2:1913,horseArcher_3:2:956</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,crossbowman_3:2:2561,ballista_3:2:1280,crossbowman_3:2:2561,sentinel_3:2:1921,lancer_3:2:960,sentinel_3:2:1921</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,skeletonWarrior:3:4629,deathKnight:3:2314,skeletonWarrior:3:4629,skeletonArcher:3:3472,meatWagon:3:1736,skeletonArcher:3:3472</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,horseArcher_3:2:1291,crossbowman_3:2:2583,horseArcher_3:2:1291,ballista_3:2:968,sentinel_3:2:1937,ballista_3:2:968</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,ballista_3:2:1297,sentinel_3:2:2594,ballista_3:2:1297,horseArcher_3:2:973,crossbowman_3:2:1946,horseArcher_3:2:973</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,skeletonArcher:3:4689,meatWagon:3:2344,skeletonArcher:3:4689,skeletonWarrior:3:3517,deathKnight:3:1758,skeletonWarrior:3:3517</t>
-  </si>
-  <si>
-    <t>greenDragon:4:36,sentinel_3:2:2617,horseArcher_3:2:1308,sentinel_3:2:2617,crossbowman_3:2:1963,ballista_3:2:981,crossbowman_3:2:1963</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,lancer_3:2:1314,ranger_3:2:2628,lancer_3:2:1314,catapult_3:2:985,swordsman_3:2:1971,catapult_3:2:985</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,meatWagon:3:2375,skeletonWarrior:3:4750,meatWagon:3:2375,deathKnight:3:1781,skeletonArcher:3:3563,deathKnight:3:1781</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,ranger_3:3:2650,catapult_3:3:1325,ranger_3:3:2650,swordsman_3:3:1988,lancer_3:3:994,swordsman_3:3:1988</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,swordsman_3:3:2662,lancer_3:3:1331,swordsman_3:3:2662,ranger_3:3:1996,catapult_3:3:998,ranger_3:3:1996</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,deathKnight:3:2672,skeletonArcher:3:5345,deathKnight:3:2672,meatWagon:3:2004,skeletonWarrior:3:4009,meatWagon:3:2004</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,ballista_3:3:1342,swordsman_3:3:2684,ballista_3:3:1342,lancer_3:3:1006,ranger_3:3:2013,lancer_3:3:1006</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,crossbowman_3:3:2696,catapult_3:3:1348,crossbowman_3:3:2696,swordsman_3:3:2022,lancer_3:3:1011,swordsman_3:3:2022</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,skeletonWarrior:3:5414,deathKnight:3:2707,skeletonWarrior:3:5414,skeletonArcher:3:4060,meatWagon:3:2030,skeletonArcher:3:4060</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,horseArcher_3:3:1359,crossbowman_3:3:2718,horseArcher_3:3:1359,catapult_3:3:1019,swordsman_3:3:2039,catapult_3:3:1019</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,ballista_3:3:1365,sentinel_3:3:2730,ballista_3:3:1365,lancer_3:3:1024,ranger_3:3:2048,lancer_3:3:1024</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,skeletonArcher:3:5482,meatWagon:3:2741,skeletonArcher:3:5482,skeletonWarrior:3:4112,deathKnight:3:2056,skeletonWarrior:3:4112</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,sentinel_3:3:2753,horseArcher_3:3:1376,sentinel_3:3:2753,ranger_3:3:2065,catapult_3:3:1032,ranger_3:3:2065</t>
-  </si>
-  <si>
-    <t>greenDragon:4:37,horseArcher_3:3:1382,crossbowman_3:3:2764,horseArcher_3:3:1382,ballista_3:3:1036,swordsman_3:3:2073,ballista_3:3:1036</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,meatWagon:3:2775,skeletonWarrior:3:5551,meatWagon:3:2775,deathKnight:3:2082,skeletonArcher:3:4164,deathKnight:3:2082</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,crossbowman_3:3:2787,ballista_3:3:1393,crossbowman_3:3:2787,sentinel_3:3:2091,lancer_3:3:1045,sentinel_3:3:2091</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,sentinel_3:3:2799,horseArcher_3:3:1399,sentinel_3:3:2799,crossbowman_3:3:2099,catapult_3:3:1049,crossbowman_3:3:2099</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,deathKnight:3:2810,skeletonArcher:3:5621,deathKnight:3:2810,meatWagon:3:2108,skeletonWarrior:3:4216,meatWagon:3:2108</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,ballista_3:3:1411,sentinel_3:3:2822,ballista_3:3:1411,horseArcher_3:3:1058,crossbowman_3:3:2117,horseArcher_3:3:1058</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,crossbowman_3:3:2834,ballista_3:3:1417,crossbowman_3:3:2834,sentinel_3:3:2126,horseArcher_3:3:1063,sentinel_3:3:2126</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,skeletonWarrior:3:5691,deathKnight:3:2845,skeletonWarrior:3:5691,skeletonArcher:3:4268,meatWagon:3:2134,skeletonArcher:3:4268</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,lancer_3:3:1428,ranger_3:3:2857,lancer_3:3:1428,catapult_3:3:1071,swordsman_3:3:2143,catapult_3:3:1071</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,catapult_3:3:1434,swordsman_3:3:2869,catapult_3:3:1434,lancer_3:3:1076,ranger_3:3:2152,lancer_3:3:1076</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,skeletonArcher:3:5773,meatWagon:3:2886,skeletonArcher:3:5773,skeletonWarrior:3:4330,deathKnight:3:2165,skeletonWarrior:3:4330</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,swordsman_3:3:2892,lancer_3:3:1446,swordsman_3:3:2892,ranger_3:3:2169,catapult_3:3:1084,ranger_3:3:2169</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,horseArcher_3:3:1456,ranger_3:3:2913,horseArcher_3:3:1456,catapult_3:3:1092,swordsman_3:3:2185,catapult_3:3:1092</t>
-  </si>
-  <si>
-    <t>greenDragon:4:38,meatWagon:3:2933,skeletonWarrior:3:5867,meatWagon:3:2933,deathKnight:3:2200,skeletonArcher:3:4400,deathKnight:3:2200</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,crossbowman_3:3:2954,catapult_3:3:1477,crossbowman_3:3:2954,swordsman_3:3:2216,lancer_3:3:1108,swordsman_3:3:2216</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,sentinel_3:3:2975,lancer_3:3:1487,sentinel_3:3:2975,ranger_3:3:2231,catapult_3:3:1115,ranger_3:3:2231</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,deathKnight:3:2995,skeletonArcher:3:5991,deathKnight:3:2995,meatWagon:3:2246,skeletonWarrior:3:4493,meatWagon:3:2246</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,ballista_3:3:1508,sentinel_3:3:3016,ballista_3:3:1508,lancer_3:3:1131,ranger_3:3:2262,lancer_3:3:1131</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,crossbowman_3:3:3037,ballista_3:3:1518,crossbowman_3:3:3037,swordsman_3:3:2278,lancer_3:3:1139,swordsman_3:3:2278</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,skeletonWarrior:3:6116,deathKnight:3:3058,skeletonWarrior:3:6116,skeletonArcher:3:4587,meatWagon:3:2293,skeletonArcher:3:4587</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,horseArcher_3:3:1539,crossbowman_3:3:3079,horseArcher_3:3:1539,ballista_3:3:1154,swordsman_3:3:2309,ballista_3:3:1154</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,ballista_3:3:1550,sentinel_3:3:3100,ballista_3:3:1550,horseArcher_3:3:1162,ranger_3:3:2325,horseArcher_3:3:1162</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,skeletonArcher:3:6242,meatWagon:3:3121,skeletonArcher:3:6242,skeletonWarrior:3:4682,deathKnight:3:2341,skeletonWarrior:3:4682</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,sentinel_3:3:3142,horseArcher_3:3:1571,sentinel_3:3:3142,crossbowman_3:3:2357,catapult_3:3:1178,crossbowman_3:3:2357</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,horseArcher_3:3:1582,crossbowman_3:3:3164,horseArcher_3:3:1582,ballista_3:3:1186,sentinel_3:3:2373,ballista_3:3:1186</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,meatWagon:3:3184,skeletonWarrior:3:6369,meatWagon:3:3184,deathKnight:3:2388,skeletonArcher:3:4777,deathKnight:3:2388</t>
-  </si>
-  <si>
-    <t>greenDragon:4:39,crossbowman_3:3:3206,ballista_3:3:1603,crossbowman_3:3:3206,sentinel_3:3:2405,horseArcher_3:3:1202,sentinel_3:3:2405</t>
-  </si>
-  <si>
-    <t>greenDragon:4:40,sentinel_3:3:3228,horseArcher_3:3:1614,sentinel_3:3:3228,crossbowman_3:3:2421,ballista_3:3:1210,crossbowman_3:3:2421</t>
-  </si>
-  <si>
-    <t>greenDragon:4:40,deathKnight:3:3248,skeletonArcher:3:6497,deathKnight:3:3248,meatWagon:3:2436,skeletonWarrior:3:4873,meatWagon:3:2436</t>
-  </si>
-  <si>
-    <t>greenDragon:4:40,catapult_3:3:1635,swordsman_3:3:3270,catapult_3:3:1635,lancer_3:3:1226,ranger_3:3:2453,lancer_3:3:1226</t>
-  </si>
-  <si>
-    <t>greenDragon:4:40,ranger_3:3:3292,catapult_3:3:1646,ranger_3:3:3292,swordsman_3:3:2469,lancer_3:3:1234,swordsman_3:3:2469</t>
-  </si>
-  <si>
-    <t>greenDragon:4:40,skeletonWarrior:3:6627,deathKnight:3:3313,skeletonWarrior:3:6627,skeletonArcher:3:4970,meatWagon:3:2485,skeletonArcher:3:4970</t>
+    <t>blueDragon:1:2,meatWagon:3:1,skeletonWarrior:3:3,meatWagon:3:1</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,deathKnight:3:2,skeletonArcher:3:4,deathKnight:3:2</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,skeletonWarrior:3:6,deathKnight:3:3,skeletonWarrior:3:6</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,skeletonArcher:3:7,meatWagon:3:3,skeletonArcher:3:7</t>
+  </si>
+  <si>
+    <t>blueDragon:1:2,meatWagon:3:4,skeletonWarrior:3:9,meatWagon:3:4</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,deathKnight:3:5,skeletonArcher:3:10,deathKnight:3:5</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,skeletonWarrior:3:12,deathKnight:3:6,skeletonWarrior:3:12,skeletonArcher:3:9</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,skeletonArcher:3:13,meatWagon:3:6,skeletonArcher:3:13,skeletonWarrior:3:10</t>
+  </si>
+  <si>
+    <t>blueDragon:1:3,meatWagon:3:7,skeletonWarrior:3:15,meatWagon:3:7,deathKnight:3:5</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,deathKnight:3:8,skeletonArcher:3:16,deathKnight:3:8,meatWagon:3:6</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,skeletonWarrior:3:18,deathKnight:3:9,skeletonWarrior:3:18,skeletonArcher:3:14</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,skeletonArcher:3:20,meatWagon:3:10,skeletonArcher:3:20,skeletonWarrior:3:15</t>
+  </si>
+  <si>
+    <t>blueDragon:1:4,meatWagon:3:10,skeletonWarrior:3:21,meatWagon:3:10,deathKnight:3:8</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,deathKnight:3:11,skeletonArcher:3:23,deathKnight:3:11,meatWagon:3:8,skeletonWarrior:3:17</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,skeletonWarrior:3:24,deathKnight:3:12,skeletonWarrior:3:24,skeletonArcher:3:18,meatWagon:3:9</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,skeletonArcher:3:26,meatWagon:3:13,skeletonArcher:3:26,skeletonWarrior:3:19,deathKnight:3:9</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,meatWagon:3:13,skeletonWarrior:3:27,meatWagon:3:13,deathKnight:3:10,skeletonArcher:3:21</t>
+  </si>
+  <si>
+    <t>greenDragon:1:5,deathKnight:3:14,skeletonArcher:3:29,deathKnight:3:14,meatWagon:3:11,skeletonWarrior:3:22</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,skeletonWarrior:3:30,deathKnight:3:15,skeletonWarrior:3:30,skeletonArcher:3:23,meatWagon:3:11</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,skeletonArcher:3:32,meatWagon:3:16,skeletonArcher:3:32,skeletonWarrior:3:24,deathKnight:3:12</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,meatWagon:3:25,skeletonWarrior:3:50,meatWagon:3:25,deathKnight:3:19,skeletonArcher:3:38,deathKnight:3:19</t>
+  </si>
+  <si>
+    <t>greenDragon:1:6,deathKnight:3:26,skeletonArcher:3:52,deathKnight:3:26,meatWagon:3:19,skeletonWarrior:3:39,meatWagon:3:19</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,skeletonWarrior:3:54,deathKnight:3:27,skeletonWarrior:3:54,skeletonArcher:3:41,meatWagon:3:20,skeletonArcher:3:41</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,skeletonArcher:3:57,meatWagon:3:28,skeletonArcher:3:57,skeletonWarrior:3:43,deathKnight:3:21,skeletonWarrior:3:43</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,meatWagon:3:29,skeletonWarrior:3:59,meatWagon:3:29,deathKnight:3:22,skeletonArcher:3:45,deathKnight:3:22</t>
+  </si>
+  <si>
+    <t>greenDragon:1:7,deathKnight:3:30,skeletonArcher:3:61,deathKnight:3:30,meatWagon:3:23,skeletonWarrior:3:46,meatWagon:3:23</t>
+  </si>
+  <si>
+    <t>greenDragon:1:8,skeletonWarrior:3:64,deathKnight:3:32,skeletonWarrior:3:64,skeletonArcher:3:48,meatWagon:3:24,skeletonArcher:3:48</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,skeletonArcher:3:66,meatWagon:3:33,skeletonArcher:3:66,skeletonWarrior:3:50,deathKnight:3:25,skeletonWarrior:3:50</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,meatWagon:3:34,skeletonWarrior:3:68,meatWagon:3:34,deathKnight:3:25,skeletonArcher:3:51,deathKnight:3:25</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,deathKnight:3:35,skeletonArcher:3:71,deathKnight:3:35,meatWagon:3:26,skeletonWarrior:3:53,meatWagon:3:26</t>
+  </si>
+  <si>
+    <t>redDragon:1:8,skeletonWarrior:3:73,deathKnight:3:36,skeletonWarrior:3:73,skeletonArcher:3:55,meatWagon:3:27,skeletonArcher:3:55</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,skeletonArcher:3:75,meatWagon:3:37,skeletonArcher:3:75,skeletonWarrior:3:57,deathKnight:3:28,skeletonWarrior:3:57</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,meatWagon:3:39,skeletonWarrior:3:78,meatWagon:3:39,deathKnight:3:29,skeletonArcher:3:58,deathKnight:3:29</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,deathKnight:3:40,skeletonArcher:3:80,deathKnight:3:40,meatWagon:3:30,skeletonWarrior:3:60,meatWagon:3:30</t>
+  </si>
+  <si>
+    <t>redDragon:1:9,skeletonWarrior:3:82,deathKnight:3:41,skeletonWarrior:3:82,skeletonArcher:3:62,meatWagon:3:31,skeletonArcher:3:62</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,skeletonArcher:3:85,meatWagon:3:42,skeletonArcher:3:85,skeletonWarrior:3:64,deathKnight:3:32,skeletonWarrior:3:64</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,meatWagon:3:43,skeletonWarrior:3:87,meatWagon:3:43,deathKnight:3:32,skeletonArcher:3:65,deathKnight:3:32</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,deathKnight:3:44,skeletonArcher:3:89,deathKnight:3:44,meatWagon:3:33,skeletonWarrior:3:67,meatWagon:3:33</t>
+  </si>
+  <si>
+    <t>redDragon:1:10,skeletonWarrior:3:92,deathKnight:3:46,skeletonWarrior:3:92,skeletonArcher:3:69,meatWagon:3:34,skeletonArcher:3:69</t>
+  </si>
+  <si>
+    <t>redDragon:2:11,skeletonArcher:3:94,meatWagon:3:47,skeletonArcher:3:94,skeletonWarrior:3:71,deathKnight:3:35,skeletonWarrior:3:71</t>
+  </si>
+  <si>
+    <t>redDragon:2:11,meatWagon:3:48,skeletonWarrior:3:96,meatWagon:3:48,deathKnight:3:36,skeletonArcher:3:72,deathKnight:3:36</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,deathKnight:3:65,skeletonArcher:3:131,deathKnight:3:65,meatWagon:3:49,skeletonWarrior:3:99,meatWagon:3:49</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,skeletonWarrior:3:134,deathKnight:3:67,skeletonWarrior:3:134,skeletonArcher:3:101,meatWagon:3:50,skeletonArcher:3:101</t>
+  </si>
+  <si>
+    <t>blueDragon:2:11,skeletonArcher:3:137,meatWagon:3:68,skeletonArcher:3:137,skeletonWarrior:3:103,deathKnight:3:51,skeletonWarrior:3:103</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,meatWagon:3:70,skeletonWarrior:3:140,meatWagon:3:70,deathKnight:3:52,skeletonArcher:3:105,deathKnight:3:52</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,deathKnight:3:71,skeletonArcher:3:143,deathKnight:3:71,meatWagon:3:54,skeletonWarrior:3:108,meatWagon:3:54</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,skeletonWarrior:3:147,deathKnight:3:73,skeletonWarrior:3:147,skeletonArcher:3:110,meatWagon:3:55,skeletonArcher:3:110</t>
+  </si>
+  <si>
+    <t>blueDragon:2:12,skeletonArcher:3:150,meatWagon:3:75,skeletonArcher:3:150,skeletonWarrior:3:112,deathKnight:3:56,skeletonWarrior:3:112</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,meatWagon:3:76,skeletonWarrior:3:153,meatWagon:3:76,deathKnight:3:57,skeletonArcher:3:115,deathKnight:3:57</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,deathKnight:3:78,skeletonArcher:3:156,deathKnight:3:78,meatWagon:3:58,skeletonWarrior:3:117,meatWagon:3:58</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,skeletonWarrior:3:159,deathKnight:3:79,skeletonWarrior:3:159,skeletonArcher:3:119,meatWagon:3:59,skeletonArcher:3:119</t>
+  </si>
+  <si>
+    <t>blueDragon:2:13,skeletonArcher:3:162,meatWagon:3:81,skeletonArcher:3:162,skeletonWarrior:3:122,deathKnight:3:61,skeletonWarrior:3:122</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,meatWagon:3:82,skeletonWarrior:3:165,meatWagon:3:82,deathKnight:3:62,skeletonArcher:3:124,deathKnight:3:62</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,deathKnight:3:84,skeletonArcher:3:168,deathKnight:3:84,meatWagon:3:63,skeletonWarrior:3:126,meatWagon:3:63</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,skeletonWarrior:3:171,deathKnight:3:85,skeletonWarrior:3:171,skeletonArcher:3:129,meatWagon:3:64,skeletonArcher:3:129</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,skeletonArcher:3:174,meatWagon:3:87,skeletonArcher:3:174,skeletonWarrior:3:131,deathKnight:3:65,skeletonWarrior:3:131</t>
+  </si>
+  <si>
+    <t>blueDragon:2:14,meatWagon:3:88,skeletonWarrior:3:177,meatWagon:3:88,deathKnight:3:66,skeletonArcher:3:133,deathKnight:3:66</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,deathKnight:3:90,skeletonArcher:3:180,deathKnight:3:90,meatWagon:3:67,skeletonWarrior:3:135,meatWagon:3:67</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,skeletonWarrior:3:184,deathKnight:3:92,skeletonWarrior:3:184,skeletonArcher:3:138,meatWagon:3:69,skeletonArcher:3:138</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,skeletonArcher:3:187,meatWagon:3:93,skeletonArcher:3:187,skeletonWarrior:3:140,deathKnight:3:70,skeletonWarrior:3:140</t>
+  </si>
+  <si>
+    <t>blueDragon:2:15,meatWagon:3:95,skeletonWarrior:3:190,meatWagon:3:95,deathKnight:3:71,skeletonArcher:3:143,deathKnight:3:71</t>
+  </si>
+  <si>
+    <t>blueDragon:2:16,deathKnight:3:96,skeletonArcher:3:193,deathKnight:3:96,meatWagon:3:72,skeletonWarrior:3:145,meatWagon:3:72</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,skeletonWarrior:3:294,deathKnight:3:147,skeletonWarrior:3:294,skeletonArcher:3:220,meatWagon:3:110,skeletonArcher:3:220</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,skeletonArcher:3:298,meatWagon:3:149,skeletonArcher:3:298,skeletonWarrior:3:224,deathKnight:3:112,skeletonWarrior:3:224</t>
+  </si>
+  <si>
+    <t>redDragon:2:16,meatWagon:3:151,skeletonWarrior:3:303,meatWagon:3:151,deathKnight:3:113,skeletonArcher:3:227,deathKnight:3:113</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,deathKnight:3:154,skeletonArcher:3:308,deathKnight:3:154,meatWagon:3:115,skeletonWarrior:3:231,meatWagon:3:115</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,skeletonWarrior:3:312,deathKnight:3:156,skeletonWarrior:3:312,skeletonArcher:3:234,meatWagon:3:117,skeletonArcher:3:234</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,skeletonArcher:3:317,meatWagon:3:158,skeletonArcher:3:317,skeletonWarrior:3:238,deathKnight:3:119,skeletonWarrior:3:238</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,meatWagon:3:160,skeletonWarrior:3:321,meatWagon:3:160,deathKnight:3:120,skeletonArcher:3:241,deathKnight:3:120</t>
+  </si>
+  <si>
+    <t>redDragon:2:17,deathKnight:3:163,skeletonArcher:3:326,deathKnight:3:163,meatWagon:3:122,skeletonWarrior:3:245,meatWagon:3:122</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,skeletonWarrior:3:331,deathKnight:3:165,skeletonWarrior:3:331,skeletonArcher:3:248,meatWagon:3:124,skeletonArcher:3:248</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,skeletonArcher:3:335,meatWagon:3:167,skeletonArcher:3:335,skeletonWarrior:3:252,deathKnight:3:126,skeletonWarrior:3:252</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,meatWagon:3:170,skeletonWarrior:3:340,meatWagon:3:170,deathKnight:3:127,skeletonArcher:3:255,deathKnight:3:127</t>
+  </si>
+  <si>
+    <t>redDragon:2:18,deathKnight:3:172,skeletonArcher:3:345,deathKnight:3:172,meatWagon:3:129,skeletonWarrior:3:259,meatWagon:3:129</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,skeletonWarrior:3:349,deathKnight:3:174,skeletonWarrior:3:349,skeletonArcher:3:262,meatWagon:3:131,skeletonArcher:3:262</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,skeletonArcher:3:354,meatWagon:3:177,skeletonArcher:3:354,skeletonWarrior:3:266,deathKnight:3:133,skeletonWarrior:3:266</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,meatWagon:3:179,skeletonWarrior:3:358,meatWagon:3:179,deathKnight:3:134,skeletonArcher:3:269,deathKnight:3:134</t>
+  </si>
+  <si>
+    <t>redDragon:2:19,deathKnight:3:181,skeletonArcher:3:363,deathKnight:3:181,meatWagon:3:136,skeletonWarrior:3:272,meatWagon:3:136</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,skeletonWarrior:3:368,deathKnight:3:184,skeletonWarrior:3:368,skeletonArcher:3:276,meatWagon:3:138,skeletonArcher:3:276</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,skeletonArcher:3:372,meatWagon:3:186,skeletonArcher:3:372,skeletonWarrior:3:279,deathKnight:3:139,skeletonWarrior:3:279</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,meatWagon:3:188,skeletonWarrior:3:377,meatWagon:3:188,deathKnight:3:141,skeletonArcher:3:283,deathKnight:3:141</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,deathKnight:3:191,skeletonArcher:3:382,deathKnight:3:191,meatWagon:3:143,skeletonWarrior:3:286,meatWagon:3:143</t>
+  </si>
+  <si>
+    <t>redDragon:2:20,skeletonWarrior:3:386,deathKnight:3:193,skeletonWarrior:3:386,skeletonArcher:3:290,meatWagon:3:145,skeletonArcher:3:290</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,skeletonArcher:3:521,meatWagon:3:260,skeletonArcher:3:521,skeletonWarrior:3:391,deathKnight:3:195,skeletonWarrior:3:391</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,meatWagon:3:263,skeletonWarrior:3:527,meatWagon:3:263,deathKnight:3:198,skeletonArcher:3:396,deathKnight:3:198</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,deathKnight:3:266,skeletonArcher:3:533,deathKnight:3:266,meatWagon:3:200,skeletonWarrior:3:400,meatWagon:3:200</t>
+  </si>
+  <si>
+    <t>greenDragon:3:21,skeletonWarrior:3:539,deathKnight:3:269,skeletonWarrior:3:539,skeletonArcher:3:405,meatWagon:3:202,skeletonArcher:3:405</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,skeletonArcher:3:546,meatWagon:3:273,skeletonArcher:3:546,skeletonWarrior:3:409,deathKnight:3:204,skeletonWarrior:3:409</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,meatWagon:3:276,skeletonWarrior:3:552,meatWagon:3:276,deathKnight:3:207,skeletonArcher:3:414,deathKnight:3:207</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,deathKnight:3:279,skeletonArcher:3:558,deathKnight:3:279,meatWagon:3:209,skeletonWarrior:3:419,meatWagon:3:209</t>
+  </si>
+  <si>
+    <t>greenDragon:3:22,skeletonWarrior:3:564,deathKnight:3:282,skeletonWarrior:3:564,skeletonArcher:3:423,meatWagon:3:211,skeletonArcher:3:423</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,skeletonArcher:3:570,meatWagon:3:285,skeletonArcher:3:570,skeletonWarrior:3:428,deathKnight:3:214,skeletonWarrior:3:428</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,meatWagon:3:288,skeletonWarrior:3:576,meatWagon:3:288,deathKnight:3:216,skeletonArcher:3:432,deathKnight:3:216</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,deathKnight:3:292,skeletonArcher:3:585,deathKnight:3:292,meatWagon:3:219,skeletonWarrior:3:439,meatWagon:3:219</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,skeletonWarrior:3:597,deathKnight:3:298,skeletonWarrior:3:597,skeletonArcher:3:448,meatWagon:3:224,skeletonArcher:3:448</t>
+  </si>
+  <si>
+    <t>greenDragon:3:23,skeletonArcher:3:609,meatWagon:3:304,skeletonArcher:3:609,skeletonWarrior:3:457,deathKnight:3:228,skeletonWarrior:3:457</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,meatWagon:3:310,skeletonWarrior:3:621,meatWagon:3:310,deathKnight:3:233,skeletonArcher:3:466,deathKnight:3:233</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,deathKnight:3:317,skeletonArcher:3:634,deathKnight:3:317,meatWagon:3:237,skeletonWarrior:3:475,meatWagon:3:237</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,skeletonWarrior:3:646,deathKnight:3:323,skeletonWarrior:3:646,skeletonArcher:3:485,meatWagon:3:242,skeletonArcher:3:485</t>
+  </si>
+  <si>
+    <t>greenDragon:3:24,skeletonArcher:3:659,meatWagon:3:329,skeletonArcher:3:659,skeletonWarrior:3:494,deathKnight:3:247,skeletonWarrior:3:494</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,meatWagon:3:336,skeletonWarrior:3:672,meatWagon:3:336,deathKnight:3:252,skeletonArcher:3:504,deathKnight:3:252</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,deathKnight:3:342,skeletonArcher:3:685,deathKnight:3:342,meatWagon:3:257,skeletonWarrior:3:514,meatWagon:3:257</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,skeletonWarrior:3:698,deathKnight:3:349,skeletonWarrior:3:698,skeletonArcher:3:524,meatWagon:3:262,skeletonArcher:3:524</t>
+  </si>
+  <si>
+    <t>greenDragon:3:25,skeletonArcher:3:711,meatWagon:3:355,skeletonArcher:3:711,skeletonWarrior:3:533,deathKnight:3:266,skeletonWarrior:3:533</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,meatWagon:3:452,skeletonWarrior:3:905,meatWagon:3:452,deathKnight:3:339,skeletonArcher:3:679,deathKnight:3:339</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,deathKnight:3:461,skeletonArcher:3:922,deathKnight:3:461,meatWagon:3:346,skeletonWarrior:3:692,meatWagon:3:346</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,skeletonWarrior:3:939,deathKnight:3:469,skeletonWarrior:3:939,skeletonArcher:3:704,meatWagon:3:352,skeletonArcher:3:704</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,skeletonArcher:3:956,meatWagon:3:478,skeletonArcher:3:956,skeletonWarrior:3:717,deathKnight:3:358,skeletonWarrior:3:717</t>
+  </si>
+  <si>
+    <t>redDragon:3:26,meatWagon:3:486,skeletonWarrior:3:973,meatWagon:3:486,deathKnight:3:365,skeletonArcher:3:730,deathKnight:3:365</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,deathKnight:3:495,skeletonArcher:3:991,deathKnight:3:495,meatWagon:3:371,skeletonWarrior:3:743,meatWagon:3:371</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,skeletonWarrior:3:1008,deathKnight:3:504,skeletonWarrior:3:1008,skeletonArcher:3:756,meatWagon:3:378,skeletonArcher:3:756</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,skeletonArcher:3:1026,meatWagon:3:513,skeletonArcher:3:1026,skeletonWarrior:3:770,deathKnight:3:385,skeletonWarrior:3:770</t>
+  </si>
+  <si>
+    <t>redDragon:3:27,meatWagon:3:522,skeletonWarrior:3:1044,meatWagon:3:522,deathKnight:3:391,skeletonArcher:3:783,deathKnight:3:391</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,deathKnight:3:531,skeletonArcher:3:1062,deathKnight:3:531,meatWagon:3:398,skeletonWarrior:3:797,meatWagon:3:398</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,skeletonWarrior:3:1080,deathKnight:3:540,skeletonWarrior:3:1080,skeletonArcher:3:810,meatWagon:3:405,skeletonArcher:3:810</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,skeletonArcher:3:1098,meatWagon:3:549,skeletonArcher:3:1098,skeletonWarrior:3:824,deathKnight:3:412,skeletonWarrior:3:824</t>
+  </si>
+  <si>
+    <t>redDragon:3:28,meatWagon:3:558,skeletonWarrior:3:1117,meatWagon:3:558,deathKnight:3:419,skeletonArcher:3:838,deathKnight:3:419</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,deathKnight:3:567,skeletonArcher:3:1135,deathKnight:3:567,meatWagon:3:426,skeletonWarrior:3:852,meatWagon:3:426</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,skeletonWarrior:3:1154,deathKnight:3:577,skeletonWarrior:3:1154,skeletonArcher:3:866,meatWagon:3:433,skeletonArcher:3:866</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,skeletonArcher:3:1173,meatWagon:3:586,skeletonArcher:3:1173,skeletonWarrior:3:880,deathKnight:3:440,skeletonWarrior:3:880</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,meatWagon:3:596,skeletonWarrior:3:1192,meatWagon:3:596,deathKnight:3:447,skeletonArcher:3:894,deathKnight:3:447</t>
+  </si>
+  <si>
+    <t>redDragon:3:29,deathKnight:3:606,skeletonArcher:3:1212,deathKnight:3:606,meatWagon:3:454,skeletonWarrior:3:909,meatWagon:3:454</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,skeletonWarrior:3:1231,deathKnight:3:615,skeletonWarrior:3:1231,skeletonArcher:3:923,meatWagon:3:461,skeletonArcher:3:923</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,skeletonArcher:3:1251,meatWagon:3:625,skeletonArcher:3:1251,skeletonWarrior:3:938,deathKnight:3:469,skeletonWarrior:3:938</t>
+  </si>
+  <si>
+    <t>redDragon:3:30,meatWagon:3:635,skeletonWarrior:3:1270,meatWagon:3:635,deathKnight:3:476,skeletonArcher:3:953,deathKnight:3:476</t>
+  </si>
+  <si>
+    <t>blueDragon:3:30,deathKnight:3:967,skeletonArcher:3:1935,deathKnight:3:967,meatWagon:3:725,skeletonWarrior:3:1451,meatWagon:3:725</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,skeletonWarrior:3:1965,deathKnight:3:982,skeletonWarrior:3:1965,skeletonArcher:3:1474,meatWagon:3:737,skeletonArcher:3:1474</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,skeletonArcher:3:1995,meatWagon:3:997,skeletonArcher:3:1995,skeletonWarrior:3:1497,deathKnight:3:748,skeletonWarrior:3:1497</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,meatWagon:3:1013,skeletonWarrior:3:2026,meatWagon:3:1013,deathKnight:3:760,skeletonArcher:3:1520,deathKnight:3:760</t>
+  </si>
+  <si>
+    <t>blueDragon:4:31,deathKnight:3:1028,skeletonArcher:3:2057,deathKnight:3:1028,meatWagon:3:771,skeletonWarrior:3:1543,meatWagon:3:771</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,skeletonWarrior:3:2088,deathKnight:3:1044,skeletonWarrior:3:2088,skeletonArcher:3:1566,meatWagon:3:783,skeletonArcher:3:1566</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,skeletonArcher:3:2119,meatWagon:3:1059,skeletonArcher:3:2119,skeletonWarrior:3:1589,deathKnight:3:794,skeletonWarrior:3:1589</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,meatWagon:3:1075,skeletonWarrior:3:2150,meatWagon:3:1075,deathKnight:3:806,skeletonArcher:3:1613,deathKnight:3:806</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,deathKnight:3:1091,skeletonArcher:3:2182,deathKnight:3:1091,meatWagon:3:818,skeletonWarrior:3:1637,meatWagon:3:818</t>
+  </si>
+  <si>
+    <t>blueDragon:4:32,skeletonWarrior:3:2214,deathKnight:3:1107,skeletonWarrior:3:2214,skeletonArcher:3:1661,meatWagon:3:830,skeletonArcher:3:1661</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,skeletonArcher:3:2246,meatWagon:3:1123,skeletonArcher:3:2246,skeletonWarrior:3:1685,deathKnight:3:842,skeletonWarrior:3:1685</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,meatWagon:3:1139,skeletonWarrior:3:2278,meatWagon:3:1139,deathKnight:3:854,skeletonArcher:3:1709,deathKnight:3:854</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,deathKnight:3:1155,skeletonArcher:3:2311,deathKnight:3:1155,meatWagon:3:866,skeletonWarrior:3:1733,meatWagon:3:866</t>
+  </si>
+  <si>
+    <t>blueDragon:4:33,skeletonWarrior:3:2344,deathKnight:3:1172,skeletonWarrior:3:2344,skeletonArcher:3:1758,meatWagon:3:879,skeletonArcher:3:1758</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,skeletonArcher:3:3169,meatWagon:3:1584,skeletonArcher:3:3169,skeletonWarrior:3:2377,deathKnight:3:1188,skeletonWarrior:3:2377</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,meatWagon:3:1606,skeletonWarrior:3:3213,meatWagon:3:1606,deathKnight:3:1205,skeletonArcher:3:2410,deathKnight:3:1205</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,deathKnight:3:1629,skeletonArcher:3:3258,deathKnight:3:1629,meatWagon:3:1222,skeletonWarrior:3:2444,meatWagon:3:1222</t>
+  </si>
+  <si>
+    <t>blueDragon:4:34,skeletonWarrior:3:3303,deathKnight:3:1651,skeletonWarrior:3:3303,skeletonArcher:3:2477,meatWagon:3:1238,skeletonArcher:3:2477</t>
+  </si>
+  <si>
+    <t>blueDragon:4:35,skeletonArcher:3:3348,meatWagon:3:1674,skeletonArcher:3:3348,skeletonWarrior:3:2511,deathKnight:3:1255,skeletonWarrior:3:2511</t>
+  </si>
+  <si>
+    <t>blueDragon:4:35,meatWagon:3:1697,skeletonWarrior:3:3394,meatWagon:3:1697,deathKnight:3:1273,skeletonArcher:3:2546,deathKnight:3:1273</t>
+  </si>
+  <si>
+    <t>blueDragon:4:35,deathKnight:3:1720,skeletonArcher:3:3440,deathKnight:3:1720,meatWagon:3:1290,skeletonWarrior:3:2580,meatWagon:3:1290</t>
+  </si>
+  <si>
+    <t>greenDragon:4:35,skeletonWarrior:3:3486,deathKnight:3:1743,skeletonWarrior:3:3486,skeletonArcher:3:2615,meatWagon:3:1307,skeletonArcher:3:2615</t>
+  </si>
+  <si>
+    <t>greenDragon:4:35,skeletonArcher:3:3533,meatWagon:3:1766,skeletonArcher:3:3533,skeletonWarrior:3:2650,deathKnight:3:1325,skeletonWarrior:3:2650</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,meatWagon:3:1789,skeletonWarrior:3:3579,meatWagon:3:1789,deathKnight:3:1342,skeletonArcher:3:2685,deathKnight:3:1342</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,deathKnight:3:1813,skeletonArcher:3:3627,deathKnight:3:1813,meatWagon:3:1360,skeletonWarrior:3:2720,meatWagon:3:1360</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,skeletonWarrior:3:3674,deathKnight:3:1837,skeletonWarrior:3:3674,skeletonArcher:3:2756,meatWagon:3:1378,skeletonArcher:3:2756</t>
+  </si>
+  <si>
+    <t>greenDragon:4:36,skeletonArcher:3:3722,meatWagon:3:1861,skeletonArcher:3:3722,skeletonWarrior:3:2792,deathKnight:3:1396,skeletonWarrior:3:2792</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,meatWagon:3:1885,skeletonWarrior:3:3770,meatWagon:3:1885,deathKnight:3:1414,skeletonArcher:3:2828,deathKnight:3:1414</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,deathKnight:3:2386,skeletonArcher:3:4773,deathKnight:3:2386,meatWagon:3:1790,skeletonWarrior:3:3580,meatWagon:3:1790</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,skeletonWarrior:3:4834,deathKnight:3:2417,skeletonWarrior:3:4834,skeletonArcher:3:3625,meatWagon:3:1812,skeletonArcher:3:3625</t>
+  </si>
+  <si>
+    <t>greenDragon:4:37,skeletonArcher:3:4895,meatWagon:3:2447,skeletonArcher:3:4895,skeletonWarrior:3:3671,deathKnight:3:1835,skeletonWarrior:3:3671</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,meatWagon:3:2478,skeletonWarrior:3:4956,meatWagon:3:2478,deathKnight:3:1858,skeletonArcher:3:3717,deathKnight:3:1858</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,deathKnight:3:2509,skeletonArcher:3:5019,deathKnight:3:2509,meatWagon:3:1882,skeletonWarrior:3:3764,meatWagon:3:1882</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,skeletonWarrior:3:5081,deathKnight:3:2540,skeletonWarrior:3:5081,skeletonArcher:3:3811,meatWagon:3:1905,skeletonArcher:3:3811</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,skeletonArcher:3:5154,meatWagon:3:2577,skeletonArcher:3:5154,skeletonWarrior:3:3866,deathKnight:3:1933,skeletonWarrior:3:3866</t>
+  </si>
+  <si>
+    <t>greenDragon:4:38,meatWagon:3:2619,skeletonWarrior:3:5238,meatWagon:3:2619,deathKnight:3:1964,skeletonArcher:3:3929,deathKnight:3:1964</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,deathKnight:3:2674,skeletonArcher:3:5349,deathKnight:3:2674,meatWagon:3:2006,skeletonWarrior:3:4012,meatWagon:3:2006</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,skeletonWarrior:3:5460,deathKnight:3:2730,skeletonWarrior:3:5460,skeletonArcher:3:4095,meatWagon:3:2047,skeletonArcher:3:4095</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,skeletonArcher:3:5573,meatWagon:3:2786,skeletonArcher:3:5573,skeletonWarrior:3:4180,deathKnight:3:2090,skeletonWarrior:3:4180</t>
+  </si>
+  <si>
+    <t>greenDragon:4:39,meatWagon:3:2843,skeletonWarrior:3:5687,meatWagon:3:2843,deathKnight:3:2132,skeletonArcher:3:4265,deathKnight:3:2132</t>
+  </si>
+  <si>
+    <t>greenDragon:4:40,deathKnight:3:2900,skeletonArcher:3:5801,deathKnight:3:2900,meatWagon:3:2175,skeletonWarrior:3:4351,meatWagon:3:2175</t>
+  </si>
+  <si>
+    <t>greenDragon:4:40,skeletonWarrior:3:5917,deathKnight:3:2958,skeletonWarrior:3:5917,skeletonArcher:3:4438,meatWagon:3:2219,skeletonArcher:3:4438</t>
   </si>
 </sst>
 </file>
@@ -4493,7 +4493,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="889">
+  <cellStyleXfs count="891">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -4975,6 +4975,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5454,7 +5456,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="889">
+  <cellStyles count="891">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -5901,6 +5903,7 @@
     <cellStyle name="超链接" xfId="883" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="885" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="887" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="889" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -6340,6 +6343,7 @@
     <cellStyle name="访问过的超链接" xfId="884" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="886" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="888" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="890" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -6792,8 +6796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H523"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G509"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B488" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6852,7 +6856,7 @@
         <v>631</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>908</v>
+        <v>1244</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>658</v>
@@ -6878,7 +6882,7 @@
         <v>631</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>658</v>
@@ -6904,7 +6908,7 @@
         <v>631</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>509</v>
@@ -6930,7 +6934,7 @@
         <v>631</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>658</v>
@@ -6956,7 +6960,7 @@
         <v>631</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>659</v>
@@ -6982,7 +6986,7 @@
         <v>631</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>913</v>
+        <v>1245</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>510</v>
@@ -7008,7 +7012,7 @@
         <v>631</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>659</v>
@@ -7034,7 +7038,7 @@
         <v>631</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>659</v>
@@ -7060,7 +7064,7 @@
         <v>631</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>916</v>
+        <v>1246</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>511</v>
@@ -7086,7 +7090,7 @@
         <v>631</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>660</v>
@@ -7112,7 +7116,7 @@
         <v>631</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>660</v>
@@ -7138,7 +7142,7 @@
         <v>631</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>919</v>
+        <v>1247</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>512</v>
@@ -7164,7 +7168,7 @@
         <v>631</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>661</v>
@@ -7190,7 +7194,7 @@
         <v>631</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>661</v>
@@ -7216,7 +7220,7 @@
         <v>631</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>922</v>
+        <v>1248</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>513</v>
@@ -7242,7 +7246,7 @@
         <v>631</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>661</v>
@@ -7268,7 +7272,7 @@
         <v>631</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>662</v>
@@ -7294,7 +7298,7 @@
         <v>631</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>925</v>
+        <v>1249</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>514</v>
@@ -7320,7 +7324,7 @@
         <v>631</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>662</v>
@@ -7346,7 +7350,7 @@
         <v>631</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>662</v>
@@ -7372,7 +7376,7 @@
         <v>631</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>928</v>
+        <v>1250</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>515</v>
@@ -7398,7 +7402,7 @@
         <v>631</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>663</v>
@@ -7424,7 +7428,7 @@
         <v>631</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>663</v>
@@ -7450,7 +7454,7 @@
         <v>631</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>931</v>
+        <v>1251</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>516</v>
@@ -7476,7 +7480,7 @@
         <v>631</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>664</v>
@@ -7502,7 +7506,7 @@
         <v>631</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>664</v>
@@ -7528,7 +7532,7 @@
         <v>631</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>934</v>
+        <v>1252</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>517</v>
@@ -7554,7 +7558,7 @@
         <v>631</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>664</v>
@@ -7580,7 +7584,7 @@
         <v>631</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>665</v>
@@ -7606,7 +7610,7 @@
         <v>631</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>937</v>
+        <v>1253</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>518</v>
@@ -7632,7 +7636,7 @@
         <v>631</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>665</v>
@@ -7658,7 +7662,7 @@
         <v>631</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>665</v>
@@ -7684,7 +7688,7 @@
         <v>631</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>940</v>
+        <v>1254</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>519</v>
@@ -7710,7 +7714,7 @@
         <v>631</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="H35" s="13" t="s">
         <v>666</v>
@@ -7736,7 +7740,7 @@
         <v>631</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>666</v>
@@ -7762,7 +7766,7 @@
         <v>631</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>943</v>
+        <v>1255</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>520</v>
@@ -7788,7 +7792,7 @@
         <v>631</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>667</v>
@@ -7814,7 +7818,7 @@
         <v>631</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>667</v>
@@ -7840,7 +7844,7 @@
         <v>631</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>946</v>
+        <v>1256</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>521</v>
@@ -7866,7 +7870,7 @@
         <v>631</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>667</v>
@@ -7892,7 +7896,7 @@
         <v>631</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>668</v>
@@ -7918,7 +7922,7 @@
         <v>631</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>949</v>
+        <v>1257</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>522</v>
@@ -7944,7 +7948,7 @@
         <v>632</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>950</v>
+        <v>936</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>668</v>
@@ -7970,7 +7974,7 @@
         <v>632</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>951</v>
+        <v>937</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>668</v>
@@ -7996,7 +8000,7 @@
         <v>632</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>952</v>
+        <v>1258</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>523</v>
@@ -8022,7 +8026,7 @@
         <v>632</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>953</v>
+        <v>938</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>669</v>
@@ -8048,7 +8052,7 @@
         <v>632</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>954</v>
+        <v>939</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>669</v>
@@ -8074,7 +8078,7 @@
         <v>632</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>955</v>
+        <v>1259</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>524</v>
@@ -8100,7 +8104,7 @@
         <v>632</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>956</v>
+        <v>940</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>670</v>
@@ -8126,7 +8130,7 @@
         <v>632</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>957</v>
+        <v>941</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>670</v>
@@ -8152,7 +8156,7 @@
         <v>632</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>958</v>
+        <v>1260</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>525</v>
@@ -8178,7 +8182,7 @@
         <v>632</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>959</v>
+        <v>942</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>670</v>
@@ -8204,7 +8208,7 @@
         <v>632</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>960</v>
+        <v>943</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>671</v>
@@ -8230,7 +8234,7 @@
         <v>632</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>961</v>
+        <v>1261</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>526</v>
@@ -8256,7 +8260,7 @@
         <v>632</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>962</v>
+        <v>944</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>671</v>
@@ -8282,7 +8286,7 @@
         <v>632</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>963</v>
+        <v>945</v>
       </c>
       <c r="H57" s="13" t="s">
         <v>671</v>
@@ -8308,7 +8312,7 @@
         <v>632</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>964</v>
+        <v>1262</v>
       </c>
       <c r="H58" s="13" t="s">
         <v>527</v>
@@ -8334,7 +8338,7 @@
         <v>632</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>965</v>
+        <v>946</v>
       </c>
       <c r="H59" s="13" t="s">
         <v>672</v>
@@ -8360,7 +8364,7 @@
         <v>632</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>966</v>
+        <v>947</v>
       </c>
       <c r="H60" s="13" t="s">
         <v>672</v>
@@ -8386,7 +8390,7 @@
         <v>632</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>967</v>
+        <v>1263</v>
       </c>
       <c r="H61" s="13" t="s">
         <v>528</v>
@@ -8412,7 +8416,7 @@
         <v>632</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>968</v>
+        <v>948</v>
       </c>
       <c r="H62" s="13" t="s">
         <v>673</v>
@@ -8438,7 +8442,7 @@
         <v>632</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="H63" s="13" t="s">
         <v>673</v>
@@ -8464,7 +8468,7 @@
         <v>632</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>970</v>
+        <v>1264</v>
       </c>
       <c r="H64" s="13" t="s">
         <v>529</v>
@@ -8490,7 +8494,7 @@
         <v>632</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>971</v>
+        <v>950</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>673</v>
@@ -8516,7 +8520,7 @@
         <v>632</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>972</v>
+        <v>951</v>
       </c>
       <c r="H66" s="13" t="s">
         <v>674</v>
@@ -8542,7 +8546,7 @@
         <v>632</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>973</v>
+        <v>1265</v>
       </c>
       <c r="H67" s="13" t="s">
         <v>530</v>
@@ -8568,7 +8572,7 @@
         <v>632</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>974</v>
+        <v>952</v>
       </c>
       <c r="H68" s="13" t="s">
         <v>674</v>
@@ -8594,7 +8598,7 @@
         <v>632</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>975</v>
+        <v>953</v>
       </c>
       <c r="H69" s="13" t="s">
         <v>674</v>
@@ -8620,7 +8624,7 @@
         <v>632</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>976</v>
+        <v>1266</v>
       </c>
       <c r="H70" s="13" t="s">
         <v>531</v>
@@ -8646,7 +8650,7 @@
         <v>632</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>977</v>
+        <v>954</v>
       </c>
       <c r="H71" s="13" t="s">
         <v>675</v>
@@ -8672,7 +8676,7 @@
         <v>632</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="H72" s="13" t="s">
         <v>675</v>
@@ -8698,7 +8702,7 @@
         <v>632</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>979</v>
+        <v>1267</v>
       </c>
       <c r="H73" s="13" t="s">
         <v>532</v>
@@ -8724,7 +8728,7 @@
         <v>632</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>980</v>
+        <v>956</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>676</v>
@@ -8750,7 +8754,7 @@
         <v>632</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>981</v>
+        <v>957</v>
       </c>
       <c r="H75" s="13" t="s">
         <v>676</v>
@@ -8776,7 +8780,7 @@
         <v>632</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>982</v>
+        <v>1268</v>
       </c>
       <c r="H76" s="13" t="s">
         <v>533</v>
@@ -8802,7 +8806,7 @@
         <v>632</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>983</v>
+        <v>958</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>676</v>
@@ -8828,7 +8832,7 @@
         <v>632</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>984</v>
+        <v>959</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>677</v>
@@ -8854,7 +8858,7 @@
         <v>632</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>985</v>
+        <v>1269</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>534</v>
@@ -8880,7 +8884,7 @@
         <v>632</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>986</v>
+        <v>960</v>
       </c>
       <c r="H80" s="13" t="s">
         <v>677</v>
@@ -8906,7 +8910,7 @@
         <v>632</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>987</v>
+        <v>961</v>
       </c>
       <c r="H81" s="13" t="s">
         <v>677</v>
@@ -8932,7 +8936,7 @@
         <v>632</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>988</v>
+        <v>1270</v>
       </c>
       <c r="H82" s="13" t="s">
         <v>535</v>
@@ -8958,7 +8962,7 @@
         <v>632</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>989</v>
+        <v>962</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>678</v>
@@ -8984,7 +8988,7 @@
         <v>632</v>
       </c>
       <c r="G84" s="20" t="s">
-        <v>990</v>
+        <v>963</v>
       </c>
       <c r="H84" s="13" t="s">
         <v>678</v>
@@ -9010,7 +9014,7 @@
         <v>632</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>991</v>
+        <v>1271</v>
       </c>
       <c r="H85" s="13" t="s">
         <v>536</v>
@@ -9036,7 +9040,7 @@
         <v>633</v>
       </c>
       <c r="G86" s="20" t="s">
-        <v>992</v>
+        <v>964</v>
       </c>
       <c r="H86" s="13" t="s">
         <v>679</v>
@@ -9062,7 +9066,7 @@
         <v>633</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>993</v>
+        <v>965</v>
       </c>
       <c r="H87" s="13" t="s">
         <v>679</v>
@@ -9088,7 +9092,7 @@
         <v>633</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>994</v>
+        <v>1272</v>
       </c>
       <c r="H88" s="13" t="s">
         <v>537</v>
@@ -9114,7 +9118,7 @@
         <v>633</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>995</v>
+        <v>966</v>
       </c>
       <c r="H89" s="13" t="s">
         <v>679</v>
@@ -9140,7 +9144,7 @@
         <v>633</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>996</v>
+        <v>967</v>
       </c>
       <c r="H90" s="13" t="s">
         <v>680</v>
@@ -9166,7 +9170,7 @@
         <v>633</v>
       </c>
       <c r="G91" s="20" t="s">
-        <v>997</v>
+        <v>1273</v>
       </c>
       <c r="H91" s="13" t="s">
         <v>538</v>
@@ -9192,7 +9196,7 @@
         <v>633</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>998</v>
+        <v>968</v>
       </c>
       <c r="H92" s="13" t="s">
         <v>680</v>
@@ -9218,7 +9222,7 @@
         <v>633</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="H93" s="13" t="s">
         <v>680</v>
@@ -9244,7 +9248,7 @@
         <v>633</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>1000</v>
+        <v>1274</v>
       </c>
       <c r="H94" s="13" t="s">
         <v>539</v>
@@ -9270,7 +9274,7 @@
         <v>633</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>1001</v>
+        <v>970</v>
       </c>
       <c r="H95" s="13" t="s">
         <v>681</v>
@@ -9296,7 +9300,7 @@
         <v>633</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>1002</v>
+        <v>971</v>
       </c>
       <c r="H96" s="13" t="s">
         <v>681</v>
@@ -9322,7 +9326,7 @@
         <v>633</v>
       </c>
       <c r="G97" s="20" t="s">
-        <v>1003</v>
+        <v>1275</v>
       </c>
       <c r="H97" s="13" t="s">
         <v>540</v>
@@ -9348,7 +9352,7 @@
         <v>633</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>1004</v>
+        <v>972</v>
       </c>
       <c r="H98" s="13" t="s">
         <v>682</v>
@@ -9374,7 +9378,7 @@
         <v>633</v>
       </c>
       <c r="G99" s="20" t="s">
-        <v>1005</v>
+        <v>973</v>
       </c>
       <c r="H99" s="13" t="s">
         <v>682</v>
@@ -9400,7 +9404,7 @@
         <v>633</v>
       </c>
       <c r="G100" s="20" t="s">
-        <v>1006</v>
+        <v>1276</v>
       </c>
       <c r="H100" s="13" t="s">
         <v>541</v>
@@ -9426,7 +9430,7 @@
         <v>633</v>
       </c>
       <c r="G101" s="20" t="s">
-        <v>1007</v>
+        <v>974</v>
       </c>
       <c r="H101" s="13" t="s">
         <v>682</v>
@@ -9452,7 +9456,7 @@
         <v>633</v>
       </c>
       <c r="G102" s="20" t="s">
-        <v>1008</v>
+        <v>975</v>
       </c>
       <c r="H102" s="13" t="s">
         <v>683</v>
@@ -9478,7 +9482,7 @@
         <v>633</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>1009</v>
+        <v>1277</v>
       </c>
       <c r="H103" s="13" t="s">
         <v>542</v>
@@ -9504,7 +9508,7 @@
         <v>633</v>
       </c>
       <c r="G104" s="20" t="s">
-        <v>1010</v>
+        <v>976</v>
       </c>
       <c r="H104" s="13" t="s">
         <v>683</v>
@@ -9530,7 +9534,7 @@
         <v>633</v>
       </c>
       <c r="G105" s="20" t="s">
-        <v>1011</v>
+        <v>977</v>
       </c>
       <c r="H105" s="13" t="s">
         <v>683</v>
@@ -9556,7 +9560,7 @@
         <v>633</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>1012</v>
+        <v>1278</v>
       </c>
       <c r="H106" s="13" t="s">
         <v>543</v>
@@ -9582,7 +9586,7 @@
         <v>633</v>
       </c>
       <c r="G107" s="20" t="s">
-        <v>1013</v>
+        <v>978</v>
       </c>
       <c r="H107" s="13" t="s">
         <v>684</v>
@@ -9608,7 +9612,7 @@
         <v>633</v>
       </c>
       <c r="G108" s="20" t="s">
-        <v>1014</v>
+        <v>979</v>
       </c>
       <c r="H108" s="13" t="s">
         <v>684</v>
@@ -9634,7 +9638,7 @@
         <v>633</v>
       </c>
       <c r="G109" s="20" t="s">
-        <v>1015</v>
+        <v>1279</v>
       </c>
       <c r="H109" s="13" t="s">
         <v>544</v>
@@ -9660,7 +9664,7 @@
         <v>633</v>
       </c>
       <c r="G110" s="20" t="s">
-        <v>1016</v>
+        <v>980</v>
       </c>
       <c r="H110" s="13" t="s">
         <v>685</v>
@@ -9686,7 +9690,7 @@
         <v>633</v>
       </c>
       <c r="G111" s="20" t="s">
-        <v>1017</v>
+        <v>981</v>
       </c>
       <c r="H111" s="13" t="s">
         <v>685</v>
@@ -9712,7 +9716,7 @@
         <v>633</v>
       </c>
       <c r="G112" s="20" t="s">
-        <v>1018</v>
+        <v>1280</v>
       </c>
       <c r="H112" s="13" t="s">
         <v>545</v>
@@ -9738,7 +9742,7 @@
         <v>633</v>
       </c>
       <c r="G113" s="20" t="s">
-        <v>1019</v>
+        <v>982</v>
       </c>
       <c r="H113" s="13" t="s">
         <v>685</v>
@@ -9764,7 +9768,7 @@
         <v>633</v>
       </c>
       <c r="G114" s="20" t="s">
-        <v>1020</v>
+        <v>983</v>
       </c>
       <c r="H114" s="13" t="s">
         <v>686</v>
@@ -9790,7 +9794,7 @@
         <v>633</v>
       </c>
       <c r="G115" s="20" t="s">
-        <v>1021</v>
+        <v>1281</v>
       </c>
       <c r="H115" s="13" t="s">
         <v>546</v>
@@ -9816,7 +9820,7 @@
         <v>633</v>
       </c>
       <c r="G116" s="20" t="s">
-        <v>1022</v>
+        <v>984</v>
       </c>
       <c r="H116" s="13" t="s">
         <v>686</v>
@@ -9842,7 +9846,7 @@
         <v>633</v>
       </c>
       <c r="G117" s="20" t="s">
-        <v>1023</v>
+        <v>985</v>
       </c>
       <c r="H117" s="13" t="s">
         <v>686</v>
@@ -9868,7 +9872,7 @@
         <v>633</v>
       </c>
       <c r="G118" s="20" t="s">
-        <v>1024</v>
+        <v>1282</v>
       </c>
       <c r="H118" s="13" t="s">
         <v>547</v>
@@ -9894,7 +9898,7 @@
         <v>633</v>
       </c>
       <c r="G119" s="20" t="s">
-        <v>1025</v>
+        <v>986</v>
       </c>
       <c r="H119" s="13" t="s">
         <v>687</v>
@@ -9920,7 +9924,7 @@
         <v>633</v>
       </c>
       <c r="G120" s="20" t="s">
-        <v>1026</v>
+        <v>987</v>
       </c>
       <c r="H120" s="13" t="s">
         <v>687</v>
@@ -9946,7 +9950,7 @@
         <v>633</v>
       </c>
       <c r="G121" s="20" t="s">
-        <v>1027</v>
+        <v>1283</v>
       </c>
       <c r="H121" s="13" t="s">
         <v>548</v>
@@ -9972,7 +9976,7 @@
         <v>633</v>
       </c>
       <c r="G122" s="20" t="s">
-        <v>1028</v>
+        <v>988</v>
       </c>
       <c r="H122" s="13" t="s">
         <v>688</v>
@@ -9998,7 +10002,7 @@
         <v>633</v>
       </c>
       <c r="G123" s="20" t="s">
-        <v>1029</v>
+        <v>989</v>
       </c>
       <c r="H123" s="13" t="s">
         <v>688</v>
@@ -10024,7 +10028,7 @@
         <v>633</v>
       </c>
       <c r="G124" s="20" t="s">
-        <v>1030</v>
+        <v>1284</v>
       </c>
       <c r="H124" s="13" t="s">
         <v>549</v>
@@ -10050,7 +10054,7 @@
         <v>633</v>
       </c>
       <c r="G125" s="20" t="s">
-        <v>1031</v>
+        <v>990</v>
       </c>
       <c r="H125" s="13" t="s">
         <v>688</v>
@@ -10076,7 +10080,7 @@
         <v>633</v>
       </c>
       <c r="G126" s="20" t="s">
-        <v>1032</v>
+        <v>991</v>
       </c>
       <c r="H126" s="13" t="s">
         <v>689</v>
@@ -10102,7 +10106,7 @@
         <v>633</v>
       </c>
       <c r="G127" s="20" t="s">
-        <v>1033</v>
+        <v>1285</v>
       </c>
       <c r="H127" s="13" t="s">
         <v>550</v>
@@ -10128,7 +10132,7 @@
         <v>631</v>
       </c>
       <c r="G128" s="20" t="s">
-        <v>1034</v>
+        <v>992</v>
       </c>
       <c r="H128" s="13" t="s">
         <v>689</v>
@@ -10154,7 +10158,7 @@
         <v>631</v>
       </c>
       <c r="G129" s="20" t="s">
-        <v>1035</v>
+        <v>993</v>
       </c>
       <c r="H129" s="13" t="s">
         <v>689</v>
@@ -10180,7 +10184,7 @@
         <v>631</v>
       </c>
       <c r="G130" s="20" t="s">
-        <v>1036</v>
+        <v>1286</v>
       </c>
       <c r="H130" s="13" t="s">
         <v>784</v>
@@ -10206,7 +10210,7 @@
         <v>631</v>
       </c>
       <c r="G131" s="20" t="s">
-        <v>1037</v>
+        <v>994</v>
       </c>
       <c r="H131" s="13" t="s">
         <v>690</v>
@@ -10232,7 +10236,7 @@
         <v>631</v>
       </c>
       <c r="G132" s="20" t="s">
-        <v>1038</v>
+        <v>995</v>
       </c>
       <c r="H132" s="13" t="s">
         <v>690</v>
@@ -10258,7 +10262,7 @@
         <v>631</v>
       </c>
       <c r="G133" s="20" t="s">
-        <v>1039</v>
+        <v>1287</v>
       </c>
       <c r="H133" s="13" t="s">
         <v>785</v>
@@ -10284,7 +10288,7 @@
         <v>631</v>
       </c>
       <c r="G134" s="20" t="s">
-        <v>1040</v>
+        <v>996</v>
       </c>
       <c r="H134" s="13" t="s">
         <v>691</v>
@@ -10310,7 +10314,7 @@
         <v>631</v>
       </c>
       <c r="G135" s="20" t="s">
-        <v>1041</v>
+        <v>997</v>
       </c>
       <c r="H135" s="13" t="s">
         <v>691</v>
@@ -10336,7 +10340,7 @@
         <v>631</v>
       </c>
       <c r="G136" s="20" t="s">
-        <v>1042</v>
+        <v>1288</v>
       </c>
       <c r="H136" s="13" t="s">
         <v>786</v>
@@ -10362,7 +10366,7 @@
         <v>631</v>
       </c>
       <c r="G137" s="20" t="s">
-        <v>1043</v>
+        <v>998</v>
       </c>
       <c r="H137" s="13" t="s">
         <v>691</v>
@@ -10388,7 +10392,7 @@
         <v>631</v>
       </c>
       <c r="G138" s="20" t="s">
-        <v>1044</v>
+        <v>999</v>
       </c>
       <c r="H138" s="13" t="s">
         <v>692</v>
@@ -10414,7 +10418,7 @@
         <v>631</v>
       </c>
       <c r="G139" s="20" t="s">
-        <v>1045</v>
+        <v>1289</v>
       </c>
       <c r="H139" s="13" t="s">
         <v>787</v>
@@ -10440,7 +10444,7 @@
         <v>631</v>
       </c>
       <c r="G140" s="20" t="s">
-        <v>1046</v>
+        <v>1000</v>
       </c>
       <c r="H140" s="13" t="s">
         <v>692</v>
@@ -10466,7 +10470,7 @@
         <v>631</v>
       </c>
       <c r="G141" s="20" t="s">
-        <v>1047</v>
+        <v>1001</v>
       </c>
       <c r="H141" s="13" t="s">
         <v>692</v>
@@ -10492,7 +10496,7 @@
         <v>631</v>
       </c>
       <c r="G142" s="20" t="s">
-        <v>1048</v>
+        <v>1290</v>
       </c>
       <c r="H142" s="13" t="s">
         <v>788</v>
@@ -10518,7 +10522,7 @@
         <v>631</v>
       </c>
       <c r="G143" s="20" t="s">
-        <v>1049</v>
+        <v>1002</v>
       </c>
       <c r="H143" s="13" t="s">
         <v>693</v>
@@ -10544,7 +10548,7 @@
         <v>631</v>
       </c>
       <c r="G144" s="20" t="s">
-        <v>1050</v>
+        <v>1003</v>
       </c>
       <c r="H144" s="13" t="s">
         <v>693</v>
@@ -10570,7 +10574,7 @@
         <v>631</v>
       </c>
       <c r="G145" s="20" t="s">
-        <v>1051</v>
+        <v>1291</v>
       </c>
       <c r="H145" s="13" t="s">
         <v>789</v>
@@ -10596,7 +10600,7 @@
         <v>631</v>
       </c>
       <c r="G146" s="20" t="s">
-        <v>1052</v>
+        <v>1004</v>
       </c>
       <c r="H146" s="13" t="s">
         <v>694</v>
@@ -10622,7 +10626,7 @@
         <v>631</v>
       </c>
       <c r="G147" s="20" t="s">
-        <v>1053</v>
+        <v>1005</v>
       </c>
       <c r="H147" s="13" t="s">
         <v>694</v>
@@ -10648,7 +10652,7 @@
         <v>631</v>
       </c>
       <c r="G148" s="20" t="s">
-        <v>1054</v>
+        <v>1292</v>
       </c>
       <c r="H148" s="13" t="s">
         <v>790</v>
@@ -10674,7 +10678,7 @@
         <v>631</v>
       </c>
       <c r="G149" s="20" t="s">
-        <v>1055</v>
+        <v>1006</v>
       </c>
       <c r="H149" s="13" t="s">
         <v>694</v>
@@ -10700,7 +10704,7 @@
         <v>631</v>
       </c>
       <c r="G150" s="20" t="s">
-        <v>1056</v>
+        <v>1007</v>
       </c>
       <c r="H150" s="13" t="s">
         <v>695</v>
@@ -10726,7 +10730,7 @@
         <v>631</v>
       </c>
       <c r="G151" s="20" t="s">
-        <v>1057</v>
+        <v>1293</v>
       </c>
       <c r="H151" s="13" t="s">
         <v>791</v>
@@ -10752,7 +10756,7 @@
         <v>631</v>
       </c>
       <c r="G152" s="20" t="s">
-        <v>1058</v>
+        <v>1008</v>
       </c>
       <c r="H152" s="13" t="s">
         <v>695</v>
@@ -10778,7 +10782,7 @@
         <v>631</v>
       </c>
       <c r="G153" s="20" t="s">
-        <v>1059</v>
+        <v>1009</v>
       </c>
       <c r="H153" s="13" t="s">
         <v>695</v>
@@ -10804,7 +10808,7 @@
         <v>631</v>
       </c>
       <c r="G154" s="20" t="s">
-        <v>1060</v>
+        <v>1294</v>
       </c>
       <c r="H154" s="13" t="s">
         <v>792</v>
@@ -10830,7 +10834,7 @@
         <v>631</v>
       </c>
       <c r="G155" s="20" t="s">
-        <v>1061</v>
+        <v>1010</v>
       </c>
       <c r="H155" s="13" t="s">
         <v>696</v>
@@ -10856,7 +10860,7 @@
         <v>631</v>
       </c>
       <c r="G156" s="20" t="s">
-        <v>1062</v>
+        <v>1011</v>
       </c>
       <c r="H156" s="13" t="s">
         <v>696</v>
@@ -10882,7 +10886,7 @@
         <v>631</v>
       </c>
       <c r="G157" s="20" t="s">
-        <v>1063</v>
+        <v>1295</v>
       </c>
       <c r="H157" s="13" t="s">
         <v>793</v>
@@ -10908,7 +10912,7 @@
         <v>631</v>
       </c>
       <c r="G158" s="20" t="s">
-        <v>1064</v>
+        <v>1012</v>
       </c>
       <c r="H158" s="13" t="s">
         <v>697</v>
@@ -10934,7 +10938,7 @@
         <v>631</v>
       </c>
       <c r="G159" s="20" t="s">
-        <v>1065</v>
+        <v>1013</v>
       </c>
       <c r="H159" s="13" t="s">
         <v>697</v>
@@ -10960,7 +10964,7 @@
         <v>631</v>
       </c>
       <c r="G160" s="20" t="s">
-        <v>1066</v>
+        <v>1296</v>
       </c>
       <c r="H160" s="13" t="s">
         <v>794</v>
@@ -10986,7 +10990,7 @@
         <v>631</v>
       </c>
       <c r="G161" s="20" t="s">
-        <v>1067</v>
+        <v>1014</v>
       </c>
       <c r="H161" s="13" t="s">
         <v>697</v>
@@ -11012,7 +11016,7 @@
         <v>631</v>
       </c>
       <c r="G162" s="20" t="s">
-        <v>1068</v>
+        <v>1015</v>
       </c>
       <c r="H162" s="13" t="s">
         <v>698</v>
@@ -11038,7 +11042,7 @@
         <v>631</v>
       </c>
       <c r="G163" s="20" t="s">
-        <v>1069</v>
+        <v>1297</v>
       </c>
       <c r="H163" s="13" t="s">
         <v>795</v>
@@ -11064,7 +11068,7 @@
         <v>631</v>
       </c>
       <c r="G164" s="20" t="s">
-        <v>1070</v>
+        <v>1016</v>
       </c>
       <c r="H164" s="13" t="s">
         <v>698</v>
@@ -11090,7 +11094,7 @@
         <v>631</v>
       </c>
       <c r="G165" s="20" t="s">
-        <v>1071</v>
+        <v>1017</v>
       </c>
       <c r="H165" s="13" t="s">
         <v>698</v>
@@ -11116,7 +11120,7 @@
         <v>631</v>
       </c>
       <c r="G166" s="20" t="s">
-        <v>1072</v>
+        <v>1298</v>
       </c>
       <c r="H166" s="13" t="s">
         <v>796</v>
@@ -11142,7 +11146,7 @@
         <v>631</v>
       </c>
       <c r="G167" s="20" t="s">
-        <v>1073</v>
+        <v>1018</v>
       </c>
       <c r="H167" s="13" t="s">
         <v>699</v>
@@ -11168,7 +11172,7 @@
         <v>631</v>
       </c>
       <c r="G168" s="20" t="s">
-        <v>1074</v>
+        <v>1019</v>
       </c>
       <c r="H168" s="13" t="s">
         <v>699</v>
@@ -11194,7 +11198,7 @@
         <v>631</v>
       </c>
       <c r="G169" s="20" t="s">
-        <v>1075</v>
+        <v>1299</v>
       </c>
       <c r="H169" s="13" t="s">
         <v>797</v>
@@ -11220,7 +11224,7 @@
         <v>631</v>
       </c>
       <c r="G170" s="20" t="s">
-        <v>1076</v>
+        <v>1020</v>
       </c>
       <c r="H170" s="13" t="s">
         <v>700</v>
@@ -11246,7 +11250,7 @@
         <v>631</v>
       </c>
       <c r="G171" s="20" t="s">
-        <v>1077</v>
+        <v>1021</v>
       </c>
       <c r="H171" s="13" t="s">
         <v>700</v>
@@ -11272,7 +11276,7 @@
         <v>631</v>
       </c>
       <c r="G172" s="20" t="s">
-        <v>1078</v>
+        <v>1300</v>
       </c>
       <c r="H172" s="13" t="s">
         <v>798</v>
@@ -11298,7 +11302,7 @@
         <v>631</v>
       </c>
       <c r="G173" s="20" t="s">
-        <v>1079</v>
+        <v>1022</v>
       </c>
       <c r="H173" s="13" t="s">
         <v>700</v>
@@ -11324,7 +11328,7 @@
         <v>631</v>
       </c>
       <c r="G174" s="20" t="s">
-        <v>1080</v>
+        <v>1023</v>
       </c>
       <c r="H174" s="13" t="s">
         <v>701</v>
@@ -11350,7 +11354,7 @@
         <v>631</v>
       </c>
       <c r="G175" s="20" t="s">
-        <v>1081</v>
+        <v>1301</v>
       </c>
       <c r="H175" s="13" t="s">
         <v>799</v>
@@ -11376,7 +11380,7 @@
         <v>631</v>
       </c>
       <c r="G176" s="20" t="s">
-        <v>1082</v>
+        <v>1024</v>
       </c>
       <c r="H176" s="13" t="s">
         <v>701</v>
@@ -11402,7 +11406,7 @@
         <v>631</v>
       </c>
       <c r="G177" s="20" t="s">
-        <v>1083</v>
+        <v>1025</v>
       </c>
       <c r="H177" s="13" t="s">
         <v>701</v>
@@ -11428,7 +11432,7 @@
         <v>631</v>
       </c>
       <c r="G178" s="20" t="s">
-        <v>1084</v>
+        <v>1302</v>
       </c>
       <c r="H178" s="13" t="s">
         <v>800</v>
@@ -11454,7 +11458,7 @@
         <v>631</v>
       </c>
       <c r="G179" s="20" t="s">
-        <v>1085</v>
+        <v>1026</v>
       </c>
       <c r="H179" s="13" t="s">
         <v>702</v>
@@ -11480,7 +11484,7 @@
         <v>631</v>
       </c>
       <c r="G180" s="20" t="s">
-        <v>1086</v>
+        <v>1027</v>
       </c>
       <c r="H180" s="13" t="s">
         <v>702</v>
@@ -11506,7 +11510,7 @@
         <v>631</v>
       </c>
       <c r="G181" s="20" t="s">
-        <v>1087</v>
+        <v>1303</v>
       </c>
       <c r="H181" s="13" t="s">
         <v>801</v>
@@ -11532,7 +11536,7 @@
         <v>631</v>
       </c>
       <c r="G182" s="20" t="s">
-        <v>1088</v>
+        <v>1028</v>
       </c>
       <c r="H182" s="13" t="s">
         <v>703</v>
@@ -11558,7 +11562,7 @@
         <v>631</v>
       </c>
       <c r="G183" s="20" t="s">
-        <v>1089</v>
+        <v>1029</v>
       </c>
       <c r="H183" s="13" t="s">
         <v>703</v>
@@ -11584,7 +11588,7 @@
         <v>631</v>
       </c>
       <c r="G184" s="20" t="s">
-        <v>1090</v>
+        <v>1304</v>
       </c>
       <c r="H184" s="13" t="s">
         <v>802</v>
@@ -11610,7 +11614,7 @@
         <v>631</v>
       </c>
       <c r="G185" s="20" t="s">
-        <v>1091</v>
+        <v>1030</v>
       </c>
       <c r="H185" s="13" t="s">
         <v>703</v>
@@ -11636,7 +11640,7 @@
         <v>631</v>
       </c>
       <c r="G186" s="20" t="s">
-        <v>1092</v>
+        <v>1031</v>
       </c>
       <c r="H186" s="13" t="s">
         <v>704</v>
@@ -11662,7 +11666,7 @@
         <v>631</v>
       </c>
       <c r="G187" s="20" t="s">
-        <v>1093</v>
+        <v>1305</v>
       </c>
       <c r="H187" s="13" t="s">
         <v>803</v>
@@ -11688,7 +11692,7 @@
         <v>631</v>
       </c>
       <c r="G188" s="20" t="s">
-        <v>1094</v>
+        <v>1032</v>
       </c>
       <c r="H188" s="13" t="s">
         <v>704</v>
@@ -11714,7 +11718,7 @@
         <v>631</v>
       </c>
       <c r="G189" s="20" t="s">
-        <v>1095</v>
+        <v>1033</v>
       </c>
       <c r="H189" s="13" t="s">
         <v>704</v>
@@ -11740,7 +11744,7 @@
         <v>631</v>
       </c>
       <c r="G190" s="20" t="s">
-        <v>1096</v>
+        <v>1306</v>
       </c>
       <c r="H190" s="13" t="s">
         <v>804</v>
@@ -11766,7 +11770,7 @@
         <v>633</v>
       </c>
       <c r="G191" s="20" t="s">
-        <v>1097</v>
+        <v>1034</v>
       </c>
       <c r="H191" s="13" t="s">
         <v>705</v>
@@ -11792,7 +11796,7 @@
         <v>633</v>
       </c>
       <c r="G192" s="20" t="s">
-        <v>1098</v>
+        <v>1035</v>
       </c>
       <c r="H192" s="13" t="s">
         <v>705</v>
@@ -11818,7 +11822,7 @@
         <v>633</v>
       </c>
       <c r="G193" s="20" t="s">
-        <v>1099</v>
+        <v>1307</v>
       </c>
       <c r="H193" s="13" t="s">
         <v>805</v>
@@ -11844,7 +11848,7 @@
         <v>633</v>
       </c>
       <c r="G194" s="20" t="s">
-        <v>1100</v>
+        <v>1036</v>
       </c>
       <c r="H194" s="13" t="s">
         <v>706</v>
@@ -11870,7 +11874,7 @@
         <v>633</v>
       </c>
       <c r="G195" s="20" t="s">
-        <v>1101</v>
+        <v>1037</v>
       </c>
       <c r="H195" s="13" t="s">
         <v>706</v>
@@ -11896,7 +11900,7 @@
         <v>633</v>
       </c>
       <c r="G196" s="20" t="s">
-        <v>1102</v>
+        <v>1308</v>
       </c>
       <c r="H196" s="13" t="s">
         <v>806</v>
@@ -11922,7 +11926,7 @@
         <v>633</v>
       </c>
       <c r="G197" s="20" t="s">
-        <v>1103</v>
+        <v>1038</v>
       </c>
       <c r="H197" s="13" t="s">
         <v>706</v>
@@ -11948,7 +11952,7 @@
         <v>633</v>
       </c>
       <c r="G198" s="20" t="s">
-        <v>1104</v>
+        <v>1039</v>
       </c>
       <c r="H198" s="13" t="s">
         <v>707</v>
@@ -11974,7 +11978,7 @@
         <v>633</v>
       </c>
       <c r="G199" s="20" t="s">
-        <v>1105</v>
+        <v>1309</v>
       </c>
       <c r="H199" s="13" t="s">
         <v>807</v>
@@ -12000,7 +12004,7 @@
         <v>633</v>
       </c>
       <c r="G200" s="20" t="s">
-        <v>1106</v>
+        <v>1040</v>
       </c>
       <c r="H200" s="13" t="s">
         <v>707</v>
@@ -12026,7 +12030,7 @@
         <v>633</v>
       </c>
       <c r="G201" s="20" t="s">
-        <v>1107</v>
+        <v>1041</v>
       </c>
       <c r="H201" s="13" t="s">
         <v>707</v>
@@ -12052,7 +12056,7 @@
         <v>633</v>
       </c>
       <c r="G202" s="20" t="s">
-        <v>1108</v>
+        <v>1310</v>
       </c>
       <c r="H202" s="13" t="s">
         <v>808</v>
@@ -12078,7 +12082,7 @@
         <v>633</v>
       </c>
       <c r="G203" s="20" t="s">
-        <v>1109</v>
+        <v>1042</v>
       </c>
       <c r="H203" s="13" t="s">
         <v>708</v>
@@ -12104,7 +12108,7 @@
         <v>633</v>
       </c>
       <c r="G204" s="20" t="s">
-        <v>1110</v>
+        <v>1043</v>
       </c>
       <c r="H204" s="13" t="s">
         <v>708</v>
@@ -12130,7 +12134,7 @@
         <v>633</v>
       </c>
       <c r="G205" s="20" t="s">
-        <v>1111</v>
+        <v>1311</v>
       </c>
       <c r="H205" s="13" t="s">
         <v>809</v>
@@ -12156,7 +12160,7 @@
         <v>633</v>
       </c>
       <c r="G206" s="20" t="s">
-        <v>1112</v>
+        <v>1044</v>
       </c>
       <c r="H206" s="13" t="s">
         <v>709</v>
@@ -12182,7 +12186,7 @@
         <v>633</v>
       </c>
       <c r="G207" s="20" t="s">
-        <v>1113</v>
+        <v>1045</v>
       </c>
       <c r="H207" s="13" t="s">
         <v>709</v>
@@ -12208,7 +12212,7 @@
         <v>633</v>
       </c>
       <c r="G208" s="20" t="s">
-        <v>1114</v>
+        <v>1312</v>
       </c>
       <c r="H208" s="13" t="s">
         <v>810</v>
@@ -12234,7 +12238,7 @@
         <v>633</v>
       </c>
       <c r="G209" s="20" t="s">
-        <v>1115</v>
+        <v>1046</v>
       </c>
       <c r="H209" s="13" t="s">
         <v>709</v>
@@ -12260,7 +12264,7 @@
         <v>633</v>
       </c>
       <c r="G210" s="20" t="s">
-        <v>1116</v>
+        <v>1047</v>
       </c>
       <c r="H210" s="13" t="s">
         <v>710</v>
@@ -12286,7 +12290,7 @@
         <v>633</v>
       </c>
       <c r="G211" s="20" t="s">
-        <v>1117</v>
+        <v>1313</v>
       </c>
       <c r="H211" s="13" t="s">
         <v>811</v>
@@ -12312,7 +12316,7 @@
         <v>633</v>
       </c>
       <c r="G212" s="20" t="s">
-        <v>1118</v>
+        <v>1048</v>
       </c>
       <c r="H212" s="13" t="s">
         <v>710</v>
@@ -12338,7 +12342,7 @@
         <v>633</v>
       </c>
       <c r="G213" s="20" t="s">
-        <v>1119</v>
+        <v>1049</v>
       </c>
       <c r="H213" s="13" t="s">
         <v>710</v>
@@ -12364,7 +12368,7 @@
         <v>633</v>
       </c>
       <c r="G214" s="20" t="s">
-        <v>1120</v>
+        <v>1314</v>
       </c>
       <c r="H214" s="13" t="s">
         <v>812</v>
@@ -12390,7 +12394,7 @@
         <v>633</v>
       </c>
       <c r="G215" s="20" t="s">
-        <v>1121</v>
+        <v>1050</v>
       </c>
       <c r="H215" s="13" t="s">
         <v>711</v>
@@ -12416,7 +12420,7 @@
         <v>633</v>
       </c>
       <c r="G216" s="20" t="s">
-        <v>1122</v>
+        <v>1051</v>
       </c>
       <c r="H216" s="13" t="s">
         <v>711</v>
@@ -12442,7 +12446,7 @@
         <v>633</v>
       </c>
       <c r="G217" s="20" t="s">
-        <v>1123</v>
+        <v>1315</v>
       </c>
       <c r="H217" s="13" t="s">
         <v>813</v>
@@ -12468,7 +12472,7 @@
         <v>633</v>
       </c>
       <c r="G218" s="20" t="s">
-        <v>1124</v>
+        <v>1052</v>
       </c>
       <c r="H218" s="13" t="s">
         <v>712</v>
@@ -12494,7 +12498,7 @@
         <v>633</v>
       </c>
       <c r="G219" s="20" t="s">
-        <v>1125</v>
+        <v>1053</v>
       </c>
       <c r="H219" s="13" t="s">
         <v>712</v>
@@ -12520,7 +12524,7 @@
         <v>633</v>
       </c>
       <c r="G220" s="20" t="s">
-        <v>1126</v>
+        <v>1316</v>
       </c>
       <c r="H220" s="13" t="s">
         <v>814</v>
@@ -12546,7 +12550,7 @@
         <v>633</v>
       </c>
       <c r="G221" s="20" t="s">
-        <v>1127</v>
+        <v>1054</v>
       </c>
       <c r="H221" s="13" t="s">
         <v>712</v>
@@ -12572,7 +12576,7 @@
         <v>633</v>
       </c>
       <c r="G222" s="20" t="s">
-        <v>1128</v>
+        <v>1055</v>
       </c>
       <c r="H222" s="13" t="s">
         <v>713</v>
@@ -12598,7 +12602,7 @@
         <v>633</v>
       </c>
       <c r="G223" s="20" t="s">
-        <v>1129</v>
+        <v>1317</v>
       </c>
       <c r="H223" s="13" t="s">
         <v>815</v>
@@ -12624,7 +12628,7 @@
         <v>633</v>
       </c>
       <c r="G224" s="20" t="s">
-        <v>1130</v>
+        <v>1056</v>
       </c>
       <c r="H224" s="13" t="s">
         <v>713</v>
@@ -12650,7 +12654,7 @@
         <v>633</v>
       </c>
       <c r="G225" s="20" t="s">
-        <v>1131</v>
+        <v>1057</v>
       </c>
       <c r="H225" s="13" t="s">
         <v>713</v>
@@ -12676,7 +12680,7 @@
         <v>633</v>
       </c>
       <c r="G226" s="20" t="s">
-        <v>1132</v>
+        <v>1318</v>
       </c>
       <c r="H226" s="13" t="s">
         <v>816</v>
@@ -12702,7 +12706,7 @@
         <v>633</v>
       </c>
       <c r="G227" s="20" t="s">
-        <v>1133</v>
+        <v>1058</v>
       </c>
       <c r="H227" s="13" t="s">
         <v>714</v>
@@ -12728,7 +12732,7 @@
         <v>633</v>
       </c>
       <c r="G228" s="20" t="s">
-        <v>1134</v>
+        <v>1059</v>
       </c>
       <c r="H228" s="13" t="s">
         <v>714</v>
@@ -12754,7 +12758,7 @@
         <v>633</v>
       </c>
       <c r="G229" s="20" t="s">
-        <v>1135</v>
+        <v>1319</v>
       </c>
       <c r="H229" s="13" t="s">
         <v>817</v>
@@ -12780,7 +12784,7 @@
         <v>633</v>
       </c>
       <c r="G230" s="20" t="s">
-        <v>1136</v>
+        <v>1060</v>
       </c>
       <c r="H230" s="13" t="s">
         <v>715</v>
@@ -12806,7 +12810,7 @@
         <v>633</v>
       </c>
       <c r="G231" s="20" t="s">
-        <v>1137</v>
+        <v>1061</v>
       </c>
       <c r="H231" s="13" t="s">
         <v>715</v>
@@ -12832,7 +12836,7 @@
         <v>633</v>
       </c>
       <c r="G232" s="20" t="s">
-        <v>1138</v>
+        <v>1320</v>
       </c>
       <c r="H232" s="13" t="s">
         <v>818</v>
@@ -12858,7 +12862,7 @@
         <v>633</v>
       </c>
       <c r="G233" s="20" t="s">
-        <v>1139</v>
+        <v>1062</v>
       </c>
       <c r="H233" s="13" t="s">
         <v>715</v>
@@ -12884,7 +12888,7 @@
         <v>633</v>
       </c>
       <c r="G234" s="20" t="s">
-        <v>1140</v>
+        <v>1063</v>
       </c>
       <c r="H234" s="13" t="s">
         <v>716</v>
@@ -12910,7 +12914,7 @@
         <v>633</v>
       </c>
       <c r="G235" s="20" t="s">
-        <v>1141</v>
+        <v>1321</v>
       </c>
       <c r="H235" s="13" t="s">
         <v>819</v>
@@ -12936,7 +12940,7 @@
         <v>633</v>
       </c>
       <c r="G236" s="20" t="s">
-        <v>1142</v>
+        <v>1064</v>
       </c>
       <c r="H236" s="13" t="s">
         <v>716</v>
@@ -12962,7 +12966,7 @@
         <v>633</v>
       </c>
       <c r="G237" s="20" t="s">
-        <v>1143</v>
+        <v>1065</v>
       </c>
       <c r="H237" s="13" t="s">
         <v>716</v>
@@ -12988,7 +12992,7 @@
         <v>633</v>
       </c>
       <c r="G238" s="20" t="s">
-        <v>1144</v>
+        <v>1322</v>
       </c>
       <c r="H238" s="13" t="s">
         <v>820</v>
@@ -13014,7 +13018,7 @@
         <v>633</v>
       </c>
       <c r="G239" s="20" t="s">
-        <v>1145</v>
+        <v>1066</v>
       </c>
       <c r="H239" s="13" t="s">
         <v>717</v>
@@ -13040,7 +13044,7 @@
         <v>633</v>
       </c>
       <c r="G240" s="20" t="s">
-        <v>1146</v>
+        <v>1067</v>
       </c>
       <c r="H240" s="13" t="s">
         <v>717</v>
@@ -13066,7 +13070,7 @@
         <v>633</v>
       </c>
       <c r="G241" s="20" t="s">
-        <v>1147</v>
+        <v>1323</v>
       </c>
       <c r="H241" s="13" t="s">
         <v>821</v>
@@ -13092,7 +13096,7 @@
         <v>633</v>
       </c>
       <c r="G242" s="20" t="s">
-        <v>1148</v>
+        <v>1068</v>
       </c>
       <c r="H242" s="13" t="s">
         <v>718</v>
@@ -13118,7 +13122,7 @@
         <v>633</v>
       </c>
       <c r="G243" s="20" t="s">
-        <v>1149</v>
+        <v>1069</v>
       </c>
       <c r="H243" s="13" t="s">
         <v>718</v>
@@ -13144,7 +13148,7 @@
         <v>633</v>
       </c>
       <c r="G244" s="20" t="s">
-        <v>1150</v>
+        <v>1324</v>
       </c>
       <c r="H244" s="13" t="s">
         <v>822</v>
@@ -13170,7 +13174,7 @@
         <v>633</v>
       </c>
       <c r="G245" s="20" t="s">
-        <v>1151</v>
+        <v>1070</v>
       </c>
       <c r="H245" s="13" t="s">
         <v>718</v>
@@ -13196,7 +13200,7 @@
         <v>633</v>
       </c>
       <c r="G246" s="20" t="s">
-        <v>1152</v>
+        <v>1071</v>
       </c>
       <c r="H246" s="13" t="s">
         <v>719</v>
@@ -13222,7 +13226,7 @@
         <v>633</v>
       </c>
       <c r="G247" s="20" t="s">
-        <v>1153</v>
+        <v>1325</v>
       </c>
       <c r="H247" s="13" t="s">
         <v>823</v>
@@ -13248,7 +13252,7 @@
         <v>633</v>
       </c>
       <c r="G248" s="20" t="s">
-        <v>1154</v>
+        <v>1072</v>
       </c>
       <c r="H248" s="13" t="s">
         <v>719</v>
@@ -13274,7 +13278,7 @@
         <v>633</v>
       </c>
       <c r="G249" s="20" t="s">
-        <v>1155</v>
+        <v>1073</v>
       </c>
       <c r="H249" s="13" t="s">
         <v>719</v>
@@ -13300,7 +13304,7 @@
         <v>633</v>
       </c>
       <c r="G250" s="20" t="s">
-        <v>1156</v>
+        <v>1326</v>
       </c>
       <c r="H250" s="13" t="s">
         <v>824</v>
@@ -13326,7 +13330,7 @@
         <v>633</v>
       </c>
       <c r="G251" s="20" t="s">
-        <v>1157</v>
+        <v>1074</v>
       </c>
       <c r="H251" s="13" t="s">
         <v>720</v>
@@ -13352,7 +13356,7 @@
         <v>633</v>
       </c>
       <c r="G252" s="20" t="s">
-        <v>1158</v>
+        <v>1075</v>
       </c>
       <c r="H252" s="13" t="s">
         <v>720</v>
@@ -13378,7 +13382,7 @@
         <v>633</v>
       </c>
       <c r="G253" s="20" t="s">
-        <v>1159</v>
+        <v>1327</v>
       </c>
       <c r="H253" s="13" t="s">
         <v>825</v>
@@ -13404,7 +13408,7 @@
         <v>632</v>
       </c>
       <c r="G254" s="20" t="s">
-        <v>1160</v>
+        <v>1076</v>
       </c>
       <c r="H254" s="13" t="s">
         <v>721</v>
@@ -13430,7 +13434,7 @@
         <v>632</v>
       </c>
       <c r="G255" s="20" t="s">
-        <v>1161</v>
+        <v>1077</v>
       </c>
       <c r="H255" s="13" t="s">
         <v>721</v>
@@ -13456,7 +13460,7 @@
         <v>632</v>
       </c>
       <c r="G256" s="20" t="s">
-        <v>1162</v>
+        <v>1328</v>
       </c>
       <c r="H256" s="13" t="s">
         <v>826</v>
@@ -13482,7 +13486,7 @@
         <v>632</v>
       </c>
       <c r="G257" s="20" t="s">
-        <v>1163</v>
+        <v>1078</v>
       </c>
       <c r="H257" s="13" t="s">
         <v>721</v>
@@ -13508,7 +13512,7 @@
         <v>632</v>
       </c>
       <c r="G258" s="20" t="s">
-        <v>1164</v>
+        <v>1079</v>
       </c>
       <c r="H258" s="13" t="s">
         <v>722</v>
@@ -13534,7 +13538,7 @@
         <v>632</v>
       </c>
       <c r="G259" s="20" t="s">
-        <v>1165</v>
+        <v>1329</v>
       </c>
       <c r="H259" s="13" t="s">
         <v>827</v>
@@ -13560,7 +13564,7 @@
         <v>632</v>
       </c>
       <c r="G260" s="20" t="s">
-        <v>1166</v>
+        <v>1080</v>
       </c>
       <c r="H260" s="13" t="s">
         <v>722</v>
@@ -13586,7 +13590,7 @@
         <v>632</v>
       </c>
       <c r="G261" s="20" t="s">
-        <v>1167</v>
+        <v>1081</v>
       </c>
       <c r="H261" s="13" t="s">
         <v>722</v>
@@ -13612,7 +13616,7 @@
         <v>632</v>
       </c>
       <c r="G262" s="20" t="s">
-        <v>1168</v>
+        <v>1330</v>
       </c>
       <c r="H262" s="13" t="s">
         <v>828</v>
@@ -13638,7 +13642,7 @@
         <v>632</v>
       </c>
       <c r="G263" s="20" t="s">
-        <v>1169</v>
+        <v>1082</v>
       </c>
       <c r="H263" s="13" t="s">
         <v>723</v>
@@ -13664,7 +13668,7 @@
         <v>632</v>
       </c>
       <c r="G264" s="20" t="s">
-        <v>1170</v>
+        <v>1083</v>
       </c>
       <c r="H264" s="13" t="s">
         <v>723</v>
@@ -13690,7 +13694,7 @@
         <v>632</v>
       </c>
       <c r="G265" s="20" t="s">
-        <v>1171</v>
+        <v>1331</v>
       </c>
       <c r="H265" s="13" t="s">
         <v>829</v>
@@ -13716,7 +13720,7 @@
         <v>632</v>
       </c>
       <c r="G266" s="20" t="s">
-        <v>1172</v>
+        <v>1084</v>
       </c>
       <c r="H266" s="13" t="s">
         <v>724</v>
@@ -13742,7 +13746,7 @@
         <v>632</v>
       </c>
       <c r="G267" s="20" t="s">
-        <v>1173</v>
+        <v>1085</v>
       </c>
       <c r="H267" s="13" t="s">
         <v>724</v>
@@ -13768,7 +13772,7 @@
         <v>632</v>
       </c>
       <c r="G268" s="20" t="s">
-        <v>1174</v>
+        <v>1332</v>
       </c>
       <c r="H268" s="13" t="s">
         <v>830</v>
@@ -13794,7 +13798,7 @@
         <v>632</v>
       </c>
       <c r="G269" s="20" t="s">
-        <v>1175</v>
+        <v>1086</v>
       </c>
       <c r="H269" s="13" t="s">
         <v>724</v>
@@ -13820,7 +13824,7 @@
         <v>632</v>
       </c>
       <c r="G270" s="20" t="s">
-        <v>1176</v>
+        <v>1087</v>
       </c>
       <c r="H270" s="13" t="s">
         <v>725</v>
@@ -13846,7 +13850,7 @@
         <v>632</v>
       </c>
       <c r="G271" s="20" t="s">
-        <v>1177</v>
+        <v>1333</v>
       </c>
       <c r="H271" s="13" t="s">
         <v>831</v>
@@ -13872,7 +13876,7 @@
         <v>632</v>
       </c>
       <c r="G272" s="20" t="s">
-        <v>1178</v>
+        <v>1088</v>
       </c>
       <c r="H272" s="13" t="s">
         <v>725</v>
@@ -13898,7 +13902,7 @@
         <v>632</v>
       </c>
       <c r="G273" s="20" t="s">
-        <v>1179</v>
+        <v>1089</v>
       </c>
       <c r="H273" s="13" t="s">
         <v>725</v>
@@ -13924,7 +13928,7 @@
         <v>632</v>
       </c>
       <c r="G274" s="20" t="s">
-        <v>1180</v>
+        <v>1334</v>
       </c>
       <c r="H274" s="13" t="s">
         <v>832</v>
@@ -13950,7 +13954,7 @@
         <v>632</v>
       </c>
       <c r="G275" s="20" t="s">
-        <v>1181</v>
+        <v>1090</v>
       </c>
       <c r="H275" s="13" t="s">
         <v>726</v>
@@ -13976,7 +13980,7 @@
         <v>632</v>
       </c>
       <c r="G276" s="20" t="s">
-        <v>1182</v>
+        <v>1091</v>
       </c>
       <c r="H276" s="13" t="s">
         <v>726</v>
@@ -14002,7 +14006,7 @@
         <v>632</v>
       </c>
       <c r="G277" s="20" t="s">
-        <v>1183</v>
+        <v>1335</v>
       </c>
       <c r="H277" s="13" t="s">
         <v>833</v>
@@ -14028,7 +14032,7 @@
         <v>632</v>
       </c>
       <c r="G278" s="20" t="s">
-        <v>1184</v>
+        <v>1092</v>
       </c>
       <c r="H278" s="13" t="s">
         <v>727</v>
@@ -14054,7 +14058,7 @@
         <v>632</v>
       </c>
       <c r="G279" s="20" t="s">
-        <v>1185</v>
+        <v>1093</v>
       </c>
       <c r="H279" s="13" t="s">
         <v>727</v>
@@ -14080,7 +14084,7 @@
         <v>632</v>
       </c>
       <c r="G280" s="20" t="s">
-        <v>1186</v>
+        <v>1336</v>
       </c>
       <c r="H280" s="13" t="s">
         <v>834</v>
@@ -14106,7 +14110,7 @@
         <v>632</v>
       </c>
       <c r="G281" s="20" t="s">
-        <v>1187</v>
+        <v>1094</v>
       </c>
       <c r="H281" s="13" t="s">
         <v>727</v>
@@ -14132,7 +14136,7 @@
         <v>632</v>
       </c>
       <c r="G282" s="20" t="s">
-        <v>1188</v>
+        <v>1095</v>
       </c>
       <c r="H282" s="13" t="s">
         <v>728</v>
@@ -14158,7 +14162,7 @@
         <v>632</v>
       </c>
       <c r="G283" s="20" t="s">
-        <v>1189</v>
+        <v>1337</v>
       </c>
       <c r="H283" s="13" t="s">
         <v>835</v>
@@ -14184,7 +14188,7 @@
         <v>632</v>
       </c>
       <c r="G284" s="20" t="s">
-        <v>1190</v>
+        <v>1096</v>
       </c>
       <c r="H284" s="13" t="s">
         <v>728</v>
@@ -14210,7 +14214,7 @@
         <v>632</v>
       </c>
       <c r="G285" s="20" t="s">
-        <v>1191</v>
+        <v>1097</v>
       </c>
       <c r="H285" s="13" t="s">
         <v>728</v>
@@ -14236,7 +14240,7 @@
         <v>632</v>
       </c>
       <c r="G286" s="20" t="s">
-        <v>1192</v>
+        <v>1338</v>
       </c>
       <c r="H286" s="13" t="s">
         <v>836</v>
@@ -14262,7 +14266,7 @@
         <v>632</v>
       </c>
       <c r="G287" s="20" t="s">
-        <v>1193</v>
+        <v>1098</v>
       </c>
       <c r="H287" s="13" t="s">
         <v>729</v>
@@ -14288,7 +14292,7 @@
         <v>632</v>
       </c>
       <c r="G288" s="20" t="s">
-        <v>1194</v>
+        <v>1099</v>
       </c>
       <c r="H288" s="13" t="s">
         <v>729</v>
@@ -14314,7 +14318,7 @@
         <v>632</v>
       </c>
       <c r="G289" s="20" t="s">
-        <v>1195</v>
+        <v>1339</v>
       </c>
       <c r="H289" s="13" t="s">
         <v>837</v>
@@ -14340,7 +14344,7 @@
         <v>632</v>
       </c>
       <c r="G290" s="20" t="s">
-        <v>1196</v>
+        <v>1100</v>
       </c>
       <c r="H290" s="13" t="s">
         <v>730</v>
@@ -14366,7 +14370,7 @@
         <v>632</v>
       </c>
       <c r="G291" s="20" t="s">
-        <v>1197</v>
+        <v>1101</v>
       </c>
       <c r="H291" s="13" t="s">
         <v>730</v>
@@ -14392,7 +14396,7 @@
         <v>632</v>
       </c>
       <c r="G292" s="20" t="s">
-        <v>1198</v>
+        <v>1340</v>
       </c>
       <c r="H292" s="13" t="s">
         <v>838</v>
@@ -14418,7 +14422,7 @@
         <v>632</v>
       </c>
       <c r="G293" s="20" t="s">
-        <v>1199</v>
+        <v>1102</v>
       </c>
       <c r="H293" s="13" t="s">
         <v>730</v>
@@ -14444,7 +14448,7 @@
         <v>632</v>
       </c>
       <c r="G294" s="20" t="s">
-        <v>1200</v>
+        <v>1103</v>
       </c>
       <c r="H294" s="13" t="s">
         <v>731</v>
@@ -14470,7 +14474,7 @@
         <v>632</v>
       </c>
       <c r="G295" s="20" t="s">
-        <v>1201</v>
+        <v>1341</v>
       </c>
       <c r="H295" s="13" t="s">
         <v>839</v>
@@ -14496,7 +14500,7 @@
         <v>632</v>
       </c>
       <c r="G296" s="20" t="s">
-        <v>1202</v>
+        <v>1104</v>
       </c>
       <c r="H296" s="13" t="s">
         <v>731</v>
@@ -14522,7 +14526,7 @@
         <v>632</v>
       </c>
       <c r="G297" s="20" t="s">
-        <v>1203</v>
+        <v>1105</v>
       </c>
       <c r="H297" s="13" t="s">
         <v>731</v>
@@ -14548,7 +14552,7 @@
         <v>632</v>
       </c>
       <c r="G298" s="20" t="s">
-        <v>1204</v>
+        <v>1342</v>
       </c>
       <c r="H298" s="13" t="s">
         <v>840</v>
@@ -14574,7 +14578,7 @@
         <v>632</v>
       </c>
       <c r="G299" s="20" t="s">
-        <v>1205</v>
+        <v>1106</v>
       </c>
       <c r="H299" s="13" t="s">
         <v>732</v>
@@ -14600,7 +14604,7 @@
         <v>632</v>
       </c>
       <c r="G300" s="20" t="s">
-        <v>1206</v>
+        <v>1107</v>
       </c>
       <c r="H300" s="13" t="s">
         <v>732</v>
@@ -14626,7 +14630,7 @@
         <v>632</v>
       </c>
       <c r="G301" s="20" t="s">
-        <v>1207</v>
+        <v>1343</v>
       </c>
       <c r="H301" s="13" t="s">
         <v>841</v>
@@ -14652,7 +14656,7 @@
         <v>632</v>
       </c>
       <c r="G302" s="20" t="s">
-        <v>1208</v>
+        <v>1108</v>
       </c>
       <c r="H302" s="13" t="s">
         <v>733</v>
@@ -14678,7 +14682,7 @@
         <v>632</v>
       </c>
       <c r="G303" s="20" t="s">
-        <v>1209</v>
+        <v>1109</v>
       </c>
       <c r="H303" s="13" t="s">
         <v>733</v>
@@ -14704,7 +14708,7 @@
         <v>632</v>
       </c>
       <c r="G304" s="20" t="s">
-        <v>1210</v>
+        <v>1344</v>
       </c>
       <c r="H304" s="13" t="s">
         <v>842</v>
@@ -14730,7 +14734,7 @@
         <v>632</v>
       </c>
       <c r="G305" s="20" t="s">
-        <v>1211</v>
+        <v>1110</v>
       </c>
       <c r="H305" s="13" t="s">
         <v>733</v>
@@ -14756,7 +14760,7 @@
         <v>632</v>
       </c>
       <c r="G306" s="20" t="s">
-        <v>1212</v>
+        <v>1111</v>
       </c>
       <c r="H306" s="13" t="s">
         <v>734</v>
@@ -14782,7 +14786,7 @@
         <v>632</v>
       </c>
       <c r="G307" s="20" t="s">
-        <v>1213</v>
+        <v>1345</v>
       </c>
       <c r="H307" s="13" t="s">
         <v>843</v>
@@ -14808,7 +14812,7 @@
         <v>632</v>
       </c>
       <c r="G308" s="20" t="s">
-        <v>1214</v>
+        <v>1112</v>
       </c>
       <c r="H308" s="13" t="s">
         <v>734</v>
@@ -14834,7 +14838,7 @@
         <v>632</v>
       </c>
       <c r="G309" s="20" t="s">
-        <v>1215</v>
+        <v>1113</v>
       </c>
       <c r="H309" s="13" t="s">
         <v>734</v>
@@ -14860,7 +14864,7 @@
         <v>632</v>
       </c>
       <c r="G310" s="20" t="s">
-        <v>1216</v>
+        <v>1346</v>
       </c>
       <c r="H310" s="13" t="s">
         <v>844</v>
@@ -14886,7 +14890,7 @@
         <v>632</v>
       </c>
       <c r="G311" s="20" t="s">
-        <v>1217</v>
+        <v>1114</v>
       </c>
       <c r="H311" s="13" t="s">
         <v>735</v>
@@ -14912,7 +14916,7 @@
         <v>632</v>
       </c>
       <c r="G312" s="20" t="s">
-        <v>1218</v>
+        <v>1115</v>
       </c>
       <c r="H312" s="13" t="s">
         <v>735</v>
@@ -14938,7 +14942,7 @@
         <v>632</v>
       </c>
       <c r="G313" s="20" t="s">
-        <v>1219</v>
+        <v>1347</v>
       </c>
       <c r="H313" s="13" t="s">
         <v>845</v>
@@ -14964,7 +14968,7 @@
         <v>632</v>
       </c>
       <c r="G314" s="20" t="s">
-        <v>1220</v>
+        <v>1116</v>
       </c>
       <c r="H314" s="13" t="s">
         <v>736</v>
@@ -14990,7 +14994,7 @@
         <v>632</v>
       </c>
       <c r="G315" s="20" t="s">
-        <v>1221</v>
+        <v>1117</v>
       </c>
       <c r="H315" s="13" t="s">
         <v>736</v>
@@ -15016,7 +15020,7 @@
         <v>632</v>
       </c>
       <c r="G316" s="20" t="s">
-        <v>1222</v>
+        <v>1348</v>
       </c>
       <c r="H316" s="13" t="s">
         <v>846</v>
@@ -15042,7 +15046,7 @@
         <v>633</v>
       </c>
       <c r="G317" s="20" t="s">
-        <v>1223</v>
+        <v>1118</v>
       </c>
       <c r="H317" s="13" t="s">
         <v>736</v>
@@ -15068,7 +15072,7 @@
         <v>633</v>
       </c>
       <c r="G318" s="20" t="s">
-        <v>1224</v>
+        <v>1119</v>
       </c>
       <c r="H318" s="13" t="s">
         <v>737</v>
@@ -15094,7 +15098,7 @@
         <v>633</v>
       </c>
       <c r="G319" s="20" t="s">
-        <v>1225</v>
+        <v>1349</v>
       </c>
       <c r="H319" s="13" t="s">
         <v>847</v>
@@ -15120,7 +15124,7 @@
         <v>633</v>
       </c>
       <c r="G320" s="20" t="s">
-        <v>1226</v>
+        <v>1120</v>
       </c>
       <c r="H320" s="13" t="s">
         <v>737</v>
@@ -15146,7 +15150,7 @@
         <v>633</v>
       </c>
       <c r="G321" s="20" t="s">
-        <v>1227</v>
+        <v>1121</v>
       </c>
       <c r="H321" s="13" t="s">
         <v>737</v>
@@ -15172,7 +15176,7 @@
         <v>633</v>
       </c>
       <c r="G322" s="20" t="s">
-        <v>1228</v>
+        <v>1350</v>
       </c>
       <c r="H322" s="13" t="s">
         <v>848</v>
@@ -15198,7 +15202,7 @@
         <v>633</v>
       </c>
       <c r="G323" s="20" t="s">
-        <v>1229</v>
+        <v>1122</v>
       </c>
       <c r="H323" s="13" t="s">
         <v>738</v>
@@ -15224,7 +15228,7 @@
         <v>633</v>
       </c>
       <c r="G324" s="20" t="s">
-        <v>1230</v>
+        <v>1123</v>
       </c>
       <c r="H324" s="13" t="s">
         <v>738</v>
@@ -15250,7 +15254,7 @@
         <v>633</v>
       </c>
       <c r="G325" s="20" t="s">
-        <v>1231</v>
+        <v>1351</v>
       </c>
       <c r="H325" s="13" t="s">
         <v>849</v>
@@ -15276,7 +15280,7 @@
         <v>633</v>
       </c>
       <c r="G326" s="20" t="s">
-        <v>1232</v>
+        <v>1124</v>
       </c>
       <c r="H326" s="13" t="s">
         <v>739</v>
@@ -15302,7 +15306,7 @@
         <v>633</v>
       </c>
       <c r="G327" s="20" t="s">
-        <v>1233</v>
+        <v>1125</v>
       </c>
       <c r="H327" s="13" t="s">
         <v>739</v>
@@ -15328,7 +15332,7 @@
         <v>633</v>
       </c>
       <c r="G328" s="20" t="s">
-        <v>1234</v>
+        <v>1352</v>
       </c>
       <c r="H328" s="13" t="s">
         <v>850</v>
@@ -15354,7 +15358,7 @@
         <v>633</v>
       </c>
       <c r="G329" s="20" t="s">
-        <v>1235</v>
+        <v>1126</v>
       </c>
       <c r="H329" s="13" t="s">
         <v>739</v>
@@ -15380,7 +15384,7 @@
         <v>633</v>
       </c>
       <c r="G330" s="20" t="s">
-        <v>1236</v>
+        <v>1127</v>
       </c>
       <c r="H330" s="13" t="s">
         <v>740</v>
@@ -15406,7 +15410,7 @@
         <v>633</v>
       </c>
       <c r="G331" s="20" t="s">
-        <v>1237</v>
+        <v>1353</v>
       </c>
       <c r="H331" s="13" t="s">
         <v>851</v>
@@ -15432,7 +15436,7 @@
         <v>633</v>
       </c>
       <c r="G332" s="20" t="s">
-        <v>1238</v>
+        <v>1128</v>
       </c>
       <c r="H332" s="13" t="s">
         <v>740</v>
@@ -15458,7 +15462,7 @@
         <v>633</v>
       </c>
       <c r="G333" s="20" t="s">
-        <v>1239</v>
+        <v>1129</v>
       </c>
       <c r="H333" s="13" t="s">
         <v>740</v>
@@ -15484,7 +15488,7 @@
         <v>633</v>
       </c>
       <c r="G334" s="20" t="s">
-        <v>1240</v>
+        <v>1354</v>
       </c>
       <c r="H334" s="13" t="s">
         <v>852</v>
@@ -15510,7 +15514,7 @@
         <v>633</v>
       </c>
       <c r="G335" s="20" t="s">
-        <v>1241</v>
+        <v>1130</v>
       </c>
       <c r="H335" s="13" t="s">
         <v>741</v>
@@ -15536,7 +15540,7 @@
         <v>633</v>
       </c>
       <c r="G336" s="20" t="s">
-        <v>1242</v>
+        <v>1131</v>
       </c>
       <c r="H336" s="13" t="s">
         <v>741</v>
@@ -15562,7 +15566,7 @@
         <v>633</v>
       </c>
       <c r="G337" s="20" t="s">
-        <v>1243</v>
+        <v>1355</v>
       </c>
       <c r="H337" s="13" t="s">
         <v>853</v>
@@ -15588,7 +15592,7 @@
         <v>633</v>
       </c>
       <c r="G338" s="20" t="s">
-        <v>1244</v>
+        <v>1132</v>
       </c>
       <c r="H338" s="13" t="s">
         <v>742</v>
@@ -15614,7 +15618,7 @@
         <v>633</v>
       </c>
       <c r="G339" s="20" t="s">
-        <v>1245</v>
+        <v>1133</v>
       </c>
       <c r="H339" s="13" t="s">
         <v>742</v>
@@ -15640,7 +15644,7 @@
         <v>633</v>
       </c>
       <c r="G340" s="20" t="s">
-        <v>1246</v>
+        <v>1356</v>
       </c>
       <c r="H340" s="13" t="s">
         <v>854</v>
@@ -15666,7 +15670,7 @@
         <v>633</v>
       </c>
       <c r="G341" s="20" t="s">
-        <v>1247</v>
+        <v>1134</v>
       </c>
       <c r="H341" s="13" t="s">
         <v>742</v>
@@ -15692,7 +15696,7 @@
         <v>633</v>
       </c>
       <c r="G342" s="20" t="s">
-        <v>1248</v>
+        <v>1135</v>
       </c>
       <c r="H342" s="13" t="s">
         <v>743</v>
@@ -15718,7 +15722,7 @@
         <v>633</v>
       </c>
       <c r="G343" s="20" t="s">
-        <v>1249</v>
+        <v>1357</v>
       </c>
       <c r="H343" s="13" t="s">
         <v>855</v>
@@ -15744,7 +15748,7 @@
         <v>633</v>
       </c>
       <c r="G344" s="20" t="s">
-        <v>1250</v>
+        <v>1136</v>
       </c>
       <c r="H344" s="13" t="s">
         <v>743</v>
@@ -15770,7 +15774,7 @@
         <v>633</v>
       </c>
       <c r="G345" s="20" t="s">
-        <v>1251</v>
+        <v>1137</v>
       </c>
       <c r="H345" s="13" t="s">
         <v>743</v>
@@ -15796,7 +15800,7 @@
         <v>633</v>
       </c>
       <c r="G346" s="20" t="s">
-        <v>1252</v>
+        <v>1358</v>
       </c>
       <c r="H346" s="13" t="s">
         <v>856</v>
@@ -15822,7 +15826,7 @@
         <v>633</v>
       </c>
       <c r="G347" s="20" t="s">
-        <v>1253</v>
+        <v>1138</v>
       </c>
       <c r="H347" s="13" t="s">
         <v>744</v>
@@ -15848,7 +15852,7 @@
         <v>633</v>
       </c>
       <c r="G348" s="20" t="s">
-        <v>1254</v>
+        <v>1139</v>
       </c>
       <c r="H348" s="13" t="s">
         <v>744</v>
@@ -15874,7 +15878,7 @@
         <v>633</v>
       </c>
       <c r="G349" s="20" t="s">
-        <v>1255</v>
+        <v>1359</v>
       </c>
       <c r="H349" s="13" t="s">
         <v>857</v>
@@ -15900,7 +15904,7 @@
         <v>633</v>
       </c>
       <c r="G350" s="20" t="s">
-        <v>1256</v>
+        <v>1140</v>
       </c>
       <c r="H350" s="13" t="s">
         <v>745</v>
@@ -15926,7 +15930,7 @@
         <v>633</v>
       </c>
       <c r="G351" s="20" t="s">
-        <v>1257</v>
+        <v>1141</v>
       </c>
       <c r="H351" s="13" t="s">
         <v>745</v>
@@ -15952,7 +15956,7 @@
         <v>633</v>
       </c>
       <c r="G352" s="20" t="s">
-        <v>1258</v>
+        <v>1360</v>
       </c>
       <c r="H352" s="13" t="s">
         <v>858</v>
@@ -15978,7 +15982,7 @@
         <v>633</v>
       </c>
       <c r="G353" s="20" t="s">
-        <v>1259</v>
+        <v>1142</v>
       </c>
       <c r="H353" s="13" t="s">
         <v>745</v>
@@ -16004,7 +16008,7 @@
         <v>633</v>
       </c>
       <c r="G354" s="20" t="s">
-        <v>1260</v>
+        <v>1143</v>
       </c>
       <c r="H354" s="13" t="s">
         <v>746</v>
@@ -16030,7 +16034,7 @@
         <v>633</v>
       </c>
       <c r="G355" s="20" t="s">
-        <v>1261</v>
+        <v>1361</v>
       </c>
       <c r="H355" s="13" t="s">
         <v>859</v>
@@ -16056,7 +16060,7 @@
         <v>633</v>
       </c>
       <c r="G356" s="20" t="s">
-        <v>1262</v>
+        <v>1144</v>
       </c>
       <c r="H356" s="13" t="s">
         <v>746</v>
@@ -16082,7 +16086,7 @@
         <v>633</v>
       </c>
       <c r="G357" s="20" t="s">
-        <v>1263</v>
+        <v>1145</v>
       </c>
       <c r="H357" s="13" t="s">
         <v>746</v>
@@ -16108,7 +16112,7 @@
         <v>633</v>
       </c>
       <c r="G358" s="20" t="s">
-        <v>1264</v>
+        <v>1362</v>
       </c>
       <c r="H358" s="13" t="s">
         <v>860</v>
@@ -16134,7 +16138,7 @@
         <v>633</v>
       </c>
       <c r="G359" s="20" t="s">
-        <v>1265</v>
+        <v>1146</v>
       </c>
       <c r="H359" s="13" t="s">
         <v>747</v>
@@ -16160,7 +16164,7 @@
         <v>633</v>
       </c>
       <c r="G360" s="20" t="s">
-        <v>1266</v>
+        <v>1147</v>
       </c>
       <c r="H360" s="13" t="s">
         <v>747</v>
@@ -16186,7 +16190,7 @@
         <v>633</v>
       </c>
       <c r="G361" s="20" t="s">
-        <v>1267</v>
+        <v>1363</v>
       </c>
       <c r="H361" s="13" t="s">
         <v>861</v>
@@ -16212,7 +16216,7 @@
         <v>633</v>
       </c>
       <c r="G362" s="20" t="s">
-        <v>1268</v>
+        <v>1148</v>
       </c>
       <c r="H362" s="13" t="s">
         <v>748</v>
@@ -16238,7 +16242,7 @@
         <v>633</v>
       </c>
       <c r="G363" s="20" t="s">
-        <v>1269</v>
+        <v>1149</v>
       </c>
       <c r="H363" s="13" t="s">
         <v>748</v>
@@ -16264,7 +16268,7 @@
         <v>633</v>
       </c>
       <c r="G364" s="20" t="s">
-        <v>1270</v>
+        <v>1364</v>
       </c>
       <c r="H364" s="13" t="s">
         <v>862</v>
@@ -16290,7 +16294,7 @@
         <v>633</v>
       </c>
       <c r="G365" s="20" t="s">
-        <v>1271</v>
+        <v>1150</v>
       </c>
       <c r="H365" s="13" t="s">
         <v>748</v>
@@ -16316,7 +16320,7 @@
         <v>633</v>
       </c>
       <c r="G366" s="20" t="s">
-        <v>1272</v>
+        <v>1151</v>
       </c>
       <c r="H366" s="13" t="s">
         <v>749</v>
@@ -16342,7 +16346,7 @@
         <v>633</v>
       </c>
       <c r="G367" s="20" t="s">
-        <v>1273</v>
+        <v>1365</v>
       </c>
       <c r="H367" s="13" t="s">
         <v>863</v>
@@ -16368,7 +16372,7 @@
         <v>633</v>
       </c>
       <c r="G368" s="20" t="s">
-        <v>1274</v>
+        <v>1152</v>
       </c>
       <c r="H368" s="13" t="s">
         <v>749</v>
@@ -16394,7 +16398,7 @@
         <v>633</v>
       </c>
       <c r="G369" s="20" t="s">
-        <v>1275</v>
+        <v>1153</v>
       </c>
       <c r="H369" s="13" t="s">
         <v>749</v>
@@ -16420,7 +16424,7 @@
         <v>633</v>
       </c>
       <c r="G370" s="20" t="s">
-        <v>1276</v>
+        <v>1366</v>
       </c>
       <c r="H370" s="13" t="s">
         <v>864</v>
@@ -16446,7 +16450,7 @@
         <v>633</v>
       </c>
       <c r="G371" s="20" t="s">
-        <v>1277</v>
+        <v>1154</v>
       </c>
       <c r="H371" s="13" t="s">
         <v>750</v>
@@ -16472,7 +16476,7 @@
         <v>633</v>
       </c>
       <c r="G372" s="20" t="s">
-        <v>1278</v>
+        <v>1155</v>
       </c>
       <c r="H372" s="13" t="s">
         <v>750</v>
@@ -16498,7 +16502,7 @@
         <v>633</v>
       </c>
       <c r="G373" s="20" t="s">
-        <v>1279</v>
+        <v>1367</v>
       </c>
       <c r="H373" s="13" t="s">
         <v>865</v>
@@ -16524,7 +16528,7 @@
         <v>633</v>
       </c>
       <c r="G374" s="20" t="s">
-        <v>1280</v>
+        <v>1156</v>
       </c>
       <c r="H374" s="13" t="s">
         <v>751</v>
@@ -16550,7 +16554,7 @@
         <v>633</v>
       </c>
       <c r="G375" s="20" t="s">
-        <v>1281</v>
+        <v>1157</v>
       </c>
       <c r="H375" s="13" t="s">
         <v>751</v>
@@ -16576,7 +16580,7 @@
         <v>633</v>
       </c>
       <c r="G376" s="20" t="s">
-        <v>1282</v>
+        <v>1368</v>
       </c>
       <c r="H376" s="13" t="s">
         <v>866</v>
@@ -16602,7 +16606,7 @@
         <v>633</v>
       </c>
       <c r="G377" s="20" t="s">
-        <v>1283</v>
+        <v>1158</v>
       </c>
       <c r="H377" s="13" t="s">
         <v>751</v>
@@ -16628,7 +16632,7 @@
         <v>633</v>
       </c>
       <c r="G378" s="20" t="s">
-        <v>1284</v>
+        <v>1159</v>
       </c>
       <c r="H378" s="13" t="s">
         <v>752</v>
@@ -16654,7 +16658,7 @@
         <v>633</v>
       </c>
       <c r="G379" s="20" t="s">
-        <v>1285</v>
+        <v>1369</v>
       </c>
       <c r="H379" s="13" t="s">
         <v>867</v>
@@ -16680,7 +16684,7 @@
         <v>631</v>
       </c>
       <c r="G380" s="20" t="s">
-        <v>1286</v>
+        <v>1160</v>
       </c>
       <c r="H380" s="13" t="s">
         <v>752</v>
@@ -16706,7 +16710,7 @@
         <v>631</v>
       </c>
       <c r="G381" s="20" t="s">
-        <v>1287</v>
+        <v>1161</v>
       </c>
       <c r="H381" s="13" t="s">
         <v>752</v>
@@ -16732,7 +16736,7 @@
         <v>631</v>
       </c>
       <c r="G382" s="20" t="s">
-        <v>1288</v>
+        <v>1370</v>
       </c>
       <c r="H382" s="13" t="s">
         <v>868</v>
@@ -16758,7 +16762,7 @@
         <v>631</v>
       </c>
       <c r="G383" s="20" t="s">
-        <v>1289</v>
+        <v>1162</v>
       </c>
       <c r="H383" s="13" t="s">
         <v>753</v>
@@ -16784,7 +16788,7 @@
         <v>631</v>
       </c>
       <c r="G384" s="20" t="s">
-        <v>1290</v>
+        <v>1163</v>
       </c>
       <c r="H384" s="13" t="s">
         <v>753</v>
@@ -16810,7 +16814,7 @@
         <v>631</v>
       </c>
       <c r="G385" s="20" t="s">
-        <v>1291</v>
+        <v>1371</v>
       </c>
       <c r="H385" s="13" t="s">
         <v>869</v>
@@ -16836,7 +16840,7 @@
         <v>631</v>
       </c>
       <c r="G386" s="20" t="s">
-        <v>1292</v>
+        <v>1164</v>
       </c>
       <c r="H386" s="13" t="s">
         <v>754</v>
@@ -16862,7 +16866,7 @@
         <v>631</v>
       </c>
       <c r="G387" s="20" t="s">
-        <v>1293</v>
+        <v>1165</v>
       </c>
       <c r="H387" s="13" t="s">
         <v>754</v>
@@ -16888,7 +16892,7 @@
         <v>631</v>
       </c>
       <c r="G388" s="20" t="s">
-        <v>1294</v>
+        <v>1372</v>
       </c>
       <c r="H388" s="13" t="s">
         <v>870</v>
@@ -16914,7 +16918,7 @@
         <v>631</v>
       </c>
       <c r="G389" s="20" t="s">
-        <v>1295</v>
+        <v>1166</v>
       </c>
       <c r="H389" s="13" t="s">
         <v>754</v>
@@ -16940,7 +16944,7 @@
         <v>631</v>
       </c>
       <c r="G390" s="20" t="s">
-        <v>1296</v>
+        <v>1167</v>
       </c>
       <c r="H390" s="13" t="s">
         <v>755</v>
@@ -16966,7 +16970,7 @@
         <v>631</v>
       </c>
       <c r="G391" s="20" t="s">
-        <v>1297</v>
+        <v>1373</v>
       </c>
       <c r="H391" s="13" t="s">
         <v>871</v>
@@ -16992,7 +16996,7 @@
         <v>631</v>
       </c>
       <c r="G392" s="20" t="s">
-        <v>1298</v>
+        <v>1168</v>
       </c>
       <c r="H392" s="13" t="s">
         <v>755</v>
@@ -17018,7 +17022,7 @@
         <v>631</v>
       </c>
       <c r="G393" s="20" t="s">
-        <v>1299</v>
+        <v>1169</v>
       </c>
       <c r="H393" s="13" t="s">
         <v>755</v>
@@ -17044,7 +17048,7 @@
         <v>631</v>
       </c>
       <c r="G394" s="20" t="s">
-        <v>1300</v>
+        <v>1374</v>
       </c>
       <c r="H394" s="13" t="s">
         <v>872</v>
@@ -17070,7 +17074,7 @@
         <v>631</v>
       </c>
       <c r="G395" s="20" t="s">
-        <v>1301</v>
+        <v>1170</v>
       </c>
       <c r="H395" s="13" t="s">
         <v>756</v>
@@ -17096,7 +17100,7 @@
         <v>631</v>
       </c>
       <c r="G396" s="20" t="s">
-        <v>1302</v>
+        <v>1171</v>
       </c>
       <c r="H396" s="13" t="s">
         <v>756</v>
@@ -17122,7 +17126,7 @@
         <v>631</v>
       </c>
       <c r="G397" s="20" t="s">
-        <v>1303</v>
+        <v>1375</v>
       </c>
       <c r="H397" s="13" t="s">
         <v>873</v>
@@ -17148,7 +17152,7 @@
         <v>631</v>
       </c>
       <c r="G398" s="20" t="s">
-        <v>1304</v>
+        <v>1172</v>
       </c>
       <c r="H398" s="13" t="s">
         <v>757</v>
@@ -17174,7 +17178,7 @@
         <v>631</v>
       </c>
       <c r="G399" s="20" t="s">
-        <v>1305</v>
+        <v>1173</v>
       </c>
       <c r="H399" s="13" t="s">
         <v>757</v>
@@ -17200,7 +17204,7 @@
         <v>631</v>
       </c>
       <c r="G400" s="20" t="s">
-        <v>1306</v>
+        <v>1376</v>
       </c>
       <c r="H400" s="13" t="s">
         <v>874</v>
@@ -17226,7 +17230,7 @@
         <v>631</v>
       </c>
       <c r="G401" s="20" t="s">
-        <v>1307</v>
+        <v>1174</v>
       </c>
       <c r="H401" s="13" t="s">
         <v>757</v>
@@ -17252,7 +17256,7 @@
         <v>631</v>
       </c>
       <c r="G402" s="20" t="s">
-        <v>1308</v>
+        <v>1175</v>
       </c>
       <c r="H402" s="13" t="s">
         <v>758</v>
@@ -17278,7 +17282,7 @@
         <v>631</v>
       </c>
       <c r="G403" s="20" t="s">
-        <v>1309</v>
+        <v>1377</v>
       </c>
       <c r="H403" s="13" t="s">
         <v>875</v>
@@ -17304,7 +17308,7 @@
         <v>631</v>
       </c>
       <c r="G404" s="20" t="s">
-        <v>1310</v>
+        <v>1176</v>
       </c>
       <c r="H404" s="13" t="s">
         <v>758</v>
@@ -17330,7 +17334,7 @@
         <v>631</v>
       </c>
       <c r="G405" s="20" t="s">
-        <v>1311</v>
+        <v>1177</v>
       </c>
       <c r="H405" s="13" t="s">
         <v>758</v>
@@ -17356,7 +17360,7 @@
         <v>631</v>
       </c>
       <c r="G406" s="20" t="s">
-        <v>1312</v>
+        <v>1378</v>
       </c>
       <c r="H406" s="13" t="s">
         <v>876</v>
@@ -17382,7 +17386,7 @@
         <v>631</v>
       </c>
       <c r="G407" s="20" t="s">
-        <v>1313</v>
+        <v>1178</v>
       </c>
       <c r="H407" s="13" t="s">
         <v>759</v>
@@ -17408,7 +17412,7 @@
         <v>631</v>
       </c>
       <c r="G408" s="20" t="s">
-        <v>1314</v>
+        <v>1179</v>
       </c>
       <c r="H408" s="13" t="s">
         <v>759</v>
@@ -17434,7 +17438,7 @@
         <v>631</v>
       </c>
       <c r="G409" s="20" t="s">
-        <v>1315</v>
+        <v>1379</v>
       </c>
       <c r="H409" s="13" t="s">
         <v>877</v>
@@ -17460,7 +17464,7 @@
         <v>631</v>
       </c>
       <c r="G410" s="20" t="s">
-        <v>1316</v>
+        <v>1180</v>
       </c>
       <c r="H410" s="13" t="s">
         <v>760</v>
@@ -17486,7 +17490,7 @@
         <v>631</v>
       </c>
       <c r="G411" s="20" t="s">
-        <v>1317</v>
+        <v>1181</v>
       </c>
       <c r="H411" s="13" t="s">
         <v>760</v>
@@ -17512,7 +17516,7 @@
         <v>631</v>
       </c>
       <c r="G412" s="20" t="s">
-        <v>1318</v>
+        <v>1380</v>
       </c>
       <c r="H412" s="13" t="s">
         <v>878</v>
@@ -17538,7 +17542,7 @@
         <v>631</v>
       </c>
       <c r="G413" s="20" t="s">
-        <v>1319</v>
+        <v>1182</v>
       </c>
       <c r="H413" s="13" t="s">
         <v>760</v>
@@ -17564,7 +17568,7 @@
         <v>631</v>
       </c>
       <c r="G414" s="20" t="s">
-        <v>1320</v>
+        <v>1183</v>
       </c>
       <c r="H414" s="13" t="s">
         <v>761</v>
@@ -17590,7 +17594,7 @@
         <v>631</v>
       </c>
       <c r="G415" s="20" t="s">
-        <v>1321</v>
+        <v>1381</v>
       </c>
       <c r="H415" s="13" t="s">
         <v>879</v>
@@ -17616,7 +17620,7 @@
         <v>631</v>
       </c>
       <c r="G416" s="20" t="s">
-        <v>1322</v>
+        <v>1184</v>
       </c>
       <c r="H416" s="13" t="s">
         <v>761</v>
@@ -17642,7 +17646,7 @@
         <v>631</v>
       </c>
       <c r="G417" s="20" t="s">
-        <v>1323</v>
+        <v>1185</v>
       </c>
       <c r="H417" s="13" t="s">
         <v>761</v>
@@ -17668,7 +17672,7 @@
         <v>631</v>
       </c>
       <c r="G418" s="20" t="s">
-        <v>1324</v>
+        <v>1382</v>
       </c>
       <c r="H418" s="13" t="s">
         <v>880</v>
@@ -17694,7 +17698,7 @@
         <v>631</v>
       </c>
       <c r="G419" s="20" t="s">
-        <v>1325</v>
+        <v>1186</v>
       </c>
       <c r="H419" s="13" t="s">
         <v>762</v>
@@ -17720,7 +17724,7 @@
         <v>631</v>
       </c>
       <c r="G420" s="20" t="s">
-        <v>1326</v>
+        <v>1187</v>
       </c>
       <c r="H420" s="13" t="s">
         <v>762</v>
@@ -17746,7 +17750,7 @@
         <v>631</v>
       </c>
       <c r="G421" s="20" t="s">
-        <v>1327</v>
+        <v>1383</v>
       </c>
       <c r="H421" s="13" t="s">
         <v>881</v>
@@ -17772,7 +17776,7 @@
         <v>631</v>
       </c>
       <c r="G422" s="20" t="s">
-        <v>1328</v>
+        <v>1188</v>
       </c>
       <c r="H422" s="13" t="s">
         <v>763</v>
@@ -17798,7 +17802,7 @@
         <v>631</v>
       </c>
       <c r="G423" s="20" t="s">
-        <v>1329</v>
+        <v>1189</v>
       </c>
       <c r="H423" s="13" t="s">
         <v>763</v>
@@ -17824,7 +17828,7 @@
         <v>631</v>
       </c>
       <c r="G424" s="20" t="s">
-        <v>1330</v>
+        <v>1384</v>
       </c>
       <c r="H424" s="13" t="s">
         <v>882</v>
@@ -17850,7 +17854,7 @@
         <v>631</v>
       </c>
       <c r="G425" s="20" t="s">
-        <v>1331</v>
+        <v>1190</v>
       </c>
       <c r="H425" s="13" t="s">
         <v>763</v>
@@ -17876,7 +17880,7 @@
         <v>631</v>
       </c>
       <c r="G426" s="20" t="s">
-        <v>1332</v>
+        <v>1191</v>
       </c>
       <c r="H426" s="13" t="s">
         <v>764</v>
@@ -17902,7 +17906,7 @@
         <v>631</v>
       </c>
       <c r="G427" s="20" t="s">
-        <v>1333</v>
+        <v>1385</v>
       </c>
       <c r="H427" s="13" t="s">
         <v>883</v>
@@ -17928,7 +17932,7 @@
         <v>631</v>
       </c>
       <c r="G428" s="20" t="s">
-        <v>1334</v>
+        <v>1192</v>
       </c>
       <c r="H428" s="13" t="s">
         <v>764</v>
@@ -17954,7 +17958,7 @@
         <v>631</v>
       </c>
       <c r="G429" s="20" t="s">
-        <v>1335</v>
+        <v>1193</v>
       </c>
       <c r="H429" s="13" t="s">
         <v>764</v>
@@ -17980,7 +17984,7 @@
         <v>631</v>
       </c>
       <c r="G430" s="20" t="s">
-        <v>1336</v>
+        <v>1386</v>
       </c>
       <c r="H430" s="13" t="s">
         <v>884</v>
@@ -18006,7 +18010,7 @@
         <v>631</v>
       </c>
       <c r="G431" s="20" t="s">
-        <v>1337</v>
+        <v>1194</v>
       </c>
       <c r="H431" s="13" t="s">
         <v>765</v>
@@ -18032,7 +18036,7 @@
         <v>631</v>
       </c>
       <c r="G432" s="20" t="s">
-        <v>1338</v>
+        <v>1195</v>
       </c>
       <c r="H432" s="13" t="s">
         <v>765</v>
@@ -18058,7 +18062,7 @@
         <v>631</v>
       </c>
       <c r="G433" s="20" t="s">
-        <v>1339</v>
+        <v>1387</v>
       </c>
       <c r="H433" s="13" t="s">
         <v>885</v>
@@ -18084,7 +18088,7 @@
         <v>631</v>
       </c>
       <c r="G434" s="20" t="s">
-        <v>1340</v>
+        <v>1196</v>
       </c>
       <c r="H434" s="13" t="s">
         <v>766</v>
@@ -18110,7 +18114,7 @@
         <v>631</v>
       </c>
       <c r="G435" s="20" t="s">
-        <v>1341</v>
+        <v>1197</v>
       </c>
       <c r="H435" s="13" t="s">
         <v>766</v>
@@ -18136,7 +18140,7 @@
         <v>631</v>
       </c>
       <c r="G436" s="20" t="s">
-        <v>1342</v>
+        <v>1388</v>
       </c>
       <c r="H436" s="13" t="s">
         <v>886</v>
@@ -18162,7 +18166,7 @@
         <v>631</v>
       </c>
       <c r="G437" s="20" t="s">
-        <v>1343</v>
+        <v>1198</v>
       </c>
       <c r="H437" s="13" t="s">
         <v>766</v>
@@ -18188,7 +18192,7 @@
         <v>631</v>
       </c>
       <c r="G438" s="20" t="s">
-        <v>1344</v>
+        <v>1199</v>
       </c>
       <c r="H438" s="13" t="s">
         <v>767</v>
@@ -18214,7 +18218,7 @@
         <v>631</v>
       </c>
       <c r="G439" s="20" t="s">
-        <v>1345</v>
+        <v>1389</v>
       </c>
       <c r="H439" s="13" t="s">
         <v>887</v>
@@ -18240,7 +18244,7 @@
         <v>631</v>
       </c>
       <c r="G440" s="20" t="s">
-        <v>1346</v>
+        <v>1200</v>
       </c>
       <c r="H440" s="13" t="s">
         <v>767</v>
@@ -18266,7 +18270,7 @@
         <v>631</v>
       </c>
       <c r="G441" s="20" t="s">
-        <v>1347</v>
+        <v>1201</v>
       </c>
       <c r="H441" s="13" t="s">
         <v>767</v>
@@ -18292,7 +18296,7 @@
         <v>631</v>
       </c>
       <c r="G442" s="20" t="s">
-        <v>1348</v>
+        <v>1390</v>
       </c>
       <c r="H442" s="13" t="s">
         <v>888</v>
@@ -18318,7 +18322,7 @@
         <v>632</v>
       </c>
       <c r="G443" s="20" t="s">
-        <v>1349</v>
+        <v>1202</v>
       </c>
       <c r="H443" s="13" t="s">
         <v>768</v>
@@ -18344,7 +18348,7 @@
         <v>632</v>
       </c>
       <c r="G444" s="20" t="s">
-        <v>1350</v>
+        <v>1203</v>
       </c>
       <c r="H444" s="13" t="s">
         <v>768</v>
@@ -18370,7 +18374,7 @@
         <v>632</v>
       </c>
       <c r="G445" s="20" t="s">
-        <v>1351</v>
+        <v>1391</v>
       </c>
       <c r="H445" s="13" t="s">
         <v>889</v>
@@ -18396,7 +18400,7 @@
         <v>632</v>
       </c>
       <c r="G446" s="20" t="s">
-        <v>1352</v>
+        <v>1204</v>
       </c>
       <c r="H446" s="13" t="s">
         <v>769</v>
@@ -18422,7 +18426,7 @@
         <v>632</v>
       </c>
       <c r="G447" s="20" t="s">
-        <v>1353</v>
+        <v>1205</v>
       </c>
       <c r="H447" s="13" t="s">
         <v>769</v>
@@ -18448,7 +18452,7 @@
         <v>632</v>
       </c>
       <c r="G448" s="20" t="s">
-        <v>1354</v>
+        <v>1392</v>
       </c>
       <c r="H448" s="13" t="s">
         <v>890</v>
@@ -18474,7 +18478,7 @@
         <v>632</v>
       </c>
       <c r="G449" s="20" t="s">
-        <v>1355</v>
+        <v>1206</v>
       </c>
       <c r="H449" s="13" t="s">
         <v>769</v>
@@ -18500,7 +18504,7 @@
         <v>632</v>
       </c>
       <c r="G450" s="20" t="s">
-        <v>1356</v>
+        <v>1207</v>
       </c>
       <c r="H450" s="13" t="s">
         <v>770</v>
@@ -18526,7 +18530,7 @@
         <v>632</v>
       </c>
       <c r="G451" s="20" t="s">
-        <v>1357</v>
+        <v>1393</v>
       </c>
       <c r="H451" s="13" t="s">
         <v>891</v>
@@ -18552,7 +18556,7 @@
         <v>632</v>
       </c>
       <c r="G452" s="20" t="s">
-        <v>1358</v>
+        <v>1208</v>
       </c>
       <c r="H452" s="13" t="s">
         <v>770</v>
@@ -18578,7 +18582,7 @@
         <v>632</v>
       </c>
       <c r="G453" s="20" t="s">
-        <v>1359</v>
+        <v>1209</v>
       </c>
       <c r="H453" s="13" t="s">
         <v>770</v>
@@ -18604,7 +18608,7 @@
         <v>632</v>
       </c>
       <c r="G454" s="20" t="s">
-        <v>1360</v>
+        <v>1394</v>
       </c>
       <c r="H454" s="13" t="s">
         <v>892</v>
@@ -18630,7 +18634,7 @@
         <v>632</v>
       </c>
       <c r="G455" s="20" t="s">
-        <v>1361</v>
+        <v>1210</v>
       </c>
       <c r="H455" s="13" t="s">
         <v>771</v>
@@ -18656,7 +18660,7 @@
         <v>632</v>
       </c>
       <c r="G456" s="20" t="s">
-        <v>1362</v>
+        <v>1211</v>
       </c>
       <c r="H456" s="13" t="s">
         <v>771</v>
@@ -18682,7 +18686,7 @@
         <v>632</v>
       </c>
       <c r="G457" s="20" t="s">
-        <v>1363</v>
+        <v>1395</v>
       </c>
       <c r="H457" s="13" t="s">
         <v>893</v>
@@ -18708,7 +18712,7 @@
         <v>632</v>
       </c>
       <c r="G458" s="20" t="s">
-        <v>1364</v>
+        <v>1212</v>
       </c>
       <c r="H458" s="13" t="s">
         <v>772</v>
@@ -18734,7 +18738,7 @@
         <v>632</v>
       </c>
       <c r="G459" s="20" t="s">
-        <v>1365</v>
+        <v>1213</v>
       </c>
       <c r="H459" s="13" t="s">
         <v>772</v>
@@ -18760,7 +18764,7 @@
         <v>632</v>
       </c>
       <c r="G460" s="20" t="s">
-        <v>1366</v>
+        <v>1396</v>
       </c>
       <c r="H460" s="13" t="s">
         <v>894</v>
@@ -18786,7 +18790,7 @@
         <v>632</v>
       </c>
       <c r="G461" s="20" t="s">
-        <v>1367</v>
+        <v>1214</v>
       </c>
       <c r="H461" s="13" t="s">
         <v>772</v>
@@ -18812,7 +18816,7 @@
         <v>632</v>
       </c>
       <c r="G462" s="20" t="s">
-        <v>1368</v>
+        <v>1215</v>
       </c>
       <c r="H462" s="13" t="s">
         <v>773</v>
@@ -18838,7 +18842,7 @@
         <v>632</v>
       </c>
       <c r="G463" s="20" t="s">
-        <v>1369</v>
+        <v>1397</v>
       </c>
       <c r="H463" s="13" t="s">
         <v>895</v>
@@ -18864,7 +18868,7 @@
         <v>632</v>
       </c>
       <c r="G464" s="20" t="s">
-        <v>1370</v>
+        <v>1216</v>
       </c>
       <c r="H464" s="13" t="s">
         <v>773</v>
@@ -18890,7 +18894,7 @@
         <v>632</v>
       </c>
       <c r="G465" s="20" t="s">
-        <v>1371</v>
+        <v>1217</v>
       </c>
       <c r="H465" s="13" t="s">
         <v>773</v>
@@ -18916,7 +18920,7 @@
         <v>632</v>
       </c>
       <c r="G466" s="20" t="s">
-        <v>1372</v>
+        <v>1398</v>
       </c>
       <c r="H466" s="13" t="s">
         <v>896</v>
@@ -18942,7 +18946,7 @@
         <v>632</v>
       </c>
       <c r="G467" s="20" t="s">
-        <v>1373</v>
+        <v>1218</v>
       </c>
       <c r="H467" s="13" t="s">
         <v>774</v>
@@ -18968,7 +18972,7 @@
         <v>632</v>
       </c>
       <c r="G468" s="20" t="s">
-        <v>1374</v>
+        <v>1219</v>
       </c>
       <c r="H468" s="13" t="s">
         <v>774</v>
@@ -18994,7 +18998,7 @@
         <v>632</v>
       </c>
       <c r="G469" s="20" t="s">
-        <v>1375</v>
+        <v>1399</v>
       </c>
       <c r="H469" s="13" t="s">
         <v>897</v>
@@ -19020,7 +19024,7 @@
         <v>632</v>
       </c>
       <c r="G470" s="20" t="s">
-        <v>1376</v>
+        <v>1220</v>
       </c>
       <c r="H470" s="13" t="s">
         <v>775</v>
@@ -19046,7 +19050,7 @@
         <v>632</v>
       </c>
       <c r="G471" s="20" t="s">
-        <v>1377</v>
+        <v>1221</v>
       </c>
       <c r="H471" s="13" t="s">
         <v>775</v>
@@ -19072,7 +19076,7 @@
         <v>632</v>
       </c>
       <c r="G472" s="20" t="s">
-        <v>1378</v>
+        <v>1400</v>
       </c>
       <c r="H472" s="13" t="s">
         <v>898</v>
@@ -19098,7 +19102,7 @@
         <v>632</v>
       </c>
       <c r="G473" s="20" t="s">
-        <v>1379</v>
+        <v>1222</v>
       </c>
       <c r="H473" s="13" t="s">
         <v>775</v>
@@ -19124,7 +19128,7 @@
         <v>632</v>
       </c>
       <c r="G474" s="20" t="s">
-        <v>1380</v>
+        <v>1223</v>
       </c>
       <c r="H474" s="13" t="s">
         <v>776</v>
@@ -19150,7 +19154,7 @@
         <v>632</v>
       </c>
       <c r="G475" s="20" t="s">
-        <v>1381</v>
+        <v>1401</v>
       </c>
       <c r="H475" s="13" t="s">
         <v>899</v>
@@ -19176,7 +19180,7 @@
         <v>632</v>
       </c>
       <c r="G476" s="20" t="s">
-        <v>1382</v>
+        <v>1224</v>
       </c>
       <c r="H476" s="13" t="s">
         <v>776</v>
@@ -19202,7 +19206,7 @@
         <v>632</v>
       </c>
       <c r="G477" s="20" t="s">
-        <v>1383</v>
+        <v>1225</v>
       </c>
       <c r="H477" s="13" t="s">
         <v>776</v>
@@ -19228,7 +19232,7 @@
         <v>632</v>
       </c>
       <c r="G478" s="20" t="s">
-        <v>1384</v>
+        <v>1402</v>
       </c>
       <c r="H478" s="13" t="s">
         <v>900</v>
@@ -19254,7 +19258,7 @@
         <v>632</v>
       </c>
       <c r="G479" s="20" t="s">
-        <v>1385</v>
+        <v>1226</v>
       </c>
       <c r="H479" s="13" t="s">
         <v>777</v>
@@ -19280,7 +19284,7 @@
         <v>632</v>
       </c>
       <c r="G480" s="20" t="s">
-        <v>1386</v>
+        <v>1227</v>
       </c>
       <c r="H480" s="13" t="s">
         <v>777</v>
@@ -19306,7 +19310,7 @@
         <v>632</v>
       </c>
       <c r="G481" s="20" t="s">
-        <v>1387</v>
+        <v>1403</v>
       </c>
       <c r="H481" s="13" t="s">
         <v>901</v>
@@ -19332,7 +19336,7 @@
         <v>632</v>
       </c>
       <c r="G482" s="20" t="s">
-        <v>1388</v>
+        <v>1228</v>
       </c>
       <c r="H482" s="13" t="s">
         <v>778</v>
@@ -19358,7 +19362,7 @@
         <v>632</v>
       </c>
       <c r="G483" s="20" t="s">
-        <v>1389</v>
+        <v>1229</v>
       </c>
       <c r="H483" s="13" t="s">
         <v>778</v>
@@ -19384,7 +19388,7 @@
         <v>632</v>
       </c>
       <c r="G484" s="20" t="s">
-        <v>1390</v>
+        <v>1404</v>
       </c>
       <c r="H484" s="13" t="s">
         <v>891</v>
@@ -19410,7 +19414,7 @@
         <v>632</v>
       </c>
       <c r="G485" s="20" t="s">
-        <v>1391</v>
+        <v>1230</v>
       </c>
       <c r="H485" s="13" t="s">
         <v>778</v>
@@ -19436,7 +19440,7 @@
         <v>632</v>
       </c>
       <c r="G486" s="20" t="s">
-        <v>1392</v>
+        <v>1231</v>
       </c>
       <c r="H486" s="13" t="s">
         <v>779</v>
@@ -19462,7 +19466,7 @@
         <v>632</v>
       </c>
       <c r="G487" s="20" t="s">
-        <v>1393</v>
+        <v>1405</v>
       </c>
       <c r="H487" s="13" t="s">
         <v>901</v>
@@ -19488,7 +19492,7 @@
         <v>632</v>
       </c>
       <c r="G488" s="20" t="s">
-        <v>1394</v>
+        <v>1232</v>
       </c>
       <c r="H488" s="13" t="s">
         <v>779</v>
@@ -19514,7 +19518,7 @@
         <v>632</v>
       </c>
       <c r="G489" s="20" t="s">
-        <v>1395</v>
+        <v>1233</v>
       </c>
       <c r="H489" s="13" t="s">
         <v>779</v>
@@ -19540,7 +19544,7 @@
         <v>632</v>
       </c>
       <c r="G490" s="20" t="s">
-        <v>1396</v>
+        <v>1406</v>
       </c>
       <c r="H490" s="13" t="s">
         <v>902</v>
@@ -19566,7 +19570,7 @@
         <v>632</v>
       </c>
       <c r="G491" s="20" t="s">
-        <v>1397</v>
+        <v>1234</v>
       </c>
       <c r="H491" s="13" t="s">
         <v>780</v>
@@ -19592,7 +19596,7 @@
         <v>632</v>
       </c>
       <c r="G492" s="20" t="s">
-        <v>1398</v>
+        <v>1235</v>
       </c>
       <c r="H492" s="13" t="s">
         <v>780</v>
@@ -19618,7 +19622,7 @@
         <v>632</v>
       </c>
       <c r="G493" s="20" t="s">
-        <v>1399</v>
+        <v>1407</v>
       </c>
       <c r="H493" s="13" t="s">
         <v>903</v>
@@ -19644,7 +19648,7 @@
         <v>632</v>
       </c>
       <c r="G494" s="20" t="s">
-        <v>1400</v>
+        <v>1236</v>
       </c>
       <c r="H494" s="13" t="s">
         <v>781</v>
@@ -19670,7 +19674,7 @@
         <v>632</v>
       </c>
       <c r="G495" s="20" t="s">
-        <v>1401</v>
+        <v>1237</v>
       </c>
       <c r="H495" s="13" t="s">
         <v>781</v>
@@ -19696,7 +19700,7 @@
         <v>632</v>
       </c>
       <c r="G496" s="20" t="s">
-        <v>1402</v>
+        <v>1408</v>
       </c>
       <c r="H496" s="13" t="s">
         <v>904</v>
@@ -19722,7 +19726,7 @@
         <v>632</v>
       </c>
       <c r="G497" s="20" t="s">
-        <v>1403</v>
+        <v>1238</v>
       </c>
       <c r="H497" s="13" t="s">
         <v>781</v>
@@ -19747,8 +19751,8 @@
       <c r="F498" s="17" t="s">
         <v>632</v>
       </c>
-      <c r="G498" s="20" t="s">
-        <v>1404</v>
+      <c r="G498" s="21" t="s">
+        <v>1239</v>
       </c>
       <c r="H498" s="13" t="s">
         <v>782</v>
@@ -19774,7 +19778,7 @@
         <v>632</v>
       </c>
       <c r="G499" s="21" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
       <c r="H499" s="13" t="s">
         <v>905</v>
@@ -19799,8 +19803,8 @@
       <c r="F500" s="17" t="s">
         <v>632</v>
       </c>
-      <c r="G500" s="21" t="s">
-        <v>1406</v>
+      <c r="G500" s="6" t="s">
+        <v>1240</v>
       </c>
       <c r="H500" s="13" t="s">
         <v>782</v>
@@ -19826,7 +19830,7 @@
         <v>632</v>
       </c>
       <c r="G501" s="6" t="s">
-        <v>1407</v>
+        <v>1241</v>
       </c>
       <c r="H501" s="6" t="s">
         <v>782</v>
@@ -19851,8 +19855,8 @@
       <c r="F502" s="17" t="s">
         <v>632</v>
       </c>
-      <c r="G502" s="6" t="s">
-        <v>1408</v>
+      <c r="G502" s="1" t="s">
+        <v>1410</v>
       </c>
       <c r="H502" s="6" t="s">
         <v>906</v>
@@ -19877,8 +19881,8 @@
       <c r="F503" s="17" t="s">
         <v>632</v>
       </c>
-      <c r="G503" s="1" t="s">
-        <v>1409</v>
+      <c r="G503" s="6" t="s">
+        <v>1242</v>
       </c>
       <c r="H503" s="6" t="s">
         <v>783</v>
@@ -19903,8 +19907,8 @@
       <c r="F504" s="17" t="s">
         <v>632</v>
       </c>
-      <c r="G504" s="6" t="s">
-        <v>1410</v>
+      <c r="G504" s="1" t="s">
+        <v>1243</v>
       </c>
       <c r="H504" s="6" t="s">
         <v>783</v>
